--- a/docs/DOJT｜WBS _ PGコース MVC編.xlsx
+++ b/docs/DOJT｜WBS _ PGコース MVC編.xlsx
@@ -32,6 +32,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -364,7 +365,7 @@
     <numFmt numFmtId="179" formatCode="dd"/>
     <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -447,6 +448,13 @@
       <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1248,6 +1256,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1274,40 +1286,51 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="56" fontId="5" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="5" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1316,27 +1339,12 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1578,35 +1586,35 @@
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="120" t="s">
+      <c r="B2" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="126" t="s">
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="127"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="126" t="s">
+      <c r="G2" s="131"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="127"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="129" t="s">
+      <c r="J2" s="131"/>
+      <c r="K2" s="132"/>
+      <c r="L2" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="129" t="s">
+      <c r="M2" s="133" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="20.25" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="123"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="125"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="129"/>
       <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1625,8 +1633,8 @@
       <c r="K3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="130"/>
-      <c r="M3" s="130"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="134"/>
     </row>
     <row r="4" spans="1:13" ht="20.25" customHeight="1">
       <c r="A4" s="3"/>
@@ -3420,7 +3428,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AG22" sqref="AG22"/>
+      <selection pane="bottomLeft" activeCell="BE30" sqref="BE30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3850,124 +3858,124 @@
       <c r="N4" s="27"/>
       <c r="O4" s="27"/>
       <c r="P4" s="27"/>
-      <c r="Q4" s="142" t="s">
+      <c r="Q4" s="163" t="s">
         <v>63</v>
       </c>
-      <c r="R4" s="127"/>
-      <c r="S4" s="127"/>
-      <c r="T4" s="127"/>
-      <c r="U4" s="127"/>
-      <c r="V4" s="127"/>
-      <c r="W4" s="127"/>
-      <c r="X4" s="127"/>
-      <c r="Y4" s="127"/>
-      <c r="Z4" s="127"/>
-      <c r="AA4" s="127"/>
-      <c r="AB4" s="127"/>
-      <c r="AC4" s="127"/>
-      <c r="AD4" s="127"/>
-      <c r="AE4" s="127"/>
-      <c r="AF4" s="127"/>
-      <c r="AG4" s="127"/>
-      <c r="AH4" s="127"/>
-      <c r="AI4" s="127"/>
-      <c r="AJ4" s="127"/>
-      <c r="AK4" s="127"/>
-      <c r="AL4" s="127"/>
-      <c r="AM4" s="127"/>
-      <c r="AN4" s="127"/>
-      <c r="AO4" s="127"/>
-      <c r="AP4" s="128"/>
-      <c r="AQ4" s="142" t="s">
+      <c r="R4" s="131"/>
+      <c r="S4" s="131"/>
+      <c r="T4" s="131"/>
+      <c r="U4" s="131"/>
+      <c r="V4" s="131"/>
+      <c r="W4" s="131"/>
+      <c r="X4" s="131"/>
+      <c r="Y4" s="131"/>
+      <c r="Z4" s="131"/>
+      <c r="AA4" s="131"/>
+      <c r="AB4" s="131"/>
+      <c r="AC4" s="131"/>
+      <c r="AD4" s="131"/>
+      <c r="AE4" s="131"/>
+      <c r="AF4" s="131"/>
+      <c r="AG4" s="131"/>
+      <c r="AH4" s="131"/>
+      <c r="AI4" s="131"/>
+      <c r="AJ4" s="131"/>
+      <c r="AK4" s="131"/>
+      <c r="AL4" s="131"/>
+      <c r="AM4" s="131"/>
+      <c r="AN4" s="131"/>
+      <c r="AO4" s="131"/>
+      <c r="AP4" s="132"/>
+      <c r="AQ4" s="163" t="s">
         <v>64</v>
       </c>
-      <c r="AR4" s="127"/>
-      <c r="AS4" s="127"/>
-      <c r="AT4" s="127"/>
-      <c r="AU4" s="127"/>
-      <c r="AV4" s="127"/>
-      <c r="AW4" s="127"/>
-      <c r="AX4" s="127"/>
-      <c r="AY4" s="127"/>
-      <c r="AZ4" s="127"/>
-      <c r="BA4" s="127"/>
-      <c r="BB4" s="127"/>
-      <c r="BC4" s="127"/>
-      <c r="BD4" s="127"/>
-      <c r="BE4" s="127"/>
-      <c r="BF4" s="127"/>
-      <c r="BG4" s="127"/>
-      <c r="BH4" s="127"/>
-      <c r="BI4" s="127"/>
-      <c r="BJ4" s="127"/>
-      <c r="BK4" s="127"/>
-      <c r="BL4" s="127"/>
-      <c r="BM4" s="127"/>
-      <c r="BN4" s="127"/>
-      <c r="BO4" s="127"/>
-      <c r="BP4" s="127"/>
-      <c r="BQ4" s="127"/>
-      <c r="BR4" s="127"/>
-      <c r="BS4" s="127"/>
-      <c r="BT4" s="127"/>
-      <c r="BU4" s="128"/>
-      <c r="BV4" s="142" t="s">
+      <c r="AR4" s="131"/>
+      <c r="AS4" s="131"/>
+      <c r="AT4" s="131"/>
+      <c r="AU4" s="131"/>
+      <c r="AV4" s="131"/>
+      <c r="AW4" s="131"/>
+      <c r="AX4" s="131"/>
+      <c r="AY4" s="131"/>
+      <c r="AZ4" s="131"/>
+      <c r="BA4" s="131"/>
+      <c r="BB4" s="131"/>
+      <c r="BC4" s="131"/>
+      <c r="BD4" s="131"/>
+      <c r="BE4" s="131"/>
+      <c r="BF4" s="131"/>
+      <c r="BG4" s="131"/>
+      <c r="BH4" s="131"/>
+      <c r="BI4" s="131"/>
+      <c r="BJ4" s="131"/>
+      <c r="BK4" s="131"/>
+      <c r="BL4" s="131"/>
+      <c r="BM4" s="131"/>
+      <c r="BN4" s="131"/>
+      <c r="BO4" s="131"/>
+      <c r="BP4" s="131"/>
+      <c r="BQ4" s="131"/>
+      <c r="BR4" s="131"/>
+      <c r="BS4" s="131"/>
+      <c r="BT4" s="131"/>
+      <c r="BU4" s="132"/>
+      <c r="BV4" s="163" t="s">
         <v>65</v>
       </c>
-      <c r="BW4" s="127"/>
-      <c r="BX4" s="127"/>
-      <c r="BY4" s="127"/>
-      <c r="BZ4" s="127"/>
-      <c r="CA4" s="127"/>
-      <c r="CB4" s="127"/>
-      <c r="CC4" s="127"/>
-      <c r="CD4" s="127"/>
-      <c r="CE4" s="127"/>
-      <c r="CF4" s="127"/>
-      <c r="CG4" s="127"/>
-      <c r="CH4" s="127"/>
-      <c r="CI4" s="127"/>
-      <c r="CJ4" s="127"/>
-      <c r="CK4" s="127"/>
-      <c r="CL4" s="127"/>
-      <c r="CM4" s="127"/>
-      <c r="CN4" s="127"/>
-      <c r="CO4" s="127"/>
-      <c r="CP4" s="127"/>
-      <c r="CQ4" s="127"/>
-      <c r="CR4" s="127"/>
-      <c r="CS4" s="127"/>
-      <c r="CT4" s="127"/>
-      <c r="CU4" s="127"/>
-      <c r="CV4" s="127"/>
-      <c r="CW4" s="127"/>
-      <c r="CX4" s="127"/>
-      <c r="CY4" s="128"/>
-      <c r="CZ4" s="142" t="s">
+      <c r="BW4" s="131"/>
+      <c r="BX4" s="131"/>
+      <c r="BY4" s="131"/>
+      <c r="BZ4" s="131"/>
+      <c r="CA4" s="131"/>
+      <c r="CB4" s="131"/>
+      <c r="CC4" s="131"/>
+      <c r="CD4" s="131"/>
+      <c r="CE4" s="131"/>
+      <c r="CF4" s="131"/>
+      <c r="CG4" s="131"/>
+      <c r="CH4" s="131"/>
+      <c r="CI4" s="131"/>
+      <c r="CJ4" s="131"/>
+      <c r="CK4" s="131"/>
+      <c r="CL4" s="131"/>
+      <c r="CM4" s="131"/>
+      <c r="CN4" s="131"/>
+      <c r="CO4" s="131"/>
+      <c r="CP4" s="131"/>
+      <c r="CQ4" s="131"/>
+      <c r="CR4" s="131"/>
+      <c r="CS4" s="131"/>
+      <c r="CT4" s="131"/>
+      <c r="CU4" s="131"/>
+      <c r="CV4" s="131"/>
+      <c r="CW4" s="131"/>
+      <c r="CX4" s="131"/>
+      <c r="CY4" s="132"/>
+      <c r="CZ4" s="163" t="s">
         <v>66</v>
       </c>
-      <c r="DA4" s="127"/>
-      <c r="DB4" s="127"/>
-      <c r="DC4" s="127"/>
-      <c r="DD4" s="127"/>
-      <c r="DE4" s="127"/>
-      <c r="DF4" s="127"/>
-      <c r="DG4" s="127"/>
-      <c r="DH4" s="127"/>
-      <c r="DI4" s="127"/>
-      <c r="DJ4" s="127"/>
-      <c r="DK4" s="127"/>
-      <c r="DL4" s="127"/>
-      <c r="DM4" s="127"/>
-      <c r="DN4" s="127"/>
-      <c r="DO4" s="127"/>
-      <c r="DP4" s="127"/>
-      <c r="DQ4" s="127"/>
-      <c r="DR4" s="127"/>
-      <c r="DS4" s="127"/>
-      <c r="DT4" s="127"/>
-      <c r="DU4" s="127"/>
-      <c r="DV4" s="128"/>
+      <c r="DA4" s="131"/>
+      <c r="DB4" s="131"/>
+      <c r="DC4" s="131"/>
+      <c r="DD4" s="131"/>
+      <c r="DE4" s="131"/>
+      <c r="DF4" s="131"/>
+      <c r="DG4" s="131"/>
+      <c r="DH4" s="131"/>
+      <c r="DI4" s="131"/>
+      <c r="DJ4" s="131"/>
+      <c r="DK4" s="131"/>
+      <c r="DL4" s="131"/>
+      <c r="DM4" s="131"/>
+      <c r="DN4" s="131"/>
+      <c r="DO4" s="131"/>
+      <c r="DP4" s="131"/>
+      <c r="DQ4" s="131"/>
+      <c r="DR4" s="131"/>
+      <c r="DS4" s="131"/>
+      <c r="DT4" s="131"/>
+      <c r="DU4" s="131"/>
+      <c r="DV4" s="132"/>
       <c r="DW4" s="34"/>
     </row>
     <row r="5" spans="1:127">
@@ -4780,29 +4788,29 @@
     </row>
     <row r="7" spans="1:127" ht="19.5">
       <c r="A7" s="26"/>
-      <c r="B7" s="143" t="s">
+      <c r="B7" s="164" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="126" t="s">
+      <c r="C7" s="125"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="125"/>
+      <c r="F7" s="125"/>
+      <c r="G7" s="125"/>
+      <c r="H7" s="126"/>
+      <c r="I7" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="127"/>
-      <c r="K7" s="128"/>
-      <c r="L7" s="126" t="s">
+      <c r="J7" s="131"/>
+      <c r="K7" s="132"/>
+      <c r="L7" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="M7" s="127"/>
-      <c r="N7" s="128"/>
-      <c r="O7" s="129" t="s">
+      <c r="M7" s="131"/>
+      <c r="N7" s="132"/>
+      <c r="O7" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="P7" s="129" t="s">
+      <c r="P7" s="133" t="s">
         <v>4</v>
       </c>
       <c r="Q7" s="42"/>
@@ -4919,13 +4927,13 @@
     </row>
     <row r="8" spans="1:127" ht="19.5">
       <c r="A8" s="26"/>
-      <c r="B8" s="123"/>
-      <c r="C8" s="124"/>
-      <c r="D8" s="124"/>
-      <c r="E8" s="124"/>
-      <c r="F8" s="124"/>
-      <c r="G8" s="124"/>
-      <c r="H8" s="125"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="128"/>
+      <c r="D8" s="128"/>
+      <c r="E8" s="128"/>
+      <c r="F8" s="128"/>
+      <c r="G8" s="128"/>
+      <c r="H8" s="129"/>
       <c r="I8" s="2" t="s">
         <v>5</v>
       </c>
@@ -4944,8 +4952,8 @@
       <c r="N8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O8" s="130"/>
-      <c r="P8" s="130"/>
+      <c r="O8" s="134"/>
+      <c r="P8" s="134"/>
       <c r="Q8" s="46"/>
       <c r="R8" s="47"/>
       <c r="S8" s="47"/>
@@ -5061,33 +5069,33 @@
     <row r="9" spans="1:127" ht="12" customHeight="1">
       <c r="A9" s="26"/>
       <c r="B9" s="50"/>
-      <c r="C9" s="145" t="s">
+      <c r="C9" s="157" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="146"/>
-      <c r="E9" s="146"/>
-      <c r="F9" s="146"/>
-      <c r="G9" s="146"/>
-      <c r="H9" s="146"/>
-      <c r="I9" s="148">
+      <c r="D9" s="140"/>
+      <c r="E9" s="140"/>
+      <c r="F9" s="140"/>
+      <c r="G9" s="140"/>
+      <c r="H9" s="140"/>
+      <c r="I9" s="159">
         <v>1</v>
       </c>
-      <c r="J9" s="144">
+      <c r="J9" s="160">
         <f>J11</f>
         <v>45787</v>
       </c>
-      <c r="K9" s="144">
+      <c r="K9" s="160">
         <f>K17</f>
         <v>45787</v>
       </c>
-      <c r="L9" s="148">
+      <c r="L9" s="159">
         <v>1.3</v>
       </c>
-      <c r="M9" s="144">
+      <c r="M9" s="160">
         <f>M11</f>
         <v>45787</v>
       </c>
-      <c r="N9" s="144">
+      <c r="N9" s="160">
         <f>N17</f>
         <v>45790</v>
       </c>
@@ -5210,18 +5218,18 @@
     <row r="10" spans="1:127" ht="12" customHeight="1">
       <c r="A10" s="26"/>
       <c r="B10" s="50"/>
-      <c r="C10" s="147"/>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
-      <c r="F10" s="124"/>
-      <c r="G10" s="124"/>
-      <c r="H10" s="124"/>
-      <c r="I10" s="130"/>
-      <c r="J10" s="125"/>
-      <c r="K10" s="125"/>
-      <c r="L10" s="130"/>
-      <c r="M10" s="125"/>
-      <c r="N10" s="125"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="128"/>
+      <c r="G10" s="128"/>
+      <c r="H10" s="128"/>
+      <c r="I10" s="134"/>
+      <c r="J10" s="129"/>
+      <c r="K10" s="129"/>
+      <c r="L10" s="134"/>
+      <c r="M10" s="129"/>
+      <c r="N10" s="129"/>
       <c r="O10" s="53"/>
       <c r="P10" s="53"/>
       <c r="Q10" s="46"/>
@@ -5340,37 +5348,37 @@
       <c r="A11" s="26"/>
       <c r="B11" s="50"/>
       <c r="C11" s="54"/>
-      <c r="D11" s="150" t="s">
+      <c r="D11" s="161" t="s">
         <v>76</v>
       </c>
-      <c r="E11" s="121"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="149">
+      <c r="E11" s="125"/>
+      <c r="F11" s="125"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="154">
         <v>0.1</v>
       </c>
-      <c r="J11" s="151">
+      <c r="J11" s="162">
         <v>45787</v>
       </c>
-      <c r="K11" s="151">
+      <c r="K11" s="162">
         <f>$J$11</f>
         <v>45787</v>
       </c>
-      <c r="L11" s="149">
+      <c r="L11" s="154">
         <v>0.1</v>
       </c>
-      <c r="M11" s="151">
+      <c r="M11" s="162">
         <v>45787</v>
       </c>
-      <c r="N11" s="151">
+      <c r="N11" s="162">
         <f>$J$11</f>
         <v>45787</v>
       </c>
-      <c r="O11" s="149" t="s">
+      <c r="O11" s="154" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="149">
+      <c r="P11" s="154">
         <v>100</v>
       </c>
       <c r="Q11" s="55"/>
@@ -5489,19 +5497,19 @@
       <c r="A12" s="26"/>
       <c r="B12" s="50"/>
       <c r="C12" s="64"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="124"/>
-      <c r="F12" s="124"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="130"/>
-      <c r="J12" s="130"/>
-      <c r="K12" s="130"/>
-      <c r="L12" s="130"/>
-      <c r="M12" s="130"/>
-      <c r="N12" s="130"/>
-      <c r="O12" s="130"/>
-      <c r="P12" s="130"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="128"/>
+      <c r="F12" s="128"/>
+      <c r="G12" s="128"/>
+      <c r="H12" s="129"/>
+      <c r="I12" s="134"/>
+      <c r="J12" s="134"/>
+      <c r="K12" s="134"/>
+      <c r="L12" s="134"/>
+      <c r="M12" s="134"/>
+      <c r="N12" s="134"/>
+      <c r="O12" s="134"/>
+      <c r="P12" s="134"/>
       <c r="Q12" s="55"/>
       <c r="R12" s="55"/>
       <c r="S12" s="55"/>
@@ -5618,39 +5626,39 @@
       <c r="A13" s="26"/>
       <c r="B13" s="50"/>
       <c r="C13" s="64"/>
-      <c r="D13" s="150" t="s">
+      <c r="D13" s="161" t="s">
         <v>78</v>
       </c>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="149">
+      <c r="E13" s="125"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="154">
         <v>0.1</v>
       </c>
-      <c r="J13" s="151">
+      <c r="J13" s="162">
         <f t="shared" ref="J13:K13" si="1">$J$11</f>
         <v>45787</v>
       </c>
-      <c r="K13" s="151">
+      <c r="K13" s="162">
         <f t="shared" si="1"/>
         <v>45787</v>
       </c>
-      <c r="L13" s="149">
+      <c r="L13" s="154">
         <v>0.1</v>
       </c>
-      <c r="M13" s="151">
+      <c r="M13" s="162">
         <f t="shared" ref="M13:N13" si="2">$J$11</f>
         <v>45787</v>
       </c>
-      <c r="N13" s="151">
+      <c r="N13" s="162">
         <f t="shared" si="2"/>
         <v>45787</v>
       </c>
-      <c r="O13" s="149" t="s">
+      <c r="O13" s="154" t="s">
         <v>77</v>
       </c>
-      <c r="P13" s="149">
+      <c r="P13" s="154">
         <v>100</v>
       </c>
       <c r="Q13" s="55"/>
@@ -5769,19 +5777,19 @@
       <c r="A14" s="26"/>
       <c r="B14" s="50"/>
       <c r="C14" s="64"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="124"/>
-      <c r="F14" s="124"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="130"/>
-      <c r="J14" s="130"/>
-      <c r="K14" s="130"/>
-      <c r="L14" s="130"/>
-      <c r="M14" s="130"/>
-      <c r="N14" s="130"/>
-      <c r="O14" s="130"/>
-      <c r="P14" s="130"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="128"/>
+      <c r="G14" s="128"/>
+      <c r="H14" s="129"/>
+      <c r="I14" s="134"/>
+      <c r="J14" s="134"/>
+      <c r="K14" s="134"/>
+      <c r="L14" s="134"/>
+      <c r="M14" s="134"/>
+      <c r="N14" s="134"/>
+      <c r="O14" s="134"/>
+      <c r="P14" s="134"/>
       <c r="Q14" s="55"/>
       <c r="R14" s="55"/>
       <c r="S14" s="55"/>
@@ -5898,39 +5906,39 @@
       <c r="A15" s="26"/>
       <c r="B15" s="50"/>
       <c r="C15" s="64"/>
-      <c r="D15" s="150" t="s">
+      <c r="D15" s="161" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="121"/>
-      <c r="F15" s="121"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="149">
+      <c r="E15" s="125"/>
+      <c r="F15" s="125"/>
+      <c r="G15" s="125"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="154">
         <v>0.1</v>
       </c>
-      <c r="J15" s="151">
+      <c r="J15" s="162">
         <f t="shared" ref="J15:K15" si="3">$J$11</f>
         <v>45787</v>
       </c>
-      <c r="K15" s="151">
+      <c r="K15" s="162">
         <f t="shared" si="3"/>
         <v>45787</v>
       </c>
-      <c r="L15" s="149">
+      <c r="L15" s="154">
         <v>0.1</v>
       </c>
-      <c r="M15" s="151">
+      <c r="M15" s="162">
         <f t="shared" ref="M15:N15" si="4">$J$11</f>
         <v>45787</v>
       </c>
-      <c r="N15" s="151">
+      <c r="N15" s="162">
         <f t="shared" si="4"/>
         <v>45787</v>
       </c>
-      <c r="O15" s="149" t="s">
+      <c r="O15" s="154" t="s">
         <v>77</v>
       </c>
-      <c r="P15" s="149">
+      <c r="P15" s="154">
         <v>100</v>
       </c>
       <c r="Q15" s="55"/>
@@ -6049,19 +6057,19 @@
       <c r="A16" s="26"/>
       <c r="B16" s="50"/>
       <c r="C16" s="64"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="124"/>
-      <c r="F16" s="124"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="130"/>
-      <c r="K16" s="130"/>
-      <c r="L16" s="130"/>
-      <c r="M16" s="130"/>
-      <c r="N16" s="130"/>
-      <c r="O16" s="130"/>
-      <c r="P16" s="130"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="128"/>
+      <c r="G16" s="128"/>
+      <c r="H16" s="129"/>
+      <c r="I16" s="134"/>
+      <c r="J16" s="134"/>
+      <c r="K16" s="134"/>
+      <c r="L16" s="134"/>
+      <c r="M16" s="134"/>
+      <c r="N16" s="134"/>
+      <c r="O16" s="134"/>
+      <c r="P16" s="134"/>
       <c r="Q16" s="55"/>
       <c r="R16" s="55"/>
       <c r="S16" s="55"/>
@@ -6178,37 +6186,37 @@
       <c r="A17" s="26"/>
       <c r="B17" s="50"/>
       <c r="C17" s="64"/>
-      <c r="D17" s="150" t="s">
+      <c r="D17" s="161" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="121"/>
-      <c r="F17" s="121"/>
-      <c r="G17" s="121"/>
-      <c r="H17" s="122"/>
-      <c r="I17" s="149">
+      <c r="E17" s="125"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="125"/>
+      <c r="H17" s="126"/>
+      <c r="I17" s="154">
         <v>0.7</v>
       </c>
-      <c r="J17" s="151">
+      <c r="J17" s="162">
         <f t="shared" ref="J17:K17" si="5">$J$11</f>
         <v>45787</v>
       </c>
-      <c r="K17" s="151">
+      <c r="K17" s="162">
         <f t="shared" si="5"/>
         <v>45787</v>
       </c>
-      <c r="L17" s="149">
+      <c r="L17" s="154">
         <v>3</v>
       </c>
-      <c r="M17" s="151">
+      <c r="M17" s="162">
         <v>45787</v>
       </c>
-      <c r="N17" s="151">
+      <c r="N17" s="162">
         <v>45790</v>
       </c>
-      <c r="O17" s="149" t="s">
+      <c r="O17" s="154" t="s">
         <v>77</v>
       </c>
-      <c r="P17" s="149">
+      <c r="P17" s="154">
         <v>100</v>
       </c>
       <c r="Q17" s="55"/>
@@ -6327,19 +6335,19 @@
       <c r="A18" s="26"/>
       <c r="B18" s="50"/>
       <c r="C18" s="66"/>
-      <c r="D18" s="123"/>
-      <c r="E18" s="124"/>
-      <c r="F18" s="124"/>
-      <c r="G18" s="124"/>
-      <c r="H18" s="125"/>
-      <c r="I18" s="130"/>
-      <c r="J18" s="130"/>
-      <c r="K18" s="130"/>
-      <c r="L18" s="130"/>
-      <c r="M18" s="130"/>
-      <c r="N18" s="130"/>
-      <c r="O18" s="130"/>
-      <c r="P18" s="130"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="128"/>
+      <c r="G18" s="128"/>
+      <c r="H18" s="129"/>
+      <c r="I18" s="134"/>
+      <c r="J18" s="134"/>
+      <c r="K18" s="134"/>
+      <c r="L18" s="134"/>
+      <c r="M18" s="134"/>
+      <c r="N18" s="134"/>
+      <c r="O18" s="134"/>
+      <c r="P18" s="134"/>
       <c r="Q18" s="67"/>
       <c r="R18" s="67"/>
       <c r="S18" s="67"/>
@@ -6455,24 +6463,24 @@
     <row r="19" spans="1:127" ht="12" customHeight="1">
       <c r="A19" s="26"/>
       <c r="B19" s="50"/>
-      <c r="C19" s="145" t="s">
+      <c r="C19" s="157" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="146"/>
-      <c r="E19" s="146"/>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="148">
+      <c r="D19" s="140"/>
+      <c r="E19" s="140"/>
+      <c r="F19" s="140"/>
+      <c r="G19" s="140"/>
+      <c r="H19" s="140"/>
+      <c r="I19" s="159">
         <v>1</v>
       </c>
-      <c r="J19" s="144">
+      <c r="J19" s="160">
         <v>45790</v>
       </c>
-      <c r="K19" s="144">
+      <c r="K19" s="160">
         <v>45790</v>
       </c>
-      <c r="L19" s="148"/>
+      <c r="L19" s="159"/>
       <c r="M19" s="77"/>
       <c r="N19" s="77"/>
       <c r="O19" s="78"/>
@@ -6592,16 +6600,16 @@
     <row r="20" spans="1:127" ht="12" customHeight="1">
       <c r="A20" s="26"/>
       <c r="B20" s="50"/>
-      <c r="C20" s="153"/>
-      <c r="D20" s="136"/>
-      <c r="E20" s="136"/>
-      <c r="F20" s="136"/>
-      <c r="G20" s="136"/>
-      <c r="H20" s="136"/>
-      <c r="I20" s="130"/>
-      <c r="J20" s="125"/>
-      <c r="K20" s="125"/>
-      <c r="L20" s="130"/>
+      <c r="C20" s="158"/>
+      <c r="D20" s="147"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="134"/>
+      <c r="J20" s="129"/>
+      <c r="K20" s="129"/>
+      <c r="L20" s="134"/>
       <c r="M20" s="77"/>
       <c r="N20" s="77"/>
       <c r="O20" s="78"/>
@@ -6722,35 +6730,35 @@
       <c r="A21" s="26"/>
       <c r="B21" s="50"/>
       <c r="C21" s="54"/>
-      <c r="D21" s="150" t="s">
+      <c r="D21" s="161" t="s">
         <v>81</v>
       </c>
-      <c r="E21" s="121"/>
-      <c r="F21" s="121"/>
-      <c r="G21" s="121"/>
-      <c r="H21" s="122"/>
-      <c r="I21" s="149">
+      <c r="E21" s="125"/>
+      <c r="F21" s="125"/>
+      <c r="G21" s="125"/>
+      <c r="H21" s="126"/>
+      <c r="I21" s="154">
         <v>1</v>
       </c>
-      <c r="J21" s="152">
+      <c r="J21" s="156">
         <v>45790</v>
       </c>
-      <c r="K21" s="152">
+      <c r="K21" s="156">
         <v>45790</v>
       </c>
-      <c r="L21" s="149">
+      <c r="L21" s="154">
         <v>5.5</v>
       </c>
-      <c r="M21" s="152">
+      <c r="M21" s="156">
         <v>45790</v>
       </c>
-      <c r="N21" s="152">
+      <c r="N21" s="156">
         <v>45790</v>
       </c>
-      <c r="O21" s="149" t="s">
+      <c r="O21" s="154" t="s">
         <v>77</v>
       </c>
-      <c r="P21" s="149">
+      <c r="P21" s="154">
         <v>100</v>
       </c>
       <c r="Q21" s="55"/>
@@ -6869,19 +6877,19 @@
       <c r="A22" s="26"/>
       <c r="B22" s="50"/>
       <c r="C22" s="64"/>
-      <c r="D22" s="123"/>
-      <c r="E22" s="124"/>
-      <c r="F22" s="124"/>
-      <c r="G22" s="124"/>
-      <c r="H22" s="125"/>
-      <c r="I22" s="130"/>
-      <c r="J22" s="130"/>
-      <c r="K22" s="130"/>
-      <c r="L22" s="130"/>
-      <c r="M22" s="130"/>
-      <c r="N22" s="130"/>
-      <c r="O22" s="130"/>
-      <c r="P22" s="130"/>
+      <c r="D22" s="127"/>
+      <c r="E22" s="128"/>
+      <c r="F22" s="128"/>
+      <c r="G22" s="128"/>
+      <c r="H22" s="129"/>
+      <c r="I22" s="134"/>
+      <c r="J22" s="134"/>
+      <c r="K22" s="134"/>
+      <c r="L22" s="134"/>
+      <c r="M22" s="134"/>
+      <c r="N22" s="134"/>
+      <c r="O22" s="134"/>
+      <c r="P22" s="134"/>
       <c r="Q22" s="85"/>
       <c r="R22" s="86"/>
       <c r="S22" s="86"/>
@@ -6997,24 +7005,24 @@
     <row r="23" spans="1:127" ht="12" customHeight="1">
       <c r="A23" s="26"/>
       <c r="B23" s="95"/>
-      <c r="C23" s="154" t="s">
+      <c r="C23" s="155" t="s">
         <v>82</v>
       </c>
-      <c r="D23" s="146"/>
-      <c r="E23" s="146"/>
-      <c r="F23" s="146"/>
-      <c r="G23" s="146"/>
-      <c r="H23" s="146"/>
-      <c r="I23" s="155">
+      <c r="D23" s="140"/>
+      <c r="E23" s="140"/>
+      <c r="F23" s="140"/>
+      <c r="G23" s="140"/>
+      <c r="H23" s="140"/>
+      <c r="I23" s="142">
         <v>10</v>
       </c>
-      <c r="J23" s="139">
+      <c r="J23" s="138">
         <v>45791</v>
       </c>
-      <c r="K23" s="139">
+      <c r="K23" s="138">
         <v>45792</v>
       </c>
-      <c r="L23" s="140"/>
+      <c r="L23" s="143"/>
       <c r="M23" s="96"/>
       <c r="N23" s="96"/>
       <c r="O23" s="97"/>
@@ -7134,16 +7142,16 @@
     <row r="24" spans="1:127" ht="12" customHeight="1">
       <c r="A24" s="26"/>
       <c r="B24" s="95"/>
-      <c r="C24" s="147"/>
-      <c r="D24" s="124"/>
-      <c r="E24" s="124"/>
-      <c r="F24" s="124"/>
-      <c r="G24" s="124"/>
-      <c r="H24" s="124"/>
-      <c r="I24" s="130"/>
-      <c r="J24" s="125"/>
-      <c r="K24" s="125"/>
-      <c r="L24" s="130"/>
+      <c r="C24" s="141"/>
+      <c r="D24" s="128"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="128"/>
+      <c r="G24" s="128"/>
+      <c r="H24" s="128"/>
+      <c r="I24" s="134"/>
+      <c r="J24" s="129"/>
+      <c r="K24" s="129"/>
+      <c r="L24" s="134"/>
       <c r="M24" s="101"/>
       <c r="N24" s="101"/>
       <c r="O24" s="102"/>
@@ -7264,35 +7272,35 @@
       <c r="A25" s="26"/>
       <c r="B25" s="95"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="156" t="s">
+      <c r="D25" s="150" t="s">
         <v>83</v>
       </c>
-      <c r="E25" s="121"/>
-      <c r="F25" s="121"/>
-      <c r="G25" s="121"/>
-      <c r="H25" s="122"/>
-      <c r="I25" s="133">
+      <c r="E25" s="125"/>
+      <c r="F25" s="125"/>
+      <c r="G25" s="125"/>
+      <c r="H25" s="126"/>
+      <c r="I25" s="137">
         <v>4</v>
       </c>
-      <c r="J25" s="131">
+      <c r="J25" s="135">
         <v>45791</v>
       </c>
-      <c r="K25" s="131">
+      <c r="K25" s="135">
         <v>45791</v>
       </c>
-      <c r="L25" s="133">
+      <c r="L25" s="137">
         <v>7</v>
       </c>
-      <c r="M25" s="131">
+      <c r="M25" s="135">
         <v>45791</v>
       </c>
-      <c r="N25" s="131">
+      <c r="N25" s="135">
         <v>45791</v>
       </c>
-      <c r="O25" s="133" t="s">
+      <c r="O25" s="137" t="s">
         <v>77</v>
       </c>
-      <c r="P25" s="149">
+      <c r="P25" s="154">
         <v>100</v>
       </c>
       <c r="Q25" s="55"/>
@@ -7411,19 +7419,19 @@
       <c r="A26" s="26"/>
       <c r="B26" s="95"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="123"/>
-      <c r="E26" s="124"/>
-      <c r="F26" s="124"/>
-      <c r="G26" s="124"/>
-      <c r="H26" s="125"/>
-      <c r="I26" s="130"/>
-      <c r="J26" s="130"/>
-      <c r="K26" s="130"/>
-      <c r="L26" s="130"/>
-      <c r="M26" s="130"/>
-      <c r="N26" s="130"/>
-      <c r="O26" s="130"/>
-      <c r="P26" s="130"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="128"/>
+      <c r="G26" s="128"/>
+      <c r="H26" s="129"/>
+      <c r="I26" s="134"/>
+      <c r="J26" s="134"/>
+      <c r="K26" s="134"/>
+      <c r="L26" s="134"/>
+      <c r="M26" s="134"/>
+      <c r="N26" s="134"/>
+      <c r="O26" s="134"/>
+      <c r="P26" s="134"/>
       <c r="Q26" s="55"/>
       <c r="R26" s="56"/>
       <c r="S26" s="56"/>
@@ -7463,7 +7471,7 @@
       <c r="BA26" s="56"/>
       <c r="BB26" s="56"/>
       <c r="BC26" s="56"/>
-      <c r="BD26" s="163"/>
+      <c r="BD26" s="122"/>
       <c r="BE26" s="58"/>
       <c r="BF26" s="58"/>
       <c r="BG26" s="59"/>
@@ -7540,35 +7548,35 @@
       <c r="A27" s="26"/>
       <c r="B27" s="95"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="156" t="s">
+      <c r="D27" s="150" t="s">
         <v>84</v>
       </c>
-      <c r="E27" s="121"/>
-      <c r="F27" s="121"/>
-      <c r="G27" s="121"/>
-      <c r="H27" s="122"/>
-      <c r="I27" s="133">
+      <c r="E27" s="125"/>
+      <c r="F27" s="125"/>
+      <c r="G27" s="125"/>
+      <c r="H27" s="126"/>
+      <c r="I27" s="137">
         <v>6</v>
       </c>
-      <c r="J27" s="157">
+      <c r="J27" s="151">
         <v>45791</v>
       </c>
-      <c r="K27" s="131">
+      <c r="K27" s="135">
         <v>45792</v>
       </c>
-      <c r="L27" s="133">
+      <c r="L27" s="137">
         <v>3</v>
       </c>
-      <c r="M27" s="131">
+      <c r="M27" s="135">
         <v>45792</v>
       </c>
-      <c r="N27" s="131">
+      <c r="N27" s="135">
         <v>45792</v>
       </c>
-      <c r="O27" s="133" t="s">
+      <c r="O27" s="137" t="s">
         <v>77</v>
       </c>
-      <c r="P27" s="133">
+      <c r="P27" s="137">
         <v>100</v>
       </c>
       <c r="Q27" s="55"/>
@@ -7687,19 +7695,19 @@
       <c r="A28" s="26"/>
       <c r="B28" s="95"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="123"/>
-      <c r="E28" s="124"/>
-      <c r="F28" s="124"/>
-      <c r="G28" s="124"/>
-      <c r="H28" s="125"/>
-      <c r="I28" s="130"/>
-      <c r="J28" s="130"/>
-      <c r="K28" s="130"/>
-      <c r="L28" s="130"/>
-      <c r="M28" s="130"/>
-      <c r="N28" s="130"/>
-      <c r="O28" s="130"/>
-      <c r="P28" s="130"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="128"/>
+      <c r="G28" s="128"/>
+      <c r="H28" s="129"/>
+      <c r="I28" s="134"/>
+      <c r="J28" s="134"/>
+      <c r="K28" s="134"/>
+      <c r="L28" s="134"/>
+      <c r="M28" s="134"/>
+      <c r="N28" s="134"/>
+      <c r="O28" s="134"/>
+      <c r="P28" s="134"/>
       <c r="Q28" s="67"/>
       <c r="R28" s="69"/>
       <c r="S28" s="69"/>
@@ -7739,8 +7747,8 @@
       <c r="BA28" s="69"/>
       <c r="BB28" s="69"/>
       <c r="BC28" s="69"/>
-      <c r="BD28" s="162"/>
-      <c r="BE28" s="161"/>
+      <c r="BD28" s="121"/>
+      <c r="BE28" s="120"/>
       <c r="BF28" s="71"/>
       <c r="BG28" s="72"/>
       <c r="BH28" s="72"/>
@@ -7816,35 +7824,35 @@
       <c r="A29" s="26"/>
       <c r="B29" s="95"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="156" t="s">
+      <c r="D29" s="150" t="s">
         <v>85</v>
       </c>
-      <c r="E29" s="121"/>
-      <c r="F29" s="121"/>
-      <c r="G29" s="121"/>
-      <c r="H29" s="122"/>
-      <c r="I29" s="133">
+      <c r="E29" s="125"/>
+      <c r="F29" s="125"/>
+      <c r="G29" s="125"/>
+      <c r="H29" s="126"/>
+      <c r="I29" s="137">
         <v>4</v>
       </c>
-      <c r="J29" s="131">
+      <c r="J29" s="135">
         <v>45792</v>
       </c>
-      <c r="K29" s="157">
+      <c r="K29" s="151">
         <v>45792</v>
       </c>
-      <c r="L29" s="159">
+      <c r="L29" s="152">
         <v>3</v>
       </c>
-      <c r="M29" s="131">
+      <c r="M29" s="135">
         <v>45792</v>
       </c>
-      <c r="N29" s="131">
+      <c r="N29" s="135">
         <v>45792</v>
       </c>
-      <c r="O29" s="133" t="s">
+      <c r="O29" s="137" t="s">
         <v>77</v>
       </c>
-      <c r="P29" s="133">
+      <c r="P29" s="137">
         <v>100</v>
       </c>
       <c r="Q29" s="55"/>
@@ -7963,19 +7971,19 @@
       <c r="A30" s="26"/>
       <c r="B30" s="95"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="123"/>
-      <c r="E30" s="124"/>
-      <c r="F30" s="124"/>
-      <c r="G30" s="124"/>
-      <c r="H30" s="125"/>
-      <c r="I30" s="130"/>
-      <c r="J30" s="130"/>
-      <c r="K30" s="130"/>
-      <c r="L30" s="160"/>
-      <c r="M30" s="130"/>
-      <c r="N30" s="130"/>
-      <c r="O30" s="130"/>
-      <c r="P30" s="130"/>
+      <c r="D30" s="127"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="128"/>
+      <c r="G30" s="128"/>
+      <c r="H30" s="129"/>
+      <c r="I30" s="134"/>
+      <c r="J30" s="134"/>
+      <c r="K30" s="134"/>
+      <c r="L30" s="153"/>
+      <c r="M30" s="134"/>
+      <c r="N30" s="134"/>
+      <c r="O30" s="134"/>
+      <c r="P30" s="134"/>
       <c r="Q30" s="55"/>
       <c r="R30" s="56"/>
       <c r="S30" s="56"/>
@@ -8016,7 +8024,7 @@
       <c r="BB30" s="56"/>
       <c r="BC30" s="56"/>
       <c r="BD30" s="56"/>
-      <c r="BE30" s="164"/>
+      <c r="BE30" s="123"/>
       <c r="BF30" s="58"/>
       <c r="BG30" s="59"/>
       <c r="BH30" s="59"/>
@@ -8091,24 +8099,24 @@
     <row r="31" spans="1:127" ht="12" customHeight="1">
       <c r="A31" s="26"/>
       <c r="B31" s="103"/>
-      <c r="C31" s="158" t="s">
+      <c r="C31" s="139" t="s">
         <v>86</v>
       </c>
-      <c r="D31" s="146"/>
-      <c r="E31" s="146"/>
-      <c r="F31" s="146"/>
-      <c r="G31" s="146"/>
-      <c r="H31" s="146"/>
-      <c r="I31" s="155">
+      <c r="D31" s="140"/>
+      <c r="E31" s="140"/>
+      <c r="F31" s="140"/>
+      <c r="G31" s="140"/>
+      <c r="H31" s="140"/>
+      <c r="I31" s="142">
         <v>32</v>
       </c>
-      <c r="J31" s="139">
+      <c r="J31" s="138">
         <v>45793</v>
       </c>
-      <c r="K31" s="139">
+      <c r="K31" s="138">
         <v>45798</v>
       </c>
-      <c r="L31" s="140"/>
+      <c r="L31" s="143"/>
       <c r="M31" s="104"/>
       <c r="N31" s="104"/>
       <c r="O31" s="105"/>
@@ -8228,16 +8236,16 @@
     <row r="32" spans="1:127" ht="12" customHeight="1">
       <c r="A32" s="26"/>
       <c r="B32" s="103"/>
-      <c r="C32" s="147"/>
-      <c r="D32" s="124"/>
-      <c r="E32" s="124"/>
-      <c r="F32" s="124"/>
-      <c r="G32" s="124"/>
-      <c r="H32" s="124"/>
-      <c r="I32" s="130"/>
-      <c r="J32" s="125"/>
-      <c r="K32" s="125"/>
-      <c r="L32" s="130"/>
+      <c r="C32" s="141"/>
+      <c r="D32" s="128"/>
+      <c r="E32" s="128"/>
+      <c r="F32" s="128"/>
+      <c r="G32" s="128"/>
+      <c r="H32" s="128"/>
+      <c r="I32" s="134"/>
+      <c r="J32" s="129"/>
+      <c r="K32" s="129"/>
+      <c r="L32" s="134"/>
       <c r="M32" s="106"/>
       <c r="N32" s="106"/>
       <c r="O32" s="107"/>
@@ -8358,23 +8366,23 @@
       <c r="A33" s="26"/>
       <c r="B33" s="103"/>
       <c r="C33" s="108"/>
-      <c r="D33" s="134" t="s">
+      <c r="D33" s="149" t="s">
         <v>87</v>
       </c>
-      <c r="E33" s="121"/>
-      <c r="F33" s="121"/>
-      <c r="G33" s="121"/>
-      <c r="H33" s="122"/>
-      <c r="I33" s="138">
+      <c r="E33" s="125"/>
+      <c r="F33" s="125"/>
+      <c r="G33" s="125"/>
+      <c r="H33" s="126"/>
+      <c r="I33" s="144">
         <v>8</v>
       </c>
-      <c r="J33" s="139">
+      <c r="J33" s="138">
         <v>45793</v>
       </c>
-      <c r="K33" s="139">
+      <c r="K33" s="138">
         <v>45793</v>
       </c>
-      <c r="L33" s="140"/>
+      <c r="L33" s="143"/>
       <c r="M33" s="104"/>
       <c r="N33" s="104"/>
       <c r="O33" s="105"/>
@@ -8495,15 +8503,15 @@
       <c r="A34" s="26"/>
       <c r="B34" s="103"/>
       <c r="C34" s="109"/>
-      <c r="D34" s="123"/>
-      <c r="E34" s="124"/>
-      <c r="F34" s="124"/>
-      <c r="G34" s="124"/>
-      <c r="H34" s="125"/>
-      <c r="I34" s="125"/>
-      <c r="J34" s="125"/>
-      <c r="K34" s="125"/>
-      <c r="L34" s="130"/>
+      <c r="D34" s="127"/>
+      <c r="E34" s="128"/>
+      <c r="F34" s="128"/>
+      <c r="G34" s="128"/>
+      <c r="H34" s="129"/>
+      <c r="I34" s="129"/>
+      <c r="J34" s="129"/>
+      <c r="K34" s="129"/>
+      <c r="L34" s="134"/>
       <c r="M34" s="106"/>
       <c r="N34" s="106"/>
       <c r="O34" s="107"/>
@@ -8625,26 +8633,26 @@
       <c r="B35" s="103"/>
       <c r="C35" s="26"/>
       <c r="D35" s="110"/>
-      <c r="E35" s="135" t="s">
+      <c r="E35" s="146" t="s">
         <v>88</v>
       </c>
-      <c r="F35" s="136"/>
-      <c r="G35" s="136"/>
-      <c r="H35" s="136"/>
-      <c r="I35" s="133">
+      <c r="F35" s="147"/>
+      <c r="G35" s="147"/>
+      <c r="H35" s="147"/>
+      <c r="I35" s="137">
         <v>1</v>
       </c>
-      <c r="J35" s="131">
+      <c r="J35" s="135">
         <v>45793</v>
       </c>
-      <c r="K35" s="131">
+      <c r="K35" s="135">
         <v>45793</v>
       </c>
-      <c r="L35" s="132"/>
-      <c r="M35" s="131"/>
-      <c r="N35" s="131"/>
-      <c r="O35" s="132"/>
-      <c r="P35" s="133">
+      <c r="L35" s="136"/>
+      <c r="M35" s="135"/>
+      <c r="N35" s="135"/>
+      <c r="O35" s="136"/>
+      <c r="P35" s="137">
         <v>0</v>
       </c>
       <c r="Q35" s="55"/>
@@ -8764,18 +8772,18 @@
       <c r="B36" s="103"/>
       <c r="C36" s="26"/>
       <c r="D36" s="103"/>
-      <c r="E36" s="124"/>
-      <c r="F36" s="124"/>
-      <c r="G36" s="124"/>
-      <c r="H36" s="124"/>
-      <c r="I36" s="130"/>
-      <c r="J36" s="130"/>
-      <c r="K36" s="130"/>
-      <c r="L36" s="130"/>
-      <c r="M36" s="130"/>
-      <c r="N36" s="130"/>
-      <c r="O36" s="130"/>
-      <c r="P36" s="130"/>
+      <c r="E36" s="128"/>
+      <c r="F36" s="128"/>
+      <c r="G36" s="128"/>
+      <c r="H36" s="128"/>
+      <c r="I36" s="134"/>
+      <c r="J36" s="134"/>
+      <c r="K36" s="134"/>
+      <c r="L36" s="134"/>
+      <c r="M36" s="134"/>
+      <c r="N36" s="134"/>
+      <c r="O36" s="134"/>
+      <c r="P36" s="134"/>
       <c r="Q36" s="55"/>
       <c r="R36" s="56"/>
       <c r="S36" s="56"/>
@@ -8893,26 +8901,26 @@
       <c r="B37" s="103"/>
       <c r="C37" s="26"/>
       <c r="D37" s="103"/>
-      <c r="E37" s="135" t="s">
+      <c r="E37" s="146" t="s">
         <v>89</v>
       </c>
-      <c r="F37" s="136"/>
-      <c r="G37" s="136"/>
-      <c r="H37" s="136"/>
-      <c r="I37" s="133">
+      <c r="F37" s="147"/>
+      <c r="G37" s="147"/>
+      <c r="H37" s="147"/>
+      <c r="I37" s="137">
         <v>4</v>
       </c>
-      <c r="J37" s="131">
+      <c r="J37" s="135">
         <v>45793</v>
       </c>
-      <c r="K37" s="131">
+      <c r="K37" s="135">
         <v>45793</v>
       </c>
-      <c r="L37" s="132"/>
-      <c r="M37" s="131"/>
-      <c r="N37" s="131"/>
-      <c r="O37" s="132"/>
-      <c r="P37" s="133">
+      <c r="L37" s="136"/>
+      <c r="M37" s="135"/>
+      <c r="N37" s="135"/>
+      <c r="O37" s="136"/>
+      <c r="P37" s="137">
         <v>0</v>
       </c>
       <c r="Q37" s="55"/>
@@ -9032,18 +9040,18 @@
       <c r="B38" s="103"/>
       <c r="C38" s="26"/>
       <c r="D38" s="103"/>
-      <c r="E38" s="124"/>
-      <c r="F38" s="124"/>
-      <c r="G38" s="124"/>
-      <c r="H38" s="124"/>
-      <c r="I38" s="130"/>
-      <c r="J38" s="130"/>
-      <c r="K38" s="130"/>
-      <c r="L38" s="130"/>
-      <c r="M38" s="130"/>
-      <c r="N38" s="130"/>
-      <c r="O38" s="130"/>
-      <c r="P38" s="130"/>
+      <c r="E38" s="128"/>
+      <c r="F38" s="128"/>
+      <c r="G38" s="128"/>
+      <c r="H38" s="128"/>
+      <c r="I38" s="134"/>
+      <c r="J38" s="134"/>
+      <c r="K38" s="134"/>
+      <c r="L38" s="134"/>
+      <c r="M38" s="134"/>
+      <c r="N38" s="134"/>
+      <c r="O38" s="134"/>
+      <c r="P38" s="134"/>
       <c r="Q38" s="55"/>
       <c r="R38" s="56"/>
       <c r="S38" s="56"/>
@@ -9161,26 +9169,26 @@
       <c r="B39" s="103"/>
       <c r="C39" s="26"/>
       <c r="D39" s="103"/>
-      <c r="E39" s="137" t="s">
+      <c r="E39" s="145" t="s">
         <v>90</v>
       </c>
-      <c r="F39" s="121"/>
-      <c r="G39" s="121"/>
-      <c r="H39" s="122"/>
-      <c r="I39" s="133">
+      <c r="F39" s="125"/>
+      <c r="G39" s="125"/>
+      <c r="H39" s="126"/>
+      <c r="I39" s="137">
         <v>3</v>
       </c>
-      <c r="J39" s="131">
+      <c r="J39" s="135">
         <v>45793</v>
       </c>
-      <c r="K39" s="131">
+      <c r="K39" s="135">
         <v>45793</v>
       </c>
-      <c r="L39" s="132"/>
-      <c r="M39" s="131"/>
-      <c r="N39" s="131"/>
-      <c r="O39" s="132"/>
-      <c r="P39" s="133">
+      <c r="L39" s="136"/>
+      <c r="M39" s="135"/>
+      <c r="N39" s="135"/>
+      <c r="O39" s="136"/>
+      <c r="P39" s="137">
         <v>0</v>
       </c>
       <c r="Q39" s="55"/>
@@ -9300,18 +9308,18 @@
       <c r="B40" s="103"/>
       <c r="C40" s="26"/>
       <c r="D40" s="111"/>
-      <c r="E40" s="124"/>
-      <c r="F40" s="124"/>
-      <c r="G40" s="124"/>
-      <c r="H40" s="125"/>
-      <c r="I40" s="130"/>
-      <c r="J40" s="130"/>
-      <c r="K40" s="130"/>
-      <c r="L40" s="130"/>
-      <c r="M40" s="130"/>
-      <c r="N40" s="130"/>
-      <c r="O40" s="130"/>
-      <c r="P40" s="130"/>
+      <c r="E40" s="128"/>
+      <c r="F40" s="128"/>
+      <c r="G40" s="128"/>
+      <c r="H40" s="129"/>
+      <c r="I40" s="134"/>
+      <c r="J40" s="134"/>
+      <c r="K40" s="134"/>
+      <c r="L40" s="134"/>
+      <c r="M40" s="134"/>
+      <c r="N40" s="134"/>
+      <c r="O40" s="134"/>
+      <c r="P40" s="134"/>
       <c r="Q40" s="67"/>
       <c r="R40" s="69"/>
       <c r="S40" s="69"/>
@@ -9428,23 +9436,23 @@
       <c r="A41" s="26"/>
       <c r="B41" s="103"/>
       <c r="C41" s="26"/>
-      <c r="D41" s="134" t="s">
+      <c r="D41" s="149" t="s">
         <v>91</v>
       </c>
-      <c r="E41" s="121"/>
-      <c r="F41" s="121"/>
-      <c r="G41" s="121"/>
-      <c r="H41" s="122"/>
-      <c r="I41" s="138">
+      <c r="E41" s="125"/>
+      <c r="F41" s="125"/>
+      <c r="G41" s="125"/>
+      <c r="H41" s="126"/>
+      <c r="I41" s="144">
         <v>16</v>
       </c>
-      <c r="J41" s="139">
+      <c r="J41" s="138">
         <v>45796</v>
       </c>
-      <c r="K41" s="139">
+      <c r="K41" s="138">
         <v>45797</v>
       </c>
-      <c r="L41" s="140"/>
+      <c r="L41" s="143"/>
       <c r="M41" s="104"/>
       <c r="N41" s="104"/>
       <c r="O41" s="105"/>
@@ -9565,15 +9573,15 @@
       <c r="A42" s="26"/>
       <c r="B42" s="103"/>
       <c r="C42" s="26"/>
-      <c r="D42" s="123"/>
-      <c r="E42" s="124"/>
-      <c r="F42" s="124"/>
-      <c r="G42" s="124"/>
-      <c r="H42" s="125"/>
-      <c r="I42" s="125"/>
-      <c r="J42" s="125"/>
-      <c r="K42" s="125"/>
-      <c r="L42" s="130"/>
+      <c r="D42" s="127"/>
+      <c r="E42" s="128"/>
+      <c r="F42" s="128"/>
+      <c r="G42" s="128"/>
+      <c r="H42" s="129"/>
+      <c r="I42" s="129"/>
+      <c r="J42" s="129"/>
+      <c r="K42" s="129"/>
+      <c r="L42" s="134"/>
       <c r="M42" s="106"/>
       <c r="N42" s="106"/>
       <c r="O42" s="107"/>
@@ -9695,26 +9703,26 @@
       <c r="B43" s="103"/>
       <c r="C43" s="26"/>
       <c r="D43" s="110"/>
-      <c r="E43" s="135" t="s">
+      <c r="E43" s="146" t="s">
         <v>92</v>
       </c>
-      <c r="F43" s="136"/>
-      <c r="G43" s="136"/>
-      <c r="H43" s="136"/>
-      <c r="I43" s="133">
+      <c r="F43" s="147"/>
+      <c r="G43" s="147"/>
+      <c r="H43" s="147"/>
+      <c r="I43" s="137">
         <v>2</v>
       </c>
-      <c r="J43" s="131">
+      <c r="J43" s="135">
         <v>45796</v>
       </c>
-      <c r="K43" s="131">
+      <c r="K43" s="135">
         <v>45796</v>
       </c>
-      <c r="L43" s="132"/>
-      <c r="M43" s="131"/>
-      <c r="N43" s="131"/>
-      <c r="O43" s="132"/>
-      <c r="P43" s="133">
+      <c r="L43" s="136"/>
+      <c r="M43" s="135"/>
+      <c r="N43" s="135"/>
+      <c r="O43" s="136"/>
+      <c r="P43" s="137">
         <v>0</v>
       </c>
       <c r="Q43" s="55"/>
@@ -9834,18 +9842,18 @@
       <c r="B44" s="103"/>
       <c r="C44" s="26"/>
       <c r="D44" s="103"/>
-      <c r="E44" s="124"/>
-      <c r="F44" s="124"/>
-      <c r="G44" s="124"/>
-      <c r="H44" s="124"/>
-      <c r="I44" s="130"/>
-      <c r="J44" s="130"/>
-      <c r="K44" s="130"/>
-      <c r="L44" s="130"/>
-      <c r="M44" s="130"/>
-      <c r="N44" s="130"/>
-      <c r="O44" s="130"/>
-      <c r="P44" s="130"/>
+      <c r="E44" s="128"/>
+      <c r="F44" s="128"/>
+      <c r="G44" s="128"/>
+      <c r="H44" s="128"/>
+      <c r="I44" s="134"/>
+      <c r="J44" s="134"/>
+      <c r="K44" s="134"/>
+      <c r="L44" s="134"/>
+      <c r="M44" s="134"/>
+      <c r="N44" s="134"/>
+      <c r="O44" s="134"/>
+      <c r="P44" s="134"/>
       <c r="Q44" s="55"/>
       <c r="R44" s="56"/>
       <c r="S44" s="56"/>
@@ -9963,26 +9971,26 @@
       <c r="B45" s="103"/>
       <c r="C45" s="26"/>
       <c r="D45" s="103"/>
-      <c r="E45" s="135" t="s">
+      <c r="E45" s="146" t="s">
         <v>93</v>
       </c>
-      <c r="F45" s="136"/>
-      <c r="G45" s="136"/>
-      <c r="H45" s="136"/>
-      <c r="I45" s="133">
+      <c r="F45" s="147"/>
+      <c r="G45" s="147"/>
+      <c r="H45" s="147"/>
+      <c r="I45" s="137">
         <v>14</v>
       </c>
-      <c r="J45" s="131">
+      <c r="J45" s="135">
         <v>45796</v>
       </c>
-      <c r="K45" s="141">
+      <c r="K45" s="148">
         <v>45797</v>
       </c>
-      <c r="L45" s="132"/>
-      <c r="M45" s="131"/>
-      <c r="N45" s="131"/>
-      <c r="O45" s="132"/>
-      <c r="P45" s="133">
+      <c r="L45" s="136"/>
+      <c r="M45" s="135"/>
+      <c r="N45" s="135"/>
+      <c r="O45" s="136"/>
+      <c r="P45" s="137">
         <v>0</v>
       </c>
       <c r="Q45" s="55"/>
@@ -10102,18 +10110,18 @@
       <c r="B46" s="103"/>
       <c r="C46" s="26"/>
       <c r="D46" s="103"/>
-      <c r="E46" s="124"/>
-      <c r="F46" s="124"/>
-      <c r="G46" s="124"/>
-      <c r="H46" s="124"/>
-      <c r="I46" s="130"/>
-      <c r="J46" s="130"/>
-      <c r="K46" s="125"/>
-      <c r="L46" s="130"/>
-      <c r="M46" s="130"/>
-      <c r="N46" s="130"/>
-      <c r="O46" s="130"/>
-      <c r="P46" s="130"/>
+      <c r="E46" s="128"/>
+      <c r="F46" s="128"/>
+      <c r="G46" s="128"/>
+      <c r="H46" s="128"/>
+      <c r="I46" s="134"/>
+      <c r="J46" s="134"/>
+      <c r="K46" s="129"/>
+      <c r="L46" s="134"/>
+      <c r="M46" s="134"/>
+      <c r="N46" s="134"/>
+      <c r="O46" s="134"/>
+      <c r="P46" s="134"/>
       <c r="Q46" s="55"/>
       <c r="R46" s="56"/>
       <c r="S46" s="56"/>
@@ -10231,18 +10239,18 @@
       <c r="B47" s="103"/>
       <c r="C47" s="26"/>
       <c r="D47" s="103"/>
-      <c r="E47" s="137"/>
-      <c r="F47" s="121"/>
-      <c r="G47" s="121"/>
-      <c r="H47" s="122"/>
-      <c r="I47" s="133"/>
-      <c r="J47" s="131"/>
-      <c r="K47" s="131"/>
-      <c r="L47" s="132"/>
-      <c r="M47" s="131"/>
-      <c r="N47" s="131"/>
-      <c r="O47" s="132"/>
-      <c r="P47" s="133">
+      <c r="E47" s="145"/>
+      <c r="F47" s="125"/>
+      <c r="G47" s="125"/>
+      <c r="H47" s="126"/>
+      <c r="I47" s="137"/>
+      <c r="J47" s="135"/>
+      <c r="K47" s="135"/>
+      <c r="L47" s="136"/>
+      <c r="M47" s="135"/>
+      <c r="N47" s="135"/>
+      <c r="O47" s="136"/>
+      <c r="P47" s="137">
         <v>0</v>
       </c>
       <c r="Q47" s="55"/>
@@ -10362,18 +10370,18 @@
       <c r="B48" s="103"/>
       <c r="C48" s="26"/>
       <c r="D48" s="111"/>
-      <c r="E48" s="124"/>
-      <c r="F48" s="124"/>
-      <c r="G48" s="124"/>
-      <c r="H48" s="125"/>
-      <c r="I48" s="130"/>
-      <c r="J48" s="130"/>
-      <c r="K48" s="130"/>
-      <c r="L48" s="130"/>
-      <c r="M48" s="130"/>
-      <c r="N48" s="130"/>
-      <c r="O48" s="130"/>
-      <c r="P48" s="130"/>
+      <c r="E48" s="128"/>
+      <c r="F48" s="128"/>
+      <c r="G48" s="128"/>
+      <c r="H48" s="129"/>
+      <c r="I48" s="134"/>
+      <c r="J48" s="134"/>
+      <c r="K48" s="134"/>
+      <c r="L48" s="134"/>
+      <c r="M48" s="134"/>
+      <c r="N48" s="134"/>
+      <c r="O48" s="134"/>
+      <c r="P48" s="134"/>
       <c r="Q48" s="67"/>
       <c r="R48" s="69"/>
       <c r="S48" s="69"/>
@@ -10490,23 +10498,23 @@
       <c r="A49" s="26"/>
       <c r="B49" s="103"/>
       <c r="C49" s="112"/>
-      <c r="D49" s="134" t="s">
+      <c r="D49" s="149" t="s">
         <v>94</v>
       </c>
-      <c r="E49" s="121"/>
-      <c r="F49" s="121"/>
-      <c r="G49" s="121"/>
-      <c r="H49" s="122"/>
-      <c r="I49" s="138">
+      <c r="E49" s="125"/>
+      <c r="F49" s="125"/>
+      <c r="G49" s="125"/>
+      <c r="H49" s="126"/>
+      <c r="I49" s="144">
         <v>6</v>
       </c>
-      <c r="J49" s="139">
+      <c r="J49" s="138">
         <v>45798</v>
       </c>
-      <c r="K49" s="139">
+      <c r="K49" s="138">
         <v>45798</v>
       </c>
-      <c r="L49" s="140"/>
+      <c r="L49" s="143"/>
       <c r="M49" s="104"/>
       <c r="N49" s="104"/>
       <c r="O49" s="105"/>
@@ -10627,15 +10635,15 @@
       <c r="A50" s="26"/>
       <c r="B50" s="103"/>
       <c r="C50" s="112"/>
-      <c r="D50" s="123"/>
-      <c r="E50" s="124"/>
-      <c r="F50" s="124"/>
-      <c r="G50" s="124"/>
-      <c r="H50" s="125"/>
-      <c r="I50" s="125"/>
-      <c r="J50" s="125"/>
-      <c r="K50" s="125"/>
-      <c r="L50" s="130"/>
+      <c r="D50" s="127"/>
+      <c r="E50" s="128"/>
+      <c r="F50" s="128"/>
+      <c r="G50" s="128"/>
+      <c r="H50" s="129"/>
+      <c r="I50" s="129"/>
+      <c r="J50" s="129"/>
+      <c r="K50" s="129"/>
+      <c r="L50" s="134"/>
       <c r="M50" s="106"/>
       <c r="N50" s="106"/>
       <c r="O50" s="107"/>
@@ -10757,26 +10765,26 @@
       <c r="B51" s="103"/>
       <c r="C51" s="112"/>
       <c r="D51" s="113"/>
-      <c r="E51" s="135" t="s">
+      <c r="E51" s="146" t="s">
         <v>94</v>
       </c>
-      <c r="F51" s="136"/>
-      <c r="G51" s="136"/>
-      <c r="H51" s="136"/>
-      <c r="I51" s="133">
+      <c r="F51" s="147"/>
+      <c r="G51" s="147"/>
+      <c r="H51" s="147"/>
+      <c r="I51" s="137">
         <v>3</v>
       </c>
-      <c r="J51" s="131">
+      <c r="J51" s="135">
         <v>45798</v>
       </c>
-      <c r="K51" s="131">
+      <c r="K51" s="135">
         <v>45798</v>
       </c>
-      <c r="L51" s="132"/>
-      <c r="M51" s="131"/>
-      <c r="N51" s="131"/>
-      <c r="O51" s="132"/>
-      <c r="P51" s="133">
+      <c r="L51" s="136"/>
+      <c r="M51" s="135"/>
+      <c r="N51" s="135"/>
+      <c r="O51" s="136"/>
+      <c r="P51" s="137">
         <v>0</v>
       </c>
       <c r="Q51" s="55"/>
@@ -10896,18 +10904,18 @@
       <c r="B52" s="103"/>
       <c r="C52" s="112"/>
       <c r="D52" s="114"/>
-      <c r="E52" s="124"/>
-      <c r="F52" s="124"/>
-      <c r="G52" s="124"/>
-      <c r="H52" s="124"/>
-      <c r="I52" s="130"/>
-      <c r="J52" s="130"/>
-      <c r="K52" s="130"/>
-      <c r="L52" s="130"/>
-      <c r="M52" s="130"/>
-      <c r="N52" s="130"/>
-      <c r="O52" s="130"/>
-      <c r="P52" s="130"/>
+      <c r="E52" s="128"/>
+      <c r="F52" s="128"/>
+      <c r="G52" s="128"/>
+      <c r="H52" s="128"/>
+      <c r="I52" s="134"/>
+      <c r="J52" s="134"/>
+      <c r="K52" s="134"/>
+      <c r="L52" s="134"/>
+      <c r="M52" s="134"/>
+      <c r="N52" s="134"/>
+      <c r="O52" s="134"/>
+      <c r="P52" s="134"/>
       <c r="Q52" s="55"/>
       <c r="R52" s="56"/>
       <c r="S52" s="56"/>
@@ -11025,26 +11033,26 @@
       <c r="B53" s="103"/>
       <c r="C53" s="112"/>
       <c r="D53" s="114"/>
-      <c r="E53" s="135" t="s">
+      <c r="E53" s="146" t="s">
         <v>95</v>
       </c>
-      <c r="F53" s="136"/>
-      <c r="G53" s="136"/>
-      <c r="H53" s="136"/>
-      <c r="I53" s="133">
+      <c r="F53" s="147"/>
+      <c r="G53" s="147"/>
+      <c r="H53" s="147"/>
+      <c r="I53" s="137">
         <v>3</v>
       </c>
-      <c r="J53" s="131">
+      <c r="J53" s="135">
         <v>45798</v>
       </c>
-      <c r="K53" s="131">
+      <c r="K53" s="135">
         <v>45798</v>
       </c>
-      <c r="L53" s="132"/>
-      <c r="M53" s="131"/>
-      <c r="N53" s="131"/>
-      <c r="O53" s="132"/>
-      <c r="P53" s="133">
+      <c r="L53" s="136"/>
+      <c r="M53" s="135"/>
+      <c r="N53" s="135"/>
+      <c r="O53" s="136"/>
+      <c r="P53" s="137">
         <v>0</v>
       </c>
       <c r="Q53" s="55"/>
@@ -11164,18 +11172,18 @@
       <c r="B54" s="103"/>
       <c r="C54" s="112"/>
       <c r="D54" s="114"/>
-      <c r="E54" s="124"/>
-      <c r="F54" s="124"/>
-      <c r="G54" s="124"/>
-      <c r="H54" s="124"/>
-      <c r="I54" s="130"/>
-      <c r="J54" s="130"/>
-      <c r="K54" s="130"/>
-      <c r="L54" s="130"/>
-      <c r="M54" s="130"/>
-      <c r="N54" s="130"/>
-      <c r="O54" s="130"/>
-      <c r="P54" s="130"/>
+      <c r="E54" s="128"/>
+      <c r="F54" s="128"/>
+      <c r="G54" s="128"/>
+      <c r="H54" s="128"/>
+      <c r="I54" s="134"/>
+      <c r="J54" s="134"/>
+      <c r="K54" s="134"/>
+      <c r="L54" s="134"/>
+      <c r="M54" s="134"/>
+      <c r="N54" s="134"/>
+      <c r="O54" s="134"/>
+      <c r="P54" s="134"/>
       <c r="Q54" s="55"/>
       <c r="R54" s="56"/>
       <c r="S54" s="56"/>
@@ -11293,18 +11301,18 @@
       <c r="B55" s="103"/>
       <c r="C55" s="112"/>
       <c r="D55" s="114"/>
-      <c r="E55" s="137"/>
-      <c r="F55" s="121"/>
-      <c r="G55" s="121"/>
-      <c r="H55" s="122"/>
-      <c r="I55" s="133"/>
-      <c r="J55" s="131"/>
-      <c r="K55" s="131"/>
-      <c r="L55" s="132"/>
-      <c r="M55" s="131"/>
-      <c r="N55" s="131"/>
-      <c r="O55" s="132"/>
-      <c r="P55" s="133">
+      <c r="E55" s="145"/>
+      <c r="F55" s="125"/>
+      <c r="G55" s="125"/>
+      <c r="H55" s="126"/>
+      <c r="I55" s="137"/>
+      <c r="J55" s="135"/>
+      <c r="K55" s="135"/>
+      <c r="L55" s="136"/>
+      <c r="M55" s="135"/>
+      <c r="N55" s="135"/>
+      <c r="O55" s="136"/>
+      <c r="P55" s="137">
         <v>0</v>
       </c>
       <c r="Q55" s="55"/>
@@ -11424,18 +11432,18 @@
       <c r="B56" s="103"/>
       <c r="C56" s="115"/>
       <c r="D56" s="116"/>
-      <c r="E56" s="124"/>
-      <c r="F56" s="124"/>
-      <c r="G56" s="124"/>
-      <c r="H56" s="125"/>
-      <c r="I56" s="130"/>
-      <c r="J56" s="130"/>
-      <c r="K56" s="130"/>
-      <c r="L56" s="130"/>
-      <c r="M56" s="130"/>
-      <c r="N56" s="130"/>
-      <c r="O56" s="130"/>
-      <c r="P56" s="130"/>
+      <c r="E56" s="128"/>
+      <c r="F56" s="128"/>
+      <c r="G56" s="128"/>
+      <c r="H56" s="129"/>
+      <c r="I56" s="134"/>
+      <c r="J56" s="134"/>
+      <c r="K56" s="134"/>
+      <c r="L56" s="134"/>
+      <c r="M56" s="134"/>
+      <c r="N56" s="134"/>
+      <c r="O56" s="134"/>
+      <c r="P56" s="134"/>
       <c r="Q56" s="55"/>
       <c r="R56" s="56"/>
       <c r="S56" s="56"/>
@@ -11551,24 +11559,24 @@
     <row r="57" spans="1:127" ht="12" customHeight="1">
       <c r="A57" s="26"/>
       <c r="B57" s="103"/>
-      <c r="C57" s="158" t="s">
+      <c r="C57" s="139" t="s">
         <v>96</v>
       </c>
-      <c r="D57" s="146"/>
-      <c r="E57" s="146"/>
-      <c r="F57" s="146"/>
-      <c r="G57" s="146"/>
-      <c r="H57" s="146"/>
-      <c r="I57" s="155">
+      <c r="D57" s="140"/>
+      <c r="E57" s="140"/>
+      <c r="F57" s="140"/>
+      <c r="G57" s="140"/>
+      <c r="H57" s="140"/>
+      <c r="I57" s="142">
         <v>72</v>
       </c>
-      <c r="J57" s="139">
+      <c r="J57" s="138">
         <v>45799</v>
       </c>
-      <c r="K57" s="139">
+      <c r="K57" s="138">
         <v>45808</v>
       </c>
-      <c r="L57" s="140"/>
+      <c r="L57" s="143"/>
       <c r="M57" s="104"/>
       <c r="N57" s="104"/>
       <c r="O57" s="105"/>
@@ -11688,16 +11696,16 @@
     <row r="58" spans="1:127" ht="12" customHeight="1">
       <c r="A58" s="26"/>
       <c r="B58" s="103"/>
-      <c r="C58" s="147"/>
-      <c r="D58" s="124"/>
-      <c r="E58" s="124"/>
-      <c r="F58" s="124"/>
-      <c r="G58" s="124"/>
-      <c r="H58" s="124"/>
-      <c r="I58" s="130"/>
-      <c r="J58" s="125"/>
-      <c r="K58" s="125"/>
-      <c r="L58" s="130"/>
+      <c r="C58" s="141"/>
+      <c r="D58" s="128"/>
+      <c r="E58" s="128"/>
+      <c r="F58" s="128"/>
+      <c r="G58" s="128"/>
+      <c r="H58" s="128"/>
+      <c r="I58" s="134"/>
+      <c r="J58" s="129"/>
+      <c r="K58" s="129"/>
+      <c r="L58" s="134"/>
       <c r="M58" s="106"/>
       <c r="N58" s="106"/>
       <c r="O58" s="107"/>
@@ -11818,23 +11826,23 @@
       <c r="A59" s="26"/>
       <c r="B59" s="103"/>
       <c r="C59" s="117"/>
-      <c r="D59" s="134" t="s">
+      <c r="D59" s="149" t="s">
         <v>87</v>
       </c>
-      <c r="E59" s="121"/>
-      <c r="F59" s="121"/>
-      <c r="G59" s="121"/>
-      <c r="H59" s="122"/>
-      <c r="I59" s="138">
+      <c r="E59" s="125"/>
+      <c r="F59" s="125"/>
+      <c r="G59" s="125"/>
+      <c r="H59" s="126"/>
+      <c r="I59" s="144">
         <v>12</v>
       </c>
-      <c r="J59" s="139">
+      <c r="J59" s="138">
         <v>45799</v>
       </c>
-      <c r="K59" s="139">
+      <c r="K59" s="138">
         <v>45800</v>
       </c>
-      <c r="L59" s="140"/>
+      <c r="L59" s="143"/>
       <c r="M59" s="104"/>
       <c r="N59" s="104"/>
       <c r="O59" s="105"/>
@@ -11955,15 +11963,15 @@
       <c r="A60" s="26"/>
       <c r="B60" s="103"/>
       <c r="C60" s="118"/>
-      <c r="D60" s="123"/>
-      <c r="E60" s="124"/>
-      <c r="F60" s="124"/>
-      <c r="G60" s="124"/>
-      <c r="H60" s="125"/>
-      <c r="I60" s="125"/>
-      <c r="J60" s="125"/>
-      <c r="K60" s="125"/>
-      <c r="L60" s="130"/>
+      <c r="D60" s="127"/>
+      <c r="E60" s="128"/>
+      <c r="F60" s="128"/>
+      <c r="G60" s="128"/>
+      <c r="H60" s="129"/>
+      <c r="I60" s="129"/>
+      <c r="J60" s="129"/>
+      <c r="K60" s="129"/>
+      <c r="L60" s="134"/>
       <c r="M60" s="106"/>
       <c r="N60" s="106"/>
       <c r="O60" s="107"/>
@@ -12085,26 +12093,26 @@
       <c r="B61" s="103"/>
       <c r="C61" s="112"/>
       <c r="D61" s="113"/>
-      <c r="E61" s="135" t="s">
+      <c r="E61" s="146" t="s">
         <v>89</v>
       </c>
-      <c r="F61" s="136"/>
-      <c r="G61" s="136"/>
-      <c r="H61" s="136"/>
-      <c r="I61" s="133">
+      <c r="F61" s="147"/>
+      <c r="G61" s="147"/>
+      <c r="H61" s="147"/>
+      <c r="I61" s="137">
         <v>8</v>
       </c>
-      <c r="J61" s="131">
+      <c r="J61" s="135">
         <v>45799</v>
       </c>
-      <c r="K61" s="131">
+      <c r="K61" s="135">
         <v>45799</v>
       </c>
-      <c r="L61" s="132"/>
-      <c r="M61" s="131"/>
-      <c r="N61" s="131"/>
-      <c r="O61" s="132"/>
-      <c r="P61" s="133">
+      <c r="L61" s="136"/>
+      <c r="M61" s="135"/>
+      <c r="N61" s="135"/>
+      <c r="O61" s="136"/>
+      <c r="P61" s="137">
         <v>0</v>
       </c>
       <c r="Q61" s="55"/>
@@ -12224,18 +12232,18 @@
       <c r="B62" s="103"/>
       <c r="C62" s="112"/>
       <c r="D62" s="114"/>
-      <c r="E62" s="124"/>
-      <c r="F62" s="124"/>
-      <c r="G62" s="124"/>
-      <c r="H62" s="124"/>
-      <c r="I62" s="130"/>
-      <c r="J62" s="130"/>
-      <c r="K62" s="130"/>
-      <c r="L62" s="130"/>
-      <c r="M62" s="130"/>
-      <c r="N62" s="130"/>
-      <c r="O62" s="130"/>
-      <c r="P62" s="130"/>
+      <c r="E62" s="128"/>
+      <c r="F62" s="128"/>
+      <c r="G62" s="128"/>
+      <c r="H62" s="128"/>
+      <c r="I62" s="134"/>
+      <c r="J62" s="134"/>
+      <c r="K62" s="134"/>
+      <c r="L62" s="134"/>
+      <c r="M62" s="134"/>
+      <c r="N62" s="134"/>
+      <c r="O62" s="134"/>
+      <c r="P62" s="134"/>
       <c r="Q62" s="55"/>
       <c r="R62" s="56"/>
       <c r="S62" s="56"/>
@@ -12353,26 +12361,26 @@
       <c r="B63" s="103"/>
       <c r="C63" s="112"/>
       <c r="D63" s="114"/>
-      <c r="E63" s="135" t="s">
+      <c r="E63" s="146" t="s">
         <v>90</v>
       </c>
-      <c r="F63" s="136"/>
-      <c r="G63" s="136"/>
-      <c r="H63" s="136"/>
-      <c r="I63" s="133">
+      <c r="F63" s="147"/>
+      <c r="G63" s="147"/>
+      <c r="H63" s="147"/>
+      <c r="I63" s="137">
         <v>4</v>
       </c>
-      <c r="J63" s="131">
+      <c r="J63" s="135">
         <v>45800</v>
       </c>
-      <c r="K63" s="131">
+      <c r="K63" s="135">
         <v>45800</v>
       </c>
-      <c r="L63" s="132"/>
-      <c r="M63" s="131"/>
-      <c r="N63" s="131"/>
-      <c r="O63" s="132"/>
-      <c r="P63" s="133">
+      <c r="L63" s="136"/>
+      <c r="M63" s="135"/>
+      <c r="N63" s="135"/>
+      <c r="O63" s="136"/>
+      <c r="P63" s="137">
         <v>0</v>
       </c>
       <c r="Q63" s="55"/>
@@ -12492,18 +12500,18 @@
       <c r="B64" s="103"/>
       <c r="C64" s="112"/>
       <c r="D64" s="114"/>
-      <c r="E64" s="124"/>
-      <c r="F64" s="124"/>
-      <c r="G64" s="124"/>
-      <c r="H64" s="124"/>
-      <c r="I64" s="130"/>
-      <c r="J64" s="130"/>
-      <c r="K64" s="130"/>
-      <c r="L64" s="130"/>
-      <c r="M64" s="130"/>
-      <c r="N64" s="130"/>
-      <c r="O64" s="130"/>
-      <c r="P64" s="130"/>
+      <c r="E64" s="128"/>
+      <c r="F64" s="128"/>
+      <c r="G64" s="128"/>
+      <c r="H64" s="128"/>
+      <c r="I64" s="134"/>
+      <c r="J64" s="134"/>
+      <c r="K64" s="134"/>
+      <c r="L64" s="134"/>
+      <c r="M64" s="134"/>
+      <c r="N64" s="134"/>
+      <c r="O64" s="134"/>
+      <c r="P64" s="134"/>
       <c r="Q64" s="55"/>
       <c r="R64" s="56"/>
       <c r="S64" s="56"/>
@@ -12621,18 +12629,18 @@
       <c r="B65" s="103"/>
       <c r="C65" s="112"/>
       <c r="D65" s="114"/>
-      <c r="E65" s="137"/>
-      <c r="F65" s="121"/>
-      <c r="G65" s="121"/>
-      <c r="H65" s="122"/>
-      <c r="I65" s="133"/>
-      <c r="J65" s="131"/>
-      <c r="K65" s="131"/>
-      <c r="L65" s="132"/>
-      <c r="M65" s="131"/>
-      <c r="N65" s="131"/>
-      <c r="O65" s="132"/>
-      <c r="P65" s="133">
+      <c r="E65" s="145"/>
+      <c r="F65" s="125"/>
+      <c r="G65" s="125"/>
+      <c r="H65" s="126"/>
+      <c r="I65" s="137"/>
+      <c r="J65" s="135"/>
+      <c r="K65" s="135"/>
+      <c r="L65" s="136"/>
+      <c r="M65" s="135"/>
+      <c r="N65" s="135"/>
+      <c r="O65" s="136"/>
+      <c r="P65" s="137">
         <v>0</v>
       </c>
       <c r="Q65" s="55"/>
@@ -12752,18 +12760,18 @@
       <c r="B66" s="103"/>
       <c r="C66" s="112"/>
       <c r="D66" s="116"/>
-      <c r="E66" s="124"/>
-      <c r="F66" s="124"/>
-      <c r="G66" s="124"/>
-      <c r="H66" s="125"/>
-      <c r="I66" s="130"/>
-      <c r="J66" s="130"/>
-      <c r="K66" s="130"/>
-      <c r="L66" s="130"/>
-      <c r="M66" s="130"/>
-      <c r="N66" s="130"/>
-      <c r="O66" s="130"/>
-      <c r="P66" s="130"/>
+      <c r="E66" s="128"/>
+      <c r="F66" s="128"/>
+      <c r="G66" s="128"/>
+      <c r="H66" s="129"/>
+      <c r="I66" s="134"/>
+      <c r="J66" s="134"/>
+      <c r="K66" s="134"/>
+      <c r="L66" s="134"/>
+      <c r="M66" s="134"/>
+      <c r="N66" s="134"/>
+      <c r="O66" s="134"/>
+      <c r="P66" s="134"/>
       <c r="Q66" s="67"/>
       <c r="R66" s="69"/>
       <c r="S66" s="69"/>
@@ -12880,23 +12888,23 @@
       <c r="A67" s="26"/>
       <c r="B67" s="103"/>
       <c r="C67" s="112"/>
-      <c r="D67" s="134" t="s">
+      <c r="D67" s="149" t="s">
         <v>91</v>
       </c>
-      <c r="E67" s="121"/>
-      <c r="F67" s="121"/>
-      <c r="G67" s="121"/>
-      <c r="H67" s="122"/>
-      <c r="I67" s="138">
+      <c r="E67" s="125"/>
+      <c r="F67" s="125"/>
+      <c r="G67" s="125"/>
+      <c r="H67" s="126"/>
+      <c r="I67" s="144">
         <v>52</v>
       </c>
-      <c r="J67" s="139">
+      <c r="J67" s="138">
         <v>45803</v>
       </c>
-      <c r="K67" s="139">
+      <c r="K67" s="138">
         <v>45811</v>
       </c>
-      <c r="L67" s="140"/>
+      <c r="L67" s="143"/>
       <c r="M67" s="104"/>
       <c r="N67" s="104"/>
       <c r="O67" s="105"/>
@@ -13017,15 +13025,15 @@
       <c r="A68" s="26"/>
       <c r="B68" s="103"/>
       <c r="C68" s="112"/>
-      <c r="D68" s="123"/>
-      <c r="E68" s="124"/>
-      <c r="F68" s="124"/>
-      <c r="G68" s="124"/>
-      <c r="H68" s="125"/>
-      <c r="I68" s="125"/>
-      <c r="J68" s="125"/>
-      <c r="K68" s="125"/>
-      <c r="L68" s="130"/>
+      <c r="D68" s="127"/>
+      <c r="E68" s="128"/>
+      <c r="F68" s="128"/>
+      <c r="G68" s="128"/>
+      <c r="H68" s="129"/>
+      <c r="I68" s="129"/>
+      <c r="J68" s="129"/>
+      <c r="K68" s="129"/>
+      <c r="L68" s="134"/>
       <c r="M68" s="106"/>
       <c r="N68" s="106"/>
       <c r="O68" s="107"/>
@@ -13147,26 +13155,26 @@
       <c r="B69" s="103"/>
       <c r="C69" s="112"/>
       <c r="D69" s="113"/>
-      <c r="E69" s="135" t="s">
+      <c r="E69" s="146" t="s">
         <v>97</v>
       </c>
-      <c r="F69" s="136"/>
-      <c r="G69" s="136"/>
-      <c r="H69" s="136"/>
-      <c r="I69" s="133">
+      <c r="F69" s="147"/>
+      <c r="G69" s="147"/>
+      <c r="H69" s="147"/>
+      <c r="I69" s="137">
         <v>26</v>
       </c>
-      <c r="J69" s="141">
+      <c r="J69" s="148">
         <v>45803</v>
       </c>
-      <c r="K69" s="131">
+      <c r="K69" s="135">
         <v>45806</v>
       </c>
-      <c r="L69" s="132"/>
-      <c r="M69" s="131"/>
-      <c r="N69" s="131"/>
-      <c r="O69" s="132"/>
-      <c r="P69" s="133">
+      <c r="L69" s="136"/>
+      <c r="M69" s="135"/>
+      <c r="N69" s="135"/>
+      <c r="O69" s="136"/>
+      <c r="P69" s="137">
         <v>0</v>
       </c>
       <c r="Q69" s="55"/>
@@ -13286,18 +13294,18 @@
       <c r="B70" s="103"/>
       <c r="C70" s="112"/>
       <c r="D70" s="114"/>
-      <c r="E70" s="124"/>
-      <c r="F70" s="124"/>
-      <c r="G70" s="124"/>
-      <c r="H70" s="124"/>
-      <c r="I70" s="130"/>
-      <c r="J70" s="125"/>
-      <c r="K70" s="130"/>
-      <c r="L70" s="130"/>
-      <c r="M70" s="130"/>
-      <c r="N70" s="130"/>
-      <c r="O70" s="130"/>
-      <c r="P70" s="130"/>
+      <c r="E70" s="128"/>
+      <c r="F70" s="128"/>
+      <c r="G70" s="128"/>
+      <c r="H70" s="128"/>
+      <c r="I70" s="134"/>
+      <c r="J70" s="129"/>
+      <c r="K70" s="134"/>
+      <c r="L70" s="134"/>
+      <c r="M70" s="134"/>
+      <c r="N70" s="134"/>
+      <c r="O70" s="134"/>
+      <c r="P70" s="134"/>
       <c r="Q70" s="55"/>
       <c r="R70" s="56"/>
       <c r="S70" s="56"/>
@@ -13415,26 +13423,26 @@
       <c r="B71" s="103"/>
       <c r="C71" s="112"/>
       <c r="D71" s="114"/>
-      <c r="E71" s="135" t="s">
+      <c r="E71" s="146" t="s">
         <v>98</v>
       </c>
-      <c r="F71" s="136"/>
-      <c r="G71" s="136"/>
-      <c r="H71" s="136"/>
-      <c r="I71" s="133">
+      <c r="F71" s="147"/>
+      <c r="G71" s="147"/>
+      <c r="H71" s="147"/>
+      <c r="I71" s="137">
         <v>18</v>
       </c>
-      <c r="J71" s="131">
+      <c r="J71" s="135">
         <v>45806</v>
       </c>
-      <c r="K71" s="131">
+      <c r="K71" s="135">
         <v>45810</v>
       </c>
-      <c r="L71" s="132"/>
-      <c r="M71" s="131"/>
-      <c r="N71" s="131"/>
-      <c r="O71" s="132"/>
-      <c r="P71" s="133">
+      <c r="L71" s="136"/>
+      <c r="M71" s="135"/>
+      <c r="N71" s="135"/>
+      <c r="O71" s="136"/>
+      <c r="P71" s="137">
         <v>0</v>
       </c>
       <c r="Q71" s="55"/>
@@ -13554,18 +13562,18 @@
       <c r="B72" s="103"/>
       <c r="C72" s="112"/>
       <c r="D72" s="114"/>
-      <c r="E72" s="124"/>
-      <c r="F72" s="124"/>
-      <c r="G72" s="124"/>
-      <c r="H72" s="124"/>
-      <c r="I72" s="130"/>
-      <c r="J72" s="130"/>
-      <c r="K72" s="130"/>
-      <c r="L72" s="130"/>
-      <c r="M72" s="130"/>
-      <c r="N72" s="130"/>
-      <c r="O72" s="130"/>
-      <c r="P72" s="130"/>
+      <c r="E72" s="128"/>
+      <c r="F72" s="128"/>
+      <c r="G72" s="128"/>
+      <c r="H72" s="128"/>
+      <c r="I72" s="134"/>
+      <c r="J72" s="134"/>
+      <c r="K72" s="134"/>
+      <c r="L72" s="134"/>
+      <c r="M72" s="134"/>
+      <c r="N72" s="134"/>
+      <c r="O72" s="134"/>
+      <c r="P72" s="134"/>
       <c r="Q72" s="55"/>
       <c r="R72" s="56"/>
       <c r="S72" s="56"/>
@@ -13683,26 +13691,26 @@
       <c r="B73" s="103"/>
       <c r="C73" s="112"/>
       <c r="D73" s="114"/>
-      <c r="E73" s="137" t="s">
+      <c r="E73" s="145" t="s">
         <v>99</v>
       </c>
-      <c r="F73" s="121"/>
-      <c r="G73" s="121"/>
-      <c r="H73" s="122"/>
-      <c r="I73" s="133">
+      <c r="F73" s="125"/>
+      <c r="G73" s="125"/>
+      <c r="H73" s="126"/>
+      <c r="I73" s="137">
         <v>8</v>
       </c>
-      <c r="J73" s="131">
+      <c r="J73" s="135">
         <v>45811</v>
       </c>
-      <c r="K73" s="131">
+      <c r="K73" s="135">
         <v>45811</v>
       </c>
-      <c r="L73" s="132"/>
-      <c r="M73" s="131"/>
-      <c r="N73" s="131"/>
-      <c r="O73" s="132"/>
-      <c r="P73" s="133">
+      <c r="L73" s="136"/>
+      <c r="M73" s="135"/>
+      <c r="N73" s="135"/>
+      <c r="O73" s="136"/>
+      <c r="P73" s="137">
         <v>0</v>
       </c>
       <c r="Q73" s="55"/>
@@ -13822,18 +13830,18 @@
       <c r="B74" s="103"/>
       <c r="C74" s="112"/>
       <c r="D74" s="116"/>
-      <c r="E74" s="124"/>
-      <c r="F74" s="124"/>
-      <c r="G74" s="124"/>
-      <c r="H74" s="125"/>
-      <c r="I74" s="130"/>
-      <c r="J74" s="130"/>
-      <c r="K74" s="130"/>
-      <c r="L74" s="130"/>
-      <c r="M74" s="130"/>
-      <c r="N74" s="130"/>
-      <c r="O74" s="130"/>
-      <c r="P74" s="130"/>
+      <c r="E74" s="128"/>
+      <c r="F74" s="128"/>
+      <c r="G74" s="128"/>
+      <c r="H74" s="129"/>
+      <c r="I74" s="134"/>
+      <c r="J74" s="134"/>
+      <c r="K74" s="134"/>
+      <c r="L74" s="134"/>
+      <c r="M74" s="134"/>
+      <c r="N74" s="134"/>
+      <c r="O74" s="134"/>
+      <c r="P74" s="134"/>
       <c r="Q74" s="67"/>
       <c r="R74" s="69"/>
       <c r="S74" s="69"/>
@@ -13950,23 +13958,23 @@
       <c r="A75" s="26"/>
       <c r="B75" s="103"/>
       <c r="C75" s="112"/>
-      <c r="D75" s="134" t="s">
+      <c r="D75" s="149" t="s">
         <v>94</v>
       </c>
-      <c r="E75" s="121"/>
-      <c r="F75" s="121"/>
-      <c r="G75" s="121"/>
-      <c r="H75" s="122"/>
-      <c r="I75" s="138">
+      <c r="E75" s="125"/>
+      <c r="F75" s="125"/>
+      <c r="G75" s="125"/>
+      <c r="H75" s="126"/>
+      <c r="I75" s="144">
         <v>8</v>
       </c>
-      <c r="J75" s="139">
+      <c r="J75" s="138">
         <v>45812</v>
       </c>
-      <c r="K75" s="139">
+      <c r="K75" s="138">
         <v>45812</v>
       </c>
-      <c r="L75" s="140"/>
+      <c r="L75" s="143"/>
       <c r="M75" s="104"/>
       <c r="N75" s="104"/>
       <c r="O75" s="105"/>
@@ -14087,15 +14095,15 @@
       <c r="A76" s="26"/>
       <c r="B76" s="103"/>
       <c r="C76" s="112"/>
-      <c r="D76" s="123"/>
-      <c r="E76" s="124"/>
-      <c r="F76" s="124"/>
-      <c r="G76" s="124"/>
-      <c r="H76" s="125"/>
-      <c r="I76" s="125"/>
-      <c r="J76" s="125"/>
-      <c r="K76" s="125"/>
-      <c r="L76" s="130"/>
+      <c r="D76" s="127"/>
+      <c r="E76" s="128"/>
+      <c r="F76" s="128"/>
+      <c r="G76" s="128"/>
+      <c r="H76" s="129"/>
+      <c r="I76" s="129"/>
+      <c r="J76" s="129"/>
+      <c r="K76" s="129"/>
+      <c r="L76" s="134"/>
       <c r="M76" s="106"/>
       <c r="N76" s="106"/>
       <c r="O76" s="107"/>
@@ -14217,26 +14225,26 @@
       <c r="B77" s="103"/>
       <c r="C77" s="26"/>
       <c r="D77" s="110"/>
-      <c r="E77" s="135" t="s">
+      <c r="E77" s="146" t="s">
         <v>94</v>
       </c>
-      <c r="F77" s="136"/>
-      <c r="G77" s="136"/>
-      <c r="H77" s="136"/>
-      <c r="I77" s="133">
+      <c r="F77" s="147"/>
+      <c r="G77" s="147"/>
+      <c r="H77" s="147"/>
+      <c r="I77" s="137">
         <v>4</v>
       </c>
-      <c r="J77" s="131">
+      <c r="J77" s="135">
         <v>45812</v>
       </c>
-      <c r="K77" s="131">
+      <c r="K77" s="135">
         <v>45812</v>
       </c>
-      <c r="L77" s="132"/>
-      <c r="M77" s="131"/>
-      <c r="N77" s="131"/>
-      <c r="O77" s="132"/>
-      <c r="P77" s="133">
+      <c r="L77" s="136"/>
+      <c r="M77" s="135"/>
+      <c r="N77" s="135"/>
+      <c r="O77" s="136"/>
+      <c r="P77" s="137">
         <v>0</v>
       </c>
       <c r="Q77" s="55"/>
@@ -14356,18 +14364,18 @@
       <c r="B78" s="103"/>
       <c r="C78" s="26"/>
       <c r="D78" s="103"/>
-      <c r="E78" s="124"/>
-      <c r="F78" s="124"/>
-      <c r="G78" s="124"/>
-      <c r="H78" s="124"/>
-      <c r="I78" s="130"/>
-      <c r="J78" s="130"/>
-      <c r="K78" s="130"/>
-      <c r="L78" s="130"/>
-      <c r="M78" s="130"/>
-      <c r="N78" s="130"/>
-      <c r="O78" s="130"/>
-      <c r="P78" s="130"/>
+      <c r="E78" s="128"/>
+      <c r="F78" s="128"/>
+      <c r="G78" s="128"/>
+      <c r="H78" s="128"/>
+      <c r="I78" s="134"/>
+      <c r="J78" s="134"/>
+      <c r="K78" s="134"/>
+      <c r="L78" s="134"/>
+      <c r="M78" s="134"/>
+      <c r="N78" s="134"/>
+      <c r="O78" s="134"/>
+      <c r="P78" s="134"/>
       <c r="Q78" s="55"/>
       <c r="R78" s="56"/>
       <c r="S78" s="56"/>
@@ -14485,26 +14493,26 @@
       <c r="B79" s="103"/>
       <c r="C79" s="26"/>
       <c r="D79" s="103"/>
-      <c r="E79" s="135" t="s">
+      <c r="E79" s="146" t="s">
         <v>95</v>
       </c>
-      <c r="F79" s="136"/>
-      <c r="G79" s="136"/>
-      <c r="H79" s="136"/>
-      <c r="I79" s="133">
+      <c r="F79" s="147"/>
+      <c r="G79" s="147"/>
+      <c r="H79" s="147"/>
+      <c r="I79" s="137">
         <v>4</v>
       </c>
-      <c r="J79" s="131">
+      <c r="J79" s="135">
         <v>45812</v>
       </c>
-      <c r="K79" s="131">
+      <c r="K79" s="135">
         <v>45812</v>
       </c>
-      <c r="L79" s="132"/>
-      <c r="M79" s="131"/>
-      <c r="N79" s="131"/>
-      <c r="O79" s="132"/>
-      <c r="P79" s="133">
+      <c r="L79" s="136"/>
+      <c r="M79" s="135"/>
+      <c r="N79" s="135"/>
+      <c r="O79" s="136"/>
+      <c r="P79" s="137">
         <v>0</v>
       </c>
       <c r="Q79" s="55"/>
@@ -14624,18 +14632,18 @@
       <c r="B80" s="103"/>
       <c r="C80" s="26"/>
       <c r="D80" s="103"/>
-      <c r="E80" s="124"/>
-      <c r="F80" s="124"/>
-      <c r="G80" s="124"/>
-      <c r="H80" s="124"/>
-      <c r="I80" s="130"/>
-      <c r="J80" s="130"/>
-      <c r="K80" s="130"/>
-      <c r="L80" s="130"/>
-      <c r="M80" s="130"/>
-      <c r="N80" s="130"/>
-      <c r="O80" s="130"/>
-      <c r="P80" s="130"/>
+      <c r="E80" s="128"/>
+      <c r="F80" s="128"/>
+      <c r="G80" s="128"/>
+      <c r="H80" s="128"/>
+      <c r="I80" s="134"/>
+      <c r="J80" s="134"/>
+      <c r="K80" s="134"/>
+      <c r="L80" s="134"/>
+      <c r="M80" s="134"/>
+      <c r="N80" s="134"/>
+      <c r="O80" s="134"/>
+      <c r="P80" s="134"/>
       <c r="Q80" s="55"/>
       <c r="R80" s="56"/>
       <c r="S80" s="56"/>
@@ -14753,18 +14761,18 @@
       <c r="B81" s="103"/>
       <c r="C81" s="26"/>
       <c r="D81" s="103"/>
-      <c r="E81" s="137"/>
-      <c r="F81" s="121"/>
-      <c r="G81" s="121"/>
-      <c r="H81" s="122"/>
-      <c r="I81" s="133"/>
-      <c r="J81" s="131"/>
-      <c r="K81" s="131"/>
-      <c r="L81" s="132"/>
-      <c r="M81" s="131"/>
-      <c r="N81" s="131"/>
-      <c r="O81" s="132"/>
-      <c r="P81" s="133">
+      <c r="E81" s="145"/>
+      <c r="F81" s="125"/>
+      <c r="G81" s="125"/>
+      <c r="H81" s="126"/>
+      <c r="I81" s="137"/>
+      <c r="J81" s="135"/>
+      <c r="K81" s="135"/>
+      <c r="L81" s="136"/>
+      <c r="M81" s="135"/>
+      <c r="N81" s="135"/>
+      <c r="O81" s="136"/>
+      <c r="P81" s="137">
         <v>0</v>
       </c>
       <c r="Q81" s="55"/>
@@ -14884,18 +14892,18 @@
       <c r="B82" s="111"/>
       <c r="C82" s="119"/>
       <c r="D82" s="111"/>
-      <c r="E82" s="124"/>
-      <c r="F82" s="124"/>
-      <c r="G82" s="124"/>
-      <c r="H82" s="125"/>
-      <c r="I82" s="130"/>
-      <c r="J82" s="130"/>
-      <c r="K82" s="130"/>
-      <c r="L82" s="130"/>
-      <c r="M82" s="130"/>
-      <c r="N82" s="130"/>
-      <c r="O82" s="130"/>
-      <c r="P82" s="130"/>
+      <c r="E82" s="128"/>
+      <c r="F82" s="128"/>
+      <c r="G82" s="128"/>
+      <c r="H82" s="129"/>
+      <c r="I82" s="134"/>
+      <c r="J82" s="134"/>
+      <c r="K82" s="134"/>
+      <c r="L82" s="134"/>
+      <c r="M82" s="134"/>
+      <c r="N82" s="134"/>
+      <c r="O82" s="134"/>
+      <c r="P82" s="134"/>
       <c r="Q82" s="55"/>
       <c r="R82" s="56"/>
       <c r="S82" s="56"/>
@@ -15010,168 +15018,109 @@
     </row>
   </sheetData>
   <mergeCells count="300">
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="N51:N52"/>
-    <mergeCell ref="O51:O52"/>
-    <mergeCell ref="P51:P52"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="C57:H58"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="L57:L58"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="O47:O48"/>
-    <mergeCell ref="P47:P48"/>
-    <mergeCell ref="E47:H48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="N47:N48"/>
-    <mergeCell ref="O45:O46"/>
-    <mergeCell ref="P45:P46"/>
-    <mergeCell ref="E45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="N45:N46"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="D41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="E43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="C31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="N35:N36"/>
-    <mergeCell ref="O35:O36"/>
-    <mergeCell ref="D33:H34"/>
-    <mergeCell ref="E35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="E39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="E37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="D27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="P29:P30"/>
-    <mergeCell ref="D29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="P25:P26"/>
-    <mergeCell ref="C23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="D25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="C19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="D21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="D15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="D17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="D11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="D13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="CZ4:DV4"/>
-    <mergeCell ref="B7:H8"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="C9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="J61:J62"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="L61:L62"/>
+    <mergeCell ref="M61:M62"/>
+    <mergeCell ref="D49:H50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="E51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="O65:O66"/>
+    <mergeCell ref="E65:H66"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="J65:J66"/>
+    <mergeCell ref="K65:K66"/>
+    <mergeCell ref="L65:L66"/>
+    <mergeCell ref="M65:M66"/>
+    <mergeCell ref="N65:N66"/>
+    <mergeCell ref="O63:O64"/>
+    <mergeCell ref="E63:H64"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="J63:J64"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="L63:L64"/>
+    <mergeCell ref="M63:M64"/>
+    <mergeCell ref="N63:N64"/>
+    <mergeCell ref="O73:O74"/>
+    <mergeCell ref="P73:P74"/>
+    <mergeCell ref="E73:H74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="J73:J74"/>
+    <mergeCell ref="K73:K74"/>
+    <mergeCell ref="L73:L74"/>
+    <mergeCell ref="M73:M74"/>
+    <mergeCell ref="O55:O56"/>
+    <mergeCell ref="P55:P56"/>
+    <mergeCell ref="E55:H56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="N55:N56"/>
+    <mergeCell ref="P65:P66"/>
+    <mergeCell ref="P63:P64"/>
+    <mergeCell ref="N61:N62"/>
+    <mergeCell ref="O61:O62"/>
+    <mergeCell ref="P61:P62"/>
+    <mergeCell ref="D59:H60"/>
+    <mergeCell ref="E61:H62"/>
+    <mergeCell ref="J77:J78"/>
+    <mergeCell ref="K77:K78"/>
+    <mergeCell ref="D75:H76"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="J75:J76"/>
+    <mergeCell ref="K75:K76"/>
+    <mergeCell ref="L75:L76"/>
+    <mergeCell ref="E77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="P79:P80"/>
+    <mergeCell ref="E79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="K79:K80"/>
+    <mergeCell ref="L79:L80"/>
+    <mergeCell ref="M79:M80"/>
+    <mergeCell ref="N79:N80"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="E81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="J81:J82"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="L81:L82"/>
+    <mergeCell ref="M81:M82"/>
+    <mergeCell ref="N81:N82"/>
+    <mergeCell ref="D67:H68"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="J67:J68"/>
+    <mergeCell ref="K67:K68"/>
+    <mergeCell ref="L67:L68"/>
+    <mergeCell ref="E69:H70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="O71:O72"/>
+    <mergeCell ref="P71:P72"/>
+    <mergeCell ref="E71:H72"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="J71:J72"/>
+    <mergeCell ref="K71:K72"/>
+    <mergeCell ref="L71:L72"/>
+    <mergeCell ref="M71:M72"/>
+    <mergeCell ref="N71:N72"/>
+    <mergeCell ref="L69:L70"/>
+    <mergeCell ref="M69:M70"/>
+    <mergeCell ref="N69:N70"/>
+    <mergeCell ref="O69:O70"/>
+    <mergeCell ref="P69:P70"/>
+    <mergeCell ref="J69:J70"/>
+    <mergeCell ref="K69:K70"/>
     <mergeCell ref="N73:N74"/>
     <mergeCell ref="L77:L78"/>
     <mergeCell ref="M77:M78"/>
@@ -15196,73 +15145,168 @@
     <mergeCell ref="M43:M44"/>
     <mergeCell ref="N43:N44"/>
     <mergeCell ref="O43:O44"/>
-    <mergeCell ref="D67:H68"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="J67:J68"/>
-    <mergeCell ref="K67:K68"/>
-    <mergeCell ref="L67:L68"/>
-    <mergeCell ref="E69:H70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="O71:O72"/>
-    <mergeCell ref="P71:P72"/>
-    <mergeCell ref="E71:H72"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="J71:J72"/>
-    <mergeCell ref="K71:K72"/>
-    <mergeCell ref="L71:L72"/>
-    <mergeCell ref="M71:M72"/>
-    <mergeCell ref="N71:N72"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="E81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="J81:J82"/>
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="L81:L82"/>
-    <mergeCell ref="M81:M82"/>
-    <mergeCell ref="N81:N82"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="P79:P80"/>
-    <mergeCell ref="E79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="J79:J80"/>
-    <mergeCell ref="K79:K80"/>
-    <mergeCell ref="L79:L80"/>
-    <mergeCell ref="M79:M80"/>
-    <mergeCell ref="N79:N80"/>
-    <mergeCell ref="L69:L70"/>
-    <mergeCell ref="M69:M70"/>
-    <mergeCell ref="N69:N70"/>
-    <mergeCell ref="O69:O70"/>
-    <mergeCell ref="P69:P70"/>
-    <mergeCell ref="J77:J78"/>
-    <mergeCell ref="K77:K78"/>
-    <mergeCell ref="D75:H76"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="J75:J76"/>
-    <mergeCell ref="K75:K76"/>
-    <mergeCell ref="L75:L76"/>
-    <mergeCell ref="E77:H78"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="J69:J70"/>
-    <mergeCell ref="K69:K70"/>
-    <mergeCell ref="O73:O74"/>
-    <mergeCell ref="P73:P74"/>
-    <mergeCell ref="E73:H74"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="J73:J74"/>
-    <mergeCell ref="K73:K74"/>
-    <mergeCell ref="L73:L74"/>
-    <mergeCell ref="M73:M74"/>
-    <mergeCell ref="O55:O56"/>
-    <mergeCell ref="P55:P56"/>
-    <mergeCell ref="E55:H56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="L55:L56"/>
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="N55:N56"/>
+    <mergeCell ref="CZ4:DV4"/>
+    <mergeCell ref="B7:H8"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="C9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="D11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="D13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="D15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="D17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="C19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="D21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="C23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="D25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="D27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="P29:P30"/>
+    <mergeCell ref="D29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="E39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="E37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="C31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="N35:N36"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="D33:H34"/>
+    <mergeCell ref="E35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="D41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="E43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="O45:O46"/>
+    <mergeCell ref="P45:P46"/>
+    <mergeCell ref="E45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="O47:O48"/>
+    <mergeCell ref="P47:P48"/>
+    <mergeCell ref="E47:H48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="N47:N48"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="N51:N52"/>
+    <mergeCell ref="O51:O52"/>
+    <mergeCell ref="P51:P52"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="C57:H58"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="L57:L58"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="L59:L60"/>
     <mergeCell ref="O53:O54"/>
     <mergeCell ref="P53:P54"/>
     <mergeCell ref="E53:H54"/>
@@ -15274,42 +15318,6 @@
     <mergeCell ref="N53:N54"/>
     <mergeCell ref="J51:J52"/>
     <mergeCell ref="K51:K52"/>
-    <mergeCell ref="D49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="E51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="O65:O66"/>
-    <mergeCell ref="P65:P66"/>
-    <mergeCell ref="E65:H66"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="J65:J66"/>
-    <mergeCell ref="K65:K66"/>
-    <mergeCell ref="L65:L66"/>
-    <mergeCell ref="M65:M66"/>
-    <mergeCell ref="N65:N66"/>
-    <mergeCell ref="O63:O64"/>
-    <mergeCell ref="P63:P64"/>
-    <mergeCell ref="E63:H64"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="J63:J64"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="L63:L64"/>
-    <mergeCell ref="M63:M64"/>
-    <mergeCell ref="N63:N64"/>
-    <mergeCell ref="N61:N62"/>
-    <mergeCell ref="O61:O62"/>
-    <mergeCell ref="P61:P62"/>
-    <mergeCell ref="D59:H60"/>
-    <mergeCell ref="E61:H62"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="J61:J62"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="L61:L62"/>
-    <mergeCell ref="M61:M62"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/DOJT｜WBS _ PGコース MVC編.xlsx
+++ b/docs/DOJT｜WBS _ PGコース MVC編.xlsx
@@ -1330,6 +1330,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1347,55 +1349,90 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="56" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="56" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="180" fontId="5" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="5" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="56" fontId="5" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="56" fontId="5" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="5" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1405,39 +1442,23 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="180" fontId="5" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1446,27 +1467,6 @@
     <xf numFmtId="180" fontId="5" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1708,35 +1708,35 @@
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="124" t="s">
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="125"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="124" t="s">
+      <c r="G2" s="127"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="125"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="127" t="s">
+      <c r="J2" s="127"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="127" t="s">
+      <c r="M2" s="129" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="20.25" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="121"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="123"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="125"/>
       <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1755,8 +1755,8 @@
       <c r="K3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="128"/>
-      <c r="M3" s="128"/>
+      <c r="L3" s="130"/>
+      <c r="M3" s="130"/>
     </row>
     <row r="4" spans="1:13" ht="20.25" customHeight="1">
       <c r="A4" s="3"/>
@@ -3549,8 +3549,8 @@
   <dimension ref="A1:DW84"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E47" sqref="E47:H48"/>
+      <pane ySplit="8" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AP47" sqref="AP47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3980,124 +3980,124 @@
       <c r="N4" s="27"/>
       <c r="O4" s="27"/>
       <c r="P4" s="27"/>
-      <c r="Q4" s="164" t="s">
+      <c r="Q4" s="146" t="s">
         <v>63</v>
       </c>
-      <c r="R4" s="125"/>
-      <c r="S4" s="125"/>
-      <c r="T4" s="125"/>
-      <c r="U4" s="125"/>
-      <c r="V4" s="125"/>
-      <c r="W4" s="125"/>
-      <c r="X4" s="125"/>
-      <c r="Y4" s="125"/>
-      <c r="Z4" s="125"/>
-      <c r="AA4" s="125"/>
-      <c r="AB4" s="125"/>
-      <c r="AC4" s="125"/>
-      <c r="AD4" s="125"/>
-      <c r="AE4" s="125"/>
-      <c r="AF4" s="125"/>
-      <c r="AG4" s="125"/>
-      <c r="AH4" s="125"/>
-      <c r="AI4" s="125"/>
-      <c r="AJ4" s="125"/>
-      <c r="AK4" s="125"/>
-      <c r="AL4" s="125"/>
-      <c r="AM4" s="125"/>
-      <c r="AN4" s="125"/>
-      <c r="AO4" s="125"/>
-      <c r="AP4" s="126"/>
-      <c r="AQ4" s="164" t="s">
+      <c r="R4" s="127"/>
+      <c r="S4" s="127"/>
+      <c r="T4" s="127"/>
+      <c r="U4" s="127"/>
+      <c r="V4" s="127"/>
+      <c r="W4" s="127"/>
+      <c r="X4" s="127"/>
+      <c r="Y4" s="127"/>
+      <c r="Z4" s="127"/>
+      <c r="AA4" s="127"/>
+      <c r="AB4" s="127"/>
+      <c r="AC4" s="127"/>
+      <c r="AD4" s="127"/>
+      <c r="AE4" s="127"/>
+      <c r="AF4" s="127"/>
+      <c r="AG4" s="127"/>
+      <c r="AH4" s="127"/>
+      <c r="AI4" s="127"/>
+      <c r="AJ4" s="127"/>
+      <c r="AK4" s="127"/>
+      <c r="AL4" s="127"/>
+      <c r="AM4" s="127"/>
+      <c r="AN4" s="127"/>
+      <c r="AO4" s="127"/>
+      <c r="AP4" s="128"/>
+      <c r="AQ4" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="AR4" s="125"/>
-      <c r="AS4" s="125"/>
-      <c r="AT4" s="125"/>
-      <c r="AU4" s="125"/>
-      <c r="AV4" s="125"/>
-      <c r="AW4" s="125"/>
-      <c r="AX4" s="125"/>
-      <c r="AY4" s="125"/>
-      <c r="AZ4" s="125"/>
-      <c r="BA4" s="125"/>
-      <c r="BB4" s="125"/>
-      <c r="BC4" s="125"/>
-      <c r="BD4" s="125"/>
-      <c r="BE4" s="125"/>
-      <c r="BF4" s="125"/>
-      <c r="BG4" s="125"/>
-      <c r="BH4" s="125"/>
-      <c r="BI4" s="125"/>
-      <c r="BJ4" s="125"/>
-      <c r="BK4" s="125"/>
-      <c r="BL4" s="125"/>
-      <c r="BM4" s="125"/>
-      <c r="BN4" s="125"/>
-      <c r="BO4" s="125"/>
-      <c r="BP4" s="125"/>
-      <c r="BQ4" s="125"/>
-      <c r="BR4" s="125"/>
-      <c r="BS4" s="125"/>
-      <c r="BT4" s="125"/>
-      <c r="BU4" s="126"/>
-      <c r="BV4" s="164" t="s">
+      <c r="AR4" s="127"/>
+      <c r="AS4" s="127"/>
+      <c r="AT4" s="127"/>
+      <c r="AU4" s="127"/>
+      <c r="AV4" s="127"/>
+      <c r="AW4" s="127"/>
+      <c r="AX4" s="127"/>
+      <c r="AY4" s="127"/>
+      <c r="AZ4" s="127"/>
+      <c r="BA4" s="127"/>
+      <c r="BB4" s="127"/>
+      <c r="BC4" s="127"/>
+      <c r="BD4" s="127"/>
+      <c r="BE4" s="127"/>
+      <c r="BF4" s="127"/>
+      <c r="BG4" s="127"/>
+      <c r="BH4" s="127"/>
+      <c r="BI4" s="127"/>
+      <c r="BJ4" s="127"/>
+      <c r="BK4" s="127"/>
+      <c r="BL4" s="127"/>
+      <c r="BM4" s="127"/>
+      <c r="BN4" s="127"/>
+      <c r="BO4" s="127"/>
+      <c r="BP4" s="127"/>
+      <c r="BQ4" s="127"/>
+      <c r="BR4" s="127"/>
+      <c r="BS4" s="127"/>
+      <c r="BT4" s="127"/>
+      <c r="BU4" s="128"/>
+      <c r="BV4" s="146" t="s">
         <v>65</v>
       </c>
-      <c r="BW4" s="125"/>
-      <c r="BX4" s="125"/>
-      <c r="BY4" s="125"/>
-      <c r="BZ4" s="125"/>
-      <c r="CA4" s="125"/>
-      <c r="CB4" s="125"/>
-      <c r="CC4" s="125"/>
-      <c r="CD4" s="125"/>
-      <c r="CE4" s="125"/>
-      <c r="CF4" s="125"/>
-      <c r="CG4" s="125"/>
-      <c r="CH4" s="125"/>
-      <c r="CI4" s="125"/>
-      <c r="CJ4" s="125"/>
-      <c r="CK4" s="125"/>
-      <c r="CL4" s="125"/>
-      <c r="CM4" s="125"/>
-      <c r="CN4" s="125"/>
-      <c r="CO4" s="125"/>
-      <c r="CP4" s="125"/>
-      <c r="CQ4" s="125"/>
-      <c r="CR4" s="125"/>
-      <c r="CS4" s="125"/>
-      <c r="CT4" s="125"/>
-      <c r="CU4" s="125"/>
-      <c r="CV4" s="125"/>
-      <c r="CW4" s="125"/>
-      <c r="CX4" s="125"/>
-      <c r="CY4" s="126"/>
-      <c r="CZ4" s="164" t="s">
+      <c r="BW4" s="127"/>
+      <c r="BX4" s="127"/>
+      <c r="BY4" s="127"/>
+      <c r="BZ4" s="127"/>
+      <c r="CA4" s="127"/>
+      <c r="CB4" s="127"/>
+      <c r="CC4" s="127"/>
+      <c r="CD4" s="127"/>
+      <c r="CE4" s="127"/>
+      <c r="CF4" s="127"/>
+      <c r="CG4" s="127"/>
+      <c r="CH4" s="127"/>
+      <c r="CI4" s="127"/>
+      <c r="CJ4" s="127"/>
+      <c r="CK4" s="127"/>
+      <c r="CL4" s="127"/>
+      <c r="CM4" s="127"/>
+      <c r="CN4" s="127"/>
+      <c r="CO4" s="127"/>
+      <c r="CP4" s="127"/>
+      <c r="CQ4" s="127"/>
+      <c r="CR4" s="127"/>
+      <c r="CS4" s="127"/>
+      <c r="CT4" s="127"/>
+      <c r="CU4" s="127"/>
+      <c r="CV4" s="127"/>
+      <c r="CW4" s="127"/>
+      <c r="CX4" s="127"/>
+      <c r="CY4" s="128"/>
+      <c r="CZ4" s="146" t="s">
         <v>66</v>
       </c>
-      <c r="DA4" s="125"/>
-      <c r="DB4" s="125"/>
-      <c r="DC4" s="125"/>
-      <c r="DD4" s="125"/>
-      <c r="DE4" s="125"/>
-      <c r="DF4" s="125"/>
-      <c r="DG4" s="125"/>
-      <c r="DH4" s="125"/>
-      <c r="DI4" s="125"/>
-      <c r="DJ4" s="125"/>
-      <c r="DK4" s="125"/>
-      <c r="DL4" s="125"/>
-      <c r="DM4" s="125"/>
-      <c r="DN4" s="125"/>
-      <c r="DO4" s="125"/>
-      <c r="DP4" s="125"/>
-      <c r="DQ4" s="125"/>
-      <c r="DR4" s="125"/>
-      <c r="DS4" s="125"/>
-      <c r="DT4" s="125"/>
-      <c r="DU4" s="125"/>
-      <c r="DV4" s="126"/>
+      <c r="DA4" s="127"/>
+      <c r="DB4" s="127"/>
+      <c r="DC4" s="127"/>
+      <c r="DD4" s="127"/>
+      <c r="DE4" s="127"/>
+      <c r="DF4" s="127"/>
+      <c r="DG4" s="127"/>
+      <c r="DH4" s="127"/>
+      <c r="DI4" s="127"/>
+      <c r="DJ4" s="127"/>
+      <c r="DK4" s="127"/>
+      <c r="DL4" s="127"/>
+      <c r="DM4" s="127"/>
+      <c r="DN4" s="127"/>
+      <c r="DO4" s="127"/>
+      <c r="DP4" s="127"/>
+      <c r="DQ4" s="127"/>
+      <c r="DR4" s="127"/>
+      <c r="DS4" s="127"/>
+      <c r="DT4" s="127"/>
+      <c r="DU4" s="127"/>
+      <c r="DV4" s="128"/>
       <c r="DW4" s="34"/>
     </row>
     <row r="5" spans="1:127">
@@ -4910,29 +4910,29 @@
     </row>
     <row r="7" spans="1:127" ht="19.5">
       <c r="A7" s="26"/>
-      <c r="B7" s="165" t="s">
+      <c r="B7" s="154" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="120"/>
-      <c r="I7" s="124" t="s">
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="125"/>
-      <c r="K7" s="126"/>
-      <c r="L7" s="124" t="s">
+      <c r="J7" s="127"/>
+      <c r="K7" s="128"/>
+      <c r="L7" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="M7" s="125"/>
-      <c r="N7" s="126"/>
-      <c r="O7" s="127" t="s">
+      <c r="M7" s="127"/>
+      <c r="N7" s="128"/>
+      <c r="O7" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="P7" s="127" t="s">
+      <c r="P7" s="129" t="s">
         <v>4</v>
       </c>
       <c r="Q7" s="42"/>
@@ -5049,13 +5049,13 @@
     </row>
     <row r="8" spans="1:127" ht="19.5">
       <c r="A8" s="26"/>
-      <c r="B8" s="121"/>
-      <c r="C8" s="122"/>
-      <c r="D8" s="122"/>
-      <c r="E8" s="122"/>
-      <c r="F8" s="122"/>
-      <c r="G8" s="122"/>
-      <c r="H8" s="123"/>
+      <c r="B8" s="123"/>
+      <c r="C8" s="124"/>
+      <c r="D8" s="124"/>
+      <c r="E8" s="124"/>
+      <c r="F8" s="124"/>
+      <c r="G8" s="124"/>
+      <c r="H8" s="125"/>
       <c r="I8" s="2" t="s">
         <v>5</v>
       </c>
@@ -5074,8 +5074,8 @@
       <c r="N8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O8" s="128"/>
-      <c r="P8" s="128"/>
+      <c r="O8" s="130"/>
+      <c r="P8" s="130"/>
       <c r="Q8" s="46"/>
       <c r="R8" s="47"/>
       <c r="S8" s="47"/>
@@ -5191,33 +5191,33 @@
     <row r="9" spans="1:127" ht="12" customHeight="1">
       <c r="A9" s="26"/>
       <c r="B9" s="50"/>
-      <c r="C9" s="158" t="s">
+      <c r="C9" s="156" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="134"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="134"/>
-      <c r="G9" s="134"/>
-      <c r="H9" s="134"/>
-      <c r="I9" s="160">
+      <c r="D9" s="157"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="157"/>
+      <c r="G9" s="157"/>
+      <c r="H9" s="157"/>
+      <c r="I9" s="159">
         <v>1</v>
       </c>
-      <c r="J9" s="161">
+      <c r="J9" s="155">
         <f>J11</f>
         <v>45787</v>
       </c>
-      <c r="K9" s="161">
+      <c r="K9" s="155">
         <f>K17</f>
         <v>45787</v>
       </c>
-      <c r="L9" s="160">
+      <c r="L9" s="159">
         <v>1.3</v>
       </c>
-      <c r="M9" s="161">
+      <c r="M9" s="155">
         <f>M11</f>
         <v>45787</v>
       </c>
-      <c r="N9" s="161">
+      <c r="N9" s="155">
         <f>N17</f>
         <v>45790</v>
       </c>
@@ -5340,18 +5340,18 @@
     <row r="10" spans="1:127" ht="12" customHeight="1">
       <c r="A10" s="26"/>
       <c r="B10" s="50"/>
-      <c r="C10" s="135"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="122"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="128"/>
-      <c r="J10" s="123"/>
-      <c r="K10" s="123"/>
-      <c r="L10" s="128"/>
-      <c r="M10" s="123"/>
-      <c r="N10" s="123"/>
+      <c r="C10" s="158"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
+      <c r="F10" s="124"/>
+      <c r="G10" s="124"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="130"/>
+      <c r="J10" s="125"/>
+      <c r="K10" s="125"/>
+      <c r="L10" s="130"/>
+      <c r="M10" s="125"/>
+      <c r="N10" s="125"/>
       <c r="O10" s="53"/>
       <c r="P10" s="53"/>
       <c r="Q10" s="46"/>
@@ -5470,37 +5470,37 @@
       <c r="A11" s="26"/>
       <c r="B11" s="50"/>
       <c r="C11" s="54"/>
-      <c r="D11" s="162" t="s">
+      <c r="D11" s="160" t="s">
         <v>76</v>
       </c>
-      <c r="E11" s="119"/>
-      <c r="F11" s="119"/>
-      <c r="G11" s="119"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="155">
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="147">
         <v>0.1</v>
       </c>
-      <c r="J11" s="163">
+      <c r="J11" s="161">
         <v>45787</v>
       </c>
-      <c r="K11" s="163">
+      <c r="K11" s="161">
         <f>$J$11</f>
         <v>45787</v>
       </c>
-      <c r="L11" s="155">
+      <c r="L11" s="147">
         <v>0.1</v>
       </c>
-      <c r="M11" s="163">
+      <c r="M11" s="161">
         <v>45787</v>
       </c>
-      <c r="N11" s="163">
+      <c r="N11" s="161">
         <f>$J$11</f>
         <v>45787</v>
       </c>
-      <c r="O11" s="155" t="s">
+      <c r="O11" s="147" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="155">
+      <c r="P11" s="147">
         <v>100</v>
       </c>
       <c r="Q11" s="55"/>
@@ -5619,19 +5619,19 @@
       <c r="A12" s="26"/>
       <c r="B12" s="50"/>
       <c r="C12" s="63"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="122"/>
-      <c r="F12" s="122"/>
-      <c r="G12" s="122"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="128"/>
-      <c r="J12" s="128"/>
-      <c r="K12" s="128"/>
-      <c r="L12" s="128"/>
-      <c r="M12" s="128"/>
-      <c r="N12" s="128"/>
-      <c r="O12" s="128"/>
-      <c r="P12" s="128"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="124"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="130"/>
+      <c r="K12" s="130"/>
+      <c r="L12" s="130"/>
+      <c r="M12" s="130"/>
+      <c r="N12" s="130"/>
+      <c r="O12" s="130"/>
+      <c r="P12" s="130"/>
       <c r="Q12" s="55"/>
       <c r="R12" s="55"/>
       <c r="S12" s="55"/>
@@ -5748,39 +5748,39 @@
       <c r="A13" s="26"/>
       <c r="B13" s="50"/>
       <c r="C13" s="63"/>
-      <c r="D13" s="162" t="s">
+      <c r="D13" s="160" t="s">
         <v>78</v>
       </c>
-      <c r="E13" s="119"/>
-      <c r="F13" s="119"/>
-      <c r="G13" s="119"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="155">
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="147">
         <v>0.1</v>
       </c>
-      <c r="J13" s="163">
+      <c r="J13" s="161">
         <f t="shared" ref="J13:K13" si="1">$J$11</f>
         <v>45787</v>
       </c>
-      <c r="K13" s="163">
+      <c r="K13" s="161">
         <f t="shared" si="1"/>
         <v>45787</v>
       </c>
-      <c r="L13" s="155">
+      <c r="L13" s="147">
         <v>0.1</v>
       </c>
-      <c r="M13" s="163">
+      <c r="M13" s="161">
         <f t="shared" ref="M13:N13" si="2">$J$11</f>
         <v>45787</v>
       </c>
-      <c r="N13" s="163">
+      <c r="N13" s="161">
         <f t="shared" si="2"/>
         <v>45787</v>
       </c>
-      <c r="O13" s="155" t="s">
+      <c r="O13" s="147" t="s">
         <v>77</v>
       </c>
-      <c r="P13" s="155">
+      <c r="P13" s="147">
         <v>100</v>
       </c>
       <c r="Q13" s="55"/>
@@ -5899,19 +5899,19 @@
       <c r="A14" s="26"/>
       <c r="B14" s="50"/>
       <c r="C14" s="63"/>
-      <c r="D14" s="121"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="122"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="128"/>
-      <c r="J14" s="128"/>
-      <c r="K14" s="128"/>
-      <c r="L14" s="128"/>
-      <c r="M14" s="128"/>
-      <c r="N14" s="128"/>
-      <c r="O14" s="128"/>
-      <c r="P14" s="128"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="124"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="130"/>
+      <c r="J14" s="130"/>
+      <c r="K14" s="130"/>
+      <c r="L14" s="130"/>
+      <c r="M14" s="130"/>
+      <c r="N14" s="130"/>
+      <c r="O14" s="130"/>
+      <c r="P14" s="130"/>
       <c r="Q14" s="55"/>
       <c r="R14" s="55"/>
       <c r="S14" s="55"/>
@@ -6028,39 +6028,39 @@
       <c r="A15" s="26"/>
       <c r="B15" s="50"/>
       <c r="C15" s="63"/>
-      <c r="D15" s="162" t="s">
+      <c r="D15" s="160" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="119"/>
-      <c r="F15" s="119"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="155">
+      <c r="E15" s="121"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="147">
         <v>0.1</v>
       </c>
-      <c r="J15" s="163">
+      <c r="J15" s="161">
         <f t="shared" ref="J15:K15" si="3">$J$11</f>
         <v>45787</v>
       </c>
-      <c r="K15" s="163">
+      <c r="K15" s="161">
         <f t="shared" si="3"/>
         <v>45787</v>
       </c>
-      <c r="L15" s="155">
+      <c r="L15" s="147">
         <v>0.1</v>
       </c>
-      <c r="M15" s="163">
+      <c r="M15" s="161">
         <f t="shared" ref="M15:N15" si="4">$J$11</f>
         <v>45787</v>
       </c>
-      <c r="N15" s="163">
+      <c r="N15" s="161">
         <f t="shared" si="4"/>
         <v>45787</v>
       </c>
-      <c r="O15" s="155" t="s">
+      <c r="O15" s="147" t="s">
         <v>77</v>
       </c>
-      <c r="P15" s="155">
+      <c r="P15" s="147">
         <v>100</v>
       </c>
       <c r="Q15" s="55"/>
@@ -6179,19 +6179,19 @@
       <c r="A16" s="26"/>
       <c r="B16" s="50"/>
       <c r="C16" s="63"/>
-      <c r="D16" s="121"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="122"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="128"/>
-      <c r="J16" s="128"/>
-      <c r="K16" s="128"/>
-      <c r="L16" s="128"/>
-      <c r="M16" s="128"/>
-      <c r="N16" s="128"/>
-      <c r="O16" s="128"/>
-      <c r="P16" s="128"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="124"/>
+      <c r="F16" s="124"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="130"/>
+      <c r="K16" s="130"/>
+      <c r="L16" s="130"/>
+      <c r="M16" s="130"/>
+      <c r="N16" s="130"/>
+      <c r="O16" s="130"/>
+      <c r="P16" s="130"/>
       <c r="Q16" s="55"/>
       <c r="R16" s="55"/>
       <c r="S16" s="55"/>
@@ -6308,37 +6308,37 @@
       <c r="A17" s="26"/>
       <c r="B17" s="50"/>
       <c r="C17" s="63"/>
-      <c r="D17" s="162" t="s">
+      <c r="D17" s="160" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="119"/>
-      <c r="F17" s="119"/>
-      <c r="G17" s="119"/>
-      <c r="H17" s="120"/>
-      <c r="I17" s="155">
+      <c r="E17" s="121"/>
+      <c r="F17" s="121"/>
+      <c r="G17" s="121"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="147">
         <v>0.7</v>
       </c>
-      <c r="J17" s="163">
+      <c r="J17" s="161">
         <f t="shared" ref="J17:K17" si="5">$J$11</f>
         <v>45787</v>
       </c>
-      <c r="K17" s="163">
+      <c r="K17" s="161">
         <f t="shared" si="5"/>
         <v>45787</v>
       </c>
-      <c r="L17" s="155">
+      <c r="L17" s="147">
         <v>3</v>
       </c>
-      <c r="M17" s="163">
+      <c r="M17" s="161">
         <v>45787</v>
       </c>
-      <c r="N17" s="163">
+      <c r="N17" s="161">
         <v>45790</v>
       </c>
-      <c r="O17" s="155" t="s">
+      <c r="O17" s="147" t="s">
         <v>77</v>
       </c>
-      <c r="P17" s="155">
+      <c r="P17" s="147">
         <v>100</v>
       </c>
       <c r="Q17" s="55"/>
@@ -6457,19 +6457,19 @@
       <c r="A18" s="26"/>
       <c r="B18" s="50"/>
       <c r="C18" s="64"/>
-      <c r="D18" s="121"/>
-      <c r="E18" s="122"/>
-      <c r="F18" s="122"/>
-      <c r="G18" s="122"/>
-      <c r="H18" s="123"/>
-      <c r="I18" s="128"/>
-      <c r="J18" s="128"/>
-      <c r="K18" s="128"/>
-      <c r="L18" s="128"/>
-      <c r="M18" s="128"/>
-      <c r="N18" s="128"/>
-      <c r="O18" s="128"/>
-      <c r="P18" s="128"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="124"/>
+      <c r="F18" s="124"/>
+      <c r="G18" s="124"/>
+      <c r="H18" s="125"/>
+      <c r="I18" s="130"/>
+      <c r="J18" s="130"/>
+      <c r="K18" s="130"/>
+      <c r="L18" s="130"/>
+      <c r="M18" s="130"/>
+      <c r="N18" s="130"/>
+      <c r="O18" s="130"/>
+      <c r="P18" s="130"/>
       <c r="Q18" s="65"/>
       <c r="R18" s="65"/>
       <c r="S18" s="65"/>
@@ -6585,24 +6585,24 @@
     <row r="19" spans="1:127" ht="12" customHeight="1">
       <c r="A19" s="26"/>
       <c r="B19" s="50"/>
-      <c r="C19" s="158" t="s">
+      <c r="C19" s="156" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="134"/>
-      <c r="E19" s="134"/>
-      <c r="F19" s="134"/>
-      <c r="G19" s="134"/>
-      <c r="H19" s="134"/>
-      <c r="I19" s="160">
+      <c r="D19" s="157"/>
+      <c r="E19" s="157"/>
+      <c r="F19" s="157"/>
+      <c r="G19" s="157"/>
+      <c r="H19" s="157"/>
+      <c r="I19" s="159">
         <v>1</v>
       </c>
-      <c r="J19" s="161">
+      <c r="J19" s="155">
         <v>45790</v>
       </c>
-      <c r="K19" s="161">
+      <c r="K19" s="155">
         <v>45790</v>
       </c>
-      <c r="L19" s="160"/>
+      <c r="L19" s="159"/>
       <c r="M19" s="74"/>
       <c r="N19" s="74"/>
       <c r="O19" s="75"/>
@@ -6722,16 +6722,16 @@
     <row r="20" spans="1:127" ht="12" customHeight="1">
       <c r="A20" s="26"/>
       <c r="B20" s="50"/>
-      <c r="C20" s="159"/>
-      <c r="D20" s="141"/>
-      <c r="E20" s="141"/>
-      <c r="F20" s="141"/>
-      <c r="G20" s="141"/>
-      <c r="H20" s="141"/>
-      <c r="I20" s="128"/>
-      <c r="J20" s="123"/>
-      <c r="K20" s="123"/>
-      <c r="L20" s="128"/>
+      <c r="C20" s="163"/>
+      <c r="D20" s="142"/>
+      <c r="E20" s="142"/>
+      <c r="F20" s="142"/>
+      <c r="G20" s="142"/>
+      <c r="H20" s="142"/>
+      <c r="I20" s="130"/>
+      <c r="J20" s="125"/>
+      <c r="K20" s="125"/>
+      <c r="L20" s="130"/>
       <c r="M20" s="74"/>
       <c r="N20" s="74"/>
       <c r="O20" s="75"/>
@@ -6852,35 +6852,35 @@
       <c r="A21" s="26"/>
       <c r="B21" s="50"/>
       <c r="C21" s="54"/>
-      <c r="D21" s="162" t="s">
+      <c r="D21" s="160" t="s">
         <v>81</v>
       </c>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="120"/>
-      <c r="I21" s="155">
+      <c r="E21" s="121"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="121"/>
+      <c r="H21" s="122"/>
+      <c r="I21" s="147">
         <v>1</v>
       </c>
-      <c r="J21" s="157">
+      <c r="J21" s="162">
         <v>45790</v>
       </c>
-      <c r="K21" s="157">
+      <c r="K21" s="162">
         <v>45790</v>
       </c>
-      <c r="L21" s="155">
+      <c r="L21" s="147">
         <v>5.5</v>
       </c>
-      <c r="M21" s="157">
+      <c r="M21" s="162">
         <v>45790</v>
       </c>
-      <c r="N21" s="157">
+      <c r="N21" s="162">
         <v>45790</v>
       </c>
-      <c r="O21" s="155" t="s">
+      <c r="O21" s="147" t="s">
         <v>77</v>
       </c>
-      <c r="P21" s="155">
+      <c r="P21" s="147">
         <v>100</v>
       </c>
       <c r="Q21" s="55"/>
@@ -6999,19 +6999,19 @@
       <c r="A22" s="26"/>
       <c r="B22" s="50"/>
       <c r="C22" s="63"/>
-      <c r="D22" s="121"/>
-      <c r="E22" s="122"/>
-      <c r="F22" s="122"/>
-      <c r="G22" s="122"/>
-      <c r="H22" s="123"/>
-      <c r="I22" s="128"/>
-      <c r="J22" s="128"/>
-      <c r="K22" s="128"/>
-      <c r="L22" s="128"/>
-      <c r="M22" s="128"/>
-      <c r="N22" s="128"/>
-      <c r="O22" s="128"/>
-      <c r="P22" s="128"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="124"/>
+      <c r="F22" s="124"/>
+      <c r="G22" s="124"/>
+      <c r="H22" s="125"/>
+      <c r="I22" s="130"/>
+      <c r="J22" s="130"/>
+      <c r="K22" s="130"/>
+      <c r="L22" s="130"/>
+      <c r="M22" s="130"/>
+      <c r="N22" s="130"/>
+      <c r="O22" s="130"/>
+      <c r="P22" s="130"/>
       <c r="Q22" s="82"/>
       <c r="R22" s="83"/>
       <c r="S22" s="83"/>
@@ -7127,24 +7127,24 @@
     <row r="23" spans="1:127" ht="12" customHeight="1">
       <c r="A23" s="26"/>
       <c r="B23" s="91"/>
-      <c r="C23" s="156" t="s">
+      <c r="C23" s="164" t="s">
         <v>82</v>
       </c>
-      <c r="D23" s="134"/>
-      <c r="E23" s="134"/>
-      <c r="F23" s="134"/>
-      <c r="G23" s="134"/>
-      <c r="H23" s="134"/>
-      <c r="I23" s="136">
+      <c r="D23" s="157"/>
+      <c r="E23" s="157"/>
+      <c r="F23" s="157"/>
+      <c r="G23" s="157"/>
+      <c r="H23" s="157"/>
+      <c r="I23" s="165">
         <v>10</v>
       </c>
-      <c r="J23" s="132">
+      <c r="J23" s="139">
         <v>45791</v>
       </c>
-      <c r="K23" s="132">
+      <c r="K23" s="139">
         <v>45792</v>
       </c>
-      <c r="L23" s="146"/>
+      <c r="L23" s="166"/>
       <c r="M23" s="92"/>
       <c r="N23" s="92"/>
       <c r="O23" s="93"/>
@@ -7264,16 +7264,16 @@
     <row r="24" spans="1:127" ht="12" customHeight="1">
       <c r="A24" s="26"/>
       <c r="B24" s="91"/>
-      <c r="C24" s="135"/>
-      <c r="D24" s="122"/>
-      <c r="E24" s="122"/>
-      <c r="F24" s="122"/>
-      <c r="G24" s="122"/>
-      <c r="H24" s="122"/>
-      <c r="I24" s="128"/>
-      <c r="J24" s="123"/>
-      <c r="K24" s="123"/>
-      <c r="L24" s="128"/>
+      <c r="C24" s="158"/>
+      <c r="D24" s="124"/>
+      <c r="E24" s="124"/>
+      <c r="F24" s="124"/>
+      <c r="G24" s="124"/>
+      <c r="H24" s="124"/>
+      <c r="I24" s="130"/>
+      <c r="J24" s="125"/>
+      <c r="K24" s="125"/>
+      <c r="L24" s="130"/>
       <c r="M24" s="97"/>
       <c r="N24" s="97"/>
       <c r="O24" s="98"/>
@@ -7394,35 +7394,35 @@
       <c r="A25" s="26"/>
       <c r="B25" s="91"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="152" t="s">
+      <c r="D25" s="167" t="s">
         <v>83</v>
       </c>
-      <c r="E25" s="119"/>
-      <c r="F25" s="119"/>
-      <c r="G25" s="119"/>
-      <c r="H25" s="120"/>
-      <c r="I25" s="131">
+      <c r="E25" s="121"/>
+      <c r="F25" s="121"/>
+      <c r="G25" s="121"/>
+      <c r="H25" s="122"/>
+      <c r="I25" s="132">
         <v>4</v>
       </c>
-      <c r="J25" s="129">
+      <c r="J25" s="133">
         <v>45791</v>
       </c>
-      <c r="K25" s="129">
+      <c r="K25" s="133">
         <v>45791</v>
       </c>
-      <c r="L25" s="131">
+      <c r="L25" s="132">
         <v>7</v>
       </c>
-      <c r="M25" s="129">
+      <c r="M25" s="133">
         <v>45791</v>
       </c>
-      <c r="N25" s="129">
+      <c r="N25" s="133">
         <v>45791</v>
       </c>
-      <c r="O25" s="131" t="s">
+      <c r="O25" s="132" t="s">
         <v>77</v>
       </c>
-      <c r="P25" s="155">
+      <c r="P25" s="147">
         <v>100</v>
       </c>
       <c r="Q25" s="55"/>
@@ -7541,19 +7541,19 @@
       <c r="A26" s="26"/>
       <c r="B26" s="91"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="121"/>
-      <c r="E26" s="122"/>
-      <c r="F26" s="122"/>
-      <c r="G26" s="122"/>
-      <c r="H26" s="123"/>
-      <c r="I26" s="128"/>
-      <c r="J26" s="128"/>
-      <c r="K26" s="128"/>
-      <c r="L26" s="128"/>
-      <c r="M26" s="128"/>
-      <c r="N26" s="128"/>
-      <c r="O26" s="128"/>
-      <c r="P26" s="128"/>
+      <c r="D26" s="123"/>
+      <c r="E26" s="124"/>
+      <c r="F26" s="124"/>
+      <c r="G26" s="124"/>
+      <c r="H26" s="125"/>
+      <c r="I26" s="130"/>
+      <c r="J26" s="130"/>
+      <c r="K26" s="130"/>
+      <c r="L26" s="130"/>
+      <c r="M26" s="130"/>
+      <c r="N26" s="130"/>
+      <c r="O26" s="130"/>
+      <c r="P26" s="130"/>
       <c r="Q26" s="55"/>
       <c r="R26" s="56"/>
       <c r="S26" s="56"/>
@@ -7670,35 +7670,35 @@
       <c r="A27" s="26"/>
       <c r="B27" s="91"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="152" t="s">
+      <c r="D27" s="167" t="s">
         <v>84</v>
       </c>
-      <c r="E27" s="119"/>
-      <c r="F27" s="119"/>
-      <c r="G27" s="119"/>
-      <c r="H27" s="120"/>
-      <c r="I27" s="131">
+      <c r="E27" s="121"/>
+      <c r="F27" s="121"/>
+      <c r="G27" s="121"/>
+      <c r="H27" s="122"/>
+      <c r="I27" s="132">
         <v>6</v>
       </c>
-      <c r="J27" s="153">
+      <c r="J27" s="168">
         <v>45791</v>
       </c>
-      <c r="K27" s="129">
+      <c r="K27" s="133">
         <v>45792</v>
       </c>
-      <c r="L27" s="131">
+      <c r="L27" s="132">
         <v>3</v>
       </c>
-      <c r="M27" s="129">
+      <c r="M27" s="133">
         <v>45792</v>
       </c>
-      <c r="N27" s="129">
+      <c r="N27" s="133">
         <v>45792</v>
       </c>
-      <c r="O27" s="131" t="s">
+      <c r="O27" s="132" t="s">
         <v>77</v>
       </c>
-      <c r="P27" s="131">
+      <c r="P27" s="132">
         <v>100</v>
       </c>
       <c r="Q27" s="55"/>
@@ -7817,19 +7817,19 @@
       <c r="A28" s="26"/>
       <c r="B28" s="91"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="121"/>
-      <c r="E28" s="122"/>
-      <c r="F28" s="122"/>
-      <c r="G28" s="122"/>
-      <c r="H28" s="123"/>
-      <c r="I28" s="128"/>
-      <c r="J28" s="128"/>
-      <c r="K28" s="128"/>
-      <c r="L28" s="128"/>
-      <c r="M28" s="128"/>
-      <c r="N28" s="128"/>
-      <c r="O28" s="128"/>
-      <c r="P28" s="128"/>
+      <c r="D28" s="123"/>
+      <c r="E28" s="124"/>
+      <c r="F28" s="124"/>
+      <c r="G28" s="124"/>
+      <c r="H28" s="125"/>
+      <c r="I28" s="130"/>
+      <c r="J28" s="130"/>
+      <c r="K28" s="130"/>
+      <c r="L28" s="130"/>
+      <c r="M28" s="130"/>
+      <c r="N28" s="130"/>
+      <c r="O28" s="130"/>
+      <c r="P28" s="130"/>
       <c r="Q28" s="65"/>
       <c r="R28" s="67"/>
       <c r="S28" s="67"/>
@@ -7946,35 +7946,35 @@
       <c r="A29" s="26"/>
       <c r="B29" s="91"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="152" t="s">
+      <c r="D29" s="167" t="s">
         <v>85</v>
       </c>
-      <c r="E29" s="119"/>
-      <c r="F29" s="119"/>
-      <c r="G29" s="119"/>
-      <c r="H29" s="120"/>
-      <c r="I29" s="131">
+      <c r="E29" s="121"/>
+      <c r="F29" s="121"/>
+      <c r="G29" s="121"/>
+      <c r="H29" s="122"/>
+      <c r="I29" s="132">
         <v>4</v>
       </c>
-      <c r="J29" s="129">
+      <c r="J29" s="133">
         <v>45792</v>
       </c>
-      <c r="K29" s="153">
+      <c r="K29" s="168">
         <v>45792</v>
       </c>
-      <c r="L29" s="142">
+      <c r="L29" s="134">
         <v>3</v>
       </c>
-      <c r="M29" s="129">
+      <c r="M29" s="133">
         <v>45792</v>
       </c>
-      <c r="N29" s="129">
+      <c r="N29" s="133">
         <v>45792</v>
       </c>
-      <c r="O29" s="154" t="s">
+      <c r="O29" s="169" t="s">
         <v>99</v>
       </c>
-      <c r="P29" s="131">
+      <c r="P29" s="132">
         <v>100</v>
       </c>
       <c r="Q29" s="55"/>
@@ -8093,19 +8093,19 @@
       <c r="A30" s="26"/>
       <c r="B30" s="91"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="121"/>
-      <c r="E30" s="122"/>
-      <c r="F30" s="122"/>
-      <c r="G30" s="122"/>
-      <c r="H30" s="123"/>
-      <c r="I30" s="128"/>
-      <c r="J30" s="128"/>
-      <c r="K30" s="128"/>
-      <c r="L30" s="138"/>
-      <c r="M30" s="128"/>
-      <c r="N30" s="128"/>
-      <c r="O30" s="128"/>
-      <c r="P30" s="128"/>
+      <c r="D30" s="123"/>
+      <c r="E30" s="124"/>
+      <c r="F30" s="124"/>
+      <c r="G30" s="124"/>
+      <c r="H30" s="125"/>
+      <c r="I30" s="130"/>
+      <c r="J30" s="130"/>
+      <c r="K30" s="130"/>
+      <c r="L30" s="135"/>
+      <c r="M30" s="130"/>
+      <c r="N30" s="130"/>
+      <c r="O30" s="130"/>
+      <c r="P30" s="130"/>
       <c r="Q30" s="55"/>
       <c r="R30" s="56"/>
       <c r="S30" s="56"/>
@@ -8221,24 +8221,24 @@
     <row r="31" spans="1:127" ht="12" customHeight="1">
       <c r="A31" s="26"/>
       <c r="B31" s="99"/>
-      <c r="C31" s="133" t="s">
+      <c r="C31" s="171" t="s">
         <v>86</v>
       </c>
-      <c r="D31" s="134"/>
-      <c r="E31" s="134"/>
-      <c r="F31" s="134"/>
-      <c r="G31" s="134"/>
-      <c r="H31" s="134"/>
-      <c r="I31" s="136">
+      <c r="D31" s="157"/>
+      <c r="E31" s="157"/>
+      <c r="F31" s="157"/>
+      <c r="G31" s="157"/>
+      <c r="H31" s="157"/>
+      <c r="I31" s="165">
         <v>32</v>
       </c>
-      <c r="J31" s="132">
+      <c r="J31" s="139">
         <v>45793</v>
       </c>
-      <c r="K31" s="132">
+      <c r="K31" s="139">
         <v>45798</v>
       </c>
-      <c r="L31" s="146"/>
+      <c r="L31" s="166"/>
       <c r="M31" s="100"/>
       <c r="N31" s="100"/>
       <c r="O31" s="101"/>
@@ -8358,16 +8358,16 @@
     <row r="32" spans="1:127" ht="12" customHeight="1">
       <c r="A32" s="26"/>
       <c r="B32" s="99"/>
-      <c r="C32" s="135"/>
-      <c r="D32" s="122"/>
-      <c r="E32" s="122"/>
-      <c r="F32" s="122"/>
-      <c r="G32" s="122"/>
-      <c r="H32" s="122"/>
-      <c r="I32" s="128"/>
-      <c r="J32" s="123"/>
-      <c r="K32" s="123"/>
-      <c r="L32" s="128"/>
+      <c r="C32" s="158"/>
+      <c r="D32" s="124"/>
+      <c r="E32" s="124"/>
+      <c r="F32" s="124"/>
+      <c r="G32" s="124"/>
+      <c r="H32" s="124"/>
+      <c r="I32" s="130"/>
+      <c r="J32" s="125"/>
+      <c r="K32" s="125"/>
+      <c r="L32" s="130"/>
       <c r="M32" s="102"/>
       <c r="N32" s="102"/>
       <c r="O32" s="103"/>
@@ -8488,23 +8488,23 @@
       <c r="A33" s="26"/>
       <c r="B33" s="99"/>
       <c r="C33" s="104"/>
-      <c r="D33" s="145" t="s">
+      <c r="D33" s="137" t="s">
         <v>105</v>
       </c>
-      <c r="E33" s="119"/>
-      <c r="F33" s="119"/>
-      <c r="G33" s="119"/>
-      <c r="H33" s="120"/>
-      <c r="I33" s="139">
+      <c r="E33" s="121"/>
+      <c r="F33" s="121"/>
+      <c r="G33" s="121"/>
+      <c r="H33" s="122"/>
+      <c r="I33" s="138">
         <v>8</v>
       </c>
-      <c r="J33" s="132">
+      <c r="J33" s="139">
         <v>45793</v>
       </c>
-      <c r="K33" s="132">
+      <c r="K33" s="139">
         <v>45793</v>
       </c>
-      <c r="L33" s="146"/>
+      <c r="L33" s="166"/>
       <c r="M33" s="100"/>
       <c r="N33" s="100"/>
       <c r="O33" s="101"/>
@@ -8625,15 +8625,15 @@
       <c r="A34" s="26"/>
       <c r="B34" s="99"/>
       <c r="C34" s="105"/>
-      <c r="D34" s="121"/>
-      <c r="E34" s="122"/>
-      <c r="F34" s="122"/>
-      <c r="G34" s="122"/>
-      <c r="H34" s="123"/>
-      <c r="I34" s="123"/>
-      <c r="J34" s="123"/>
-      <c r="K34" s="123"/>
-      <c r="L34" s="128"/>
+      <c r="D34" s="123"/>
+      <c r="E34" s="124"/>
+      <c r="F34" s="124"/>
+      <c r="G34" s="124"/>
+      <c r="H34" s="125"/>
+      <c r="I34" s="125"/>
+      <c r="J34" s="125"/>
+      <c r="K34" s="125"/>
+      <c r="L34" s="130"/>
       <c r="M34" s="102"/>
       <c r="N34" s="102"/>
       <c r="O34" s="103"/>
@@ -8755,28 +8755,28 @@
       <c r="B35" s="99"/>
       <c r="C35" s="26"/>
       <c r="D35" s="106"/>
-      <c r="E35" s="140" t="s">
+      <c r="E35" s="141" t="s">
         <v>88</v>
       </c>
-      <c r="F35" s="141"/>
-      <c r="G35" s="141"/>
-      <c r="H35" s="141"/>
-      <c r="I35" s="131">
+      <c r="F35" s="142"/>
+      <c r="G35" s="142"/>
+      <c r="H35" s="142"/>
+      <c r="I35" s="132">
         <v>1</v>
       </c>
-      <c r="J35" s="129">
+      <c r="J35" s="133">
         <v>45793</v>
       </c>
-      <c r="K35" s="129">
+      <c r="K35" s="133">
         <v>45793</v>
       </c>
       <c r="L35" s="150" t="s">
         <v>101</v>
       </c>
       <c r="M35" s="151"/>
-      <c r="N35" s="147"/>
-      <c r="O35" s="149"/>
-      <c r="P35" s="167"/>
+      <c r="N35" s="152"/>
+      <c r="O35" s="153"/>
+      <c r="P35" s="148"/>
       <c r="Q35" s="55"/>
       <c r="R35" s="56"/>
       <c r="S35" s="56"/>
@@ -8894,18 +8894,18 @@
       <c r="B36" s="99"/>
       <c r="C36" s="26"/>
       <c r="D36" s="99"/>
-      <c r="E36" s="122"/>
-      <c r="F36" s="122"/>
-      <c r="G36" s="122"/>
-      <c r="H36" s="122"/>
-      <c r="I36" s="128"/>
-      <c r="J36" s="128"/>
-      <c r="K36" s="128"/>
-      <c r="L36" s="138"/>
-      <c r="M36" s="148"/>
-      <c r="N36" s="148"/>
-      <c r="O36" s="148"/>
-      <c r="P36" s="148"/>
+      <c r="E36" s="124"/>
+      <c r="F36" s="124"/>
+      <c r="G36" s="124"/>
+      <c r="H36" s="124"/>
+      <c r="I36" s="130"/>
+      <c r="J36" s="130"/>
+      <c r="K36" s="130"/>
+      <c r="L36" s="135"/>
+      <c r="M36" s="149"/>
+      <c r="N36" s="149"/>
+      <c r="O36" s="149"/>
+      <c r="P36" s="149"/>
       <c r="Q36" s="55"/>
       <c r="R36" s="56"/>
       <c r="S36" s="56"/>
@@ -9023,32 +9023,32 @@
       <c r="B37" s="99"/>
       <c r="C37" s="26"/>
       <c r="D37" s="99"/>
-      <c r="E37" s="182" t="s">
+      <c r="E37" s="170" t="s">
         <v>106</v>
       </c>
-      <c r="F37" s="141"/>
-      <c r="G37" s="141"/>
-      <c r="H37" s="141"/>
-      <c r="I37" s="131">
+      <c r="F37" s="142"/>
+      <c r="G37" s="142"/>
+      <c r="H37" s="142"/>
+      <c r="I37" s="132">
         <v>4</v>
       </c>
-      <c r="J37" s="129">
+      <c r="J37" s="133">
         <v>45793</v>
       </c>
-      <c r="K37" s="129">
+      <c r="K37" s="133">
         <v>45793</v>
       </c>
-      <c r="L37" s="142">
+      <c r="L37" s="134">
         <v>4</v>
       </c>
-      <c r="M37" s="129">
+      <c r="M37" s="133">
         <v>45793</v>
       </c>
-      <c r="N37" s="129"/>
-      <c r="O37" s="166" t="s">
+      <c r="N37" s="133"/>
+      <c r="O37" s="136" t="s">
         <v>100</v>
       </c>
-      <c r="P37" s="131">
+      <c r="P37" s="132">
         <v>80</v>
       </c>
       <c r="Q37" s="55"/>
@@ -9168,18 +9168,18 @@
       <c r="B38" s="99"/>
       <c r="C38" s="26"/>
       <c r="D38" s="99"/>
-      <c r="E38" s="122"/>
-      <c r="F38" s="122"/>
-      <c r="G38" s="122"/>
-      <c r="H38" s="122"/>
-      <c r="I38" s="128"/>
-      <c r="J38" s="128"/>
-      <c r="K38" s="128"/>
-      <c r="L38" s="138"/>
-      <c r="M38" s="128"/>
-      <c r="N38" s="128"/>
-      <c r="O38" s="128"/>
-      <c r="P38" s="128"/>
+      <c r="E38" s="124"/>
+      <c r="F38" s="124"/>
+      <c r="G38" s="124"/>
+      <c r="H38" s="124"/>
+      <c r="I38" s="130"/>
+      <c r="J38" s="130"/>
+      <c r="K38" s="130"/>
+      <c r="L38" s="135"/>
+      <c r="M38" s="130"/>
+      <c r="N38" s="130"/>
+      <c r="O38" s="130"/>
+      <c r="P38" s="130"/>
       <c r="Q38" s="55"/>
       <c r="R38" s="56"/>
       <c r="S38" s="56"/>
@@ -9297,32 +9297,32 @@
       <c r="B39" s="99"/>
       <c r="C39" s="26"/>
       <c r="D39" s="99"/>
-      <c r="E39" s="179" t="s">
+      <c r="E39" s="131" t="s">
         <v>103</v>
       </c>
-      <c r="F39" s="119"/>
-      <c r="G39" s="119"/>
-      <c r="H39" s="120"/>
-      <c r="I39" s="131">
+      <c r="F39" s="121"/>
+      <c r="G39" s="121"/>
+      <c r="H39" s="122"/>
+      <c r="I39" s="132">
         <v>3</v>
       </c>
-      <c r="J39" s="129">
+      <c r="J39" s="133">
         <v>45793</v>
       </c>
-      <c r="K39" s="129">
+      <c r="K39" s="133">
         <v>45793</v>
       </c>
-      <c r="L39" s="142">
-        <v>2</v>
-      </c>
-      <c r="M39" s="129">
+      <c r="L39" s="134">
+        <v>3</v>
+      </c>
+      <c r="M39" s="133">
         <v>45793</v>
       </c>
-      <c r="N39" s="129"/>
-      <c r="O39" s="166" t="s">
+      <c r="N39" s="133"/>
+      <c r="O39" s="136" t="s">
         <v>100</v>
       </c>
-      <c r="P39" s="131">
+      <c r="P39" s="132">
         <v>50</v>
       </c>
       <c r="Q39" s="55"/>
@@ -9441,19 +9441,19 @@
       <c r="A40" s="26"/>
       <c r="B40" s="99"/>
       <c r="C40" s="26"/>
-      <c r="D40" s="180"/>
-      <c r="E40" s="122"/>
-      <c r="F40" s="122"/>
-      <c r="G40" s="122"/>
-      <c r="H40" s="123"/>
-      <c r="I40" s="128"/>
-      <c r="J40" s="128"/>
-      <c r="K40" s="128"/>
-      <c r="L40" s="138"/>
-      <c r="M40" s="128"/>
-      <c r="N40" s="128"/>
-      <c r="O40" s="128"/>
-      <c r="P40" s="128"/>
+      <c r="D40" s="118"/>
+      <c r="E40" s="124"/>
+      <c r="F40" s="124"/>
+      <c r="G40" s="124"/>
+      <c r="H40" s="125"/>
+      <c r="I40" s="130"/>
+      <c r="J40" s="130"/>
+      <c r="K40" s="130"/>
+      <c r="L40" s="135"/>
+      <c r="M40" s="130"/>
+      <c r="N40" s="130"/>
+      <c r="O40" s="130"/>
+      <c r="P40" s="130"/>
       <c r="Q40" s="65"/>
       <c r="R40" s="67"/>
       <c r="S40" s="67"/>
@@ -9571,32 +9571,32 @@
       <c r="B41" s="110"/>
       <c r="C41" s="116"/>
       <c r="D41" s="110"/>
-      <c r="E41" s="179" t="s">
+      <c r="E41" s="131" t="s">
         <v>104</v>
       </c>
-      <c r="F41" s="119"/>
-      <c r="G41" s="119"/>
-      <c r="H41" s="120"/>
-      <c r="I41" s="131">
+      <c r="F41" s="121"/>
+      <c r="G41" s="121"/>
+      <c r="H41" s="122"/>
+      <c r="I41" s="132">
         <v>4</v>
       </c>
-      <c r="J41" s="129">
+      <c r="J41" s="133">
         <v>45793</v>
       </c>
-      <c r="K41" s="129">
+      <c r="K41" s="133">
         <v>45793</v>
       </c>
-      <c r="L41" s="142">
+      <c r="L41" s="134">
         <v>2</v>
       </c>
-      <c r="M41" s="129">
+      <c r="M41" s="133">
         <v>45793</v>
       </c>
-      <c r="N41" s="129"/>
-      <c r="O41" s="166" t="s">
+      <c r="N41" s="133"/>
+      <c r="O41" s="136" t="s">
         <v>100</v>
       </c>
-      <c r="P41" s="131">
+      <c r="P41" s="132">
         <v>50</v>
       </c>
       <c r="Q41" s="55"/>
@@ -9640,7 +9640,7 @@
       <c r="BC41" s="56"/>
       <c r="BD41" s="56"/>
       <c r="BE41" s="57"/>
-      <c r="BF41" s="181"/>
+      <c r="BF41" s="119"/>
       <c r="BG41" s="58"/>
       <c r="BH41" s="58"/>
       <c r="BI41" s="28"/>
@@ -9716,18 +9716,18 @@
       <c r="B42" s="110"/>
       <c r="C42" s="116"/>
       <c r="D42" s="112"/>
-      <c r="E42" s="122"/>
-      <c r="F42" s="122"/>
-      <c r="G42" s="122"/>
-      <c r="H42" s="123"/>
-      <c r="I42" s="128"/>
-      <c r="J42" s="128"/>
-      <c r="K42" s="128"/>
-      <c r="L42" s="138"/>
-      <c r="M42" s="128"/>
-      <c r="N42" s="128"/>
-      <c r="O42" s="128"/>
-      <c r="P42" s="128"/>
+      <c r="E42" s="124"/>
+      <c r="F42" s="124"/>
+      <c r="G42" s="124"/>
+      <c r="H42" s="125"/>
+      <c r="I42" s="130"/>
+      <c r="J42" s="130"/>
+      <c r="K42" s="130"/>
+      <c r="L42" s="135"/>
+      <c r="M42" s="130"/>
+      <c r="N42" s="130"/>
+      <c r="O42" s="130"/>
+      <c r="P42" s="130"/>
       <c r="Q42" s="65"/>
       <c r="R42" s="67"/>
       <c r="S42" s="67"/>
@@ -9844,23 +9844,23 @@
       <c r="A43" s="116"/>
       <c r="B43" s="110"/>
       <c r="C43" s="116"/>
-      <c r="D43" s="145" t="s">
+      <c r="D43" s="137" t="s">
         <v>91</v>
       </c>
-      <c r="E43" s="174"/>
-      <c r="F43" s="174"/>
-      <c r="G43" s="174"/>
-      <c r="H43" s="175"/>
-      <c r="I43" s="172">
+      <c r="E43" s="172"/>
+      <c r="F43" s="172"/>
+      <c r="G43" s="172"/>
+      <c r="H43" s="173"/>
+      <c r="I43" s="177">
         <v>16</v>
       </c>
-      <c r="J43" s="170">
+      <c r="J43" s="179">
         <v>45796</v>
       </c>
-      <c r="K43" s="170">
+      <c r="K43" s="179">
         <v>45797</v>
       </c>
-      <c r="L43" s="168"/>
+      <c r="L43" s="181"/>
       <c r="M43" s="100"/>
       <c r="N43" s="100"/>
       <c r="O43" s="101"/>
@@ -9981,15 +9981,15 @@
       <c r="A44" s="116"/>
       <c r="B44" s="110"/>
       <c r="C44" s="116"/>
-      <c r="D44" s="176"/>
-      <c r="E44" s="177"/>
-      <c r="F44" s="177"/>
-      <c r="G44" s="177"/>
-      <c r="H44" s="178"/>
-      <c r="I44" s="173"/>
-      <c r="J44" s="171"/>
-      <c r="K44" s="171"/>
-      <c r="L44" s="169"/>
+      <c r="D44" s="174"/>
+      <c r="E44" s="175"/>
+      <c r="F44" s="175"/>
+      <c r="G44" s="175"/>
+      <c r="H44" s="176"/>
+      <c r="I44" s="178"/>
+      <c r="J44" s="180"/>
+      <c r="K44" s="180"/>
+      <c r="L44" s="182"/>
       <c r="M44" s="102"/>
       <c r="N44" s="102"/>
       <c r="O44" s="103"/>
@@ -10111,28 +10111,28 @@
       <c r="B45" s="99"/>
       <c r="C45" s="26"/>
       <c r="D45" s="106"/>
-      <c r="E45" s="140" t="s">
+      <c r="E45" s="141" t="s">
         <v>92</v>
       </c>
-      <c r="F45" s="141"/>
-      <c r="G45" s="141"/>
-      <c r="H45" s="141"/>
-      <c r="I45" s="131">
+      <c r="F45" s="142"/>
+      <c r="G45" s="142"/>
+      <c r="H45" s="142"/>
+      <c r="I45" s="132">
         <v>2</v>
       </c>
-      <c r="J45" s="129">
+      <c r="J45" s="133">
         <v>45796</v>
       </c>
-      <c r="K45" s="129">
+      <c r="K45" s="133">
         <v>45796</v>
       </c>
       <c r="L45" s="150" t="s">
         <v>102</v>
       </c>
       <c r="M45" s="151"/>
-      <c r="N45" s="147"/>
-      <c r="O45" s="149"/>
-      <c r="P45" s="167"/>
+      <c r="N45" s="152"/>
+      <c r="O45" s="153"/>
+      <c r="P45" s="148"/>
       <c r="Q45" s="55"/>
       <c r="R45" s="56"/>
       <c r="S45" s="56"/>
@@ -10177,7 +10177,7 @@
       <c r="BF45" s="57"/>
       <c r="BG45" s="58"/>
       <c r="BH45" s="58"/>
-      <c r="BI45" s="181"/>
+      <c r="BI45" s="119"/>
       <c r="BJ45" s="56"/>
       <c r="BK45" s="56"/>
       <c r="BL45" s="57"/>
@@ -10250,18 +10250,18 @@
       <c r="B46" s="99"/>
       <c r="C46" s="26"/>
       <c r="D46" s="99"/>
-      <c r="E46" s="122"/>
-      <c r="F46" s="122"/>
-      <c r="G46" s="122"/>
-      <c r="H46" s="122"/>
-      <c r="I46" s="128"/>
-      <c r="J46" s="128"/>
-      <c r="K46" s="128"/>
-      <c r="L46" s="138"/>
-      <c r="M46" s="148"/>
-      <c r="N46" s="148"/>
-      <c r="O46" s="148"/>
-      <c r="P46" s="148"/>
+      <c r="E46" s="124"/>
+      <c r="F46" s="124"/>
+      <c r="G46" s="124"/>
+      <c r="H46" s="124"/>
+      <c r="I46" s="130"/>
+      <c r="J46" s="130"/>
+      <c r="K46" s="130"/>
+      <c r="L46" s="135"/>
+      <c r="M46" s="149"/>
+      <c r="N46" s="149"/>
+      <c r="O46" s="149"/>
+      <c r="P46" s="149"/>
       <c r="Q46" s="55"/>
       <c r="R46" s="56"/>
       <c r="S46" s="56"/>
@@ -10379,26 +10379,26 @@
       <c r="B47" s="99"/>
       <c r="C47" s="26"/>
       <c r="D47" s="99"/>
-      <c r="E47" s="140" t="s">
+      <c r="E47" s="141" t="s">
         <v>107</v>
       </c>
-      <c r="F47" s="141"/>
-      <c r="G47" s="141"/>
-      <c r="H47" s="141"/>
-      <c r="I47" s="131">
+      <c r="F47" s="142"/>
+      <c r="G47" s="142"/>
+      <c r="H47" s="142"/>
+      <c r="I47" s="132">
         <v>14</v>
       </c>
-      <c r="J47" s="129">
+      <c r="J47" s="133">
         <v>45796</v>
       </c>
-      <c r="K47" s="144">
+      <c r="K47" s="145">
         <v>45797</v>
       </c>
-      <c r="L47" s="142"/>
-      <c r="M47" s="129"/>
-      <c r="N47" s="129"/>
-      <c r="O47" s="130"/>
-      <c r="P47" s="131">
+      <c r="L47" s="134"/>
+      <c r="M47" s="133"/>
+      <c r="N47" s="133"/>
+      <c r="O47" s="143"/>
+      <c r="P47" s="132">
         <v>0</v>
       </c>
       <c r="Q47" s="55"/>
@@ -10518,18 +10518,18 @@
       <c r="B48" s="99"/>
       <c r="C48" s="26"/>
       <c r="D48" s="99"/>
-      <c r="E48" s="122"/>
-      <c r="F48" s="122"/>
-      <c r="G48" s="122"/>
-      <c r="H48" s="122"/>
-      <c r="I48" s="128"/>
-      <c r="J48" s="128"/>
-      <c r="K48" s="123"/>
-      <c r="L48" s="138"/>
-      <c r="M48" s="128"/>
-      <c r="N48" s="128"/>
-      <c r="O48" s="128"/>
-      <c r="P48" s="128"/>
+      <c r="E48" s="124"/>
+      <c r="F48" s="124"/>
+      <c r="G48" s="124"/>
+      <c r="H48" s="124"/>
+      <c r="I48" s="130"/>
+      <c r="J48" s="130"/>
+      <c r="K48" s="125"/>
+      <c r="L48" s="135"/>
+      <c r="M48" s="130"/>
+      <c r="N48" s="130"/>
+      <c r="O48" s="130"/>
+      <c r="P48" s="130"/>
       <c r="Q48" s="55"/>
       <c r="R48" s="56"/>
       <c r="S48" s="56"/>
@@ -10647,18 +10647,18 @@
       <c r="B49" s="99"/>
       <c r="C49" s="26"/>
       <c r="D49" s="99"/>
-      <c r="E49" s="143"/>
-      <c r="F49" s="119"/>
-      <c r="G49" s="119"/>
-      <c r="H49" s="120"/>
-      <c r="I49" s="131"/>
-      <c r="J49" s="129"/>
-      <c r="K49" s="129"/>
-      <c r="L49" s="142"/>
-      <c r="M49" s="129"/>
-      <c r="N49" s="129"/>
-      <c r="O49" s="130"/>
-      <c r="P49" s="131">
+      <c r="E49" s="144"/>
+      <c r="F49" s="121"/>
+      <c r="G49" s="121"/>
+      <c r="H49" s="122"/>
+      <c r="I49" s="132"/>
+      <c r="J49" s="133"/>
+      <c r="K49" s="133"/>
+      <c r="L49" s="134"/>
+      <c r="M49" s="133"/>
+      <c r="N49" s="133"/>
+      <c r="O49" s="143"/>
+      <c r="P49" s="132">
         <v>0</v>
       </c>
       <c r="Q49" s="55"/>
@@ -10778,18 +10778,18 @@
       <c r="B50" s="99"/>
       <c r="C50" s="26"/>
       <c r="D50" s="107"/>
-      <c r="E50" s="122"/>
-      <c r="F50" s="122"/>
-      <c r="G50" s="122"/>
-      <c r="H50" s="123"/>
-      <c r="I50" s="128"/>
-      <c r="J50" s="128"/>
-      <c r="K50" s="128"/>
-      <c r="L50" s="138"/>
-      <c r="M50" s="128"/>
-      <c r="N50" s="128"/>
-      <c r="O50" s="128"/>
-      <c r="P50" s="128"/>
+      <c r="E50" s="124"/>
+      <c r="F50" s="124"/>
+      <c r="G50" s="124"/>
+      <c r="H50" s="125"/>
+      <c r="I50" s="130"/>
+      <c r="J50" s="130"/>
+      <c r="K50" s="130"/>
+      <c r="L50" s="135"/>
+      <c r="M50" s="130"/>
+      <c r="N50" s="130"/>
+      <c r="O50" s="130"/>
+      <c r="P50" s="130"/>
       <c r="Q50" s="65"/>
       <c r="R50" s="67"/>
       <c r="S50" s="67"/>
@@ -10906,23 +10906,23 @@
       <c r="A51" s="26"/>
       <c r="B51" s="99"/>
       <c r="C51" s="108"/>
-      <c r="D51" s="145" t="s">
+      <c r="D51" s="137" t="s">
         <v>93</v>
       </c>
-      <c r="E51" s="119"/>
-      <c r="F51" s="119"/>
-      <c r="G51" s="119"/>
-      <c r="H51" s="120"/>
-      <c r="I51" s="139">
+      <c r="E51" s="121"/>
+      <c r="F51" s="121"/>
+      <c r="G51" s="121"/>
+      <c r="H51" s="122"/>
+      <c r="I51" s="138">
         <v>6</v>
       </c>
-      <c r="J51" s="132">
+      <c r="J51" s="139">
         <v>45798</v>
       </c>
-      <c r="K51" s="132">
+      <c r="K51" s="139">
         <v>45798</v>
       </c>
-      <c r="L51" s="137"/>
+      <c r="L51" s="140"/>
       <c r="M51" s="100"/>
       <c r="N51" s="100"/>
       <c r="O51" s="101"/>
@@ -11043,15 +11043,15 @@
       <c r="A52" s="26"/>
       <c r="B52" s="99"/>
       <c r="C52" s="108"/>
-      <c r="D52" s="121"/>
-      <c r="E52" s="122"/>
-      <c r="F52" s="122"/>
-      <c r="G52" s="122"/>
-      <c r="H52" s="123"/>
-      <c r="I52" s="123"/>
-      <c r="J52" s="123"/>
-      <c r="K52" s="123"/>
-      <c r="L52" s="138"/>
+      <c r="D52" s="123"/>
+      <c r="E52" s="124"/>
+      <c r="F52" s="124"/>
+      <c r="G52" s="124"/>
+      <c r="H52" s="125"/>
+      <c r="I52" s="125"/>
+      <c r="J52" s="125"/>
+      <c r="K52" s="125"/>
+      <c r="L52" s="135"/>
       <c r="M52" s="102"/>
       <c r="N52" s="102"/>
       <c r="O52" s="103"/>
@@ -11173,26 +11173,26 @@
       <c r="B53" s="99"/>
       <c r="C53" s="108"/>
       <c r="D53" s="109"/>
-      <c r="E53" s="140" t="s">
+      <c r="E53" s="141" t="s">
         <v>93</v>
       </c>
-      <c r="F53" s="141"/>
-      <c r="G53" s="141"/>
-      <c r="H53" s="141"/>
-      <c r="I53" s="131">
+      <c r="F53" s="142"/>
+      <c r="G53" s="142"/>
+      <c r="H53" s="142"/>
+      <c r="I53" s="132">
         <v>3</v>
       </c>
-      <c r="J53" s="129">
+      <c r="J53" s="133">
         <v>45798</v>
       </c>
-      <c r="K53" s="129">
+      <c r="K53" s="133">
         <v>45798</v>
       </c>
-      <c r="L53" s="142"/>
-      <c r="M53" s="129"/>
-      <c r="N53" s="129"/>
-      <c r="O53" s="130"/>
-      <c r="P53" s="131">
+      <c r="L53" s="134"/>
+      <c r="M53" s="133"/>
+      <c r="N53" s="133"/>
+      <c r="O53" s="143"/>
+      <c r="P53" s="132">
         <v>0</v>
       </c>
       <c r="Q53" s="55"/>
@@ -11312,18 +11312,18 @@
       <c r="B54" s="99"/>
       <c r="C54" s="108"/>
       <c r="D54" s="110"/>
-      <c r="E54" s="122"/>
-      <c r="F54" s="122"/>
-      <c r="G54" s="122"/>
-      <c r="H54" s="122"/>
-      <c r="I54" s="128"/>
-      <c r="J54" s="128"/>
-      <c r="K54" s="128"/>
-      <c r="L54" s="138"/>
-      <c r="M54" s="128"/>
-      <c r="N54" s="128"/>
-      <c r="O54" s="128"/>
-      <c r="P54" s="128"/>
+      <c r="E54" s="124"/>
+      <c r="F54" s="124"/>
+      <c r="G54" s="124"/>
+      <c r="H54" s="124"/>
+      <c r="I54" s="130"/>
+      <c r="J54" s="130"/>
+      <c r="K54" s="130"/>
+      <c r="L54" s="135"/>
+      <c r="M54" s="130"/>
+      <c r="N54" s="130"/>
+      <c r="O54" s="130"/>
+      <c r="P54" s="130"/>
       <c r="Q54" s="55"/>
       <c r="R54" s="56"/>
       <c r="S54" s="56"/>
@@ -11441,26 +11441,26 @@
       <c r="B55" s="99"/>
       <c r="C55" s="108"/>
       <c r="D55" s="110"/>
-      <c r="E55" s="140" t="s">
+      <c r="E55" s="141" t="s">
         <v>94</v>
       </c>
-      <c r="F55" s="141"/>
-      <c r="G55" s="141"/>
-      <c r="H55" s="141"/>
-      <c r="I55" s="131">
+      <c r="F55" s="142"/>
+      <c r="G55" s="142"/>
+      <c r="H55" s="142"/>
+      <c r="I55" s="132">
         <v>3</v>
       </c>
-      <c r="J55" s="129">
+      <c r="J55" s="133">
         <v>45798</v>
       </c>
-      <c r="K55" s="129">
+      <c r="K55" s="133">
         <v>45798</v>
       </c>
-      <c r="L55" s="142"/>
-      <c r="M55" s="129"/>
-      <c r="N55" s="129"/>
-      <c r="O55" s="130"/>
-      <c r="P55" s="131">
+      <c r="L55" s="134"/>
+      <c r="M55" s="133"/>
+      <c r="N55" s="133"/>
+      <c r="O55" s="143"/>
+      <c r="P55" s="132">
         <v>0</v>
       </c>
       <c r="Q55" s="55"/>
@@ -11580,18 +11580,18 @@
       <c r="B56" s="99"/>
       <c r="C56" s="108"/>
       <c r="D56" s="110"/>
-      <c r="E56" s="122"/>
-      <c r="F56" s="122"/>
-      <c r="G56" s="122"/>
-      <c r="H56" s="122"/>
-      <c r="I56" s="128"/>
-      <c r="J56" s="128"/>
-      <c r="K56" s="128"/>
-      <c r="L56" s="138"/>
-      <c r="M56" s="128"/>
-      <c r="N56" s="128"/>
-      <c r="O56" s="128"/>
-      <c r="P56" s="128"/>
+      <c r="E56" s="124"/>
+      <c r="F56" s="124"/>
+      <c r="G56" s="124"/>
+      <c r="H56" s="124"/>
+      <c r="I56" s="130"/>
+      <c r="J56" s="130"/>
+      <c r="K56" s="130"/>
+      <c r="L56" s="135"/>
+      <c r="M56" s="130"/>
+      <c r="N56" s="130"/>
+      <c r="O56" s="130"/>
+      <c r="P56" s="130"/>
       <c r="Q56" s="55"/>
       <c r="R56" s="56"/>
       <c r="S56" s="56"/>
@@ -11709,18 +11709,18 @@
       <c r="B57" s="99"/>
       <c r="C57" s="108"/>
       <c r="D57" s="110"/>
-      <c r="E57" s="143"/>
-      <c r="F57" s="119"/>
-      <c r="G57" s="119"/>
-      <c r="H57" s="120"/>
-      <c r="I57" s="131"/>
-      <c r="J57" s="129"/>
-      <c r="K57" s="129"/>
-      <c r="L57" s="142"/>
-      <c r="M57" s="129"/>
-      <c r="N57" s="129"/>
-      <c r="O57" s="130"/>
-      <c r="P57" s="131">
+      <c r="E57" s="144"/>
+      <c r="F57" s="121"/>
+      <c r="G57" s="121"/>
+      <c r="H57" s="122"/>
+      <c r="I57" s="132"/>
+      <c r="J57" s="133"/>
+      <c r="K57" s="133"/>
+      <c r="L57" s="134"/>
+      <c r="M57" s="133"/>
+      <c r="N57" s="133"/>
+      <c r="O57" s="143"/>
+      <c r="P57" s="132">
         <v>0</v>
       </c>
       <c r="Q57" s="55"/>
@@ -11840,18 +11840,18 @@
       <c r="B58" s="99"/>
       <c r="C58" s="111"/>
       <c r="D58" s="112"/>
-      <c r="E58" s="122"/>
-      <c r="F58" s="122"/>
-      <c r="G58" s="122"/>
-      <c r="H58" s="123"/>
-      <c r="I58" s="128"/>
-      <c r="J58" s="128"/>
-      <c r="K58" s="128"/>
-      <c r="L58" s="138"/>
-      <c r="M58" s="128"/>
-      <c r="N58" s="128"/>
-      <c r="O58" s="128"/>
-      <c r="P58" s="128"/>
+      <c r="E58" s="124"/>
+      <c r="F58" s="124"/>
+      <c r="G58" s="124"/>
+      <c r="H58" s="125"/>
+      <c r="I58" s="130"/>
+      <c r="J58" s="130"/>
+      <c r="K58" s="130"/>
+      <c r="L58" s="135"/>
+      <c r="M58" s="130"/>
+      <c r="N58" s="130"/>
+      <c r="O58" s="130"/>
+      <c r="P58" s="130"/>
       <c r="Q58" s="55"/>
       <c r="R58" s="56"/>
       <c r="S58" s="56"/>
@@ -11967,24 +11967,24 @@
     <row r="59" spans="1:127" ht="12" customHeight="1">
       <c r="A59" s="26"/>
       <c r="B59" s="99"/>
-      <c r="C59" s="133" t="s">
+      <c r="C59" s="171" t="s">
         <v>95</v>
       </c>
-      <c r="D59" s="134"/>
-      <c r="E59" s="134"/>
-      <c r="F59" s="134"/>
-      <c r="G59" s="134"/>
-      <c r="H59" s="134"/>
-      <c r="I59" s="136">
+      <c r="D59" s="157"/>
+      <c r="E59" s="157"/>
+      <c r="F59" s="157"/>
+      <c r="G59" s="157"/>
+      <c r="H59" s="157"/>
+      <c r="I59" s="165">
         <v>72</v>
       </c>
-      <c r="J59" s="132">
+      <c r="J59" s="139">
         <v>45799</v>
       </c>
-      <c r="K59" s="132">
+      <c r="K59" s="139">
         <v>45808</v>
       </c>
-      <c r="L59" s="137"/>
+      <c r="L59" s="140"/>
       <c r="M59" s="100"/>
       <c r="N59" s="100"/>
       <c r="O59" s="101"/>
@@ -12104,16 +12104,16 @@
     <row r="60" spans="1:127" ht="12" customHeight="1">
       <c r="A60" s="26"/>
       <c r="B60" s="99"/>
-      <c r="C60" s="135"/>
-      <c r="D60" s="122"/>
-      <c r="E60" s="122"/>
-      <c r="F60" s="122"/>
-      <c r="G60" s="122"/>
-      <c r="H60" s="122"/>
-      <c r="I60" s="128"/>
-      <c r="J60" s="123"/>
-      <c r="K60" s="123"/>
-      <c r="L60" s="138"/>
+      <c r="C60" s="158"/>
+      <c r="D60" s="124"/>
+      <c r="E60" s="124"/>
+      <c r="F60" s="124"/>
+      <c r="G60" s="124"/>
+      <c r="H60" s="124"/>
+      <c r="I60" s="130"/>
+      <c r="J60" s="125"/>
+      <c r="K60" s="125"/>
+      <c r="L60" s="135"/>
       <c r="M60" s="102"/>
       <c r="N60" s="102"/>
       <c r="O60" s="103"/>
@@ -12234,23 +12234,23 @@
       <c r="A61" s="26"/>
       <c r="B61" s="99"/>
       <c r="C61" s="113"/>
-      <c r="D61" s="145" t="s">
+      <c r="D61" s="137" t="s">
         <v>87</v>
       </c>
-      <c r="E61" s="119"/>
-      <c r="F61" s="119"/>
-      <c r="G61" s="119"/>
-      <c r="H61" s="120"/>
-      <c r="I61" s="139">
+      <c r="E61" s="121"/>
+      <c r="F61" s="121"/>
+      <c r="G61" s="121"/>
+      <c r="H61" s="122"/>
+      <c r="I61" s="138">
         <v>12</v>
       </c>
-      <c r="J61" s="132">
+      <c r="J61" s="139">
         <v>45799</v>
       </c>
-      <c r="K61" s="132">
+      <c r="K61" s="139">
         <v>45800</v>
       </c>
-      <c r="L61" s="137"/>
+      <c r="L61" s="140"/>
       <c r="M61" s="100"/>
       <c r="N61" s="100"/>
       <c r="O61" s="101"/>
@@ -12371,15 +12371,15 @@
       <c r="A62" s="26"/>
       <c r="B62" s="99"/>
       <c r="C62" s="114"/>
-      <c r="D62" s="121"/>
-      <c r="E62" s="122"/>
-      <c r="F62" s="122"/>
-      <c r="G62" s="122"/>
-      <c r="H62" s="123"/>
-      <c r="I62" s="123"/>
-      <c r="J62" s="123"/>
-      <c r="K62" s="123"/>
-      <c r="L62" s="138"/>
+      <c r="D62" s="123"/>
+      <c r="E62" s="124"/>
+      <c r="F62" s="124"/>
+      <c r="G62" s="124"/>
+      <c r="H62" s="125"/>
+      <c r="I62" s="125"/>
+      <c r="J62" s="125"/>
+      <c r="K62" s="125"/>
+      <c r="L62" s="135"/>
       <c r="M62" s="102"/>
       <c r="N62" s="102"/>
       <c r="O62" s="103"/>
@@ -12501,26 +12501,26 @@
       <c r="B63" s="99"/>
       <c r="C63" s="108"/>
       <c r="D63" s="109"/>
-      <c r="E63" s="140" t="s">
+      <c r="E63" s="141" t="s">
         <v>89</v>
       </c>
-      <c r="F63" s="141"/>
-      <c r="G63" s="141"/>
-      <c r="H63" s="141"/>
-      <c r="I63" s="131">
+      <c r="F63" s="142"/>
+      <c r="G63" s="142"/>
+      <c r="H63" s="142"/>
+      <c r="I63" s="132">
         <v>8</v>
       </c>
-      <c r="J63" s="129">
+      <c r="J63" s="133">
         <v>45799</v>
       </c>
-      <c r="K63" s="129">
+      <c r="K63" s="133">
         <v>45799</v>
       </c>
-      <c r="L63" s="142"/>
-      <c r="M63" s="129"/>
-      <c r="N63" s="129"/>
-      <c r="O63" s="130"/>
-      <c r="P63" s="131">
+      <c r="L63" s="134"/>
+      <c r="M63" s="133"/>
+      <c r="N63" s="133"/>
+      <c r="O63" s="143"/>
+      <c r="P63" s="132">
         <v>0</v>
       </c>
       <c r="Q63" s="55"/>
@@ -12640,18 +12640,18 @@
       <c r="B64" s="99"/>
       <c r="C64" s="108"/>
       <c r="D64" s="110"/>
-      <c r="E64" s="122"/>
-      <c r="F64" s="122"/>
-      <c r="G64" s="122"/>
-      <c r="H64" s="122"/>
-      <c r="I64" s="128"/>
-      <c r="J64" s="128"/>
-      <c r="K64" s="128"/>
-      <c r="L64" s="138"/>
-      <c r="M64" s="128"/>
-      <c r="N64" s="128"/>
-      <c r="O64" s="128"/>
-      <c r="P64" s="128"/>
+      <c r="E64" s="124"/>
+      <c r="F64" s="124"/>
+      <c r="G64" s="124"/>
+      <c r="H64" s="124"/>
+      <c r="I64" s="130"/>
+      <c r="J64" s="130"/>
+      <c r="K64" s="130"/>
+      <c r="L64" s="135"/>
+      <c r="M64" s="130"/>
+      <c r="N64" s="130"/>
+      <c r="O64" s="130"/>
+      <c r="P64" s="130"/>
       <c r="Q64" s="55"/>
       <c r="R64" s="56"/>
       <c r="S64" s="56"/>
@@ -12769,26 +12769,26 @@
       <c r="B65" s="99"/>
       <c r="C65" s="108"/>
       <c r="D65" s="110"/>
-      <c r="E65" s="140" t="s">
+      <c r="E65" s="141" t="s">
         <v>90</v>
       </c>
-      <c r="F65" s="141"/>
-      <c r="G65" s="141"/>
-      <c r="H65" s="141"/>
-      <c r="I65" s="131">
+      <c r="F65" s="142"/>
+      <c r="G65" s="142"/>
+      <c r="H65" s="142"/>
+      <c r="I65" s="132">
         <v>4</v>
       </c>
-      <c r="J65" s="129">
+      <c r="J65" s="133">
         <v>45800</v>
       </c>
-      <c r="K65" s="129">
+      <c r="K65" s="133">
         <v>45800</v>
       </c>
-      <c r="L65" s="142"/>
-      <c r="M65" s="129"/>
-      <c r="N65" s="129"/>
-      <c r="O65" s="130"/>
-      <c r="P65" s="131">
+      <c r="L65" s="134"/>
+      <c r="M65" s="133"/>
+      <c r="N65" s="133"/>
+      <c r="O65" s="143"/>
+      <c r="P65" s="132">
         <v>0</v>
       </c>
       <c r="Q65" s="55"/>
@@ -12908,18 +12908,18 @@
       <c r="B66" s="99"/>
       <c r="C66" s="108"/>
       <c r="D66" s="110"/>
-      <c r="E66" s="122"/>
-      <c r="F66" s="122"/>
-      <c r="G66" s="122"/>
-      <c r="H66" s="122"/>
-      <c r="I66" s="128"/>
-      <c r="J66" s="128"/>
-      <c r="K66" s="128"/>
-      <c r="L66" s="138"/>
-      <c r="M66" s="128"/>
-      <c r="N66" s="128"/>
-      <c r="O66" s="128"/>
-      <c r="P66" s="128"/>
+      <c r="E66" s="124"/>
+      <c r="F66" s="124"/>
+      <c r="G66" s="124"/>
+      <c r="H66" s="124"/>
+      <c r="I66" s="130"/>
+      <c r="J66" s="130"/>
+      <c r="K66" s="130"/>
+      <c r="L66" s="135"/>
+      <c r="M66" s="130"/>
+      <c r="N66" s="130"/>
+      <c r="O66" s="130"/>
+      <c r="P66" s="130"/>
       <c r="Q66" s="55"/>
       <c r="R66" s="56"/>
       <c r="S66" s="56"/>
@@ -13037,18 +13037,18 @@
       <c r="B67" s="99"/>
       <c r="C67" s="108"/>
       <c r="D67" s="110"/>
-      <c r="E67" s="143"/>
-      <c r="F67" s="119"/>
-      <c r="G67" s="119"/>
-      <c r="H67" s="120"/>
-      <c r="I67" s="131"/>
-      <c r="J67" s="129"/>
-      <c r="K67" s="129"/>
-      <c r="L67" s="142"/>
-      <c r="M67" s="129"/>
-      <c r="N67" s="129"/>
-      <c r="O67" s="130"/>
-      <c r="P67" s="131">
+      <c r="E67" s="144"/>
+      <c r="F67" s="121"/>
+      <c r="G67" s="121"/>
+      <c r="H67" s="122"/>
+      <c r="I67" s="132"/>
+      <c r="J67" s="133"/>
+      <c r="K67" s="133"/>
+      <c r="L67" s="134"/>
+      <c r="M67" s="133"/>
+      <c r="N67" s="133"/>
+      <c r="O67" s="143"/>
+      <c r="P67" s="132">
         <v>0</v>
       </c>
       <c r="Q67" s="55"/>
@@ -13168,18 +13168,18 @@
       <c r="B68" s="99"/>
       <c r="C68" s="108"/>
       <c r="D68" s="112"/>
-      <c r="E68" s="122"/>
-      <c r="F68" s="122"/>
-      <c r="G68" s="122"/>
-      <c r="H68" s="123"/>
-      <c r="I68" s="128"/>
-      <c r="J68" s="128"/>
-      <c r="K68" s="128"/>
-      <c r="L68" s="138"/>
-      <c r="M68" s="128"/>
-      <c r="N68" s="128"/>
-      <c r="O68" s="128"/>
-      <c r="P68" s="128"/>
+      <c r="E68" s="124"/>
+      <c r="F68" s="124"/>
+      <c r="G68" s="124"/>
+      <c r="H68" s="125"/>
+      <c r="I68" s="130"/>
+      <c r="J68" s="130"/>
+      <c r="K68" s="130"/>
+      <c r="L68" s="135"/>
+      <c r="M68" s="130"/>
+      <c r="N68" s="130"/>
+      <c r="O68" s="130"/>
+      <c r="P68" s="130"/>
       <c r="Q68" s="65"/>
       <c r="R68" s="67"/>
       <c r="S68" s="67"/>
@@ -13296,23 +13296,23 @@
       <c r="A69" s="26"/>
       <c r="B69" s="99"/>
       <c r="C69" s="108"/>
-      <c r="D69" s="145" t="s">
+      <c r="D69" s="137" t="s">
         <v>91</v>
       </c>
-      <c r="E69" s="119"/>
-      <c r="F69" s="119"/>
-      <c r="G69" s="119"/>
-      <c r="H69" s="120"/>
-      <c r="I69" s="139">
+      <c r="E69" s="121"/>
+      <c r="F69" s="121"/>
+      <c r="G69" s="121"/>
+      <c r="H69" s="122"/>
+      <c r="I69" s="138">
         <v>52</v>
       </c>
-      <c r="J69" s="132">
+      <c r="J69" s="139">
         <v>45803</v>
       </c>
-      <c r="K69" s="132">
+      <c r="K69" s="139">
         <v>45811</v>
       </c>
-      <c r="L69" s="137"/>
+      <c r="L69" s="140"/>
       <c r="M69" s="100"/>
       <c r="N69" s="100"/>
       <c r="O69" s="101"/>
@@ -13433,15 +13433,15 @@
       <c r="A70" s="26"/>
       <c r="B70" s="99"/>
       <c r="C70" s="108"/>
-      <c r="D70" s="121"/>
-      <c r="E70" s="122"/>
-      <c r="F70" s="122"/>
-      <c r="G70" s="122"/>
-      <c r="H70" s="123"/>
-      <c r="I70" s="123"/>
-      <c r="J70" s="123"/>
-      <c r="K70" s="123"/>
-      <c r="L70" s="138"/>
+      <c r="D70" s="123"/>
+      <c r="E70" s="124"/>
+      <c r="F70" s="124"/>
+      <c r="G70" s="124"/>
+      <c r="H70" s="125"/>
+      <c r="I70" s="125"/>
+      <c r="J70" s="125"/>
+      <c r="K70" s="125"/>
+      <c r="L70" s="135"/>
       <c r="M70" s="102"/>
       <c r="N70" s="102"/>
       <c r="O70" s="103"/>
@@ -13563,26 +13563,26 @@
       <c r="B71" s="99"/>
       <c r="C71" s="108"/>
       <c r="D71" s="109"/>
-      <c r="E71" s="140" t="s">
+      <c r="E71" s="141" t="s">
         <v>96</v>
       </c>
-      <c r="F71" s="141"/>
-      <c r="G71" s="141"/>
-      <c r="H71" s="141"/>
-      <c r="I71" s="131">
+      <c r="F71" s="142"/>
+      <c r="G71" s="142"/>
+      <c r="H71" s="142"/>
+      <c r="I71" s="132">
         <v>26</v>
       </c>
-      <c r="J71" s="144">
+      <c r="J71" s="145">
         <v>45803</v>
       </c>
-      <c r="K71" s="129">
+      <c r="K71" s="133">
         <v>45806</v>
       </c>
-      <c r="L71" s="142"/>
-      <c r="M71" s="129"/>
-      <c r="N71" s="129"/>
-      <c r="O71" s="130"/>
-      <c r="P71" s="131">
+      <c r="L71" s="134"/>
+      <c r="M71" s="133"/>
+      <c r="N71" s="133"/>
+      <c r="O71" s="143"/>
+      <c r="P71" s="132">
         <v>0</v>
       </c>
       <c r="Q71" s="55"/>
@@ -13702,18 +13702,18 @@
       <c r="B72" s="99"/>
       <c r="C72" s="108"/>
       <c r="D72" s="110"/>
-      <c r="E72" s="122"/>
-      <c r="F72" s="122"/>
-      <c r="G72" s="122"/>
-      <c r="H72" s="122"/>
-      <c r="I72" s="128"/>
-      <c r="J72" s="123"/>
-      <c r="K72" s="128"/>
-      <c r="L72" s="138"/>
-      <c r="M72" s="128"/>
-      <c r="N72" s="128"/>
-      <c r="O72" s="128"/>
-      <c r="P72" s="128"/>
+      <c r="E72" s="124"/>
+      <c r="F72" s="124"/>
+      <c r="G72" s="124"/>
+      <c r="H72" s="124"/>
+      <c r="I72" s="130"/>
+      <c r="J72" s="125"/>
+      <c r="K72" s="130"/>
+      <c r="L72" s="135"/>
+      <c r="M72" s="130"/>
+      <c r="N72" s="130"/>
+      <c r="O72" s="130"/>
+      <c r="P72" s="130"/>
       <c r="Q72" s="55"/>
       <c r="R72" s="56"/>
       <c r="S72" s="56"/>
@@ -13831,26 +13831,26 @@
       <c r="B73" s="99"/>
       <c r="C73" s="108"/>
       <c r="D73" s="110"/>
-      <c r="E73" s="140" t="s">
+      <c r="E73" s="141" t="s">
         <v>97</v>
       </c>
-      <c r="F73" s="141"/>
-      <c r="G73" s="141"/>
-      <c r="H73" s="141"/>
-      <c r="I73" s="131">
+      <c r="F73" s="142"/>
+      <c r="G73" s="142"/>
+      <c r="H73" s="142"/>
+      <c r="I73" s="132">
         <v>18</v>
       </c>
-      <c r="J73" s="129">
+      <c r="J73" s="133">
         <v>45806</v>
       </c>
-      <c r="K73" s="129">
+      <c r="K73" s="133">
         <v>45810</v>
       </c>
-      <c r="L73" s="142"/>
-      <c r="M73" s="129"/>
-      <c r="N73" s="129"/>
-      <c r="O73" s="130"/>
-      <c r="P73" s="131">
+      <c r="L73" s="134"/>
+      <c r="M73" s="133"/>
+      <c r="N73" s="133"/>
+      <c r="O73" s="143"/>
+      <c r="P73" s="132">
         <v>0</v>
       </c>
       <c r="Q73" s="55"/>
@@ -13970,18 +13970,18 @@
       <c r="B74" s="99"/>
       <c r="C74" s="108"/>
       <c r="D74" s="110"/>
-      <c r="E74" s="122"/>
-      <c r="F74" s="122"/>
-      <c r="G74" s="122"/>
-      <c r="H74" s="122"/>
-      <c r="I74" s="128"/>
-      <c r="J74" s="128"/>
-      <c r="K74" s="128"/>
-      <c r="L74" s="138"/>
-      <c r="M74" s="128"/>
-      <c r="N74" s="128"/>
-      <c r="O74" s="128"/>
-      <c r="P74" s="128"/>
+      <c r="E74" s="124"/>
+      <c r="F74" s="124"/>
+      <c r="G74" s="124"/>
+      <c r="H74" s="124"/>
+      <c r="I74" s="130"/>
+      <c r="J74" s="130"/>
+      <c r="K74" s="130"/>
+      <c r="L74" s="135"/>
+      <c r="M74" s="130"/>
+      <c r="N74" s="130"/>
+      <c r="O74" s="130"/>
+      <c r="P74" s="130"/>
       <c r="Q74" s="55"/>
       <c r="R74" s="56"/>
       <c r="S74" s="56"/>
@@ -14099,26 +14099,26 @@
       <c r="B75" s="99"/>
       <c r="C75" s="108"/>
       <c r="D75" s="110"/>
-      <c r="E75" s="143" t="s">
+      <c r="E75" s="144" t="s">
         <v>98</v>
       </c>
-      <c r="F75" s="119"/>
-      <c r="G75" s="119"/>
-      <c r="H75" s="120"/>
-      <c r="I75" s="131">
+      <c r="F75" s="121"/>
+      <c r="G75" s="121"/>
+      <c r="H75" s="122"/>
+      <c r="I75" s="132">
         <v>8</v>
       </c>
-      <c r="J75" s="129">
+      <c r="J75" s="133">
         <v>45811</v>
       </c>
-      <c r="K75" s="129">
+      <c r="K75" s="133">
         <v>45811</v>
       </c>
-      <c r="L75" s="142"/>
-      <c r="M75" s="129"/>
-      <c r="N75" s="129"/>
-      <c r="O75" s="130"/>
-      <c r="P75" s="131">
+      <c r="L75" s="134"/>
+      <c r="M75" s="133"/>
+      <c r="N75" s="133"/>
+      <c r="O75" s="143"/>
+      <c r="P75" s="132">
         <v>0</v>
       </c>
       <c r="Q75" s="55"/>
@@ -14238,18 +14238,18 @@
       <c r="B76" s="99"/>
       <c r="C76" s="108"/>
       <c r="D76" s="112"/>
-      <c r="E76" s="122"/>
-      <c r="F76" s="122"/>
-      <c r="G76" s="122"/>
-      <c r="H76" s="123"/>
-      <c r="I76" s="128"/>
-      <c r="J76" s="128"/>
-      <c r="K76" s="128"/>
-      <c r="L76" s="138"/>
-      <c r="M76" s="128"/>
-      <c r="N76" s="128"/>
-      <c r="O76" s="128"/>
-      <c r="P76" s="128"/>
+      <c r="E76" s="124"/>
+      <c r="F76" s="124"/>
+      <c r="G76" s="124"/>
+      <c r="H76" s="125"/>
+      <c r="I76" s="130"/>
+      <c r="J76" s="130"/>
+      <c r="K76" s="130"/>
+      <c r="L76" s="135"/>
+      <c r="M76" s="130"/>
+      <c r="N76" s="130"/>
+      <c r="O76" s="130"/>
+      <c r="P76" s="130"/>
       <c r="Q76" s="65"/>
       <c r="R76" s="67"/>
       <c r="S76" s="67"/>
@@ -14366,23 +14366,23 @@
       <c r="A77" s="26"/>
       <c r="B77" s="99"/>
       <c r="C77" s="108"/>
-      <c r="D77" s="145" t="s">
+      <c r="D77" s="137" t="s">
         <v>93</v>
       </c>
-      <c r="E77" s="119"/>
-      <c r="F77" s="119"/>
-      <c r="G77" s="119"/>
-      <c r="H77" s="120"/>
-      <c r="I77" s="139">
+      <c r="E77" s="121"/>
+      <c r="F77" s="121"/>
+      <c r="G77" s="121"/>
+      <c r="H77" s="122"/>
+      <c r="I77" s="138">
         <v>8</v>
       </c>
-      <c r="J77" s="132">
+      <c r="J77" s="139">
         <v>45812</v>
       </c>
-      <c r="K77" s="132">
+      <c r="K77" s="139">
         <v>45812</v>
       </c>
-      <c r="L77" s="137"/>
+      <c r="L77" s="140"/>
       <c r="M77" s="100"/>
       <c r="N77" s="100"/>
       <c r="O77" s="101"/>
@@ -14503,15 +14503,15 @@
       <c r="A78" s="26"/>
       <c r="B78" s="99"/>
       <c r="C78" s="108"/>
-      <c r="D78" s="121"/>
-      <c r="E78" s="122"/>
-      <c r="F78" s="122"/>
-      <c r="G78" s="122"/>
-      <c r="H78" s="123"/>
-      <c r="I78" s="123"/>
-      <c r="J78" s="123"/>
-      <c r="K78" s="123"/>
-      <c r="L78" s="138"/>
+      <c r="D78" s="123"/>
+      <c r="E78" s="124"/>
+      <c r="F78" s="124"/>
+      <c r="G78" s="124"/>
+      <c r="H78" s="125"/>
+      <c r="I78" s="125"/>
+      <c r="J78" s="125"/>
+      <c r="K78" s="125"/>
+      <c r="L78" s="135"/>
       <c r="M78" s="102"/>
       <c r="N78" s="102"/>
       <c r="O78" s="103"/>
@@ -14633,26 +14633,26 @@
       <c r="B79" s="99"/>
       <c r="C79" s="26"/>
       <c r="D79" s="106"/>
-      <c r="E79" s="140" t="s">
+      <c r="E79" s="141" t="s">
         <v>93</v>
       </c>
-      <c r="F79" s="141"/>
-      <c r="G79" s="141"/>
-      <c r="H79" s="141"/>
-      <c r="I79" s="131">
+      <c r="F79" s="142"/>
+      <c r="G79" s="142"/>
+      <c r="H79" s="142"/>
+      <c r="I79" s="132">
         <v>4</v>
       </c>
-      <c r="J79" s="129">
+      <c r="J79" s="133">
         <v>45812</v>
       </c>
-      <c r="K79" s="129">
+      <c r="K79" s="133">
         <v>45812</v>
       </c>
-      <c r="L79" s="142"/>
-      <c r="M79" s="129"/>
-      <c r="N79" s="129"/>
-      <c r="O79" s="130"/>
-      <c r="P79" s="131">
+      <c r="L79" s="134"/>
+      <c r="M79" s="133"/>
+      <c r="N79" s="133"/>
+      <c r="O79" s="143"/>
+      <c r="P79" s="132">
         <v>0</v>
       </c>
       <c r="Q79" s="55"/>
@@ -14772,18 +14772,18 @@
       <c r="B80" s="99"/>
       <c r="C80" s="26"/>
       <c r="D80" s="99"/>
-      <c r="E80" s="122"/>
-      <c r="F80" s="122"/>
-      <c r="G80" s="122"/>
-      <c r="H80" s="122"/>
-      <c r="I80" s="128"/>
-      <c r="J80" s="128"/>
-      <c r="K80" s="128"/>
-      <c r="L80" s="138"/>
-      <c r="M80" s="128"/>
-      <c r="N80" s="128"/>
-      <c r="O80" s="128"/>
-      <c r="P80" s="128"/>
+      <c r="E80" s="124"/>
+      <c r="F80" s="124"/>
+      <c r="G80" s="124"/>
+      <c r="H80" s="124"/>
+      <c r="I80" s="130"/>
+      <c r="J80" s="130"/>
+      <c r="K80" s="130"/>
+      <c r="L80" s="135"/>
+      <c r="M80" s="130"/>
+      <c r="N80" s="130"/>
+      <c r="O80" s="130"/>
+      <c r="P80" s="130"/>
       <c r="Q80" s="55"/>
       <c r="R80" s="56"/>
       <c r="S80" s="56"/>
@@ -14901,26 +14901,26 @@
       <c r="B81" s="99"/>
       <c r="C81" s="26"/>
       <c r="D81" s="99"/>
-      <c r="E81" s="140" t="s">
+      <c r="E81" s="141" t="s">
         <v>94</v>
       </c>
-      <c r="F81" s="141"/>
-      <c r="G81" s="141"/>
-      <c r="H81" s="141"/>
-      <c r="I81" s="131">
+      <c r="F81" s="142"/>
+      <c r="G81" s="142"/>
+      <c r="H81" s="142"/>
+      <c r="I81" s="132">
         <v>4</v>
       </c>
-      <c r="J81" s="129">
+      <c r="J81" s="133">
         <v>45812</v>
       </c>
-      <c r="K81" s="129">
+      <c r="K81" s="133">
         <v>45812</v>
       </c>
-      <c r="L81" s="142"/>
-      <c r="M81" s="129"/>
-      <c r="N81" s="129"/>
-      <c r="O81" s="130"/>
-      <c r="P81" s="131">
+      <c r="L81" s="134"/>
+      <c r="M81" s="133"/>
+      <c r="N81" s="133"/>
+      <c r="O81" s="143"/>
+      <c r="P81" s="132">
         <v>0</v>
       </c>
       <c r="Q81" s="55"/>
@@ -15040,18 +15040,18 @@
       <c r="B82" s="99"/>
       <c r="C82" s="26"/>
       <c r="D82" s="99"/>
-      <c r="E82" s="122"/>
-      <c r="F82" s="122"/>
-      <c r="G82" s="122"/>
-      <c r="H82" s="122"/>
-      <c r="I82" s="128"/>
-      <c r="J82" s="128"/>
-      <c r="K82" s="128"/>
-      <c r="L82" s="138"/>
-      <c r="M82" s="128"/>
-      <c r="N82" s="128"/>
-      <c r="O82" s="128"/>
-      <c r="P82" s="128"/>
+      <c r="E82" s="124"/>
+      <c r="F82" s="124"/>
+      <c r="G82" s="124"/>
+      <c r="H82" s="124"/>
+      <c r="I82" s="130"/>
+      <c r="J82" s="130"/>
+      <c r="K82" s="130"/>
+      <c r="L82" s="135"/>
+      <c r="M82" s="130"/>
+      <c r="N82" s="130"/>
+      <c r="O82" s="130"/>
+      <c r="P82" s="130"/>
       <c r="Q82" s="55"/>
       <c r="R82" s="56"/>
       <c r="S82" s="56"/>
@@ -15169,18 +15169,18 @@
       <c r="B83" s="99"/>
       <c r="C83" s="26"/>
       <c r="D83" s="99"/>
-      <c r="E83" s="143"/>
-      <c r="F83" s="119"/>
-      <c r="G83" s="119"/>
-      <c r="H83" s="120"/>
-      <c r="I83" s="131"/>
-      <c r="J83" s="129"/>
-      <c r="K83" s="129"/>
-      <c r="L83" s="142"/>
-      <c r="M83" s="129"/>
-      <c r="N83" s="129"/>
-      <c r="O83" s="130"/>
-      <c r="P83" s="131">
+      <c r="E83" s="144"/>
+      <c r="F83" s="121"/>
+      <c r="G83" s="121"/>
+      <c r="H83" s="122"/>
+      <c r="I83" s="132"/>
+      <c r="J83" s="133"/>
+      <c r="K83" s="133"/>
+      <c r="L83" s="134"/>
+      <c r="M83" s="133"/>
+      <c r="N83" s="133"/>
+      <c r="O83" s="143"/>
+      <c r="P83" s="132">
         <v>0</v>
       </c>
       <c r="Q83" s="55"/>
@@ -15300,18 +15300,18 @@
       <c r="B84" s="107"/>
       <c r="C84" s="115"/>
       <c r="D84" s="107"/>
-      <c r="E84" s="122"/>
-      <c r="F84" s="122"/>
-      <c r="G84" s="122"/>
-      <c r="H84" s="123"/>
-      <c r="I84" s="128"/>
-      <c r="J84" s="128"/>
-      <c r="K84" s="128"/>
-      <c r="L84" s="138"/>
-      <c r="M84" s="128"/>
-      <c r="N84" s="128"/>
-      <c r="O84" s="128"/>
-      <c r="P84" s="128"/>
+      <c r="E84" s="124"/>
+      <c r="F84" s="124"/>
+      <c r="G84" s="124"/>
+      <c r="H84" s="125"/>
+      <c r="I84" s="130"/>
+      <c r="J84" s="130"/>
+      <c r="K84" s="130"/>
+      <c r="L84" s="135"/>
+      <c r="M84" s="130"/>
+      <c r="N84" s="130"/>
+      <c r="O84" s="130"/>
+      <c r="P84" s="130"/>
       <c r="Q84" s="55"/>
       <c r="R84" s="56"/>
       <c r="S84" s="56"/>
@@ -15426,45 +15426,252 @@
     </row>
   </sheetData>
   <mergeCells count="309">
-    <mergeCell ref="E41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="O41:O42"/>
-    <mergeCell ref="P41:P42"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="J63:J64"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="L63:L64"/>
-    <mergeCell ref="M63:M64"/>
-    <mergeCell ref="D51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="E53:H54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="L53:L54"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="O67:O68"/>
-    <mergeCell ref="E67:H68"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="J67:J68"/>
-    <mergeCell ref="K67:K68"/>
-    <mergeCell ref="L67:L68"/>
-    <mergeCell ref="M67:M68"/>
-    <mergeCell ref="N67:N68"/>
-    <mergeCell ref="O65:O66"/>
-    <mergeCell ref="E65:H66"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="J65:J66"/>
-    <mergeCell ref="K65:K66"/>
-    <mergeCell ref="L65:L66"/>
-    <mergeCell ref="M65:M66"/>
-    <mergeCell ref="N65:N66"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="P53:P54"/>
+    <mergeCell ref="J61:J62"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="C59:H60"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="L61:L62"/>
+    <mergeCell ref="O55:O56"/>
+    <mergeCell ref="P55:P56"/>
+    <mergeCell ref="E55:H56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="N55:N56"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="P49:P50"/>
+    <mergeCell ref="E49:H50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="O47:O48"/>
+    <mergeCell ref="P47:P48"/>
+    <mergeCell ref="E47:H48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="N47:N48"/>
+    <mergeCell ref="P45:P46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="D43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="E45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="C31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="N35:N36"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="D33:H34"/>
+    <mergeCell ref="E35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="E39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="E37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="D27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="P29:P30"/>
+    <mergeCell ref="D29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="C23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="D25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="C19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="D21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="D15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="D17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="D11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="D13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="CZ4:DV4"/>
+    <mergeCell ref="B7:H8"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="C9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="N75:N76"/>
+    <mergeCell ref="L79:L80"/>
+    <mergeCell ref="M79:M80"/>
+    <mergeCell ref="N79:N80"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="P79:P80"/>
+    <mergeCell ref="Q4:AP4"/>
+    <mergeCell ref="AQ4:BU4"/>
+    <mergeCell ref="BV4:CY4"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="O39:O40"/>
+    <mergeCell ref="P39:P40"/>
+    <mergeCell ref="P35:P36"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="P37:P38"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="O45:O46"/>
+    <mergeCell ref="D69:H70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="J69:J70"/>
+    <mergeCell ref="K69:K70"/>
+    <mergeCell ref="L69:L70"/>
+    <mergeCell ref="E71:H72"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="O73:O74"/>
+    <mergeCell ref="P73:P74"/>
+    <mergeCell ref="E73:H74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="J73:J74"/>
+    <mergeCell ref="K73:K74"/>
+    <mergeCell ref="L73:L74"/>
+    <mergeCell ref="M73:M74"/>
+    <mergeCell ref="N73:N74"/>
+    <mergeCell ref="L71:L72"/>
+    <mergeCell ref="M71:M72"/>
+    <mergeCell ref="N71:N72"/>
+    <mergeCell ref="O71:O72"/>
+    <mergeCell ref="P71:P72"/>
+    <mergeCell ref="J71:J72"/>
+    <mergeCell ref="K71:K72"/>
+    <mergeCell ref="O83:O84"/>
+    <mergeCell ref="P83:P84"/>
+    <mergeCell ref="E83:H84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="J83:J84"/>
+    <mergeCell ref="K83:K84"/>
+    <mergeCell ref="L83:L84"/>
+    <mergeCell ref="M83:M84"/>
+    <mergeCell ref="N83:N84"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="E81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="J81:J82"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="L81:L82"/>
+    <mergeCell ref="M81:M82"/>
+    <mergeCell ref="N81:N82"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="K79:K80"/>
+    <mergeCell ref="D77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="J77:J78"/>
+    <mergeCell ref="K77:K78"/>
+    <mergeCell ref="L77:L78"/>
+    <mergeCell ref="E79:H80"/>
+    <mergeCell ref="I79:I80"/>
     <mergeCell ref="O75:O76"/>
     <mergeCell ref="P75:P76"/>
     <mergeCell ref="E75:H76"/>
@@ -15489,252 +15696,45 @@
     <mergeCell ref="P63:P64"/>
     <mergeCell ref="D61:H62"/>
     <mergeCell ref="E63:H64"/>
-    <mergeCell ref="J79:J80"/>
-    <mergeCell ref="K79:K80"/>
-    <mergeCell ref="D77:H78"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="J77:J78"/>
-    <mergeCell ref="K77:K78"/>
-    <mergeCell ref="L77:L78"/>
-    <mergeCell ref="E79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="E81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="J81:J82"/>
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="L81:L82"/>
-    <mergeCell ref="M81:M82"/>
-    <mergeCell ref="N81:N82"/>
-    <mergeCell ref="O83:O84"/>
-    <mergeCell ref="P83:P84"/>
-    <mergeCell ref="E83:H84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="J83:J84"/>
-    <mergeCell ref="K83:K84"/>
-    <mergeCell ref="L83:L84"/>
-    <mergeCell ref="M83:M84"/>
-    <mergeCell ref="N83:N84"/>
-    <mergeCell ref="D69:H70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="J69:J70"/>
-    <mergeCell ref="K69:K70"/>
-    <mergeCell ref="L69:L70"/>
-    <mergeCell ref="E71:H72"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="O73:O74"/>
-    <mergeCell ref="P73:P74"/>
-    <mergeCell ref="E73:H74"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="J73:J74"/>
-    <mergeCell ref="K73:K74"/>
-    <mergeCell ref="L73:L74"/>
-    <mergeCell ref="M73:M74"/>
-    <mergeCell ref="N73:N74"/>
-    <mergeCell ref="L71:L72"/>
-    <mergeCell ref="M71:M72"/>
-    <mergeCell ref="N71:N72"/>
-    <mergeCell ref="O71:O72"/>
-    <mergeCell ref="P71:P72"/>
-    <mergeCell ref="J71:J72"/>
-    <mergeCell ref="K71:K72"/>
-    <mergeCell ref="N75:N76"/>
-    <mergeCell ref="L79:L80"/>
-    <mergeCell ref="M79:M80"/>
-    <mergeCell ref="N79:N80"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="P79:P80"/>
-    <mergeCell ref="Q4:AP4"/>
-    <mergeCell ref="AQ4:BU4"/>
-    <mergeCell ref="BV4:CY4"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="P27:P28"/>
-    <mergeCell ref="O39:O40"/>
-    <mergeCell ref="P39:P40"/>
-    <mergeCell ref="P35:P36"/>
-    <mergeCell ref="O37:O38"/>
-    <mergeCell ref="P37:P38"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="N45:N46"/>
-    <mergeCell ref="O45:O46"/>
-    <mergeCell ref="CZ4:DV4"/>
-    <mergeCell ref="B7:H8"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="C9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="D11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="D13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="D15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="D17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="C19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="D21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="P25:P26"/>
-    <mergeCell ref="C23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="D25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="D27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="P29:P30"/>
-    <mergeCell ref="D29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="E39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="E37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="C31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="N35:N36"/>
-    <mergeCell ref="O35:O36"/>
-    <mergeCell ref="D33:H34"/>
-    <mergeCell ref="E35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="P45:P46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="D43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="E45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="O47:O48"/>
-    <mergeCell ref="P47:P48"/>
-    <mergeCell ref="E47:H48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="N47:N48"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="P49:P50"/>
-    <mergeCell ref="E49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="N53:N54"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="P53:P54"/>
-    <mergeCell ref="J61:J62"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="C59:H60"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="L61:L62"/>
-    <mergeCell ref="O55:O56"/>
-    <mergeCell ref="P55:P56"/>
-    <mergeCell ref="E55:H56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="L55:L56"/>
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="N55:N56"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="O67:O68"/>
+    <mergeCell ref="E67:H68"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="J67:J68"/>
+    <mergeCell ref="K67:K68"/>
+    <mergeCell ref="L67:L68"/>
+    <mergeCell ref="M67:M68"/>
+    <mergeCell ref="N67:N68"/>
+    <mergeCell ref="O65:O66"/>
+    <mergeCell ref="E65:H66"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="J65:J66"/>
+    <mergeCell ref="K65:K66"/>
+    <mergeCell ref="L65:L66"/>
+    <mergeCell ref="M65:M66"/>
+    <mergeCell ref="N65:N66"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="J63:J64"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="L63:L64"/>
+    <mergeCell ref="M63:M64"/>
+    <mergeCell ref="D51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="E53:H54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="E41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="P41:P42"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/DOJT｜WBS _ PGコース MVC編.xlsx
+++ b/docs/DOJT｜WBS _ PGコース MVC編.xlsx
@@ -1349,101 +1349,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="56" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="180" fontId="5" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="56" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="5" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="5" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="5" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1465,6 +1409,62 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="180" fontId="5" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3550,7 +3550,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AP47" sqref="AP47"/>
+      <selection pane="bottomLeft" activeCell="O39" sqref="O39:O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3980,7 +3980,7 @@
       <c r="N4" s="27"/>
       <c r="O4" s="27"/>
       <c r="P4" s="27"/>
-      <c r="Q4" s="146" t="s">
+      <c r="Q4" s="180" t="s">
         <v>63</v>
       </c>
       <c r="R4" s="127"/>
@@ -4008,7 +4008,7 @@
       <c r="AN4" s="127"/>
       <c r="AO4" s="127"/>
       <c r="AP4" s="128"/>
-      <c r="AQ4" s="146" t="s">
+      <c r="AQ4" s="180" t="s">
         <v>64</v>
       </c>
       <c r="AR4" s="127"/>
@@ -4041,7 +4041,7 @@
       <c r="BS4" s="127"/>
       <c r="BT4" s="127"/>
       <c r="BU4" s="128"/>
-      <c r="BV4" s="146" t="s">
+      <c r="BV4" s="180" t="s">
         <v>65</v>
       </c>
       <c r="BW4" s="127"/>
@@ -4073,7 +4073,7 @@
       <c r="CW4" s="127"/>
       <c r="CX4" s="127"/>
       <c r="CY4" s="128"/>
-      <c r="CZ4" s="146" t="s">
+      <c r="CZ4" s="180" t="s">
         <v>66</v>
       </c>
       <c r="DA4" s="127"/>
@@ -4910,7 +4910,7 @@
     </row>
     <row r="7" spans="1:127" ht="19.5">
       <c r="A7" s="26"/>
-      <c r="B7" s="154" t="s">
+      <c r="B7" s="181" t="s">
         <v>74</v>
       </c>
       <c r="C7" s="121"/>
@@ -5191,33 +5191,33 @@
     <row r="9" spans="1:127" ht="12" customHeight="1">
       <c r="A9" s="26"/>
       <c r="B9" s="50"/>
-      <c r="C9" s="156" t="s">
+      <c r="C9" s="174" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="157"/>
-      <c r="E9" s="157"/>
-      <c r="F9" s="157"/>
-      <c r="G9" s="157"/>
-      <c r="H9" s="157"/>
-      <c r="I9" s="159">
+      <c r="D9" s="136"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="136"/>
+      <c r="G9" s="136"/>
+      <c r="H9" s="136"/>
+      <c r="I9" s="176">
         <v>1</v>
       </c>
-      <c r="J9" s="155">
+      <c r="J9" s="177">
         <f>J11</f>
         <v>45787</v>
       </c>
-      <c r="K9" s="155">
+      <c r="K9" s="177">
         <f>K17</f>
         <v>45787</v>
       </c>
-      <c r="L9" s="159">
+      <c r="L9" s="176">
         <v>1.3</v>
       </c>
-      <c r="M9" s="155">
+      <c r="M9" s="177">
         <f>M11</f>
         <v>45787</v>
       </c>
-      <c r="N9" s="155">
+      <c r="N9" s="177">
         <f>N17</f>
         <v>45790</v>
       </c>
@@ -5340,7 +5340,7 @@
     <row r="10" spans="1:127" ht="12" customHeight="1">
       <c r="A10" s="26"/>
       <c r="B10" s="50"/>
-      <c r="C10" s="158"/>
+      <c r="C10" s="137"/>
       <c r="D10" s="124"/>
       <c r="E10" s="124"/>
       <c r="F10" s="124"/>
@@ -5470,37 +5470,37 @@
       <c r="A11" s="26"/>
       <c r="B11" s="50"/>
       <c r="C11" s="54"/>
-      <c r="D11" s="160" t="s">
+      <c r="D11" s="178" t="s">
         <v>76</v>
       </c>
       <c r="E11" s="121"/>
       <c r="F11" s="121"/>
       <c r="G11" s="121"/>
       <c r="H11" s="122"/>
-      <c r="I11" s="147">
+      <c r="I11" s="171">
         <v>0.1</v>
       </c>
-      <c r="J11" s="161">
+      <c r="J11" s="179">
         <v>45787</v>
       </c>
-      <c r="K11" s="161">
+      <c r="K11" s="179">
         <f>$J$11</f>
         <v>45787</v>
       </c>
-      <c r="L11" s="147">
+      <c r="L11" s="171">
         <v>0.1</v>
       </c>
-      <c r="M11" s="161">
+      <c r="M11" s="179">
         <v>45787</v>
       </c>
-      <c r="N11" s="161">
+      <c r="N11" s="179">
         <f>$J$11</f>
         <v>45787</v>
       </c>
-      <c r="O11" s="147" t="s">
+      <c r="O11" s="171" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="147">
+      <c r="P11" s="171">
         <v>100</v>
       </c>
       <c r="Q11" s="55"/>
@@ -5748,39 +5748,39 @@
       <c r="A13" s="26"/>
       <c r="B13" s="50"/>
       <c r="C13" s="63"/>
-      <c r="D13" s="160" t="s">
+      <c r="D13" s="178" t="s">
         <v>78</v>
       </c>
       <c r="E13" s="121"/>
       <c r="F13" s="121"/>
       <c r="G13" s="121"/>
       <c r="H13" s="122"/>
-      <c r="I13" s="147">
+      <c r="I13" s="171">
         <v>0.1</v>
       </c>
-      <c r="J13" s="161">
+      <c r="J13" s="179">
         <f t="shared" ref="J13:K13" si="1">$J$11</f>
         <v>45787</v>
       </c>
-      <c r="K13" s="161">
+      <c r="K13" s="179">
         <f t="shared" si="1"/>
         <v>45787</v>
       </c>
-      <c r="L13" s="147">
+      <c r="L13" s="171">
         <v>0.1</v>
       </c>
-      <c r="M13" s="161">
+      <c r="M13" s="179">
         <f t="shared" ref="M13:N13" si="2">$J$11</f>
         <v>45787</v>
       </c>
-      <c r="N13" s="161">
+      <c r="N13" s="179">
         <f t="shared" si="2"/>
         <v>45787</v>
       </c>
-      <c r="O13" s="147" t="s">
+      <c r="O13" s="171" t="s">
         <v>77</v>
       </c>
-      <c r="P13" s="147">
+      <c r="P13" s="171">
         <v>100</v>
       </c>
       <c r="Q13" s="55"/>
@@ -6028,39 +6028,39 @@
       <c r="A15" s="26"/>
       <c r="B15" s="50"/>
       <c r="C15" s="63"/>
-      <c r="D15" s="160" t="s">
+      <c r="D15" s="178" t="s">
         <v>79</v>
       </c>
       <c r="E15" s="121"/>
       <c r="F15" s="121"/>
       <c r="G15" s="121"/>
       <c r="H15" s="122"/>
-      <c r="I15" s="147">
+      <c r="I15" s="171">
         <v>0.1</v>
       </c>
-      <c r="J15" s="161">
+      <c r="J15" s="179">
         <f t="shared" ref="J15:K15" si="3">$J$11</f>
         <v>45787</v>
       </c>
-      <c r="K15" s="161">
+      <c r="K15" s="179">
         <f t="shared" si="3"/>
         <v>45787</v>
       </c>
-      <c r="L15" s="147">
+      <c r="L15" s="171">
         <v>0.1</v>
       </c>
-      <c r="M15" s="161">
+      <c r="M15" s="179">
         <f t="shared" ref="M15:N15" si="4">$J$11</f>
         <v>45787</v>
       </c>
-      <c r="N15" s="161">
+      <c r="N15" s="179">
         <f t="shared" si="4"/>
         <v>45787</v>
       </c>
-      <c r="O15" s="147" t="s">
+      <c r="O15" s="171" t="s">
         <v>77</v>
       </c>
-      <c r="P15" s="147">
+      <c r="P15" s="171">
         <v>100</v>
       </c>
       <c r="Q15" s="55"/>
@@ -6308,37 +6308,37 @@
       <c r="A17" s="26"/>
       <c r="B17" s="50"/>
       <c r="C17" s="63"/>
-      <c r="D17" s="160" t="s">
+      <c r="D17" s="178" t="s">
         <v>80</v>
       </c>
       <c r="E17" s="121"/>
       <c r="F17" s="121"/>
       <c r="G17" s="121"/>
       <c r="H17" s="122"/>
-      <c r="I17" s="147">
+      <c r="I17" s="171">
         <v>0.7</v>
       </c>
-      <c r="J17" s="161">
+      <c r="J17" s="179">
         <f t="shared" ref="J17:K17" si="5">$J$11</f>
         <v>45787</v>
       </c>
-      <c r="K17" s="161">
+      <c r="K17" s="179">
         <f t="shared" si="5"/>
         <v>45787</v>
       </c>
-      <c r="L17" s="147">
+      <c r="L17" s="171">
         <v>3</v>
       </c>
-      <c r="M17" s="161">
+      <c r="M17" s="179">
         <v>45787</v>
       </c>
-      <c r="N17" s="161">
+      <c r="N17" s="179">
         <v>45790</v>
       </c>
-      <c r="O17" s="147" t="s">
+      <c r="O17" s="171" t="s">
         <v>77</v>
       </c>
-      <c r="P17" s="147">
+      <c r="P17" s="171">
         <v>100</v>
       </c>
       <c r="Q17" s="55"/>
@@ -6585,24 +6585,24 @@
     <row r="19" spans="1:127" ht="12" customHeight="1">
       <c r="A19" s="26"/>
       <c r="B19" s="50"/>
-      <c r="C19" s="156" t="s">
+      <c r="C19" s="174" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="157"/>
-      <c r="E19" s="157"/>
-      <c r="F19" s="157"/>
-      <c r="G19" s="157"/>
-      <c r="H19" s="157"/>
-      <c r="I19" s="159">
+      <c r="D19" s="136"/>
+      <c r="E19" s="136"/>
+      <c r="F19" s="136"/>
+      <c r="G19" s="136"/>
+      <c r="H19" s="136"/>
+      <c r="I19" s="176">
         <v>1</v>
       </c>
-      <c r="J19" s="155">
+      <c r="J19" s="177">
         <v>45790</v>
       </c>
-      <c r="K19" s="155">
+      <c r="K19" s="177">
         <v>45790</v>
       </c>
-      <c r="L19" s="159"/>
+      <c r="L19" s="176"/>
       <c r="M19" s="74"/>
       <c r="N19" s="74"/>
       <c r="O19" s="75"/>
@@ -6722,12 +6722,12 @@
     <row r="20" spans="1:127" ht="12" customHeight="1">
       <c r="A20" s="26"/>
       <c r="B20" s="50"/>
-      <c r="C20" s="163"/>
-      <c r="D20" s="142"/>
-      <c r="E20" s="142"/>
-      <c r="F20" s="142"/>
-      <c r="G20" s="142"/>
-      <c r="H20" s="142"/>
+      <c r="C20" s="175"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="143"/>
+      <c r="G20" s="143"/>
+      <c r="H20" s="143"/>
       <c r="I20" s="130"/>
       <c r="J20" s="125"/>
       <c r="K20" s="125"/>
@@ -6852,35 +6852,35 @@
       <c r="A21" s="26"/>
       <c r="B21" s="50"/>
       <c r="C21" s="54"/>
-      <c r="D21" s="160" t="s">
+      <c r="D21" s="178" t="s">
         <v>81</v>
       </c>
       <c r="E21" s="121"/>
       <c r="F21" s="121"/>
       <c r="G21" s="121"/>
       <c r="H21" s="122"/>
-      <c r="I21" s="147">
+      <c r="I21" s="171">
         <v>1</v>
       </c>
-      <c r="J21" s="162">
+      <c r="J21" s="173">
         <v>45790</v>
       </c>
-      <c r="K21" s="162">
+      <c r="K21" s="173">
         <v>45790</v>
       </c>
-      <c r="L21" s="147">
+      <c r="L21" s="171">
         <v>5.5</v>
       </c>
-      <c r="M21" s="162">
+      <c r="M21" s="173">
         <v>45790</v>
       </c>
-      <c r="N21" s="162">
+      <c r="N21" s="173">
         <v>45790</v>
       </c>
-      <c r="O21" s="147" t="s">
+      <c r="O21" s="171" t="s">
         <v>77</v>
       </c>
-      <c r="P21" s="147">
+      <c r="P21" s="171">
         <v>100</v>
       </c>
       <c r="Q21" s="55"/>
@@ -7127,24 +7127,24 @@
     <row r="23" spans="1:127" ht="12" customHeight="1">
       <c r="A23" s="26"/>
       <c r="B23" s="91"/>
-      <c r="C23" s="164" t="s">
+      <c r="C23" s="172" t="s">
         <v>82</v>
       </c>
-      <c r="D23" s="157"/>
-      <c r="E23" s="157"/>
-      <c r="F23" s="157"/>
-      <c r="G23" s="157"/>
-      <c r="H23" s="157"/>
-      <c r="I23" s="165">
+      <c r="D23" s="136"/>
+      <c r="E23" s="136"/>
+      <c r="F23" s="136"/>
+      <c r="G23" s="136"/>
+      <c r="H23" s="136"/>
+      <c r="I23" s="138">
         <v>10</v>
       </c>
-      <c r="J23" s="139">
+      <c r="J23" s="134">
         <v>45791</v>
       </c>
-      <c r="K23" s="139">
+      <c r="K23" s="134">
         <v>45792</v>
       </c>
-      <c r="L23" s="166"/>
+      <c r="L23" s="161"/>
       <c r="M23" s="92"/>
       <c r="N23" s="92"/>
       <c r="O23" s="93"/>
@@ -7264,7 +7264,7 @@
     <row r="24" spans="1:127" ht="12" customHeight="1">
       <c r="A24" s="26"/>
       <c r="B24" s="91"/>
-      <c r="C24" s="158"/>
+      <c r="C24" s="137"/>
       <c r="D24" s="124"/>
       <c r="E24" s="124"/>
       <c r="F24" s="124"/>
@@ -7394,35 +7394,35 @@
       <c r="A25" s="26"/>
       <c r="B25" s="91"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="167" t="s">
+      <c r="D25" s="168" t="s">
         <v>83</v>
       </c>
       <c r="E25" s="121"/>
       <c r="F25" s="121"/>
       <c r="G25" s="121"/>
       <c r="H25" s="122"/>
-      <c r="I25" s="132">
+      <c r="I25" s="133">
         <v>4</v>
       </c>
-      <c r="J25" s="133">
+      <c r="J25" s="131">
         <v>45791</v>
       </c>
-      <c r="K25" s="133">
+      <c r="K25" s="131">
         <v>45791</v>
       </c>
-      <c r="L25" s="132">
+      <c r="L25" s="133">
         <v>7</v>
       </c>
-      <c r="M25" s="133">
+      <c r="M25" s="131">
         <v>45791</v>
       </c>
-      <c r="N25" s="133">
+      <c r="N25" s="131">
         <v>45791</v>
       </c>
-      <c r="O25" s="132" t="s">
+      <c r="O25" s="133" t="s">
         <v>77</v>
       </c>
-      <c r="P25" s="147">
+      <c r="P25" s="171">
         <v>100</v>
       </c>
       <c r="Q25" s="55"/>
@@ -7670,35 +7670,35 @@
       <c r="A27" s="26"/>
       <c r="B27" s="91"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="167" t="s">
+      <c r="D27" s="168" t="s">
         <v>84</v>
       </c>
       <c r="E27" s="121"/>
       <c r="F27" s="121"/>
       <c r="G27" s="121"/>
       <c r="H27" s="122"/>
-      <c r="I27" s="132">
+      <c r="I27" s="133">
         <v>6</v>
       </c>
-      <c r="J27" s="168">
+      <c r="J27" s="169">
         <v>45791</v>
       </c>
-      <c r="K27" s="133">
+      <c r="K27" s="131">
         <v>45792</v>
       </c>
-      <c r="L27" s="132">
+      <c r="L27" s="133">
         <v>3</v>
       </c>
-      <c r="M27" s="133">
+      <c r="M27" s="131">
         <v>45792</v>
       </c>
-      <c r="N27" s="133">
+      <c r="N27" s="131">
         <v>45792</v>
       </c>
-      <c r="O27" s="132" t="s">
+      <c r="O27" s="133" t="s">
         <v>77</v>
       </c>
-      <c r="P27" s="132">
+      <c r="P27" s="133">
         <v>100</v>
       </c>
       <c r="Q27" s="55"/>
@@ -7946,35 +7946,35 @@
       <c r="A29" s="26"/>
       <c r="B29" s="91"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="167" t="s">
+      <c r="D29" s="168" t="s">
         <v>85</v>
       </c>
       <c r="E29" s="121"/>
       <c r="F29" s="121"/>
       <c r="G29" s="121"/>
       <c r="H29" s="122"/>
-      <c r="I29" s="132">
+      <c r="I29" s="133">
         <v>4</v>
       </c>
-      <c r="J29" s="133">
+      <c r="J29" s="131">
         <v>45792</v>
       </c>
-      <c r="K29" s="168">
+      <c r="K29" s="169">
         <v>45792</v>
       </c>
-      <c r="L29" s="134">
+      <c r="L29" s="144">
         <v>3</v>
       </c>
-      <c r="M29" s="133">
+      <c r="M29" s="131">
         <v>45792</v>
       </c>
-      <c r="N29" s="133">
+      <c r="N29" s="131">
         <v>45792</v>
       </c>
-      <c r="O29" s="169" t="s">
+      <c r="O29" s="170" t="s">
         <v>99</v>
       </c>
-      <c r="P29" s="132">
+      <c r="P29" s="133">
         <v>100</v>
       </c>
       <c r="Q29" s="55"/>
@@ -8101,7 +8101,7 @@
       <c r="I30" s="130"/>
       <c r="J30" s="130"/>
       <c r="K30" s="130"/>
-      <c r="L30" s="135"/>
+      <c r="L30" s="140"/>
       <c r="M30" s="130"/>
       <c r="N30" s="130"/>
       <c r="O30" s="130"/>
@@ -8221,24 +8221,24 @@
     <row r="31" spans="1:127" ht="12" customHeight="1">
       <c r="A31" s="26"/>
       <c r="B31" s="99"/>
-      <c r="C31" s="171" t="s">
+      <c r="C31" s="135" t="s">
         <v>86</v>
       </c>
-      <c r="D31" s="157"/>
-      <c r="E31" s="157"/>
-      <c r="F31" s="157"/>
-      <c r="G31" s="157"/>
-      <c r="H31" s="157"/>
-      <c r="I31" s="165">
+      <c r="D31" s="136"/>
+      <c r="E31" s="136"/>
+      <c r="F31" s="136"/>
+      <c r="G31" s="136"/>
+      <c r="H31" s="136"/>
+      <c r="I31" s="138">
         <v>32</v>
       </c>
-      <c r="J31" s="139">
+      <c r="J31" s="134">
         <v>45793</v>
       </c>
-      <c r="K31" s="139">
+      <c r="K31" s="134">
         <v>45798</v>
       </c>
-      <c r="L31" s="166"/>
+      <c r="L31" s="161"/>
       <c r="M31" s="100"/>
       <c r="N31" s="100"/>
       <c r="O31" s="101"/>
@@ -8358,7 +8358,7 @@
     <row r="32" spans="1:127" ht="12" customHeight="1">
       <c r="A32" s="26"/>
       <c r="B32" s="99"/>
-      <c r="C32" s="158"/>
+      <c r="C32" s="137"/>
       <c r="D32" s="124"/>
       <c r="E32" s="124"/>
       <c r="F32" s="124"/>
@@ -8488,23 +8488,23 @@
       <c r="A33" s="26"/>
       <c r="B33" s="99"/>
       <c r="C33" s="104"/>
-      <c r="D33" s="137" t="s">
+      <c r="D33" s="149" t="s">
         <v>105</v>
       </c>
       <c r="E33" s="121"/>
       <c r="F33" s="121"/>
       <c r="G33" s="121"/>
       <c r="H33" s="122"/>
-      <c r="I33" s="138">
+      <c r="I33" s="141">
         <v>8</v>
       </c>
-      <c r="J33" s="139">
+      <c r="J33" s="134">
         <v>45793</v>
       </c>
-      <c r="K33" s="139">
+      <c r="K33" s="134">
         <v>45793</v>
       </c>
-      <c r="L33" s="166"/>
+      <c r="L33" s="161"/>
       <c r="M33" s="100"/>
       <c r="N33" s="100"/>
       <c r="O33" s="101"/>
@@ -8755,28 +8755,28 @@
       <c r="B35" s="99"/>
       <c r="C35" s="26"/>
       <c r="D35" s="106"/>
-      <c r="E35" s="141" t="s">
+      <c r="E35" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="F35" s="142"/>
-      <c r="G35" s="142"/>
-      <c r="H35" s="142"/>
-      <c r="I35" s="132">
+      <c r="F35" s="143"/>
+      <c r="G35" s="143"/>
+      <c r="H35" s="143"/>
+      <c r="I35" s="133">
         <v>1</v>
       </c>
-      <c r="J35" s="133">
+      <c r="J35" s="131">
         <v>45793</v>
       </c>
-      <c r="K35" s="133">
+      <c r="K35" s="131">
         <v>45793</v>
       </c>
-      <c r="L35" s="150" t="s">
+      <c r="L35" s="164" t="s">
         <v>101</v>
       </c>
-      <c r="M35" s="151"/>
-      <c r="N35" s="152"/>
-      <c r="O35" s="153"/>
-      <c r="P35" s="148"/>
+      <c r="M35" s="165"/>
+      <c r="N35" s="162"/>
+      <c r="O35" s="163"/>
+      <c r="P35" s="147"/>
       <c r="Q35" s="55"/>
       <c r="R35" s="56"/>
       <c r="S35" s="56"/>
@@ -8901,11 +8901,11 @@
       <c r="I36" s="130"/>
       <c r="J36" s="130"/>
       <c r="K36" s="130"/>
-      <c r="L36" s="135"/>
-      <c r="M36" s="149"/>
-      <c r="N36" s="149"/>
-      <c r="O36" s="149"/>
-      <c r="P36" s="149"/>
+      <c r="L36" s="140"/>
+      <c r="M36" s="148"/>
+      <c r="N36" s="148"/>
+      <c r="O36" s="148"/>
+      <c r="P36" s="148"/>
       <c r="Q36" s="55"/>
       <c r="R36" s="56"/>
       <c r="S36" s="56"/>
@@ -9023,32 +9023,32 @@
       <c r="B37" s="99"/>
       <c r="C37" s="26"/>
       <c r="D37" s="99"/>
-      <c r="E37" s="170" t="s">
+      <c r="E37" s="167" t="s">
         <v>106</v>
       </c>
-      <c r="F37" s="142"/>
-      <c r="G37" s="142"/>
-      <c r="H37" s="142"/>
-      <c r="I37" s="132">
+      <c r="F37" s="143"/>
+      <c r="G37" s="143"/>
+      <c r="H37" s="143"/>
+      <c r="I37" s="133">
         <v>4</v>
       </c>
-      <c r="J37" s="133">
+      <c r="J37" s="131">
         <v>45793</v>
       </c>
-      <c r="K37" s="133">
+      <c r="K37" s="131">
         <v>45793</v>
       </c>
-      <c r="L37" s="134">
+      <c r="L37" s="144">
         <v>4</v>
       </c>
-      <c r="M37" s="133">
+      <c r="M37" s="131">
         <v>45793</v>
       </c>
-      <c r="N37" s="133"/>
-      <c r="O37" s="136" t="s">
+      <c r="N37" s="131"/>
+      <c r="O37" s="182" t="s">
         <v>100</v>
       </c>
-      <c r="P37" s="132">
+      <c r="P37" s="133">
         <v>80</v>
       </c>
       <c r="Q37" s="55"/>
@@ -9175,7 +9175,7 @@
       <c r="I38" s="130"/>
       <c r="J38" s="130"/>
       <c r="K38" s="130"/>
-      <c r="L38" s="135"/>
+      <c r="L38" s="140"/>
       <c r="M38" s="130"/>
       <c r="N38" s="130"/>
       <c r="O38" s="130"/>
@@ -9297,32 +9297,32 @@
       <c r="B39" s="99"/>
       <c r="C39" s="26"/>
       <c r="D39" s="99"/>
-      <c r="E39" s="131" t="s">
+      <c r="E39" s="166" t="s">
         <v>103</v>
       </c>
       <c r="F39" s="121"/>
       <c r="G39" s="121"/>
       <c r="H39" s="122"/>
-      <c r="I39" s="132">
+      <c r="I39" s="133">
         <v>3</v>
       </c>
-      <c r="J39" s="133">
+      <c r="J39" s="131">
         <v>45793</v>
       </c>
-      <c r="K39" s="133">
+      <c r="K39" s="131">
         <v>45793</v>
       </c>
-      <c r="L39" s="134">
-        <v>3</v>
-      </c>
-      <c r="M39" s="133">
+      <c r="L39" s="144">
+        <v>2</v>
+      </c>
+      <c r="M39" s="131">
         <v>45793</v>
       </c>
-      <c r="N39" s="133"/>
-      <c r="O39" s="136" t="s">
+      <c r="N39" s="131"/>
+      <c r="O39" s="182" t="s">
         <v>100</v>
       </c>
-      <c r="P39" s="132">
+      <c r="P39" s="133">
         <v>50</v>
       </c>
       <c r="Q39" s="55"/>
@@ -9449,7 +9449,7 @@
       <c r="I40" s="130"/>
       <c r="J40" s="130"/>
       <c r="K40" s="130"/>
-      <c r="L40" s="135"/>
+      <c r="L40" s="140"/>
       <c r="M40" s="130"/>
       <c r="N40" s="130"/>
       <c r="O40" s="130"/>
@@ -9571,32 +9571,32 @@
       <c r="B41" s="110"/>
       <c r="C41" s="116"/>
       <c r="D41" s="110"/>
-      <c r="E41" s="131" t="s">
+      <c r="E41" s="166" t="s">
         <v>104</v>
       </c>
       <c r="F41" s="121"/>
       <c r="G41" s="121"/>
       <c r="H41" s="122"/>
-      <c r="I41" s="132">
+      <c r="I41" s="133">
         <v>4</v>
       </c>
-      <c r="J41" s="133">
+      <c r="J41" s="131">
         <v>45793</v>
       </c>
-      <c r="K41" s="133">
+      <c r="K41" s="131">
         <v>45793</v>
       </c>
-      <c r="L41" s="134">
+      <c r="L41" s="144">
         <v>2</v>
       </c>
-      <c r="M41" s="133">
+      <c r="M41" s="131">
         <v>45793</v>
       </c>
-      <c r="N41" s="133"/>
-      <c r="O41" s="136" t="s">
+      <c r="N41" s="131"/>
+      <c r="O41" s="182" t="s">
         <v>100</v>
       </c>
-      <c r="P41" s="132">
+      <c r="P41" s="133">
         <v>50</v>
       </c>
       <c r="Q41" s="55"/>
@@ -9723,7 +9723,7 @@
       <c r="I42" s="130"/>
       <c r="J42" s="130"/>
       <c r="K42" s="130"/>
-      <c r="L42" s="135"/>
+      <c r="L42" s="140"/>
       <c r="M42" s="130"/>
       <c r="N42" s="130"/>
       <c r="O42" s="130"/>
@@ -9844,23 +9844,23 @@
       <c r="A43" s="116"/>
       <c r="B43" s="110"/>
       <c r="C43" s="116"/>
-      <c r="D43" s="137" t="s">
+      <c r="D43" s="149" t="s">
         <v>91</v>
       </c>
-      <c r="E43" s="172"/>
-      <c r="F43" s="172"/>
-      <c r="G43" s="172"/>
-      <c r="H43" s="173"/>
-      <c r="I43" s="177">
+      <c r="E43" s="150"/>
+      <c r="F43" s="150"/>
+      <c r="G43" s="150"/>
+      <c r="H43" s="151"/>
+      <c r="I43" s="155">
         <v>16</v>
       </c>
-      <c r="J43" s="179">
+      <c r="J43" s="157">
         <v>45796</v>
       </c>
-      <c r="K43" s="179">
+      <c r="K43" s="157">
         <v>45797</v>
       </c>
-      <c r="L43" s="181"/>
+      <c r="L43" s="159"/>
       <c r="M43" s="100"/>
       <c r="N43" s="100"/>
       <c r="O43" s="101"/>
@@ -9981,15 +9981,15 @@
       <c r="A44" s="116"/>
       <c r="B44" s="110"/>
       <c r="C44" s="116"/>
-      <c r="D44" s="174"/>
-      <c r="E44" s="175"/>
-      <c r="F44" s="175"/>
-      <c r="G44" s="175"/>
-      <c r="H44" s="176"/>
-      <c r="I44" s="178"/>
-      <c r="J44" s="180"/>
-      <c r="K44" s="180"/>
-      <c r="L44" s="182"/>
+      <c r="D44" s="152"/>
+      <c r="E44" s="153"/>
+      <c r="F44" s="153"/>
+      <c r="G44" s="153"/>
+      <c r="H44" s="154"/>
+      <c r="I44" s="156"/>
+      <c r="J44" s="158"/>
+      <c r="K44" s="158"/>
+      <c r="L44" s="160"/>
       <c r="M44" s="102"/>
       <c r="N44" s="102"/>
       <c r="O44" s="103"/>
@@ -10111,28 +10111,28 @@
       <c r="B45" s="99"/>
       <c r="C45" s="26"/>
       <c r="D45" s="106"/>
-      <c r="E45" s="141" t="s">
+      <c r="E45" s="142" t="s">
         <v>92</v>
       </c>
-      <c r="F45" s="142"/>
-      <c r="G45" s="142"/>
-      <c r="H45" s="142"/>
-      <c r="I45" s="132">
+      <c r="F45" s="143"/>
+      <c r="G45" s="143"/>
+      <c r="H45" s="143"/>
+      <c r="I45" s="133">
         <v>2</v>
       </c>
-      <c r="J45" s="133">
+      <c r="J45" s="131">
         <v>45796</v>
       </c>
-      <c r="K45" s="133">
+      <c r="K45" s="131">
         <v>45796</v>
       </c>
-      <c r="L45" s="150" t="s">
+      <c r="L45" s="164" t="s">
         <v>102</v>
       </c>
-      <c r="M45" s="151"/>
-      <c r="N45" s="152"/>
-      <c r="O45" s="153"/>
-      <c r="P45" s="148"/>
+      <c r="M45" s="165"/>
+      <c r="N45" s="162"/>
+      <c r="O45" s="163"/>
+      <c r="P45" s="147"/>
       <c r="Q45" s="55"/>
       <c r="R45" s="56"/>
       <c r="S45" s="56"/>
@@ -10257,11 +10257,11 @@
       <c r="I46" s="130"/>
       <c r="J46" s="130"/>
       <c r="K46" s="130"/>
-      <c r="L46" s="135"/>
-      <c r="M46" s="149"/>
-      <c r="N46" s="149"/>
-      <c r="O46" s="149"/>
-      <c r="P46" s="149"/>
+      <c r="L46" s="140"/>
+      <c r="M46" s="148"/>
+      <c r="N46" s="148"/>
+      <c r="O46" s="148"/>
+      <c r="P46" s="148"/>
       <c r="Q46" s="55"/>
       <c r="R46" s="56"/>
       <c r="S46" s="56"/>
@@ -10379,26 +10379,26 @@
       <c r="B47" s="99"/>
       <c r="C47" s="26"/>
       <c r="D47" s="99"/>
-      <c r="E47" s="141" t="s">
+      <c r="E47" s="142" t="s">
         <v>107</v>
       </c>
-      <c r="F47" s="142"/>
-      <c r="G47" s="142"/>
-      <c r="H47" s="142"/>
-      <c r="I47" s="132">
+      <c r="F47" s="143"/>
+      <c r="G47" s="143"/>
+      <c r="H47" s="143"/>
+      <c r="I47" s="133">
         <v>14</v>
       </c>
-      <c r="J47" s="133">
+      <c r="J47" s="131">
         <v>45796</v>
       </c>
-      <c r="K47" s="145">
+      <c r="K47" s="146">
         <v>45797</v>
       </c>
-      <c r="L47" s="134"/>
-      <c r="M47" s="133"/>
-      <c r="N47" s="133"/>
-      <c r="O47" s="143"/>
-      <c r="P47" s="132">
+      <c r="L47" s="144"/>
+      <c r="M47" s="131"/>
+      <c r="N47" s="131"/>
+      <c r="O47" s="132"/>
+      <c r="P47" s="133">
         <v>0</v>
       </c>
       <c r="Q47" s="55"/>
@@ -10525,7 +10525,7 @@
       <c r="I48" s="130"/>
       <c r="J48" s="130"/>
       <c r="K48" s="125"/>
-      <c r="L48" s="135"/>
+      <c r="L48" s="140"/>
       <c r="M48" s="130"/>
       <c r="N48" s="130"/>
       <c r="O48" s="130"/>
@@ -10647,18 +10647,18 @@
       <c r="B49" s="99"/>
       <c r="C49" s="26"/>
       <c r="D49" s="99"/>
-      <c r="E49" s="144"/>
+      <c r="E49" s="145"/>
       <c r="F49" s="121"/>
       <c r="G49" s="121"/>
       <c r="H49" s="122"/>
-      <c r="I49" s="132"/>
-      <c r="J49" s="133"/>
-      <c r="K49" s="133"/>
-      <c r="L49" s="134"/>
-      <c r="M49" s="133"/>
-      <c r="N49" s="133"/>
-      <c r="O49" s="143"/>
-      <c r="P49" s="132">
+      <c r="I49" s="133"/>
+      <c r="J49" s="131"/>
+      <c r="K49" s="131"/>
+      <c r="L49" s="144"/>
+      <c r="M49" s="131"/>
+      <c r="N49" s="131"/>
+      <c r="O49" s="132"/>
+      <c r="P49" s="133">
         <v>0</v>
       </c>
       <c r="Q49" s="55"/>
@@ -10785,7 +10785,7 @@
       <c r="I50" s="130"/>
       <c r="J50" s="130"/>
       <c r="K50" s="130"/>
-      <c r="L50" s="135"/>
+      <c r="L50" s="140"/>
       <c r="M50" s="130"/>
       <c r="N50" s="130"/>
       <c r="O50" s="130"/>
@@ -10906,23 +10906,23 @@
       <c r="A51" s="26"/>
       <c r="B51" s="99"/>
       <c r="C51" s="108"/>
-      <c r="D51" s="137" t="s">
+      <c r="D51" s="149" t="s">
         <v>93</v>
       </c>
       <c r="E51" s="121"/>
       <c r="F51" s="121"/>
       <c r="G51" s="121"/>
       <c r="H51" s="122"/>
-      <c r="I51" s="138">
+      <c r="I51" s="141">
         <v>6</v>
       </c>
-      <c r="J51" s="139">
+      <c r="J51" s="134">
         <v>45798</v>
       </c>
-      <c r="K51" s="139">
+      <c r="K51" s="134">
         <v>45798</v>
       </c>
-      <c r="L51" s="140"/>
+      <c r="L51" s="139"/>
       <c r="M51" s="100"/>
       <c r="N51" s="100"/>
       <c r="O51" s="101"/>
@@ -11051,7 +11051,7 @@
       <c r="I52" s="125"/>
       <c r="J52" s="125"/>
       <c r="K52" s="125"/>
-      <c r="L52" s="135"/>
+      <c r="L52" s="140"/>
       <c r="M52" s="102"/>
       <c r="N52" s="102"/>
       <c r="O52" s="103"/>
@@ -11173,26 +11173,26 @@
       <c r="B53" s="99"/>
       <c r="C53" s="108"/>
       <c r="D53" s="109"/>
-      <c r="E53" s="141" t="s">
+      <c r="E53" s="142" t="s">
         <v>93</v>
       </c>
-      <c r="F53" s="142"/>
-      <c r="G53" s="142"/>
-      <c r="H53" s="142"/>
-      <c r="I53" s="132">
+      <c r="F53" s="143"/>
+      <c r="G53" s="143"/>
+      <c r="H53" s="143"/>
+      <c r="I53" s="133">
         <v>3</v>
       </c>
-      <c r="J53" s="133">
+      <c r="J53" s="131">
         <v>45798</v>
       </c>
-      <c r="K53" s="133">
+      <c r="K53" s="131">
         <v>45798</v>
       </c>
-      <c r="L53" s="134"/>
-      <c r="M53" s="133"/>
-      <c r="N53" s="133"/>
-      <c r="O53" s="143"/>
-      <c r="P53" s="132">
+      <c r="L53" s="144"/>
+      <c r="M53" s="131"/>
+      <c r="N53" s="131"/>
+      <c r="O53" s="132"/>
+      <c r="P53" s="133">
         <v>0</v>
       </c>
       <c r="Q53" s="55"/>
@@ -11319,7 +11319,7 @@
       <c r="I54" s="130"/>
       <c r="J54" s="130"/>
       <c r="K54" s="130"/>
-      <c r="L54" s="135"/>
+      <c r="L54" s="140"/>
       <c r="M54" s="130"/>
       <c r="N54" s="130"/>
       <c r="O54" s="130"/>
@@ -11441,26 +11441,26 @@
       <c r="B55" s="99"/>
       <c r="C55" s="108"/>
       <c r="D55" s="110"/>
-      <c r="E55" s="141" t="s">
+      <c r="E55" s="142" t="s">
         <v>94</v>
       </c>
-      <c r="F55" s="142"/>
-      <c r="G55" s="142"/>
-      <c r="H55" s="142"/>
-      <c r="I55" s="132">
+      <c r="F55" s="143"/>
+      <c r="G55" s="143"/>
+      <c r="H55" s="143"/>
+      <c r="I55" s="133">
         <v>3</v>
       </c>
-      <c r="J55" s="133">
+      <c r="J55" s="131">
         <v>45798</v>
       </c>
-      <c r="K55" s="133">
+      <c r="K55" s="131">
         <v>45798</v>
       </c>
-      <c r="L55" s="134"/>
-      <c r="M55" s="133"/>
-      <c r="N55" s="133"/>
-      <c r="O55" s="143"/>
-      <c r="P55" s="132">
+      <c r="L55" s="144"/>
+      <c r="M55" s="131"/>
+      <c r="N55" s="131"/>
+      <c r="O55" s="132"/>
+      <c r="P55" s="133">
         <v>0</v>
       </c>
       <c r="Q55" s="55"/>
@@ -11587,7 +11587,7 @@
       <c r="I56" s="130"/>
       <c r="J56" s="130"/>
       <c r="K56" s="130"/>
-      <c r="L56" s="135"/>
+      <c r="L56" s="140"/>
       <c r="M56" s="130"/>
       <c r="N56" s="130"/>
       <c r="O56" s="130"/>
@@ -11709,18 +11709,18 @@
       <c r="B57" s="99"/>
       <c r="C57" s="108"/>
       <c r="D57" s="110"/>
-      <c r="E57" s="144"/>
+      <c r="E57" s="145"/>
       <c r="F57" s="121"/>
       <c r="G57" s="121"/>
       <c r="H57" s="122"/>
-      <c r="I57" s="132"/>
-      <c r="J57" s="133"/>
-      <c r="K57" s="133"/>
-      <c r="L57" s="134"/>
-      <c r="M57" s="133"/>
-      <c r="N57" s="133"/>
-      <c r="O57" s="143"/>
-      <c r="P57" s="132">
+      <c r="I57" s="133"/>
+      <c r="J57" s="131"/>
+      <c r="K57" s="131"/>
+      <c r="L57" s="144"/>
+      <c r="M57" s="131"/>
+      <c r="N57" s="131"/>
+      <c r="O57" s="132"/>
+      <c r="P57" s="133">
         <v>0</v>
       </c>
       <c r="Q57" s="55"/>
@@ -11847,7 +11847,7 @@
       <c r="I58" s="130"/>
       <c r="J58" s="130"/>
       <c r="K58" s="130"/>
-      <c r="L58" s="135"/>
+      <c r="L58" s="140"/>
       <c r="M58" s="130"/>
       <c r="N58" s="130"/>
       <c r="O58" s="130"/>
@@ -11967,24 +11967,24 @@
     <row r="59" spans="1:127" ht="12" customHeight="1">
       <c r="A59" s="26"/>
       <c r="B59" s="99"/>
-      <c r="C59" s="171" t="s">
+      <c r="C59" s="135" t="s">
         <v>95</v>
       </c>
-      <c r="D59" s="157"/>
-      <c r="E59" s="157"/>
-      <c r="F59" s="157"/>
-      <c r="G59" s="157"/>
-      <c r="H59" s="157"/>
-      <c r="I59" s="165">
+      <c r="D59" s="136"/>
+      <c r="E59" s="136"/>
+      <c r="F59" s="136"/>
+      <c r="G59" s="136"/>
+      <c r="H59" s="136"/>
+      <c r="I59" s="138">
         <v>72</v>
       </c>
-      <c r="J59" s="139">
+      <c r="J59" s="134">
         <v>45799</v>
       </c>
-      <c r="K59" s="139">
+      <c r="K59" s="134">
         <v>45808</v>
       </c>
-      <c r="L59" s="140"/>
+      <c r="L59" s="139"/>
       <c r="M59" s="100"/>
       <c r="N59" s="100"/>
       <c r="O59" s="101"/>
@@ -12104,7 +12104,7 @@
     <row r="60" spans="1:127" ht="12" customHeight="1">
       <c r="A60" s="26"/>
       <c r="B60" s="99"/>
-      <c r="C60" s="158"/>
+      <c r="C60" s="137"/>
       <c r="D60" s="124"/>
       <c r="E60" s="124"/>
       <c r="F60" s="124"/>
@@ -12113,7 +12113,7 @@
       <c r="I60" s="130"/>
       <c r="J60" s="125"/>
       <c r="K60" s="125"/>
-      <c r="L60" s="135"/>
+      <c r="L60" s="140"/>
       <c r="M60" s="102"/>
       <c r="N60" s="102"/>
       <c r="O60" s="103"/>
@@ -12234,23 +12234,23 @@
       <c r="A61" s="26"/>
       <c r="B61" s="99"/>
       <c r="C61" s="113"/>
-      <c r="D61" s="137" t="s">
+      <c r="D61" s="149" t="s">
         <v>87</v>
       </c>
       <c r="E61" s="121"/>
       <c r="F61" s="121"/>
       <c r="G61" s="121"/>
       <c r="H61" s="122"/>
-      <c r="I61" s="138">
+      <c r="I61" s="141">
         <v>12</v>
       </c>
-      <c r="J61" s="139">
+      <c r="J61" s="134">
         <v>45799</v>
       </c>
-      <c r="K61" s="139">
+      <c r="K61" s="134">
         <v>45800</v>
       </c>
-      <c r="L61" s="140"/>
+      <c r="L61" s="139"/>
       <c r="M61" s="100"/>
       <c r="N61" s="100"/>
       <c r="O61" s="101"/>
@@ -12379,7 +12379,7 @@
       <c r="I62" s="125"/>
       <c r="J62" s="125"/>
       <c r="K62" s="125"/>
-      <c r="L62" s="135"/>
+      <c r="L62" s="140"/>
       <c r="M62" s="102"/>
       <c r="N62" s="102"/>
       <c r="O62" s="103"/>
@@ -12501,26 +12501,26 @@
       <c r="B63" s="99"/>
       <c r="C63" s="108"/>
       <c r="D63" s="109"/>
-      <c r="E63" s="141" t="s">
+      <c r="E63" s="142" t="s">
         <v>89</v>
       </c>
-      <c r="F63" s="142"/>
-      <c r="G63" s="142"/>
-      <c r="H63" s="142"/>
-      <c r="I63" s="132">
+      <c r="F63" s="143"/>
+      <c r="G63" s="143"/>
+      <c r="H63" s="143"/>
+      <c r="I63" s="133">
         <v>8</v>
       </c>
-      <c r="J63" s="133">
+      <c r="J63" s="131">
         <v>45799</v>
       </c>
-      <c r="K63" s="133">
+      <c r="K63" s="131">
         <v>45799</v>
       </c>
-      <c r="L63" s="134"/>
-      <c r="M63" s="133"/>
-      <c r="N63" s="133"/>
-      <c r="O63" s="143"/>
-      <c r="P63" s="132">
+      <c r="L63" s="144"/>
+      <c r="M63" s="131"/>
+      <c r="N63" s="131"/>
+      <c r="O63" s="132"/>
+      <c r="P63" s="133">
         <v>0</v>
       </c>
       <c r="Q63" s="55"/>
@@ -12647,7 +12647,7 @@
       <c r="I64" s="130"/>
       <c r="J64" s="130"/>
       <c r="K64" s="130"/>
-      <c r="L64" s="135"/>
+      <c r="L64" s="140"/>
       <c r="M64" s="130"/>
       <c r="N64" s="130"/>
       <c r="O64" s="130"/>
@@ -12769,26 +12769,26 @@
       <c r="B65" s="99"/>
       <c r="C65" s="108"/>
       <c r="D65" s="110"/>
-      <c r="E65" s="141" t="s">
+      <c r="E65" s="142" t="s">
         <v>90</v>
       </c>
-      <c r="F65" s="142"/>
-      <c r="G65" s="142"/>
-      <c r="H65" s="142"/>
-      <c r="I65" s="132">
+      <c r="F65" s="143"/>
+      <c r="G65" s="143"/>
+      <c r="H65" s="143"/>
+      <c r="I65" s="133">
         <v>4</v>
       </c>
-      <c r="J65" s="133">
+      <c r="J65" s="131">
         <v>45800</v>
       </c>
-      <c r="K65" s="133">
+      <c r="K65" s="131">
         <v>45800</v>
       </c>
-      <c r="L65" s="134"/>
-      <c r="M65" s="133"/>
-      <c r="N65" s="133"/>
-      <c r="O65" s="143"/>
-      <c r="P65" s="132">
+      <c r="L65" s="144"/>
+      <c r="M65" s="131"/>
+      <c r="N65" s="131"/>
+      <c r="O65" s="132"/>
+      <c r="P65" s="133">
         <v>0</v>
       </c>
       <c r="Q65" s="55"/>
@@ -12915,7 +12915,7 @@
       <c r="I66" s="130"/>
       <c r="J66" s="130"/>
       <c r="K66" s="130"/>
-      <c r="L66" s="135"/>
+      <c r="L66" s="140"/>
       <c r="M66" s="130"/>
       <c r="N66" s="130"/>
       <c r="O66" s="130"/>
@@ -13037,18 +13037,18 @@
       <c r="B67" s="99"/>
       <c r="C67" s="108"/>
       <c r="D67" s="110"/>
-      <c r="E67" s="144"/>
+      <c r="E67" s="145"/>
       <c r="F67" s="121"/>
       <c r="G67" s="121"/>
       <c r="H67" s="122"/>
-      <c r="I67" s="132"/>
-      <c r="J67" s="133"/>
-      <c r="K67" s="133"/>
-      <c r="L67" s="134"/>
-      <c r="M67" s="133"/>
-      <c r="N67" s="133"/>
-      <c r="O67" s="143"/>
-      <c r="P67" s="132">
+      <c r="I67" s="133"/>
+      <c r="J67" s="131"/>
+      <c r="K67" s="131"/>
+      <c r="L67" s="144"/>
+      <c r="M67" s="131"/>
+      <c r="N67" s="131"/>
+      <c r="O67" s="132"/>
+      <c r="P67" s="133">
         <v>0</v>
       </c>
       <c r="Q67" s="55"/>
@@ -13175,7 +13175,7 @@
       <c r="I68" s="130"/>
       <c r="J68" s="130"/>
       <c r="K68" s="130"/>
-      <c r="L68" s="135"/>
+      <c r="L68" s="140"/>
       <c r="M68" s="130"/>
       <c r="N68" s="130"/>
       <c r="O68" s="130"/>
@@ -13296,23 +13296,23 @@
       <c r="A69" s="26"/>
       <c r="B69" s="99"/>
       <c r="C69" s="108"/>
-      <c r="D69" s="137" t="s">
+      <c r="D69" s="149" t="s">
         <v>91</v>
       </c>
       <c r="E69" s="121"/>
       <c r="F69" s="121"/>
       <c r="G69" s="121"/>
       <c r="H69" s="122"/>
-      <c r="I69" s="138">
+      <c r="I69" s="141">
         <v>52</v>
       </c>
-      <c r="J69" s="139">
+      <c r="J69" s="134">
         <v>45803</v>
       </c>
-      <c r="K69" s="139">
+      <c r="K69" s="134">
         <v>45811</v>
       </c>
-      <c r="L69" s="140"/>
+      <c r="L69" s="139"/>
       <c r="M69" s="100"/>
       <c r="N69" s="100"/>
       <c r="O69" s="101"/>
@@ -13441,7 +13441,7 @@
       <c r="I70" s="125"/>
       <c r="J70" s="125"/>
       <c r="K70" s="125"/>
-      <c r="L70" s="135"/>
+      <c r="L70" s="140"/>
       <c r="M70" s="102"/>
       <c r="N70" s="102"/>
       <c r="O70" s="103"/>
@@ -13563,26 +13563,26 @@
       <c r="B71" s="99"/>
       <c r="C71" s="108"/>
       <c r="D71" s="109"/>
-      <c r="E71" s="141" t="s">
+      <c r="E71" s="142" t="s">
         <v>96</v>
       </c>
-      <c r="F71" s="142"/>
-      <c r="G71" s="142"/>
-      <c r="H71" s="142"/>
-      <c r="I71" s="132">
+      <c r="F71" s="143"/>
+      <c r="G71" s="143"/>
+      <c r="H71" s="143"/>
+      <c r="I71" s="133">
         <v>26</v>
       </c>
-      <c r="J71" s="145">
+      <c r="J71" s="146">
         <v>45803</v>
       </c>
-      <c r="K71" s="133">
+      <c r="K71" s="131">
         <v>45806</v>
       </c>
-      <c r="L71" s="134"/>
-      <c r="M71" s="133"/>
-      <c r="N71" s="133"/>
-      <c r="O71" s="143"/>
-      <c r="P71" s="132">
+      <c r="L71" s="144"/>
+      <c r="M71" s="131"/>
+      <c r="N71" s="131"/>
+      <c r="O71" s="132"/>
+      <c r="P71" s="133">
         <v>0</v>
       </c>
       <c r="Q71" s="55"/>
@@ -13709,7 +13709,7 @@
       <c r="I72" s="130"/>
       <c r="J72" s="125"/>
       <c r="K72" s="130"/>
-      <c r="L72" s="135"/>
+      <c r="L72" s="140"/>
       <c r="M72" s="130"/>
       <c r="N72" s="130"/>
       <c r="O72" s="130"/>
@@ -13831,26 +13831,26 @@
       <c r="B73" s="99"/>
       <c r="C73" s="108"/>
       <c r="D73" s="110"/>
-      <c r="E73" s="141" t="s">
+      <c r="E73" s="142" t="s">
         <v>97</v>
       </c>
-      <c r="F73" s="142"/>
-      <c r="G73" s="142"/>
-      <c r="H73" s="142"/>
-      <c r="I73" s="132">
+      <c r="F73" s="143"/>
+      <c r="G73" s="143"/>
+      <c r="H73" s="143"/>
+      <c r="I73" s="133">
         <v>18</v>
       </c>
-      <c r="J73" s="133">
+      <c r="J73" s="131">
         <v>45806</v>
       </c>
-      <c r="K73" s="133">
+      <c r="K73" s="131">
         <v>45810</v>
       </c>
-      <c r="L73" s="134"/>
-      <c r="M73" s="133"/>
-      <c r="N73" s="133"/>
-      <c r="O73" s="143"/>
-      <c r="P73" s="132">
+      <c r="L73" s="144"/>
+      <c r="M73" s="131"/>
+      <c r="N73" s="131"/>
+      <c r="O73" s="132"/>
+      <c r="P73" s="133">
         <v>0</v>
       </c>
       <c r="Q73" s="55"/>
@@ -13977,7 +13977,7 @@
       <c r="I74" s="130"/>
       <c r="J74" s="130"/>
       <c r="K74" s="130"/>
-      <c r="L74" s="135"/>
+      <c r="L74" s="140"/>
       <c r="M74" s="130"/>
       <c r="N74" s="130"/>
       <c r="O74" s="130"/>
@@ -14099,26 +14099,26 @@
       <c r="B75" s="99"/>
       <c r="C75" s="108"/>
       <c r="D75" s="110"/>
-      <c r="E75" s="144" t="s">
+      <c r="E75" s="145" t="s">
         <v>98</v>
       </c>
       <c r="F75" s="121"/>
       <c r="G75" s="121"/>
       <c r="H75" s="122"/>
-      <c r="I75" s="132">
+      <c r="I75" s="133">
         <v>8</v>
       </c>
-      <c r="J75" s="133">
+      <c r="J75" s="131">
         <v>45811</v>
       </c>
-      <c r="K75" s="133">
+      <c r="K75" s="131">
         <v>45811</v>
       </c>
-      <c r="L75" s="134"/>
-      <c r="M75" s="133"/>
-      <c r="N75" s="133"/>
-      <c r="O75" s="143"/>
-      <c r="P75" s="132">
+      <c r="L75" s="144"/>
+      <c r="M75" s="131"/>
+      <c r="N75" s="131"/>
+      <c r="O75" s="132"/>
+      <c r="P75" s="133">
         <v>0</v>
       </c>
       <c r="Q75" s="55"/>
@@ -14245,7 +14245,7 @@
       <c r="I76" s="130"/>
       <c r="J76" s="130"/>
       <c r="K76" s="130"/>
-      <c r="L76" s="135"/>
+      <c r="L76" s="140"/>
       <c r="M76" s="130"/>
       <c r="N76" s="130"/>
       <c r="O76" s="130"/>
@@ -14366,23 +14366,23 @@
       <c r="A77" s="26"/>
       <c r="B77" s="99"/>
       <c r="C77" s="108"/>
-      <c r="D77" s="137" t="s">
+      <c r="D77" s="149" t="s">
         <v>93</v>
       </c>
       <c r="E77" s="121"/>
       <c r="F77" s="121"/>
       <c r="G77" s="121"/>
       <c r="H77" s="122"/>
-      <c r="I77" s="138">
+      <c r="I77" s="141">
         <v>8</v>
       </c>
-      <c r="J77" s="139">
+      <c r="J77" s="134">
         <v>45812</v>
       </c>
-      <c r="K77" s="139">
+      <c r="K77" s="134">
         <v>45812</v>
       </c>
-      <c r="L77" s="140"/>
+      <c r="L77" s="139"/>
       <c r="M77" s="100"/>
       <c r="N77" s="100"/>
       <c r="O77" s="101"/>
@@ -14511,7 +14511,7 @@
       <c r="I78" s="125"/>
       <c r="J78" s="125"/>
       <c r="K78" s="125"/>
-      <c r="L78" s="135"/>
+      <c r="L78" s="140"/>
       <c r="M78" s="102"/>
       <c r="N78" s="102"/>
       <c r="O78" s="103"/>
@@ -14633,26 +14633,26 @@
       <c r="B79" s="99"/>
       <c r="C79" s="26"/>
       <c r="D79" s="106"/>
-      <c r="E79" s="141" t="s">
+      <c r="E79" s="142" t="s">
         <v>93</v>
       </c>
-      <c r="F79" s="142"/>
-      <c r="G79" s="142"/>
-      <c r="H79" s="142"/>
-      <c r="I79" s="132">
+      <c r="F79" s="143"/>
+      <c r="G79" s="143"/>
+      <c r="H79" s="143"/>
+      <c r="I79" s="133">
         <v>4</v>
       </c>
-      <c r="J79" s="133">
+      <c r="J79" s="131">
         <v>45812</v>
       </c>
-      <c r="K79" s="133">
+      <c r="K79" s="131">
         <v>45812</v>
       </c>
-      <c r="L79" s="134"/>
-      <c r="M79" s="133"/>
-      <c r="N79" s="133"/>
-      <c r="O79" s="143"/>
-      <c r="P79" s="132">
+      <c r="L79" s="144"/>
+      <c r="M79" s="131"/>
+      <c r="N79" s="131"/>
+      <c r="O79" s="132"/>
+      <c r="P79" s="133">
         <v>0</v>
       </c>
       <c r="Q79" s="55"/>
@@ -14779,7 +14779,7 @@
       <c r="I80" s="130"/>
       <c r="J80" s="130"/>
       <c r="K80" s="130"/>
-      <c r="L80" s="135"/>
+      <c r="L80" s="140"/>
       <c r="M80" s="130"/>
       <c r="N80" s="130"/>
       <c r="O80" s="130"/>
@@ -14901,26 +14901,26 @@
       <c r="B81" s="99"/>
       <c r="C81" s="26"/>
       <c r="D81" s="99"/>
-      <c r="E81" s="141" t="s">
+      <c r="E81" s="142" t="s">
         <v>94</v>
       </c>
-      <c r="F81" s="142"/>
-      <c r="G81" s="142"/>
-      <c r="H81" s="142"/>
-      <c r="I81" s="132">
+      <c r="F81" s="143"/>
+      <c r="G81" s="143"/>
+      <c r="H81" s="143"/>
+      <c r="I81" s="133">
         <v>4</v>
       </c>
-      <c r="J81" s="133">
+      <c r="J81" s="131">
         <v>45812</v>
       </c>
-      <c r="K81" s="133">
+      <c r="K81" s="131">
         <v>45812</v>
       </c>
-      <c r="L81" s="134"/>
-      <c r="M81" s="133"/>
-      <c r="N81" s="133"/>
-      <c r="O81" s="143"/>
-      <c r="P81" s="132">
+      <c r="L81" s="144"/>
+      <c r="M81" s="131"/>
+      <c r="N81" s="131"/>
+      <c r="O81" s="132"/>
+      <c r="P81" s="133">
         <v>0</v>
       </c>
       <c r="Q81" s="55"/>
@@ -15047,7 +15047,7 @@
       <c r="I82" s="130"/>
       <c r="J82" s="130"/>
       <c r="K82" s="130"/>
-      <c r="L82" s="135"/>
+      <c r="L82" s="140"/>
       <c r="M82" s="130"/>
       <c r="N82" s="130"/>
       <c r="O82" s="130"/>
@@ -15169,18 +15169,18 @@
       <c r="B83" s="99"/>
       <c r="C83" s="26"/>
       <c r="D83" s="99"/>
-      <c r="E83" s="144"/>
+      <c r="E83" s="145"/>
       <c r="F83" s="121"/>
       <c r="G83" s="121"/>
       <c r="H83" s="122"/>
-      <c r="I83" s="132"/>
-      <c r="J83" s="133"/>
-      <c r="K83" s="133"/>
-      <c r="L83" s="134"/>
-      <c r="M83" s="133"/>
-      <c r="N83" s="133"/>
-      <c r="O83" s="143"/>
-      <c r="P83" s="132">
+      <c r="I83" s="133"/>
+      <c r="J83" s="131"/>
+      <c r="K83" s="131"/>
+      <c r="L83" s="144"/>
+      <c r="M83" s="131"/>
+      <c r="N83" s="131"/>
+      <c r="O83" s="132"/>
+      <c r="P83" s="133">
         <v>0</v>
       </c>
       <c r="Q83" s="55"/>
@@ -15307,7 +15307,7 @@
       <c r="I84" s="130"/>
       <c r="J84" s="130"/>
       <c r="K84" s="130"/>
-      <c r="L84" s="135"/>
+      <c r="L84" s="140"/>
       <c r="M84" s="130"/>
       <c r="N84" s="130"/>
       <c r="O84" s="130"/>
@@ -15426,178 +15426,119 @@
     </row>
   </sheetData>
   <mergeCells count="309">
-    <mergeCell ref="N53:N54"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="P53:P54"/>
-    <mergeCell ref="J61:J62"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="C59:H60"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="L61:L62"/>
-    <mergeCell ref="O55:O56"/>
-    <mergeCell ref="P55:P56"/>
-    <mergeCell ref="E55:H56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="L55:L56"/>
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="N55:N56"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="P49:P50"/>
-    <mergeCell ref="E49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="O47:O48"/>
-    <mergeCell ref="P47:P48"/>
-    <mergeCell ref="E47:H48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="N47:N48"/>
-    <mergeCell ref="P45:P46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="D43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="E45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="C31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="N35:N36"/>
-    <mergeCell ref="O35:O36"/>
-    <mergeCell ref="D33:H34"/>
-    <mergeCell ref="E35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="E39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="E37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="D27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="P29:P30"/>
-    <mergeCell ref="D29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="P25:P26"/>
-    <mergeCell ref="C23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="D25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="C19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="D21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="D15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="D17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="D11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="D13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="CZ4:DV4"/>
-    <mergeCell ref="B7:H8"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="C9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="E41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="P41:P42"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="J63:J64"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="L63:L64"/>
+    <mergeCell ref="M63:M64"/>
+    <mergeCell ref="D51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="E53:H54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="O67:O68"/>
+    <mergeCell ref="E67:H68"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="J67:J68"/>
+    <mergeCell ref="K67:K68"/>
+    <mergeCell ref="L67:L68"/>
+    <mergeCell ref="M67:M68"/>
+    <mergeCell ref="N67:N68"/>
+    <mergeCell ref="O65:O66"/>
+    <mergeCell ref="E65:H66"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="J65:J66"/>
+    <mergeCell ref="K65:K66"/>
+    <mergeCell ref="L65:L66"/>
+    <mergeCell ref="M65:M66"/>
+    <mergeCell ref="N65:N66"/>
+    <mergeCell ref="O75:O76"/>
+    <mergeCell ref="P75:P76"/>
+    <mergeCell ref="E75:H76"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="J75:J76"/>
+    <mergeCell ref="K75:K76"/>
+    <mergeCell ref="L75:L76"/>
+    <mergeCell ref="M75:M76"/>
+    <mergeCell ref="O57:O58"/>
+    <mergeCell ref="P57:P58"/>
+    <mergeCell ref="E57:H58"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="L57:L58"/>
+    <mergeCell ref="M57:M58"/>
+    <mergeCell ref="N57:N58"/>
+    <mergeCell ref="P67:P68"/>
+    <mergeCell ref="P65:P66"/>
+    <mergeCell ref="N63:N64"/>
+    <mergeCell ref="O63:O64"/>
+    <mergeCell ref="P63:P64"/>
+    <mergeCell ref="D61:H62"/>
+    <mergeCell ref="E63:H64"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="K79:K80"/>
+    <mergeCell ref="D77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="J77:J78"/>
+    <mergeCell ref="K77:K78"/>
+    <mergeCell ref="L77:L78"/>
+    <mergeCell ref="E79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="E81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="J81:J82"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="L81:L82"/>
+    <mergeCell ref="M81:M82"/>
+    <mergeCell ref="N81:N82"/>
+    <mergeCell ref="O83:O84"/>
+    <mergeCell ref="P83:P84"/>
+    <mergeCell ref="E83:H84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="J83:J84"/>
+    <mergeCell ref="K83:K84"/>
+    <mergeCell ref="L83:L84"/>
+    <mergeCell ref="M83:M84"/>
+    <mergeCell ref="N83:N84"/>
+    <mergeCell ref="D69:H70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="J69:J70"/>
+    <mergeCell ref="K69:K70"/>
+    <mergeCell ref="L69:L70"/>
+    <mergeCell ref="E71:H72"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="O73:O74"/>
+    <mergeCell ref="P73:P74"/>
+    <mergeCell ref="E73:H74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="J73:J74"/>
+    <mergeCell ref="K73:K74"/>
+    <mergeCell ref="L73:L74"/>
+    <mergeCell ref="M73:M74"/>
+    <mergeCell ref="N73:N74"/>
+    <mergeCell ref="L71:L72"/>
+    <mergeCell ref="M71:M72"/>
+    <mergeCell ref="N71:N72"/>
+    <mergeCell ref="O71:O72"/>
+    <mergeCell ref="P71:P72"/>
+    <mergeCell ref="J71:J72"/>
+    <mergeCell ref="K71:K72"/>
     <mergeCell ref="N75:N76"/>
     <mergeCell ref="L79:L80"/>
     <mergeCell ref="M79:M80"/>
@@ -15622,119 +15563,178 @@
     <mergeCell ref="M45:M46"/>
     <mergeCell ref="N45:N46"/>
     <mergeCell ref="O45:O46"/>
-    <mergeCell ref="D69:H70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="J69:J70"/>
-    <mergeCell ref="K69:K70"/>
-    <mergeCell ref="L69:L70"/>
-    <mergeCell ref="E71:H72"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="O73:O74"/>
-    <mergeCell ref="P73:P74"/>
-    <mergeCell ref="E73:H74"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="J73:J74"/>
-    <mergeCell ref="K73:K74"/>
-    <mergeCell ref="L73:L74"/>
-    <mergeCell ref="M73:M74"/>
-    <mergeCell ref="N73:N74"/>
-    <mergeCell ref="L71:L72"/>
-    <mergeCell ref="M71:M72"/>
-    <mergeCell ref="N71:N72"/>
-    <mergeCell ref="O71:O72"/>
-    <mergeCell ref="P71:P72"/>
-    <mergeCell ref="J71:J72"/>
-    <mergeCell ref="K71:K72"/>
-    <mergeCell ref="O83:O84"/>
-    <mergeCell ref="P83:P84"/>
-    <mergeCell ref="E83:H84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="J83:J84"/>
-    <mergeCell ref="K83:K84"/>
-    <mergeCell ref="L83:L84"/>
-    <mergeCell ref="M83:M84"/>
-    <mergeCell ref="N83:N84"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="E81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="J81:J82"/>
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="L81:L82"/>
-    <mergeCell ref="M81:M82"/>
-    <mergeCell ref="N81:N82"/>
-    <mergeCell ref="J79:J80"/>
-    <mergeCell ref="K79:K80"/>
-    <mergeCell ref="D77:H78"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="J77:J78"/>
-    <mergeCell ref="K77:K78"/>
-    <mergeCell ref="L77:L78"/>
-    <mergeCell ref="E79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="O75:O76"/>
-    <mergeCell ref="P75:P76"/>
-    <mergeCell ref="E75:H76"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="J75:J76"/>
-    <mergeCell ref="K75:K76"/>
-    <mergeCell ref="L75:L76"/>
-    <mergeCell ref="M75:M76"/>
-    <mergeCell ref="O57:O58"/>
-    <mergeCell ref="P57:P58"/>
-    <mergeCell ref="E57:H58"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="L57:L58"/>
-    <mergeCell ref="M57:M58"/>
-    <mergeCell ref="N57:N58"/>
-    <mergeCell ref="P67:P68"/>
-    <mergeCell ref="P65:P66"/>
-    <mergeCell ref="N63:N64"/>
-    <mergeCell ref="O63:O64"/>
-    <mergeCell ref="P63:P64"/>
-    <mergeCell ref="D61:H62"/>
-    <mergeCell ref="E63:H64"/>
-    <mergeCell ref="O67:O68"/>
-    <mergeCell ref="E67:H68"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="J67:J68"/>
-    <mergeCell ref="K67:K68"/>
-    <mergeCell ref="L67:L68"/>
-    <mergeCell ref="M67:M68"/>
-    <mergeCell ref="N67:N68"/>
-    <mergeCell ref="O65:O66"/>
-    <mergeCell ref="E65:H66"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="J65:J66"/>
-    <mergeCell ref="K65:K66"/>
-    <mergeCell ref="L65:L66"/>
-    <mergeCell ref="M65:M66"/>
-    <mergeCell ref="N65:N66"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="J63:J64"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="L63:L64"/>
-    <mergeCell ref="M63:M64"/>
-    <mergeCell ref="D51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="E53:H54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="L53:L54"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="E41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="O41:O42"/>
-    <mergeCell ref="P41:P42"/>
+    <mergeCell ref="CZ4:DV4"/>
+    <mergeCell ref="B7:H8"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="C9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="D11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="D13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="D15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="D17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="C19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="D21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="C23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="D25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="D27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="P29:P30"/>
+    <mergeCell ref="D29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="E39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="E37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="C31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="N35:N36"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="D33:H34"/>
+    <mergeCell ref="E35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="P45:P46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="D43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="E45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="O47:O48"/>
+    <mergeCell ref="P47:P48"/>
+    <mergeCell ref="E47:H48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="N47:N48"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="P49:P50"/>
+    <mergeCell ref="E49:H50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="P53:P54"/>
+    <mergeCell ref="J61:J62"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="C59:H60"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="L61:L62"/>
+    <mergeCell ref="O55:O56"/>
+    <mergeCell ref="P55:P56"/>
+    <mergeCell ref="E55:H56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="N55:N56"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="K53:K54"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/DOJT｜WBS _ PGコース MVC編.xlsx
+++ b/docs/DOJT｜WBS _ PGコース MVC編.xlsx
@@ -1349,45 +1349,101 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="56" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="56" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="180" fontId="5" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="5" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1409,62 +1465,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="180" fontId="5" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="5" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="5" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3980,7 +3980,7 @@
       <c r="N4" s="27"/>
       <c r="O4" s="27"/>
       <c r="P4" s="27"/>
-      <c r="Q4" s="180" t="s">
+      <c r="Q4" s="146" t="s">
         <v>63</v>
       </c>
       <c r="R4" s="127"/>
@@ -4008,7 +4008,7 @@
       <c r="AN4" s="127"/>
       <c r="AO4" s="127"/>
       <c r="AP4" s="128"/>
-      <c r="AQ4" s="180" t="s">
+      <c r="AQ4" s="146" t="s">
         <v>64</v>
       </c>
       <c r="AR4" s="127"/>
@@ -4041,7 +4041,7 @@
       <c r="BS4" s="127"/>
       <c r="BT4" s="127"/>
       <c r="BU4" s="128"/>
-      <c r="BV4" s="180" t="s">
+      <c r="BV4" s="146" t="s">
         <v>65</v>
       </c>
       <c r="BW4" s="127"/>
@@ -4073,7 +4073,7 @@
       <c r="CW4" s="127"/>
       <c r="CX4" s="127"/>
       <c r="CY4" s="128"/>
-      <c r="CZ4" s="180" t="s">
+      <c r="CZ4" s="146" t="s">
         <v>66</v>
       </c>
       <c r="DA4" s="127"/>
@@ -4910,7 +4910,7 @@
     </row>
     <row r="7" spans="1:127" ht="19.5">
       <c r="A7" s="26"/>
-      <c r="B7" s="181" t="s">
+      <c r="B7" s="154" t="s">
         <v>74</v>
       </c>
       <c r="C7" s="121"/>
@@ -5191,33 +5191,33 @@
     <row r="9" spans="1:127" ht="12" customHeight="1">
       <c r="A9" s="26"/>
       <c r="B9" s="50"/>
-      <c r="C9" s="174" t="s">
+      <c r="C9" s="156" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="136"/>
-      <c r="E9" s="136"/>
-      <c r="F9" s="136"/>
-      <c r="G9" s="136"/>
-      <c r="H9" s="136"/>
-      <c r="I9" s="176">
+      <c r="D9" s="157"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="157"/>
+      <c r="G9" s="157"/>
+      <c r="H9" s="157"/>
+      <c r="I9" s="159">
         <v>1</v>
       </c>
-      <c r="J9" s="177">
+      <c r="J9" s="155">
         <f>J11</f>
         <v>45787</v>
       </c>
-      <c r="K9" s="177">
+      <c r="K9" s="155">
         <f>K17</f>
         <v>45787</v>
       </c>
-      <c r="L9" s="176">
+      <c r="L9" s="159">
         <v>1.3</v>
       </c>
-      <c r="M9" s="177">
+      <c r="M9" s="155">
         <f>M11</f>
         <v>45787</v>
       </c>
-      <c r="N9" s="177">
+      <c r="N9" s="155">
         <f>N17</f>
         <v>45790</v>
       </c>
@@ -5340,7 +5340,7 @@
     <row r="10" spans="1:127" ht="12" customHeight="1">
       <c r="A10" s="26"/>
       <c r="B10" s="50"/>
-      <c r="C10" s="137"/>
+      <c r="C10" s="158"/>
       <c r="D10" s="124"/>
       <c r="E10" s="124"/>
       <c r="F10" s="124"/>
@@ -5470,37 +5470,37 @@
       <c r="A11" s="26"/>
       <c r="B11" s="50"/>
       <c r="C11" s="54"/>
-      <c r="D11" s="178" t="s">
+      <c r="D11" s="160" t="s">
         <v>76</v>
       </c>
       <c r="E11" s="121"/>
       <c r="F11" s="121"/>
       <c r="G11" s="121"/>
       <c r="H11" s="122"/>
-      <c r="I11" s="171">
+      <c r="I11" s="147">
         <v>0.1</v>
       </c>
-      <c r="J11" s="179">
+      <c r="J11" s="161">
         <v>45787</v>
       </c>
-      <c r="K11" s="179">
+      <c r="K11" s="161">
         <f>$J$11</f>
         <v>45787</v>
       </c>
-      <c r="L11" s="171">
+      <c r="L11" s="147">
         <v>0.1</v>
       </c>
-      <c r="M11" s="179">
+      <c r="M11" s="161">
         <v>45787</v>
       </c>
-      <c r="N11" s="179">
+      <c r="N11" s="161">
         <f>$J$11</f>
         <v>45787</v>
       </c>
-      <c r="O11" s="171" t="s">
+      <c r="O11" s="147" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="171">
+      <c r="P11" s="147">
         <v>100</v>
       </c>
       <c r="Q11" s="55"/>
@@ -5748,39 +5748,39 @@
       <c r="A13" s="26"/>
       <c r="B13" s="50"/>
       <c r="C13" s="63"/>
-      <c r="D13" s="178" t="s">
+      <c r="D13" s="160" t="s">
         <v>78</v>
       </c>
       <c r="E13" s="121"/>
       <c r="F13" s="121"/>
       <c r="G13" s="121"/>
       <c r="H13" s="122"/>
-      <c r="I13" s="171">
+      <c r="I13" s="147">
         <v>0.1</v>
       </c>
-      <c r="J13" s="179">
+      <c r="J13" s="161">
         <f t="shared" ref="J13:K13" si="1">$J$11</f>
         <v>45787</v>
       </c>
-      <c r="K13" s="179">
+      <c r="K13" s="161">
         <f t="shared" si="1"/>
         <v>45787</v>
       </c>
-      <c r="L13" s="171">
+      <c r="L13" s="147">
         <v>0.1</v>
       </c>
-      <c r="M13" s="179">
+      <c r="M13" s="161">
         <f t="shared" ref="M13:N13" si="2">$J$11</f>
         <v>45787</v>
       </c>
-      <c r="N13" s="179">
+      <c r="N13" s="161">
         <f t="shared" si="2"/>
         <v>45787</v>
       </c>
-      <c r="O13" s="171" t="s">
+      <c r="O13" s="147" t="s">
         <v>77</v>
       </c>
-      <c r="P13" s="171">
+      <c r="P13" s="147">
         <v>100</v>
       </c>
       <c r="Q13" s="55"/>
@@ -6028,39 +6028,39 @@
       <c r="A15" s="26"/>
       <c r="B15" s="50"/>
       <c r="C15" s="63"/>
-      <c r="D15" s="178" t="s">
+      <c r="D15" s="160" t="s">
         <v>79</v>
       </c>
       <c r="E15" s="121"/>
       <c r="F15" s="121"/>
       <c r="G15" s="121"/>
       <c r="H15" s="122"/>
-      <c r="I15" s="171">
+      <c r="I15" s="147">
         <v>0.1</v>
       </c>
-      <c r="J15" s="179">
+      <c r="J15" s="161">
         <f t="shared" ref="J15:K15" si="3">$J$11</f>
         <v>45787</v>
       </c>
-      <c r="K15" s="179">
+      <c r="K15" s="161">
         <f t="shared" si="3"/>
         <v>45787</v>
       </c>
-      <c r="L15" s="171">
+      <c r="L15" s="147">
         <v>0.1</v>
       </c>
-      <c r="M15" s="179">
+      <c r="M15" s="161">
         <f t="shared" ref="M15:N15" si="4">$J$11</f>
         <v>45787</v>
       </c>
-      <c r="N15" s="179">
+      <c r="N15" s="161">
         <f t="shared" si="4"/>
         <v>45787</v>
       </c>
-      <c r="O15" s="171" t="s">
+      <c r="O15" s="147" t="s">
         <v>77</v>
       </c>
-      <c r="P15" s="171">
+      <c r="P15" s="147">
         <v>100</v>
       </c>
       <c r="Q15" s="55"/>
@@ -6308,37 +6308,37 @@
       <c r="A17" s="26"/>
       <c r="B17" s="50"/>
       <c r="C17" s="63"/>
-      <c r="D17" s="178" t="s">
+      <c r="D17" s="160" t="s">
         <v>80</v>
       </c>
       <c r="E17" s="121"/>
       <c r="F17" s="121"/>
       <c r="G17" s="121"/>
       <c r="H17" s="122"/>
-      <c r="I17" s="171">
+      <c r="I17" s="147">
         <v>0.7</v>
       </c>
-      <c r="J17" s="179">
+      <c r="J17" s="161">
         <f t="shared" ref="J17:K17" si="5">$J$11</f>
         <v>45787</v>
       </c>
-      <c r="K17" s="179">
+      <c r="K17" s="161">
         <f t="shared" si="5"/>
         <v>45787</v>
       </c>
-      <c r="L17" s="171">
+      <c r="L17" s="147">
         <v>3</v>
       </c>
-      <c r="M17" s="179">
+      <c r="M17" s="161">
         <v>45787</v>
       </c>
-      <c r="N17" s="179">
+      <c r="N17" s="161">
         <v>45790</v>
       </c>
-      <c r="O17" s="171" t="s">
+      <c r="O17" s="147" t="s">
         <v>77</v>
       </c>
-      <c r="P17" s="171">
+      <c r="P17" s="147">
         <v>100</v>
       </c>
       <c r="Q17" s="55"/>
@@ -6585,24 +6585,24 @@
     <row r="19" spans="1:127" ht="12" customHeight="1">
       <c r="A19" s="26"/>
       <c r="B19" s="50"/>
-      <c r="C19" s="174" t="s">
+      <c r="C19" s="156" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="136"/>
-      <c r="E19" s="136"/>
-      <c r="F19" s="136"/>
-      <c r="G19" s="136"/>
-      <c r="H19" s="136"/>
-      <c r="I19" s="176">
+      <c r="D19" s="157"/>
+      <c r="E19" s="157"/>
+      <c r="F19" s="157"/>
+      <c r="G19" s="157"/>
+      <c r="H19" s="157"/>
+      <c r="I19" s="159">
         <v>1</v>
       </c>
-      <c r="J19" s="177">
+      <c r="J19" s="155">
         <v>45790</v>
       </c>
-      <c r="K19" s="177">
+      <c r="K19" s="155">
         <v>45790</v>
       </c>
-      <c r="L19" s="176"/>
+      <c r="L19" s="159"/>
       <c r="M19" s="74"/>
       <c r="N19" s="74"/>
       <c r="O19" s="75"/>
@@ -6722,12 +6722,12 @@
     <row r="20" spans="1:127" ht="12" customHeight="1">
       <c r="A20" s="26"/>
       <c r="B20" s="50"/>
-      <c r="C20" s="175"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="143"/>
-      <c r="H20" s="143"/>
+      <c r="C20" s="163"/>
+      <c r="D20" s="142"/>
+      <c r="E20" s="142"/>
+      <c r="F20" s="142"/>
+      <c r="G20" s="142"/>
+      <c r="H20" s="142"/>
       <c r="I20" s="130"/>
       <c r="J20" s="125"/>
       <c r="K20" s="125"/>
@@ -6852,35 +6852,35 @@
       <c r="A21" s="26"/>
       <c r="B21" s="50"/>
       <c r="C21" s="54"/>
-      <c r="D21" s="178" t="s">
+      <c r="D21" s="160" t="s">
         <v>81</v>
       </c>
       <c r="E21" s="121"/>
       <c r="F21" s="121"/>
       <c r="G21" s="121"/>
       <c r="H21" s="122"/>
-      <c r="I21" s="171">
+      <c r="I21" s="147">
         <v>1</v>
       </c>
-      <c r="J21" s="173">
+      <c r="J21" s="162">
         <v>45790</v>
       </c>
-      <c r="K21" s="173">
+      <c r="K21" s="162">
         <v>45790</v>
       </c>
-      <c r="L21" s="171">
+      <c r="L21" s="147">
         <v>5.5</v>
       </c>
-      <c r="M21" s="173">
+      <c r="M21" s="162">
         <v>45790</v>
       </c>
-      <c r="N21" s="173">
+      <c r="N21" s="162">
         <v>45790</v>
       </c>
-      <c r="O21" s="171" t="s">
+      <c r="O21" s="147" t="s">
         <v>77</v>
       </c>
-      <c r="P21" s="171">
+      <c r="P21" s="147">
         <v>100</v>
       </c>
       <c r="Q21" s="55"/>
@@ -7127,24 +7127,24 @@
     <row r="23" spans="1:127" ht="12" customHeight="1">
       <c r="A23" s="26"/>
       <c r="B23" s="91"/>
-      <c r="C23" s="172" t="s">
+      <c r="C23" s="164" t="s">
         <v>82</v>
       </c>
-      <c r="D23" s="136"/>
-      <c r="E23" s="136"/>
-      <c r="F23" s="136"/>
-      <c r="G23" s="136"/>
-      <c r="H23" s="136"/>
-      <c r="I23" s="138">
+      <c r="D23" s="157"/>
+      <c r="E23" s="157"/>
+      <c r="F23" s="157"/>
+      <c r="G23" s="157"/>
+      <c r="H23" s="157"/>
+      <c r="I23" s="165">
         <v>10</v>
       </c>
-      <c r="J23" s="134">
+      <c r="J23" s="139">
         <v>45791</v>
       </c>
-      <c r="K23" s="134">
+      <c r="K23" s="139">
         <v>45792</v>
       </c>
-      <c r="L23" s="161"/>
+      <c r="L23" s="166"/>
       <c r="M23" s="92"/>
       <c r="N23" s="92"/>
       <c r="O23" s="93"/>
@@ -7264,7 +7264,7 @@
     <row r="24" spans="1:127" ht="12" customHeight="1">
       <c r="A24" s="26"/>
       <c r="B24" s="91"/>
-      <c r="C24" s="137"/>
+      <c r="C24" s="158"/>
       <c r="D24" s="124"/>
       <c r="E24" s="124"/>
       <c r="F24" s="124"/>
@@ -7394,35 +7394,35 @@
       <c r="A25" s="26"/>
       <c r="B25" s="91"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="168" t="s">
+      <c r="D25" s="167" t="s">
         <v>83</v>
       </c>
       <c r="E25" s="121"/>
       <c r="F25" s="121"/>
       <c r="G25" s="121"/>
       <c r="H25" s="122"/>
-      <c r="I25" s="133">
+      <c r="I25" s="132">
         <v>4</v>
       </c>
-      <c r="J25" s="131">
+      <c r="J25" s="133">
         <v>45791</v>
       </c>
-      <c r="K25" s="131">
+      <c r="K25" s="133">
         <v>45791</v>
       </c>
-      <c r="L25" s="133">
+      <c r="L25" s="132">
         <v>7</v>
       </c>
-      <c r="M25" s="131">
+      <c r="M25" s="133">
         <v>45791</v>
       </c>
-      <c r="N25" s="131">
+      <c r="N25" s="133">
         <v>45791</v>
       </c>
-      <c r="O25" s="133" t="s">
+      <c r="O25" s="132" t="s">
         <v>77</v>
       </c>
-      <c r="P25" s="171">
+      <c r="P25" s="147">
         <v>100</v>
       </c>
       <c r="Q25" s="55"/>
@@ -7670,35 +7670,35 @@
       <c r="A27" s="26"/>
       <c r="B27" s="91"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="168" t="s">
+      <c r="D27" s="167" t="s">
         <v>84</v>
       </c>
       <c r="E27" s="121"/>
       <c r="F27" s="121"/>
       <c r="G27" s="121"/>
       <c r="H27" s="122"/>
-      <c r="I27" s="133">
+      <c r="I27" s="132">
         <v>6</v>
       </c>
-      <c r="J27" s="169">
+      <c r="J27" s="168">
         <v>45791</v>
       </c>
-      <c r="K27" s="131">
+      <c r="K27" s="133">
         <v>45792</v>
       </c>
-      <c r="L27" s="133">
+      <c r="L27" s="132">
         <v>3</v>
       </c>
-      <c r="M27" s="131">
+      <c r="M27" s="133">
         <v>45792</v>
       </c>
-      <c r="N27" s="131">
+      <c r="N27" s="133">
         <v>45792</v>
       </c>
-      <c r="O27" s="133" t="s">
+      <c r="O27" s="132" t="s">
         <v>77</v>
       </c>
-      <c r="P27" s="133">
+      <c r="P27" s="132">
         <v>100</v>
       </c>
       <c r="Q27" s="55"/>
@@ -7946,35 +7946,35 @@
       <c r="A29" s="26"/>
       <c r="B29" s="91"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="168" t="s">
+      <c r="D29" s="167" t="s">
         <v>85</v>
       </c>
       <c r="E29" s="121"/>
       <c r="F29" s="121"/>
       <c r="G29" s="121"/>
       <c r="H29" s="122"/>
-      <c r="I29" s="133">
+      <c r="I29" s="132">
         <v>4</v>
       </c>
-      <c r="J29" s="131">
+      <c r="J29" s="133">
         <v>45792</v>
       </c>
-      <c r="K29" s="169">
+      <c r="K29" s="168">
         <v>45792</v>
       </c>
-      <c r="L29" s="144">
+      <c r="L29" s="134">
         <v>3</v>
       </c>
-      <c r="M29" s="131">
+      <c r="M29" s="133">
         <v>45792</v>
       </c>
-      <c r="N29" s="131">
+      <c r="N29" s="133">
         <v>45792</v>
       </c>
-      <c r="O29" s="170" t="s">
+      <c r="O29" s="169" t="s">
         <v>99</v>
       </c>
-      <c r="P29" s="133">
+      <c r="P29" s="132">
         <v>100</v>
       </c>
       <c r="Q29" s="55"/>
@@ -8101,7 +8101,7 @@
       <c r="I30" s="130"/>
       <c r="J30" s="130"/>
       <c r="K30" s="130"/>
-      <c r="L30" s="140"/>
+      <c r="L30" s="135"/>
       <c r="M30" s="130"/>
       <c r="N30" s="130"/>
       <c r="O30" s="130"/>
@@ -8221,24 +8221,24 @@
     <row r="31" spans="1:127" ht="12" customHeight="1">
       <c r="A31" s="26"/>
       <c r="B31" s="99"/>
-      <c r="C31" s="135" t="s">
+      <c r="C31" s="171" t="s">
         <v>86</v>
       </c>
-      <c r="D31" s="136"/>
-      <c r="E31" s="136"/>
-      <c r="F31" s="136"/>
-      <c r="G31" s="136"/>
-      <c r="H31" s="136"/>
-      <c r="I31" s="138">
+      <c r="D31" s="157"/>
+      <c r="E31" s="157"/>
+      <c r="F31" s="157"/>
+      <c r="G31" s="157"/>
+      <c r="H31" s="157"/>
+      <c r="I31" s="165">
         <v>32</v>
       </c>
-      <c r="J31" s="134">
+      <c r="J31" s="139">
         <v>45793</v>
       </c>
-      <c r="K31" s="134">
+      <c r="K31" s="139">
         <v>45798</v>
       </c>
-      <c r="L31" s="161"/>
+      <c r="L31" s="166"/>
       <c r="M31" s="100"/>
       <c r="N31" s="100"/>
       <c r="O31" s="101"/>
@@ -8358,7 +8358,7 @@
     <row r="32" spans="1:127" ht="12" customHeight="1">
       <c r="A32" s="26"/>
       <c r="B32" s="99"/>
-      <c r="C32" s="137"/>
+      <c r="C32" s="158"/>
       <c r="D32" s="124"/>
       <c r="E32" s="124"/>
       <c r="F32" s="124"/>
@@ -8488,23 +8488,23 @@
       <c r="A33" s="26"/>
       <c r="B33" s="99"/>
       <c r="C33" s="104"/>
-      <c r="D33" s="149" t="s">
+      <c r="D33" s="137" t="s">
         <v>105</v>
       </c>
       <c r="E33" s="121"/>
       <c r="F33" s="121"/>
       <c r="G33" s="121"/>
       <c r="H33" s="122"/>
-      <c r="I33" s="141">
+      <c r="I33" s="138">
         <v>8</v>
       </c>
-      <c r="J33" s="134">
+      <c r="J33" s="139">
         <v>45793</v>
       </c>
-      <c r="K33" s="134">
+      <c r="K33" s="139">
         <v>45793</v>
       </c>
-      <c r="L33" s="161"/>
+      <c r="L33" s="166"/>
       <c r="M33" s="100"/>
       <c r="N33" s="100"/>
       <c r="O33" s="101"/>
@@ -8755,28 +8755,28 @@
       <c r="B35" s="99"/>
       <c r="C35" s="26"/>
       <c r="D35" s="106"/>
-      <c r="E35" s="142" t="s">
+      <c r="E35" s="141" t="s">
         <v>88</v>
       </c>
-      <c r="F35" s="143"/>
-      <c r="G35" s="143"/>
-      <c r="H35" s="143"/>
-      <c r="I35" s="133">
+      <c r="F35" s="142"/>
+      <c r="G35" s="142"/>
+      <c r="H35" s="142"/>
+      <c r="I35" s="132">
         <v>1</v>
       </c>
-      <c r="J35" s="131">
+      <c r="J35" s="133">
         <v>45793</v>
       </c>
-      <c r="K35" s="131">
+      <c r="K35" s="133">
         <v>45793</v>
       </c>
-      <c r="L35" s="164" t="s">
+      <c r="L35" s="150" t="s">
         <v>101</v>
       </c>
-      <c r="M35" s="165"/>
-      <c r="N35" s="162"/>
-      <c r="O35" s="163"/>
-      <c r="P35" s="147"/>
+      <c r="M35" s="151"/>
+      <c r="N35" s="152"/>
+      <c r="O35" s="153"/>
+      <c r="P35" s="148"/>
       <c r="Q35" s="55"/>
       <c r="R35" s="56"/>
       <c r="S35" s="56"/>
@@ -8901,11 +8901,11 @@
       <c r="I36" s="130"/>
       <c r="J36" s="130"/>
       <c r="K36" s="130"/>
-      <c r="L36" s="140"/>
-      <c r="M36" s="148"/>
-      <c r="N36" s="148"/>
-      <c r="O36" s="148"/>
-      <c r="P36" s="148"/>
+      <c r="L36" s="135"/>
+      <c r="M36" s="149"/>
+      <c r="N36" s="149"/>
+      <c r="O36" s="149"/>
+      <c r="P36" s="149"/>
       <c r="Q36" s="55"/>
       <c r="R36" s="56"/>
       <c r="S36" s="56"/>
@@ -9023,32 +9023,32 @@
       <c r="B37" s="99"/>
       <c r="C37" s="26"/>
       <c r="D37" s="99"/>
-      <c r="E37" s="167" t="s">
+      <c r="E37" s="170" t="s">
         <v>106</v>
       </c>
-      <c r="F37" s="143"/>
-      <c r="G37" s="143"/>
-      <c r="H37" s="143"/>
-      <c r="I37" s="133">
+      <c r="F37" s="142"/>
+      <c r="G37" s="142"/>
+      <c r="H37" s="142"/>
+      <c r="I37" s="132">
         <v>4</v>
       </c>
-      <c r="J37" s="131">
+      <c r="J37" s="133">
         <v>45793</v>
       </c>
-      <c r="K37" s="131">
+      <c r="K37" s="133">
         <v>45793</v>
       </c>
-      <c r="L37" s="144">
+      <c r="L37" s="134">
         <v>4</v>
       </c>
-      <c r="M37" s="131">
+      <c r="M37" s="133">
         <v>45793</v>
       </c>
-      <c r="N37" s="131"/>
-      <c r="O37" s="182" t="s">
+      <c r="N37" s="133"/>
+      <c r="O37" s="136" t="s">
         <v>100</v>
       </c>
-      <c r="P37" s="133">
+      <c r="P37" s="132">
         <v>80</v>
       </c>
       <c r="Q37" s="55"/>
@@ -9175,7 +9175,7 @@
       <c r="I38" s="130"/>
       <c r="J38" s="130"/>
       <c r="K38" s="130"/>
-      <c r="L38" s="140"/>
+      <c r="L38" s="135"/>
       <c r="M38" s="130"/>
       <c r="N38" s="130"/>
       <c r="O38" s="130"/>
@@ -9297,32 +9297,32 @@
       <c r="B39" s="99"/>
       <c r="C39" s="26"/>
       <c r="D39" s="99"/>
-      <c r="E39" s="166" t="s">
+      <c r="E39" s="131" t="s">
         <v>103</v>
       </c>
       <c r="F39" s="121"/>
       <c r="G39" s="121"/>
       <c r="H39" s="122"/>
-      <c r="I39" s="133">
+      <c r="I39" s="132">
         <v>3</v>
       </c>
-      <c r="J39" s="131">
+      <c r="J39" s="133">
         <v>45793</v>
       </c>
-      <c r="K39" s="131">
+      <c r="K39" s="133">
         <v>45793</v>
       </c>
-      <c r="L39" s="144">
+      <c r="L39" s="134">
         <v>2</v>
       </c>
-      <c r="M39" s="131">
+      <c r="M39" s="133">
         <v>45793</v>
       </c>
-      <c r="N39" s="131"/>
-      <c r="O39" s="182" t="s">
+      <c r="N39" s="133"/>
+      <c r="O39" s="136" t="s">
         <v>100</v>
       </c>
-      <c r="P39" s="133">
+      <c r="P39" s="132">
         <v>50</v>
       </c>
       <c r="Q39" s="55"/>
@@ -9449,7 +9449,7 @@
       <c r="I40" s="130"/>
       <c r="J40" s="130"/>
       <c r="K40" s="130"/>
-      <c r="L40" s="140"/>
+      <c r="L40" s="135"/>
       <c r="M40" s="130"/>
       <c r="N40" s="130"/>
       <c r="O40" s="130"/>
@@ -9571,32 +9571,32 @@
       <c r="B41" s="110"/>
       <c r="C41" s="116"/>
       <c r="D41" s="110"/>
-      <c r="E41" s="166" t="s">
+      <c r="E41" s="131" t="s">
         <v>104</v>
       </c>
       <c r="F41" s="121"/>
       <c r="G41" s="121"/>
       <c r="H41" s="122"/>
-      <c r="I41" s="133">
+      <c r="I41" s="132">
         <v>4</v>
       </c>
-      <c r="J41" s="131">
+      <c r="J41" s="133">
         <v>45793</v>
       </c>
-      <c r="K41" s="131">
+      <c r="K41" s="133">
         <v>45793</v>
       </c>
-      <c r="L41" s="144">
+      <c r="L41" s="134">
         <v>2</v>
       </c>
-      <c r="M41" s="131">
+      <c r="M41" s="133">
         <v>45793</v>
       </c>
-      <c r="N41" s="131"/>
-      <c r="O41" s="182" t="s">
+      <c r="N41" s="133"/>
+      <c r="O41" s="136" t="s">
         <v>100</v>
       </c>
-      <c r="P41" s="133">
+      <c r="P41" s="132">
         <v>50</v>
       </c>
       <c r="Q41" s="55"/>
@@ -9723,7 +9723,7 @@
       <c r="I42" s="130"/>
       <c r="J42" s="130"/>
       <c r="K42" s="130"/>
-      <c r="L42" s="140"/>
+      <c r="L42" s="135"/>
       <c r="M42" s="130"/>
       <c r="N42" s="130"/>
       <c r="O42" s="130"/>
@@ -9844,23 +9844,23 @@
       <c r="A43" s="116"/>
       <c r="B43" s="110"/>
       <c r="C43" s="116"/>
-      <c r="D43" s="149" t="s">
+      <c r="D43" s="137" t="s">
         <v>91</v>
       </c>
-      <c r="E43" s="150"/>
-      <c r="F43" s="150"/>
-      <c r="G43" s="150"/>
-      <c r="H43" s="151"/>
-      <c r="I43" s="155">
+      <c r="E43" s="172"/>
+      <c r="F43" s="172"/>
+      <c r="G43" s="172"/>
+      <c r="H43" s="173"/>
+      <c r="I43" s="177">
         <v>16</v>
       </c>
-      <c r="J43" s="157">
+      <c r="J43" s="179">
         <v>45796</v>
       </c>
-      <c r="K43" s="157">
+      <c r="K43" s="179">
         <v>45797</v>
       </c>
-      <c r="L43" s="159"/>
+      <c r="L43" s="181"/>
       <c r="M43" s="100"/>
       <c r="N43" s="100"/>
       <c r="O43" s="101"/>
@@ -9981,15 +9981,15 @@
       <c r="A44" s="116"/>
       <c r="B44" s="110"/>
       <c r="C44" s="116"/>
-      <c r="D44" s="152"/>
-      <c r="E44" s="153"/>
-      <c r="F44" s="153"/>
-      <c r="G44" s="153"/>
-      <c r="H44" s="154"/>
-      <c r="I44" s="156"/>
-      <c r="J44" s="158"/>
-      <c r="K44" s="158"/>
-      <c r="L44" s="160"/>
+      <c r="D44" s="174"/>
+      <c r="E44" s="175"/>
+      <c r="F44" s="175"/>
+      <c r="G44" s="175"/>
+      <c r="H44" s="176"/>
+      <c r="I44" s="178"/>
+      <c r="J44" s="180"/>
+      <c r="K44" s="180"/>
+      <c r="L44" s="182"/>
       <c r="M44" s="102"/>
       <c r="N44" s="102"/>
       <c r="O44" s="103"/>
@@ -10111,28 +10111,28 @@
       <c r="B45" s="99"/>
       <c r="C45" s="26"/>
       <c r="D45" s="106"/>
-      <c r="E45" s="142" t="s">
+      <c r="E45" s="141" t="s">
         <v>92</v>
       </c>
-      <c r="F45" s="143"/>
-      <c r="G45" s="143"/>
-      <c r="H45" s="143"/>
-      <c r="I45" s="133">
+      <c r="F45" s="142"/>
+      <c r="G45" s="142"/>
+      <c r="H45" s="142"/>
+      <c r="I45" s="132">
         <v>2</v>
       </c>
-      <c r="J45" s="131">
+      <c r="J45" s="133">
         <v>45796</v>
       </c>
-      <c r="K45" s="131">
+      <c r="K45" s="133">
         <v>45796</v>
       </c>
-      <c r="L45" s="164" t="s">
+      <c r="L45" s="150" t="s">
         <v>102</v>
       </c>
-      <c r="M45" s="165"/>
-      <c r="N45" s="162"/>
-      <c r="O45" s="163"/>
-      <c r="P45" s="147"/>
+      <c r="M45" s="151"/>
+      <c r="N45" s="152"/>
+      <c r="O45" s="153"/>
+      <c r="P45" s="148"/>
       <c r="Q45" s="55"/>
       <c r="R45" s="56"/>
       <c r="S45" s="56"/>
@@ -10257,11 +10257,11 @@
       <c r="I46" s="130"/>
       <c r="J46" s="130"/>
       <c r="K46" s="130"/>
-      <c r="L46" s="140"/>
-      <c r="M46" s="148"/>
-      <c r="N46" s="148"/>
-      <c r="O46" s="148"/>
-      <c r="P46" s="148"/>
+      <c r="L46" s="135"/>
+      <c r="M46" s="149"/>
+      <c r="N46" s="149"/>
+      <c r="O46" s="149"/>
+      <c r="P46" s="149"/>
       <c r="Q46" s="55"/>
       <c r="R46" s="56"/>
       <c r="S46" s="56"/>
@@ -10379,26 +10379,26 @@
       <c r="B47" s="99"/>
       <c r="C47" s="26"/>
       <c r="D47" s="99"/>
-      <c r="E47" s="142" t="s">
+      <c r="E47" s="141" t="s">
         <v>107</v>
       </c>
-      <c r="F47" s="143"/>
-      <c r="G47" s="143"/>
-      <c r="H47" s="143"/>
-      <c r="I47" s="133">
+      <c r="F47" s="142"/>
+      <c r="G47" s="142"/>
+      <c r="H47" s="142"/>
+      <c r="I47" s="132">
         <v>14</v>
       </c>
-      <c r="J47" s="131">
+      <c r="J47" s="133">
         <v>45796</v>
       </c>
-      <c r="K47" s="146">
+      <c r="K47" s="145">
         <v>45797</v>
       </c>
-      <c r="L47" s="144"/>
-      <c r="M47" s="131"/>
-      <c r="N47" s="131"/>
-      <c r="O47" s="132"/>
-      <c r="P47" s="133">
+      <c r="L47" s="134"/>
+      <c r="M47" s="133"/>
+      <c r="N47" s="133"/>
+      <c r="O47" s="143"/>
+      <c r="P47" s="132">
         <v>0</v>
       </c>
       <c r="Q47" s="55"/>
@@ -10525,7 +10525,7 @@
       <c r="I48" s="130"/>
       <c r="J48" s="130"/>
       <c r="K48" s="125"/>
-      <c r="L48" s="140"/>
+      <c r="L48" s="135"/>
       <c r="M48" s="130"/>
       <c r="N48" s="130"/>
       <c r="O48" s="130"/>
@@ -10647,18 +10647,18 @@
       <c r="B49" s="99"/>
       <c r="C49" s="26"/>
       <c r="D49" s="99"/>
-      <c r="E49" s="145"/>
+      <c r="E49" s="144"/>
       <c r="F49" s="121"/>
       <c r="G49" s="121"/>
       <c r="H49" s="122"/>
-      <c r="I49" s="133"/>
-      <c r="J49" s="131"/>
-      <c r="K49" s="131"/>
-      <c r="L49" s="144"/>
-      <c r="M49" s="131"/>
-      <c r="N49" s="131"/>
-      <c r="O49" s="132"/>
-      <c r="P49" s="133">
+      <c r="I49" s="132"/>
+      <c r="J49" s="133"/>
+      <c r="K49" s="133"/>
+      <c r="L49" s="134"/>
+      <c r="M49" s="133"/>
+      <c r="N49" s="133"/>
+      <c r="O49" s="143"/>
+      <c r="P49" s="132">
         <v>0</v>
       </c>
       <c r="Q49" s="55"/>
@@ -10785,7 +10785,7 @@
       <c r="I50" s="130"/>
       <c r="J50" s="130"/>
       <c r="K50" s="130"/>
-      <c r="L50" s="140"/>
+      <c r="L50" s="135"/>
       <c r="M50" s="130"/>
       <c r="N50" s="130"/>
       <c r="O50" s="130"/>
@@ -10906,23 +10906,23 @@
       <c r="A51" s="26"/>
       <c r="B51" s="99"/>
       <c r="C51" s="108"/>
-      <c r="D51" s="149" t="s">
+      <c r="D51" s="137" t="s">
         <v>93</v>
       </c>
       <c r="E51" s="121"/>
       <c r="F51" s="121"/>
       <c r="G51" s="121"/>
       <c r="H51" s="122"/>
-      <c r="I51" s="141">
+      <c r="I51" s="138">
         <v>6</v>
       </c>
-      <c r="J51" s="134">
+      <c r="J51" s="139">
         <v>45798</v>
       </c>
-      <c r="K51" s="134">
+      <c r="K51" s="139">
         <v>45798</v>
       </c>
-      <c r="L51" s="139"/>
+      <c r="L51" s="140"/>
       <c r="M51" s="100"/>
       <c r="N51" s="100"/>
       <c r="O51" s="101"/>
@@ -11051,7 +11051,7 @@
       <c r="I52" s="125"/>
       <c r="J52" s="125"/>
       <c r="K52" s="125"/>
-      <c r="L52" s="140"/>
+      <c r="L52" s="135"/>
       <c r="M52" s="102"/>
       <c r="N52" s="102"/>
       <c r="O52" s="103"/>
@@ -11173,26 +11173,26 @@
       <c r="B53" s="99"/>
       <c r="C53" s="108"/>
       <c r="D53" s="109"/>
-      <c r="E53" s="142" t="s">
+      <c r="E53" s="141" t="s">
         <v>93</v>
       </c>
-      <c r="F53" s="143"/>
-      <c r="G53" s="143"/>
-      <c r="H53" s="143"/>
-      <c r="I53" s="133">
+      <c r="F53" s="142"/>
+      <c r="G53" s="142"/>
+      <c r="H53" s="142"/>
+      <c r="I53" s="132">
         <v>3</v>
       </c>
-      <c r="J53" s="131">
+      <c r="J53" s="133">
         <v>45798</v>
       </c>
-      <c r="K53" s="131">
+      <c r="K53" s="133">
         <v>45798</v>
       </c>
-      <c r="L53" s="144"/>
-      <c r="M53" s="131"/>
-      <c r="N53" s="131"/>
-      <c r="O53" s="132"/>
-      <c r="P53" s="133">
+      <c r="L53" s="134"/>
+      <c r="M53" s="133"/>
+      <c r="N53" s="133"/>
+      <c r="O53" s="143"/>
+      <c r="P53" s="132">
         <v>0</v>
       </c>
       <c r="Q53" s="55"/>
@@ -11319,7 +11319,7 @@
       <c r="I54" s="130"/>
       <c r="J54" s="130"/>
       <c r="K54" s="130"/>
-      <c r="L54" s="140"/>
+      <c r="L54" s="135"/>
       <c r="M54" s="130"/>
       <c r="N54" s="130"/>
       <c r="O54" s="130"/>
@@ -11441,26 +11441,26 @@
       <c r="B55" s="99"/>
       <c r="C55" s="108"/>
       <c r="D55" s="110"/>
-      <c r="E55" s="142" t="s">
+      <c r="E55" s="141" t="s">
         <v>94</v>
       </c>
-      <c r="F55" s="143"/>
-      <c r="G55" s="143"/>
-      <c r="H55" s="143"/>
-      <c r="I55" s="133">
+      <c r="F55" s="142"/>
+      <c r="G55" s="142"/>
+      <c r="H55" s="142"/>
+      <c r="I55" s="132">
         <v>3</v>
       </c>
-      <c r="J55" s="131">
+      <c r="J55" s="133">
         <v>45798</v>
       </c>
-      <c r="K55" s="131">
+      <c r="K55" s="133">
         <v>45798</v>
       </c>
-      <c r="L55" s="144"/>
-      <c r="M55" s="131"/>
-      <c r="N55" s="131"/>
-      <c r="O55" s="132"/>
-      <c r="P55" s="133">
+      <c r="L55" s="134"/>
+      <c r="M55" s="133"/>
+      <c r="N55" s="133"/>
+      <c r="O55" s="143"/>
+      <c r="P55" s="132">
         <v>0</v>
       </c>
       <c r="Q55" s="55"/>
@@ -11587,7 +11587,7 @@
       <c r="I56" s="130"/>
       <c r="J56" s="130"/>
       <c r="K56" s="130"/>
-      <c r="L56" s="140"/>
+      <c r="L56" s="135"/>
       <c r="M56" s="130"/>
       <c r="N56" s="130"/>
       <c r="O56" s="130"/>
@@ -11709,18 +11709,18 @@
       <c r="B57" s="99"/>
       <c r="C57" s="108"/>
       <c r="D57" s="110"/>
-      <c r="E57" s="145"/>
+      <c r="E57" s="144"/>
       <c r="F57" s="121"/>
       <c r="G57" s="121"/>
       <c r="H57" s="122"/>
-      <c r="I57" s="133"/>
-      <c r="J57" s="131"/>
-      <c r="K57" s="131"/>
-      <c r="L57" s="144"/>
-      <c r="M57" s="131"/>
-      <c r="N57" s="131"/>
-      <c r="O57" s="132"/>
-      <c r="P57" s="133">
+      <c r="I57" s="132"/>
+      <c r="J57" s="133"/>
+      <c r="K57" s="133"/>
+      <c r="L57" s="134"/>
+      <c r="M57" s="133"/>
+      <c r="N57" s="133"/>
+      <c r="O57" s="143"/>
+      <c r="P57" s="132">
         <v>0</v>
       </c>
       <c r="Q57" s="55"/>
@@ -11847,7 +11847,7 @@
       <c r="I58" s="130"/>
       <c r="J58" s="130"/>
       <c r="K58" s="130"/>
-      <c r="L58" s="140"/>
+      <c r="L58" s="135"/>
       <c r="M58" s="130"/>
       <c r="N58" s="130"/>
       <c r="O58" s="130"/>
@@ -11967,24 +11967,24 @@
     <row r="59" spans="1:127" ht="12" customHeight="1">
       <c r="A59" s="26"/>
       <c r="B59" s="99"/>
-      <c r="C59" s="135" t="s">
+      <c r="C59" s="171" t="s">
         <v>95</v>
       </c>
-      <c r="D59" s="136"/>
-      <c r="E59" s="136"/>
-      <c r="F59" s="136"/>
-      <c r="G59" s="136"/>
-      <c r="H59" s="136"/>
-      <c r="I59" s="138">
+      <c r="D59" s="157"/>
+      <c r="E59" s="157"/>
+      <c r="F59" s="157"/>
+      <c r="G59" s="157"/>
+      <c r="H59" s="157"/>
+      <c r="I59" s="165">
         <v>72</v>
       </c>
-      <c r="J59" s="134">
+      <c r="J59" s="139">
         <v>45799</v>
       </c>
-      <c r="K59" s="134">
+      <c r="K59" s="139">
         <v>45808</v>
       </c>
-      <c r="L59" s="139"/>
+      <c r="L59" s="140"/>
       <c r="M59" s="100"/>
       <c r="N59" s="100"/>
       <c r="O59" s="101"/>
@@ -12104,7 +12104,7 @@
     <row r="60" spans="1:127" ht="12" customHeight="1">
       <c r="A60" s="26"/>
       <c r="B60" s="99"/>
-      <c r="C60" s="137"/>
+      <c r="C60" s="158"/>
       <c r="D60" s="124"/>
       <c r="E60" s="124"/>
       <c r="F60" s="124"/>
@@ -12113,7 +12113,7 @@
       <c r="I60" s="130"/>
       <c r="J60" s="125"/>
       <c r="K60" s="125"/>
-      <c r="L60" s="140"/>
+      <c r="L60" s="135"/>
       <c r="M60" s="102"/>
       <c r="N60" s="102"/>
       <c r="O60" s="103"/>
@@ -12234,23 +12234,23 @@
       <c r="A61" s="26"/>
       <c r="B61" s="99"/>
       <c r="C61" s="113"/>
-      <c r="D61" s="149" t="s">
+      <c r="D61" s="137" t="s">
         <v>87</v>
       </c>
       <c r="E61" s="121"/>
       <c r="F61" s="121"/>
       <c r="G61" s="121"/>
       <c r="H61" s="122"/>
-      <c r="I61" s="141">
+      <c r="I61" s="138">
         <v>12</v>
       </c>
-      <c r="J61" s="134">
+      <c r="J61" s="139">
         <v>45799</v>
       </c>
-      <c r="K61" s="134">
+      <c r="K61" s="139">
         <v>45800</v>
       </c>
-      <c r="L61" s="139"/>
+      <c r="L61" s="140"/>
       <c r="M61" s="100"/>
       <c r="N61" s="100"/>
       <c r="O61" s="101"/>
@@ -12379,7 +12379,7 @@
       <c r="I62" s="125"/>
       <c r="J62" s="125"/>
       <c r="K62" s="125"/>
-      <c r="L62" s="140"/>
+      <c r="L62" s="135"/>
       <c r="M62" s="102"/>
       <c r="N62" s="102"/>
       <c r="O62" s="103"/>
@@ -12501,26 +12501,26 @@
       <c r="B63" s="99"/>
       <c r="C63" s="108"/>
       <c r="D63" s="109"/>
-      <c r="E63" s="142" t="s">
+      <c r="E63" s="141" t="s">
         <v>89</v>
       </c>
-      <c r="F63" s="143"/>
-      <c r="G63" s="143"/>
-      <c r="H63" s="143"/>
-      <c r="I63" s="133">
+      <c r="F63" s="142"/>
+      <c r="G63" s="142"/>
+      <c r="H63" s="142"/>
+      <c r="I63" s="132">
         <v>8</v>
       </c>
-      <c r="J63" s="131">
+      <c r="J63" s="133">
         <v>45799</v>
       </c>
-      <c r="K63" s="131">
+      <c r="K63" s="133">
         <v>45799</v>
       </c>
-      <c r="L63" s="144"/>
-      <c r="M63" s="131"/>
-      <c r="N63" s="131"/>
-      <c r="O63" s="132"/>
-      <c r="P63" s="133">
+      <c r="L63" s="134"/>
+      <c r="M63" s="133"/>
+      <c r="N63" s="133"/>
+      <c r="O63" s="143"/>
+      <c r="P63" s="132">
         <v>0</v>
       </c>
       <c r="Q63" s="55"/>
@@ -12647,7 +12647,7 @@
       <c r="I64" s="130"/>
       <c r="J64" s="130"/>
       <c r="K64" s="130"/>
-      <c r="L64" s="140"/>
+      <c r="L64" s="135"/>
       <c r="M64" s="130"/>
       <c r="N64" s="130"/>
       <c r="O64" s="130"/>
@@ -12769,26 +12769,26 @@
       <c r="B65" s="99"/>
       <c r="C65" s="108"/>
       <c r="D65" s="110"/>
-      <c r="E65" s="142" t="s">
+      <c r="E65" s="141" t="s">
         <v>90</v>
       </c>
-      <c r="F65" s="143"/>
-      <c r="G65" s="143"/>
-      <c r="H65" s="143"/>
-      <c r="I65" s="133">
+      <c r="F65" s="142"/>
+      <c r="G65" s="142"/>
+      <c r="H65" s="142"/>
+      <c r="I65" s="132">
         <v>4</v>
       </c>
-      <c r="J65" s="131">
+      <c r="J65" s="133">
         <v>45800</v>
       </c>
-      <c r="K65" s="131">
+      <c r="K65" s="133">
         <v>45800</v>
       </c>
-      <c r="L65" s="144"/>
-      <c r="M65" s="131"/>
-      <c r="N65" s="131"/>
-      <c r="O65" s="132"/>
-      <c r="P65" s="133">
+      <c r="L65" s="134"/>
+      <c r="M65" s="133"/>
+      <c r="N65" s="133"/>
+      <c r="O65" s="143"/>
+      <c r="P65" s="132">
         <v>0</v>
       </c>
       <c r="Q65" s="55"/>
@@ -12915,7 +12915,7 @@
       <c r="I66" s="130"/>
       <c r="J66" s="130"/>
       <c r="K66" s="130"/>
-      <c r="L66" s="140"/>
+      <c r="L66" s="135"/>
       <c r="M66" s="130"/>
       <c r="N66" s="130"/>
       <c r="O66" s="130"/>
@@ -13037,18 +13037,18 @@
       <c r="B67" s="99"/>
       <c r="C67" s="108"/>
       <c r="D67" s="110"/>
-      <c r="E67" s="145"/>
+      <c r="E67" s="144"/>
       <c r="F67" s="121"/>
       <c r="G67" s="121"/>
       <c r="H67" s="122"/>
-      <c r="I67" s="133"/>
-      <c r="J67" s="131"/>
-      <c r="K67" s="131"/>
-      <c r="L67" s="144"/>
-      <c r="M67" s="131"/>
-      <c r="N67" s="131"/>
-      <c r="O67" s="132"/>
-      <c r="P67" s="133">
+      <c r="I67" s="132"/>
+      <c r="J67" s="133"/>
+      <c r="K67" s="133"/>
+      <c r="L67" s="134"/>
+      <c r="M67" s="133"/>
+      <c r="N67" s="133"/>
+      <c r="O67" s="143"/>
+      <c r="P67" s="132">
         <v>0</v>
       </c>
       <c r="Q67" s="55"/>
@@ -13175,7 +13175,7 @@
       <c r="I68" s="130"/>
       <c r="J68" s="130"/>
       <c r="K68" s="130"/>
-      <c r="L68" s="140"/>
+      <c r="L68" s="135"/>
       <c r="M68" s="130"/>
       <c r="N68" s="130"/>
       <c r="O68" s="130"/>
@@ -13296,23 +13296,23 @@
       <c r="A69" s="26"/>
       <c r="B69" s="99"/>
       <c r="C69" s="108"/>
-      <c r="D69" s="149" t="s">
+      <c r="D69" s="137" t="s">
         <v>91</v>
       </c>
       <c r="E69" s="121"/>
       <c r="F69" s="121"/>
       <c r="G69" s="121"/>
       <c r="H69" s="122"/>
-      <c r="I69" s="141">
+      <c r="I69" s="138">
         <v>52</v>
       </c>
-      <c r="J69" s="134">
+      <c r="J69" s="139">
         <v>45803</v>
       </c>
-      <c r="K69" s="134">
+      <c r="K69" s="139">
         <v>45811</v>
       </c>
-      <c r="L69" s="139"/>
+      <c r="L69" s="140"/>
       <c r="M69" s="100"/>
       <c r="N69" s="100"/>
       <c r="O69" s="101"/>
@@ -13441,7 +13441,7 @@
       <c r="I70" s="125"/>
       <c r="J70" s="125"/>
       <c r="K70" s="125"/>
-      <c r="L70" s="140"/>
+      <c r="L70" s="135"/>
       <c r="M70" s="102"/>
       <c r="N70" s="102"/>
       <c r="O70" s="103"/>
@@ -13563,26 +13563,26 @@
       <c r="B71" s="99"/>
       <c r="C71" s="108"/>
       <c r="D71" s="109"/>
-      <c r="E71" s="142" t="s">
+      <c r="E71" s="141" t="s">
         <v>96</v>
       </c>
-      <c r="F71" s="143"/>
-      <c r="G71" s="143"/>
-      <c r="H71" s="143"/>
-      <c r="I71" s="133">
+      <c r="F71" s="142"/>
+      <c r="G71" s="142"/>
+      <c r="H71" s="142"/>
+      <c r="I71" s="132">
         <v>26</v>
       </c>
-      <c r="J71" s="146">
+      <c r="J71" s="145">
         <v>45803</v>
       </c>
-      <c r="K71" s="131">
+      <c r="K71" s="133">
         <v>45806</v>
       </c>
-      <c r="L71" s="144"/>
-      <c r="M71" s="131"/>
-      <c r="N71" s="131"/>
-      <c r="O71" s="132"/>
-      <c r="P71" s="133">
+      <c r="L71" s="134"/>
+      <c r="M71" s="133"/>
+      <c r="N71" s="133"/>
+      <c r="O71" s="143"/>
+      <c r="P71" s="132">
         <v>0</v>
       </c>
       <c r="Q71" s="55"/>
@@ -13709,7 +13709,7 @@
       <c r="I72" s="130"/>
       <c r="J72" s="125"/>
       <c r="K72" s="130"/>
-      <c r="L72" s="140"/>
+      <c r="L72" s="135"/>
       <c r="M72" s="130"/>
       <c r="N72" s="130"/>
       <c r="O72" s="130"/>
@@ -13831,26 +13831,26 @@
       <c r="B73" s="99"/>
       <c r="C73" s="108"/>
       <c r="D73" s="110"/>
-      <c r="E73" s="142" t="s">
+      <c r="E73" s="141" t="s">
         <v>97</v>
       </c>
-      <c r="F73" s="143"/>
-      <c r="G73" s="143"/>
-      <c r="H73" s="143"/>
-      <c r="I73" s="133">
+      <c r="F73" s="142"/>
+      <c r="G73" s="142"/>
+      <c r="H73" s="142"/>
+      <c r="I73" s="132">
         <v>18</v>
       </c>
-      <c r="J73" s="131">
+      <c r="J73" s="133">
         <v>45806</v>
       </c>
-      <c r="K73" s="131">
+      <c r="K73" s="133">
         <v>45810</v>
       </c>
-      <c r="L73" s="144"/>
-      <c r="M73" s="131"/>
-      <c r="N73" s="131"/>
-      <c r="O73" s="132"/>
-      <c r="P73" s="133">
+      <c r="L73" s="134"/>
+      <c r="M73" s="133"/>
+      <c r="N73" s="133"/>
+      <c r="O73" s="143"/>
+      <c r="P73" s="132">
         <v>0</v>
       </c>
       <c r="Q73" s="55"/>
@@ -13977,7 +13977,7 @@
       <c r="I74" s="130"/>
       <c r="J74" s="130"/>
       <c r="K74" s="130"/>
-      <c r="L74" s="140"/>
+      <c r="L74" s="135"/>
       <c r="M74" s="130"/>
       <c r="N74" s="130"/>
       <c r="O74" s="130"/>
@@ -14099,26 +14099,26 @@
       <c r="B75" s="99"/>
       <c r="C75" s="108"/>
       <c r="D75" s="110"/>
-      <c r="E75" s="145" t="s">
+      <c r="E75" s="144" t="s">
         <v>98</v>
       </c>
       <c r="F75" s="121"/>
       <c r="G75" s="121"/>
       <c r="H75" s="122"/>
-      <c r="I75" s="133">
+      <c r="I75" s="132">
         <v>8</v>
       </c>
-      <c r="J75" s="131">
+      <c r="J75" s="133">
         <v>45811</v>
       </c>
-      <c r="K75" s="131">
+      <c r="K75" s="133">
         <v>45811</v>
       </c>
-      <c r="L75" s="144"/>
-      <c r="M75" s="131"/>
-      <c r="N75" s="131"/>
-      <c r="O75" s="132"/>
-      <c r="P75" s="133">
+      <c r="L75" s="134"/>
+      <c r="M75" s="133"/>
+      <c r="N75" s="133"/>
+      <c r="O75" s="143"/>
+      <c r="P75" s="132">
         <v>0</v>
       </c>
       <c r="Q75" s="55"/>
@@ -14245,7 +14245,7 @@
       <c r="I76" s="130"/>
       <c r="J76" s="130"/>
       <c r="K76" s="130"/>
-      <c r="L76" s="140"/>
+      <c r="L76" s="135"/>
       <c r="M76" s="130"/>
       <c r="N76" s="130"/>
       <c r="O76" s="130"/>
@@ -14366,23 +14366,23 @@
       <c r="A77" s="26"/>
       <c r="B77" s="99"/>
       <c r="C77" s="108"/>
-      <c r="D77" s="149" t="s">
+      <c r="D77" s="137" t="s">
         <v>93</v>
       </c>
       <c r="E77" s="121"/>
       <c r="F77" s="121"/>
       <c r="G77" s="121"/>
       <c r="H77" s="122"/>
-      <c r="I77" s="141">
+      <c r="I77" s="138">
         <v>8</v>
       </c>
-      <c r="J77" s="134">
+      <c r="J77" s="139">
         <v>45812</v>
       </c>
-      <c r="K77" s="134">
+      <c r="K77" s="139">
         <v>45812</v>
       </c>
-      <c r="L77" s="139"/>
+      <c r="L77" s="140"/>
       <c r="M77" s="100"/>
       <c r="N77" s="100"/>
       <c r="O77" s="101"/>
@@ -14511,7 +14511,7 @@
       <c r="I78" s="125"/>
       <c r="J78" s="125"/>
       <c r="K78" s="125"/>
-      <c r="L78" s="140"/>
+      <c r="L78" s="135"/>
       <c r="M78" s="102"/>
       <c r="N78" s="102"/>
       <c r="O78" s="103"/>
@@ -14633,26 +14633,26 @@
       <c r="B79" s="99"/>
       <c r="C79" s="26"/>
       <c r="D79" s="106"/>
-      <c r="E79" s="142" t="s">
+      <c r="E79" s="141" t="s">
         <v>93</v>
       </c>
-      <c r="F79" s="143"/>
-      <c r="G79" s="143"/>
-      <c r="H79" s="143"/>
-      <c r="I79" s="133">
+      <c r="F79" s="142"/>
+      <c r="G79" s="142"/>
+      <c r="H79" s="142"/>
+      <c r="I79" s="132">
         <v>4</v>
       </c>
-      <c r="J79" s="131">
+      <c r="J79" s="133">
         <v>45812</v>
       </c>
-      <c r="K79" s="131">
+      <c r="K79" s="133">
         <v>45812</v>
       </c>
-      <c r="L79" s="144"/>
-      <c r="M79" s="131"/>
-      <c r="N79" s="131"/>
-      <c r="O79" s="132"/>
-      <c r="P79" s="133">
+      <c r="L79" s="134"/>
+      <c r="M79" s="133"/>
+      <c r="N79" s="133"/>
+      <c r="O79" s="143"/>
+      <c r="P79" s="132">
         <v>0</v>
       </c>
       <c r="Q79" s="55"/>
@@ -14779,7 +14779,7 @@
       <c r="I80" s="130"/>
       <c r="J80" s="130"/>
       <c r="K80" s="130"/>
-      <c r="L80" s="140"/>
+      <c r="L80" s="135"/>
       <c r="M80" s="130"/>
       <c r="N80" s="130"/>
       <c r="O80" s="130"/>
@@ -14901,26 +14901,26 @@
       <c r="B81" s="99"/>
       <c r="C81" s="26"/>
       <c r="D81" s="99"/>
-      <c r="E81" s="142" t="s">
+      <c r="E81" s="141" t="s">
         <v>94</v>
       </c>
-      <c r="F81" s="143"/>
-      <c r="G81" s="143"/>
-      <c r="H81" s="143"/>
-      <c r="I81" s="133">
+      <c r="F81" s="142"/>
+      <c r="G81" s="142"/>
+      <c r="H81" s="142"/>
+      <c r="I81" s="132">
         <v>4</v>
       </c>
-      <c r="J81" s="131">
+      <c r="J81" s="133">
         <v>45812</v>
       </c>
-      <c r="K81" s="131">
+      <c r="K81" s="133">
         <v>45812</v>
       </c>
-      <c r="L81" s="144"/>
-      <c r="M81" s="131"/>
-      <c r="N81" s="131"/>
-      <c r="O81" s="132"/>
-      <c r="P81" s="133">
+      <c r="L81" s="134"/>
+      <c r="M81" s="133"/>
+      <c r="N81" s="133"/>
+      <c r="O81" s="143"/>
+      <c r="P81" s="132">
         <v>0</v>
       </c>
       <c r="Q81" s="55"/>
@@ -15047,7 +15047,7 @@
       <c r="I82" s="130"/>
       <c r="J82" s="130"/>
       <c r="K82" s="130"/>
-      <c r="L82" s="140"/>
+      <c r="L82" s="135"/>
       <c r="M82" s="130"/>
       <c r="N82" s="130"/>
       <c r="O82" s="130"/>
@@ -15169,18 +15169,18 @@
       <c r="B83" s="99"/>
       <c r="C83" s="26"/>
       <c r="D83" s="99"/>
-      <c r="E83" s="145"/>
+      <c r="E83" s="144"/>
       <c r="F83" s="121"/>
       <c r="G83" s="121"/>
       <c r="H83" s="122"/>
-      <c r="I83" s="133"/>
-      <c r="J83" s="131"/>
-      <c r="K83" s="131"/>
-      <c r="L83" s="144"/>
-      <c r="M83" s="131"/>
-      <c r="N83" s="131"/>
-      <c r="O83" s="132"/>
-      <c r="P83" s="133">
+      <c r="I83" s="132"/>
+      <c r="J83" s="133"/>
+      <c r="K83" s="133"/>
+      <c r="L83" s="134"/>
+      <c r="M83" s="133"/>
+      <c r="N83" s="133"/>
+      <c r="O83" s="143"/>
+      <c r="P83" s="132">
         <v>0</v>
       </c>
       <c r="Q83" s="55"/>
@@ -15307,7 +15307,7 @@
       <c r="I84" s="130"/>
       <c r="J84" s="130"/>
       <c r="K84" s="130"/>
-      <c r="L84" s="140"/>
+      <c r="L84" s="135"/>
       <c r="M84" s="130"/>
       <c r="N84" s="130"/>
       <c r="O84" s="130"/>
@@ -15426,45 +15426,252 @@
     </row>
   </sheetData>
   <mergeCells count="309">
-    <mergeCell ref="E41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="O41:O42"/>
-    <mergeCell ref="P41:P42"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="J63:J64"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="L63:L64"/>
-    <mergeCell ref="M63:M64"/>
-    <mergeCell ref="D51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="E53:H54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="L53:L54"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="O67:O68"/>
-    <mergeCell ref="E67:H68"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="J67:J68"/>
-    <mergeCell ref="K67:K68"/>
-    <mergeCell ref="L67:L68"/>
-    <mergeCell ref="M67:M68"/>
-    <mergeCell ref="N67:N68"/>
-    <mergeCell ref="O65:O66"/>
-    <mergeCell ref="E65:H66"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="J65:J66"/>
-    <mergeCell ref="K65:K66"/>
-    <mergeCell ref="L65:L66"/>
-    <mergeCell ref="M65:M66"/>
-    <mergeCell ref="N65:N66"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="P53:P54"/>
+    <mergeCell ref="J61:J62"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="C59:H60"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="L61:L62"/>
+    <mergeCell ref="O55:O56"/>
+    <mergeCell ref="P55:P56"/>
+    <mergeCell ref="E55:H56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="N55:N56"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="P49:P50"/>
+    <mergeCell ref="E49:H50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="O47:O48"/>
+    <mergeCell ref="P47:P48"/>
+    <mergeCell ref="E47:H48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="N47:N48"/>
+    <mergeCell ref="P45:P46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="D43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="E45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="C31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="N35:N36"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="D33:H34"/>
+    <mergeCell ref="E35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="E39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="E37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="D27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="P29:P30"/>
+    <mergeCell ref="D29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="C23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="D25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="C19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="D21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="D15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="D17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="D11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="D13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="CZ4:DV4"/>
+    <mergeCell ref="B7:H8"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="C9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="N75:N76"/>
+    <mergeCell ref="L79:L80"/>
+    <mergeCell ref="M79:M80"/>
+    <mergeCell ref="N79:N80"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="P79:P80"/>
+    <mergeCell ref="Q4:AP4"/>
+    <mergeCell ref="AQ4:BU4"/>
+    <mergeCell ref="BV4:CY4"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="O39:O40"/>
+    <mergeCell ref="P39:P40"/>
+    <mergeCell ref="P35:P36"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="P37:P38"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="O45:O46"/>
+    <mergeCell ref="D69:H70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="J69:J70"/>
+    <mergeCell ref="K69:K70"/>
+    <mergeCell ref="L69:L70"/>
+    <mergeCell ref="E71:H72"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="O73:O74"/>
+    <mergeCell ref="P73:P74"/>
+    <mergeCell ref="E73:H74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="J73:J74"/>
+    <mergeCell ref="K73:K74"/>
+    <mergeCell ref="L73:L74"/>
+    <mergeCell ref="M73:M74"/>
+    <mergeCell ref="N73:N74"/>
+    <mergeCell ref="L71:L72"/>
+    <mergeCell ref="M71:M72"/>
+    <mergeCell ref="N71:N72"/>
+    <mergeCell ref="O71:O72"/>
+    <mergeCell ref="P71:P72"/>
+    <mergeCell ref="J71:J72"/>
+    <mergeCell ref="K71:K72"/>
+    <mergeCell ref="O83:O84"/>
+    <mergeCell ref="P83:P84"/>
+    <mergeCell ref="E83:H84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="J83:J84"/>
+    <mergeCell ref="K83:K84"/>
+    <mergeCell ref="L83:L84"/>
+    <mergeCell ref="M83:M84"/>
+    <mergeCell ref="N83:N84"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="E81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="J81:J82"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="L81:L82"/>
+    <mergeCell ref="M81:M82"/>
+    <mergeCell ref="N81:N82"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="K79:K80"/>
+    <mergeCell ref="D77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="J77:J78"/>
+    <mergeCell ref="K77:K78"/>
+    <mergeCell ref="L77:L78"/>
+    <mergeCell ref="E79:H80"/>
+    <mergeCell ref="I79:I80"/>
     <mergeCell ref="O75:O76"/>
     <mergeCell ref="P75:P76"/>
     <mergeCell ref="E75:H76"/>
@@ -15489,252 +15696,45 @@
     <mergeCell ref="P63:P64"/>
     <mergeCell ref="D61:H62"/>
     <mergeCell ref="E63:H64"/>
-    <mergeCell ref="J79:J80"/>
-    <mergeCell ref="K79:K80"/>
-    <mergeCell ref="D77:H78"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="J77:J78"/>
-    <mergeCell ref="K77:K78"/>
-    <mergeCell ref="L77:L78"/>
-    <mergeCell ref="E79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="E81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="J81:J82"/>
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="L81:L82"/>
-    <mergeCell ref="M81:M82"/>
-    <mergeCell ref="N81:N82"/>
-    <mergeCell ref="O83:O84"/>
-    <mergeCell ref="P83:P84"/>
-    <mergeCell ref="E83:H84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="J83:J84"/>
-    <mergeCell ref="K83:K84"/>
-    <mergeCell ref="L83:L84"/>
-    <mergeCell ref="M83:M84"/>
-    <mergeCell ref="N83:N84"/>
-    <mergeCell ref="D69:H70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="J69:J70"/>
-    <mergeCell ref="K69:K70"/>
-    <mergeCell ref="L69:L70"/>
-    <mergeCell ref="E71:H72"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="O73:O74"/>
-    <mergeCell ref="P73:P74"/>
-    <mergeCell ref="E73:H74"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="J73:J74"/>
-    <mergeCell ref="K73:K74"/>
-    <mergeCell ref="L73:L74"/>
-    <mergeCell ref="M73:M74"/>
-    <mergeCell ref="N73:N74"/>
-    <mergeCell ref="L71:L72"/>
-    <mergeCell ref="M71:M72"/>
-    <mergeCell ref="N71:N72"/>
-    <mergeCell ref="O71:O72"/>
-    <mergeCell ref="P71:P72"/>
-    <mergeCell ref="J71:J72"/>
-    <mergeCell ref="K71:K72"/>
-    <mergeCell ref="N75:N76"/>
-    <mergeCell ref="L79:L80"/>
-    <mergeCell ref="M79:M80"/>
-    <mergeCell ref="N79:N80"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="P79:P80"/>
-    <mergeCell ref="Q4:AP4"/>
-    <mergeCell ref="AQ4:BU4"/>
-    <mergeCell ref="BV4:CY4"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="P27:P28"/>
-    <mergeCell ref="O39:O40"/>
-    <mergeCell ref="P39:P40"/>
-    <mergeCell ref="P35:P36"/>
-    <mergeCell ref="O37:O38"/>
-    <mergeCell ref="P37:P38"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="N45:N46"/>
-    <mergeCell ref="O45:O46"/>
-    <mergeCell ref="CZ4:DV4"/>
-    <mergeCell ref="B7:H8"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="C9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="D11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="D13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="D15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="D17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="C19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="D21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="P25:P26"/>
-    <mergeCell ref="C23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="D25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="D27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="P29:P30"/>
-    <mergeCell ref="D29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="E39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="E37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="C31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="N35:N36"/>
-    <mergeCell ref="O35:O36"/>
-    <mergeCell ref="D33:H34"/>
-    <mergeCell ref="E35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="P45:P46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="D43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="E45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="O47:O48"/>
-    <mergeCell ref="P47:P48"/>
-    <mergeCell ref="E47:H48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="N47:N48"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="P49:P50"/>
-    <mergeCell ref="E49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="N53:N54"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="P53:P54"/>
-    <mergeCell ref="J61:J62"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="C59:H60"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="L61:L62"/>
-    <mergeCell ref="O55:O56"/>
-    <mergeCell ref="P55:P56"/>
-    <mergeCell ref="E55:H56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="L55:L56"/>
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="N55:N56"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="O67:O68"/>
+    <mergeCell ref="E67:H68"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="J67:J68"/>
+    <mergeCell ref="K67:K68"/>
+    <mergeCell ref="L67:L68"/>
+    <mergeCell ref="M67:M68"/>
+    <mergeCell ref="N67:N68"/>
+    <mergeCell ref="O65:O66"/>
+    <mergeCell ref="E65:H66"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="J65:J66"/>
+    <mergeCell ref="K65:K66"/>
+    <mergeCell ref="L65:L66"/>
+    <mergeCell ref="M65:M66"/>
+    <mergeCell ref="N65:N66"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="J63:J64"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="L63:L64"/>
+    <mergeCell ref="M63:M64"/>
+    <mergeCell ref="D51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="E53:H54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="E41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="P41:P42"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/DOJT｜WBS _ PGコース MVC編.xlsx
+++ b/docs/DOJT｜WBS _ PGコース MVC編.xlsx
@@ -1349,101 +1349,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="56" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="180" fontId="5" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="56" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="5" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="5" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="5" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1465,6 +1409,62 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="180" fontId="5" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3980,7 +3980,7 @@
       <c r="N4" s="27"/>
       <c r="O4" s="27"/>
       <c r="P4" s="27"/>
-      <c r="Q4" s="146" t="s">
+      <c r="Q4" s="180" t="s">
         <v>63</v>
       </c>
       <c r="R4" s="127"/>
@@ -4008,7 +4008,7 @@
       <c r="AN4" s="127"/>
       <c r="AO4" s="127"/>
       <c r="AP4" s="128"/>
-      <c r="AQ4" s="146" t="s">
+      <c r="AQ4" s="180" t="s">
         <v>64</v>
       </c>
       <c r="AR4" s="127"/>
@@ -4041,7 +4041,7 @@
       <c r="BS4" s="127"/>
       <c r="BT4" s="127"/>
       <c r="BU4" s="128"/>
-      <c r="BV4" s="146" t="s">
+      <c r="BV4" s="180" t="s">
         <v>65</v>
       </c>
       <c r="BW4" s="127"/>
@@ -4073,7 +4073,7 @@
       <c r="CW4" s="127"/>
       <c r="CX4" s="127"/>
       <c r="CY4" s="128"/>
-      <c r="CZ4" s="146" t="s">
+      <c r="CZ4" s="180" t="s">
         <v>66</v>
       </c>
       <c r="DA4" s="127"/>
@@ -4910,7 +4910,7 @@
     </row>
     <row r="7" spans="1:127" ht="19.5">
       <c r="A7" s="26"/>
-      <c r="B7" s="154" t="s">
+      <c r="B7" s="181" t="s">
         <v>74</v>
       </c>
       <c r="C7" s="121"/>
@@ -5191,33 +5191,33 @@
     <row r="9" spans="1:127" ht="12" customHeight="1">
       <c r="A9" s="26"/>
       <c r="B9" s="50"/>
-      <c r="C9" s="156" t="s">
+      <c r="C9" s="174" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="157"/>
-      <c r="E9" s="157"/>
-      <c r="F9" s="157"/>
-      <c r="G9" s="157"/>
-      <c r="H9" s="157"/>
-      <c r="I9" s="159">
+      <c r="D9" s="136"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="136"/>
+      <c r="G9" s="136"/>
+      <c r="H9" s="136"/>
+      <c r="I9" s="176">
         <v>1</v>
       </c>
-      <c r="J9" s="155">
+      <c r="J9" s="177">
         <f>J11</f>
         <v>45787</v>
       </c>
-      <c r="K9" s="155">
+      <c r="K9" s="177">
         <f>K17</f>
         <v>45787</v>
       </c>
-      <c r="L9" s="159">
+      <c r="L9" s="176">
         <v>1.3</v>
       </c>
-      <c r="M9" s="155">
+      <c r="M9" s="177">
         <f>M11</f>
         <v>45787</v>
       </c>
-      <c r="N9" s="155">
+      <c r="N9" s="177">
         <f>N17</f>
         <v>45790</v>
       </c>
@@ -5340,7 +5340,7 @@
     <row r="10" spans="1:127" ht="12" customHeight="1">
       <c r="A10" s="26"/>
       <c r="B10" s="50"/>
-      <c r="C10" s="158"/>
+      <c r="C10" s="137"/>
       <c r="D10" s="124"/>
       <c r="E10" s="124"/>
       <c r="F10" s="124"/>
@@ -5470,37 +5470,37 @@
       <c r="A11" s="26"/>
       <c r="B11" s="50"/>
       <c r="C11" s="54"/>
-      <c r="D11" s="160" t="s">
+      <c r="D11" s="178" t="s">
         <v>76</v>
       </c>
       <c r="E11" s="121"/>
       <c r="F11" s="121"/>
       <c r="G11" s="121"/>
       <c r="H11" s="122"/>
-      <c r="I11" s="147">
+      <c r="I11" s="171">
         <v>0.1</v>
       </c>
-      <c r="J11" s="161">
+      <c r="J11" s="179">
         <v>45787</v>
       </c>
-      <c r="K11" s="161">
+      <c r="K11" s="179">
         <f>$J$11</f>
         <v>45787</v>
       </c>
-      <c r="L11" s="147">
+      <c r="L11" s="171">
         <v>0.1</v>
       </c>
-      <c r="M11" s="161">
+      <c r="M11" s="179">
         <v>45787</v>
       </c>
-      <c r="N11" s="161">
+      <c r="N11" s="179">
         <f>$J$11</f>
         <v>45787</v>
       </c>
-      <c r="O11" s="147" t="s">
+      <c r="O11" s="171" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="147">
+      <c r="P11" s="171">
         <v>100</v>
       </c>
       <c r="Q11" s="55"/>
@@ -5748,39 +5748,39 @@
       <c r="A13" s="26"/>
       <c r="B13" s="50"/>
       <c r="C13" s="63"/>
-      <c r="D13" s="160" t="s">
+      <c r="D13" s="178" t="s">
         <v>78</v>
       </c>
       <c r="E13" s="121"/>
       <c r="F13" s="121"/>
       <c r="G13" s="121"/>
       <c r="H13" s="122"/>
-      <c r="I13" s="147">
+      <c r="I13" s="171">
         <v>0.1</v>
       </c>
-      <c r="J13" s="161">
+      <c r="J13" s="179">
         <f t="shared" ref="J13:K13" si="1">$J$11</f>
         <v>45787</v>
       </c>
-      <c r="K13" s="161">
+      <c r="K13" s="179">
         <f t="shared" si="1"/>
         <v>45787</v>
       </c>
-      <c r="L13" s="147">
+      <c r="L13" s="171">
         <v>0.1</v>
       </c>
-      <c r="M13" s="161">
+      <c r="M13" s="179">
         <f t="shared" ref="M13:N13" si="2">$J$11</f>
         <v>45787</v>
       </c>
-      <c r="N13" s="161">
+      <c r="N13" s="179">
         <f t="shared" si="2"/>
         <v>45787</v>
       </c>
-      <c r="O13" s="147" t="s">
+      <c r="O13" s="171" t="s">
         <v>77</v>
       </c>
-      <c r="P13" s="147">
+      <c r="P13" s="171">
         <v>100</v>
       </c>
       <c r="Q13" s="55"/>
@@ -6028,39 +6028,39 @@
       <c r="A15" s="26"/>
       <c r="B15" s="50"/>
       <c r="C15" s="63"/>
-      <c r="D15" s="160" t="s">
+      <c r="D15" s="178" t="s">
         <v>79</v>
       </c>
       <c r="E15" s="121"/>
       <c r="F15" s="121"/>
       <c r="G15" s="121"/>
       <c r="H15" s="122"/>
-      <c r="I15" s="147">
+      <c r="I15" s="171">
         <v>0.1</v>
       </c>
-      <c r="J15" s="161">
+      <c r="J15" s="179">
         <f t="shared" ref="J15:K15" si="3">$J$11</f>
         <v>45787</v>
       </c>
-      <c r="K15" s="161">
+      <c r="K15" s="179">
         <f t="shared" si="3"/>
         <v>45787</v>
       </c>
-      <c r="L15" s="147">
+      <c r="L15" s="171">
         <v>0.1</v>
       </c>
-      <c r="M15" s="161">
+      <c r="M15" s="179">
         <f t="shared" ref="M15:N15" si="4">$J$11</f>
         <v>45787</v>
       </c>
-      <c r="N15" s="161">
+      <c r="N15" s="179">
         <f t="shared" si="4"/>
         <v>45787</v>
       </c>
-      <c r="O15" s="147" t="s">
+      <c r="O15" s="171" t="s">
         <v>77</v>
       </c>
-      <c r="P15" s="147">
+      <c r="P15" s="171">
         <v>100</v>
       </c>
       <c r="Q15" s="55"/>
@@ -6308,37 +6308,37 @@
       <c r="A17" s="26"/>
       <c r="B17" s="50"/>
       <c r="C17" s="63"/>
-      <c r="D17" s="160" t="s">
+      <c r="D17" s="178" t="s">
         <v>80</v>
       </c>
       <c r="E17" s="121"/>
       <c r="F17" s="121"/>
       <c r="G17" s="121"/>
       <c r="H17" s="122"/>
-      <c r="I17" s="147">
+      <c r="I17" s="171">
         <v>0.7</v>
       </c>
-      <c r="J17" s="161">
+      <c r="J17" s="179">
         <f t="shared" ref="J17:K17" si="5">$J$11</f>
         <v>45787</v>
       </c>
-      <c r="K17" s="161">
+      <c r="K17" s="179">
         <f t="shared" si="5"/>
         <v>45787</v>
       </c>
-      <c r="L17" s="147">
+      <c r="L17" s="171">
         <v>3</v>
       </c>
-      <c r="M17" s="161">
+      <c r="M17" s="179">
         <v>45787</v>
       </c>
-      <c r="N17" s="161">
+      <c r="N17" s="179">
         <v>45790</v>
       </c>
-      <c r="O17" s="147" t="s">
+      <c r="O17" s="171" t="s">
         <v>77</v>
       </c>
-      <c r="P17" s="147">
+      <c r="P17" s="171">
         <v>100</v>
       </c>
       <c r="Q17" s="55"/>
@@ -6585,24 +6585,24 @@
     <row r="19" spans="1:127" ht="12" customHeight="1">
       <c r="A19" s="26"/>
       <c r="B19" s="50"/>
-      <c r="C19" s="156" t="s">
+      <c r="C19" s="174" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="157"/>
-      <c r="E19" s="157"/>
-      <c r="F19" s="157"/>
-      <c r="G19" s="157"/>
-      <c r="H19" s="157"/>
-      <c r="I19" s="159">
+      <c r="D19" s="136"/>
+      <c r="E19" s="136"/>
+      <c r="F19" s="136"/>
+      <c r="G19" s="136"/>
+      <c r="H19" s="136"/>
+      <c r="I19" s="176">
         <v>1</v>
       </c>
-      <c r="J19" s="155">
+      <c r="J19" s="177">
         <v>45790</v>
       </c>
-      <c r="K19" s="155">
+      <c r="K19" s="177">
         <v>45790</v>
       </c>
-      <c r="L19" s="159"/>
+      <c r="L19" s="176"/>
       <c r="M19" s="74"/>
       <c r="N19" s="74"/>
       <c r="O19" s="75"/>
@@ -6722,12 +6722,12 @@
     <row r="20" spans="1:127" ht="12" customHeight="1">
       <c r="A20" s="26"/>
       <c r="B20" s="50"/>
-      <c r="C20" s="163"/>
-      <c r="D20" s="142"/>
-      <c r="E20" s="142"/>
-      <c r="F20" s="142"/>
-      <c r="G20" s="142"/>
-      <c r="H20" s="142"/>
+      <c r="C20" s="175"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="143"/>
+      <c r="G20" s="143"/>
+      <c r="H20" s="143"/>
       <c r="I20" s="130"/>
       <c r="J20" s="125"/>
       <c r="K20" s="125"/>
@@ -6852,35 +6852,35 @@
       <c r="A21" s="26"/>
       <c r="B21" s="50"/>
       <c r="C21" s="54"/>
-      <c r="D21" s="160" t="s">
+      <c r="D21" s="178" t="s">
         <v>81</v>
       </c>
       <c r="E21" s="121"/>
       <c r="F21" s="121"/>
       <c r="G21" s="121"/>
       <c r="H21" s="122"/>
-      <c r="I21" s="147">
+      <c r="I21" s="171">
         <v>1</v>
       </c>
-      <c r="J21" s="162">
+      <c r="J21" s="173">
         <v>45790</v>
       </c>
-      <c r="K21" s="162">
+      <c r="K21" s="173">
         <v>45790</v>
       </c>
-      <c r="L21" s="147">
+      <c r="L21" s="171">
         <v>5.5</v>
       </c>
-      <c r="M21" s="162">
+      <c r="M21" s="173">
         <v>45790</v>
       </c>
-      <c r="N21" s="162">
+      <c r="N21" s="173">
         <v>45790</v>
       </c>
-      <c r="O21" s="147" t="s">
+      <c r="O21" s="171" t="s">
         <v>77</v>
       </c>
-      <c r="P21" s="147">
+      <c r="P21" s="171">
         <v>100</v>
       </c>
       <c r="Q21" s="55"/>
@@ -7127,24 +7127,24 @@
     <row r="23" spans="1:127" ht="12" customHeight="1">
       <c r="A23" s="26"/>
       <c r="B23" s="91"/>
-      <c r="C23" s="164" t="s">
+      <c r="C23" s="172" t="s">
         <v>82</v>
       </c>
-      <c r="D23" s="157"/>
-      <c r="E23" s="157"/>
-      <c r="F23" s="157"/>
-      <c r="G23" s="157"/>
-      <c r="H23" s="157"/>
-      <c r="I23" s="165">
+      <c r="D23" s="136"/>
+      <c r="E23" s="136"/>
+      <c r="F23" s="136"/>
+      <c r="G23" s="136"/>
+      <c r="H23" s="136"/>
+      <c r="I23" s="138">
         <v>10</v>
       </c>
-      <c r="J23" s="139">
+      <c r="J23" s="134">
         <v>45791</v>
       </c>
-      <c r="K23" s="139">
+      <c r="K23" s="134">
         <v>45792</v>
       </c>
-      <c r="L23" s="166"/>
+      <c r="L23" s="161"/>
       <c r="M23" s="92"/>
       <c r="N23" s="92"/>
       <c r="O23" s="93"/>
@@ -7264,7 +7264,7 @@
     <row r="24" spans="1:127" ht="12" customHeight="1">
       <c r="A24" s="26"/>
       <c r="B24" s="91"/>
-      <c r="C24" s="158"/>
+      <c r="C24" s="137"/>
       <c r="D24" s="124"/>
       <c r="E24" s="124"/>
       <c r="F24" s="124"/>
@@ -7394,35 +7394,35 @@
       <c r="A25" s="26"/>
       <c r="B25" s="91"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="167" t="s">
+      <c r="D25" s="168" t="s">
         <v>83</v>
       </c>
       <c r="E25" s="121"/>
       <c r="F25" s="121"/>
       <c r="G25" s="121"/>
       <c r="H25" s="122"/>
-      <c r="I25" s="132">
+      <c r="I25" s="133">
         <v>4</v>
       </c>
-      <c r="J25" s="133">
+      <c r="J25" s="131">
         <v>45791</v>
       </c>
-      <c r="K25" s="133">
+      <c r="K25" s="131">
         <v>45791</v>
       </c>
-      <c r="L25" s="132">
+      <c r="L25" s="133">
         <v>7</v>
       </c>
-      <c r="M25" s="133">
+      <c r="M25" s="131">
         <v>45791</v>
       </c>
-      <c r="N25" s="133">
+      <c r="N25" s="131">
         <v>45791</v>
       </c>
-      <c r="O25" s="132" t="s">
+      <c r="O25" s="133" t="s">
         <v>77</v>
       </c>
-      <c r="P25" s="147">
+      <c r="P25" s="171">
         <v>100</v>
       </c>
       <c r="Q25" s="55"/>
@@ -7670,35 +7670,35 @@
       <c r="A27" s="26"/>
       <c r="B27" s="91"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="167" t="s">
+      <c r="D27" s="168" t="s">
         <v>84</v>
       </c>
       <c r="E27" s="121"/>
       <c r="F27" s="121"/>
       <c r="G27" s="121"/>
       <c r="H27" s="122"/>
-      <c r="I27" s="132">
+      <c r="I27" s="133">
         <v>6</v>
       </c>
-      <c r="J27" s="168">
+      <c r="J27" s="169">
         <v>45791</v>
       </c>
-      <c r="K27" s="133">
+      <c r="K27" s="131">
         <v>45792</v>
       </c>
-      <c r="L27" s="132">
+      <c r="L27" s="133">
         <v>3</v>
       </c>
-      <c r="M27" s="133">
+      <c r="M27" s="131">
         <v>45792</v>
       </c>
-      <c r="N27" s="133">
+      <c r="N27" s="131">
         <v>45792</v>
       </c>
-      <c r="O27" s="132" t="s">
+      <c r="O27" s="133" t="s">
         <v>77</v>
       </c>
-      <c r="P27" s="132">
+      <c r="P27" s="133">
         <v>100</v>
       </c>
       <c r="Q27" s="55"/>
@@ -7946,35 +7946,35 @@
       <c r="A29" s="26"/>
       <c r="B29" s="91"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="167" t="s">
+      <c r="D29" s="168" t="s">
         <v>85</v>
       </c>
       <c r="E29" s="121"/>
       <c r="F29" s="121"/>
       <c r="G29" s="121"/>
       <c r="H29" s="122"/>
-      <c r="I29" s="132">
+      <c r="I29" s="133">
         <v>4</v>
       </c>
-      <c r="J29" s="133">
+      <c r="J29" s="131">
         <v>45792</v>
       </c>
-      <c r="K29" s="168">
+      <c r="K29" s="169">
         <v>45792</v>
       </c>
-      <c r="L29" s="134">
+      <c r="L29" s="144">
         <v>3</v>
       </c>
-      <c r="M29" s="133">
+      <c r="M29" s="131">
         <v>45792</v>
       </c>
-      <c r="N29" s="133">
+      <c r="N29" s="131">
         <v>45792</v>
       </c>
-      <c r="O29" s="169" t="s">
+      <c r="O29" s="170" t="s">
         <v>99</v>
       </c>
-      <c r="P29" s="132">
+      <c r="P29" s="133">
         <v>100</v>
       </c>
       <c r="Q29" s="55"/>
@@ -8101,7 +8101,7 @@
       <c r="I30" s="130"/>
       <c r="J30" s="130"/>
       <c r="K30" s="130"/>
-      <c r="L30" s="135"/>
+      <c r="L30" s="140"/>
       <c r="M30" s="130"/>
       <c r="N30" s="130"/>
       <c r="O30" s="130"/>
@@ -8221,24 +8221,24 @@
     <row r="31" spans="1:127" ht="12" customHeight="1">
       <c r="A31" s="26"/>
       <c r="B31" s="99"/>
-      <c r="C31" s="171" t="s">
+      <c r="C31" s="135" t="s">
         <v>86</v>
       </c>
-      <c r="D31" s="157"/>
-      <c r="E31" s="157"/>
-      <c r="F31" s="157"/>
-      <c r="G31" s="157"/>
-      <c r="H31" s="157"/>
-      <c r="I31" s="165">
+      <c r="D31" s="136"/>
+      <c r="E31" s="136"/>
+      <c r="F31" s="136"/>
+      <c r="G31" s="136"/>
+      <c r="H31" s="136"/>
+      <c r="I31" s="138">
         <v>32</v>
       </c>
-      <c r="J31" s="139">
+      <c r="J31" s="134">
         <v>45793</v>
       </c>
-      <c r="K31" s="139">
+      <c r="K31" s="134">
         <v>45798</v>
       </c>
-      <c r="L31" s="166"/>
+      <c r="L31" s="161"/>
       <c r="M31" s="100"/>
       <c r="N31" s="100"/>
       <c r="O31" s="101"/>
@@ -8358,7 +8358,7 @@
     <row r="32" spans="1:127" ht="12" customHeight="1">
       <c r="A32" s="26"/>
       <c r="B32" s="99"/>
-      <c r="C32" s="158"/>
+      <c r="C32" s="137"/>
       <c r="D32" s="124"/>
       <c r="E32" s="124"/>
       <c r="F32" s="124"/>
@@ -8488,23 +8488,23 @@
       <c r="A33" s="26"/>
       <c r="B33" s="99"/>
       <c r="C33" s="104"/>
-      <c r="D33" s="137" t="s">
+      <c r="D33" s="149" t="s">
         <v>105</v>
       </c>
       <c r="E33" s="121"/>
       <c r="F33" s="121"/>
       <c r="G33" s="121"/>
       <c r="H33" s="122"/>
-      <c r="I33" s="138">
+      <c r="I33" s="141">
         <v>8</v>
       </c>
-      <c r="J33" s="139">
+      <c r="J33" s="134">
         <v>45793</v>
       </c>
-      <c r="K33" s="139">
+      <c r="K33" s="134">
         <v>45793</v>
       </c>
-      <c r="L33" s="166"/>
+      <c r="L33" s="161"/>
       <c r="M33" s="100"/>
       <c r="N33" s="100"/>
       <c r="O33" s="101"/>
@@ -8755,28 +8755,28 @@
       <c r="B35" s="99"/>
       <c r="C35" s="26"/>
       <c r="D35" s="106"/>
-      <c r="E35" s="141" t="s">
+      <c r="E35" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="F35" s="142"/>
-      <c r="G35" s="142"/>
-      <c r="H35" s="142"/>
-      <c r="I35" s="132">
+      <c r="F35" s="143"/>
+      <c r="G35" s="143"/>
+      <c r="H35" s="143"/>
+      <c r="I35" s="133">
         <v>1</v>
       </c>
-      <c r="J35" s="133">
+      <c r="J35" s="131">
         <v>45793</v>
       </c>
-      <c r="K35" s="133">
+      <c r="K35" s="131">
         <v>45793</v>
       </c>
-      <c r="L35" s="150" t="s">
+      <c r="L35" s="164" t="s">
         <v>101</v>
       </c>
-      <c r="M35" s="151"/>
-      <c r="N35" s="152"/>
-      <c r="O35" s="153"/>
-      <c r="P35" s="148"/>
+      <c r="M35" s="165"/>
+      <c r="N35" s="162"/>
+      <c r="O35" s="163"/>
+      <c r="P35" s="147"/>
       <c r="Q35" s="55"/>
       <c r="R35" s="56"/>
       <c r="S35" s="56"/>
@@ -8901,11 +8901,11 @@
       <c r="I36" s="130"/>
       <c r="J36" s="130"/>
       <c r="K36" s="130"/>
-      <c r="L36" s="135"/>
-      <c r="M36" s="149"/>
-      <c r="N36" s="149"/>
-      <c r="O36" s="149"/>
-      <c r="P36" s="149"/>
+      <c r="L36" s="140"/>
+      <c r="M36" s="148"/>
+      <c r="N36" s="148"/>
+      <c r="O36" s="148"/>
+      <c r="P36" s="148"/>
       <c r="Q36" s="55"/>
       <c r="R36" s="56"/>
       <c r="S36" s="56"/>
@@ -9023,32 +9023,32 @@
       <c r="B37" s="99"/>
       <c r="C37" s="26"/>
       <c r="D37" s="99"/>
-      <c r="E37" s="170" t="s">
+      <c r="E37" s="167" t="s">
         <v>106</v>
       </c>
-      <c r="F37" s="142"/>
-      <c r="G37" s="142"/>
-      <c r="H37" s="142"/>
-      <c r="I37" s="132">
+      <c r="F37" s="143"/>
+      <c r="G37" s="143"/>
+      <c r="H37" s="143"/>
+      <c r="I37" s="133">
         <v>4</v>
       </c>
-      <c r="J37" s="133">
+      <c r="J37" s="131">
         <v>45793</v>
       </c>
-      <c r="K37" s="133">
+      <c r="K37" s="131">
         <v>45793</v>
       </c>
-      <c r="L37" s="134">
+      <c r="L37" s="144">
         <v>4</v>
       </c>
-      <c r="M37" s="133">
+      <c r="M37" s="131">
         <v>45793</v>
       </c>
-      <c r="N37" s="133"/>
-      <c r="O37" s="136" t="s">
+      <c r="N37" s="131"/>
+      <c r="O37" s="182" t="s">
         <v>100</v>
       </c>
-      <c r="P37" s="132">
+      <c r="P37" s="133">
         <v>80</v>
       </c>
       <c r="Q37" s="55"/>
@@ -9175,7 +9175,7 @@
       <c r="I38" s="130"/>
       <c r="J38" s="130"/>
       <c r="K38" s="130"/>
-      <c r="L38" s="135"/>
+      <c r="L38" s="140"/>
       <c r="M38" s="130"/>
       <c r="N38" s="130"/>
       <c r="O38" s="130"/>
@@ -9297,32 +9297,32 @@
       <c r="B39" s="99"/>
       <c r="C39" s="26"/>
       <c r="D39" s="99"/>
-      <c r="E39" s="131" t="s">
+      <c r="E39" s="166" t="s">
         <v>103</v>
       </c>
       <c r="F39" s="121"/>
       <c r="G39" s="121"/>
       <c r="H39" s="122"/>
-      <c r="I39" s="132">
+      <c r="I39" s="133">
         <v>3</v>
       </c>
-      <c r="J39" s="133">
+      <c r="J39" s="131">
         <v>45793</v>
       </c>
-      <c r="K39" s="133">
+      <c r="K39" s="131">
         <v>45793</v>
       </c>
-      <c r="L39" s="134">
+      <c r="L39" s="144">
         <v>2</v>
       </c>
-      <c r="M39" s="133">
+      <c r="M39" s="131">
         <v>45793</v>
       </c>
-      <c r="N39" s="133"/>
-      <c r="O39" s="136" t="s">
+      <c r="N39" s="131"/>
+      <c r="O39" s="182" t="s">
         <v>100</v>
       </c>
-      <c r="P39" s="132">
+      <c r="P39" s="133">
         <v>50</v>
       </c>
       <c r="Q39" s="55"/>
@@ -9449,7 +9449,7 @@
       <c r="I40" s="130"/>
       <c r="J40" s="130"/>
       <c r="K40" s="130"/>
-      <c r="L40" s="135"/>
+      <c r="L40" s="140"/>
       <c r="M40" s="130"/>
       <c r="N40" s="130"/>
       <c r="O40" s="130"/>
@@ -9571,32 +9571,32 @@
       <c r="B41" s="110"/>
       <c r="C41" s="116"/>
       <c r="D41" s="110"/>
-      <c r="E41" s="131" t="s">
+      <c r="E41" s="166" t="s">
         <v>104</v>
       </c>
       <c r="F41" s="121"/>
       <c r="G41" s="121"/>
       <c r="H41" s="122"/>
-      <c r="I41" s="132">
+      <c r="I41" s="133">
         <v>4</v>
       </c>
-      <c r="J41" s="133">
+      <c r="J41" s="131">
         <v>45793</v>
       </c>
-      <c r="K41" s="133">
+      <c r="K41" s="131">
         <v>45793</v>
       </c>
-      <c r="L41" s="134">
+      <c r="L41" s="144">
         <v>2</v>
       </c>
-      <c r="M41" s="133">
+      <c r="M41" s="131">
         <v>45793</v>
       </c>
-      <c r="N41" s="133"/>
-      <c r="O41" s="136" t="s">
+      <c r="N41" s="131"/>
+      <c r="O41" s="182" t="s">
         <v>100</v>
       </c>
-      <c r="P41" s="132">
+      <c r="P41" s="133">
         <v>50</v>
       </c>
       <c r="Q41" s="55"/>
@@ -9723,7 +9723,7 @@
       <c r="I42" s="130"/>
       <c r="J42" s="130"/>
       <c r="K42" s="130"/>
-      <c r="L42" s="135"/>
+      <c r="L42" s="140"/>
       <c r="M42" s="130"/>
       <c r="N42" s="130"/>
       <c r="O42" s="130"/>
@@ -9844,23 +9844,23 @@
       <c r="A43" s="116"/>
       <c r="B43" s="110"/>
       <c r="C43" s="116"/>
-      <c r="D43" s="137" t="s">
+      <c r="D43" s="149" t="s">
         <v>91</v>
       </c>
-      <c r="E43" s="172"/>
-      <c r="F43" s="172"/>
-      <c r="G43" s="172"/>
-      <c r="H43" s="173"/>
-      <c r="I43" s="177">
+      <c r="E43" s="150"/>
+      <c r="F43" s="150"/>
+      <c r="G43" s="150"/>
+      <c r="H43" s="151"/>
+      <c r="I43" s="155">
         <v>16</v>
       </c>
-      <c r="J43" s="179">
+      <c r="J43" s="157">
         <v>45796</v>
       </c>
-      <c r="K43" s="179">
+      <c r="K43" s="157">
         <v>45797</v>
       </c>
-      <c r="L43" s="181"/>
+      <c r="L43" s="159"/>
       <c r="M43" s="100"/>
       <c r="N43" s="100"/>
       <c r="O43" s="101"/>
@@ -9981,15 +9981,15 @@
       <c r="A44" s="116"/>
       <c r="B44" s="110"/>
       <c r="C44" s="116"/>
-      <c r="D44" s="174"/>
-      <c r="E44" s="175"/>
-      <c r="F44" s="175"/>
-      <c r="G44" s="175"/>
-      <c r="H44" s="176"/>
-      <c r="I44" s="178"/>
-      <c r="J44" s="180"/>
-      <c r="K44" s="180"/>
-      <c r="L44" s="182"/>
+      <c r="D44" s="152"/>
+      <c r="E44" s="153"/>
+      <c r="F44" s="153"/>
+      <c r="G44" s="153"/>
+      <c r="H44" s="154"/>
+      <c r="I44" s="156"/>
+      <c r="J44" s="158"/>
+      <c r="K44" s="158"/>
+      <c r="L44" s="160"/>
       <c r="M44" s="102"/>
       <c r="N44" s="102"/>
       <c r="O44" s="103"/>
@@ -10111,28 +10111,28 @@
       <c r="B45" s="99"/>
       <c r="C45" s="26"/>
       <c r="D45" s="106"/>
-      <c r="E45" s="141" t="s">
+      <c r="E45" s="142" t="s">
         <v>92</v>
       </c>
-      <c r="F45" s="142"/>
-      <c r="G45" s="142"/>
-      <c r="H45" s="142"/>
-      <c r="I45" s="132">
+      <c r="F45" s="143"/>
+      <c r="G45" s="143"/>
+      <c r="H45" s="143"/>
+      <c r="I45" s="133">
         <v>2</v>
       </c>
-      <c r="J45" s="133">
+      <c r="J45" s="131">
         <v>45796</v>
       </c>
-      <c r="K45" s="133">
+      <c r="K45" s="131">
         <v>45796</v>
       </c>
-      <c r="L45" s="150" t="s">
+      <c r="L45" s="164" t="s">
         <v>102</v>
       </c>
-      <c r="M45" s="151"/>
-      <c r="N45" s="152"/>
-      <c r="O45" s="153"/>
-      <c r="P45" s="148"/>
+      <c r="M45" s="165"/>
+      <c r="N45" s="162"/>
+      <c r="O45" s="163"/>
+      <c r="P45" s="147"/>
       <c r="Q45" s="55"/>
       <c r="R45" s="56"/>
       <c r="S45" s="56"/>
@@ -10257,11 +10257,11 @@
       <c r="I46" s="130"/>
       <c r="J46" s="130"/>
       <c r="K46" s="130"/>
-      <c r="L46" s="135"/>
-      <c r="M46" s="149"/>
-      <c r="N46" s="149"/>
-      <c r="O46" s="149"/>
-      <c r="P46" s="149"/>
+      <c r="L46" s="140"/>
+      <c r="M46" s="148"/>
+      <c r="N46" s="148"/>
+      <c r="O46" s="148"/>
+      <c r="P46" s="148"/>
       <c r="Q46" s="55"/>
       <c r="R46" s="56"/>
       <c r="S46" s="56"/>
@@ -10379,26 +10379,26 @@
       <c r="B47" s="99"/>
       <c r="C47" s="26"/>
       <c r="D47" s="99"/>
-      <c r="E47" s="141" t="s">
+      <c r="E47" s="142" t="s">
         <v>107</v>
       </c>
-      <c r="F47" s="142"/>
-      <c r="G47" s="142"/>
-      <c r="H47" s="142"/>
-      <c r="I47" s="132">
+      <c r="F47" s="143"/>
+      <c r="G47" s="143"/>
+      <c r="H47" s="143"/>
+      <c r="I47" s="133">
         <v>14</v>
       </c>
-      <c r="J47" s="133">
+      <c r="J47" s="131">
         <v>45796</v>
       </c>
-      <c r="K47" s="145">
+      <c r="K47" s="146">
         <v>45797</v>
       </c>
-      <c r="L47" s="134"/>
-      <c r="M47" s="133"/>
-      <c r="N47" s="133"/>
-      <c r="O47" s="143"/>
-      <c r="P47" s="132">
+      <c r="L47" s="144"/>
+      <c r="M47" s="131"/>
+      <c r="N47" s="131"/>
+      <c r="O47" s="132"/>
+      <c r="P47" s="133">
         <v>0</v>
       </c>
       <c r="Q47" s="55"/>
@@ -10525,7 +10525,7 @@
       <c r="I48" s="130"/>
       <c r="J48" s="130"/>
       <c r="K48" s="125"/>
-      <c r="L48" s="135"/>
+      <c r="L48" s="140"/>
       <c r="M48" s="130"/>
       <c r="N48" s="130"/>
       <c r="O48" s="130"/>
@@ -10647,18 +10647,18 @@
       <c r="B49" s="99"/>
       <c r="C49" s="26"/>
       <c r="D49" s="99"/>
-      <c r="E49" s="144"/>
+      <c r="E49" s="145"/>
       <c r="F49" s="121"/>
       <c r="G49" s="121"/>
       <c r="H49" s="122"/>
-      <c r="I49" s="132"/>
-      <c r="J49" s="133"/>
-      <c r="K49" s="133"/>
-      <c r="L49" s="134"/>
-      <c r="M49" s="133"/>
-      <c r="N49" s="133"/>
-      <c r="O49" s="143"/>
-      <c r="P49" s="132">
+      <c r="I49" s="133"/>
+      <c r="J49" s="131"/>
+      <c r="K49" s="131"/>
+      <c r="L49" s="144"/>
+      <c r="M49" s="131"/>
+      <c r="N49" s="131"/>
+      <c r="O49" s="132"/>
+      <c r="P49" s="133">
         <v>0</v>
       </c>
       <c r="Q49" s="55"/>
@@ -10785,7 +10785,7 @@
       <c r="I50" s="130"/>
       <c r="J50" s="130"/>
       <c r="K50" s="130"/>
-      <c r="L50" s="135"/>
+      <c r="L50" s="140"/>
       <c r="M50" s="130"/>
       <c r="N50" s="130"/>
       <c r="O50" s="130"/>
@@ -10906,23 +10906,23 @@
       <c r="A51" s="26"/>
       <c r="B51" s="99"/>
       <c r="C51" s="108"/>
-      <c r="D51" s="137" t="s">
+      <c r="D51" s="149" t="s">
         <v>93</v>
       </c>
       <c r="E51" s="121"/>
       <c r="F51" s="121"/>
       <c r="G51" s="121"/>
       <c r="H51" s="122"/>
-      <c r="I51" s="138">
+      <c r="I51" s="141">
         <v>6</v>
       </c>
-      <c r="J51" s="139">
+      <c r="J51" s="134">
         <v>45798</v>
       </c>
-      <c r="K51" s="139">
+      <c r="K51" s="134">
         <v>45798</v>
       </c>
-      <c r="L51" s="140"/>
+      <c r="L51" s="139"/>
       <c r="M51" s="100"/>
       <c r="N51" s="100"/>
       <c r="O51" s="101"/>
@@ -11051,7 +11051,7 @@
       <c r="I52" s="125"/>
       <c r="J52" s="125"/>
       <c r="K52" s="125"/>
-      <c r="L52" s="135"/>
+      <c r="L52" s="140"/>
       <c r="M52" s="102"/>
       <c r="N52" s="102"/>
       <c r="O52" s="103"/>
@@ -11173,26 +11173,26 @@
       <c r="B53" s="99"/>
       <c r="C53" s="108"/>
       <c r="D53" s="109"/>
-      <c r="E53" s="141" t="s">
+      <c r="E53" s="142" t="s">
         <v>93</v>
       </c>
-      <c r="F53" s="142"/>
-      <c r="G53" s="142"/>
-      <c r="H53" s="142"/>
-      <c r="I53" s="132">
+      <c r="F53" s="143"/>
+      <c r="G53" s="143"/>
+      <c r="H53" s="143"/>
+      <c r="I53" s="133">
         <v>3</v>
       </c>
-      <c r="J53" s="133">
+      <c r="J53" s="131">
         <v>45798</v>
       </c>
-      <c r="K53" s="133">
+      <c r="K53" s="131">
         <v>45798</v>
       </c>
-      <c r="L53" s="134"/>
-      <c r="M53" s="133"/>
-      <c r="N53" s="133"/>
-      <c r="O53" s="143"/>
-      <c r="P53" s="132">
+      <c r="L53" s="144"/>
+      <c r="M53" s="131"/>
+      <c r="N53" s="131"/>
+      <c r="O53" s="132"/>
+      <c r="P53" s="133">
         <v>0</v>
       </c>
       <c r="Q53" s="55"/>
@@ -11319,7 +11319,7 @@
       <c r="I54" s="130"/>
       <c r="J54" s="130"/>
       <c r="K54" s="130"/>
-      <c r="L54" s="135"/>
+      <c r="L54" s="140"/>
       <c r="M54" s="130"/>
       <c r="N54" s="130"/>
       <c r="O54" s="130"/>
@@ -11441,26 +11441,26 @@
       <c r="B55" s="99"/>
       <c r="C55" s="108"/>
       <c r="D55" s="110"/>
-      <c r="E55" s="141" t="s">
+      <c r="E55" s="142" t="s">
         <v>94</v>
       </c>
-      <c r="F55" s="142"/>
-      <c r="G55" s="142"/>
-      <c r="H55" s="142"/>
-      <c r="I55" s="132">
+      <c r="F55" s="143"/>
+      <c r="G55" s="143"/>
+      <c r="H55" s="143"/>
+      <c r="I55" s="133">
         <v>3</v>
       </c>
-      <c r="J55" s="133">
+      <c r="J55" s="131">
         <v>45798</v>
       </c>
-      <c r="K55" s="133">
+      <c r="K55" s="131">
         <v>45798</v>
       </c>
-      <c r="L55" s="134"/>
-      <c r="M55" s="133"/>
-      <c r="N55" s="133"/>
-      <c r="O55" s="143"/>
-      <c r="P55" s="132">
+      <c r="L55" s="144"/>
+      <c r="M55" s="131"/>
+      <c r="N55" s="131"/>
+      <c r="O55" s="132"/>
+      <c r="P55" s="133">
         <v>0</v>
       </c>
       <c r="Q55" s="55"/>
@@ -11587,7 +11587,7 @@
       <c r="I56" s="130"/>
       <c r="J56" s="130"/>
       <c r="K56" s="130"/>
-      <c r="L56" s="135"/>
+      <c r="L56" s="140"/>
       <c r="M56" s="130"/>
       <c r="N56" s="130"/>
       <c r="O56" s="130"/>
@@ -11709,18 +11709,18 @@
       <c r="B57" s="99"/>
       <c r="C57" s="108"/>
       <c r="D57" s="110"/>
-      <c r="E57" s="144"/>
+      <c r="E57" s="145"/>
       <c r="F57" s="121"/>
       <c r="G57" s="121"/>
       <c r="H57" s="122"/>
-      <c r="I57" s="132"/>
-      <c r="J57" s="133"/>
-      <c r="K57" s="133"/>
-      <c r="L57" s="134"/>
-      <c r="M57" s="133"/>
-      <c r="N57" s="133"/>
-      <c r="O57" s="143"/>
-      <c r="P57" s="132">
+      <c r="I57" s="133"/>
+      <c r="J57" s="131"/>
+      <c r="K57" s="131"/>
+      <c r="L57" s="144"/>
+      <c r="M57" s="131"/>
+      <c r="N57" s="131"/>
+      <c r="O57" s="132"/>
+      <c r="P57" s="133">
         <v>0</v>
       </c>
       <c r="Q57" s="55"/>
@@ -11847,7 +11847,7 @@
       <c r="I58" s="130"/>
       <c r="J58" s="130"/>
       <c r="K58" s="130"/>
-      <c r="L58" s="135"/>
+      <c r="L58" s="140"/>
       <c r="M58" s="130"/>
       <c r="N58" s="130"/>
       <c r="O58" s="130"/>
@@ -11967,24 +11967,24 @@
     <row r="59" spans="1:127" ht="12" customHeight="1">
       <c r="A59" s="26"/>
       <c r="B59" s="99"/>
-      <c r="C59" s="171" t="s">
+      <c r="C59" s="135" t="s">
         <v>95</v>
       </c>
-      <c r="D59" s="157"/>
-      <c r="E59" s="157"/>
-      <c r="F59" s="157"/>
-      <c r="G59" s="157"/>
-      <c r="H59" s="157"/>
-      <c r="I59" s="165">
+      <c r="D59" s="136"/>
+      <c r="E59" s="136"/>
+      <c r="F59" s="136"/>
+      <c r="G59" s="136"/>
+      <c r="H59" s="136"/>
+      <c r="I59" s="138">
         <v>72</v>
       </c>
-      <c r="J59" s="139">
+      <c r="J59" s="134">
         <v>45799</v>
       </c>
-      <c r="K59" s="139">
+      <c r="K59" s="134">
         <v>45808</v>
       </c>
-      <c r="L59" s="140"/>
+      <c r="L59" s="139"/>
       <c r="M59" s="100"/>
       <c r="N59" s="100"/>
       <c r="O59" s="101"/>
@@ -12104,7 +12104,7 @@
     <row r="60" spans="1:127" ht="12" customHeight="1">
       <c r="A60" s="26"/>
       <c r="B60" s="99"/>
-      <c r="C60" s="158"/>
+      <c r="C60" s="137"/>
       <c r="D60" s="124"/>
       <c r="E60" s="124"/>
       <c r="F60" s="124"/>
@@ -12113,7 +12113,7 @@
       <c r="I60" s="130"/>
       <c r="J60" s="125"/>
       <c r="K60" s="125"/>
-      <c r="L60" s="135"/>
+      <c r="L60" s="140"/>
       <c r="M60" s="102"/>
       <c r="N60" s="102"/>
       <c r="O60" s="103"/>
@@ -12234,23 +12234,23 @@
       <c r="A61" s="26"/>
       <c r="B61" s="99"/>
       <c r="C61" s="113"/>
-      <c r="D61" s="137" t="s">
+      <c r="D61" s="149" t="s">
         <v>87</v>
       </c>
       <c r="E61" s="121"/>
       <c r="F61" s="121"/>
       <c r="G61" s="121"/>
       <c r="H61" s="122"/>
-      <c r="I61" s="138">
+      <c r="I61" s="141">
         <v>12</v>
       </c>
-      <c r="J61" s="139">
+      <c r="J61" s="134">
         <v>45799</v>
       </c>
-      <c r="K61" s="139">
+      <c r="K61" s="134">
         <v>45800</v>
       </c>
-      <c r="L61" s="140"/>
+      <c r="L61" s="139"/>
       <c r="M61" s="100"/>
       <c r="N61" s="100"/>
       <c r="O61" s="101"/>
@@ -12379,7 +12379,7 @@
       <c r="I62" s="125"/>
       <c r="J62" s="125"/>
       <c r="K62" s="125"/>
-      <c r="L62" s="135"/>
+      <c r="L62" s="140"/>
       <c r="M62" s="102"/>
       <c r="N62" s="102"/>
       <c r="O62" s="103"/>
@@ -12501,26 +12501,26 @@
       <c r="B63" s="99"/>
       <c r="C63" s="108"/>
       <c r="D63" s="109"/>
-      <c r="E63" s="141" t="s">
+      <c r="E63" s="142" t="s">
         <v>89</v>
       </c>
-      <c r="F63" s="142"/>
-      <c r="G63" s="142"/>
-      <c r="H63" s="142"/>
-      <c r="I63" s="132">
+      <c r="F63" s="143"/>
+      <c r="G63" s="143"/>
+      <c r="H63" s="143"/>
+      <c r="I63" s="133">
         <v>8</v>
       </c>
-      <c r="J63" s="133">
+      <c r="J63" s="131">
         <v>45799</v>
       </c>
-      <c r="K63" s="133">
+      <c r="K63" s="131">
         <v>45799</v>
       </c>
-      <c r="L63" s="134"/>
-      <c r="M63" s="133"/>
-      <c r="N63" s="133"/>
-      <c r="O63" s="143"/>
-      <c r="P63" s="132">
+      <c r="L63" s="144"/>
+      <c r="M63" s="131"/>
+      <c r="N63" s="131"/>
+      <c r="O63" s="132"/>
+      <c r="P63" s="133">
         <v>0</v>
       </c>
       <c r="Q63" s="55"/>
@@ -12647,7 +12647,7 @@
       <c r="I64" s="130"/>
       <c r="J64" s="130"/>
       <c r="K64" s="130"/>
-      <c r="L64" s="135"/>
+      <c r="L64" s="140"/>
       <c r="M64" s="130"/>
       <c r="N64" s="130"/>
       <c r="O64" s="130"/>
@@ -12769,26 +12769,26 @@
       <c r="B65" s="99"/>
       <c r="C65" s="108"/>
       <c r="D65" s="110"/>
-      <c r="E65" s="141" t="s">
+      <c r="E65" s="142" t="s">
         <v>90</v>
       </c>
-      <c r="F65" s="142"/>
-      <c r="G65" s="142"/>
-      <c r="H65" s="142"/>
-      <c r="I65" s="132">
+      <c r="F65" s="143"/>
+      <c r="G65" s="143"/>
+      <c r="H65" s="143"/>
+      <c r="I65" s="133">
         <v>4</v>
       </c>
-      <c r="J65" s="133">
+      <c r="J65" s="131">
         <v>45800</v>
       </c>
-      <c r="K65" s="133">
+      <c r="K65" s="131">
         <v>45800</v>
       </c>
-      <c r="L65" s="134"/>
-      <c r="M65" s="133"/>
-      <c r="N65" s="133"/>
-      <c r="O65" s="143"/>
-      <c r="P65" s="132">
+      <c r="L65" s="144"/>
+      <c r="M65" s="131"/>
+      <c r="N65" s="131"/>
+      <c r="O65" s="132"/>
+      <c r="P65" s="133">
         <v>0</v>
       </c>
       <c r="Q65" s="55"/>
@@ -12915,7 +12915,7 @@
       <c r="I66" s="130"/>
       <c r="J66" s="130"/>
       <c r="K66" s="130"/>
-      <c r="L66" s="135"/>
+      <c r="L66" s="140"/>
       <c r="M66" s="130"/>
       <c r="N66" s="130"/>
       <c r="O66" s="130"/>
@@ -13037,18 +13037,18 @@
       <c r="B67" s="99"/>
       <c r="C67" s="108"/>
       <c r="D67" s="110"/>
-      <c r="E67" s="144"/>
+      <c r="E67" s="145"/>
       <c r="F67" s="121"/>
       <c r="G67" s="121"/>
       <c r="H67" s="122"/>
-      <c r="I67" s="132"/>
-      <c r="J67" s="133"/>
-      <c r="K67" s="133"/>
-      <c r="L67" s="134"/>
-      <c r="M67" s="133"/>
-      <c r="N67" s="133"/>
-      <c r="O67" s="143"/>
-      <c r="P67" s="132">
+      <c r="I67" s="133"/>
+      <c r="J67" s="131"/>
+      <c r="K67" s="131"/>
+      <c r="L67" s="144"/>
+      <c r="M67" s="131"/>
+      <c r="N67" s="131"/>
+      <c r="O67" s="132"/>
+      <c r="P67" s="133">
         <v>0</v>
       </c>
       <c r="Q67" s="55"/>
@@ -13175,7 +13175,7 @@
       <c r="I68" s="130"/>
       <c r="J68" s="130"/>
       <c r="K68" s="130"/>
-      <c r="L68" s="135"/>
+      <c r="L68" s="140"/>
       <c r="M68" s="130"/>
       <c r="N68" s="130"/>
       <c r="O68" s="130"/>
@@ -13296,23 +13296,23 @@
       <c r="A69" s="26"/>
       <c r="B69" s="99"/>
       <c r="C69" s="108"/>
-      <c r="D69" s="137" t="s">
+      <c r="D69" s="149" t="s">
         <v>91</v>
       </c>
       <c r="E69" s="121"/>
       <c r="F69" s="121"/>
       <c r="G69" s="121"/>
       <c r="H69" s="122"/>
-      <c r="I69" s="138">
+      <c r="I69" s="141">
         <v>52</v>
       </c>
-      <c r="J69" s="139">
+      <c r="J69" s="134">
         <v>45803</v>
       </c>
-      <c r="K69" s="139">
+      <c r="K69" s="134">
         <v>45811</v>
       </c>
-      <c r="L69" s="140"/>
+      <c r="L69" s="139"/>
       <c r="M69" s="100"/>
       <c r="N69" s="100"/>
       <c r="O69" s="101"/>
@@ -13441,7 +13441,7 @@
       <c r="I70" s="125"/>
       <c r="J70" s="125"/>
       <c r="K70" s="125"/>
-      <c r="L70" s="135"/>
+      <c r="L70" s="140"/>
       <c r="M70" s="102"/>
       <c r="N70" s="102"/>
       <c r="O70" s="103"/>
@@ -13563,26 +13563,26 @@
       <c r="B71" s="99"/>
       <c r="C71" s="108"/>
       <c r="D71" s="109"/>
-      <c r="E71" s="141" t="s">
+      <c r="E71" s="142" t="s">
         <v>96</v>
       </c>
-      <c r="F71" s="142"/>
-      <c r="G71" s="142"/>
-      <c r="H71" s="142"/>
-      <c r="I71" s="132">
+      <c r="F71" s="143"/>
+      <c r="G71" s="143"/>
+      <c r="H71" s="143"/>
+      <c r="I71" s="133">
         <v>26</v>
       </c>
-      <c r="J71" s="145">
+      <c r="J71" s="146">
         <v>45803</v>
       </c>
-      <c r="K71" s="133">
+      <c r="K71" s="131">
         <v>45806</v>
       </c>
-      <c r="L71" s="134"/>
-      <c r="M71" s="133"/>
-      <c r="N71" s="133"/>
-      <c r="O71" s="143"/>
-      <c r="P71" s="132">
+      <c r="L71" s="144"/>
+      <c r="M71" s="131"/>
+      <c r="N71" s="131"/>
+      <c r="O71" s="132"/>
+      <c r="P71" s="133">
         <v>0</v>
       </c>
       <c r="Q71" s="55"/>
@@ -13709,7 +13709,7 @@
       <c r="I72" s="130"/>
       <c r="J72" s="125"/>
       <c r="K72" s="130"/>
-      <c r="L72" s="135"/>
+      <c r="L72" s="140"/>
       <c r="M72" s="130"/>
       <c r="N72" s="130"/>
       <c r="O72" s="130"/>
@@ -13831,26 +13831,26 @@
       <c r="B73" s="99"/>
       <c r="C73" s="108"/>
       <c r="D73" s="110"/>
-      <c r="E73" s="141" t="s">
+      <c r="E73" s="142" t="s">
         <v>97</v>
       </c>
-      <c r="F73" s="142"/>
-      <c r="G73" s="142"/>
-      <c r="H73" s="142"/>
-      <c r="I73" s="132">
+      <c r="F73" s="143"/>
+      <c r="G73" s="143"/>
+      <c r="H73" s="143"/>
+      <c r="I73" s="133">
         <v>18</v>
       </c>
-      <c r="J73" s="133">
+      <c r="J73" s="131">
         <v>45806</v>
       </c>
-      <c r="K73" s="133">
+      <c r="K73" s="131">
         <v>45810</v>
       </c>
-      <c r="L73" s="134"/>
-      <c r="M73" s="133"/>
-      <c r="N73" s="133"/>
-      <c r="O73" s="143"/>
-      <c r="P73" s="132">
+      <c r="L73" s="144"/>
+      <c r="M73" s="131"/>
+      <c r="N73" s="131"/>
+      <c r="O73" s="132"/>
+      <c r="P73" s="133">
         <v>0</v>
       </c>
       <c r="Q73" s="55"/>
@@ -13977,7 +13977,7 @@
       <c r="I74" s="130"/>
       <c r="J74" s="130"/>
       <c r="K74" s="130"/>
-      <c r="L74" s="135"/>
+      <c r="L74" s="140"/>
       <c r="M74" s="130"/>
       <c r="N74" s="130"/>
       <c r="O74" s="130"/>
@@ -14099,26 +14099,26 @@
       <c r="B75" s="99"/>
       <c r="C75" s="108"/>
       <c r="D75" s="110"/>
-      <c r="E75" s="144" t="s">
+      <c r="E75" s="145" t="s">
         <v>98</v>
       </c>
       <c r="F75" s="121"/>
       <c r="G75" s="121"/>
       <c r="H75" s="122"/>
-      <c r="I75" s="132">
+      <c r="I75" s="133">
         <v>8</v>
       </c>
-      <c r="J75" s="133">
+      <c r="J75" s="131">
         <v>45811</v>
       </c>
-      <c r="K75" s="133">
+      <c r="K75" s="131">
         <v>45811</v>
       </c>
-      <c r="L75" s="134"/>
-      <c r="M75" s="133"/>
-      <c r="N75" s="133"/>
-      <c r="O75" s="143"/>
-      <c r="P75" s="132">
+      <c r="L75" s="144"/>
+      <c r="M75" s="131"/>
+      <c r="N75" s="131"/>
+      <c r="O75" s="132"/>
+      <c r="P75" s="133">
         <v>0</v>
       </c>
       <c r="Q75" s="55"/>
@@ -14245,7 +14245,7 @@
       <c r="I76" s="130"/>
       <c r="J76" s="130"/>
       <c r="K76" s="130"/>
-      <c r="L76" s="135"/>
+      <c r="L76" s="140"/>
       <c r="M76" s="130"/>
       <c r="N76" s="130"/>
       <c r="O76" s="130"/>
@@ -14366,23 +14366,23 @@
       <c r="A77" s="26"/>
       <c r="B77" s="99"/>
       <c r="C77" s="108"/>
-      <c r="D77" s="137" t="s">
+      <c r="D77" s="149" t="s">
         <v>93</v>
       </c>
       <c r="E77" s="121"/>
       <c r="F77" s="121"/>
       <c r="G77" s="121"/>
       <c r="H77" s="122"/>
-      <c r="I77" s="138">
+      <c r="I77" s="141">
         <v>8</v>
       </c>
-      <c r="J77" s="139">
+      <c r="J77" s="134">
         <v>45812</v>
       </c>
-      <c r="K77" s="139">
+      <c r="K77" s="134">
         <v>45812</v>
       </c>
-      <c r="L77" s="140"/>
+      <c r="L77" s="139"/>
       <c r="M77" s="100"/>
       <c r="N77" s="100"/>
       <c r="O77" s="101"/>
@@ -14511,7 +14511,7 @@
       <c r="I78" s="125"/>
       <c r="J78" s="125"/>
       <c r="K78" s="125"/>
-      <c r="L78" s="135"/>
+      <c r="L78" s="140"/>
       <c r="M78" s="102"/>
       <c r="N78" s="102"/>
       <c r="O78" s="103"/>
@@ -14633,26 +14633,26 @@
       <c r="B79" s="99"/>
       <c r="C79" s="26"/>
       <c r="D79" s="106"/>
-      <c r="E79" s="141" t="s">
+      <c r="E79" s="142" t="s">
         <v>93</v>
       </c>
-      <c r="F79" s="142"/>
-      <c r="G79" s="142"/>
-      <c r="H79" s="142"/>
-      <c r="I79" s="132">
+      <c r="F79" s="143"/>
+      <c r="G79" s="143"/>
+      <c r="H79" s="143"/>
+      <c r="I79" s="133">
         <v>4</v>
       </c>
-      <c r="J79" s="133">
+      <c r="J79" s="131">
         <v>45812</v>
       </c>
-      <c r="K79" s="133">
+      <c r="K79" s="131">
         <v>45812</v>
       </c>
-      <c r="L79" s="134"/>
-      <c r="M79" s="133"/>
-      <c r="N79" s="133"/>
-      <c r="O79" s="143"/>
-      <c r="P79" s="132">
+      <c r="L79" s="144"/>
+      <c r="M79" s="131"/>
+      <c r="N79" s="131"/>
+      <c r="O79" s="132"/>
+      <c r="P79" s="133">
         <v>0</v>
       </c>
       <c r="Q79" s="55"/>
@@ -14779,7 +14779,7 @@
       <c r="I80" s="130"/>
       <c r="J80" s="130"/>
       <c r="K80" s="130"/>
-      <c r="L80" s="135"/>
+      <c r="L80" s="140"/>
       <c r="M80" s="130"/>
       <c r="N80" s="130"/>
       <c r="O80" s="130"/>
@@ -14901,26 +14901,26 @@
       <c r="B81" s="99"/>
       <c r="C81" s="26"/>
       <c r="D81" s="99"/>
-      <c r="E81" s="141" t="s">
+      <c r="E81" s="142" t="s">
         <v>94</v>
       </c>
-      <c r="F81" s="142"/>
-      <c r="G81" s="142"/>
-      <c r="H81" s="142"/>
-      <c r="I81" s="132">
+      <c r="F81" s="143"/>
+      <c r="G81" s="143"/>
+      <c r="H81" s="143"/>
+      <c r="I81" s="133">
         <v>4</v>
       </c>
-      <c r="J81" s="133">
+      <c r="J81" s="131">
         <v>45812</v>
       </c>
-      <c r="K81" s="133">
+      <c r="K81" s="131">
         <v>45812</v>
       </c>
-      <c r="L81" s="134"/>
-      <c r="M81" s="133"/>
-      <c r="N81" s="133"/>
-      <c r="O81" s="143"/>
-      <c r="P81" s="132">
+      <c r="L81" s="144"/>
+      <c r="M81" s="131"/>
+      <c r="N81" s="131"/>
+      <c r="O81" s="132"/>
+      <c r="P81" s="133">
         <v>0</v>
       </c>
       <c r="Q81" s="55"/>
@@ -15047,7 +15047,7 @@
       <c r="I82" s="130"/>
       <c r="J82" s="130"/>
       <c r="K82" s="130"/>
-      <c r="L82" s="135"/>
+      <c r="L82" s="140"/>
       <c r="M82" s="130"/>
       <c r="N82" s="130"/>
       <c r="O82" s="130"/>
@@ -15169,18 +15169,18 @@
       <c r="B83" s="99"/>
       <c r="C83" s="26"/>
       <c r="D83" s="99"/>
-      <c r="E83" s="144"/>
+      <c r="E83" s="145"/>
       <c r="F83" s="121"/>
       <c r="G83" s="121"/>
       <c r="H83" s="122"/>
-      <c r="I83" s="132"/>
-      <c r="J83" s="133"/>
-      <c r="K83" s="133"/>
-      <c r="L83" s="134"/>
-      <c r="M83" s="133"/>
-      <c r="N83" s="133"/>
-      <c r="O83" s="143"/>
-      <c r="P83" s="132">
+      <c r="I83" s="133"/>
+      <c r="J83" s="131"/>
+      <c r="K83" s="131"/>
+      <c r="L83" s="144"/>
+      <c r="M83" s="131"/>
+      <c r="N83" s="131"/>
+      <c r="O83" s="132"/>
+      <c r="P83" s="133">
         <v>0</v>
       </c>
       <c r="Q83" s="55"/>
@@ -15307,7 +15307,7 @@
       <c r="I84" s="130"/>
       <c r="J84" s="130"/>
       <c r="K84" s="130"/>
-      <c r="L84" s="135"/>
+      <c r="L84" s="140"/>
       <c r="M84" s="130"/>
       <c r="N84" s="130"/>
       <c r="O84" s="130"/>
@@ -15426,178 +15426,119 @@
     </row>
   </sheetData>
   <mergeCells count="309">
-    <mergeCell ref="N53:N54"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="P53:P54"/>
-    <mergeCell ref="J61:J62"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="C59:H60"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="L61:L62"/>
-    <mergeCell ref="O55:O56"/>
-    <mergeCell ref="P55:P56"/>
-    <mergeCell ref="E55:H56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="L55:L56"/>
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="N55:N56"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="P49:P50"/>
-    <mergeCell ref="E49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="O47:O48"/>
-    <mergeCell ref="P47:P48"/>
-    <mergeCell ref="E47:H48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="N47:N48"/>
-    <mergeCell ref="P45:P46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="D43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="E45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="C31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="N35:N36"/>
-    <mergeCell ref="O35:O36"/>
-    <mergeCell ref="D33:H34"/>
-    <mergeCell ref="E35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="E39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="E37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="D27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="P29:P30"/>
-    <mergeCell ref="D29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="P25:P26"/>
-    <mergeCell ref="C23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="D25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="C19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="D21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="D15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="D17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="D11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="D13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="CZ4:DV4"/>
-    <mergeCell ref="B7:H8"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="C9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="E41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="P41:P42"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="J63:J64"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="L63:L64"/>
+    <mergeCell ref="M63:M64"/>
+    <mergeCell ref="D51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="E53:H54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="O67:O68"/>
+    <mergeCell ref="E67:H68"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="J67:J68"/>
+    <mergeCell ref="K67:K68"/>
+    <mergeCell ref="L67:L68"/>
+    <mergeCell ref="M67:M68"/>
+    <mergeCell ref="N67:N68"/>
+    <mergeCell ref="O65:O66"/>
+    <mergeCell ref="E65:H66"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="J65:J66"/>
+    <mergeCell ref="K65:K66"/>
+    <mergeCell ref="L65:L66"/>
+    <mergeCell ref="M65:M66"/>
+    <mergeCell ref="N65:N66"/>
+    <mergeCell ref="O75:O76"/>
+    <mergeCell ref="P75:P76"/>
+    <mergeCell ref="E75:H76"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="J75:J76"/>
+    <mergeCell ref="K75:K76"/>
+    <mergeCell ref="L75:L76"/>
+    <mergeCell ref="M75:M76"/>
+    <mergeCell ref="O57:O58"/>
+    <mergeCell ref="P57:P58"/>
+    <mergeCell ref="E57:H58"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="L57:L58"/>
+    <mergeCell ref="M57:M58"/>
+    <mergeCell ref="N57:N58"/>
+    <mergeCell ref="P67:P68"/>
+    <mergeCell ref="P65:P66"/>
+    <mergeCell ref="N63:N64"/>
+    <mergeCell ref="O63:O64"/>
+    <mergeCell ref="P63:P64"/>
+    <mergeCell ref="D61:H62"/>
+    <mergeCell ref="E63:H64"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="K79:K80"/>
+    <mergeCell ref="D77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="J77:J78"/>
+    <mergeCell ref="K77:K78"/>
+    <mergeCell ref="L77:L78"/>
+    <mergeCell ref="E79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="E81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="J81:J82"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="L81:L82"/>
+    <mergeCell ref="M81:M82"/>
+    <mergeCell ref="N81:N82"/>
+    <mergeCell ref="O83:O84"/>
+    <mergeCell ref="P83:P84"/>
+    <mergeCell ref="E83:H84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="J83:J84"/>
+    <mergeCell ref="K83:K84"/>
+    <mergeCell ref="L83:L84"/>
+    <mergeCell ref="M83:M84"/>
+    <mergeCell ref="N83:N84"/>
+    <mergeCell ref="D69:H70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="J69:J70"/>
+    <mergeCell ref="K69:K70"/>
+    <mergeCell ref="L69:L70"/>
+    <mergeCell ref="E71:H72"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="O73:O74"/>
+    <mergeCell ref="P73:P74"/>
+    <mergeCell ref="E73:H74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="J73:J74"/>
+    <mergeCell ref="K73:K74"/>
+    <mergeCell ref="L73:L74"/>
+    <mergeCell ref="M73:M74"/>
+    <mergeCell ref="N73:N74"/>
+    <mergeCell ref="L71:L72"/>
+    <mergeCell ref="M71:M72"/>
+    <mergeCell ref="N71:N72"/>
+    <mergeCell ref="O71:O72"/>
+    <mergeCell ref="P71:P72"/>
+    <mergeCell ref="J71:J72"/>
+    <mergeCell ref="K71:K72"/>
     <mergeCell ref="N75:N76"/>
     <mergeCell ref="L79:L80"/>
     <mergeCell ref="M79:M80"/>
@@ -15622,119 +15563,178 @@
     <mergeCell ref="M45:M46"/>
     <mergeCell ref="N45:N46"/>
     <mergeCell ref="O45:O46"/>
-    <mergeCell ref="D69:H70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="J69:J70"/>
-    <mergeCell ref="K69:K70"/>
-    <mergeCell ref="L69:L70"/>
-    <mergeCell ref="E71:H72"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="O73:O74"/>
-    <mergeCell ref="P73:P74"/>
-    <mergeCell ref="E73:H74"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="J73:J74"/>
-    <mergeCell ref="K73:K74"/>
-    <mergeCell ref="L73:L74"/>
-    <mergeCell ref="M73:M74"/>
-    <mergeCell ref="N73:N74"/>
-    <mergeCell ref="L71:L72"/>
-    <mergeCell ref="M71:M72"/>
-    <mergeCell ref="N71:N72"/>
-    <mergeCell ref="O71:O72"/>
-    <mergeCell ref="P71:P72"/>
-    <mergeCell ref="J71:J72"/>
-    <mergeCell ref="K71:K72"/>
-    <mergeCell ref="O83:O84"/>
-    <mergeCell ref="P83:P84"/>
-    <mergeCell ref="E83:H84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="J83:J84"/>
-    <mergeCell ref="K83:K84"/>
-    <mergeCell ref="L83:L84"/>
-    <mergeCell ref="M83:M84"/>
-    <mergeCell ref="N83:N84"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="E81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="J81:J82"/>
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="L81:L82"/>
-    <mergeCell ref="M81:M82"/>
-    <mergeCell ref="N81:N82"/>
-    <mergeCell ref="J79:J80"/>
-    <mergeCell ref="K79:K80"/>
-    <mergeCell ref="D77:H78"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="J77:J78"/>
-    <mergeCell ref="K77:K78"/>
-    <mergeCell ref="L77:L78"/>
-    <mergeCell ref="E79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="O75:O76"/>
-    <mergeCell ref="P75:P76"/>
-    <mergeCell ref="E75:H76"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="J75:J76"/>
-    <mergeCell ref="K75:K76"/>
-    <mergeCell ref="L75:L76"/>
-    <mergeCell ref="M75:M76"/>
-    <mergeCell ref="O57:O58"/>
-    <mergeCell ref="P57:P58"/>
-    <mergeCell ref="E57:H58"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="L57:L58"/>
-    <mergeCell ref="M57:M58"/>
-    <mergeCell ref="N57:N58"/>
-    <mergeCell ref="P67:P68"/>
-    <mergeCell ref="P65:P66"/>
-    <mergeCell ref="N63:N64"/>
-    <mergeCell ref="O63:O64"/>
-    <mergeCell ref="P63:P64"/>
-    <mergeCell ref="D61:H62"/>
-    <mergeCell ref="E63:H64"/>
-    <mergeCell ref="O67:O68"/>
-    <mergeCell ref="E67:H68"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="J67:J68"/>
-    <mergeCell ref="K67:K68"/>
-    <mergeCell ref="L67:L68"/>
-    <mergeCell ref="M67:M68"/>
-    <mergeCell ref="N67:N68"/>
-    <mergeCell ref="O65:O66"/>
-    <mergeCell ref="E65:H66"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="J65:J66"/>
-    <mergeCell ref="K65:K66"/>
-    <mergeCell ref="L65:L66"/>
-    <mergeCell ref="M65:M66"/>
-    <mergeCell ref="N65:N66"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="J63:J64"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="L63:L64"/>
-    <mergeCell ref="M63:M64"/>
-    <mergeCell ref="D51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="E53:H54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="L53:L54"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="E41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="O41:O42"/>
-    <mergeCell ref="P41:P42"/>
+    <mergeCell ref="CZ4:DV4"/>
+    <mergeCell ref="B7:H8"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="C9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="D11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="D13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="D15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="D17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="C19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="D21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="C23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="D25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="D27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="P29:P30"/>
+    <mergeCell ref="D29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="E39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="E37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="C31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="N35:N36"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="D33:H34"/>
+    <mergeCell ref="E35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="P45:P46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="D43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="E45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="O47:O48"/>
+    <mergeCell ref="P47:P48"/>
+    <mergeCell ref="E47:H48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="N47:N48"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="P49:P50"/>
+    <mergeCell ref="E49:H50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="P53:P54"/>
+    <mergeCell ref="J61:J62"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="C59:H60"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="L61:L62"/>
+    <mergeCell ref="O55:O56"/>
+    <mergeCell ref="P55:P56"/>
+    <mergeCell ref="E55:H56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="N55:N56"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="K53:K54"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/DOJT｜WBS _ PGコース MVC編.xlsx
+++ b/docs/DOJT｜WBS _ PGコース MVC編.xlsx
@@ -32,7 +32,6 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -365,7 +364,7 @@
     <numFmt numFmtId="179" formatCode="dd"/>
     <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -448,13 +447,6 @@
       <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1256,10 +1248,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1286,51 +1274,40 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="56" fontId="5" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="5" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1339,12 +1316,27 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1586,35 +1578,35 @@
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="124" t="s">
+      <c r="B2" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="130" t="s">
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="131"/>
-      <c r="H2" s="132"/>
-      <c r="I2" s="130" t="s">
+      <c r="G2" s="127"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="131"/>
-      <c r="K2" s="132"/>
-      <c r="L2" s="133" t="s">
+      <c r="J2" s="127"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="133" t="s">
+      <c r="M2" s="129" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="20.25" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="127"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="129"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="125"/>
       <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1633,8 +1625,8 @@
       <c r="K3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="134"/>
-      <c r="M3" s="134"/>
+      <c r="L3" s="130"/>
+      <c r="M3" s="130"/>
     </row>
     <row r="4" spans="1:13" ht="20.25" customHeight="1">
       <c r="A4" s="3"/>
@@ -3428,7 +3420,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BE30" sqref="BE30"/>
+      <selection pane="bottomLeft" activeCell="AG22" sqref="AG22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3858,124 +3850,124 @@
       <c r="N4" s="27"/>
       <c r="O4" s="27"/>
       <c r="P4" s="27"/>
-      <c r="Q4" s="163" t="s">
+      <c r="Q4" s="142" t="s">
         <v>63</v>
       </c>
-      <c r="R4" s="131"/>
-      <c r="S4" s="131"/>
-      <c r="T4" s="131"/>
-      <c r="U4" s="131"/>
-      <c r="V4" s="131"/>
-      <c r="W4" s="131"/>
-      <c r="X4" s="131"/>
-      <c r="Y4" s="131"/>
-      <c r="Z4" s="131"/>
-      <c r="AA4" s="131"/>
-      <c r="AB4" s="131"/>
-      <c r="AC4" s="131"/>
-      <c r="AD4" s="131"/>
-      <c r="AE4" s="131"/>
-      <c r="AF4" s="131"/>
-      <c r="AG4" s="131"/>
-      <c r="AH4" s="131"/>
-      <c r="AI4" s="131"/>
-      <c r="AJ4" s="131"/>
-      <c r="AK4" s="131"/>
-      <c r="AL4" s="131"/>
-      <c r="AM4" s="131"/>
-      <c r="AN4" s="131"/>
-      <c r="AO4" s="131"/>
-      <c r="AP4" s="132"/>
-      <c r="AQ4" s="163" t="s">
+      <c r="R4" s="127"/>
+      <c r="S4" s="127"/>
+      <c r="T4" s="127"/>
+      <c r="U4" s="127"/>
+      <c r="V4" s="127"/>
+      <c r="W4" s="127"/>
+      <c r="X4" s="127"/>
+      <c r="Y4" s="127"/>
+      <c r="Z4" s="127"/>
+      <c r="AA4" s="127"/>
+      <c r="AB4" s="127"/>
+      <c r="AC4" s="127"/>
+      <c r="AD4" s="127"/>
+      <c r="AE4" s="127"/>
+      <c r="AF4" s="127"/>
+      <c r="AG4" s="127"/>
+      <c r="AH4" s="127"/>
+      <c r="AI4" s="127"/>
+      <c r="AJ4" s="127"/>
+      <c r="AK4" s="127"/>
+      <c r="AL4" s="127"/>
+      <c r="AM4" s="127"/>
+      <c r="AN4" s="127"/>
+      <c r="AO4" s="127"/>
+      <c r="AP4" s="128"/>
+      <c r="AQ4" s="142" t="s">
         <v>64</v>
       </c>
-      <c r="AR4" s="131"/>
-      <c r="AS4" s="131"/>
-      <c r="AT4" s="131"/>
-      <c r="AU4" s="131"/>
-      <c r="AV4" s="131"/>
-      <c r="AW4" s="131"/>
-      <c r="AX4" s="131"/>
-      <c r="AY4" s="131"/>
-      <c r="AZ4" s="131"/>
-      <c r="BA4" s="131"/>
-      <c r="BB4" s="131"/>
-      <c r="BC4" s="131"/>
-      <c r="BD4" s="131"/>
-      <c r="BE4" s="131"/>
-      <c r="BF4" s="131"/>
-      <c r="BG4" s="131"/>
-      <c r="BH4" s="131"/>
-      <c r="BI4" s="131"/>
-      <c r="BJ4" s="131"/>
-      <c r="BK4" s="131"/>
-      <c r="BL4" s="131"/>
-      <c r="BM4" s="131"/>
-      <c r="BN4" s="131"/>
-      <c r="BO4" s="131"/>
-      <c r="BP4" s="131"/>
-      <c r="BQ4" s="131"/>
-      <c r="BR4" s="131"/>
-      <c r="BS4" s="131"/>
-      <c r="BT4" s="131"/>
-      <c r="BU4" s="132"/>
-      <c r="BV4" s="163" t="s">
+      <c r="AR4" s="127"/>
+      <c r="AS4" s="127"/>
+      <c r="AT4" s="127"/>
+      <c r="AU4" s="127"/>
+      <c r="AV4" s="127"/>
+      <c r="AW4" s="127"/>
+      <c r="AX4" s="127"/>
+      <c r="AY4" s="127"/>
+      <c r="AZ4" s="127"/>
+      <c r="BA4" s="127"/>
+      <c r="BB4" s="127"/>
+      <c r="BC4" s="127"/>
+      <c r="BD4" s="127"/>
+      <c r="BE4" s="127"/>
+      <c r="BF4" s="127"/>
+      <c r="BG4" s="127"/>
+      <c r="BH4" s="127"/>
+      <c r="BI4" s="127"/>
+      <c r="BJ4" s="127"/>
+      <c r="BK4" s="127"/>
+      <c r="BL4" s="127"/>
+      <c r="BM4" s="127"/>
+      <c r="BN4" s="127"/>
+      <c r="BO4" s="127"/>
+      <c r="BP4" s="127"/>
+      <c r="BQ4" s="127"/>
+      <c r="BR4" s="127"/>
+      <c r="BS4" s="127"/>
+      <c r="BT4" s="127"/>
+      <c r="BU4" s="128"/>
+      <c r="BV4" s="142" t="s">
         <v>65</v>
       </c>
-      <c r="BW4" s="131"/>
-      <c r="BX4" s="131"/>
-      <c r="BY4" s="131"/>
-      <c r="BZ4" s="131"/>
-      <c r="CA4" s="131"/>
-      <c r="CB4" s="131"/>
-      <c r="CC4" s="131"/>
-      <c r="CD4" s="131"/>
-      <c r="CE4" s="131"/>
-      <c r="CF4" s="131"/>
-      <c r="CG4" s="131"/>
-      <c r="CH4" s="131"/>
-      <c r="CI4" s="131"/>
-      <c r="CJ4" s="131"/>
-      <c r="CK4" s="131"/>
-      <c r="CL4" s="131"/>
-      <c r="CM4" s="131"/>
-      <c r="CN4" s="131"/>
-      <c r="CO4" s="131"/>
-      <c r="CP4" s="131"/>
-      <c r="CQ4" s="131"/>
-      <c r="CR4" s="131"/>
-      <c r="CS4" s="131"/>
-      <c r="CT4" s="131"/>
-      <c r="CU4" s="131"/>
-      <c r="CV4" s="131"/>
-      <c r="CW4" s="131"/>
-      <c r="CX4" s="131"/>
-      <c r="CY4" s="132"/>
-      <c r="CZ4" s="163" t="s">
+      <c r="BW4" s="127"/>
+      <c r="BX4" s="127"/>
+      <c r="BY4" s="127"/>
+      <c r="BZ4" s="127"/>
+      <c r="CA4" s="127"/>
+      <c r="CB4" s="127"/>
+      <c r="CC4" s="127"/>
+      <c r="CD4" s="127"/>
+      <c r="CE4" s="127"/>
+      <c r="CF4" s="127"/>
+      <c r="CG4" s="127"/>
+      <c r="CH4" s="127"/>
+      <c r="CI4" s="127"/>
+      <c r="CJ4" s="127"/>
+      <c r="CK4" s="127"/>
+      <c r="CL4" s="127"/>
+      <c r="CM4" s="127"/>
+      <c r="CN4" s="127"/>
+      <c r="CO4" s="127"/>
+      <c r="CP4" s="127"/>
+      <c r="CQ4" s="127"/>
+      <c r="CR4" s="127"/>
+      <c r="CS4" s="127"/>
+      <c r="CT4" s="127"/>
+      <c r="CU4" s="127"/>
+      <c r="CV4" s="127"/>
+      <c r="CW4" s="127"/>
+      <c r="CX4" s="127"/>
+      <c r="CY4" s="128"/>
+      <c r="CZ4" s="142" t="s">
         <v>66</v>
       </c>
-      <c r="DA4" s="131"/>
-      <c r="DB4" s="131"/>
-      <c r="DC4" s="131"/>
-      <c r="DD4" s="131"/>
-      <c r="DE4" s="131"/>
-      <c r="DF4" s="131"/>
-      <c r="DG4" s="131"/>
-      <c r="DH4" s="131"/>
-      <c r="DI4" s="131"/>
-      <c r="DJ4" s="131"/>
-      <c r="DK4" s="131"/>
-      <c r="DL4" s="131"/>
-      <c r="DM4" s="131"/>
-      <c r="DN4" s="131"/>
-      <c r="DO4" s="131"/>
-      <c r="DP4" s="131"/>
-      <c r="DQ4" s="131"/>
-      <c r="DR4" s="131"/>
-      <c r="DS4" s="131"/>
-      <c r="DT4" s="131"/>
-      <c r="DU4" s="131"/>
-      <c r="DV4" s="132"/>
+      <c r="DA4" s="127"/>
+      <c r="DB4" s="127"/>
+      <c r="DC4" s="127"/>
+      <c r="DD4" s="127"/>
+      <c r="DE4" s="127"/>
+      <c r="DF4" s="127"/>
+      <c r="DG4" s="127"/>
+      <c r="DH4" s="127"/>
+      <c r="DI4" s="127"/>
+      <c r="DJ4" s="127"/>
+      <c r="DK4" s="127"/>
+      <c r="DL4" s="127"/>
+      <c r="DM4" s="127"/>
+      <c r="DN4" s="127"/>
+      <c r="DO4" s="127"/>
+      <c r="DP4" s="127"/>
+      <c r="DQ4" s="127"/>
+      <c r="DR4" s="127"/>
+      <c r="DS4" s="127"/>
+      <c r="DT4" s="127"/>
+      <c r="DU4" s="127"/>
+      <c r="DV4" s="128"/>
       <c r="DW4" s="34"/>
     </row>
     <row r="5" spans="1:127">
@@ -4788,29 +4780,29 @@
     </row>
     <row r="7" spans="1:127" ht="19.5">
       <c r="A7" s="26"/>
-      <c r="B7" s="164" t="s">
+      <c r="B7" s="143" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
-      <c r="E7" s="125"/>
-      <c r="F7" s="125"/>
-      <c r="G7" s="125"/>
-      <c r="H7" s="126"/>
-      <c r="I7" s="130" t="s">
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="131"/>
-      <c r="K7" s="132"/>
-      <c r="L7" s="130" t="s">
+      <c r="J7" s="127"/>
+      <c r="K7" s="128"/>
+      <c r="L7" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="M7" s="131"/>
-      <c r="N7" s="132"/>
-      <c r="O7" s="133" t="s">
+      <c r="M7" s="127"/>
+      <c r="N7" s="128"/>
+      <c r="O7" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="P7" s="133" t="s">
+      <c r="P7" s="129" t="s">
         <v>4</v>
       </c>
       <c r="Q7" s="42"/>
@@ -4927,13 +4919,13 @@
     </row>
     <row r="8" spans="1:127" ht="19.5">
       <c r="A8" s="26"/>
-      <c r="B8" s="127"/>
-      <c r="C8" s="128"/>
-      <c r="D8" s="128"/>
-      <c r="E8" s="128"/>
-      <c r="F8" s="128"/>
-      <c r="G8" s="128"/>
-      <c r="H8" s="129"/>
+      <c r="B8" s="123"/>
+      <c r="C8" s="124"/>
+      <c r="D8" s="124"/>
+      <c r="E8" s="124"/>
+      <c r="F8" s="124"/>
+      <c r="G8" s="124"/>
+      <c r="H8" s="125"/>
       <c r="I8" s="2" t="s">
         <v>5</v>
       </c>
@@ -4952,8 +4944,8 @@
       <c r="N8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O8" s="134"/>
-      <c r="P8" s="134"/>
+      <c r="O8" s="130"/>
+      <c r="P8" s="130"/>
       <c r="Q8" s="46"/>
       <c r="R8" s="47"/>
       <c r="S8" s="47"/>
@@ -5069,33 +5061,33 @@
     <row r="9" spans="1:127" ht="12" customHeight="1">
       <c r="A9" s="26"/>
       <c r="B9" s="50"/>
-      <c r="C9" s="157" t="s">
+      <c r="C9" s="145" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="140"/>
-      <c r="E9" s="140"/>
-      <c r="F9" s="140"/>
-      <c r="G9" s="140"/>
-      <c r="H9" s="140"/>
-      <c r="I9" s="159">
+      <c r="D9" s="146"/>
+      <c r="E9" s="146"/>
+      <c r="F9" s="146"/>
+      <c r="G9" s="146"/>
+      <c r="H9" s="146"/>
+      <c r="I9" s="148">
         <v>1</v>
       </c>
-      <c r="J9" s="160">
+      <c r="J9" s="144">
         <f>J11</f>
         <v>45787</v>
       </c>
-      <c r="K9" s="160">
+      <c r="K9" s="144">
         <f>K17</f>
         <v>45787</v>
       </c>
-      <c r="L9" s="159">
+      <c r="L9" s="148">
         <v>1.3</v>
       </c>
-      <c r="M9" s="160">
+      <c r="M9" s="144">
         <f>M11</f>
         <v>45787</v>
       </c>
-      <c r="N9" s="160">
+      <c r="N9" s="144">
         <f>N17</f>
         <v>45790</v>
       </c>
@@ -5218,18 +5210,18 @@
     <row r="10" spans="1:127" ht="12" customHeight="1">
       <c r="A10" s="26"/>
       <c r="B10" s="50"/>
-      <c r="C10" s="141"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
-      <c r="F10" s="128"/>
-      <c r="G10" s="128"/>
-      <c r="H10" s="128"/>
-      <c r="I10" s="134"/>
-      <c r="J10" s="129"/>
-      <c r="K10" s="129"/>
-      <c r="L10" s="134"/>
-      <c r="M10" s="129"/>
-      <c r="N10" s="129"/>
+      <c r="C10" s="147"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
+      <c r="F10" s="124"/>
+      <c r="G10" s="124"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="130"/>
+      <c r="J10" s="125"/>
+      <c r="K10" s="125"/>
+      <c r="L10" s="130"/>
+      <c r="M10" s="125"/>
+      <c r="N10" s="125"/>
       <c r="O10" s="53"/>
       <c r="P10" s="53"/>
       <c r="Q10" s="46"/>
@@ -5348,37 +5340,37 @@
       <c r="A11" s="26"/>
       <c r="B11" s="50"/>
       <c r="C11" s="54"/>
-      <c r="D11" s="161" t="s">
+      <c r="D11" s="150" t="s">
         <v>76</v>
       </c>
-      <c r="E11" s="125"/>
-      <c r="F11" s="125"/>
-      <c r="G11" s="125"/>
-      <c r="H11" s="126"/>
-      <c r="I11" s="154">
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="149">
         <v>0.1</v>
       </c>
-      <c r="J11" s="162">
+      <c r="J11" s="151">
         <v>45787</v>
       </c>
-      <c r="K11" s="162">
+      <c r="K11" s="151">
         <f>$J$11</f>
         <v>45787</v>
       </c>
-      <c r="L11" s="154">
+      <c r="L11" s="149">
         <v>0.1</v>
       </c>
-      <c r="M11" s="162">
+      <c r="M11" s="151">
         <v>45787</v>
       </c>
-      <c r="N11" s="162">
+      <c r="N11" s="151">
         <f>$J$11</f>
         <v>45787</v>
       </c>
-      <c r="O11" s="154" t="s">
+      <c r="O11" s="149" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="154">
+      <c r="P11" s="149">
         <v>100</v>
       </c>
       <c r="Q11" s="55"/>
@@ -5497,19 +5489,19 @@
       <c r="A12" s="26"/>
       <c r="B12" s="50"/>
       <c r="C12" s="64"/>
-      <c r="D12" s="127"/>
-      <c r="E12" s="128"/>
-      <c r="F12" s="128"/>
-      <c r="G12" s="128"/>
-      <c r="H12" s="129"/>
-      <c r="I12" s="134"/>
-      <c r="J12" s="134"/>
-      <c r="K12" s="134"/>
-      <c r="L12" s="134"/>
-      <c r="M12" s="134"/>
-      <c r="N12" s="134"/>
-      <c r="O12" s="134"/>
-      <c r="P12" s="134"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="124"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="130"/>
+      <c r="K12" s="130"/>
+      <c r="L12" s="130"/>
+      <c r="M12" s="130"/>
+      <c r="N12" s="130"/>
+      <c r="O12" s="130"/>
+      <c r="P12" s="130"/>
       <c r="Q12" s="55"/>
       <c r="R12" s="55"/>
       <c r="S12" s="55"/>
@@ -5626,39 +5618,39 @@
       <c r="A13" s="26"/>
       <c r="B13" s="50"/>
       <c r="C13" s="64"/>
-      <c r="D13" s="161" t="s">
+      <c r="D13" s="150" t="s">
         <v>78</v>
       </c>
-      <c r="E13" s="125"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="154">
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="149">
         <v>0.1</v>
       </c>
-      <c r="J13" s="162">
+      <c r="J13" s="151">
         <f t="shared" ref="J13:K13" si="1">$J$11</f>
         <v>45787</v>
       </c>
-      <c r="K13" s="162">
+      <c r="K13" s="151">
         <f t="shared" si="1"/>
         <v>45787</v>
       </c>
-      <c r="L13" s="154">
+      <c r="L13" s="149">
         <v>0.1</v>
       </c>
-      <c r="M13" s="162">
+      <c r="M13" s="151">
         <f t="shared" ref="M13:N13" si="2">$J$11</f>
         <v>45787</v>
       </c>
-      <c r="N13" s="162">
+      <c r="N13" s="151">
         <f t="shared" si="2"/>
         <v>45787</v>
       </c>
-      <c r="O13" s="154" t="s">
+      <c r="O13" s="149" t="s">
         <v>77</v>
       </c>
-      <c r="P13" s="154">
+      <c r="P13" s="149">
         <v>100</v>
       </c>
       <c r="Q13" s="55"/>
@@ -5777,19 +5769,19 @@
       <c r="A14" s="26"/>
       <c r="B14" s="50"/>
       <c r="C14" s="64"/>
-      <c r="D14" s="127"/>
-      <c r="E14" s="128"/>
-      <c r="F14" s="128"/>
-      <c r="G14" s="128"/>
-      <c r="H14" s="129"/>
-      <c r="I14" s="134"/>
-      <c r="J14" s="134"/>
-      <c r="K14" s="134"/>
-      <c r="L14" s="134"/>
-      <c r="M14" s="134"/>
-      <c r="N14" s="134"/>
-      <c r="O14" s="134"/>
-      <c r="P14" s="134"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="124"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="130"/>
+      <c r="J14" s="130"/>
+      <c r="K14" s="130"/>
+      <c r="L14" s="130"/>
+      <c r="M14" s="130"/>
+      <c r="N14" s="130"/>
+      <c r="O14" s="130"/>
+      <c r="P14" s="130"/>
       <c r="Q14" s="55"/>
       <c r="R14" s="55"/>
       <c r="S14" s="55"/>
@@ -5906,39 +5898,39 @@
       <c r="A15" s="26"/>
       <c r="B15" s="50"/>
       <c r="C15" s="64"/>
-      <c r="D15" s="161" t="s">
+      <c r="D15" s="150" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="125"/>
-      <c r="F15" s="125"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="154">
+      <c r="E15" s="121"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="149">
         <v>0.1</v>
       </c>
-      <c r="J15" s="162">
+      <c r="J15" s="151">
         <f t="shared" ref="J15:K15" si="3">$J$11</f>
         <v>45787</v>
       </c>
-      <c r="K15" s="162">
+      <c r="K15" s="151">
         <f t="shared" si="3"/>
         <v>45787</v>
       </c>
-      <c r="L15" s="154">
+      <c r="L15" s="149">
         <v>0.1</v>
       </c>
-      <c r="M15" s="162">
+      <c r="M15" s="151">
         <f t="shared" ref="M15:N15" si="4">$J$11</f>
         <v>45787</v>
       </c>
-      <c r="N15" s="162">
+      <c r="N15" s="151">
         <f t="shared" si="4"/>
         <v>45787</v>
       </c>
-      <c r="O15" s="154" t="s">
+      <c r="O15" s="149" t="s">
         <v>77</v>
       </c>
-      <c r="P15" s="154">
+      <c r="P15" s="149">
         <v>100</v>
       </c>
       <c r="Q15" s="55"/>
@@ -6057,19 +6049,19 @@
       <c r="A16" s="26"/>
       <c r="B16" s="50"/>
       <c r="C16" s="64"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="128"/>
-      <c r="G16" s="128"/>
-      <c r="H16" s="129"/>
-      <c r="I16" s="134"/>
-      <c r="J16" s="134"/>
-      <c r="K16" s="134"/>
-      <c r="L16" s="134"/>
-      <c r="M16" s="134"/>
-      <c r="N16" s="134"/>
-      <c r="O16" s="134"/>
-      <c r="P16" s="134"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="124"/>
+      <c r="F16" s="124"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="130"/>
+      <c r="K16" s="130"/>
+      <c r="L16" s="130"/>
+      <c r="M16" s="130"/>
+      <c r="N16" s="130"/>
+      <c r="O16" s="130"/>
+      <c r="P16" s="130"/>
       <c r="Q16" s="55"/>
       <c r="R16" s="55"/>
       <c r="S16" s="55"/>
@@ -6186,37 +6178,37 @@
       <c r="A17" s="26"/>
       <c r="B17" s="50"/>
       <c r="C17" s="64"/>
-      <c r="D17" s="161" t="s">
+      <c r="D17" s="150" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="125"/>
-      <c r="F17" s="125"/>
-      <c r="G17" s="125"/>
-      <c r="H17" s="126"/>
-      <c r="I17" s="154">
+      <c r="E17" s="121"/>
+      <c r="F17" s="121"/>
+      <c r="G17" s="121"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="149">
         <v>0.7</v>
       </c>
-      <c r="J17" s="162">
+      <c r="J17" s="151">
         <f t="shared" ref="J17:K17" si="5">$J$11</f>
         <v>45787</v>
       </c>
-      <c r="K17" s="162">
+      <c r="K17" s="151">
         <f t="shared" si="5"/>
         <v>45787</v>
       </c>
-      <c r="L17" s="154">
+      <c r="L17" s="149">
         <v>3</v>
       </c>
-      <c r="M17" s="162">
+      <c r="M17" s="151">
         <v>45787</v>
       </c>
-      <c r="N17" s="162">
+      <c r="N17" s="151">
         <v>45790</v>
       </c>
-      <c r="O17" s="154" t="s">
+      <c r="O17" s="149" t="s">
         <v>77</v>
       </c>
-      <c r="P17" s="154">
+      <c r="P17" s="149">
         <v>100</v>
       </c>
       <c r="Q17" s="55"/>
@@ -6335,19 +6327,19 @@
       <c r="A18" s="26"/>
       <c r="B18" s="50"/>
       <c r="C18" s="66"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="128"/>
-      <c r="G18" s="128"/>
-      <c r="H18" s="129"/>
-      <c r="I18" s="134"/>
-      <c r="J18" s="134"/>
-      <c r="K18" s="134"/>
-      <c r="L18" s="134"/>
-      <c r="M18" s="134"/>
-      <c r="N18" s="134"/>
-      <c r="O18" s="134"/>
-      <c r="P18" s="134"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="124"/>
+      <c r="F18" s="124"/>
+      <c r="G18" s="124"/>
+      <c r="H18" s="125"/>
+      <c r="I18" s="130"/>
+      <c r="J18" s="130"/>
+      <c r="K18" s="130"/>
+      <c r="L18" s="130"/>
+      <c r="M18" s="130"/>
+      <c r="N18" s="130"/>
+      <c r="O18" s="130"/>
+      <c r="P18" s="130"/>
       <c r="Q18" s="67"/>
       <c r="R18" s="67"/>
       <c r="S18" s="67"/>
@@ -6463,24 +6455,24 @@
     <row r="19" spans="1:127" ht="12" customHeight="1">
       <c r="A19" s="26"/>
       <c r="B19" s="50"/>
-      <c r="C19" s="157" t="s">
+      <c r="C19" s="145" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="140"/>
-      <c r="E19" s="140"/>
-      <c r="F19" s="140"/>
-      <c r="G19" s="140"/>
-      <c r="H19" s="140"/>
-      <c r="I19" s="159">
+      <c r="D19" s="146"/>
+      <c r="E19" s="146"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="148">
         <v>1</v>
       </c>
-      <c r="J19" s="160">
+      <c r="J19" s="144">
         <v>45790</v>
       </c>
-      <c r="K19" s="160">
+      <c r="K19" s="144">
         <v>45790</v>
       </c>
-      <c r="L19" s="159"/>
+      <c r="L19" s="148"/>
       <c r="M19" s="77"/>
       <c r="N19" s="77"/>
       <c r="O19" s="78"/>
@@ -6600,16 +6592,16 @@
     <row r="20" spans="1:127" ht="12" customHeight="1">
       <c r="A20" s="26"/>
       <c r="B20" s="50"/>
-      <c r="C20" s="158"/>
-      <c r="D20" s="147"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="134"/>
-      <c r="J20" s="129"/>
-      <c r="K20" s="129"/>
-      <c r="L20" s="134"/>
+      <c r="C20" s="153"/>
+      <c r="D20" s="136"/>
+      <c r="E20" s="136"/>
+      <c r="F20" s="136"/>
+      <c r="G20" s="136"/>
+      <c r="H20" s="136"/>
+      <c r="I20" s="130"/>
+      <c r="J20" s="125"/>
+      <c r="K20" s="125"/>
+      <c r="L20" s="130"/>
       <c r="M20" s="77"/>
       <c r="N20" s="77"/>
       <c r="O20" s="78"/>
@@ -6730,35 +6722,35 @@
       <c r="A21" s="26"/>
       <c r="B21" s="50"/>
       <c r="C21" s="54"/>
-      <c r="D21" s="161" t="s">
+      <c r="D21" s="150" t="s">
         <v>81</v>
       </c>
-      <c r="E21" s="125"/>
-      <c r="F21" s="125"/>
-      <c r="G21" s="125"/>
-      <c r="H21" s="126"/>
-      <c r="I21" s="154">
+      <c r="E21" s="121"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="121"/>
+      <c r="H21" s="122"/>
+      <c r="I21" s="149">
         <v>1</v>
       </c>
-      <c r="J21" s="156">
+      <c r="J21" s="152">
         <v>45790</v>
       </c>
-      <c r="K21" s="156">
+      <c r="K21" s="152">
         <v>45790</v>
       </c>
-      <c r="L21" s="154">
+      <c r="L21" s="149">
         <v>5.5</v>
       </c>
-      <c r="M21" s="156">
+      <c r="M21" s="152">
         <v>45790</v>
       </c>
-      <c r="N21" s="156">
+      <c r="N21" s="152">
         <v>45790</v>
       </c>
-      <c r="O21" s="154" t="s">
+      <c r="O21" s="149" t="s">
         <v>77</v>
       </c>
-      <c r="P21" s="154">
+      <c r="P21" s="149">
         <v>100</v>
       </c>
       <c r="Q21" s="55"/>
@@ -6877,19 +6869,19 @@
       <c r="A22" s="26"/>
       <c r="B22" s="50"/>
       <c r="C22" s="64"/>
-      <c r="D22" s="127"/>
-      <c r="E22" s="128"/>
-      <c r="F22" s="128"/>
-      <c r="G22" s="128"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="134"/>
-      <c r="J22" s="134"/>
-      <c r="K22" s="134"/>
-      <c r="L22" s="134"/>
-      <c r="M22" s="134"/>
-      <c r="N22" s="134"/>
-      <c r="O22" s="134"/>
-      <c r="P22" s="134"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="124"/>
+      <c r="F22" s="124"/>
+      <c r="G22" s="124"/>
+      <c r="H22" s="125"/>
+      <c r="I22" s="130"/>
+      <c r="J22" s="130"/>
+      <c r="K22" s="130"/>
+      <c r="L22" s="130"/>
+      <c r="M22" s="130"/>
+      <c r="N22" s="130"/>
+      <c r="O22" s="130"/>
+      <c r="P22" s="130"/>
       <c r="Q22" s="85"/>
       <c r="R22" s="86"/>
       <c r="S22" s="86"/>
@@ -7005,24 +6997,24 @@
     <row r="23" spans="1:127" ht="12" customHeight="1">
       <c r="A23" s="26"/>
       <c r="B23" s="95"/>
-      <c r="C23" s="155" t="s">
+      <c r="C23" s="154" t="s">
         <v>82</v>
       </c>
-      <c r="D23" s="140"/>
-      <c r="E23" s="140"/>
-      <c r="F23" s="140"/>
-      <c r="G23" s="140"/>
-      <c r="H23" s="140"/>
-      <c r="I23" s="142">
+      <c r="D23" s="146"/>
+      <c r="E23" s="146"/>
+      <c r="F23" s="146"/>
+      <c r="G23" s="146"/>
+      <c r="H23" s="146"/>
+      <c r="I23" s="155">
         <v>10</v>
       </c>
-      <c r="J23" s="138">
+      <c r="J23" s="139">
         <v>45791</v>
       </c>
-      <c r="K23" s="138">
+      <c r="K23" s="139">
         <v>45792</v>
       </c>
-      <c r="L23" s="143"/>
+      <c r="L23" s="140"/>
       <c r="M23" s="96"/>
       <c r="N23" s="96"/>
       <c r="O23" s="97"/>
@@ -7142,16 +7134,16 @@
     <row r="24" spans="1:127" ht="12" customHeight="1">
       <c r="A24" s="26"/>
       <c r="B24" s="95"/>
-      <c r="C24" s="141"/>
-      <c r="D24" s="128"/>
-      <c r="E24" s="128"/>
-      <c r="F24" s="128"/>
-      <c r="G24" s="128"/>
-      <c r="H24" s="128"/>
-      <c r="I24" s="134"/>
-      <c r="J24" s="129"/>
-      <c r="K24" s="129"/>
-      <c r="L24" s="134"/>
+      <c r="C24" s="147"/>
+      <c r="D24" s="124"/>
+      <c r="E24" s="124"/>
+      <c r="F24" s="124"/>
+      <c r="G24" s="124"/>
+      <c r="H24" s="124"/>
+      <c r="I24" s="130"/>
+      <c r="J24" s="125"/>
+      <c r="K24" s="125"/>
+      <c r="L24" s="130"/>
       <c r="M24" s="101"/>
       <c r="N24" s="101"/>
       <c r="O24" s="102"/>
@@ -7272,35 +7264,35 @@
       <c r="A25" s="26"/>
       <c r="B25" s="95"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="150" t="s">
+      <c r="D25" s="156" t="s">
         <v>83</v>
       </c>
-      <c r="E25" s="125"/>
-      <c r="F25" s="125"/>
-      <c r="G25" s="125"/>
-      <c r="H25" s="126"/>
-      <c r="I25" s="137">
+      <c r="E25" s="121"/>
+      <c r="F25" s="121"/>
+      <c r="G25" s="121"/>
+      <c r="H25" s="122"/>
+      <c r="I25" s="133">
         <v>4</v>
       </c>
-      <c r="J25" s="135">
+      <c r="J25" s="131">
         <v>45791</v>
       </c>
-      <c r="K25" s="135">
+      <c r="K25" s="131">
         <v>45791</v>
       </c>
-      <c r="L25" s="137">
+      <c r="L25" s="133">
         <v>7</v>
       </c>
-      <c r="M25" s="135">
+      <c r="M25" s="131">
         <v>45791</v>
       </c>
-      <c r="N25" s="135">
+      <c r="N25" s="131">
         <v>45791</v>
       </c>
-      <c r="O25" s="137" t="s">
+      <c r="O25" s="133" t="s">
         <v>77</v>
       </c>
-      <c r="P25" s="154">
+      <c r="P25" s="149">
         <v>100</v>
       </c>
       <c r="Q25" s="55"/>
@@ -7419,19 +7411,19 @@
       <c r="A26" s="26"/>
       <c r="B26" s="95"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="127"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="128"/>
-      <c r="G26" s="128"/>
-      <c r="H26" s="129"/>
-      <c r="I26" s="134"/>
-      <c r="J26" s="134"/>
-      <c r="K26" s="134"/>
-      <c r="L26" s="134"/>
-      <c r="M26" s="134"/>
-      <c r="N26" s="134"/>
-      <c r="O26" s="134"/>
-      <c r="P26" s="134"/>
+      <c r="D26" s="123"/>
+      <c r="E26" s="124"/>
+      <c r="F26" s="124"/>
+      <c r="G26" s="124"/>
+      <c r="H26" s="125"/>
+      <c r="I26" s="130"/>
+      <c r="J26" s="130"/>
+      <c r="K26" s="130"/>
+      <c r="L26" s="130"/>
+      <c r="M26" s="130"/>
+      <c r="N26" s="130"/>
+      <c r="O26" s="130"/>
+      <c r="P26" s="130"/>
       <c r="Q26" s="55"/>
       <c r="R26" s="56"/>
       <c r="S26" s="56"/>
@@ -7471,7 +7463,7 @@
       <c r="BA26" s="56"/>
       <c r="BB26" s="56"/>
       <c r="BC26" s="56"/>
-      <c r="BD26" s="122"/>
+      <c r="BD26" s="163"/>
       <c r="BE26" s="58"/>
       <c r="BF26" s="58"/>
       <c r="BG26" s="59"/>
@@ -7548,35 +7540,35 @@
       <c r="A27" s="26"/>
       <c r="B27" s="95"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="150" t="s">
+      <c r="D27" s="156" t="s">
         <v>84</v>
       </c>
-      <c r="E27" s="125"/>
-      <c r="F27" s="125"/>
-      <c r="G27" s="125"/>
-      <c r="H27" s="126"/>
-      <c r="I27" s="137">
+      <c r="E27" s="121"/>
+      <c r="F27" s="121"/>
+      <c r="G27" s="121"/>
+      <c r="H27" s="122"/>
+      <c r="I27" s="133">
         <v>6</v>
       </c>
-      <c r="J27" s="151">
+      <c r="J27" s="157">
         <v>45791</v>
       </c>
-      <c r="K27" s="135">
+      <c r="K27" s="131">
         <v>45792</v>
       </c>
-      <c r="L27" s="137">
+      <c r="L27" s="133">
         <v>3</v>
       </c>
-      <c r="M27" s="135">
+      <c r="M27" s="131">
         <v>45792</v>
       </c>
-      <c r="N27" s="135">
+      <c r="N27" s="131">
         <v>45792</v>
       </c>
-      <c r="O27" s="137" t="s">
+      <c r="O27" s="133" t="s">
         <v>77</v>
       </c>
-      <c r="P27" s="137">
+      <c r="P27" s="133">
         <v>100</v>
       </c>
       <c r="Q27" s="55"/>
@@ -7695,19 +7687,19 @@
       <c r="A28" s="26"/>
       <c r="B28" s="95"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="127"/>
-      <c r="E28" s="128"/>
-      <c r="F28" s="128"/>
-      <c r="G28" s="128"/>
-      <c r="H28" s="129"/>
-      <c r="I28" s="134"/>
-      <c r="J28" s="134"/>
-      <c r="K28" s="134"/>
-      <c r="L28" s="134"/>
-      <c r="M28" s="134"/>
-      <c r="N28" s="134"/>
-      <c r="O28" s="134"/>
-      <c r="P28" s="134"/>
+      <c r="D28" s="123"/>
+      <c r="E28" s="124"/>
+      <c r="F28" s="124"/>
+      <c r="G28" s="124"/>
+      <c r="H28" s="125"/>
+      <c r="I28" s="130"/>
+      <c r="J28" s="130"/>
+      <c r="K28" s="130"/>
+      <c r="L28" s="130"/>
+      <c r="M28" s="130"/>
+      <c r="N28" s="130"/>
+      <c r="O28" s="130"/>
+      <c r="P28" s="130"/>
       <c r="Q28" s="67"/>
       <c r="R28" s="69"/>
       <c r="S28" s="69"/>
@@ -7747,8 +7739,8 @@
       <c r="BA28" s="69"/>
       <c r="BB28" s="69"/>
       <c r="BC28" s="69"/>
-      <c r="BD28" s="121"/>
-      <c r="BE28" s="120"/>
+      <c r="BD28" s="162"/>
+      <c r="BE28" s="161"/>
       <c r="BF28" s="71"/>
       <c r="BG28" s="72"/>
       <c r="BH28" s="72"/>
@@ -7824,35 +7816,35 @@
       <c r="A29" s="26"/>
       <c r="B29" s="95"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="150" t="s">
+      <c r="D29" s="156" t="s">
         <v>85</v>
       </c>
-      <c r="E29" s="125"/>
-      <c r="F29" s="125"/>
-      <c r="G29" s="125"/>
-      <c r="H29" s="126"/>
-      <c r="I29" s="137">
+      <c r="E29" s="121"/>
+      <c r="F29" s="121"/>
+      <c r="G29" s="121"/>
+      <c r="H29" s="122"/>
+      <c r="I29" s="133">
         <v>4</v>
       </c>
-      <c r="J29" s="135">
+      <c r="J29" s="131">
         <v>45792</v>
       </c>
-      <c r="K29" s="151">
+      <c r="K29" s="157">
         <v>45792</v>
       </c>
-      <c r="L29" s="152">
+      <c r="L29" s="159">
         <v>3</v>
       </c>
-      <c r="M29" s="135">
+      <c r="M29" s="131">
         <v>45792</v>
       </c>
-      <c r="N29" s="135">
+      <c r="N29" s="131">
         <v>45792</v>
       </c>
-      <c r="O29" s="137" t="s">
+      <c r="O29" s="133" t="s">
         <v>77</v>
       </c>
-      <c r="P29" s="137">
+      <c r="P29" s="133">
         <v>100</v>
       </c>
       <c r="Q29" s="55"/>
@@ -7971,19 +7963,19 @@
       <c r="A30" s="26"/>
       <c r="B30" s="95"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="127"/>
-      <c r="E30" s="128"/>
-      <c r="F30" s="128"/>
-      <c r="G30" s="128"/>
-      <c r="H30" s="129"/>
-      <c r="I30" s="134"/>
-      <c r="J30" s="134"/>
-      <c r="K30" s="134"/>
-      <c r="L30" s="153"/>
-      <c r="M30" s="134"/>
-      <c r="N30" s="134"/>
-      <c r="O30" s="134"/>
-      <c r="P30" s="134"/>
+      <c r="D30" s="123"/>
+      <c r="E30" s="124"/>
+      <c r="F30" s="124"/>
+      <c r="G30" s="124"/>
+      <c r="H30" s="125"/>
+      <c r="I30" s="130"/>
+      <c r="J30" s="130"/>
+      <c r="K30" s="130"/>
+      <c r="L30" s="160"/>
+      <c r="M30" s="130"/>
+      <c r="N30" s="130"/>
+      <c r="O30" s="130"/>
+      <c r="P30" s="130"/>
       <c r="Q30" s="55"/>
       <c r="R30" s="56"/>
       <c r="S30" s="56"/>
@@ -8024,7 +8016,7 @@
       <c r="BB30" s="56"/>
       <c r="BC30" s="56"/>
       <c r="BD30" s="56"/>
-      <c r="BE30" s="123"/>
+      <c r="BE30" s="164"/>
       <c r="BF30" s="58"/>
       <c r="BG30" s="59"/>
       <c r="BH30" s="59"/>
@@ -8099,24 +8091,24 @@
     <row r="31" spans="1:127" ht="12" customHeight="1">
       <c r="A31" s="26"/>
       <c r="B31" s="103"/>
-      <c r="C31" s="139" t="s">
+      <c r="C31" s="158" t="s">
         <v>86</v>
       </c>
-      <c r="D31" s="140"/>
-      <c r="E31" s="140"/>
-      <c r="F31" s="140"/>
-      <c r="G31" s="140"/>
-      <c r="H31" s="140"/>
-      <c r="I31" s="142">
+      <c r="D31" s="146"/>
+      <c r="E31" s="146"/>
+      <c r="F31" s="146"/>
+      <c r="G31" s="146"/>
+      <c r="H31" s="146"/>
+      <c r="I31" s="155">
         <v>32</v>
       </c>
-      <c r="J31" s="138">
+      <c r="J31" s="139">
         <v>45793</v>
       </c>
-      <c r="K31" s="138">
+      <c r="K31" s="139">
         <v>45798</v>
       </c>
-      <c r="L31" s="143"/>
+      <c r="L31" s="140"/>
       <c r="M31" s="104"/>
       <c r="N31" s="104"/>
       <c r="O31" s="105"/>
@@ -8236,16 +8228,16 @@
     <row r="32" spans="1:127" ht="12" customHeight="1">
       <c r="A32" s="26"/>
       <c r="B32" s="103"/>
-      <c r="C32" s="141"/>
-      <c r="D32" s="128"/>
-      <c r="E32" s="128"/>
-      <c r="F32" s="128"/>
-      <c r="G32" s="128"/>
-      <c r="H32" s="128"/>
-      <c r="I32" s="134"/>
-      <c r="J32" s="129"/>
-      <c r="K32" s="129"/>
-      <c r="L32" s="134"/>
+      <c r="C32" s="147"/>
+      <c r="D32" s="124"/>
+      <c r="E32" s="124"/>
+      <c r="F32" s="124"/>
+      <c r="G32" s="124"/>
+      <c r="H32" s="124"/>
+      <c r="I32" s="130"/>
+      <c r="J32" s="125"/>
+      <c r="K32" s="125"/>
+      <c r="L32" s="130"/>
       <c r="M32" s="106"/>
       <c r="N32" s="106"/>
       <c r="O32" s="107"/>
@@ -8366,23 +8358,23 @@
       <c r="A33" s="26"/>
       <c r="B33" s="103"/>
       <c r="C33" s="108"/>
-      <c r="D33" s="149" t="s">
+      <c r="D33" s="134" t="s">
         <v>87</v>
       </c>
-      <c r="E33" s="125"/>
-      <c r="F33" s="125"/>
-      <c r="G33" s="125"/>
-      <c r="H33" s="126"/>
-      <c r="I33" s="144">
+      <c r="E33" s="121"/>
+      <c r="F33" s="121"/>
+      <c r="G33" s="121"/>
+      <c r="H33" s="122"/>
+      <c r="I33" s="138">
         <v>8</v>
       </c>
-      <c r="J33" s="138">
+      <c r="J33" s="139">
         <v>45793</v>
       </c>
-      <c r="K33" s="138">
+      <c r="K33" s="139">
         <v>45793</v>
       </c>
-      <c r="L33" s="143"/>
+      <c r="L33" s="140"/>
       <c r="M33" s="104"/>
       <c r="N33" s="104"/>
       <c r="O33" s="105"/>
@@ -8503,15 +8495,15 @@
       <c r="A34" s="26"/>
       <c r="B34" s="103"/>
       <c r="C34" s="109"/>
-      <c r="D34" s="127"/>
-      <c r="E34" s="128"/>
-      <c r="F34" s="128"/>
-      <c r="G34" s="128"/>
-      <c r="H34" s="129"/>
-      <c r="I34" s="129"/>
-      <c r="J34" s="129"/>
-      <c r="K34" s="129"/>
-      <c r="L34" s="134"/>
+      <c r="D34" s="123"/>
+      <c r="E34" s="124"/>
+      <c r="F34" s="124"/>
+      <c r="G34" s="124"/>
+      <c r="H34" s="125"/>
+      <c r="I34" s="125"/>
+      <c r="J34" s="125"/>
+      <c r="K34" s="125"/>
+      <c r="L34" s="130"/>
       <c r="M34" s="106"/>
       <c r="N34" s="106"/>
       <c r="O34" s="107"/>
@@ -8633,26 +8625,26 @@
       <c r="B35" s="103"/>
       <c r="C35" s="26"/>
       <c r="D35" s="110"/>
-      <c r="E35" s="146" t="s">
+      <c r="E35" s="135" t="s">
         <v>88</v>
       </c>
-      <c r="F35" s="147"/>
-      <c r="G35" s="147"/>
-      <c r="H35" s="147"/>
-      <c r="I35" s="137">
+      <c r="F35" s="136"/>
+      <c r="G35" s="136"/>
+      <c r="H35" s="136"/>
+      <c r="I35" s="133">
         <v>1</v>
       </c>
-      <c r="J35" s="135">
+      <c r="J35" s="131">
         <v>45793</v>
       </c>
-      <c r="K35" s="135">
+      <c r="K35" s="131">
         <v>45793</v>
       </c>
-      <c r="L35" s="136"/>
-      <c r="M35" s="135"/>
-      <c r="N35" s="135"/>
-      <c r="O35" s="136"/>
-      <c r="P35" s="137">
+      <c r="L35" s="132"/>
+      <c r="M35" s="131"/>
+      <c r="N35" s="131"/>
+      <c r="O35" s="132"/>
+      <c r="P35" s="133">
         <v>0</v>
       </c>
       <c r="Q35" s="55"/>
@@ -8772,18 +8764,18 @@
       <c r="B36" s="103"/>
       <c r="C36" s="26"/>
       <c r="D36" s="103"/>
-      <c r="E36" s="128"/>
-      <c r="F36" s="128"/>
-      <c r="G36" s="128"/>
-      <c r="H36" s="128"/>
-      <c r="I36" s="134"/>
-      <c r="J36" s="134"/>
-      <c r="K36" s="134"/>
-      <c r="L36" s="134"/>
-      <c r="M36" s="134"/>
-      <c r="N36" s="134"/>
-      <c r="O36" s="134"/>
-      <c r="P36" s="134"/>
+      <c r="E36" s="124"/>
+      <c r="F36" s="124"/>
+      <c r="G36" s="124"/>
+      <c r="H36" s="124"/>
+      <c r="I36" s="130"/>
+      <c r="J36" s="130"/>
+      <c r="K36" s="130"/>
+      <c r="L36" s="130"/>
+      <c r="M36" s="130"/>
+      <c r="N36" s="130"/>
+      <c r="O36" s="130"/>
+      <c r="P36" s="130"/>
       <c r="Q36" s="55"/>
       <c r="R36" s="56"/>
       <c r="S36" s="56"/>
@@ -8901,26 +8893,26 @@
       <c r="B37" s="103"/>
       <c r="C37" s="26"/>
       <c r="D37" s="103"/>
-      <c r="E37" s="146" t="s">
+      <c r="E37" s="135" t="s">
         <v>89</v>
       </c>
-      <c r="F37" s="147"/>
-      <c r="G37" s="147"/>
-      <c r="H37" s="147"/>
-      <c r="I37" s="137">
+      <c r="F37" s="136"/>
+      <c r="G37" s="136"/>
+      <c r="H37" s="136"/>
+      <c r="I37" s="133">
         <v>4</v>
       </c>
-      <c r="J37" s="135">
+      <c r="J37" s="131">
         <v>45793</v>
       </c>
-      <c r="K37" s="135">
+      <c r="K37" s="131">
         <v>45793</v>
       </c>
-      <c r="L37" s="136"/>
-      <c r="M37" s="135"/>
-      <c r="N37" s="135"/>
-      <c r="O37" s="136"/>
-      <c r="P37" s="137">
+      <c r="L37" s="132"/>
+      <c r="M37" s="131"/>
+      <c r="N37" s="131"/>
+      <c r="O37" s="132"/>
+      <c r="P37" s="133">
         <v>0</v>
       </c>
       <c r="Q37" s="55"/>
@@ -9040,18 +9032,18 @@
       <c r="B38" s="103"/>
       <c r="C38" s="26"/>
       <c r="D38" s="103"/>
-      <c r="E38" s="128"/>
-      <c r="F38" s="128"/>
-      <c r="G38" s="128"/>
-      <c r="H38" s="128"/>
-      <c r="I38" s="134"/>
-      <c r="J38" s="134"/>
-      <c r="K38" s="134"/>
-      <c r="L38" s="134"/>
-      <c r="M38" s="134"/>
-      <c r="N38" s="134"/>
-      <c r="O38" s="134"/>
-      <c r="P38" s="134"/>
+      <c r="E38" s="124"/>
+      <c r="F38" s="124"/>
+      <c r="G38" s="124"/>
+      <c r="H38" s="124"/>
+      <c r="I38" s="130"/>
+      <c r="J38" s="130"/>
+      <c r="K38" s="130"/>
+      <c r="L38" s="130"/>
+      <c r="M38" s="130"/>
+      <c r="N38" s="130"/>
+      <c r="O38" s="130"/>
+      <c r="P38" s="130"/>
       <c r="Q38" s="55"/>
       <c r="R38" s="56"/>
       <c r="S38" s="56"/>
@@ -9169,26 +9161,26 @@
       <c r="B39" s="103"/>
       <c r="C39" s="26"/>
       <c r="D39" s="103"/>
-      <c r="E39" s="145" t="s">
+      <c r="E39" s="137" t="s">
         <v>90</v>
       </c>
-      <c r="F39" s="125"/>
-      <c r="G39" s="125"/>
-      <c r="H39" s="126"/>
-      <c r="I39" s="137">
+      <c r="F39" s="121"/>
+      <c r="G39" s="121"/>
+      <c r="H39" s="122"/>
+      <c r="I39" s="133">
         <v>3</v>
       </c>
-      <c r="J39" s="135">
+      <c r="J39" s="131">
         <v>45793</v>
       </c>
-      <c r="K39" s="135">
+      <c r="K39" s="131">
         <v>45793</v>
       </c>
-      <c r="L39" s="136"/>
-      <c r="M39" s="135"/>
-      <c r="N39" s="135"/>
-      <c r="O39" s="136"/>
-      <c r="P39" s="137">
+      <c r="L39" s="132"/>
+      <c r="M39" s="131"/>
+      <c r="N39" s="131"/>
+      <c r="O39" s="132"/>
+      <c r="P39" s="133">
         <v>0</v>
       </c>
       <c r="Q39" s="55"/>
@@ -9308,18 +9300,18 @@
       <c r="B40" s="103"/>
       <c r="C40" s="26"/>
       <c r="D40" s="111"/>
-      <c r="E40" s="128"/>
-      <c r="F40" s="128"/>
-      <c r="G40" s="128"/>
-      <c r="H40" s="129"/>
-      <c r="I40" s="134"/>
-      <c r="J40" s="134"/>
-      <c r="K40" s="134"/>
-      <c r="L40" s="134"/>
-      <c r="M40" s="134"/>
-      <c r="N40" s="134"/>
-      <c r="O40" s="134"/>
-      <c r="P40" s="134"/>
+      <c r="E40" s="124"/>
+      <c r="F40" s="124"/>
+      <c r="G40" s="124"/>
+      <c r="H40" s="125"/>
+      <c r="I40" s="130"/>
+      <c r="J40" s="130"/>
+      <c r="K40" s="130"/>
+      <c r="L40" s="130"/>
+      <c r="M40" s="130"/>
+      <c r="N40" s="130"/>
+      <c r="O40" s="130"/>
+      <c r="P40" s="130"/>
       <c r="Q40" s="67"/>
       <c r="R40" s="69"/>
       <c r="S40" s="69"/>
@@ -9436,23 +9428,23 @@
       <c r="A41" s="26"/>
       <c r="B41" s="103"/>
       <c r="C41" s="26"/>
-      <c r="D41" s="149" t="s">
+      <c r="D41" s="134" t="s">
         <v>91</v>
       </c>
-      <c r="E41" s="125"/>
-      <c r="F41" s="125"/>
-      <c r="G41" s="125"/>
-      <c r="H41" s="126"/>
-      <c r="I41" s="144">
+      <c r="E41" s="121"/>
+      <c r="F41" s="121"/>
+      <c r="G41" s="121"/>
+      <c r="H41" s="122"/>
+      <c r="I41" s="138">
         <v>16</v>
       </c>
-      <c r="J41" s="138">
+      <c r="J41" s="139">
         <v>45796</v>
       </c>
-      <c r="K41" s="138">
+      <c r="K41" s="139">
         <v>45797</v>
       </c>
-      <c r="L41" s="143"/>
+      <c r="L41" s="140"/>
       <c r="M41" s="104"/>
       <c r="N41" s="104"/>
       <c r="O41" s="105"/>
@@ -9573,15 +9565,15 @@
       <c r="A42" s="26"/>
       <c r="B42" s="103"/>
       <c r="C42" s="26"/>
-      <c r="D42" s="127"/>
-      <c r="E42" s="128"/>
-      <c r="F42" s="128"/>
-      <c r="G42" s="128"/>
-      <c r="H42" s="129"/>
-      <c r="I42" s="129"/>
-      <c r="J42" s="129"/>
-      <c r="K42" s="129"/>
-      <c r="L42" s="134"/>
+      <c r="D42" s="123"/>
+      <c r="E42" s="124"/>
+      <c r="F42" s="124"/>
+      <c r="G42" s="124"/>
+      <c r="H42" s="125"/>
+      <c r="I42" s="125"/>
+      <c r="J42" s="125"/>
+      <c r="K42" s="125"/>
+      <c r="L42" s="130"/>
       <c r="M42" s="106"/>
       <c r="N42" s="106"/>
       <c r="O42" s="107"/>
@@ -9703,26 +9695,26 @@
       <c r="B43" s="103"/>
       <c r="C43" s="26"/>
       <c r="D43" s="110"/>
-      <c r="E43" s="146" t="s">
+      <c r="E43" s="135" t="s">
         <v>92</v>
       </c>
-      <c r="F43" s="147"/>
-      <c r="G43" s="147"/>
-      <c r="H43" s="147"/>
-      <c r="I43" s="137">
+      <c r="F43" s="136"/>
+      <c r="G43" s="136"/>
+      <c r="H43" s="136"/>
+      <c r="I43" s="133">
         <v>2</v>
       </c>
-      <c r="J43" s="135">
+      <c r="J43" s="131">
         <v>45796</v>
       </c>
-      <c r="K43" s="135">
+      <c r="K43" s="131">
         <v>45796</v>
       </c>
-      <c r="L43" s="136"/>
-      <c r="M43" s="135"/>
-      <c r="N43" s="135"/>
-      <c r="O43" s="136"/>
-      <c r="P43" s="137">
+      <c r="L43" s="132"/>
+      <c r="M43" s="131"/>
+      <c r="N43" s="131"/>
+      <c r="O43" s="132"/>
+      <c r="P43" s="133">
         <v>0</v>
       </c>
       <c r="Q43" s="55"/>
@@ -9842,18 +9834,18 @@
       <c r="B44" s="103"/>
       <c r="C44" s="26"/>
       <c r="D44" s="103"/>
-      <c r="E44" s="128"/>
-      <c r="F44" s="128"/>
-      <c r="G44" s="128"/>
-      <c r="H44" s="128"/>
-      <c r="I44" s="134"/>
-      <c r="J44" s="134"/>
-      <c r="K44" s="134"/>
-      <c r="L44" s="134"/>
-      <c r="M44" s="134"/>
-      <c r="N44" s="134"/>
-      <c r="O44" s="134"/>
-      <c r="P44" s="134"/>
+      <c r="E44" s="124"/>
+      <c r="F44" s="124"/>
+      <c r="G44" s="124"/>
+      <c r="H44" s="124"/>
+      <c r="I44" s="130"/>
+      <c r="J44" s="130"/>
+      <c r="K44" s="130"/>
+      <c r="L44" s="130"/>
+      <c r="M44" s="130"/>
+      <c r="N44" s="130"/>
+      <c r="O44" s="130"/>
+      <c r="P44" s="130"/>
       <c r="Q44" s="55"/>
       <c r="R44" s="56"/>
       <c r="S44" s="56"/>
@@ -9971,26 +9963,26 @@
       <c r="B45" s="103"/>
       <c r="C45" s="26"/>
       <c r="D45" s="103"/>
-      <c r="E45" s="146" t="s">
+      <c r="E45" s="135" t="s">
         <v>93</v>
       </c>
-      <c r="F45" s="147"/>
-      <c r="G45" s="147"/>
-      <c r="H45" s="147"/>
-      <c r="I45" s="137">
+      <c r="F45" s="136"/>
+      <c r="G45" s="136"/>
+      <c r="H45" s="136"/>
+      <c r="I45" s="133">
         <v>14</v>
       </c>
-      <c r="J45" s="135">
+      <c r="J45" s="131">
         <v>45796</v>
       </c>
-      <c r="K45" s="148">
+      <c r="K45" s="141">
         <v>45797</v>
       </c>
-      <c r="L45" s="136"/>
-      <c r="M45" s="135"/>
-      <c r="N45" s="135"/>
-      <c r="O45" s="136"/>
-      <c r="P45" s="137">
+      <c r="L45" s="132"/>
+      <c r="M45" s="131"/>
+      <c r="N45" s="131"/>
+      <c r="O45" s="132"/>
+      <c r="P45" s="133">
         <v>0</v>
       </c>
       <c r="Q45" s="55"/>
@@ -10110,18 +10102,18 @@
       <c r="B46" s="103"/>
       <c r="C46" s="26"/>
       <c r="D46" s="103"/>
-      <c r="E46" s="128"/>
-      <c r="F46" s="128"/>
-      <c r="G46" s="128"/>
-      <c r="H46" s="128"/>
-      <c r="I46" s="134"/>
-      <c r="J46" s="134"/>
-      <c r="K46" s="129"/>
-      <c r="L46" s="134"/>
-      <c r="M46" s="134"/>
-      <c r="N46" s="134"/>
-      <c r="O46" s="134"/>
-      <c r="P46" s="134"/>
+      <c r="E46" s="124"/>
+      <c r="F46" s="124"/>
+      <c r="G46" s="124"/>
+      <c r="H46" s="124"/>
+      <c r="I46" s="130"/>
+      <c r="J46" s="130"/>
+      <c r="K46" s="125"/>
+      <c r="L46" s="130"/>
+      <c r="M46" s="130"/>
+      <c r="N46" s="130"/>
+      <c r="O46" s="130"/>
+      <c r="P46" s="130"/>
       <c r="Q46" s="55"/>
       <c r="R46" s="56"/>
       <c r="S46" s="56"/>
@@ -10239,18 +10231,18 @@
       <c r="B47" s="103"/>
       <c r="C47" s="26"/>
       <c r="D47" s="103"/>
-      <c r="E47" s="145"/>
-      <c r="F47" s="125"/>
-      <c r="G47" s="125"/>
-      <c r="H47" s="126"/>
-      <c r="I47" s="137"/>
-      <c r="J47" s="135"/>
-      <c r="K47" s="135"/>
-      <c r="L47" s="136"/>
-      <c r="M47" s="135"/>
-      <c r="N47" s="135"/>
-      <c r="O47" s="136"/>
-      <c r="P47" s="137">
+      <c r="E47" s="137"/>
+      <c r="F47" s="121"/>
+      <c r="G47" s="121"/>
+      <c r="H47" s="122"/>
+      <c r="I47" s="133"/>
+      <c r="J47" s="131"/>
+      <c r="K47" s="131"/>
+      <c r="L47" s="132"/>
+      <c r="M47" s="131"/>
+      <c r="N47" s="131"/>
+      <c r="O47" s="132"/>
+      <c r="P47" s="133">
         <v>0</v>
       </c>
       <c r="Q47" s="55"/>
@@ -10370,18 +10362,18 @@
       <c r="B48" s="103"/>
       <c r="C48" s="26"/>
       <c r="D48" s="111"/>
-      <c r="E48" s="128"/>
-      <c r="F48" s="128"/>
-      <c r="G48" s="128"/>
-      <c r="H48" s="129"/>
-      <c r="I48" s="134"/>
-      <c r="J48" s="134"/>
-      <c r="K48" s="134"/>
-      <c r="L48" s="134"/>
-      <c r="M48" s="134"/>
-      <c r="N48" s="134"/>
-      <c r="O48" s="134"/>
-      <c r="P48" s="134"/>
+      <c r="E48" s="124"/>
+      <c r="F48" s="124"/>
+      <c r="G48" s="124"/>
+      <c r="H48" s="125"/>
+      <c r="I48" s="130"/>
+      <c r="J48" s="130"/>
+      <c r="K48" s="130"/>
+      <c r="L48" s="130"/>
+      <c r="M48" s="130"/>
+      <c r="N48" s="130"/>
+      <c r="O48" s="130"/>
+      <c r="P48" s="130"/>
       <c r="Q48" s="67"/>
       <c r="R48" s="69"/>
       <c r="S48" s="69"/>
@@ -10498,23 +10490,23 @@
       <c r="A49" s="26"/>
       <c r="B49" s="103"/>
       <c r="C49" s="112"/>
-      <c r="D49" s="149" t="s">
+      <c r="D49" s="134" t="s">
         <v>94</v>
       </c>
-      <c r="E49" s="125"/>
-      <c r="F49" s="125"/>
-      <c r="G49" s="125"/>
-      <c r="H49" s="126"/>
-      <c r="I49" s="144">
+      <c r="E49" s="121"/>
+      <c r="F49" s="121"/>
+      <c r="G49" s="121"/>
+      <c r="H49" s="122"/>
+      <c r="I49" s="138">
         <v>6</v>
       </c>
-      <c r="J49" s="138">
+      <c r="J49" s="139">
         <v>45798</v>
       </c>
-      <c r="K49" s="138">
+      <c r="K49" s="139">
         <v>45798</v>
       </c>
-      <c r="L49" s="143"/>
+      <c r="L49" s="140"/>
       <c r="M49" s="104"/>
       <c r="N49" s="104"/>
       <c r="O49" s="105"/>
@@ -10635,15 +10627,15 @@
       <c r="A50" s="26"/>
       <c r="B50" s="103"/>
       <c r="C50" s="112"/>
-      <c r="D50" s="127"/>
-      <c r="E50" s="128"/>
-      <c r="F50" s="128"/>
-      <c r="G50" s="128"/>
-      <c r="H50" s="129"/>
-      <c r="I50" s="129"/>
-      <c r="J50" s="129"/>
-      <c r="K50" s="129"/>
-      <c r="L50" s="134"/>
+      <c r="D50" s="123"/>
+      <c r="E50" s="124"/>
+      <c r="F50" s="124"/>
+      <c r="G50" s="124"/>
+      <c r="H50" s="125"/>
+      <c r="I50" s="125"/>
+      <c r="J50" s="125"/>
+      <c r="K50" s="125"/>
+      <c r="L50" s="130"/>
       <c r="M50" s="106"/>
       <c r="N50" s="106"/>
       <c r="O50" s="107"/>
@@ -10765,26 +10757,26 @@
       <c r="B51" s="103"/>
       <c r="C51" s="112"/>
       <c r="D51" s="113"/>
-      <c r="E51" s="146" t="s">
+      <c r="E51" s="135" t="s">
         <v>94</v>
       </c>
-      <c r="F51" s="147"/>
-      <c r="G51" s="147"/>
-      <c r="H51" s="147"/>
-      <c r="I51" s="137">
+      <c r="F51" s="136"/>
+      <c r="G51" s="136"/>
+      <c r="H51" s="136"/>
+      <c r="I51" s="133">
         <v>3</v>
       </c>
-      <c r="J51" s="135">
+      <c r="J51" s="131">
         <v>45798</v>
       </c>
-      <c r="K51" s="135">
+      <c r="K51" s="131">
         <v>45798</v>
       </c>
-      <c r="L51" s="136"/>
-      <c r="M51" s="135"/>
-      <c r="N51" s="135"/>
-      <c r="O51" s="136"/>
-      <c r="P51" s="137">
+      <c r="L51" s="132"/>
+      <c r="M51" s="131"/>
+      <c r="N51" s="131"/>
+      <c r="O51" s="132"/>
+      <c r="P51" s="133">
         <v>0</v>
       </c>
       <c r="Q51" s="55"/>
@@ -10904,18 +10896,18 @@
       <c r="B52" s="103"/>
       <c r="C52" s="112"/>
       <c r="D52" s="114"/>
-      <c r="E52" s="128"/>
-      <c r="F52" s="128"/>
-      <c r="G52" s="128"/>
-      <c r="H52" s="128"/>
-      <c r="I52" s="134"/>
-      <c r="J52" s="134"/>
-      <c r="K52" s="134"/>
-      <c r="L52" s="134"/>
-      <c r="M52" s="134"/>
-      <c r="N52" s="134"/>
-      <c r="O52" s="134"/>
-      <c r="P52" s="134"/>
+      <c r="E52" s="124"/>
+      <c r="F52" s="124"/>
+      <c r="G52" s="124"/>
+      <c r="H52" s="124"/>
+      <c r="I52" s="130"/>
+      <c r="J52" s="130"/>
+      <c r="K52" s="130"/>
+      <c r="L52" s="130"/>
+      <c r="M52" s="130"/>
+      <c r="N52" s="130"/>
+      <c r="O52" s="130"/>
+      <c r="P52" s="130"/>
       <c r="Q52" s="55"/>
       <c r="R52" s="56"/>
       <c r="S52" s="56"/>
@@ -11033,26 +11025,26 @@
       <c r="B53" s="103"/>
       <c r="C53" s="112"/>
       <c r="D53" s="114"/>
-      <c r="E53" s="146" t="s">
+      <c r="E53" s="135" t="s">
         <v>95</v>
       </c>
-      <c r="F53" s="147"/>
-      <c r="G53" s="147"/>
-      <c r="H53" s="147"/>
-      <c r="I53" s="137">
+      <c r="F53" s="136"/>
+      <c r="G53" s="136"/>
+      <c r="H53" s="136"/>
+      <c r="I53" s="133">
         <v>3</v>
       </c>
-      <c r="J53" s="135">
+      <c r="J53" s="131">
         <v>45798</v>
       </c>
-      <c r="K53" s="135">
+      <c r="K53" s="131">
         <v>45798</v>
       </c>
-      <c r="L53" s="136"/>
-      <c r="M53" s="135"/>
-      <c r="N53" s="135"/>
-      <c r="O53" s="136"/>
-      <c r="P53" s="137">
+      <c r="L53" s="132"/>
+      <c r="M53" s="131"/>
+      <c r="N53" s="131"/>
+      <c r="O53" s="132"/>
+      <c r="P53" s="133">
         <v>0</v>
       </c>
       <c r="Q53" s="55"/>
@@ -11172,18 +11164,18 @@
       <c r="B54" s="103"/>
       <c r="C54" s="112"/>
       <c r="D54" s="114"/>
-      <c r="E54" s="128"/>
-      <c r="F54" s="128"/>
-      <c r="G54" s="128"/>
-      <c r="H54" s="128"/>
-      <c r="I54" s="134"/>
-      <c r="J54" s="134"/>
-      <c r="K54" s="134"/>
-      <c r="L54" s="134"/>
-      <c r="M54" s="134"/>
-      <c r="N54" s="134"/>
-      <c r="O54" s="134"/>
-      <c r="P54" s="134"/>
+      <c r="E54" s="124"/>
+      <c r="F54" s="124"/>
+      <c r="G54" s="124"/>
+      <c r="H54" s="124"/>
+      <c r="I54" s="130"/>
+      <c r="J54" s="130"/>
+      <c r="K54" s="130"/>
+      <c r="L54" s="130"/>
+      <c r="M54" s="130"/>
+      <c r="N54" s="130"/>
+      <c r="O54" s="130"/>
+      <c r="P54" s="130"/>
       <c r="Q54" s="55"/>
       <c r="R54" s="56"/>
       <c r="S54" s="56"/>
@@ -11301,18 +11293,18 @@
       <c r="B55" s="103"/>
       <c r="C55" s="112"/>
       <c r="D55" s="114"/>
-      <c r="E55" s="145"/>
-      <c r="F55" s="125"/>
-      <c r="G55" s="125"/>
-      <c r="H55" s="126"/>
-      <c r="I55" s="137"/>
-      <c r="J55" s="135"/>
-      <c r="K55" s="135"/>
-      <c r="L55" s="136"/>
-      <c r="M55" s="135"/>
-      <c r="N55" s="135"/>
-      <c r="O55" s="136"/>
-      <c r="P55" s="137">
+      <c r="E55" s="137"/>
+      <c r="F55" s="121"/>
+      <c r="G55" s="121"/>
+      <c r="H55" s="122"/>
+      <c r="I55" s="133"/>
+      <c r="J55" s="131"/>
+      <c r="K55" s="131"/>
+      <c r="L55" s="132"/>
+      <c r="M55" s="131"/>
+      <c r="N55" s="131"/>
+      <c r="O55" s="132"/>
+      <c r="P55" s="133">
         <v>0</v>
       </c>
       <c r="Q55" s="55"/>
@@ -11432,18 +11424,18 @@
       <c r="B56" s="103"/>
       <c r="C56" s="115"/>
       <c r="D56" s="116"/>
-      <c r="E56" s="128"/>
-      <c r="F56" s="128"/>
-      <c r="G56" s="128"/>
-      <c r="H56" s="129"/>
-      <c r="I56" s="134"/>
-      <c r="J56" s="134"/>
-      <c r="K56" s="134"/>
-      <c r="L56" s="134"/>
-      <c r="M56" s="134"/>
-      <c r="N56" s="134"/>
-      <c r="O56" s="134"/>
-      <c r="P56" s="134"/>
+      <c r="E56" s="124"/>
+      <c r="F56" s="124"/>
+      <c r="G56" s="124"/>
+      <c r="H56" s="125"/>
+      <c r="I56" s="130"/>
+      <c r="J56" s="130"/>
+      <c r="K56" s="130"/>
+      <c r="L56" s="130"/>
+      <c r="M56" s="130"/>
+      <c r="N56" s="130"/>
+      <c r="O56" s="130"/>
+      <c r="P56" s="130"/>
       <c r="Q56" s="55"/>
       <c r="R56" s="56"/>
       <c r="S56" s="56"/>
@@ -11559,24 +11551,24 @@
     <row r="57" spans="1:127" ht="12" customHeight="1">
       <c r="A57" s="26"/>
       <c r="B57" s="103"/>
-      <c r="C57" s="139" t="s">
+      <c r="C57" s="158" t="s">
         <v>96</v>
       </c>
-      <c r="D57" s="140"/>
-      <c r="E57" s="140"/>
-      <c r="F57" s="140"/>
-      <c r="G57" s="140"/>
-      <c r="H57" s="140"/>
-      <c r="I57" s="142">
+      <c r="D57" s="146"/>
+      <c r="E57" s="146"/>
+      <c r="F57" s="146"/>
+      <c r="G57" s="146"/>
+      <c r="H57" s="146"/>
+      <c r="I57" s="155">
         <v>72</v>
       </c>
-      <c r="J57" s="138">
+      <c r="J57" s="139">
         <v>45799</v>
       </c>
-      <c r="K57" s="138">
+      <c r="K57" s="139">
         <v>45808</v>
       </c>
-      <c r="L57" s="143"/>
+      <c r="L57" s="140"/>
       <c r="M57" s="104"/>
       <c r="N57" s="104"/>
       <c r="O57" s="105"/>
@@ -11696,16 +11688,16 @@
     <row r="58" spans="1:127" ht="12" customHeight="1">
       <c r="A58" s="26"/>
       <c r="B58" s="103"/>
-      <c r="C58" s="141"/>
-      <c r="D58" s="128"/>
-      <c r="E58" s="128"/>
-      <c r="F58" s="128"/>
-      <c r="G58" s="128"/>
-      <c r="H58" s="128"/>
-      <c r="I58" s="134"/>
-      <c r="J58" s="129"/>
-      <c r="K58" s="129"/>
-      <c r="L58" s="134"/>
+      <c r="C58" s="147"/>
+      <c r="D58" s="124"/>
+      <c r="E58" s="124"/>
+      <c r="F58" s="124"/>
+      <c r="G58" s="124"/>
+      <c r="H58" s="124"/>
+      <c r="I58" s="130"/>
+      <c r="J58" s="125"/>
+      <c r="K58" s="125"/>
+      <c r="L58" s="130"/>
       <c r="M58" s="106"/>
       <c r="N58" s="106"/>
       <c r="O58" s="107"/>
@@ -11826,23 +11818,23 @@
       <c r="A59" s="26"/>
       <c r="B59" s="103"/>
       <c r="C59" s="117"/>
-      <c r="D59" s="149" t="s">
+      <c r="D59" s="134" t="s">
         <v>87</v>
       </c>
-      <c r="E59" s="125"/>
-      <c r="F59" s="125"/>
-      <c r="G59" s="125"/>
-      <c r="H59" s="126"/>
-      <c r="I59" s="144">
+      <c r="E59" s="121"/>
+      <c r="F59" s="121"/>
+      <c r="G59" s="121"/>
+      <c r="H59" s="122"/>
+      <c r="I59" s="138">
         <v>12</v>
       </c>
-      <c r="J59" s="138">
+      <c r="J59" s="139">
         <v>45799</v>
       </c>
-      <c r="K59" s="138">
+      <c r="K59" s="139">
         <v>45800</v>
       </c>
-      <c r="L59" s="143"/>
+      <c r="L59" s="140"/>
       <c r="M59" s="104"/>
       <c r="N59" s="104"/>
       <c r="O59" s="105"/>
@@ -11963,15 +11955,15 @@
       <c r="A60" s="26"/>
       <c r="B60" s="103"/>
       <c r="C60" s="118"/>
-      <c r="D60" s="127"/>
-      <c r="E60" s="128"/>
-      <c r="F60" s="128"/>
-      <c r="G60" s="128"/>
-      <c r="H60" s="129"/>
-      <c r="I60" s="129"/>
-      <c r="J60" s="129"/>
-      <c r="K60" s="129"/>
-      <c r="L60" s="134"/>
+      <c r="D60" s="123"/>
+      <c r="E60" s="124"/>
+      <c r="F60" s="124"/>
+      <c r="G60" s="124"/>
+      <c r="H60" s="125"/>
+      <c r="I60" s="125"/>
+      <c r="J60" s="125"/>
+      <c r="K60" s="125"/>
+      <c r="L60" s="130"/>
       <c r="M60" s="106"/>
       <c r="N60" s="106"/>
       <c r="O60" s="107"/>
@@ -12093,26 +12085,26 @@
       <c r="B61" s="103"/>
       <c r="C61" s="112"/>
       <c r="D61" s="113"/>
-      <c r="E61" s="146" t="s">
+      <c r="E61" s="135" t="s">
         <v>89</v>
       </c>
-      <c r="F61" s="147"/>
-      <c r="G61" s="147"/>
-      <c r="H61" s="147"/>
-      <c r="I61" s="137">
+      <c r="F61" s="136"/>
+      <c r="G61" s="136"/>
+      <c r="H61" s="136"/>
+      <c r="I61" s="133">
         <v>8</v>
       </c>
-      <c r="J61" s="135">
+      <c r="J61" s="131">
         <v>45799</v>
       </c>
-      <c r="K61" s="135">
+      <c r="K61" s="131">
         <v>45799</v>
       </c>
-      <c r="L61" s="136"/>
-      <c r="M61" s="135"/>
-      <c r="N61" s="135"/>
-      <c r="O61" s="136"/>
-      <c r="P61" s="137">
+      <c r="L61" s="132"/>
+      <c r="M61" s="131"/>
+      <c r="N61" s="131"/>
+      <c r="O61" s="132"/>
+      <c r="P61" s="133">
         <v>0</v>
       </c>
       <c r="Q61" s="55"/>
@@ -12232,18 +12224,18 @@
       <c r="B62" s="103"/>
       <c r="C62" s="112"/>
       <c r="D62" s="114"/>
-      <c r="E62" s="128"/>
-      <c r="F62" s="128"/>
-      <c r="G62" s="128"/>
-      <c r="H62" s="128"/>
-      <c r="I62" s="134"/>
-      <c r="J62" s="134"/>
-      <c r="K62" s="134"/>
-      <c r="L62" s="134"/>
-      <c r="M62" s="134"/>
-      <c r="N62" s="134"/>
-      <c r="O62" s="134"/>
-      <c r="P62" s="134"/>
+      <c r="E62" s="124"/>
+      <c r="F62" s="124"/>
+      <c r="G62" s="124"/>
+      <c r="H62" s="124"/>
+      <c r="I62" s="130"/>
+      <c r="J62" s="130"/>
+      <c r="K62" s="130"/>
+      <c r="L62" s="130"/>
+      <c r="M62" s="130"/>
+      <c r="N62" s="130"/>
+      <c r="O62" s="130"/>
+      <c r="P62" s="130"/>
       <c r="Q62" s="55"/>
       <c r="R62" s="56"/>
       <c r="S62" s="56"/>
@@ -12361,26 +12353,26 @@
       <c r="B63" s="103"/>
       <c r="C63" s="112"/>
       <c r="D63" s="114"/>
-      <c r="E63" s="146" t="s">
+      <c r="E63" s="135" t="s">
         <v>90</v>
       </c>
-      <c r="F63" s="147"/>
-      <c r="G63" s="147"/>
-      <c r="H63" s="147"/>
-      <c r="I63" s="137">
+      <c r="F63" s="136"/>
+      <c r="G63" s="136"/>
+      <c r="H63" s="136"/>
+      <c r="I63" s="133">
         <v>4</v>
       </c>
-      <c r="J63" s="135">
+      <c r="J63" s="131">
         <v>45800</v>
       </c>
-      <c r="K63" s="135">
+      <c r="K63" s="131">
         <v>45800</v>
       </c>
-      <c r="L63" s="136"/>
-      <c r="M63" s="135"/>
-      <c r="N63" s="135"/>
-      <c r="O63" s="136"/>
-      <c r="P63" s="137">
+      <c r="L63" s="132"/>
+      <c r="M63" s="131"/>
+      <c r="N63" s="131"/>
+      <c r="O63" s="132"/>
+      <c r="P63" s="133">
         <v>0</v>
       </c>
       <c r="Q63" s="55"/>
@@ -12500,18 +12492,18 @@
       <c r="B64" s="103"/>
       <c r="C64" s="112"/>
       <c r="D64" s="114"/>
-      <c r="E64" s="128"/>
-      <c r="F64" s="128"/>
-      <c r="G64" s="128"/>
-      <c r="H64" s="128"/>
-      <c r="I64" s="134"/>
-      <c r="J64" s="134"/>
-      <c r="K64" s="134"/>
-      <c r="L64" s="134"/>
-      <c r="M64" s="134"/>
-      <c r="N64" s="134"/>
-      <c r="O64" s="134"/>
-      <c r="P64" s="134"/>
+      <c r="E64" s="124"/>
+      <c r="F64" s="124"/>
+      <c r="G64" s="124"/>
+      <c r="H64" s="124"/>
+      <c r="I64" s="130"/>
+      <c r="J64" s="130"/>
+      <c r="K64" s="130"/>
+      <c r="L64" s="130"/>
+      <c r="M64" s="130"/>
+      <c r="N64" s="130"/>
+      <c r="O64" s="130"/>
+      <c r="P64" s="130"/>
       <c r="Q64" s="55"/>
       <c r="R64" s="56"/>
       <c r="S64" s="56"/>
@@ -12629,18 +12621,18 @@
       <c r="B65" s="103"/>
       <c r="C65" s="112"/>
       <c r="D65" s="114"/>
-      <c r="E65" s="145"/>
-      <c r="F65" s="125"/>
-      <c r="G65" s="125"/>
-      <c r="H65" s="126"/>
-      <c r="I65" s="137"/>
-      <c r="J65" s="135"/>
-      <c r="K65" s="135"/>
-      <c r="L65" s="136"/>
-      <c r="M65" s="135"/>
-      <c r="N65" s="135"/>
-      <c r="O65" s="136"/>
-      <c r="P65" s="137">
+      <c r="E65" s="137"/>
+      <c r="F65" s="121"/>
+      <c r="G65" s="121"/>
+      <c r="H65" s="122"/>
+      <c r="I65" s="133"/>
+      <c r="J65" s="131"/>
+      <c r="K65" s="131"/>
+      <c r="L65" s="132"/>
+      <c r="M65" s="131"/>
+      <c r="N65" s="131"/>
+      <c r="O65" s="132"/>
+      <c r="P65" s="133">
         <v>0</v>
       </c>
       <c r="Q65" s="55"/>
@@ -12760,18 +12752,18 @@
       <c r="B66" s="103"/>
       <c r="C66" s="112"/>
       <c r="D66" s="116"/>
-      <c r="E66" s="128"/>
-      <c r="F66" s="128"/>
-      <c r="G66" s="128"/>
-      <c r="H66" s="129"/>
-      <c r="I66" s="134"/>
-      <c r="J66" s="134"/>
-      <c r="K66" s="134"/>
-      <c r="L66" s="134"/>
-      <c r="M66" s="134"/>
-      <c r="N66" s="134"/>
-      <c r="O66" s="134"/>
-      <c r="P66" s="134"/>
+      <c r="E66" s="124"/>
+      <c r="F66" s="124"/>
+      <c r="G66" s="124"/>
+      <c r="H66" s="125"/>
+      <c r="I66" s="130"/>
+      <c r="J66" s="130"/>
+      <c r="K66" s="130"/>
+      <c r="L66" s="130"/>
+      <c r="M66" s="130"/>
+      <c r="N66" s="130"/>
+      <c r="O66" s="130"/>
+      <c r="P66" s="130"/>
       <c r="Q66" s="67"/>
       <c r="R66" s="69"/>
       <c r="S66" s="69"/>
@@ -12888,23 +12880,23 @@
       <c r="A67" s="26"/>
       <c r="B67" s="103"/>
       <c r="C67" s="112"/>
-      <c r="D67" s="149" t="s">
+      <c r="D67" s="134" t="s">
         <v>91</v>
       </c>
-      <c r="E67" s="125"/>
-      <c r="F67" s="125"/>
-      <c r="G67" s="125"/>
-      <c r="H67" s="126"/>
-      <c r="I67" s="144">
+      <c r="E67" s="121"/>
+      <c r="F67" s="121"/>
+      <c r="G67" s="121"/>
+      <c r="H67" s="122"/>
+      <c r="I67" s="138">
         <v>52</v>
       </c>
-      <c r="J67" s="138">
+      <c r="J67" s="139">
         <v>45803</v>
       </c>
-      <c r="K67" s="138">
+      <c r="K67" s="139">
         <v>45811</v>
       </c>
-      <c r="L67" s="143"/>
+      <c r="L67" s="140"/>
       <c r="M67" s="104"/>
       <c r="N67" s="104"/>
       <c r="O67" s="105"/>
@@ -13025,15 +13017,15 @@
       <c r="A68" s="26"/>
       <c r="B68" s="103"/>
       <c r="C68" s="112"/>
-      <c r="D68" s="127"/>
-      <c r="E68" s="128"/>
-      <c r="F68" s="128"/>
-      <c r="G68" s="128"/>
-      <c r="H68" s="129"/>
-      <c r="I68" s="129"/>
-      <c r="J68" s="129"/>
-      <c r="K68" s="129"/>
-      <c r="L68" s="134"/>
+      <c r="D68" s="123"/>
+      <c r="E68" s="124"/>
+      <c r="F68" s="124"/>
+      <c r="G68" s="124"/>
+      <c r="H68" s="125"/>
+      <c r="I68" s="125"/>
+      <c r="J68" s="125"/>
+      <c r="K68" s="125"/>
+      <c r="L68" s="130"/>
       <c r="M68" s="106"/>
       <c r="N68" s="106"/>
       <c r="O68" s="107"/>
@@ -13155,26 +13147,26 @@
       <c r="B69" s="103"/>
       <c r="C69" s="112"/>
       <c r="D69" s="113"/>
-      <c r="E69" s="146" t="s">
+      <c r="E69" s="135" t="s">
         <v>97</v>
       </c>
-      <c r="F69" s="147"/>
-      <c r="G69" s="147"/>
-      <c r="H69" s="147"/>
-      <c r="I69" s="137">
+      <c r="F69" s="136"/>
+      <c r="G69" s="136"/>
+      <c r="H69" s="136"/>
+      <c r="I69" s="133">
         <v>26</v>
       </c>
-      <c r="J69" s="148">
+      <c r="J69" s="141">
         <v>45803</v>
       </c>
-      <c r="K69" s="135">
+      <c r="K69" s="131">
         <v>45806</v>
       </c>
-      <c r="L69" s="136"/>
-      <c r="M69" s="135"/>
-      <c r="N69" s="135"/>
-      <c r="O69" s="136"/>
-      <c r="P69" s="137">
+      <c r="L69" s="132"/>
+      <c r="M69" s="131"/>
+      <c r="N69" s="131"/>
+      <c r="O69" s="132"/>
+      <c r="P69" s="133">
         <v>0</v>
       </c>
       <c r="Q69" s="55"/>
@@ -13294,18 +13286,18 @@
       <c r="B70" s="103"/>
       <c r="C70" s="112"/>
       <c r="D70" s="114"/>
-      <c r="E70" s="128"/>
-      <c r="F70" s="128"/>
-      <c r="G70" s="128"/>
-      <c r="H70" s="128"/>
-      <c r="I70" s="134"/>
-      <c r="J70" s="129"/>
-      <c r="K70" s="134"/>
-      <c r="L70" s="134"/>
-      <c r="M70" s="134"/>
-      <c r="N70" s="134"/>
-      <c r="O70" s="134"/>
-      <c r="P70" s="134"/>
+      <c r="E70" s="124"/>
+      <c r="F70" s="124"/>
+      <c r="G70" s="124"/>
+      <c r="H70" s="124"/>
+      <c r="I70" s="130"/>
+      <c r="J70" s="125"/>
+      <c r="K70" s="130"/>
+      <c r="L70" s="130"/>
+      <c r="M70" s="130"/>
+      <c r="N70" s="130"/>
+      <c r="O70" s="130"/>
+      <c r="P70" s="130"/>
       <c r="Q70" s="55"/>
       <c r="R70" s="56"/>
       <c r="S70" s="56"/>
@@ -13423,26 +13415,26 @@
       <c r="B71" s="103"/>
       <c r="C71" s="112"/>
       <c r="D71" s="114"/>
-      <c r="E71" s="146" t="s">
+      <c r="E71" s="135" t="s">
         <v>98</v>
       </c>
-      <c r="F71" s="147"/>
-      <c r="G71" s="147"/>
-      <c r="H71" s="147"/>
-      <c r="I71" s="137">
+      <c r="F71" s="136"/>
+      <c r="G71" s="136"/>
+      <c r="H71" s="136"/>
+      <c r="I71" s="133">
         <v>18</v>
       </c>
-      <c r="J71" s="135">
+      <c r="J71" s="131">
         <v>45806</v>
       </c>
-      <c r="K71" s="135">
+      <c r="K71" s="131">
         <v>45810</v>
       </c>
-      <c r="L71" s="136"/>
-      <c r="M71" s="135"/>
-      <c r="N71" s="135"/>
-      <c r="O71" s="136"/>
-      <c r="P71" s="137">
+      <c r="L71" s="132"/>
+      <c r="M71" s="131"/>
+      <c r="N71" s="131"/>
+      <c r="O71" s="132"/>
+      <c r="P71" s="133">
         <v>0</v>
       </c>
       <c r="Q71" s="55"/>
@@ -13562,18 +13554,18 @@
       <c r="B72" s="103"/>
       <c r="C72" s="112"/>
       <c r="D72" s="114"/>
-      <c r="E72" s="128"/>
-      <c r="F72" s="128"/>
-      <c r="G72" s="128"/>
-      <c r="H72" s="128"/>
-      <c r="I72" s="134"/>
-      <c r="J72" s="134"/>
-      <c r="K72" s="134"/>
-      <c r="L72" s="134"/>
-      <c r="M72" s="134"/>
-      <c r="N72" s="134"/>
-      <c r="O72" s="134"/>
-      <c r="P72" s="134"/>
+      <c r="E72" s="124"/>
+      <c r="F72" s="124"/>
+      <c r="G72" s="124"/>
+      <c r="H72" s="124"/>
+      <c r="I72" s="130"/>
+      <c r="J72" s="130"/>
+      <c r="K72" s="130"/>
+      <c r="L72" s="130"/>
+      <c r="M72" s="130"/>
+      <c r="N72" s="130"/>
+      <c r="O72" s="130"/>
+      <c r="P72" s="130"/>
       <c r="Q72" s="55"/>
       <c r="R72" s="56"/>
       <c r="S72" s="56"/>
@@ -13691,26 +13683,26 @@
       <c r="B73" s="103"/>
       <c r="C73" s="112"/>
       <c r="D73" s="114"/>
-      <c r="E73" s="145" t="s">
+      <c r="E73" s="137" t="s">
         <v>99</v>
       </c>
-      <c r="F73" s="125"/>
-      <c r="G73" s="125"/>
-      <c r="H73" s="126"/>
-      <c r="I73" s="137">
+      <c r="F73" s="121"/>
+      <c r="G73" s="121"/>
+      <c r="H73" s="122"/>
+      <c r="I73" s="133">
         <v>8</v>
       </c>
-      <c r="J73" s="135">
+      <c r="J73" s="131">
         <v>45811</v>
       </c>
-      <c r="K73" s="135">
+      <c r="K73" s="131">
         <v>45811</v>
       </c>
-      <c r="L73" s="136"/>
-      <c r="M73" s="135"/>
-      <c r="N73" s="135"/>
-      <c r="O73" s="136"/>
-      <c r="P73" s="137">
+      <c r="L73" s="132"/>
+      <c r="M73" s="131"/>
+      <c r="N73" s="131"/>
+      <c r="O73" s="132"/>
+      <c r="P73" s="133">
         <v>0</v>
       </c>
       <c r="Q73" s="55"/>
@@ -13830,18 +13822,18 @@
       <c r="B74" s="103"/>
       <c r="C74" s="112"/>
       <c r="D74" s="116"/>
-      <c r="E74" s="128"/>
-      <c r="F74" s="128"/>
-      <c r="G74" s="128"/>
-      <c r="H74" s="129"/>
-      <c r="I74" s="134"/>
-      <c r="J74" s="134"/>
-      <c r="K74" s="134"/>
-      <c r="L74" s="134"/>
-      <c r="M74" s="134"/>
-      <c r="N74" s="134"/>
-      <c r="O74" s="134"/>
-      <c r="P74" s="134"/>
+      <c r="E74" s="124"/>
+      <c r="F74" s="124"/>
+      <c r="G74" s="124"/>
+      <c r="H74" s="125"/>
+      <c r="I74" s="130"/>
+      <c r="J74" s="130"/>
+      <c r="K74" s="130"/>
+      <c r="L74" s="130"/>
+      <c r="M74" s="130"/>
+      <c r="N74" s="130"/>
+      <c r="O74" s="130"/>
+      <c r="P74" s="130"/>
       <c r="Q74" s="67"/>
       <c r="R74" s="69"/>
       <c r="S74" s="69"/>
@@ -13958,23 +13950,23 @@
       <c r="A75" s="26"/>
       <c r="B75" s="103"/>
       <c r="C75" s="112"/>
-      <c r="D75" s="149" t="s">
+      <c r="D75" s="134" t="s">
         <v>94</v>
       </c>
-      <c r="E75" s="125"/>
-      <c r="F75" s="125"/>
-      <c r="G75" s="125"/>
-      <c r="H75" s="126"/>
-      <c r="I75" s="144">
+      <c r="E75" s="121"/>
+      <c r="F75" s="121"/>
+      <c r="G75" s="121"/>
+      <c r="H75" s="122"/>
+      <c r="I75" s="138">
         <v>8</v>
       </c>
-      <c r="J75" s="138">
+      <c r="J75" s="139">
         <v>45812</v>
       </c>
-      <c r="K75" s="138">
+      <c r="K75" s="139">
         <v>45812</v>
       </c>
-      <c r="L75" s="143"/>
+      <c r="L75" s="140"/>
       <c r="M75" s="104"/>
       <c r="N75" s="104"/>
       <c r="O75" s="105"/>
@@ -14095,15 +14087,15 @@
       <c r="A76" s="26"/>
       <c r="B76" s="103"/>
       <c r="C76" s="112"/>
-      <c r="D76" s="127"/>
-      <c r="E76" s="128"/>
-      <c r="F76" s="128"/>
-      <c r="G76" s="128"/>
-      <c r="H76" s="129"/>
-      <c r="I76" s="129"/>
-      <c r="J76" s="129"/>
-      <c r="K76" s="129"/>
-      <c r="L76" s="134"/>
+      <c r="D76" s="123"/>
+      <c r="E76" s="124"/>
+      <c r="F76" s="124"/>
+      <c r="G76" s="124"/>
+      <c r="H76" s="125"/>
+      <c r="I76" s="125"/>
+      <c r="J76" s="125"/>
+      <c r="K76" s="125"/>
+      <c r="L76" s="130"/>
       <c r="M76" s="106"/>
       <c r="N76" s="106"/>
       <c r="O76" s="107"/>
@@ -14225,26 +14217,26 @@
       <c r="B77" s="103"/>
       <c r="C77" s="26"/>
       <c r="D77" s="110"/>
-      <c r="E77" s="146" t="s">
+      <c r="E77" s="135" t="s">
         <v>94</v>
       </c>
-      <c r="F77" s="147"/>
-      <c r="G77" s="147"/>
-      <c r="H77" s="147"/>
-      <c r="I77" s="137">
+      <c r="F77" s="136"/>
+      <c r="G77" s="136"/>
+      <c r="H77" s="136"/>
+      <c r="I77" s="133">
         <v>4</v>
       </c>
-      <c r="J77" s="135">
+      <c r="J77" s="131">
         <v>45812</v>
       </c>
-      <c r="K77" s="135">
+      <c r="K77" s="131">
         <v>45812</v>
       </c>
-      <c r="L77" s="136"/>
-      <c r="M77" s="135"/>
-      <c r="N77" s="135"/>
-      <c r="O77" s="136"/>
-      <c r="P77" s="137">
+      <c r="L77" s="132"/>
+      <c r="M77" s="131"/>
+      <c r="N77" s="131"/>
+      <c r="O77" s="132"/>
+      <c r="P77" s="133">
         <v>0</v>
       </c>
       <c r="Q77" s="55"/>
@@ -14364,18 +14356,18 @@
       <c r="B78" s="103"/>
       <c r="C78" s="26"/>
       <c r="D78" s="103"/>
-      <c r="E78" s="128"/>
-      <c r="F78" s="128"/>
-      <c r="G78" s="128"/>
-      <c r="H78" s="128"/>
-      <c r="I78" s="134"/>
-      <c r="J78" s="134"/>
-      <c r="K78" s="134"/>
-      <c r="L78" s="134"/>
-      <c r="M78" s="134"/>
-      <c r="N78" s="134"/>
-      <c r="O78" s="134"/>
-      <c r="P78" s="134"/>
+      <c r="E78" s="124"/>
+      <c r="F78" s="124"/>
+      <c r="G78" s="124"/>
+      <c r="H78" s="124"/>
+      <c r="I78" s="130"/>
+      <c r="J78" s="130"/>
+      <c r="K78" s="130"/>
+      <c r="L78" s="130"/>
+      <c r="M78" s="130"/>
+      <c r="N78" s="130"/>
+      <c r="O78" s="130"/>
+      <c r="P78" s="130"/>
       <c r="Q78" s="55"/>
       <c r="R78" s="56"/>
       <c r="S78" s="56"/>
@@ -14493,26 +14485,26 @@
       <c r="B79" s="103"/>
       <c r="C79" s="26"/>
       <c r="D79" s="103"/>
-      <c r="E79" s="146" t="s">
+      <c r="E79" s="135" t="s">
         <v>95</v>
       </c>
-      <c r="F79" s="147"/>
-      <c r="G79" s="147"/>
-      <c r="H79" s="147"/>
-      <c r="I79" s="137">
+      <c r="F79" s="136"/>
+      <c r="G79" s="136"/>
+      <c r="H79" s="136"/>
+      <c r="I79" s="133">
         <v>4</v>
       </c>
-      <c r="J79" s="135">
+      <c r="J79" s="131">
         <v>45812</v>
       </c>
-      <c r="K79" s="135">
+      <c r="K79" s="131">
         <v>45812</v>
       </c>
-      <c r="L79" s="136"/>
-      <c r="M79" s="135"/>
-      <c r="N79" s="135"/>
-      <c r="O79" s="136"/>
-      <c r="P79" s="137">
+      <c r="L79" s="132"/>
+      <c r="M79" s="131"/>
+      <c r="N79" s="131"/>
+      <c r="O79" s="132"/>
+      <c r="P79" s="133">
         <v>0</v>
       </c>
       <c r="Q79" s="55"/>
@@ -14632,18 +14624,18 @@
       <c r="B80" s="103"/>
       <c r="C80" s="26"/>
       <c r="D80" s="103"/>
-      <c r="E80" s="128"/>
-      <c r="F80" s="128"/>
-      <c r="G80" s="128"/>
-      <c r="H80" s="128"/>
-      <c r="I80" s="134"/>
-      <c r="J80" s="134"/>
-      <c r="K80" s="134"/>
-      <c r="L80" s="134"/>
-      <c r="M80" s="134"/>
-      <c r="N80" s="134"/>
-      <c r="O80" s="134"/>
-      <c r="P80" s="134"/>
+      <c r="E80" s="124"/>
+      <c r="F80" s="124"/>
+      <c r="G80" s="124"/>
+      <c r="H80" s="124"/>
+      <c r="I80" s="130"/>
+      <c r="J80" s="130"/>
+      <c r="K80" s="130"/>
+      <c r="L80" s="130"/>
+      <c r="M80" s="130"/>
+      <c r="N80" s="130"/>
+      <c r="O80" s="130"/>
+      <c r="P80" s="130"/>
       <c r="Q80" s="55"/>
       <c r="R80" s="56"/>
       <c r="S80" s="56"/>
@@ -14761,18 +14753,18 @@
       <c r="B81" s="103"/>
       <c r="C81" s="26"/>
       <c r="D81" s="103"/>
-      <c r="E81" s="145"/>
-      <c r="F81" s="125"/>
-      <c r="G81" s="125"/>
-      <c r="H81" s="126"/>
-      <c r="I81" s="137"/>
-      <c r="J81" s="135"/>
-      <c r="K81" s="135"/>
-      <c r="L81" s="136"/>
-      <c r="M81" s="135"/>
-      <c r="N81" s="135"/>
-      <c r="O81" s="136"/>
-      <c r="P81" s="137">
+      <c r="E81" s="137"/>
+      <c r="F81" s="121"/>
+      <c r="G81" s="121"/>
+      <c r="H81" s="122"/>
+      <c r="I81" s="133"/>
+      <c r="J81" s="131"/>
+      <c r="K81" s="131"/>
+      <c r="L81" s="132"/>
+      <c r="M81" s="131"/>
+      <c r="N81" s="131"/>
+      <c r="O81" s="132"/>
+      <c r="P81" s="133">
         <v>0</v>
       </c>
       <c r="Q81" s="55"/>
@@ -14892,18 +14884,18 @@
       <c r="B82" s="111"/>
       <c r="C82" s="119"/>
       <c r="D82" s="111"/>
-      <c r="E82" s="128"/>
-      <c r="F82" s="128"/>
-      <c r="G82" s="128"/>
-      <c r="H82" s="129"/>
-      <c r="I82" s="134"/>
-      <c r="J82" s="134"/>
-      <c r="K82" s="134"/>
-      <c r="L82" s="134"/>
-      <c r="M82" s="134"/>
-      <c r="N82" s="134"/>
-      <c r="O82" s="134"/>
-      <c r="P82" s="134"/>
+      <c r="E82" s="124"/>
+      <c r="F82" s="124"/>
+      <c r="G82" s="124"/>
+      <c r="H82" s="125"/>
+      <c r="I82" s="130"/>
+      <c r="J82" s="130"/>
+      <c r="K82" s="130"/>
+      <c r="L82" s="130"/>
+      <c r="M82" s="130"/>
+      <c r="N82" s="130"/>
+      <c r="O82" s="130"/>
+      <c r="P82" s="130"/>
       <c r="Q82" s="55"/>
       <c r="R82" s="56"/>
       <c r="S82" s="56"/>
@@ -15018,109 +15010,168 @@
     </row>
   </sheetData>
   <mergeCells count="300">
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="J61:J62"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="L61:L62"/>
-    <mergeCell ref="M61:M62"/>
-    <mergeCell ref="D49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="E51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="O65:O66"/>
-    <mergeCell ref="E65:H66"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="J65:J66"/>
-    <mergeCell ref="K65:K66"/>
-    <mergeCell ref="L65:L66"/>
-    <mergeCell ref="M65:M66"/>
-    <mergeCell ref="N65:N66"/>
-    <mergeCell ref="O63:O64"/>
-    <mergeCell ref="E63:H64"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="J63:J64"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="L63:L64"/>
-    <mergeCell ref="M63:M64"/>
-    <mergeCell ref="N63:N64"/>
-    <mergeCell ref="O73:O74"/>
-    <mergeCell ref="P73:P74"/>
-    <mergeCell ref="E73:H74"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="J73:J74"/>
-    <mergeCell ref="K73:K74"/>
-    <mergeCell ref="L73:L74"/>
-    <mergeCell ref="M73:M74"/>
-    <mergeCell ref="O55:O56"/>
-    <mergeCell ref="P55:P56"/>
-    <mergeCell ref="E55:H56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="L55:L56"/>
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="N55:N56"/>
-    <mergeCell ref="P65:P66"/>
-    <mergeCell ref="P63:P64"/>
-    <mergeCell ref="N61:N62"/>
-    <mergeCell ref="O61:O62"/>
-    <mergeCell ref="P61:P62"/>
-    <mergeCell ref="D59:H60"/>
-    <mergeCell ref="E61:H62"/>
-    <mergeCell ref="J77:J78"/>
-    <mergeCell ref="K77:K78"/>
-    <mergeCell ref="D75:H76"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="J75:J76"/>
-    <mergeCell ref="K75:K76"/>
-    <mergeCell ref="L75:L76"/>
-    <mergeCell ref="E77:H78"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="P79:P80"/>
-    <mergeCell ref="E79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="J79:J80"/>
-    <mergeCell ref="K79:K80"/>
-    <mergeCell ref="L79:L80"/>
-    <mergeCell ref="M79:M80"/>
-    <mergeCell ref="N79:N80"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="E81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="J81:J82"/>
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="L81:L82"/>
-    <mergeCell ref="M81:M82"/>
-    <mergeCell ref="N81:N82"/>
-    <mergeCell ref="D67:H68"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="J67:J68"/>
-    <mergeCell ref="K67:K68"/>
-    <mergeCell ref="L67:L68"/>
-    <mergeCell ref="E69:H70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="O71:O72"/>
-    <mergeCell ref="P71:P72"/>
-    <mergeCell ref="E71:H72"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="J71:J72"/>
-    <mergeCell ref="K71:K72"/>
-    <mergeCell ref="L71:L72"/>
-    <mergeCell ref="M71:M72"/>
-    <mergeCell ref="N71:N72"/>
-    <mergeCell ref="L69:L70"/>
-    <mergeCell ref="M69:M70"/>
-    <mergeCell ref="N69:N70"/>
-    <mergeCell ref="O69:O70"/>
-    <mergeCell ref="P69:P70"/>
-    <mergeCell ref="J69:J70"/>
-    <mergeCell ref="K69:K70"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="N51:N52"/>
+    <mergeCell ref="O51:O52"/>
+    <mergeCell ref="P51:P52"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="C57:H58"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="L57:L58"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="O47:O48"/>
+    <mergeCell ref="P47:P48"/>
+    <mergeCell ref="E47:H48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="N47:N48"/>
+    <mergeCell ref="O45:O46"/>
+    <mergeCell ref="P45:P46"/>
+    <mergeCell ref="E45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="D41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="E43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="C31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="N35:N36"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="D33:H34"/>
+    <mergeCell ref="E35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="E39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="E37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="D27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="P29:P30"/>
+    <mergeCell ref="D29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="C23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="D25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="C19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="D21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="D15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="D17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="D11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="D13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="CZ4:DV4"/>
+    <mergeCell ref="B7:H8"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="C9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
     <mergeCell ref="N73:N74"/>
     <mergeCell ref="L77:L78"/>
     <mergeCell ref="M77:M78"/>
@@ -15145,168 +15196,73 @@
     <mergeCell ref="M43:M44"/>
     <mergeCell ref="N43:N44"/>
     <mergeCell ref="O43:O44"/>
-    <mergeCell ref="CZ4:DV4"/>
-    <mergeCell ref="B7:H8"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="C9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="D11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="D13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="D15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="D17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="C19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="D21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="P25:P26"/>
-    <mergeCell ref="C23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="D25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="D27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="P29:P30"/>
-    <mergeCell ref="D29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="E39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="E37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="C31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="N35:N36"/>
-    <mergeCell ref="O35:O36"/>
-    <mergeCell ref="D33:H34"/>
-    <mergeCell ref="E35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="D41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="E43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="O45:O46"/>
-    <mergeCell ref="P45:P46"/>
-    <mergeCell ref="E45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="N45:N46"/>
-    <mergeCell ref="O47:O48"/>
-    <mergeCell ref="P47:P48"/>
-    <mergeCell ref="E47:H48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="N47:N48"/>
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="N51:N52"/>
-    <mergeCell ref="O51:O52"/>
-    <mergeCell ref="P51:P52"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="C57:H58"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="L57:L58"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="D67:H68"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="J67:J68"/>
+    <mergeCell ref="K67:K68"/>
+    <mergeCell ref="L67:L68"/>
+    <mergeCell ref="E69:H70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="O71:O72"/>
+    <mergeCell ref="P71:P72"/>
+    <mergeCell ref="E71:H72"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="J71:J72"/>
+    <mergeCell ref="K71:K72"/>
+    <mergeCell ref="L71:L72"/>
+    <mergeCell ref="M71:M72"/>
+    <mergeCell ref="N71:N72"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="E81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="J81:J82"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="L81:L82"/>
+    <mergeCell ref="M81:M82"/>
+    <mergeCell ref="N81:N82"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="P79:P80"/>
+    <mergeCell ref="E79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="K79:K80"/>
+    <mergeCell ref="L79:L80"/>
+    <mergeCell ref="M79:M80"/>
+    <mergeCell ref="N79:N80"/>
+    <mergeCell ref="L69:L70"/>
+    <mergeCell ref="M69:M70"/>
+    <mergeCell ref="N69:N70"/>
+    <mergeCell ref="O69:O70"/>
+    <mergeCell ref="P69:P70"/>
+    <mergeCell ref="J77:J78"/>
+    <mergeCell ref="K77:K78"/>
+    <mergeCell ref="D75:H76"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="J75:J76"/>
+    <mergeCell ref="K75:K76"/>
+    <mergeCell ref="L75:L76"/>
+    <mergeCell ref="E77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="J69:J70"/>
+    <mergeCell ref="K69:K70"/>
+    <mergeCell ref="O73:O74"/>
+    <mergeCell ref="P73:P74"/>
+    <mergeCell ref="E73:H74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="J73:J74"/>
+    <mergeCell ref="K73:K74"/>
+    <mergeCell ref="L73:L74"/>
+    <mergeCell ref="M73:M74"/>
+    <mergeCell ref="O55:O56"/>
+    <mergeCell ref="P55:P56"/>
+    <mergeCell ref="E55:H56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="N55:N56"/>
     <mergeCell ref="O53:O54"/>
     <mergeCell ref="P53:P54"/>
     <mergeCell ref="E53:H54"/>
@@ -15318,6 +15274,42 @@
     <mergeCell ref="N53:N54"/>
     <mergeCell ref="J51:J52"/>
     <mergeCell ref="K51:K52"/>
+    <mergeCell ref="D49:H50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="E51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="O65:O66"/>
+    <mergeCell ref="P65:P66"/>
+    <mergeCell ref="E65:H66"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="J65:J66"/>
+    <mergeCell ref="K65:K66"/>
+    <mergeCell ref="L65:L66"/>
+    <mergeCell ref="M65:M66"/>
+    <mergeCell ref="N65:N66"/>
+    <mergeCell ref="O63:O64"/>
+    <mergeCell ref="P63:P64"/>
+    <mergeCell ref="E63:H64"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="J63:J64"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="L63:L64"/>
+    <mergeCell ref="M63:M64"/>
+    <mergeCell ref="N63:N64"/>
+    <mergeCell ref="N61:N62"/>
+    <mergeCell ref="O61:O62"/>
+    <mergeCell ref="P61:P62"/>
+    <mergeCell ref="D59:H60"/>
+    <mergeCell ref="E61:H62"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="J61:J62"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="L61:L62"/>
+    <mergeCell ref="M61:M62"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/DOJT｜WBS _ PGコース MVC編.xlsx
+++ b/docs/DOJT｜WBS _ PGコース MVC編.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="111">
   <si>
     <t>タスク名</t>
   </si>
@@ -421,6 +421,27 @@
       </rPr>
       <t>検索実装</t>
     </r>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>中村</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>中村</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>入力チェック不具合修正</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>フグアイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュウセイ</t>
+    </rPh>
     <phoneticPr fontId="13"/>
   </si>
 </sst>
@@ -1137,7 +1158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1332,6 +1353,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1349,45 +1371,101 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="56" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="56" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="180" fontId="5" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="5" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1409,62 +1487,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="180" fontId="5" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="5" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="5" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1708,35 +1730,35 @@
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="120" t="s">
+      <c r="B2" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="126" t="s">
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="127"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="126" t="s">
+      <c r="G2" s="128"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="127"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="129" t="s">
+      <c r="J2" s="128"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="129" t="s">
+      <c r="M2" s="130" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="20.25" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="123"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="125"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="126"/>
       <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1755,8 +1777,8 @@
       <c r="K3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="130"/>
-      <c r="M3" s="130"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
     </row>
     <row r="4" spans="1:13" ht="20.25" customHeight="1">
       <c r="A4" s="3"/>
@@ -3549,8 +3571,8 @@
   <dimension ref="A1:DW84"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O39" sqref="O39:O40"/>
+      <pane ySplit="8" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BK46" sqref="BK46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3980,124 +4002,124 @@
       <c r="N4" s="27"/>
       <c r="O4" s="27"/>
       <c r="P4" s="27"/>
-      <c r="Q4" s="180" t="s">
+      <c r="Q4" s="147" t="s">
         <v>63</v>
       </c>
-      <c r="R4" s="127"/>
-      <c r="S4" s="127"/>
-      <c r="T4" s="127"/>
-      <c r="U4" s="127"/>
-      <c r="V4" s="127"/>
-      <c r="W4" s="127"/>
-      <c r="X4" s="127"/>
-      <c r="Y4" s="127"/>
-      <c r="Z4" s="127"/>
-      <c r="AA4" s="127"/>
-      <c r="AB4" s="127"/>
-      <c r="AC4" s="127"/>
-      <c r="AD4" s="127"/>
-      <c r="AE4" s="127"/>
-      <c r="AF4" s="127"/>
-      <c r="AG4" s="127"/>
-      <c r="AH4" s="127"/>
-      <c r="AI4" s="127"/>
-      <c r="AJ4" s="127"/>
-      <c r="AK4" s="127"/>
-      <c r="AL4" s="127"/>
-      <c r="AM4" s="127"/>
-      <c r="AN4" s="127"/>
-      <c r="AO4" s="127"/>
-      <c r="AP4" s="128"/>
-      <c r="AQ4" s="180" t="s">
+      <c r="R4" s="128"/>
+      <c r="S4" s="128"/>
+      <c r="T4" s="128"/>
+      <c r="U4" s="128"/>
+      <c r="V4" s="128"/>
+      <c r="W4" s="128"/>
+      <c r="X4" s="128"/>
+      <c r="Y4" s="128"/>
+      <c r="Z4" s="128"/>
+      <c r="AA4" s="128"/>
+      <c r="AB4" s="128"/>
+      <c r="AC4" s="128"/>
+      <c r="AD4" s="128"/>
+      <c r="AE4" s="128"/>
+      <c r="AF4" s="128"/>
+      <c r="AG4" s="128"/>
+      <c r="AH4" s="128"/>
+      <c r="AI4" s="128"/>
+      <c r="AJ4" s="128"/>
+      <c r="AK4" s="128"/>
+      <c r="AL4" s="128"/>
+      <c r="AM4" s="128"/>
+      <c r="AN4" s="128"/>
+      <c r="AO4" s="128"/>
+      <c r="AP4" s="129"/>
+      <c r="AQ4" s="147" t="s">
         <v>64</v>
       </c>
-      <c r="AR4" s="127"/>
-      <c r="AS4" s="127"/>
-      <c r="AT4" s="127"/>
-      <c r="AU4" s="127"/>
-      <c r="AV4" s="127"/>
-      <c r="AW4" s="127"/>
-      <c r="AX4" s="127"/>
-      <c r="AY4" s="127"/>
-      <c r="AZ4" s="127"/>
-      <c r="BA4" s="127"/>
-      <c r="BB4" s="127"/>
-      <c r="BC4" s="127"/>
-      <c r="BD4" s="127"/>
-      <c r="BE4" s="127"/>
-      <c r="BF4" s="127"/>
-      <c r="BG4" s="127"/>
-      <c r="BH4" s="127"/>
-      <c r="BI4" s="127"/>
-      <c r="BJ4" s="127"/>
-      <c r="BK4" s="127"/>
-      <c r="BL4" s="127"/>
-      <c r="BM4" s="127"/>
-      <c r="BN4" s="127"/>
-      <c r="BO4" s="127"/>
-      <c r="BP4" s="127"/>
-      <c r="BQ4" s="127"/>
-      <c r="BR4" s="127"/>
-      <c r="BS4" s="127"/>
-      <c r="BT4" s="127"/>
-      <c r="BU4" s="128"/>
-      <c r="BV4" s="180" t="s">
+      <c r="AR4" s="128"/>
+      <c r="AS4" s="128"/>
+      <c r="AT4" s="128"/>
+      <c r="AU4" s="128"/>
+      <c r="AV4" s="128"/>
+      <c r="AW4" s="128"/>
+      <c r="AX4" s="128"/>
+      <c r="AY4" s="128"/>
+      <c r="AZ4" s="128"/>
+      <c r="BA4" s="128"/>
+      <c r="BB4" s="128"/>
+      <c r="BC4" s="128"/>
+      <c r="BD4" s="128"/>
+      <c r="BE4" s="128"/>
+      <c r="BF4" s="128"/>
+      <c r="BG4" s="128"/>
+      <c r="BH4" s="128"/>
+      <c r="BI4" s="128"/>
+      <c r="BJ4" s="128"/>
+      <c r="BK4" s="128"/>
+      <c r="BL4" s="128"/>
+      <c r="BM4" s="128"/>
+      <c r="BN4" s="128"/>
+      <c r="BO4" s="128"/>
+      <c r="BP4" s="128"/>
+      <c r="BQ4" s="128"/>
+      <c r="BR4" s="128"/>
+      <c r="BS4" s="128"/>
+      <c r="BT4" s="128"/>
+      <c r="BU4" s="129"/>
+      <c r="BV4" s="147" t="s">
         <v>65</v>
       </c>
-      <c r="BW4" s="127"/>
-      <c r="BX4" s="127"/>
-      <c r="BY4" s="127"/>
-      <c r="BZ4" s="127"/>
-      <c r="CA4" s="127"/>
-      <c r="CB4" s="127"/>
-      <c r="CC4" s="127"/>
-      <c r="CD4" s="127"/>
-      <c r="CE4" s="127"/>
-      <c r="CF4" s="127"/>
-      <c r="CG4" s="127"/>
-      <c r="CH4" s="127"/>
-      <c r="CI4" s="127"/>
-      <c r="CJ4" s="127"/>
-      <c r="CK4" s="127"/>
-      <c r="CL4" s="127"/>
-      <c r="CM4" s="127"/>
-      <c r="CN4" s="127"/>
-      <c r="CO4" s="127"/>
-      <c r="CP4" s="127"/>
-      <c r="CQ4" s="127"/>
-      <c r="CR4" s="127"/>
-      <c r="CS4" s="127"/>
-      <c r="CT4" s="127"/>
-      <c r="CU4" s="127"/>
-      <c r="CV4" s="127"/>
-      <c r="CW4" s="127"/>
-      <c r="CX4" s="127"/>
-      <c r="CY4" s="128"/>
-      <c r="CZ4" s="180" t="s">
+      <c r="BW4" s="128"/>
+      <c r="BX4" s="128"/>
+      <c r="BY4" s="128"/>
+      <c r="BZ4" s="128"/>
+      <c r="CA4" s="128"/>
+      <c r="CB4" s="128"/>
+      <c r="CC4" s="128"/>
+      <c r="CD4" s="128"/>
+      <c r="CE4" s="128"/>
+      <c r="CF4" s="128"/>
+      <c r="CG4" s="128"/>
+      <c r="CH4" s="128"/>
+      <c r="CI4" s="128"/>
+      <c r="CJ4" s="128"/>
+      <c r="CK4" s="128"/>
+      <c r="CL4" s="128"/>
+      <c r="CM4" s="128"/>
+      <c r="CN4" s="128"/>
+      <c r="CO4" s="128"/>
+      <c r="CP4" s="128"/>
+      <c r="CQ4" s="128"/>
+      <c r="CR4" s="128"/>
+      <c r="CS4" s="128"/>
+      <c r="CT4" s="128"/>
+      <c r="CU4" s="128"/>
+      <c r="CV4" s="128"/>
+      <c r="CW4" s="128"/>
+      <c r="CX4" s="128"/>
+      <c r="CY4" s="129"/>
+      <c r="CZ4" s="147" t="s">
         <v>66</v>
       </c>
-      <c r="DA4" s="127"/>
-      <c r="DB4" s="127"/>
-      <c r="DC4" s="127"/>
-      <c r="DD4" s="127"/>
-      <c r="DE4" s="127"/>
-      <c r="DF4" s="127"/>
-      <c r="DG4" s="127"/>
-      <c r="DH4" s="127"/>
-      <c r="DI4" s="127"/>
-      <c r="DJ4" s="127"/>
-      <c r="DK4" s="127"/>
-      <c r="DL4" s="127"/>
-      <c r="DM4" s="127"/>
-      <c r="DN4" s="127"/>
-      <c r="DO4" s="127"/>
-      <c r="DP4" s="127"/>
-      <c r="DQ4" s="127"/>
-      <c r="DR4" s="127"/>
-      <c r="DS4" s="127"/>
-      <c r="DT4" s="127"/>
-      <c r="DU4" s="127"/>
-      <c r="DV4" s="128"/>
+      <c r="DA4" s="128"/>
+      <c r="DB4" s="128"/>
+      <c r="DC4" s="128"/>
+      <c r="DD4" s="128"/>
+      <c r="DE4" s="128"/>
+      <c r="DF4" s="128"/>
+      <c r="DG4" s="128"/>
+      <c r="DH4" s="128"/>
+      <c r="DI4" s="128"/>
+      <c r="DJ4" s="128"/>
+      <c r="DK4" s="128"/>
+      <c r="DL4" s="128"/>
+      <c r="DM4" s="128"/>
+      <c r="DN4" s="128"/>
+      <c r="DO4" s="128"/>
+      <c r="DP4" s="128"/>
+      <c r="DQ4" s="128"/>
+      <c r="DR4" s="128"/>
+      <c r="DS4" s="128"/>
+      <c r="DT4" s="128"/>
+      <c r="DU4" s="128"/>
+      <c r="DV4" s="129"/>
       <c r="DW4" s="34"/>
     </row>
     <row r="5" spans="1:127">
@@ -4910,29 +4932,29 @@
     </row>
     <row r="7" spans="1:127" ht="19.5">
       <c r="A7" s="26"/>
-      <c r="B7" s="181" t="s">
+      <c r="B7" s="155" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="126" t="s">
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="123"/>
+      <c r="I7" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="127"/>
-      <c r="K7" s="128"/>
-      <c r="L7" s="126" t="s">
+      <c r="J7" s="128"/>
+      <c r="K7" s="129"/>
+      <c r="L7" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="M7" s="127"/>
-      <c r="N7" s="128"/>
-      <c r="O7" s="129" t="s">
+      <c r="M7" s="128"/>
+      <c r="N7" s="129"/>
+      <c r="O7" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="P7" s="129" t="s">
+      <c r="P7" s="130" t="s">
         <v>4</v>
       </c>
       <c r="Q7" s="42"/>
@@ -5049,13 +5071,13 @@
     </row>
     <row r="8" spans="1:127" ht="19.5">
       <c r="A8" s="26"/>
-      <c r="B8" s="123"/>
-      <c r="C8" s="124"/>
-      <c r="D8" s="124"/>
-      <c r="E8" s="124"/>
-      <c r="F8" s="124"/>
-      <c r="G8" s="124"/>
-      <c r="H8" s="125"/>
+      <c r="B8" s="124"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="125"/>
+      <c r="H8" s="126"/>
       <c r="I8" s="2" t="s">
         <v>5</v>
       </c>
@@ -5074,8 +5096,8 @@
       <c r="N8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O8" s="130"/>
-      <c r="P8" s="130"/>
+      <c r="O8" s="131"/>
+      <c r="P8" s="131"/>
       <c r="Q8" s="46"/>
       <c r="R8" s="47"/>
       <c r="S8" s="47"/>
@@ -5191,33 +5213,33 @@
     <row r="9" spans="1:127" ht="12" customHeight="1">
       <c r="A9" s="26"/>
       <c r="B9" s="50"/>
-      <c r="C9" s="174" t="s">
+      <c r="C9" s="157" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="136"/>
-      <c r="E9" s="136"/>
-      <c r="F9" s="136"/>
-      <c r="G9" s="136"/>
-      <c r="H9" s="136"/>
-      <c r="I9" s="176">
+      <c r="D9" s="158"/>
+      <c r="E9" s="158"/>
+      <c r="F9" s="158"/>
+      <c r="G9" s="158"/>
+      <c r="H9" s="158"/>
+      <c r="I9" s="160">
         <v>1</v>
       </c>
-      <c r="J9" s="177">
+      <c r="J9" s="156">
         <f>J11</f>
         <v>45787</v>
       </c>
-      <c r="K9" s="177">
+      <c r="K9" s="156">
         <f>K17</f>
         <v>45787</v>
       </c>
-      <c r="L9" s="176">
+      <c r="L9" s="160">
         <v>1.3</v>
       </c>
-      <c r="M9" s="177">
+      <c r="M9" s="156">
         <f>M11</f>
         <v>45787</v>
       </c>
-      <c r="N9" s="177">
+      <c r="N9" s="156">
         <f>N17</f>
         <v>45790</v>
       </c>
@@ -5340,18 +5362,18 @@
     <row r="10" spans="1:127" ht="12" customHeight="1">
       <c r="A10" s="26"/>
       <c r="B10" s="50"/>
-      <c r="C10" s="137"/>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
-      <c r="F10" s="124"/>
-      <c r="G10" s="124"/>
-      <c r="H10" s="124"/>
-      <c r="I10" s="130"/>
-      <c r="J10" s="125"/>
-      <c r="K10" s="125"/>
-      <c r="L10" s="130"/>
-      <c r="M10" s="125"/>
-      <c r="N10" s="125"/>
+      <c r="C10" s="159"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="131"/>
+      <c r="J10" s="126"/>
+      <c r="K10" s="126"/>
+      <c r="L10" s="131"/>
+      <c r="M10" s="126"/>
+      <c r="N10" s="126"/>
       <c r="O10" s="53"/>
       <c r="P10" s="53"/>
       <c r="Q10" s="46"/>
@@ -5470,37 +5492,37 @@
       <c r="A11" s="26"/>
       <c r="B11" s="50"/>
       <c r="C11" s="54"/>
-      <c r="D11" s="178" t="s">
+      <c r="D11" s="161" t="s">
         <v>76</v>
       </c>
-      <c r="E11" s="121"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="171">
+      <c r="E11" s="122"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="123"/>
+      <c r="I11" s="148">
         <v>0.1</v>
       </c>
-      <c r="J11" s="179">
+      <c r="J11" s="162">
         <v>45787</v>
       </c>
-      <c r="K11" s="179">
+      <c r="K11" s="162">
         <f>$J$11</f>
         <v>45787</v>
       </c>
-      <c r="L11" s="171">
+      <c r="L11" s="148">
         <v>0.1</v>
       </c>
-      <c r="M11" s="179">
+      <c r="M11" s="162">
         <v>45787</v>
       </c>
-      <c r="N11" s="179">
+      <c r="N11" s="162">
         <f>$J$11</f>
         <v>45787</v>
       </c>
-      <c r="O11" s="171" t="s">
+      <c r="O11" s="148" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="171">
+      <c r="P11" s="148">
         <v>100</v>
       </c>
       <c r="Q11" s="55"/>
@@ -5619,19 +5641,19 @@
       <c r="A12" s="26"/>
       <c r="B12" s="50"/>
       <c r="C12" s="63"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="124"/>
-      <c r="F12" s="124"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="130"/>
-      <c r="J12" s="130"/>
-      <c r="K12" s="130"/>
-      <c r="L12" s="130"/>
-      <c r="M12" s="130"/>
-      <c r="N12" s="130"/>
-      <c r="O12" s="130"/>
-      <c r="P12" s="130"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="131"/>
+      <c r="J12" s="131"/>
+      <c r="K12" s="131"/>
+      <c r="L12" s="131"/>
+      <c r="M12" s="131"/>
+      <c r="N12" s="131"/>
+      <c r="O12" s="131"/>
+      <c r="P12" s="131"/>
       <c r="Q12" s="55"/>
       <c r="R12" s="55"/>
       <c r="S12" s="55"/>
@@ -5748,39 +5770,39 @@
       <c r="A13" s="26"/>
       <c r="B13" s="50"/>
       <c r="C13" s="63"/>
-      <c r="D13" s="178" t="s">
+      <c r="D13" s="161" t="s">
         <v>78</v>
       </c>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="171">
+      <c r="E13" s="122"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="148">
         <v>0.1</v>
       </c>
-      <c r="J13" s="179">
+      <c r="J13" s="162">
         <f t="shared" ref="J13:K13" si="1">$J$11</f>
         <v>45787</v>
       </c>
-      <c r="K13" s="179">
+      <c r="K13" s="162">
         <f t="shared" si="1"/>
         <v>45787</v>
       </c>
-      <c r="L13" s="171">
+      <c r="L13" s="148">
         <v>0.1</v>
       </c>
-      <c r="M13" s="179">
+      <c r="M13" s="162">
         <f t="shared" ref="M13:N13" si="2">$J$11</f>
         <v>45787</v>
       </c>
-      <c r="N13" s="179">
+      <c r="N13" s="162">
         <f t="shared" si="2"/>
         <v>45787</v>
       </c>
-      <c r="O13" s="171" t="s">
+      <c r="O13" s="148" t="s">
         <v>77</v>
       </c>
-      <c r="P13" s="171">
+      <c r="P13" s="148">
         <v>100</v>
       </c>
       <c r="Q13" s="55"/>
@@ -5899,19 +5921,19 @@
       <c r="A14" s="26"/>
       <c r="B14" s="50"/>
       <c r="C14" s="63"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="124"/>
-      <c r="F14" s="124"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="130"/>
-      <c r="J14" s="130"/>
-      <c r="K14" s="130"/>
-      <c r="L14" s="130"/>
-      <c r="M14" s="130"/>
-      <c r="N14" s="130"/>
-      <c r="O14" s="130"/>
-      <c r="P14" s="130"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="131"/>
+      <c r="J14" s="131"/>
+      <c r="K14" s="131"/>
+      <c r="L14" s="131"/>
+      <c r="M14" s="131"/>
+      <c r="N14" s="131"/>
+      <c r="O14" s="131"/>
+      <c r="P14" s="131"/>
       <c r="Q14" s="55"/>
       <c r="R14" s="55"/>
       <c r="S14" s="55"/>
@@ -6028,39 +6050,39 @@
       <c r="A15" s="26"/>
       <c r="B15" s="50"/>
       <c r="C15" s="63"/>
-      <c r="D15" s="178" t="s">
+      <c r="D15" s="161" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="121"/>
-      <c r="F15" s="121"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="171">
+      <c r="E15" s="122"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="148">
         <v>0.1</v>
       </c>
-      <c r="J15" s="179">
+      <c r="J15" s="162">
         <f t="shared" ref="J15:K15" si="3">$J$11</f>
         <v>45787</v>
       </c>
-      <c r="K15" s="179">
+      <c r="K15" s="162">
         <f t="shared" si="3"/>
         <v>45787</v>
       </c>
-      <c r="L15" s="171">
+      <c r="L15" s="148">
         <v>0.1</v>
       </c>
-      <c r="M15" s="179">
+      <c r="M15" s="162">
         <f t="shared" ref="M15:N15" si="4">$J$11</f>
         <v>45787</v>
       </c>
-      <c r="N15" s="179">
+      <c r="N15" s="162">
         <f t="shared" si="4"/>
         <v>45787</v>
       </c>
-      <c r="O15" s="171" t="s">
+      <c r="O15" s="148" t="s">
         <v>77</v>
       </c>
-      <c r="P15" s="171">
+      <c r="P15" s="148">
         <v>100</v>
       </c>
       <c r="Q15" s="55"/>
@@ -6179,19 +6201,19 @@
       <c r="A16" s="26"/>
       <c r="B16" s="50"/>
       <c r="C16" s="63"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="124"/>
-      <c r="F16" s="124"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="130"/>
-      <c r="K16" s="130"/>
-      <c r="L16" s="130"/>
-      <c r="M16" s="130"/>
-      <c r="N16" s="130"/>
-      <c r="O16" s="130"/>
-      <c r="P16" s="130"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="125"/>
+      <c r="G16" s="125"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="131"/>
+      <c r="J16" s="131"/>
+      <c r="K16" s="131"/>
+      <c r="L16" s="131"/>
+      <c r="M16" s="131"/>
+      <c r="N16" s="131"/>
+      <c r="O16" s="131"/>
+      <c r="P16" s="131"/>
       <c r="Q16" s="55"/>
       <c r="R16" s="55"/>
       <c r="S16" s="55"/>
@@ -6308,37 +6330,37 @@
       <c r="A17" s="26"/>
       <c r="B17" s="50"/>
       <c r="C17" s="63"/>
-      <c r="D17" s="178" t="s">
+      <c r="D17" s="161" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="121"/>
-      <c r="F17" s="121"/>
-      <c r="G17" s="121"/>
-      <c r="H17" s="122"/>
-      <c r="I17" s="171">
+      <c r="E17" s="122"/>
+      <c r="F17" s="122"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="123"/>
+      <c r="I17" s="148">
         <v>0.7</v>
       </c>
-      <c r="J17" s="179">
+      <c r="J17" s="162">
         <f t="shared" ref="J17:K17" si="5">$J$11</f>
         <v>45787</v>
       </c>
-      <c r="K17" s="179">
+      <c r="K17" s="162">
         <f t="shared" si="5"/>
         <v>45787</v>
       </c>
-      <c r="L17" s="171">
+      <c r="L17" s="148">
         <v>3</v>
       </c>
-      <c r="M17" s="179">
+      <c r="M17" s="162">
         <v>45787</v>
       </c>
-      <c r="N17" s="179">
+      <c r="N17" s="162">
         <v>45790</v>
       </c>
-      <c r="O17" s="171" t="s">
+      <c r="O17" s="148" t="s">
         <v>77</v>
       </c>
-      <c r="P17" s="171">
+      <c r="P17" s="148">
         <v>100</v>
       </c>
       <c r="Q17" s="55"/>
@@ -6457,19 +6479,19 @@
       <c r="A18" s="26"/>
       <c r="B18" s="50"/>
       <c r="C18" s="64"/>
-      <c r="D18" s="123"/>
-      <c r="E18" s="124"/>
-      <c r="F18" s="124"/>
-      <c r="G18" s="124"/>
-      <c r="H18" s="125"/>
-      <c r="I18" s="130"/>
-      <c r="J18" s="130"/>
-      <c r="K18" s="130"/>
-      <c r="L18" s="130"/>
-      <c r="M18" s="130"/>
-      <c r="N18" s="130"/>
-      <c r="O18" s="130"/>
-      <c r="P18" s="130"/>
+      <c r="D18" s="124"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="125"/>
+      <c r="G18" s="125"/>
+      <c r="H18" s="126"/>
+      <c r="I18" s="131"/>
+      <c r="J18" s="131"/>
+      <c r="K18" s="131"/>
+      <c r="L18" s="131"/>
+      <c r="M18" s="131"/>
+      <c r="N18" s="131"/>
+      <c r="O18" s="131"/>
+      <c r="P18" s="131"/>
       <c r="Q18" s="65"/>
       <c r="R18" s="65"/>
       <c r="S18" s="65"/>
@@ -6585,24 +6607,24 @@
     <row r="19" spans="1:127" ht="12" customHeight="1">
       <c r="A19" s="26"/>
       <c r="B19" s="50"/>
-      <c r="C19" s="174" t="s">
+      <c r="C19" s="157" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="136"/>
-      <c r="E19" s="136"/>
-      <c r="F19" s="136"/>
-      <c r="G19" s="136"/>
-      <c r="H19" s="136"/>
-      <c r="I19" s="176">
+      <c r="D19" s="158"/>
+      <c r="E19" s="158"/>
+      <c r="F19" s="158"/>
+      <c r="G19" s="158"/>
+      <c r="H19" s="158"/>
+      <c r="I19" s="160">
         <v>1</v>
       </c>
-      <c r="J19" s="177">
+      <c r="J19" s="156">
         <v>45790</v>
       </c>
-      <c r="K19" s="177">
+      <c r="K19" s="156">
         <v>45790</v>
       </c>
-      <c r="L19" s="176"/>
+      <c r="L19" s="160"/>
       <c r="M19" s="74"/>
       <c r="N19" s="74"/>
       <c r="O19" s="75"/>
@@ -6722,16 +6744,16 @@
     <row r="20" spans="1:127" ht="12" customHeight="1">
       <c r="A20" s="26"/>
       <c r="B20" s="50"/>
-      <c r="C20" s="175"/>
+      <c r="C20" s="164"/>
       <c r="D20" s="143"/>
       <c r="E20" s="143"/>
       <c r="F20" s="143"/>
       <c r="G20" s="143"/>
       <c r="H20" s="143"/>
-      <c r="I20" s="130"/>
-      <c r="J20" s="125"/>
-      <c r="K20" s="125"/>
-      <c r="L20" s="130"/>
+      <c r="I20" s="131"/>
+      <c r="J20" s="126"/>
+      <c r="K20" s="126"/>
+      <c r="L20" s="131"/>
       <c r="M20" s="74"/>
       <c r="N20" s="74"/>
       <c r="O20" s="75"/>
@@ -6852,35 +6874,35 @@
       <c r="A21" s="26"/>
       <c r="B21" s="50"/>
       <c r="C21" s="54"/>
-      <c r="D21" s="178" t="s">
+      <c r="D21" s="161" t="s">
         <v>81</v>
       </c>
-      <c r="E21" s="121"/>
-      <c r="F21" s="121"/>
-      <c r="G21" s="121"/>
-      <c r="H21" s="122"/>
-      <c r="I21" s="171">
+      <c r="E21" s="122"/>
+      <c r="F21" s="122"/>
+      <c r="G21" s="122"/>
+      <c r="H21" s="123"/>
+      <c r="I21" s="148">
         <v>1</v>
       </c>
-      <c r="J21" s="173">
+      <c r="J21" s="163">
         <v>45790</v>
       </c>
-      <c r="K21" s="173">
+      <c r="K21" s="163">
         <v>45790</v>
       </c>
-      <c r="L21" s="171">
+      <c r="L21" s="148">
         <v>5.5</v>
       </c>
-      <c r="M21" s="173">
+      <c r="M21" s="163">
         <v>45790</v>
       </c>
-      <c r="N21" s="173">
+      <c r="N21" s="163">
         <v>45790</v>
       </c>
-      <c r="O21" s="171" t="s">
+      <c r="O21" s="148" t="s">
         <v>77</v>
       </c>
-      <c r="P21" s="171">
+      <c r="P21" s="148">
         <v>100</v>
       </c>
       <c r="Q21" s="55"/>
@@ -6999,19 +7021,19 @@
       <c r="A22" s="26"/>
       <c r="B22" s="50"/>
       <c r="C22" s="63"/>
-      <c r="D22" s="123"/>
-      <c r="E22" s="124"/>
-      <c r="F22" s="124"/>
-      <c r="G22" s="124"/>
-      <c r="H22" s="125"/>
-      <c r="I22" s="130"/>
-      <c r="J22" s="130"/>
-      <c r="K22" s="130"/>
-      <c r="L22" s="130"/>
-      <c r="M22" s="130"/>
-      <c r="N22" s="130"/>
-      <c r="O22" s="130"/>
-      <c r="P22" s="130"/>
+      <c r="D22" s="124"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="125"/>
+      <c r="G22" s="125"/>
+      <c r="H22" s="126"/>
+      <c r="I22" s="131"/>
+      <c r="J22" s="131"/>
+      <c r="K22" s="131"/>
+      <c r="L22" s="131"/>
+      <c r="M22" s="131"/>
+      <c r="N22" s="131"/>
+      <c r="O22" s="131"/>
+      <c r="P22" s="131"/>
       <c r="Q22" s="82"/>
       <c r="R22" s="83"/>
       <c r="S22" s="83"/>
@@ -7127,24 +7149,24 @@
     <row r="23" spans="1:127" ht="12" customHeight="1">
       <c r="A23" s="26"/>
       <c r="B23" s="91"/>
-      <c r="C23" s="172" t="s">
+      <c r="C23" s="165" t="s">
         <v>82</v>
       </c>
-      <c r="D23" s="136"/>
-      <c r="E23" s="136"/>
-      <c r="F23" s="136"/>
-      <c r="G23" s="136"/>
-      <c r="H23" s="136"/>
-      <c r="I23" s="138">
+      <c r="D23" s="158"/>
+      <c r="E23" s="158"/>
+      <c r="F23" s="158"/>
+      <c r="G23" s="158"/>
+      <c r="H23" s="158"/>
+      <c r="I23" s="166">
         <v>10</v>
       </c>
-      <c r="J23" s="134">
+      <c r="J23" s="140">
         <v>45791</v>
       </c>
-      <c r="K23" s="134">
+      <c r="K23" s="140">
         <v>45792</v>
       </c>
-      <c r="L23" s="161"/>
+      <c r="L23" s="167"/>
       <c r="M23" s="92"/>
       <c r="N23" s="92"/>
       <c r="O23" s="93"/>
@@ -7264,16 +7286,16 @@
     <row r="24" spans="1:127" ht="12" customHeight="1">
       <c r="A24" s="26"/>
       <c r="B24" s="91"/>
-      <c r="C24" s="137"/>
-      <c r="D24" s="124"/>
-      <c r="E24" s="124"/>
-      <c r="F24" s="124"/>
-      <c r="G24" s="124"/>
-      <c r="H24" s="124"/>
-      <c r="I24" s="130"/>
-      <c r="J24" s="125"/>
-      <c r="K24" s="125"/>
-      <c r="L24" s="130"/>
+      <c r="C24" s="159"/>
+      <c r="D24" s="125"/>
+      <c r="E24" s="125"/>
+      <c r="F24" s="125"/>
+      <c r="G24" s="125"/>
+      <c r="H24" s="125"/>
+      <c r="I24" s="131"/>
+      <c r="J24" s="126"/>
+      <c r="K24" s="126"/>
+      <c r="L24" s="131"/>
       <c r="M24" s="97"/>
       <c r="N24" s="97"/>
       <c r="O24" s="98"/>
@@ -7397,32 +7419,32 @@
       <c r="D25" s="168" t="s">
         <v>83</v>
       </c>
-      <c r="E25" s="121"/>
-      <c r="F25" s="121"/>
-      <c r="G25" s="121"/>
-      <c r="H25" s="122"/>
+      <c r="E25" s="122"/>
+      <c r="F25" s="122"/>
+      <c r="G25" s="122"/>
+      <c r="H25" s="123"/>
       <c r="I25" s="133">
         <v>4</v>
       </c>
-      <c r="J25" s="131">
+      <c r="J25" s="134">
         <v>45791</v>
       </c>
-      <c r="K25" s="131">
+      <c r="K25" s="134">
         <v>45791</v>
       </c>
       <c r="L25" s="133">
         <v>7</v>
       </c>
-      <c r="M25" s="131">
+      <c r="M25" s="134">
         <v>45791</v>
       </c>
-      <c r="N25" s="131">
+      <c r="N25" s="134">
         <v>45791</v>
       </c>
       <c r="O25" s="133" t="s">
         <v>77</v>
       </c>
-      <c r="P25" s="171">
+      <c r="P25" s="148">
         <v>100</v>
       </c>
       <c r="Q25" s="55"/>
@@ -7541,19 +7563,19 @@
       <c r="A26" s="26"/>
       <c r="B26" s="91"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="123"/>
-      <c r="E26" s="124"/>
-      <c r="F26" s="124"/>
-      <c r="G26" s="124"/>
-      <c r="H26" s="125"/>
-      <c r="I26" s="130"/>
-      <c r="J26" s="130"/>
-      <c r="K26" s="130"/>
-      <c r="L26" s="130"/>
-      <c r="M26" s="130"/>
-      <c r="N26" s="130"/>
-      <c r="O26" s="130"/>
-      <c r="P26" s="130"/>
+      <c r="D26" s="124"/>
+      <c r="E26" s="125"/>
+      <c r="F26" s="125"/>
+      <c r="G26" s="125"/>
+      <c r="H26" s="126"/>
+      <c r="I26" s="131"/>
+      <c r="J26" s="131"/>
+      <c r="K26" s="131"/>
+      <c r="L26" s="131"/>
+      <c r="M26" s="131"/>
+      <c r="N26" s="131"/>
+      <c r="O26" s="131"/>
+      <c r="P26" s="131"/>
       <c r="Q26" s="55"/>
       <c r="R26" s="56"/>
       <c r="S26" s="56"/>
@@ -7673,26 +7695,26 @@
       <c r="D27" s="168" t="s">
         <v>84</v>
       </c>
-      <c r="E27" s="121"/>
-      <c r="F27" s="121"/>
-      <c r="G27" s="121"/>
-      <c r="H27" s="122"/>
+      <c r="E27" s="122"/>
+      <c r="F27" s="122"/>
+      <c r="G27" s="122"/>
+      <c r="H27" s="123"/>
       <c r="I27" s="133">
         <v>6</v>
       </c>
       <c r="J27" s="169">
         <v>45791</v>
       </c>
-      <c r="K27" s="131">
+      <c r="K27" s="134">
         <v>45792</v>
       </c>
       <c r="L27" s="133">
         <v>3</v>
       </c>
-      <c r="M27" s="131">
+      <c r="M27" s="134">
         <v>45792</v>
       </c>
-      <c r="N27" s="131">
+      <c r="N27" s="134">
         <v>45792</v>
       </c>
       <c r="O27" s="133" t="s">
@@ -7817,19 +7839,19 @@
       <c r="A28" s="26"/>
       <c r="B28" s="91"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="123"/>
-      <c r="E28" s="124"/>
-      <c r="F28" s="124"/>
-      <c r="G28" s="124"/>
-      <c r="H28" s="125"/>
-      <c r="I28" s="130"/>
-      <c r="J28" s="130"/>
-      <c r="K28" s="130"/>
-      <c r="L28" s="130"/>
-      <c r="M28" s="130"/>
-      <c r="N28" s="130"/>
-      <c r="O28" s="130"/>
-      <c r="P28" s="130"/>
+      <c r="D28" s="124"/>
+      <c r="E28" s="125"/>
+      <c r="F28" s="125"/>
+      <c r="G28" s="125"/>
+      <c r="H28" s="126"/>
+      <c r="I28" s="131"/>
+      <c r="J28" s="131"/>
+      <c r="K28" s="131"/>
+      <c r="L28" s="131"/>
+      <c r="M28" s="131"/>
+      <c r="N28" s="131"/>
+      <c r="O28" s="131"/>
+      <c r="P28" s="131"/>
       <c r="Q28" s="65"/>
       <c r="R28" s="67"/>
       <c r="S28" s="67"/>
@@ -7949,26 +7971,26 @@
       <c r="D29" s="168" t="s">
         <v>85</v>
       </c>
-      <c r="E29" s="121"/>
-      <c r="F29" s="121"/>
-      <c r="G29" s="121"/>
-      <c r="H29" s="122"/>
+      <c r="E29" s="122"/>
+      <c r="F29" s="122"/>
+      <c r="G29" s="122"/>
+      <c r="H29" s="123"/>
       <c r="I29" s="133">
         <v>4</v>
       </c>
-      <c r="J29" s="131">
+      <c r="J29" s="134">
         <v>45792</v>
       </c>
       <c r="K29" s="169">
         <v>45792</v>
       </c>
-      <c r="L29" s="144">
+      <c r="L29" s="135">
         <v>3</v>
       </c>
-      <c r="M29" s="131">
+      <c r="M29" s="134">
         <v>45792</v>
       </c>
-      <c r="N29" s="131">
+      <c r="N29" s="134">
         <v>45792</v>
       </c>
       <c r="O29" s="170" t="s">
@@ -8093,19 +8115,19 @@
       <c r="A30" s="26"/>
       <c r="B30" s="91"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="123"/>
-      <c r="E30" s="124"/>
-      <c r="F30" s="124"/>
-      <c r="G30" s="124"/>
-      <c r="H30" s="125"/>
-      <c r="I30" s="130"/>
-      <c r="J30" s="130"/>
-      <c r="K30" s="130"/>
-      <c r="L30" s="140"/>
-      <c r="M30" s="130"/>
-      <c r="N30" s="130"/>
-      <c r="O30" s="130"/>
-      <c r="P30" s="130"/>
+      <c r="D30" s="124"/>
+      <c r="E30" s="125"/>
+      <c r="F30" s="125"/>
+      <c r="G30" s="125"/>
+      <c r="H30" s="126"/>
+      <c r="I30" s="131"/>
+      <c r="J30" s="131"/>
+      <c r="K30" s="131"/>
+      <c r="L30" s="136"/>
+      <c r="M30" s="131"/>
+      <c r="N30" s="131"/>
+      <c r="O30" s="131"/>
+      <c r="P30" s="131"/>
       <c r="Q30" s="55"/>
       <c r="R30" s="56"/>
       <c r="S30" s="56"/>
@@ -8221,24 +8243,24 @@
     <row r="31" spans="1:127" ht="12" customHeight="1">
       <c r="A31" s="26"/>
       <c r="B31" s="99"/>
-      <c r="C31" s="135" t="s">
+      <c r="C31" s="172" t="s">
         <v>86</v>
       </c>
-      <c r="D31" s="136"/>
-      <c r="E31" s="136"/>
-      <c r="F31" s="136"/>
-      <c r="G31" s="136"/>
-      <c r="H31" s="136"/>
-      <c r="I31" s="138">
+      <c r="D31" s="158"/>
+      <c r="E31" s="158"/>
+      <c r="F31" s="158"/>
+      <c r="G31" s="158"/>
+      <c r="H31" s="158"/>
+      <c r="I31" s="166">
         <v>32</v>
       </c>
-      <c r="J31" s="134">
+      <c r="J31" s="140">
         <v>45793</v>
       </c>
-      <c r="K31" s="134">
+      <c r="K31" s="140">
         <v>45798</v>
       </c>
-      <c r="L31" s="161"/>
+      <c r="L31" s="167"/>
       <c r="M31" s="100"/>
       <c r="N31" s="100"/>
       <c r="O31" s="101"/>
@@ -8358,16 +8380,16 @@
     <row r="32" spans="1:127" ht="12" customHeight="1">
       <c r="A32" s="26"/>
       <c r="B32" s="99"/>
-      <c r="C32" s="137"/>
-      <c r="D32" s="124"/>
-      <c r="E32" s="124"/>
-      <c r="F32" s="124"/>
-      <c r="G32" s="124"/>
-      <c r="H32" s="124"/>
-      <c r="I32" s="130"/>
-      <c r="J32" s="125"/>
-      <c r="K32" s="125"/>
-      <c r="L32" s="130"/>
+      <c r="C32" s="159"/>
+      <c r="D32" s="125"/>
+      <c r="E32" s="125"/>
+      <c r="F32" s="125"/>
+      <c r="G32" s="125"/>
+      <c r="H32" s="125"/>
+      <c r="I32" s="131"/>
+      <c r="J32" s="126"/>
+      <c r="K32" s="126"/>
+      <c r="L32" s="131"/>
       <c r="M32" s="102"/>
       <c r="N32" s="102"/>
       <c r="O32" s="103"/>
@@ -8488,23 +8510,23 @@
       <c r="A33" s="26"/>
       <c r="B33" s="99"/>
       <c r="C33" s="104"/>
-      <c r="D33" s="149" t="s">
+      <c r="D33" s="138" t="s">
         <v>105</v>
       </c>
-      <c r="E33" s="121"/>
-      <c r="F33" s="121"/>
-      <c r="G33" s="121"/>
-      <c r="H33" s="122"/>
-      <c r="I33" s="141">
+      <c r="E33" s="122"/>
+      <c r="F33" s="122"/>
+      <c r="G33" s="122"/>
+      <c r="H33" s="123"/>
+      <c r="I33" s="139">
         <v>8</v>
       </c>
-      <c r="J33" s="134">
+      <c r="J33" s="140">
         <v>45793</v>
       </c>
-      <c r="K33" s="134">
+      <c r="K33" s="140">
         <v>45793</v>
       </c>
-      <c r="L33" s="161"/>
+      <c r="L33" s="167"/>
       <c r="M33" s="100"/>
       <c r="N33" s="100"/>
       <c r="O33" s="101"/>
@@ -8625,15 +8647,15 @@
       <c r="A34" s="26"/>
       <c r="B34" s="99"/>
       <c r="C34" s="105"/>
-      <c r="D34" s="123"/>
-      <c r="E34" s="124"/>
-      <c r="F34" s="124"/>
-      <c r="G34" s="124"/>
-      <c r="H34" s="125"/>
-      <c r="I34" s="125"/>
-      <c r="J34" s="125"/>
-      <c r="K34" s="125"/>
-      <c r="L34" s="130"/>
+      <c r="D34" s="124"/>
+      <c r="E34" s="125"/>
+      <c r="F34" s="125"/>
+      <c r="G34" s="125"/>
+      <c r="H34" s="126"/>
+      <c r="I34" s="126"/>
+      <c r="J34" s="126"/>
+      <c r="K34" s="126"/>
+      <c r="L34" s="131"/>
       <c r="M34" s="102"/>
       <c r="N34" s="102"/>
       <c r="O34" s="103"/>
@@ -8764,19 +8786,19 @@
       <c r="I35" s="133">
         <v>1</v>
       </c>
-      <c r="J35" s="131">
+      <c r="J35" s="134">
         <v>45793</v>
       </c>
-      <c r="K35" s="131">
+      <c r="K35" s="134">
         <v>45793</v>
       </c>
-      <c r="L35" s="164" t="s">
+      <c r="L35" s="151" t="s">
         <v>101</v>
       </c>
-      <c r="M35" s="165"/>
-      <c r="N35" s="162"/>
-      <c r="O35" s="163"/>
-      <c r="P35" s="147"/>
+      <c r="M35" s="152"/>
+      <c r="N35" s="153"/>
+      <c r="O35" s="154"/>
+      <c r="P35" s="149"/>
       <c r="Q35" s="55"/>
       <c r="R35" s="56"/>
       <c r="S35" s="56"/>
@@ -8818,7 +8840,7 @@
       <c r="BC35" s="56"/>
       <c r="BD35" s="56"/>
       <c r="BE35" s="57"/>
-      <c r="BF35" s="28"/>
+      <c r="BF35" s="120"/>
       <c r="BG35" s="58"/>
       <c r="BH35" s="58"/>
       <c r="BI35" s="57"/>
@@ -8894,18 +8916,18 @@
       <c r="B36" s="99"/>
       <c r="C36" s="26"/>
       <c r="D36" s="99"/>
-      <c r="E36" s="124"/>
-      <c r="F36" s="124"/>
-      <c r="G36" s="124"/>
-      <c r="H36" s="124"/>
-      <c r="I36" s="130"/>
-      <c r="J36" s="130"/>
-      <c r="K36" s="130"/>
-      <c r="L36" s="140"/>
-      <c r="M36" s="148"/>
-      <c r="N36" s="148"/>
-      <c r="O36" s="148"/>
-      <c r="P36" s="148"/>
+      <c r="E36" s="125"/>
+      <c r="F36" s="125"/>
+      <c r="G36" s="125"/>
+      <c r="H36" s="125"/>
+      <c r="I36" s="131"/>
+      <c r="J36" s="131"/>
+      <c r="K36" s="131"/>
+      <c r="L36" s="136"/>
+      <c r="M36" s="150"/>
+      <c r="N36" s="150"/>
+      <c r="O36" s="150"/>
+      <c r="P36" s="150"/>
       <c r="Q36" s="55"/>
       <c r="R36" s="56"/>
       <c r="S36" s="56"/>
@@ -8947,7 +8969,7 @@
       <c r="BC36" s="56"/>
       <c r="BD36" s="56"/>
       <c r="BE36" s="57"/>
-      <c r="BF36" s="30"/>
+      <c r="BF36" s="120"/>
       <c r="BG36" s="58"/>
       <c r="BH36" s="58"/>
       <c r="BI36" s="57"/>
@@ -9023,7 +9045,7 @@
       <c r="B37" s="99"/>
       <c r="C37" s="26"/>
       <c r="D37" s="99"/>
-      <c r="E37" s="167" t="s">
+      <c r="E37" s="171" t="s">
         <v>106</v>
       </c>
       <c r="F37" s="143"/>
@@ -9032,24 +9054,24 @@
       <c r="I37" s="133">
         <v>4</v>
       </c>
-      <c r="J37" s="131">
+      <c r="J37" s="134">
         <v>45793</v>
       </c>
-      <c r="K37" s="131">
+      <c r="K37" s="134">
+        <v>45796</v>
+      </c>
+      <c r="L37" s="135">
+        <v>4</v>
+      </c>
+      <c r="M37" s="134">
         <v>45793</v>
       </c>
-      <c r="L37" s="144">
-        <v>4</v>
-      </c>
-      <c r="M37" s="131">
-        <v>45793</v>
-      </c>
-      <c r="N37" s="131"/>
-      <c r="O37" s="182" t="s">
+      <c r="N37" s="134"/>
+      <c r="O37" s="137" t="s">
         <v>100</v>
       </c>
       <c r="P37" s="133">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="Q37" s="55"/>
       <c r="R37" s="56"/>
@@ -9095,7 +9117,7 @@
       <c r="BF37" s="28"/>
       <c r="BG37" s="58"/>
       <c r="BH37" s="58"/>
-      <c r="BI37" s="57"/>
+      <c r="BI37" s="28"/>
       <c r="BJ37" s="57"/>
       <c r="BK37" s="57"/>
       <c r="BL37" s="57"/>
@@ -9168,18 +9190,18 @@
       <c r="B38" s="99"/>
       <c r="C38" s="26"/>
       <c r="D38" s="99"/>
-      <c r="E38" s="124"/>
-      <c r="F38" s="124"/>
-      <c r="G38" s="124"/>
-      <c r="H38" s="124"/>
-      <c r="I38" s="130"/>
-      <c r="J38" s="130"/>
-      <c r="K38" s="130"/>
-      <c r="L38" s="140"/>
-      <c r="M38" s="130"/>
-      <c r="N38" s="130"/>
-      <c r="O38" s="130"/>
-      <c r="P38" s="130"/>
+      <c r="E38" s="125"/>
+      <c r="F38" s="125"/>
+      <c r="G38" s="125"/>
+      <c r="H38" s="125"/>
+      <c r="I38" s="131"/>
+      <c r="J38" s="131"/>
+      <c r="K38" s="131"/>
+      <c r="L38" s="136"/>
+      <c r="M38" s="131"/>
+      <c r="N38" s="131"/>
+      <c r="O38" s="131"/>
+      <c r="P38" s="131"/>
       <c r="Q38" s="55"/>
       <c r="R38" s="56"/>
       <c r="S38" s="56"/>
@@ -9224,7 +9246,7 @@
       <c r="BF38" s="30"/>
       <c r="BG38" s="58"/>
       <c r="BH38" s="58"/>
-      <c r="BI38" s="57"/>
+      <c r="BI38" s="30"/>
       <c r="BJ38" s="57"/>
       <c r="BK38" s="57"/>
       <c r="BL38" s="57"/>
@@ -9297,33 +9319,33 @@
       <c r="B39" s="99"/>
       <c r="C39" s="26"/>
       <c r="D39" s="99"/>
-      <c r="E39" s="166" t="s">
+      <c r="E39" s="132" t="s">
         <v>103</v>
       </c>
-      <c r="F39" s="121"/>
-      <c r="G39" s="121"/>
-      <c r="H39" s="122"/>
+      <c r="F39" s="122"/>
+      <c r="G39" s="122"/>
+      <c r="H39" s="123"/>
       <c r="I39" s="133">
         <v>3</v>
       </c>
-      <c r="J39" s="131">
+      <c r="J39" s="134">
         <v>45793</v>
       </c>
-      <c r="K39" s="131">
+      <c r="K39" s="134">
+        <v>45796</v>
+      </c>
+      <c r="L39" s="135">
+        <v>4</v>
+      </c>
+      <c r="M39" s="134">
         <v>45793</v>
       </c>
-      <c r="L39" s="144">
-        <v>2</v>
-      </c>
-      <c r="M39" s="131">
-        <v>45793</v>
-      </c>
-      <c r="N39" s="131"/>
-      <c r="O39" s="182" t="s">
+      <c r="N39" s="134"/>
+      <c r="O39" s="137" t="s">
         <v>100</v>
       </c>
       <c r="P39" s="133">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="Q39" s="55"/>
       <c r="R39" s="56"/>
@@ -9442,18 +9464,18 @@
       <c r="B40" s="99"/>
       <c r="C40" s="26"/>
       <c r="D40" s="118"/>
-      <c r="E40" s="124"/>
-      <c r="F40" s="124"/>
-      <c r="G40" s="124"/>
-      <c r="H40" s="125"/>
-      <c r="I40" s="130"/>
-      <c r="J40" s="130"/>
-      <c r="K40" s="130"/>
-      <c r="L40" s="140"/>
-      <c r="M40" s="130"/>
-      <c r="N40" s="130"/>
-      <c r="O40" s="130"/>
-      <c r="P40" s="130"/>
+      <c r="E40" s="125"/>
+      <c r="F40" s="125"/>
+      <c r="G40" s="125"/>
+      <c r="H40" s="126"/>
+      <c r="I40" s="131"/>
+      <c r="J40" s="131"/>
+      <c r="K40" s="131"/>
+      <c r="L40" s="136"/>
+      <c r="M40" s="131"/>
+      <c r="N40" s="131"/>
+      <c r="O40" s="131"/>
+      <c r="P40" s="131"/>
       <c r="Q40" s="65"/>
       <c r="R40" s="67"/>
       <c r="S40" s="67"/>
@@ -9498,7 +9520,7 @@
       <c r="BF40" s="30"/>
       <c r="BG40" s="69"/>
       <c r="BH40" s="69"/>
-      <c r="BI40" s="68"/>
+      <c r="BI40" s="30"/>
       <c r="BJ40" s="68"/>
       <c r="BK40" s="68"/>
       <c r="BL40" s="68"/>
@@ -9571,33 +9593,33 @@
       <c r="B41" s="110"/>
       <c r="C41" s="116"/>
       <c r="D41" s="110"/>
-      <c r="E41" s="166" t="s">
+      <c r="E41" s="132" t="s">
         <v>104</v>
       </c>
-      <c r="F41" s="121"/>
-      <c r="G41" s="121"/>
-      <c r="H41" s="122"/>
+      <c r="F41" s="122"/>
+      <c r="G41" s="122"/>
+      <c r="H41" s="123"/>
       <c r="I41" s="133">
         <v>4</v>
       </c>
-      <c r="J41" s="131">
+      <c r="J41" s="134">
         <v>45793</v>
       </c>
-      <c r="K41" s="131">
+      <c r="K41" s="134">
+        <v>45796</v>
+      </c>
+      <c r="L41" s="135">
+        <v>4</v>
+      </c>
+      <c r="M41" s="134">
         <v>45793</v>
       </c>
-      <c r="L41" s="144">
-        <v>2</v>
-      </c>
-      <c r="M41" s="131">
-        <v>45793</v>
-      </c>
-      <c r="N41" s="131"/>
-      <c r="O41" s="182" t="s">
-        <v>100</v>
+      <c r="N41" s="134"/>
+      <c r="O41" s="137" t="s">
+        <v>108</v>
       </c>
       <c r="P41" s="133">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="Q41" s="55"/>
       <c r="R41" s="56"/>
@@ -9640,7 +9662,7 @@
       <c r="BC41" s="56"/>
       <c r="BD41" s="56"/>
       <c r="BE41" s="57"/>
-      <c r="BF41" s="119"/>
+      <c r="BF41" s="28"/>
       <c r="BG41" s="58"/>
       <c r="BH41" s="58"/>
       <c r="BI41" s="28"/>
@@ -9716,18 +9738,18 @@
       <c r="B42" s="110"/>
       <c r="C42" s="116"/>
       <c r="D42" s="112"/>
-      <c r="E42" s="124"/>
-      <c r="F42" s="124"/>
-      <c r="G42" s="124"/>
-      <c r="H42" s="125"/>
-      <c r="I42" s="130"/>
-      <c r="J42" s="130"/>
-      <c r="K42" s="130"/>
-      <c r="L42" s="140"/>
-      <c r="M42" s="130"/>
-      <c r="N42" s="130"/>
-      <c r="O42" s="130"/>
-      <c r="P42" s="130"/>
+      <c r="E42" s="125"/>
+      <c r="F42" s="125"/>
+      <c r="G42" s="125"/>
+      <c r="H42" s="126"/>
+      <c r="I42" s="131"/>
+      <c r="J42" s="131"/>
+      <c r="K42" s="131"/>
+      <c r="L42" s="136"/>
+      <c r="M42" s="131"/>
+      <c r="N42" s="131"/>
+      <c r="O42" s="131"/>
+      <c r="P42" s="131"/>
       <c r="Q42" s="65"/>
       <c r="R42" s="67"/>
       <c r="S42" s="67"/>
@@ -9772,7 +9794,7 @@
       <c r="BF42" s="30"/>
       <c r="BG42" s="69"/>
       <c r="BH42" s="69"/>
-      <c r="BI42" s="68"/>
+      <c r="BI42" s="30"/>
       <c r="BJ42" s="68"/>
       <c r="BK42" s="68"/>
       <c r="BL42" s="68"/>
@@ -9844,23 +9866,23 @@
       <c r="A43" s="116"/>
       <c r="B43" s="110"/>
       <c r="C43" s="116"/>
-      <c r="D43" s="149" t="s">
+      <c r="D43" s="138" t="s">
         <v>91</v>
       </c>
-      <c r="E43" s="150"/>
-      <c r="F43" s="150"/>
-      <c r="G43" s="150"/>
-      <c r="H43" s="151"/>
-      <c r="I43" s="155">
+      <c r="E43" s="173"/>
+      <c r="F43" s="173"/>
+      <c r="G43" s="173"/>
+      <c r="H43" s="174"/>
+      <c r="I43" s="178">
         <v>16</v>
       </c>
-      <c r="J43" s="157">
+      <c r="J43" s="180">
         <v>45796</v>
       </c>
-      <c r="K43" s="157">
+      <c r="K43" s="180">
         <v>45797</v>
       </c>
-      <c r="L43" s="159"/>
+      <c r="L43" s="182"/>
       <c r="M43" s="100"/>
       <c r="N43" s="100"/>
       <c r="O43" s="101"/>
@@ -9981,15 +10003,15 @@
       <c r="A44" s="116"/>
       <c r="B44" s="110"/>
       <c r="C44" s="116"/>
-      <c r="D44" s="152"/>
-      <c r="E44" s="153"/>
-      <c r="F44" s="153"/>
-      <c r="G44" s="153"/>
-      <c r="H44" s="154"/>
-      <c r="I44" s="156"/>
-      <c r="J44" s="158"/>
-      <c r="K44" s="158"/>
-      <c r="L44" s="160"/>
+      <c r="D44" s="175"/>
+      <c r="E44" s="176"/>
+      <c r="F44" s="176"/>
+      <c r="G44" s="176"/>
+      <c r="H44" s="177"/>
+      <c r="I44" s="179"/>
+      <c r="J44" s="181"/>
+      <c r="K44" s="181"/>
+      <c r="L44" s="183"/>
       <c r="M44" s="102"/>
       <c r="N44" s="102"/>
       <c r="O44" s="103"/>
@@ -10120,19 +10142,19 @@
       <c r="I45" s="133">
         <v>2</v>
       </c>
-      <c r="J45" s="131">
+      <c r="J45" s="134">
         <v>45796</v>
       </c>
-      <c r="K45" s="131">
+      <c r="K45" s="134">
         <v>45796</v>
       </c>
-      <c r="L45" s="164" t="s">
+      <c r="L45" s="151" t="s">
         <v>102</v>
       </c>
-      <c r="M45" s="165"/>
-      <c r="N45" s="162"/>
-      <c r="O45" s="163"/>
-      <c r="P45" s="147"/>
+      <c r="M45" s="152"/>
+      <c r="N45" s="153"/>
+      <c r="O45" s="154"/>
+      <c r="P45" s="149"/>
       <c r="Q45" s="55"/>
       <c r="R45" s="56"/>
       <c r="S45" s="56"/>
@@ -10250,18 +10272,18 @@
       <c r="B46" s="99"/>
       <c r="C46" s="26"/>
       <c r="D46" s="99"/>
-      <c r="E46" s="124"/>
-      <c r="F46" s="124"/>
-      <c r="G46" s="124"/>
-      <c r="H46" s="124"/>
-      <c r="I46" s="130"/>
-      <c r="J46" s="130"/>
-      <c r="K46" s="130"/>
-      <c r="L46" s="140"/>
-      <c r="M46" s="148"/>
-      <c r="N46" s="148"/>
-      <c r="O46" s="148"/>
-      <c r="P46" s="148"/>
+      <c r="E46" s="125"/>
+      <c r="F46" s="125"/>
+      <c r="G46" s="125"/>
+      <c r="H46" s="125"/>
+      <c r="I46" s="131"/>
+      <c r="J46" s="131"/>
+      <c r="K46" s="131"/>
+      <c r="L46" s="136"/>
+      <c r="M46" s="150"/>
+      <c r="N46" s="150"/>
+      <c r="O46" s="150"/>
+      <c r="P46" s="150"/>
       <c r="Q46" s="55"/>
       <c r="R46" s="56"/>
       <c r="S46" s="56"/>
@@ -10388,18 +10410,24 @@
       <c r="I47" s="133">
         <v>14</v>
       </c>
-      <c r="J47" s="131">
+      <c r="J47" s="134">
         <v>45796</v>
       </c>
       <c r="K47" s="146">
-        <v>45797</v>
-      </c>
-      <c r="L47" s="144"/>
-      <c r="M47" s="131"/>
-      <c r="N47" s="131"/>
-      <c r="O47" s="132"/>
+        <v>45798</v>
+      </c>
+      <c r="L47" s="135">
+        <v>4</v>
+      </c>
+      <c r="M47" s="134">
+        <v>45796</v>
+      </c>
+      <c r="N47" s="134"/>
+      <c r="O47" s="137" t="s">
+        <v>109</v>
+      </c>
       <c r="P47" s="133">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q47" s="55"/>
       <c r="R47" s="56"/>
@@ -10447,7 +10475,7 @@
       <c r="BH47" s="58"/>
       <c r="BI47" s="28"/>
       <c r="BJ47" s="28"/>
-      <c r="BK47" s="56"/>
+      <c r="BK47" s="28"/>
       <c r="BL47" s="57"/>
       <c r="BM47" s="57"/>
       <c r="BN47" s="58"/>
@@ -10518,18 +10546,18 @@
       <c r="B48" s="99"/>
       <c r="C48" s="26"/>
       <c r="D48" s="99"/>
-      <c r="E48" s="124"/>
-      <c r="F48" s="124"/>
-      <c r="G48" s="124"/>
-      <c r="H48" s="124"/>
-      <c r="I48" s="130"/>
-      <c r="J48" s="130"/>
-      <c r="K48" s="125"/>
-      <c r="L48" s="140"/>
-      <c r="M48" s="130"/>
-      <c r="N48" s="130"/>
-      <c r="O48" s="130"/>
-      <c r="P48" s="130"/>
+      <c r="E48" s="125"/>
+      <c r="F48" s="125"/>
+      <c r="G48" s="125"/>
+      <c r="H48" s="125"/>
+      <c r="I48" s="131"/>
+      <c r="J48" s="131"/>
+      <c r="K48" s="126"/>
+      <c r="L48" s="136"/>
+      <c r="M48" s="131"/>
+      <c r="N48" s="131"/>
+      <c r="O48" s="131"/>
+      <c r="P48" s="131"/>
       <c r="Q48" s="55"/>
       <c r="R48" s="56"/>
       <c r="S48" s="56"/>
@@ -10574,7 +10602,7 @@
       <c r="BF48" s="57"/>
       <c r="BG48" s="58"/>
       <c r="BH48" s="58"/>
-      <c r="BI48" s="56"/>
+      <c r="BI48" s="30"/>
       <c r="BJ48" s="56"/>
       <c r="BK48" s="56"/>
       <c r="BL48" s="57"/>
@@ -10647,17 +10675,25 @@
       <c r="B49" s="99"/>
       <c r="C49" s="26"/>
       <c r="D49" s="99"/>
-      <c r="E49" s="145"/>
-      <c r="F49" s="121"/>
-      <c r="G49" s="121"/>
-      <c r="H49" s="122"/>
-      <c r="I49" s="133"/>
-      <c r="J49" s="131"/>
-      <c r="K49" s="131"/>
-      <c r="L49" s="144"/>
-      <c r="M49" s="131"/>
-      <c r="N49" s="131"/>
-      <c r="O49" s="132"/>
+      <c r="E49" s="132" t="s">
+        <v>110</v>
+      </c>
+      <c r="F49" s="122"/>
+      <c r="G49" s="122"/>
+      <c r="H49" s="123"/>
+      <c r="I49" s="133">
+        <v>4</v>
+      </c>
+      <c r="J49" s="134">
+        <v>45798</v>
+      </c>
+      <c r="K49" s="134">
+        <v>45798</v>
+      </c>
+      <c r="L49" s="135"/>
+      <c r="M49" s="134"/>
+      <c r="N49" s="134"/>
+      <c r="O49" s="144"/>
       <c r="P49" s="133">
         <v>0</v>
       </c>
@@ -10707,7 +10743,7 @@
       <c r="BH49" s="58"/>
       <c r="BI49" s="56"/>
       <c r="BJ49" s="56"/>
-      <c r="BK49" s="56"/>
+      <c r="BK49" s="28"/>
       <c r="BL49" s="57"/>
       <c r="BM49" s="57"/>
       <c r="BN49" s="58"/>
@@ -10778,18 +10814,18 @@
       <c r="B50" s="99"/>
       <c r="C50" s="26"/>
       <c r="D50" s="107"/>
-      <c r="E50" s="124"/>
-      <c r="F50" s="124"/>
-      <c r="G50" s="124"/>
-      <c r="H50" s="125"/>
-      <c r="I50" s="130"/>
-      <c r="J50" s="130"/>
-      <c r="K50" s="130"/>
-      <c r="L50" s="140"/>
-      <c r="M50" s="130"/>
-      <c r="N50" s="130"/>
-      <c r="O50" s="130"/>
-      <c r="P50" s="130"/>
+      <c r="E50" s="125"/>
+      <c r="F50" s="125"/>
+      <c r="G50" s="125"/>
+      <c r="H50" s="126"/>
+      <c r="I50" s="131"/>
+      <c r="J50" s="131"/>
+      <c r="K50" s="131"/>
+      <c r="L50" s="136"/>
+      <c r="M50" s="131"/>
+      <c r="N50" s="131"/>
+      <c r="O50" s="131"/>
+      <c r="P50" s="131"/>
       <c r="Q50" s="65"/>
       <c r="R50" s="67"/>
       <c r="S50" s="67"/>
@@ -10906,23 +10942,23 @@
       <c r="A51" s="26"/>
       <c r="B51" s="99"/>
       <c r="C51" s="108"/>
-      <c r="D51" s="149" t="s">
+      <c r="D51" s="138" t="s">
         <v>93</v>
       </c>
-      <c r="E51" s="121"/>
-      <c r="F51" s="121"/>
-      <c r="G51" s="121"/>
-      <c r="H51" s="122"/>
-      <c r="I51" s="141">
+      <c r="E51" s="122"/>
+      <c r="F51" s="122"/>
+      <c r="G51" s="122"/>
+      <c r="H51" s="123"/>
+      <c r="I51" s="139">
         <v>6</v>
       </c>
-      <c r="J51" s="134">
+      <c r="J51" s="140">
         <v>45798</v>
       </c>
-      <c r="K51" s="134">
+      <c r="K51" s="140">
         <v>45798</v>
       </c>
-      <c r="L51" s="139"/>
+      <c r="L51" s="141"/>
       <c r="M51" s="100"/>
       <c r="N51" s="100"/>
       <c r="O51" s="101"/>
@@ -11043,15 +11079,15 @@
       <c r="A52" s="26"/>
       <c r="B52" s="99"/>
       <c r="C52" s="108"/>
-      <c r="D52" s="123"/>
-      <c r="E52" s="124"/>
-      <c r="F52" s="124"/>
-      <c r="G52" s="124"/>
-      <c r="H52" s="125"/>
-      <c r="I52" s="125"/>
-      <c r="J52" s="125"/>
-      <c r="K52" s="125"/>
-      <c r="L52" s="140"/>
+      <c r="D52" s="124"/>
+      <c r="E52" s="125"/>
+      <c r="F52" s="125"/>
+      <c r="G52" s="125"/>
+      <c r="H52" s="126"/>
+      <c r="I52" s="126"/>
+      <c r="J52" s="126"/>
+      <c r="K52" s="126"/>
+      <c r="L52" s="136"/>
       <c r="M52" s="102"/>
       <c r="N52" s="102"/>
       <c r="O52" s="103"/>
@@ -11182,16 +11218,16 @@
       <c r="I53" s="133">
         <v>3</v>
       </c>
-      <c r="J53" s="131">
-        <v>45798</v>
-      </c>
-      <c r="K53" s="131">
-        <v>45798</v>
-      </c>
-      <c r="L53" s="144"/>
-      <c r="M53" s="131"/>
-      <c r="N53" s="131"/>
-      <c r="O53" s="132"/>
+      <c r="J53" s="134">
+        <v>45799</v>
+      </c>
+      <c r="K53" s="134">
+        <v>45799</v>
+      </c>
+      <c r="L53" s="135"/>
+      <c r="M53" s="134"/>
+      <c r="N53" s="134"/>
+      <c r="O53" s="144"/>
       <c r="P53" s="133">
         <v>0</v>
       </c>
@@ -11312,18 +11348,18 @@
       <c r="B54" s="99"/>
       <c r="C54" s="108"/>
       <c r="D54" s="110"/>
-      <c r="E54" s="124"/>
-      <c r="F54" s="124"/>
-      <c r="G54" s="124"/>
-      <c r="H54" s="124"/>
-      <c r="I54" s="130"/>
-      <c r="J54" s="130"/>
-      <c r="K54" s="130"/>
-      <c r="L54" s="140"/>
-      <c r="M54" s="130"/>
-      <c r="N54" s="130"/>
-      <c r="O54" s="130"/>
-      <c r="P54" s="130"/>
+      <c r="E54" s="125"/>
+      <c r="F54" s="125"/>
+      <c r="G54" s="125"/>
+      <c r="H54" s="125"/>
+      <c r="I54" s="131"/>
+      <c r="J54" s="131"/>
+      <c r="K54" s="131"/>
+      <c r="L54" s="136"/>
+      <c r="M54" s="131"/>
+      <c r="N54" s="131"/>
+      <c r="O54" s="131"/>
+      <c r="P54" s="131"/>
       <c r="Q54" s="55"/>
       <c r="R54" s="56"/>
       <c r="S54" s="56"/>
@@ -11450,16 +11486,16 @@
       <c r="I55" s="133">
         <v>3</v>
       </c>
-      <c r="J55" s="131">
-        <v>45798</v>
-      </c>
-      <c r="K55" s="131">
-        <v>45798</v>
-      </c>
-      <c r="L55" s="144"/>
-      <c r="M55" s="131"/>
-      <c r="N55" s="131"/>
-      <c r="O55" s="132"/>
+      <c r="J55" s="134">
+        <v>45799</v>
+      </c>
+      <c r="K55" s="134">
+        <v>45799</v>
+      </c>
+      <c r="L55" s="135"/>
+      <c r="M55" s="134"/>
+      <c r="N55" s="134"/>
+      <c r="O55" s="144"/>
       <c r="P55" s="133">
         <v>0</v>
       </c>
@@ -11580,18 +11616,18 @@
       <c r="B56" s="99"/>
       <c r="C56" s="108"/>
       <c r="D56" s="110"/>
-      <c r="E56" s="124"/>
-      <c r="F56" s="124"/>
-      <c r="G56" s="124"/>
-      <c r="H56" s="124"/>
-      <c r="I56" s="130"/>
-      <c r="J56" s="130"/>
-      <c r="K56" s="130"/>
-      <c r="L56" s="140"/>
-      <c r="M56" s="130"/>
-      <c r="N56" s="130"/>
-      <c r="O56" s="130"/>
-      <c r="P56" s="130"/>
+      <c r="E56" s="125"/>
+      <c r="F56" s="125"/>
+      <c r="G56" s="125"/>
+      <c r="H56" s="125"/>
+      <c r="I56" s="131"/>
+      <c r="J56" s="131"/>
+      <c r="K56" s="131"/>
+      <c r="L56" s="136"/>
+      <c r="M56" s="131"/>
+      <c r="N56" s="131"/>
+      <c r="O56" s="131"/>
+      <c r="P56" s="131"/>
       <c r="Q56" s="55"/>
       <c r="R56" s="56"/>
       <c r="S56" s="56"/>
@@ -11710,16 +11746,16 @@
       <c r="C57" s="108"/>
       <c r="D57" s="110"/>
       <c r="E57" s="145"/>
-      <c r="F57" s="121"/>
-      <c r="G57" s="121"/>
-      <c r="H57" s="122"/>
+      <c r="F57" s="122"/>
+      <c r="G57" s="122"/>
+      <c r="H57" s="123"/>
       <c r="I57" s="133"/>
-      <c r="J57" s="131"/>
-      <c r="K57" s="131"/>
-      <c r="L57" s="144"/>
-      <c r="M57" s="131"/>
-      <c r="N57" s="131"/>
-      <c r="O57" s="132"/>
+      <c r="J57" s="134"/>
+      <c r="K57" s="134"/>
+      <c r="L57" s="135"/>
+      <c r="M57" s="134"/>
+      <c r="N57" s="134"/>
+      <c r="O57" s="144"/>
       <c r="P57" s="133">
         <v>0</v>
       </c>
@@ -11840,18 +11876,18 @@
       <c r="B58" s="99"/>
       <c r="C58" s="111"/>
       <c r="D58" s="112"/>
-      <c r="E58" s="124"/>
-      <c r="F58" s="124"/>
-      <c r="G58" s="124"/>
-      <c r="H58" s="125"/>
-      <c r="I58" s="130"/>
-      <c r="J58" s="130"/>
-      <c r="K58" s="130"/>
-      <c r="L58" s="140"/>
-      <c r="M58" s="130"/>
-      <c r="N58" s="130"/>
-      <c r="O58" s="130"/>
-      <c r="P58" s="130"/>
+      <c r="E58" s="125"/>
+      <c r="F58" s="125"/>
+      <c r="G58" s="125"/>
+      <c r="H58" s="126"/>
+      <c r="I58" s="131"/>
+      <c r="J58" s="131"/>
+      <c r="K58" s="131"/>
+      <c r="L58" s="136"/>
+      <c r="M58" s="131"/>
+      <c r="N58" s="131"/>
+      <c r="O58" s="131"/>
+      <c r="P58" s="131"/>
       <c r="Q58" s="55"/>
       <c r="R58" s="56"/>
       <c r="S58" s="56"/>
@@ -11967,24 +12003,24 @@
     <row r="59" spans="1:127" ht="12" customHeight="1">
       <c r="A59" s="26"/>
       <c r="B59" s="99"/>
-      <c r="C59" s="135" t="s">
+      <c r="C59" s="172" t="s">
         <v>95</v>
       </c>
-      <c r="D59" s="136"/>
-      <c r="E59" s="136"/>
-      <c r="F59" s="136"/>
-      <c r="G59" s="136"/>
-      <c r="H59" s="136"/>
-      <c r="I59" s="138">
+      <c r="D59" s="158"/>
+      <c r="E59" s="158"/>
+      <c r="F59" s="158"/>
+      <c r="G59" s="158"/>
+      <c r="H59" s="158"/>
+      <c r="I59" s="166">
         <v>72</v>
       </c>
-      <c r="J59" s="134">
-        <v>45799</v>
-      </c>
-      <c r="K59" s="134">
+      <c r="J59" s="140">
+        <v>45800</v>
+      </c>
+      <c r="K59" s="140">
         <v>45808</v>
       </c>
-      <c r="L59" s="139"/>
+      <c r="L59" s="141"/>
       <c r="M59" s="100"/>
       <c r="N59" s="100"/>
       <c r="O59" s="101"/>
@@ -12104,16 +12140,16 @@
     <row r="60" spans="1:127" ht="12" customHeight="1">
       <c r="A60" s="26"/>
       <c r="B60" s="99"/>
-      <c r="C60" s="137"/>
-      <c r="D60" s="124"/>
-      <c r="E60" s="124"/>
-      <c r="F60" s="124"/>
-      <c r="G60" s="124"/>
-      <c r="H60" s="124"/>
-      <c r="I60" s="130"/>
-      <c r="J60" s="125"/>
-      <c r="K60" s="125"/>
-      <c r="L60" s="140"/>
+      <c r="C60" s="159"/>
+      <c r="D60" s="125"/>
+      <c r="E60" s="125"/>
+      <c r="F60" s="125"/>
+      <c r="G60" s="125"/>
+      <c r="H60" s="125"/>
+      <c r="I60" s="131"/>
+      <c r="J60" s="126"/>
+      <c r="K60" s="126"/>
+      <c r="L60" s="136"/>
       <c r="M60" s="102"/>
       <c r="N60" s="102"/>
       <c r="O60" s="103"/>
@@ -12234,23 +12270,23 @@
       <c r="A61" s="26"/>
       <c r="B61" s="99"/>
       <c r="C61" s="113"/>
-      <c r="D61" s="149" t="s">
+      <c r="D61" s="138" t="s">
         <v>87</v>
       </c>
-      <c r="E61" s="121"/>
-      <c r="F61" s="121"/>
-      <c r="G61" s="121"/>
-      <c r="H61" s="122"/>
-      <c r="I61" s="141">
+      <c r="E61" s="122"/>
+      <c r="F61" s="122"/>
+      <c r="G61" s="122"/>
+      <c r="H61" s="123"/>
+      <c r="I61" s="139">
         <v>12</v>
       </c>
-      <c r="J61" s="134">
-        <v>45799</v>
-      </c>
-      <c r="K61" s="134">
+      <c r="J61" s="140">
         <v>45800</v>
       </c>
-      <c r="L61" s="139"/>
+      <c r="K61" s="140">
+        <v>45803</v>
+      </c>
+      <c r="L61" s="141"/>
       <c r="M61" s="100"/>
       <c r="N61" s="100"/>
       <c r="O61" s="101"/>
@@ -12371,15 +12407,15 @@
       <c r="A62" s="26"/>
       <c r="B62" s="99"/>
       <c r="C62" s="114"/>
-      <c r="D62" s="123"/>
-      <c r="E62" s="124"/>
-      <c r="F62" s="124"/>
-      <c r="G62" s="124"/>
-      <c r="H62" s="125"/>
-      <c r="I62" s="125"/>
-      <c r="J62" s="125"/>
-      <c r="K62" s="125"/>
-      <c r="L62" s="140"/>
+      <c r="D62" s="124"/>
+      <c r="E62" s="125"/>
+      <c r="F62" s="125"/>
+      <c r="G62" s="125"/>
+      <c r="H62" s="126"/>
+      <c r="I62" s="126"/>
+      <c r="J62" s="126"/>
+      <c r="K62" s="126"/>
+      <c r="L62" s="136"/>
       <c r="M62" s="102"/>
       <c r="N62" s="102"/>
       <c r="O62" s="103"/>
@@ -12510,16 +12546,16 @@
       <c r="I63" s="133">
         <v>8</v>
       </c>
-      <c r="J63" s="131">
-        <v>45799</v>
-      </c>
-      <c r="K63" s="131">
-        <v>45799</v>
-      </c>
-      <c r="L63" s="144"/>
-      <c r="M63" s="131"/>
-      <c r="N63" s="131"/>
-      <c r="O63" s="132"/>
+      <c r="J63" s="134">
+        <v>45800</v>
+      </c>
+      <c r="K63" s="134">
+        <v>45800</v>
+      </c>
+      <c r="L63" s="135"/>
+      <c r="M63" s="134"/>
+      <c r="N63" s="134"/>
+      <c r="O63" s="144"/>
       <c r="P63" s="133">
         <v>0</v>
       </c>
@@ -12640,18 +12676,18 @@
       <c r="B64" s="99"/>
       <c r="C64" s="108"/>
       <c r="D64" s="110"/>
-      <c r="E64" s="124"/>
-      <c r="F64" s="124"/>
-      <c r="G64" s="124"/>
-      <c r="H64" s="124"/>
-      <c r="I64" s="130"/>
-      <c r="J64" s="130"/>
-      <c r="K64" s="130"/>
-      <c r="L64" s="140"/>
-      <c r="M64" s="130"/>
-      <c r="N64" s="130"/>
-      <c r="O64" s="130"/>
-      <c r="P64" s="130"/>
+      <c r="E64" s="125"/>
+      <c r="F64" s="125"/>
+      <c r="G64" s="125"/>
+      <c r="H64" s="125"/>
+      <c r="I64" s="131"/>
+      <c r="J64" s="131"/>
+      <c r="K64" s="131"/>
+      <c r="L64" s="136"/>
+      <c r="M64" s="131"/>
+      <c r="N64" s="131"/>
+      <c r="O64" s="131"/>
+      <c r="P64" s="131"/>
       <c r="Q64" s="55"/>
       <c r="R64" s="56"/>
       <c r="S64" s="56"/>
@@ -12778,16 +12814,16 @@
       <c r="I65" s="133">
         <v>4</v>
       </c>
-      <c r="J65" s="131">
-        <v>45800</v>
-      </c>
-      <c r="K65" s="131">
-        <v>45800</v>
-      </c>
-      <c r="L65" s="144"/>
-      <c r="M65" s="131"/>
-      <c r="N65" s="131"/>
-      <c r="O65" s="132"/>
+      <c r="J65" s="134">
+        <v>45801</v>
+      </c>
+      <c r="K65" s="134">
+        <v>45801</v>
+      </c>
+      <c r="L65" s="135"/>
+      <c r="M65" s="134"/>
+      <c r="N65" s="134"/>
+      <c r="O65" s="144"/>
       <c r="P65" s="133">
         <v>0</v>
       </c>
@@ -12908,18 +12944,18 @@
       <c r="B66" s="99"/>
       <c r="C66" s="108"/>
       <c r="D66" s="110"/>
-      <c r="E66" s="124"/>
-      <c r="F66" s="124"/>
-      <c r="G66" s="124"/>
-      <c r="H66" s="124"/>
-      <c r="I66" s="130"/>
-      <c r="J66" s="130"/>
-      <c r="K66" s="130"/>
-      <c r="L66" s="140"/>
-      <c r="M66" s="130"/>
-      <c r="N66" s="130"/>
-      <c r="O66" s="130"/>
-      <c r="P66" s="130"/>
+      <c r="E66" s="125"/>
+      <c r="F66" s="125"/>
+      <c r="G66" s="125"/>
+      <c r="H66" s="125"/>
+      <c r="I66" s="131"/>
+      <c r="J66" s="131"/>
+      <c r="K66" s="131"/>
+      <c r="L66" s="136"/>
+      <c r="M66" s="131"/>
+      <c r="N66" s="131"/>
+      <c r="O66" s="131"/>
+      <c r="P66" s="131"/>
       <c r="Q66" s="55"/>
       <c r="R66" s="56"/>
       <c r="S66" s="56"/>
@@ -13038,16 +13074,16 @@
       <c r="C67" s="108"/>
       <c r="D67" s="110"/>
       <c r="E67" s="145"/>
-      <c r="F67" s="121"/>
-      <c r="G67" s="121"/>
-      <c r="H67" s="122"/>
+      <c r="F67" s="122"/>
+      <c r="G67" s="122"/>
+      <c r="H67" s="123"/>
       <c r="I67" s="133"/>
-      <c r="J67" s="131"/>
-      <c r="K67" s="131"/>
-      <c r="L67" s="144"/>
-      <c r="M67" s="131"/>
-      <c r="N67" s="131"/>
-      <c r="O67" s="132"/>
+      <c r="J67" s="134"/>
+      <c r="K67" s="134"/>
+      <c r="L67" s="135"/>
+      <c r="M67" s="134"/>
+      <c r="N67" s="134"/>
+      <c r="O67" s="144"/>
       <c r="P67" s="133">
         <v>0</v>
       </c>
@@ -13168,18 +13204,18 @@
       <c r="B68" s="99"/>
       <c r="C68" s="108"/>
       <c r="D68" s="112"/>
-      <c r="E68" s="124"/>
-      <c r="F68" s="124"/>
-      <c r="G68" s="124"/>
-      <c r="H68" s="125"/>
-      <c r="I68" s="130"/>
-      <c r="J68" s="130"/>
-      <c r="K68" s="130"/>
-      <c r="L68" s="140"/>
-      <c r="M68" s="130"/>
-      <c r="N68" s="130"/>
-      <c r="O68" s="130"/>
-      <c r="P68" s="130"/>
+      <c r="E68" s="125"/>
+      <c r="F68" s="125"/>
+      <c r="G68" s="125"/>
+      <c r="H68" s="126"/>
+      <c r="I68" s="131"/>
+      <c r="J68" s="131"/>
+      <c r="K68" s="131"/>
+      <c r="L68" s="136"/>
+      <c r="M68" s="131"/>
+      <c r="N68" s="131"/>
+      <c r="O68" s="131"/>
+      <c r="P68" s="131"/>
       <c r="Q68" s="65"/>
       <c r="R68" s="67"/>
       <c r="S68" s="67"/>
@@ -13296,23 +13332,23 @@
       <c r="A69" s="26"/>
       <c r="B69" s="99"/>
       <c r="C69" s="108"/>
-      <c r="D69" s="149" t="s">
+      <c r="D69" s="138" t="s">
         <v>91</v>
       </c>
-      <c r="E69" s="121"/>
-      <c r="F69" s="121"/>
-      <c r="G69" s="121"/>
-      <c r="H69" s="122"/>
-      <c r="I69" s="141">
+      <c r="E69" s="122"/>
+      <c r="F69" s="122"/>
+      <c r="G69" s="122"/>
+      <c r="H69" s="123"/>
+      <c r="I69" s="139">
         <v>52</v>
       </c>
-      <c r="J69" s="134">
+      <c r="J69" s="140">
         <v>45803</v>
       </c>
-      <c r="K69" s="134">
-        <v>45811</v>
-      </c>
-      <c r="L69" s="139"/>
+      <c r="K69" s="140">
+        <v>45810</v>
+      </c>
+      <c r="L69" s="141"/>
       <c r="M69" s="100"/>
       <c r="N69" s="100"/>
       <c r="O69" s="101"/>
@@ -13433,15 +13469,15 @@
       <c r="A70" s="26"/>
       <c r="B70" s="99"/>
       <c r="C70" s="108"/>
-      <c r="D70" s="123"/>
-      <c r="E70" s="124"/>
-      <c r="F70" s="124"/>
-      <c r="G70" s="124"/>
-      <c r="H70" s="125"/>
-      <c r="I70" s="125"/>
-      <c r="J70" s="125"/>
-      <c r="K70" s="125"/>
-      <c r="L70" s="140"/>
+      <c r="D70" s="124"/>
+      <c r="E70" s="125"/>
+      <c r="F70" s="125"/>
+      <c r="G70" s="125"/>
+      <c r="H70" s="126"/>
+      <c r="I70" s="126"/>
+      <c r="J70" s="126"/>
+      <c r="K70" s="126"/>
+      <c r="L70" s="136"/>
       <c r="M70" s="102"/>
       <c r="N70" s="102"/>
       <c r="O70" s="103"/>
@@ -13575,13 +13611,13 @@
       <c r="J71" s="146">
         <v>45803</v>
       </c>
-      <c r="K71" s="131">
+      <c r="K71" s="134">
         <v>45806</v>
       </c>
-      <c r="L71" s="144"/>
-      <c r="M71" s="131"/>
-      <c r="N71" s="131"/>
-      <c r="O71" s="132"/>
+      <c r="L71" s="135"/>
+      <c r="M71" s="134"/>
+      <c r="N71" s="134"/>
+      <c r="O71" s="144"/>
       <c r="P71" s="133">
         <v>0</v>
       </c>
@@ -13702,18 +13738,18 @@
       <c r="B72" s="99"/>
       <c r="C72" s="108"/>
       <c r="D72" s="110"/>
-      <c r="E72" s="124"/>
-      <c r="F72" s="124"/>
-      <c r="G72" s="124"/>
-      <c r="H72" s="124"/>
-      <c r="I72" s="130"/>
-      <c r="J72" s="125"/>
-      <c r="K72" s="130"/>
-      <c r="L72" s="140"/>
-      <c r="M72" s="130"/>
-      <c r="N72" s="130"/>
-      <c r="O72" s="130"/>
-      <c r="P72" s="130"/>
+      <c r="E72" s="125"/>
+      <c r="F72" s="125"/>
+      <c r="G72" s="125"/>
+      <c r="H72" s="125"/>
+      <c r="I72" s="131"/>
+      <c r="J72" s="126"/>
+      <c r="K72" s="131"/>
+      <c r="L72" s="136"/>
+      <c r="M72" s="131"/>
+      <c r="N72" s="131"/>
+      <c r="O72" s="131"/>
+      <c r="P72" s="131"/>
       <c r="Q72" s="55"/>
       <c r="R72" s="56"/>
       <c r="S72" s="56"/>
@@ -13840,16 +13876,16 @@
       <c r="I73" s="133">
         <v>18</v>
       </c>
-      <c r="J73" s="131">
+      <c r="J73" s="134">
         <v>45806</v>
       </c>
-      <c r="K73" s="131">
-        <v>45810</v>
-      </c>
-      <c r="L73" s="144"/>
-      <c r="M73" s="131"/>
-      <c r="N73" s="131"/>
-      <c r="O73" s="132"/>
+      <c r="K73" s="134">
+        <v>45808</v>
+      </c>
+      <c r="L73" s="135"/>
+      <c r="M73" s="134"/>
+      <c r="N73" s="134"/>
+      <c r="O73" s="144"/>
       <c r="P73" s="133">
         <v>0</v>
       </c>
@@ -13970,18 +14006,18 @@
       <c r="B74" s="99"/>
       <c r="C74" s="108"/>
       <c r="D74" s="110"/>
-      <c r="E74" s="124"/>
-      <c r="F74" s="124"/>
-      <c r="G74" s="124"/>
-      <c r="H74" s="124"/>
-      <c r="I74" s="130"/>
-      <c r="J74" s="130"/>
-      <c r="K74" s="130"/>
-      <c r="L74" s="140"/>
-      <c r="M74" s="130"/>
-      <c r="N74" s="130"/>
-      <c r="O74" s="130"/>
-      <c r="P74" s="130"/>
+      <c r="E74" s="125"/>
+      <c r="F74" s="125"/>
+      <c r="G74" s="125"/>
+      <c r="H74" s="125"/>
+      <c r="I74" s="131"/>
+      <c r="J74" s="131"/>
+      <c r="K74" s="131"/>
+      <c r="L74" s="136"/>
+      <c r="M74" s="131"/>
+      <c r="N74" s="131"/>
+      <c r="O74" s="131"/>
+      <c r="P74" s="131"/>
       <c r="Q74" s="55"/>
       <c r="R74" s="56"/>
       <c r="S74" s="56"/>
@@ -14102,22 +14138,22 @@
       <c r="E75" s="145" t="s">
         <v>98</v>
       </c>
-      <c r="F75" s="121"/>
-      <c r="G75" s="121"/>
-      <c r="H75" s="122"/>
+      <c r="F75" s="122"/>
+      <c r="G75" s="122"/>
+      <c r="H75" s="123"/>
       <c r="I75" s="133">
         <v>8</v>
       </c>
-      <c r="J75" s="131">
-        <v>45811</v>
-      </c>
-      <c r="K75" s="131">
-        <v>45811</v>
-      </c>
-      <c r="L75" s="144"/>
-      <c r="M75" s="131"/>
-      <c r="N75" s="131"/>
-      <c r="O75" s="132"/>
+      <c r="J75" s="134">
+        <v>45810</v>
+      </c>
+      <c r="K75" s="134">
+        <v>45810</v>
+      </c>
+      <c r="L75" s="135"/>
+      <c r="M75" s="134"/>
+      <c r="N75" s="134"/>
+      <c r="O75" s="144"/>
       <c r="P75" s="133">
         <v>0</v>
       </c>
@@ -14238,18 +14274,18 @@
       <c r="B76" s="99"/>
       <c r="C76" s="108"/>
       <c r="D76" s="112"/>
-      <c r="E76" s="124"/>
-      <c r="F76" s="124"/>
-      <c r="G76" s="124"/>
-      <c r="H76" s="125"/>
-      <c r="I76" s="130"/>
-      <c r="J76" s="130"/>
-      <c r="K76" s="130"/>
-      <c r="L76" s="140"/>
-      <c r="M76" s="130"/>
-      <c r="N76" s="130"/>
-      <c r="O76" s="130"/>
-      <c r="P76" s="130"/>
+      <c r="E76" s="125"/>
+      <c r="F76" s="125"/>
+      <c r="G76" s="125"/>
+      <c r="H76" s="126"/>
+      <c r="I76" s="131"/>
+      <c r="J76" s="131"/>
+      <c r="K76" s="131"/>
+      <c r="L76" s="136"/>
+      <c r="M76" s="131"/>
+      <c r="N76" s="131"/>
+      <c r="O76" s="131"/>
+      <c r="P76" s="131"/>
       <c r="Q76" s="65"/>
       <c r="R76" s="67"/>
       <c r="S76" s="67"/>
@@ -14366,23 +14402,23 @@
       <c r="A77" s="26"/>
       <c r="B77" s="99"/>
       <c r="C77" s="108"/>
-      <c r="D77" s="149" t="s">
+      <c r="D77" s="138" t="s">
         <v>93</v>
       </c>
-      <c r="E77" s="121"/>
-      <c r="F77" s="121"/>
-      <c r="G77" s="121"/>
-      <c r="H77" s="122"/>
-      <c r="I77" s="141">
+      <c r="E77" s="122"/>
+      <c r="F77" s="122"/>
+      <c r="G77" s="122"/>
+      <c r="H77" s="123"/>
+      <c r="I77" s="139">
         <v>8</v>
       </c>
-      <c r="J77" s="134">
-        <v>45812</v>
-      </c>
-      <c r="K77" s="134">
-        <v>45812</v>
-      </c>
-      <c r="L77" s="139"/>
+      <c r="J77" s="140">
+        <v>45811</v>
+      </c>
+      <c r="K77" s="140">
+        <v>45811</v>
+      </c>
+      <c r="L77" s="141"/>
       <c r="M77" s="100"/>
       <c r="N77" s="100"/>
       <c r="O77" s="101"/>
@@ -14503,15 +14539,15 @@
       <c r="A78" s="26"/>
       <c r="B78" s="99"/>
       <c r="C78" s="108"/>
-      <c r="D78" s="123"/>
-      <c r="E78" s="124"/>
-      <c r="F78" s="124"/>
-      <c r="G78" s="124"/>
-      <c r="H78" s="125"/>
-      <c r="I78" s="125"/>
-      <c r="J78" s="125"/>
-      <c r="K78" s="125"/>
-      <c r="L78" s="140"/>
+      <c r="D78" s="124"/>
+      <c r="E78" s="125"/>
+      <c r="F78" s="125"/>
+      <c r="G78" s="125"/>
+      <c r="H78" s="126"/>
+      <c r="I78" s="126"/>
+      <c r="J78" s="126"/>
+      <c r="K78" s="126"/>
+      <c r="L78" s="136"/>
       <c r="M78" s="102"/>
       <c r="N78" s="102"/>
       <c r="O78" s="103"/>
@@ -14642,16 +14678,16 @@
       <c r="I79" s="133">
         <v>4</v>
       </c>
-      <c r="J79" s="131">
-        <v>45812</v>
-      </c>
-      <c r="K79" s="131">
-        <v>45812</v>
-      </c>
-      <c r="L79" s="144"/>
-      <c r="M79" s="131"/>
-      <c r="N79" s="131"/>
-      <c r="O79" s="132"/>
+      <c r="J79" s="134">
+        <v>45811</v>
+      </c>
+      <c r="K79" s="134">
+        <v>45811</v>
+      </c>
+      <c r="L79" s="135"/>
+      <c r="M79" s="134"/>
+      <c r="N79" s="134"/>
+      <c r="O79" s="144"/>
       <c r="P79" s="133">
         <v>0</v>
       </c>
@@ -14772,18 +14808,18 @@
       <c r="B80" s="99"/>
       <c r="C80" s="26"/>
       <c r="D80" s="99"/>
-      <c r="E80" s="124"/>
-      <c r="F80" s="124"/>
-      <c r="G80" s="124"/>
-      <c r="H80" s="124"/>
-      <c r="I80" s="130"/>
-      <c r="J80" s="130"/>
-      <c r="K80" s="130"/>
-      <c r="L80" s="140"/>
-      <c r="M80" s="130"/>
-      <c r="N80" s="130"/>
-      <c r="O80" s="130"/>
-      <c r="P80" s="130"/>
+      <c r="E80" s="125"/>
+      <c r="F80" s="125"/>
+      <c r="G80" s="125"/>
+      <c r="H80" s="125"/>
+      <c r="I80" s="131"/>
+      <c r="J80" s="131"/>
+      <c r="K80" s="131"/>
+      <c r="L80" s="136"/>
+      <c r="M80" s="131"/>
+      <c r="N80" s="131"/>
+      <c r="O80" s="131"/>
+      <c r="P80" s="131"/>
       <c r="Q80" s="55"/>
       <c r="R80" s="56"/>
       <c r="S80" s="56"/>
@@ -14910,16 +14946,16 @@
       <c r="I81" s="133">
         <v>4</v>
       </c>
-      <c r="J81" s="131">
-        <v>45812</v>
-      </c>
-      <c r="K81" s="131">
-        <v>45812</v>
-      </c>
-      <c r="L81" s="144"/>
-      <c r="M81" s="131"/>
-      <c r="N81" s="131"/>
-      <c r="O81" s="132"/>
+      <c r="J81" s="134">
+        <v>45811</v>
+      </c>
+      <c r="K81" s="134">
+        <v>45811</v>
+      </c>
+      <c r="L81" s="135"/>
+      <c r="M81" s="134"/>
+      <c r="N81" s="134"/>
+      <c r="O81" s="144"/>
       <c r="P81" s="133">
         <v>0</v>
       </c>
@@ -15040,18 +15076,18 @@
       <c r="B82" s="99"/>
       <c r="C82" s="26"/>
       <c r="D82" s="99"/>
-      <c r="E82" s="124"/>
-      <c r="F82" s="124"/>
-      <c r="G82" s="124"/>
-      <c r="H82" s="124"/>
-      <c r="I82" s="130"/>
-      <c r="J82" s="130"/>
-      <c r="K82" s="130"/>
-      <c r="L82" s="140"/>
-      <c r="M82" s="130"/>
-      <c r="N82" s="130"/>
-      <c r="O82" s="130"/>
-      <c r="P82" s="130"/>
+      <c r="E82" s="125"/>
+      <c r="F82" s="125"/>
+      <c r="G82" s="125"/>
+      <c r="H82" s="125"/>
+      <c r="I82" s="131"/>
+      <c r="J82" s="131"/>
+      <c r="K82" s="131"/>
+      <c r="L82" s="136"/>
+      <c r="M82" s="131"/>
+      <c r="N82" s="131"/>
+      <c r="O82" s="131"/>
+      <c r="P82" s="131"/>
       <c r="Q82" s="55"/>
       <c r="R82" s="56"/>
       <c r="S82" s="56"/>
@@ -15170,16 +15206,16 @@
       <c r="C83" s="26"/>
       <c r="D83" s="99"/>
       <c r="E83" s="145"/>
-      <c r="F83" s="121"/>
-      <c r="G83" s="121"/>
-      <c r="H83" s="122"/>
+      <c r="F83" s="122"/>
+      <c r="G83" s="122"/>
+      <c r="H83" s="123"/>
       <c r="I83" s="133"/>
-      <c r="J83" s="131"/>
-      <c r="K83" s="131"/>
-      <c r="L83" s="144"/>
-      <c r="M83" s="131"/>
-      <c r="N83" s="131"/>
-      <c r="O83" s="132"/>
+      <c r="J83" s="134"/>
+      <c r="K83" s="134"/>
+      <c r="L83" s="135"/>
+      <c r="M83" s="134"/>
+      <c r="N83" s="134"/>
+      <c r="O83" s="144"/>
       <c r="P83" s="133">
         <v>0</v>
       </c>
@@ -15300,18 +15336,18 @@
       <c r="B84" s="107"/>
       <c r="C84" s="115"/>
       <c r="D84" s="107"/>
-      <c r="E84" s="124"/>
-      <c r="F84" s="124"/>
-      <c r="G84" s="124"/>
-      <c r="H84" s="125"/>
-      <c r="I84" s="130"/>
-      <c r="J84" s="130"/>
-      <c r="K84" s="130"/>
-      <c r="L84" s="140"/>
-      <c r="M84" s="130"/>
-      <c r="N84" s="130"/>
-      <c r="O84" s="130"/>
-      <c r="P84" s="130"/>
+      <c r="E84" s="125"/>
+      <c r="F84" s="125"/>
+      <c r="G84" s="125"/>
+      <c r="H84" s="126"/>
+      <c r="I84" s="131"/>
+      <c r="J84" s="131"/>
+      <c r="K84" s="131"/>
+      <c r="L84" s="136"/>
+      <c r="M84" s="131"/>
+      <c r="N84" s="131"/>
+      <c r="O84" s="131"/>
+      <c r="P84" s="131"/>
       <c r="Q84" s="55"/>
       <c r="R84" s="56"/>
       <c r="S84" s="56"/>
@@ -15426,45 +15462,252 @@
     </row>
   </sheetData>
   <mergeCells count="309">
-    <mergeCell ref="E41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="O41:O42"/>
-    <mergeCell ref="P41:P42"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="J63:J64"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="L63:L64"/>
-    <mergeCell ref="M63:M64"/>
-    <mergeCell ref="D51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="E53:H54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="L53:L54"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="O67:O68"/>
-    <mergeCell ref="E67:H68"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="J67:J68"/>
-    <mergeCell ref="K67:K68"/>
-    <mergeCell ref="L67:L68"/>
-    <mergeCell ref="M67:M68"/>
-    <mergeCell ref="N67:N68"/>
-    <mergeCell ref="O65:O66"/>
-    <mergeCell ref="E65:H66"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="J65:J66"/>
-    <mergeCell ref="K65:K66"/>
-    <mergeCell ref="L65:L66"/>
-    <mergeCell ref="M65:M66"/>
-    <mergeCell ref="N65:N66"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="P53:P54"/>
+    <mergeCell ref="J61:J62"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="C59:H60"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="L61:L62"/>
+    <mergeCell ref="O55:O56"/>
+    <mergeCell ref="P55:P56"/>
+    <mergeCell ref="E55:H56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="N55:N56"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="P49:P50"/>
+    <mergeCell ref="E49:H50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="O47:O48"/>
+    <mergeCell ref="P47:P48"/>
+    <mergeCell ref="E47:H48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="N47:N48"/>
+    <mergeCell ref="P45:P46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="D43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="E45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="C31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="N35:N36"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="D33:H34"/>
+    <mergeCell ref="E35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="E39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="E37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="D27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="P29:P30"/>
+    <mergeCell ref="D29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="C23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="D25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="C19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="D21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="D15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="D17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="D11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="D13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="CZ4:DV4"/>
+    <mergeCell ref="B7:H8"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="C9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="N75:N76"/>
+    <mergeCell ref="L79:L80"/>
+    <mergeCell ref="M79:M80"/>
+    <mergeCell ref="N79:N80"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="P79:P80"/>
+    <mergeCell ref="Q4:AP4"/>
+    <mergeCell ref="AQ4:BU4"/>
+    <mergeCell ref="BV4:CY4"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="O39:O40"/>
+    <mergeCell ref="P39:P40"/>
+    <mergeCell ref="P35:P36"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="P37:P38"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="O45:O46"/>
+    <mergeCell ref="D69:H70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="J69:J70"/>
+    <mergeCell ref="K69:K70"/>
+    <mergeCell ref="L69:L70"/>
+    <mergeCell ref="E71:H72"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="O73:O74"/>
+    <mergeCell ref="P73:P74"/>
+    <mergeCell ref="E73:H74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="J73:J74"/>
+    <mergeCell ref="K73:K74"/>
+    <mergeCell ref="L73:L74"/>
+    <mergeCell ref="M73:M74"/>
+    <mergeCell ref="N73:N74"/>
+    <mergeCell ref="L71:L72"/>
+    <mergeCell ref="M71:M72"/>
+    <mergeCell ref="N71:N72"/>
+    <mergeCell ref="O71:O72"/>
+    <mergeCell ref="P71:P72"/>
+    <mergeCell ref="J71:J72"/>
+    <mergeCell ref="K71:K72"/>
+    <mergeCell ref="O83:O84"/>
+    <mergeCell ref="P83:P84"/>
+    <mergeCell ref="E83:H84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="J83:J84"/>
+    <mergeCell ref="K83:K84"/>
+    <mergeCell ref="L83:L84"/>
+    <mergeCell ref="M83:M84"/>
+    <mergeCell ref="N83:N84"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="E81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="J81:J82"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="L81:L82"/>
+    <mergeCell ref="M81:M82"/>
+    <mergeCell ref="N81:N82"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="K79:K80"/>
+    <mergeCell ref="D77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="J77:J78"/>
+    <mergeCell ref="K77:K78"/>
+    <mergeCell ref="L77:L78"/>
+    <mergeCell ref="E79:H80"/>
+    <mergeCell ref="I79:I80"/>
     <mergeCell ref="O75:O76"/>
     <mergeCell ref="P75:P76"/>
     <mergeCell ref="E75:H76"/>
@@ -15489,252 +15732,45 @@
     <mergeCell ref="P63:P64"/>
     <mergeCell ref="D61:H62"/>
     <mergeCell ref="E63:H64"/>
-    <mergeCell ref="J79:J80"/>
-    <mergeCell ref="K79:K80"/>
-    <mergeCell ref="D77:H78"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="J77:J78"/>
-    <mergeCell ref="K77:K78"/>
-    <mergeCell ref="L77:L78"/>
-    <mergeCell ref="E79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="E81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="J81:J82"/>
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="L81:L82"/>
-    <mergeCell ref="M81:M82"/>
-    <mergeCell ref="N81:N82"/>
-    <mergeCell ref="O83:O84"/>
-    <mergeCell ref="P83:P84"/>
-    <mergeCell ref="E83:H84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="J83:J84"/>
-    <mergeCell ref="K83:K84"/>
-    <mergeCell ref="L83:L84"/>
-    <mergeCell ref="M83:M84"/>
-    <mergeCell ref="N83:N84"/>
-    <mergeCell ref="D69:H70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="J69:J70"/>
-    <mergeCell ref="K69:K70"/>
-    <mergeCell ref="L69:L70"/>
-    <mergeCell ref="E71:H72"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="O73:O74"/>
-    <mergeCell ref="P73:P74"/>
-    <mergeCell ref="E73:H74"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="J73:J74"/>
-    <mergeCell ref="K73:K74"/>
-    <mergeCell ref="L73:L74"/>
-    <mergeCell ref="M73:M74"/>
-    <mergeCell ref="N73:N74"/>
-    <mergeCell ref="L71:L72"/>
-    <mergeCell ref="M71:M72"/>
-    <mergeCell ref="N71:N72"/>
-    <mergeCell ref="O71:O72"/>
-    <mergeCell ref="P71:P72"/>
-    <mergeCell ref="J71:J72"/>
-    <mergeCell ref="K71:K72"/>
-    <mergeCell ref="N75:N76"/>
-    <mergeCell ref="L79:L80"/>
-    <mergeCell ref="M79:M80"/>
-    <mergeCell ref="N79:N80"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="P79:P80"/>
-    <mergeCell ref="Q4:AP4"/>
-    <mergeCell ref="AQ4:BU4"/>
-    <mergeCell ref="BV4:CY4"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="P27:P28"/>
-    <mergeCell ref="O39:O40"/>
-    <mergeCell ref="P39:P40"/>
-    <mergeCell ref="P35:P36"/>
-    <mergeCell ref="O37:O38"/>
-    <mergeCell ref="P37:P38"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="N45:N46"/>
-    <mergeCell ref="O45:O46"/>
-    <mergeCell ref="CZ4:DV4"/>
-    <mergeCell ref="B7:H8"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="C9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="D11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="D13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="D15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="D17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="C19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="D21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="P25:P26"/>
-    <mergeCell ref="C23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="D25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="D27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="P29:P30"/>
-    <mergeCell ref="D29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="E39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="E37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="C31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="N35:N36"/>
-    <mergeCell ref="O35:O36"/>
-    <mergeCell ref="D33:H34"/>
-    <mergeCell ref="E35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="P45:P46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="D43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="E45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="O47:O48"/>
-    <mergeCell ref="P47:P48"/>
-    <mergeCell ref="E47:H48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="N47:N48"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="P49:P50"/>
-    <mergeCell ref="E49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="N53:N54"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="P53:P54"/>
-    <mergeCell ref="J61:J62"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="C59:H60"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="L61:L62"/>
-    <mergeCell ref="O55:O56"/>
-    <mergeCell ref="P55:P56"/>
-    <mergeCell ref="E55:H56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="L55:L56"/>
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="N55:N56"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="O67:O68"/>
+    <mergeCell ref="E67:H68"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="J67:J68"/>
+    <mergeCell ref="K67:K68"/>
+    <mergeCell ref="L67:L68"/>
+    <mergeCell ref="M67:M68"/>
+    <mergeCell ref="N67:N68"/>
+    <mergeCell ref="O65:O66"/>
+    <mergeCell ref="E65:H66"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="J65:J66"/>
+    <mergeCell ref="K65:K66"/>
+    <mergeCell ref="L65:L66"/>
+    <mergeCell ref="M65:M66"/>
+    <mergeCell ref="N65:N66"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="J63:J64"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="L63:L64"/>
+    <mergeCell ref="M63:M64"/>
+    <mergeCell ref="D51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="E53:H54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="E41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="P41:P42"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/DOJT｜WBS _ PGコース MVC編.xlsx
+++ b/docs/DOJT｜WBS _ PGコース MVC編.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="108">
   <si>
     <t>タスク名</t>
   </si>
@@ -421,27 +421,6 @@
       </rPr>
       <t>検索実装</t>
     </r>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>中村</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>中村</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>入力チェック不具合修正</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>フグアイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シュウセイ</t>
-    </rPh>
     <phoneticPr fontId="13"/>
   </si>
 </sst>
@@ -1158,7 +1137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1353,7 +1332,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1371,101 +1349,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="56" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="180" fontId="5" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="56" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="5" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="5" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="5" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1487,6 +1409,62 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="180" fontId="5" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1730,35 +1708,35 @@
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="127" t="s">
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="128"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="127" t="s">
+      <c r="G2" s="127"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="128"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="130" t="s">
+      <c r="J2" s="127"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="130" t="s">
+      <c r="M2" s="129" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="20.25" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="124"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="126"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="125"/>
       <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1777,8 +1755,8 @@
       <c r="K3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
+      <c r="L3" s="130"/>
+      <c r="M3" s="130"/>
     </row>
     <row r="4" spans="1:13" ht="20.25" customHeight="1">
       <c r="A4" s="3"/>
@@ -3571,8 +3549,8 @@
   <dimension ref="A1:DW84"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BK46" sqref="BK46"/>
+      <pane ySplit="8" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O39" sqref="O39:O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4002,124 +3980,124 @@
       <c r="N4" s="27"/>
       <c r="O4" s="27"/>
       <c r="P4" s="27"/>
-      <c r="Q4" s="147" t="s">
+      <c r="Q4" s="180" t="s">
         <v>63</v>
       </c>
-      <c r="R4" s="128"/>
-      <c r="S4" s="128"/>
-      <c r="T4" s="128"/>
-      <c r="U4" s="128"/>
-      <c r="V4" s="128"/>
-      <c r="W4" s="128"/>
-      <c r="X4" s="128"/>
-      <c r="Y4" s="128"/>
-      <c r="Z4" s="128"/>
-      <c r="AA4" s="128"/>
-      <c r="AB4" s="128"/>
-      <c r="AC4" s="128"/>
-      <c r="AD4" s="128"/>
-      <c r="AE4" s="128"/>
-      <c r="AF4" s="128"/>
-      <c r="AG4" s="128"/>
-      <c r="AH4" s="128"/>
-      <c r="AI4" s="128"/>
-      <c r="AJ4" s="128"/>
-      <c r="AK4" s="128"/>
-      <c r="AL4" s="128"/>
-      <c r="AM4" s="128"/>
-      <c r="AN4" s="128"/>
-      <c r="AO4" s="128"/>
-      <c r="AP4" s="129"/>
-      <c r="AQ4" s="147" t="s">
+      <c r="R4" s="127"/>
+      <c r="S4" s="127"/>
+      <c r="T4" s="127"/>
+      <c r="U4" s="127"/>
+      <c r="V4" s="127"/>
+      <c r="W4" s="127"/>
+      <c r="X4" s="127"/>
+      <c r="Y4" s="127"/>
+      <c r="Z4" s="127"/>
+      <c r="AA4" s="127"/>
+      <c r="AB4" s="127"/>
+      <c r="AC4" s="127"/>
+      <c r="AD4" s="127"/>
+      <c r="AE4" s="127"/>
+      <c r="AF4" s="127"/>
+      <c r="AG4" s="127"/>
+      <c r="AH4" s="127"/>
+      <c r="AI4" s="127"/>
+      <c r="AJ4" s="127"/>
+      <c r="AK4" s="127"/>
+      <c r="AL4" s="127"/>
+      <c r="AM4" s="127"/>
+      <c r="AN4" s="127"/>
+      <c r="AO4" s="127"/>
+      <c r="AP4" s="128"/>
+      <c r="AQ4" s="180" t="s">
         <v>64</v>
       </c>
-      <c r="AR4" s="128"/>
-      <c r="AS4" s="128"/>
-      <c r="AT4" s="128"/>
-      <c r="AU4" s="128"/>
-      <c r="AV4" s="128"/>
-      <c r="AW4" s="128"/>
-      <c r="AX4" s="128"/>
-      <c r="AY4" s="128"/>
-      <c r="AZ4" s="128"/>
-      <c r="BA4" s="128"/>
-      <c r="BB4" s="128"/>
-      <c r="BC4" s="128"/>
-      <c r="BD4" s="128"/>
-      <c r="BE4" s="128"/>
-      <c r="BF4" s="128"/>
-      <c r="BG4" s="128"/>
-      <c r="BH4" s="128"/>
-      <c r="BI4" s="128"/>
-      <c r="BJ4" s="128"/>
-      <c r="BK4" s="128"/>
-      <c r="BL4" s="128"/>
-      <c r="BM4" s="128"/>
-      <c r="BN4" s="128"/>
-      <c r="BO4" s="128"/>
-      <c r="BP4" s="128"/>
-      <c r="BQ4" s="128"/>
-      <c r="BR4" s="128"/>
-      <c r="BS4" s="128"/>
-      <c r="BT4" s="128"/>
-      <c r="BU4" s="129"/>
-      <c r="BV4" s="147" t="s">
+      <c r="AR4" s="127"/>
+      <c r="AS4" s="127"/>
+      <c r="AT4" s="127"/>
+      <c r="AU4" s="127"/>
+      <c r="AV4" s="127"/>
+      <c r="AW4" s="127"/>
+      <c r="AX4" s="127"/>
+      <c r="AY4" s="127"/>
+      <c r="AZ4" s="127"/>
+      <c r="BA4" s="127"/>
+      <c r="BB4" s="127"/>
+      <c r="BC4" s="127"/>
+      <c r="BD4" s="127"/>
+      <c r="BE4" s="127"/>
+      <c r="BF4" s="127"/>
+      <c r="BG4" s="127"/>
+      <c r="BH4" s="127"/>
+      <c r="BI4" s="127"/>
+      <c r="BJ4" s="127"/>
+      <c r="BK4" s="127"/>
+      <c r="BL4" s="127"/>
+      <c r="BM4" s="127"/>
+      <c r="BN4" s="127"/>
+      <c r="BO4" s="127"/>
+      <c r="BP4" s="127"/>
+      <c r="BQ4" s="127"/>
+      <c r="BR4" s="127"/>
+      <c r="BS4" s="127"/>
+      <c r="BT4" s="127"/>
+      <c r="BU4" s="128"/>
+      <c r="BV4" s="180" t="s">
         <v>65</v>
       </c>
-      <c r="BW4" s="128"/>
-      <c r="BX4" s="128"/>
-      <c r="BY4" s="128"/>
-      <c r="BZ4" s="128"/>
-      <c r="CA4" s="128"/>
-      <c r="CB4" s="128"/>
-      <c r="CC4" s="128"/>
-      <c r="CD4" s="128"/>
-      <c r="CE4" s="128"/>
-      <c r="CF4" s="128"/>
-      <c r="CG4" s="128"/>
-      <c r="CH4" s="128"/>
-      <c r="CI4" s="128"/>
-      <c r="CJ4" s="128"/>
-      <c r="CK4" s="128"/>
-      <c r="CL4" s="128"/>
-      <c r="CM4" s="128"/>
-      <c r="CN4" s="128"/>
-      <c r="CO4" s="128"/>
-      <c r="CP4" s="128"/>
-      <c r="CQ4" s="128"/>
-      <c r="CR4" s="128"/>
-      <c r="CS4" s="128"/>
-      <c r="CT4" s="128"/>
-      <c r="CU4" s="128"/>
-      <c r="CV4" s="128"/>
-      <c r="CW4" s="128"/>
-      <c r="CX4" s="128"/>
-      <c r="CY4" s="129"/>
-      <c r="CZ4" s="147" t="s">
+      <c r="BW4" s="127"/>
+      <c r="BX4" s="127"/>
+      <c r="BY4" s="127"/>
+      <c r="BZ4" s="127"/>
+      <c r="CA4" s="127"/>
+      <c r="CB4" s="127"/>
+      <c r="CC4" s="127"/>
+      <c r="CD4" s="127"/>
+      <c r="CE4" s="127"/>
+      <c r="CF4" s="127"/>
+      <c r="CG4" s="127"/>
+      <c r="CH4" s="127"/>
+      <c r="CI4" s="127"/>
+      <c r="CJ4" s="127"/>
+      <c r="CK4" s="127"/>
+      <c r="CL4" s="127"/>
+      <c r="CM4" s="127"/>
+      <c r="CN4" s="127"/>
+      <c r="CO4" s="127"/>
+      <c r="CP4" s="127"/>
+      <c r="CQ4" s="127"/>
+      <c r="CR4" s="127"/>
+      <c r="CS4" s="127"/>
+      <c r="CT4" s="127"/>
+      <c r="CU4" s="127"/>
+      <c r="CV4" s="127"/>
+      <c r="CW4" s="127"/>
+      <c r="CX4" s="127"/>
+      <c r="CY4" s="128"/>
+      <c r="CZ4" s="180" t="s">
         <v>66</v>
       </c>
-      <c r="DA4" s="128"/>
-      <c r="DB4" s="128"/>
-      <c r="DC4" s="128"/>
-      <c r="DD4" s="128"/>
-      <c r="DE4" s="128"/>
-      <c r="DF4" s="128"/>
-      <c r="DG4" s="128"/>
-      <c r="DH4" s="128"/>
-      <c r="DI4" s="128"/>
-      <c r="DJ4" s="128"/>
-      <c r="DK4" s="128"/>
-      <c r="DL4" s="128"/>
-      <c r="DM4" s="128"/>
-      <c r="DN4" s="128"/>
-      <c r="DO4" s="128"/>
-      <c r="DP4" s="128"/>
-      <c r="DQ4" s="128"/>
-      <c r="DR4" s="128"/>
-      <c r="DS4" s="128"/>
-      <c r="DT4" s="128"/>
-      <c r="DU4" s="128"/>
-      <c r="DV4" s="129"/>
+      <c r="DA4" s="127"/>
+      <c r="DB4" s="127"/>
+      <c r="DC4" s="127"/>
+      <c r="DD4" s="127"/>
+      <c r="DE4" s="127"/>
+      <c r="DF4" s="127"/>
+      <c r="DG4" s="127"/>
+      <c r="DH4" s="127"/>
+      <c r="DI4" s="127"/>
+      <c r="DJ4" s="127"/>
+      <c r="DK4" s="127"/>
+      <c r="DL4" s="127"/>
+      <c r="DM4" s="127"/>
+      <c r="DN4" s="127"/>
+      <c r="DO4" s="127"/>
+      <c r="DP4" s="127"/>
+      <c r="DQ4" s="127"/>
+      <c r="DR4" s="127"/>
+      <c r="DS4" s="127"/>
+      <c r="DT4" s="127"/>
+      <c r="DU4" s="127"/>
+      <c r="DV4" s="128"/>
       <c r="DW4" s="34"/>
     </row>
     <row r="5" spans="1:127">
@@ -4932,29 +4910,29 @@
     </row>
     <row r="7" spans="1:127" ht="19.5">
       <c r="A7" s="26"/>
-      <c r="B7" s="155" t="s">
+      <c r="B7" s="181" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="122"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="127" t="s">
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="128"/>
-      <c r="K7" s="129"/>
-      <c r="L7" s="127" t="s">
+      <c r="J7" s="127"/>
+      <c r="K7" s="128"/>
+      <c r="L7" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="M7" s="128"/>
-      <c r="N7" s="129"/>
-      <c r="O7" s="130" t="s">
+      <c r="M7" s="127"/>
+      <c r="N7" s="128"/>
+      <c r="O7" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="P7" s="130" t="s">
+      <c r="P7" s="129" t="s">
         <v>4</v>
       </c>
       <c r="Q7" s="42"/>
@@ -5071,13 +5049,13 @@
     </row>
     <row r="8" spans="1:127" ht="19.5">
       <c r="A8" s="26"/>
-      <c r="B8" s="124"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="125"/>
-      <c r="E8" s="125"/>
-      <c r="F8" s="125"/>
-      <c r="G8" s="125"/>
-      <c r="H8" s="126"/>
+      <c r="B8" s="123"/>
+      <c r="C8" s="124"/>
+      <c r="D8" s="124"/>
+      <c r="E8" s="124"/>
+      <c r="F8" s="124"/>
+      <c r="G8" s="124"/>
+      <c r="H8" s="125"/>
       <c r="I8" s="2" t="s">
         <v>5</v>
       </c>
@@ -5096,8 +5074,8 @@
       <c r="N8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O8" s="131"/>
-      <c r="P8" s="131"/>
+      <c r="O8" s="130"/>
+      <c r="P8" s="130"/>
       <c r="Q8" s="46"/>
       <c r="R8" s="47"/>
       <c r="S8" s="47"/>
@@ -5213,33 +5191,33 @@
     <row r="9" spans="1:127" ht="12" customHeight="1">
       <c r="A9" s="26"/>
       <c r="B9" s="50"/>
-      <c r="C9" s="157" t="s">
+      <c r="C9" s="174" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="158"/>
-      <c r="E9" s="158"/>
-      <c r="F9" s="158"/>
-      <c r="G9" s="158"/>
-      <c r="H9" s="158"/>
-      <c r="I9" s="160">
+      <c r="D9" s="136"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="136"/>
+      <c r="G9" s="136"/>
+      <c r="H9" s="136"/>
+      <c r="I9" s="176">
         <v>1</v>
       </c>
-      <c r="J9" s="156">
+      <c r="J9" s="177">
         <f>J11</f>
         <v>45787</v>
       </c>
-      <c r="K9" s="156">
+      <c r="K9" s="177">
         <f>K17</f>
         <v>45787</v>
       </c>
-      <c r="L9" s="160">
+      <c r="L9" s="176">
         <v>1.3</v>
       </c>
-      <c r="M9" s="156">
+      <c r="M9" s="177">
         <f>M11</f>
         <v>45787</v>
       </c>
-      <c r="N9" s="156">
+      <c r="N9" s="177">
         <f>N17</f>
         <v>45790</v>
       </c>
@@ -5362,18 +5340,18 @@
     <row r="10" spans="1:127" ht="12" customHeight="1">
       <c r="A10" s="26"/>
       <c r="B10" s="50"/>
-      <c r="C10" s="159"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
-      <c r="F10" s="125"/>
-      <c r="G10" s="125"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="131"/>
-      <c r="J10" s="126"/>
-      <c r="K10" s="126"/>
-      <c r="L10" s="131"/>
-      <c r="M10" s="126"/>
-      <c r="N10" s="126"/>
+      <c r="C10" s="137"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
+      <c r="F10" s="124"/>
+      <c r="G10" s="124"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="130"/>
+      <c r="J10" s="125"/>
+      <c r="K10" s="125"/>
+      <c r="L10" s="130"/>
+      <c r="M10" s="125"/>
+      <c r="N10" s="125"/>
       <c r="O10" s="53"/>
       <c r="P10" s="53"/>
       <c r="Q10" s="46"/>
@@ -5492,37 +5470,37 @@
       <c r="A11" s="26"/>
       <c r="B11" s="50"/>
       <c r="C11" s="54"/>
-      <c r="D11" s="161" t="s">
+      <c r="D11" s="178" t="s">
         <v>76</v>
       </c>
-      <c r="E11" s="122"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122"/>
-      <c r="H11" s="123"/>
-      <c r="I11" s="148">
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="171">
         <v>0.1</v>
       </c>
-      <c r="J11" s="162">
+      <c r="J11" s="179">
         <v>45787</v>
       </c>
-      <c r="K11" s="162">
+      <c r="K11" s="179">
         <f>$J$11</f>
         <v>45787</v>
       </c>
-      <c r="L11" s="148">
+      <c r="L11" s="171">
         <v>0.1</v>
       </c>
-      <c r="M11" s="162">
+      <c r="M11" s="179">
         <v>45787</v>
       </c>
-      <c r="N11" s="162">
+      <c r="N11" s="179">
         <f>$J$11</f>
         <v>45787</v>
       </c>
-      <c r="O11" s="148" t="s">
+      <c r="O11" s="171" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="148">
+      <c r="P11" s="171">
         <v>100</v>
       </c>
       <c r="Q11" s="55"/>
@@ -5641,19 +5619,19 @@
       <c r="A12" s="26"/>
       <c r="B12" s="50"/>
       <c r="C12" s="63"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="125"/>
-      <c r="F12" s="125"/>
-      <c r="G12" s="125"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="131"/>
-      <c r="J12" s="131"/>
-      <c r="K12" s="131"/>
-      <c r="L12" s="131"/>
-      <c r="M12" s="131"/>
-      <c r="N12" s="131"/>
-      <c r="O12" s="131"/>
-      <c r="P12" s="131"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="124"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="130"/>
+      <c r="K12" s="130"/>
+      <c r="L12" s="130"/>
+      <c r="M12" s="130"/>
+      <c r="N12" s="130"/>
+      <c r="O12" s="130"/>
+      <c r="P12" s="130"/>
       <c r="Q12" s="55"/>
       <c r="R12" s="55"/>
       <c r="S12" s="55"/>
@@ -5770,39 +5748,39 @@
       <c r="A13" s="26"/>
       <c r="B13" s="50"/>
       <c r="C13" s="63"/>
-      <c r="D13" s="161" t="s">
+      <c r="D13" s="178" t="s">
         <v>78</v>
       </c>
-      <c r="E13" s="122"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="123"/>
-      <c r="I13" s="148">
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="171">
         <v>0.1</v>
       </c>
-      <c r="J13" s="162">
+      <c r="J13" s="179">
         <f t="shared" ref="J13:K13" si="1">$J$11</f>
         <v>45787</v>
       </c>
-      <c r="K13" s="162">
+      <c r="K13" s="179">
         <f t="shared" si="1"/>
         <v>45787</v>
       </c>
-      <c r="L13" s="148">
+      <c r="L13" s="171">
         <v>0.1</v>
       </c>
-      <c r="M13" s="162">
+      <c r="M13" s="179">
         <f t="shared" ref="M13:N13" si="2">$J$11</f>
         <v>45787</v>
       </c>
-      <c r="N13" s="162">
+      <c r="N13" s="179">
         <f t="shared" si="2"/>
         <v>45787</v>
       </c>
-      <c r="O13" s="148" t="s">
+      <c r="O13" s="171" t="s">
         <v>77</v>
       </c>
-      <c r="P13" s="148">
+      <c r="P13" s="171">
         <v>100</v>
       </c>
       <c r="Q13" s="55"/>
@@ -5921,19 +5899,19 @@
       <c r="A14" s="26"/>
       <c r="B14" s="50"/>
       <c r="C14" s="63"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="125"/>
-      <c r="F14" s="125"/>
-      <c r="G14" s="125"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="131"/>
-      <c r="J14" s="131"/>
-      <c r="K14" s="131"/>
-      <c r="L14" s="131"/>
-      <c r="M14" s="131"/>
-      <c r="N14" s="131"/>
-      <c r="O14" s="131"/>
-      <c r="P14" s="131"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="124"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="130"/>
+      <c r="J14" s="130"/>
+      <c r="K14" s="130"/>
+      <c r="L14" s="130"/>
+      <c r="M14" s="130"/>
+      <c r="N14" s="130"/>
+      <c r="O14" s="130"/>
+      <c r="P14" s="130"/>
       <c r="Q14" s="55"/>
       <c r="R14" s="55"/>
       <c r="S14" s="55"/>
@@ -6050,39 +6028,39 @@
       <c r="A15" s="26"/>
       <c r="B15" s="50"/>
       <c r="C15" s="63"/>
-      <c r="D15" s="161" t="s">
+      <c r="D15" s="178" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="122"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="122"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="148">
+      <c r="E15" s="121"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="171">
         <v>0.1</v>
       </c>
-      <c r="J15" s="162">
+      <c r="J15" s="179">
         <f t="shared" ref="J15:K15" si="3">$J$11</f>
         <v>45787</v>
       </c>
-      <c r="K15" s="162">
+      <c r="K15" s="179">
         <f t="shared" si="3"/>
         <v>45787</v>
       </c>
-      <c r="L15" s="148">
+      <c r="L15" s="171">
         <v>0.1</v>
       </c>
-      <c r="M15" s="162">
+      <c r="M15" s="179">
         <f t="shared" ref="M15:N15" si="4">$J$11</f>
         <v>45787</v>
       </c>
-      <c r="N15" s="162">
+      <c r="N15" s="179">
         <f t="shared" si="4"/>
         <v>45787</v>
       </c>
-      <c r="O15" s="148" t="s">
+      <c r="O15" s="171" t="s">
         <v>77</v>
       </c>
-      <c r="P15" s="148">
+      <c r="P15" s="171">
         <v>100</v>
       </c>
       <c r="Q15" s="55"/>
@@ -6201,19 +6179,19 @@
       <c r="A16" s="26"/>
       <c r="B16" s="50"/>
       <c r="C16" s="63"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="125"/>
-      <c r="F16" s="125"/>
-      <c r="G16" s="125"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="131"/>
-      <c r="J16" s="131"/>
-      <c r="K16" s="131"/>
-      <c r="L16" s="131"/>
-      <c r="M16" s="131"/>
-      <c r="N16" s="131"/>
-      <c r="O16" s="131"/>
-      <c r="P16" s="131"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="124"/>
+      <c r="F16" s="124"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="130"/>
+      <c r="K16" s="130"/>
+      <c r="L16" s="130"/>
+      <c r="M16" s="130"/>
+      <c r="N16" s="130"/>
+      <c r="O16" s="130"/>
+      <c r="P16" s="130"/>
       <c r="Q16" s="55"/>
       <c r="R16" s="55"/>
       <c r="S16" s="55"/>
@@ -6330,37 +6308,37 @@
       <c r="A17" s="26"/>
       <c r="B17" s="50"/>
       <c r="C17" s="63"/>
-      <c r="D17" s="161" t="s">
+      <c r="D17" s="178" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="122"/>
-      <c r="F17" s="122"/>
-      <c r="G17" s="122"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="148">
+      <c r="E17" s="121"/>
+      <c r="F17" s="121"/>
+      <c r="G17" s="121"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="171">
         <v>0.7</v>
       </c>
-      <c r="J17" s="162">
+      <c r="J17" s="179">
         <f t="shared" ref="J17:K17" si="5">$J$11</f>
         <v>45787</v>
       </c>
-      <c r="K17" s="162">
+      <c r="K17" s="179">
         <f t="shared" si="5"/>
         <v>45787</v>
       </c>
-      <c r="L17" s="148">
+      <c r="L17" s="171">
         <v>3</v>
       </c>
-      <c r="M17" s="162">
+      <c r="M17" s="179">
         <v>45787</v>
       </c>
-      <c r="N17" s="162">
+      <c r="N17" s="179">
         <v>45790</v>
       </c>
-      <c r="O17" s="148" t="s">
+      <c r="O17" s="171" t="s">
         <v>77</v>
       </c>
-      <c r="P17" s="148">
+      <c r="P17" s="171">
         <v>100</v>
       </c>
       <c r="Q17" s="55"/>
@@ -6479,19 +6457,19 @@
       <c r="A18" s="26"/>
       <c r="B18" s="50"/>
       <c r="C18" s="64"/>
-      <c r="D18" s="124"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="125"/>
-      <c r="G18" s="125"/>
-      <c r="H18" s="126"/>
-      <c r="I18" s="131"/>
-      <c r="J18" s="131"/>
-      <c r="K18" s="131"/>
-      <c r="L18" s="131"/>
-      <c r="M18" s="131"/>
-      <c r="N18" s="131"/>
-      <c r="O18" s="131"/>
-      <c r="P18" s="131"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="124"/>
+      <c r="F18" s="124"/>
+      <c r="G18" s="124"/>
+      <c r="H18" s="125"/>
+      <c r="I18" s="130"/>
+      <c r="J18" s="130"/>
+      <c r="K18" s="130"/>
+      <c r="L18" s="130"/>
+      <c r="M18" s="130"/>
+      <c r="N18" s="130"/>
+      <c r="O18" s="130"/>
+      <c r="P18" s="130"/>
       <c r="Q18" s="65"/>
       <c r="R18" s="65"/>
       <c r="S18" s="65"/>
@@ -6607,24 +6585,24 @@
     <row r="19" spans="1:127" ht="12" customHeight="1">
       <c r="A19" s="26"/>
       <c r="B19" s="50"/>
-      <c r="C19" s="157" t="s">
+      <c r="C19" s="174" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="158"/>
-      <c r="E19" s="158"/>
-      <c r="F19" s="158"/>
-      <c r="G19" s="158"/>
-      <c r="H19" s="158"/>
-      <c r="I19" s="160">
+      <c r="D19" s="136"/>
+      <c r="E19" s="136"/>
+      <c r="F19" s="136"/>
+      <c r="G19" s="136"/>
+      <c r="H19" s="136"/>
+      <c r="I19" s="176">
         <v>1</v>
       </c>
-      <c r="J19" s="156">
+      <c r="J19" s="177">
         <v>45790</v>
       </c>
-      <c r="K19" s="156">
+      <c r="K19" s="177">
         <v>45790</v>
       </c>
-      <c r="L19" s="160"/>
+      <c r="L19" s="176"/>
       <c r="M19" s="74"/>
       <c r="N19" s="74"/>
       <c r="O19" s="75"/>
@@ -6744,16 +6722,16 @@
     <row r="20" spans="1:127" ht="12" customHeight="1">
       <c r="A20" s="26"/>
       <c r="B20" s="50"/>
-      <c r="C20" s="164"/>
+      <c r="C20" s="175"/>
       <c r="D20" s="143"/>
       <c r="E20" s="143"/>
       <c r="F20" s="143"/>
       <c r="G20" s="143"/>
       <c r="H20" s="143"/>
-      <c r="I20" s="131"/>
-      <c r="J20" s="126"/>
-      <c r="K20" s="126"/>
-      <c r="L20" s="131"/>
+      <c r="I20" s="130"/>
+      <c r="J20" s="125"/>
+      <c r="K20" s="125"/>
+      <c r="L20" s="130"/>
       <c r="M20" s="74"/>
       <c r="N20" s="74"/>
       <c r="O20" s="75"/>
@@ -6874,35 +6852,35 @@
       <c r="A21" s="26"/>
       <c r="B21" s="50"/>
       <c r="C21" s="54"/>
-      <c r="D21" s="161" t="s">
+      <c r="D21" s="178" t="s">
         <v>81</v>
       </c>
-      <c r="E21" s="122"/>
-      <c r="F21" s="122"/>
-      <c r="G21" s="122"/>
-      <c r="H21" s="123"/>
-      <c r="I21" s="148">
+      <c r="E21" s="121"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="121"/>
+      <c r="H21" s="122"/>
+      <c r="I21" s="171">
         <v>1</v>
       </c>
-      <c r="J21" s="163">
+      <c r="J21" s="173">
         <v>45790</v>
       </c>
-      <c r="K21" s="163">
+      <c r="K21" s="173">
         <v>45790</v>
       </c>
-      <c r="L21" s="148">
+      <c r="L21" s="171">
         <v>5.5</v>
       </c>
-      <c r="M21" s="163">
+      <c r="M21" s="173">
         <v>45790</v>
       </c>
-      <c r="N21" s="163">
+      <c r="N21" s="173">
         <v>45790</v>
       </c>
-      <c r="O21" s="148" t="s">
+      <c r="O21" s="171" t="s">
         <v>77</v>
       </c>
-      <c r="P21" s="148">
+      <c r="P21" s="171">
         <v>100</v>
       </c>
       <c r="Q21" s="55"/>
@@ -7021,19 +6999,19 @@
       <c r="A22" s="26"/>
       <c r="B22" s="50"/>
       <c r="C22" s="63"/>
-      <c r="D22" s="124"/>
-      <c r="E22" s="125"/>
-      <c r="F22" s="125"/>
-      <c r="G22" s="125"/>
-      <c r="H22" s="126"/>
-      <c r="I22" s="131"/>
-      <c r="J22" s="131"/>
-      <c r="K22" s="131"/>
-      <c r="L22" s="131"/>
-      <c r="M22" s="131"/>
-      <c r="N22" s="131"/>
-      <c r="O22" s="131"/>
-      <c r="P22" s="131"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="124"/>
+      <c r="F22" s="124"/>
+      <c r="G22" s="124"/>
+      <c r="H22" s="125"/>
+      <c r="I22" s="130"/>
+      <c r="J22" s="130"/>
+      <c r="K22" s="130"/>
+      <c r="L22" s="130"/>
+      <c r="M22" s="130"/>
+      <c r="N22" s="130"/>
+      <c r="O22" s="130"/>
+      <c r="P22" s="130"/>
       <c r="Q22" s="82"/>
       <c r="R22" s="83"/>
       <c r="S22" s="83"/>
@@ -7149,24 +7127,24 @@
     <row r="23" spans="1:127" ht="12" customHeight="1">
       <c r="A23" s="26"/>
       <c r="B23" s="91"/>
-      <c r="C23" s="165" t="s">
+      <c r="C23" s="172" t="s">
         <v>82</v>
       </c>
-      <c r="D23" s="158"/>
-      <c r="E23" s="158"/>
-      <c r="F23" s="158"/>
-      <c r="G23" s="158"/>
-      <c r="H23" s="158"/>
-      <c r="I23" s="166">
+      <c r="D23" s="136"/>
+      <c r="E23" s="136"/>
+      <c r="F23" s="136"/>
+      <c r="G23" s="136"/>
+      <c r="H23" s="136"/>
+      <c r="I23" s="138">
         <v>10</v>
       </c>
-      <c r="J23" s="140">
+      <c r="J23" s="134">
         <v>45791</v>
       </c>
-      <c r="K23" s="140">
+      <c r="K23" s="134">
         <v>45792</v>
       </c>
-      <c r="L23" s="167"/>
+      <c r="L23" s="161"/>
       <c r="M23" s="92"/>
       <c r="N23" s="92"/>
       <c r="O23" s="93"/>
@@ -7286,16 +7264,16 @@
     <row r="24" spans="1:127" ht="12" customHeight="1">
       <c r="A24" s="26"/>
       <c r="B24" s="91"/>
-      <c r="C24" s="159"/>
-      <c r="D24" s="125"/>
-      <c r="E24" s="125"/>
-      <c r="F24" s="125"/>
-      <c r="G24" s="125"/>
-      <c r="H24" s="125"/>
-      <c r="I24" s="131"/>
-      <c r="J24" s="126"/>
-      <c r="K24" s="126"/>
-      <c r="L24" s="131"/>
+      <c r="C24" s="137"/>
+      <c r="D24" s="124"/>
+      <c r="E24" s="124"/>
+      <c r="F24" s="124"/>
+      <c r="G24" s="124"/>
+      <c r="H24" s="124"/>
+      <c r="I24" s="130"/>
+      <c r="J24" s="125"/>
+      <c r="K24" s="125"/>
+      <c r="L24" s="130"/>
       <c r="M24" s="97"/>
       <c r="N24" s="97"/>
       <c r="O24" s="98"/>
@@ -7419,32 +7397,32 @@
       <c r="D25" s="168" t="s">
         <v>83</v>
       </c>
-      <c r="E25" s="122"/>
-      <c r="F25" s="122"/>
-      <c r="G25" s="122"/>
-      <c r="H25" s="123"/>
+      <c r="E25" s="121"/>
+      <c r="F25" s="121"/>
+      <c r="G25" s="121"/>
+      <c r="H25" s="122"/>
       <c r="I25" s="133">
         <v>4</v>
       </c>
-      <c r="J25" s="134">
+      <c r="J25" s="131">
         <v>45791</v>
       </c>
-      <c r="K25" s="134">
+      <c r="K25" s="131">
         <v>45791</v>
       </c>
       <c r="L25" s="133">
         <v>7</v>
       </c>
-      <c r="M25" s="134">
+      <c r="M25" s="131">
         <v>45791</v>
       </c>
-      <c r="N25" s="134">
+      <c r="N25" s="131">
         <v>45791</v>
       </c>
       <c r="O25" s="133" t="s">
         <v>77</v>
       </c>
-      <c r="P25" s="148">
+      <c r="P25" s="171">
         <v>100</v>
       </c>
       <c r="Q25" s="55"/>
@@ -7563,19 +7541,19 @@
       <c r="A26" s="26"/>
       <c r="B26" s="91"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="124"/>
-      <c r="E26" s="125"/>
-      <c r="F26" s="125"/>
-      <c r="G26" s="125"/>
-      <c r="H26" s="126"/>
-      <c r="I26" s="131"/>
-      <c r="J26" s="131"/>
-      <c r="K26" s="131"/>
-      <c r="L26" s="131"/>
-      <c r="M26" s="131"/>
-      <c r="N26" s="131"/>
-      <c r="O26" s="131"/>
-      <c r="P26" s="131"/>
+      <c r="D26" s="123"/>
+      <c r="E26" s="124"/>
+      <c r="F26" s="124"/>
+      <c r="G26" s="124"/>
+      <c r="H26" s="125"/>
+      <c r="I26" s="130"/>
+      <c r="J26" s="130"/>
+      <c r="K26" s="130"/>
+      <c r="L26" s="130"/>
+      <c r="M26" s="130"/>
+      <c r="N26" s="130"/>
+      <c r="O26" s="130"/>
+      <c r="P26" s="130"/>
       <c r="Q26" s="55"/>
       <c r="R26" s="56"/>
       <c r="S26" s="56"/>
@@ -7695,26 +7673,26 @@
       <c r="D27" s="168" t="s">
         <v>84</v>
       </c>
-      <c r="E27" s="122"/>
-      <c r="F27" s="122"/>
-      <c r="G27" s="122"/>
-      <c r="H27" s="123"/>
+      <c r="E27" s="121"/>
+      <c r="F27" s="121"/>
+      <c r="G27" s="121"/>
+      <c r="H27" s="122"/>
       <c r="I27" s="133">
         <v>6</v>
       </c>
       <c r="J27" s="169">
         <v>45791</v>
       </c>
-      <c r="K27" s="134">
+      <c r="K27" s="131">
         <v>45792</v>
       </c>
       <c r="L27" s="133">
         <v>3</v>
       </c>
-      <c r="M27" s="134">
+      <c r="M27" s="131">
         <v>45792</v>
       </c>
-      <c r="N27" s="134">
+      <c r="N27" s="131">
         <v>45792</v>
       </c>
       <c r="O27" s="133" t="s">
@@ -7839,19 +7817,19 @@
       <c r="A28" s="26"/>
       <c r="B28" s="91"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="124"/>
-      <c r="E28" s="125"/>
-      <c r="F28" s="125"/>
-      <c r="G28" s="125"/>
-      <c r="H28" s="126"/>
-      <c r="I28" s="131"/>
-      <c r="J28" s="131"/>
-      <c r="K28" s="131"/>
-      <c r="L28" s="131"/>
-      <c r="M28" s="131"/>
-      <c r="N28" s="131"/>
-      <c r="O28" s="131"/>
-      <c r="P28" s="131"/>
+      <c r="D28" s="123"/>
+      <c r="E28" s="124"/>
+      <c r="F28" s="124"/>
+      <c r="G28" s="124"/>
+      <c r="H28" s="125"/>
+      <c r="I28" s="130"/>
+      <c r="J28" s="130"/>
+      <c r="K28" s="130"/>
+      <c r="L28" s="130"/>
+      <c r="M28" s="130"/>
+      <c r="N28" s="130"/>
+      <c r="O28" s="130"/>
+      <c r="P28" s="130"/>
       <c r="Q28" s="65"/>
       <c r="R28" s="67"/>
       <c r="S28" s="67"/>
@@ -7971,26 +7949,26 @@
       <c r="D29" s="168" t="s">
         <v>85</v>
       </c>
-      <c r="E29" s="122"/>
-      <c r="F29" s="122"/>
-      <c r="G29" s="122"/>
-      <c r="H29" s="123"/>
+      <c r="E29" s="121"/>
+      <c r="F29" s="121"/>
+      <c r="G29" s="121"/>
+      <c r="H29" s="122"/>
       <c r="I29" s="133">
         <v>4</v>
       </c>
-      <c r="J29" s="134">
+      <c r="J29" s="131">
         <v>45792</v>
       </c>
       <c r="K29" s="169">
         <v>45792</v>
       </c>
-      <c r="L29" s="135">
+      <c r="L29" s="144">
         <v>3</v>
       </c>
-      <c r="M29" s="134">
+      <c r="M29" s="131">
         <v>45792</v>
       </c>
-      <c r="N29" s="134">
+      <c r="N29" s="131">
         <v>45792</v>
       </c>
       <c r="O29" s="170" t="s">
@@ -8115,19 +8093,19 @@
       <c r="A30" s="26"/>
       <c r="B30" s="91"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="124"/>
-      <c r="E30" s="125"/>
-      <c r="F30" s="125"/>
-      <c r="G30" s="125"/>
-      <c r="H30" s="126"/>
-      <c r="I30" s="131"/>
-      <c r="J30" s="131"/>
-      <c r="K30" s="131"/>
-      <c r="L30" s="136"/>
-      <c r="M30" s="131"/>
-      <c r="N30" s="131"/>
-      <c r="O30" s="131"/>
-      <c r="P30" s="131"/>
+      <c r="D30" s="123"/>
+      <c r="E30" s="124"/>
+      <c r="F30" s="124"/>
+      <c r="G30" s="124"/>
+      <c r="H30" s="125"/>
+      <c r="I30" s="130"/>
+      <c r="J30" s="130"/>
+      <c r="K30" s="130"/>
+      <c r="L30" s="140"/>
+      <c r="M30" s="130"/>
+      <c r="N30" s="130"/>
+      <c r="O30" s="130"/>
+      <c r="P30" s="130"/>
       <c r="Q30" s="55"/>
       <c r="R30" s="56"/>
       <c r="S30" s="56"/>
@@ -8243,24 +8221,24 @@
     <row r="31" spans="1:127" ht="12" customHeight="1">
       <c r="A31" s="26"/>
       <c r="B31" s="99"/>
-      <c r="C31" s="172" t="s">
+      <c r="C31" s="135" t="s">
         <v>86</v>
       </c>
-      <c r="D31" s="158"/>
-      <c r="E31" s="158"/>
-      <c r="F31" s="158"/>
-      <c r="G31" s="158"/>
-      <c r="H31" s="158"/>
-      <c r="I31" s="166">
+      <c r="D31" s="136"/>
+      <c r="E31" s="136"/>
+      <c r="F31" s="136"/>
+      <c r="G31" s="136"/>
+      <c r="H31" s="136"/>
+      <c r="I31" s="138">
         <v>32</v>
       </c>
-      <c r="J31" s="140">
+      <c r="J31" s="134">
         <v>45793</v>
       </c>
-      <c r="K31" s="140">
+      <c r="K31" s="134">
         <v>45798</v>
       </c>
-      <c r="L31" s="167"/>
+      <c r="L31" s="161"/>
       <c r="M31" s="100"/>
       <c r="N31" s="100"/>
       <c r="O31" s="101"/>
@@ -8380,16 +8358,16 @@
     <row r="32" spans="1:127" ht="12" customHeight="1">
       <c r="A32" s="26"/>
       <c r="B32" s="99"/>
-      <c r="C32" s="159"/>
-      <c r="D32" s="125"/>
-      <c r="E32" s="125"/>
-      <c r="F32" s="125"/>
-      <c r="G32" s="125"/>
-      <c r="H32" s="125"/>
-      <c r="I32" s="131"/>
-      <c r="J32" s="126"/>
-      <c r="K32" s="126"/>
-      <c r="L32" s="131"/>
+      <c r="C32" s="137"/>
+      <c r="D32" s="124"/>
+      <c r="E32" s="124"/>
+      <c r="F32" s="124"/>
+      <c r="G32" s="124"/>
+      <c r="H32" s="124"/>
+      <c r="I32" s="130"/>
+      <c r="J32" s="125"/>
+      <c r="K32" s="125"/>
+      <c r="L32" s="130"/>
       <c r="M32" s="102"/>
       <c r="N32" s="102"/>
       <c r="O32" s="103"/>
@@ -8510,23 +8488,23 @@
       <c r="A33" s="26"/>
       <c r="B33" s="99"/>
       <c r="C33" s="104"/>
-      <c r="D33" s="138" t="s">
+      <c r="D33" s="149" t="s">
         <v>105</v>
       </c>
-      <c r="E33" s="122"/>
-      <c r="F33" s="122"/>
-      <c r="G33" s="122"/>
-      <c r="H33" s="123"/>
-      <c r="I33" s="139">
+      <c r="E33" s="121"/>
+      <c r="F33" s="121"/>
+      <c r="G33" s="121"/>
+      <c r="H33" s="122"/>
+      <c r="I33" s="141">
         <v>8</v>
       </c>
-      <c r="J33" s="140">
+      <c r="J33" s="134">
         <v>45793</v>
       </c>
-      <c r="K33" s="140">
+      <c r="K33" s="134">
         <v>45793</v>
       </c>
-      <c r="L33" s="167"/>
+      <c r="L33" s="161"/>
       <c r="M33" s="100"/>
       <c r="N33" s="100"/>
       <c r="O33" s="101"/>
@@ -8647,15 +8625,15 @@
       <c r="A34" s="26"/>
       <c r="B34" s="99"/>
       <c r="C34" s="105"/>
-      <c r="D34" s="124"/>
-      <c r="E34" s="125"/>
-      <c r="F34" s="125"/>
-      <c r="G34" s="125"/>
-      <c r="H34" s="126"/>
-      <c r="I34" s="126"/>
-      <c r="J34" s="126"/>
-      <c r="K34" s="126"/>
-      <c r="L34" s="131"/>
+      <c r="D34" s="123"/>
+      <c r="E34" s="124"/>
+      <c r="F34" s="124"/>
+      <c r="G34" s="124"/>
+      <c r="H34" s="125"/>
+      <c r="I34" s="125"/>
+      <c r="J34" s="125"/>
+      <c r="K34" s="125"/>
+      <c r="L34" s="130"/>
       <c r="M34" s="102"/>
       <c r="N34" s="102"/>
       <c r="O34" s="103"/>
@@ -8786,19 +8764,19 @@
       <c r="I35" s="133">
         <v>1</v>
       </c>
-      <c r="J35" s="134">
+      <c r="J35" s="131">
         <v>45793</v>
       </c>
-      <c r="K35" s="134">
+      <c r="K35" s="131">
         <v>45793</v>
       </c>
-      <c r="L35" s="151" t="s">
+      <c r="L35" s="164" t="s">
         <v>101</v>
       </c>
-      <c r="M35" s="152"/>
-      <c r="N35" s="153"/>
-      <c r="O35" s="154"/>
-      <c r="P35" s="149"/>
+      <c r="M35" s="165"/>
+      <c r="N35" s="162"/>
+      <c r="O35" s="163"/>
+      <c r="P35" s="147"/>
       <c r="Q35" s="55"/>
       <c r="R35" s="56"/>
       <c r="S35" s="56"/>
@@ -8840,7 +8818,7 @@
       <c r="BC35" s="56"/>
       <c r="BD35" s="56"/>
       <c r="BE35" s="57"/>
-      <c r="BF35" s="120"/>
+      <c r="BF35" s="28"/>
       <c r="BG35" s="58"/>
       <c r="BH35" s="58"/>
       <c r="BI35" s="57"/>
@@ -8916,18 +8894,18 @@
       <c r="B36" s="99"/>
       <c r="C36" s="26"/>
       <c r="D36" s="99"/>
-      <c r="E36" s="125"/>
-      <c r="F36" s="125"/>
-      <c r="G36" s="125"/>
-      <c r="H36" s="125"/>
-      <c r="I36" s="131"/>
-      <c r="J36" s="131"/>
-      <c r="K36" s="131"/>
-      <c r="L36" s="136"/>
-      <c r="M36" s="150"/>
-      <c r="N36" s="150"/>
-      <c r="O36" s="150"/>
-      <c r="P36" s="150"/>
+      <c r="E36" s="124"/>
+      <c r="F36" s="124"/>
+      <c r="G36" s="124"/>
+      <c r="H36" s="124"/>
+      <c r="I36" s="130"/>
+      <c r="J36" s="130"/>
+      <c r="K36" s="130"/>
+      <c r="L36" s="140"/>
+      <c r="M36" s="148"/>
+      <c r="N36" s="148"/>
+      <c r="O36" s="148"/>
+      <c r="P36" s="148"/>
       <c r="Q36" s="55"/>
       <c r="R36" s="56"/>
       <c r="S36" s="56"/>
@@ -8969,7 +8947,7 @@
       <c r="BC36" s="56"/>
       <c r="BD36" s="56"/>
       <c r="BE36" s="57"/>
-      <c r="BF36" s="120"/>
+      <c r="BF36" s="30"/>
       <c r="BG36" s="58"/>
       <c r="BH36" s="58"/>
       <c r="BI36" s="57"/>
@@ -9045,7 +9023,7 @@
       <c r="B37" s="99"/>
       <c r="C37" s="26"/>
       <c r="D37" s="99"/>
-      <c r="E37" s="171" t="s">
+      <c r="E37" s="167" t="s">
         <v>106</v>
       </c>
       <c r="F37" s="143"/>
@@ -9054,24 +9032,24 @@
       <c r="I37" s="133">
         <v>4</v>
       </c>
-      <c r="J37" s="134">
+      <c r="J37" s="131">
         <v>45793</v>
       </c>
-      <c r="K37" s="134">
-        <v>45796</v>
-      </c>
-      <c r="L37" s="135">
+      <c r="K37" s="131">
+        <v>45793</v>
+      </c>
+      <c r="L37" s="144">
         <v>4</v>
       </c>
-      <c r="M37" s="134">
+      <c r="M37" s="131">
         <v>45793</v>
       </c>
-      <c r="N37" s="134"/>
-      <c r="O37" s="137" t="s">
+      <c r="N37" s="131"/>
+      <c r="O37" s="182" t="s">
         <v>100</v>
       </c>
       <c r="P37" s="133">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="Q37" s="55"/>
       <c r="R37" s="56"/>
@@ -9117,7 +9095,7 @@
       <c r="BF37" s="28"/>
       <c r="BG37" s="58"/>
       <c r="BH37" s="58"/>
-      <c r="BI37" s="28"/>
+      <c r="BI37" s="57"/>
       <c r="BJ37" s="57"/>
       <c r="BK37" s="57"/>
       <c r="BL37" s="57"/>
@@ -9190,18 +9168,18 @@
       <c r="B38" s="99"/>
       <c r="C38" s="26"/>
       <c r="D38" s="99"/>
-      <c r="E38" s="125"/>
-      <c r="F38" s="125"/>
-      <c r="G38" s="125"/>
-      <c r="H38" s="125"/>
-      <c r="I38" s="131"/>
-      <c r="J38" s="131"/>
-      <c r="K38" s="131"/>
-      <c r="L38" s="136"/>
-      <c r="M38" s="131"/>
-      <c r="N38" s="131"/>
-      <c r="O38" s="131"/>
-      <c r="P38" s="131"/>
+      <c r="E38" s="124"/>
+      <c r="F38" s="124"/>
+      <c r="G38" s="124"/>
+      <c r="H38" s="124"/>
+      <c r="I38" s="130"/>
+      <c r="J38" s="130"/>
+      <c r="K38" s="130"/>
+      <c r="L38" s="140"/>
+      <c r="M38" s="130"/>
+      <c r="N38" s="130"/>
+      <c r="O38" s="130"/>
+      <c r="P38" s="130"/>
       <c r="Q38" s="55"/>
       <c r="R38" s="56"/>
       <c r="S38" s="56"/>
@@ -9246,7 +9224,7 @@
       <c r="BF38" s="30"/>
       <c r="BG38" s="58"/>
       <c r="BH38" s="58"/>
-      <c r="BI38" s="30"/>
+      <c r="BI38" s="57"/>
       <c r="BJ38" s="57"/>
       <c r="BK38" s="57"/>
       <c r="BL38" s="57"/>
@@ -9319,33 +9297,33 @@
       <c r="B39" s="99"/>
       <c r="C39" s="26"/>
       <c r="D39" s="99"/>
-      <c r="E39" s="132" t="s">
+      <c r="E39" s="166" t="s">
         <v>103</v>
       </c>
-      <c r="F39" s="122"/>
-      <c r="G39" s="122"/>
-      <c r="H39" s="123"/>
+      <c r="F39" s="121"/>
+      <c r="G39" s="121"/>
+      <c r="H39" s="122"/>
       <c r="I39" s="133">
         <v>3</v>
       </c>
-      <c r="J39" s="134">
+      <c r="J39" s="131">
         <v>45793</v>
       </c>
-      <c r="K39" s="134">
-        <v>45796</v>
-      </c>
-      <c r="L39" s="135">
-        <v>4</v>
-      </c>
-      <c r="M39" s="134">
+      <c r="K39" s="131">
         <v>45793</v>
       </c>
-      <c r="N39" s="134"/>
-      <c r="O39" s="137" t="s">
+      <c r="L39" s="144">
+        <v>2</v>
+      </c>
+      <c r="M39" s="131">
+        <v>45793</v>
+      </c>
+      <c r="N39" s="131"/>
+      <c r="O39" s="182" t="s">
         <v>100</v>
       </c>
       <c r="P39" s="133">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="Q39" s="55"/>
       <c r="R39" s="56"/>
@@ -9464,18 +9442,18 @@
       <c r="B40" s="99"/>
       <c r="C40" s="26"/>
       <c r="D40" s="118"/>
-      <c r="E40" s="125"/>
-      <c r="F40" s="125"/>
-      <c r="G40" s="125"/>
-      <c r="H40" s="126"/>
-      <c r="I40" s="131"/>
-      <c r="J40" s="131"/>
-      <c r="K40" s="131"/>
-      <c r="L40" s="136"/>
-      <c r="M40" s="131"/>
-      <c r="N40" s="131"/>
-      <c r="O40" s="131"/>
-      <c r="P40" s="131"/>
+      <c r="E40" s="124"/>
+      <c r="F40" s="124"/>
+      <c r="G40" s="124"/>
+      <c r="H40" s="125"/>
+      <c r="I40" s="130"/>
+      <c r="J40" s="130"/>
+      <c r="K40" s="130"/>
+      <c r="L40" s="140"/>
+      <c r="M40" s="130"/>
+      <c r="N40" s="130"/>
+      <c r="O40" s="130"/>
+      <c r="P40" s="130"/>
       <c r="Q40" s="65"/>
       <c r="R40" s="67"/>
       <c r="S40" s="67"/>
@@ -9520,7 +9498,7 @@
       <c r="BF40" s="30"/>
       <c r="BG40" s="69"/>
       <c r="BH40" s="69"/>
-      <c r="BI40" s="30"/>
+      <c r="BI40" s="68"/>
       <c r="BJ40" s="68"/>
       <c r="BK40" s="68"/>
       <c r="BL40" s="68"/>
@@ -9593,33 +9571,33 @@
       <c r="B41" s="110"/>
       <c r="C41" s="116"/>
       <c r="D41" s="110"/>
-      <c r="E41" s="132" t="s">
+      <c r="E41" s="166" t="s">
         <v>104</v>
       </c>
-      <c r="F41" s="122"/>
-      <c r="G41" s="122"/>
-      <c r="H41" s="123"/>
+      <c r="F41" s="121"/>
+      <c r="G41" s="121"/>
+      <c r="H41" s="122"/>
       <c r="I41" s="133">
         <v>4</v>
       </c>
-      <c r="J41" s="134">
+      <c r="J41" s="131">
         <v>45793</v>
       </c>
-      <c r="K41" s="134">
-        <v>45796</v>
-      </c>
-      <c r="L41" s="135">
-        <v>4</v>
-      </c>
-      <c r="M41" s="134">
+      <c r="K41" s="131">
         <v>45793</v>
       </c>
-      <c r="N41" s="134"/>
-      <c r="O41" s="137" t="s">
-        <v>108</v>
+      <c r="L41" s="144">
+        <v>2</v>
+      </c>
+      <c r="M41" s="131">
+        <v>45793</v>
+      </c>
+      <c r="N41" s="131"/>
+      <c r="O41" s="182" t="s">
+        <v>100</v>
       </c>
       <c r="P41" s="133">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="Q41" s="55"/>
       <c r="R41" s="56"/>
@@ -9662,7 +9640,7 @@
       <c r="BC41" s="56"/>
       <c r="BD41" s="56"/>
       <c r="BE41" s="57"/>
-      <c r="BF41" s="28"/>
+      <c r="BF41" s="119"/>
       <c r="BG41" s="58"/>
       <c r="BH41" s="58"/>
       <c r="BI41" s="28"/>
@@ -9738,18 +9716,18 @@
       <c r="B42" s="110"/>
       <c r="C42" s="116"/>
       <c r="D42" s="112"/>
-      <c r="E42" s="125"/>
-      <c r="F42" s="125"/>
-      <c r="G42" s="125"/>
-      <c r="H42" s="126"/>
-      <c r="I42" s="131"/>
-      <c r="J42" s="131"/>
-      <c r="K42" s="131"/>
-      <c r="L42" s="136"/>
-      <c r="M42" s="131"/>
-      <c r="N42" s="131"/>
-      <c r="O42" s="131"/>
-      <c r="P42" s="131"/>
+      <c r="E42" s="124"/>
+      <c r="F42" s="124"/>
+      <c r="G42" s="124"/>
+      <c r="H42" s="125"/>
+      <c r="I42" s="130"/>
+      <c r="J42" s="130"/>
+      <c r="K42" s="130"/>
+      <c r="L42" s="140"/>
+      <c r="M42" s="130"/>
+      <c r="N42" s="130"/>
+      <c r="O42" s="130"/>
+      <c r="P42" s="130"/>
       <c r="Q42" s="65"/>
       <c r="R42" s="67"/>
       <c r="S42" s="67"/>
@@ -9794,7 +9772,7 @@
       <c r="BF42" s="30"/>
       <c r="BG42" s="69"/>
       <c r="BH42" s="69"/>
-      <c r="BI42" s="30"/>
+      <c r="BI42" s="68"/>
       <c r="BJ42" s="68"/>
       <c r="BK42" s="68"/>
       <c r="BL42" s="68"/>
@@ -9866,23 +9844,23 @@
       <c r="A43" s="116"/>
       <c r="B43" s="110"/>
       <c r="C43" s="116"/>
-      <c r="D43" s="138" t="s">
+      <c r="D43" s="149" t="s">
         <v>91</v>
       </c>
-      <c r="E43" s="173"/>
-      <c r="F43" s="173"/>
-      <c r="G43" s="173"/>
-      <c r="H43" s="174"/>
-      <c r="I43" s="178">
+      <c r="E43" s="150"/>
+      <c r="F43" s="150"/>
+      <c r="G43" s="150"/>
+      <c r="H43" s="151"/>
+      <c r="I43" s="155">
         <v>16</v>
       </c>
-      <c r="J43" s="180">
+      <c r="J43" s="157">
         <v>45796</v>
       </c>
-      <c r="K43" s="180">
+      <c r="K43" s="157">
         <v>45797</v>
       </c>
-      <c r="L43" s="182"/>
+      <c r="L43" s="159"/>
       <c r="M43" s="100"/>
       <c r="N43" s="100"/>
       <c r="O43" s="101"/>
@@ -10003,15 +9981,15 @@
       <c r="A44" s="116"/>
       <c r="B44" s="110"/>
       <c r="C44" s="116"/>
-      <c r="D44" s="175"/>
-      <c r="E44" s="176"/>
-      <c r="F44" s="176"/>
-      <c r="G44" s="176"/>
-      <c r="H44" s="177"/>
-      <c r="I44" s="179"/>
-      <c r="J44" s="181"/>
-      <c r="K44" s="181"/>
-      <c r="L44" s="183"/>
+      <c r="D44" s="152"/>
+      <c r="E44" s="153"/>
+      <c r="F44" s="153"/>
+      <c r="G44" s="153"/>
+      <c r="H44" s="154"/>
+      <c r="I44" s="156"/>
+      <c r="J44" s="158"/>
+      <c r="K44" s="158"/>
+      <c r="L44" s="160"/>
       <c r="M44" s="102"/>
       <c r="N44" s="102"/>
       <c r="O44" s="103"/>
@@ -10142,19 +10120,19 @@
       <c r="I45" s="133">
         <v>2</v>
       </c>
-      <c r="J45" s="134">
+      <c r="J45" s="131">
         <v>45796</v>
       </c>
-      <c r="K45" s="134">
+      <c r="K45" s="131">
         <v>45796</v>
       </c>
-      <c r="L45" s="151" t="s">
+      <c r="L45" s="164" t="s">
         <v>102</v>
       </c>
-      <c r="M45" s="152"/>
-      <c r="N45" s="153"/>
-      <c r="O45" s="154"/>
-      <c r="P45" s="149"/>
+      <c r="M45" s="165"/>
+      <c r="N45" s="162"/>
+      <c r="O45" s="163"/>
+      <c r="P45" s="147"/>
       <c r="Q45" s="55"/>
       <c r="R45" s="56"/>
       <c r="S45" s="56"/>
@@ -10272,18 +10250,18 @@
       <c r="B46" s="99"/>
       <c r="C46" s="26"/>
       <c r="D46" s="99"/>
-      <c r="E46" s="125"/>
-      <c r="F46" s="125"/>
-      <c r="G46" s="125"/>
-      <c r="H46" s="125"/>
-      <c r="I46" s="131"/>
-      <c r="J46" s="131"/>
-      <c r="K46" s="131"/>
-      <c r="L46" s="136"/>
-      <c r="M46" s="150"/>
-      <c r="N46" s="150"/>
-      <c r="O46" s="150"/>
-      <c r="P46" s="150"/>
+      <c r="E46" s="124"/>
+      <c r="F46" s="124"/>
+      <c r="G46" s="124"/>
+      <c r="H46" s="124"/>
+      <c r="I46" s="130"/>
+      <c r="J46" s="130"/>
+      <c r="K46" s="130"/>
+      <c r="L46" s="140"/>
+      <c r="M46" s="148"/>
+      <c r="N46" s="148"/>
+      <c r="O46" s="148"/>
+      <c r="P46" s="148"/>
       <c r="Q46" s="55"/>
       <c r="R46" s="56"/>
       <c r="S46" s="56"/>
@@ -10410,24 +10388,18 @@
       <c r="I47" s="133">
         <v>14</v>
       </c>
-      <c r="J47" s="134">
+      <c r="J47" s="131">
         <v>45796</v>
       </c>
       <c r="K47" s="146">
-        <v>45798</v>
-      </c>
-      <c r="L47" s="135">
-        <v>4</v>
-      </c>
-      <c r="M47" s="134">
-        <v>45796</v>
-      </c>
-      <c r="N47" s="134"/>
-      <c r="O47" s="137" t="s">
-        <v>109</v>
-      </c>
+        <v>45797</v>
+      </c>
+      <c r="L47" s="144"/>
+      <c r="M47" s="131"/>
+      <c r="N47" s="131"/>
+      <c r="O47" s="132"/>
       <c r="P47" s="133">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="55"/>
       <c r="R47" s="56"/>
@@ -10475,7 +10447,7 @@
       <c r="BH47" s="58"/>
       <c r="BI47" s="28"/>
       <c r="BJ47" s="28"/>
-      <c r="BK47" s="28"/>
+      <c r="BK47" s="56"/>
       <c r="BL47" s="57"/>
       <c r="BM47" s="57"/>
       <c r="BN47" s="58"/>
@@ -10546,18 +10518,18 @@
       <c r="B48" s="99"/>
       <c r="C48" s="26"/>
       <c r="D48" s="99"/>
-      <c r="E48" s="125"/>
-      <c r="F48" s="125"/>
-      <c r="G48" s="125"/>
-      <c r="H48" s="125"/>
-      <c r="I48" s="131"/>
-      <c r="J48" s="131"/>
-      <c r="K48" s="126"/>
-      <c r="L48" s="136"/>
-      <c r="M48" s="131"/>
-      <c r="N48" s="131"/>
-      <c r="O48" s="131"/>
-      <c r="P48" s="131"/>
+      <c r="E48" s="124"/>
+      <c r="F48" s="124"/>
+      <c r="G48" s="124"/>
+      <c r="H48" s="124"/>
+      <c r="I48" s="130"/>
+      <c r="J48" s="130"/>
+      <c r="K48" s="125"/>
+      <c r="L48" s="140"/>
+      <c r="M48" s="130"/>
+      <c r="N48" s="130"/>
+      <c r="O48" s="130"/>
+      <c r="P48" s="130"/>
       <c r="Q48" s="55"/>
       <c r="R48" s="56"/>
       <c r="S48" s="56"/>
@@ -10602,7 +10574,7 @@
       <c r="BF48" s="57"/>
       <c r="BG48" s="58"/>
       <c r="BH48" s="58"/>
-      <c r="BI48" s="30"/>
+      <c r="BI48" s="56"/>
       <c r="BJ48" s="56"/>
       <c r="BK48" s="56"/>
       <c r="BL48" s="57"/>
@@ -10675,25 +10647,17 @@
       <c r="B49" s="99"/>
       <c r="C49" s="26"/>
       <c r="D49" s="99"/>
-      <c r="E49" s="132" t="s">
-        <v>110</v>
-      </c>
-      <c r="F49" s="122"/>
-      <c r="G49" s="122"/>
-      <c r="H49" s="123"/>
-      <c r="I49" s="133">
-        <v>4</v>
-      </c>
-      <c r="J49" s="134">
-        <v>45798</v>
-      </c>
-      <c r="K49" s="134">
-        <v>45798</v>
-      </c>
-      <c r="L49" s="135"/>
-      <c r="M49" s="134"/>
-      <c r="N49" s="134"/>
-      <c r="O49" s="144"/>
+      <c r="E49" s="145"/>
+      <c r="F49" s="121"/>
+      <c r="G49" s="121"/>
+      <c r="H49" s="122"/>
+      <c r="I49" s="133"/>
+      <c r="J49" s="131"/>
+      <c r="K49" s="131"/>
+      <c r="L49" s="144"/>
+      <c r="M49" s="131"/>
+      <c r="N49" s="131"/>
+      <c r="O49" s="132"/>
       <c r="P49" s="133">
         <v>0</v>
       </c>
@@ -10743,7 +10707,7 @@
       <c r="BH49" s="58"/>
       <c r="BI49" s="56"/>
       <c r="BJ49" s="56"/>
-      <c r="BK49" s="28"/>
+      <c r="BK49" s="56"/>
       <c r="BL49" s="57"/>
       <c r="BM49" s="57"/>
       <c r="BN49" s="58"/>
@@ -10814,18 +10778,18 @@
       <c r="B50" s="99"/>
       <c r="C50" s="26"/>
       <c r="D50" s="107"/>
-      <c r="E50" s="125"/>
-      <c r="F50" s="125"/>
-      <c r="G50" s="125"/>
-      <c r="H50" s="126"/>
-      <c r="I50" s="131"/>
-      <c r="J50" s="131"/>
-      <c r="K50" s="131"/>
-      <c r="L50" s="136"/>
-      <c r="M50" s="131"/>
-      <c r="N50" s="131"/>
-      <c r="O50" s="131"/>
-      <c r="P50" s="131"/>
+      <c r="E50" s="124"/>
+      <c r="F50" s="124"/>
+      <c r="G50" s="124"/>
+      <c r="H50" s="125"/>
+      <c r="I50" s="130"/>
+      <c r="J50" s="130"/>
+      <c r="K50" s="130"/>
+      <c r="L50" s="140"/>
+      <c r="M50" s="130"/>
+      <c r="N50" s="130"/>
+      <c r="O50" s="130"/>
+      <c r="P50" s="130"/>
       <c r="Q50" s="65"/>
       <c r="R50" s="67"/>
       <c r="S50" s="67"/>
@@ -10942,23 +10906,23 @@
       <c r="A51" s="26"/>
       <c r="B51" s="99"/>
       <c r="C51" s="108"/>
-      <c r="D51" s="138" t="s">
+      <c r="D51" s="149" t="s">
         <v>93</v>
       </c>
-      <c r="E51" s="122"/>
-      <c r="F51" s="122"/>
-      <c r="G51" s="122"/>
-      <c r="H51" s="123"/>
-      <c r="I51" s="139">
+      <c r="E51" s="121"/>
+      <c r="F51" s="121"/>
+      <c r="G51" s="121"/>
+      <c r="H51" s="122"/>
+      <c r="I51" s="141">
         <v>6</v>
       </c>
-      <c r="J51" s="140">
+      <c r="J51" s="134">
         <v>45798</v>
       </c>
-      <c r="K51" s="140">
+      <c r="K51" s="134">
         <v>45798</v>
       </c>
-      <c r="L51" s="141"/>
+      <c r="L51" s="139"/>
       <c r="M51" s="100"/>
       <c r="N51" s="100"/>
       <c r="O51" s="101"/>
@@ -11079,15 +11043,15 @@
       <c r="A52" s="26"/>
       <c r="B52" s="99"/>
       <c r="C52" s="108"/>
-      <c r="D52" s="124"/>
-      <c r="E52" s="125"/>
-      <c r="F52" s="125"/>
-      <c r="G52" s="125"/>
-      <c r="H52" s="126"/>
-      <c r="I52" s="126"/>
-      <c r="J52" s="126"/>
-      <c r="K52" s="126"/>
-      <c r="L52" s="136"/>
+      <c r="D52" s="123"/>
+      <c r="E52" s="124"/>
+      <c r="F52" s="124"/>
+      <c r="G52" s="124"/>
+      <c r="H52" s="125"/>
+      <c r="I52" s="125"/>
+      <c r="J52" s="125"/>
+      <c r="K52" s="125"/>
+      <c r="L52" s="140"/>
       <c r="M52" s="102"/>
       <c r="N52" s="102"/>
       <c r="O52" s="103"/>
@@ -11218,16 +11182,16 @@
       <c r="I53" s="133">
         <v>3</v>
       </c>
-      <c r="J53" s="134">
-        <v>45799</v>
-      </c>
-      <c r="K53" s="134">
-        <v>45799</v>
-      </c>
-      <c r="L53" s="135"/>
-      <c r="M53" s="134"/>
-      <c r="N53" s="134"/>
-      <c r="O53" s="144"/>
+      <c r="J53" s="131">
+        <v>45798</v>
+      </c>
+      <c r="K53" s="131">
+        <v>45798</v>
+      </c>
+      <c r="L53" s="144"/>
+      <c r="M53" s="131"/>
+      <c r="N53" s="131"/>
+      <c r="O53" s="132"/>
       <c r="P53" s="133">
         <v>0</v>
       </c>
@@ -11348,18 +11312,18 @@
       <c r="B54" s="99"/>
       <c r="C54" s="108"/>
       <c r="D54" s="110"/>
-      <c r="E54" s="125"/>
-      <c r="F54" s="125"/>
-      <c r="G54" s="125"/>
-      <c r="H54" s="125"/>
-      <c r="I54" s="131"/>
-      <c r="J54" s="131"/>
-      <c r="K54" s="131"/>
-      <c r="L54" s="136"/>
-      <c r="M54" s="131"/>
-      <c r="N54" s="131"/>
-      <c r="O54" s="131"/>
-      <c r="P54" s="131"/>
+      <c r="E54" s="124"/>
+      <c r="F54" s="124"/>
+      <c r="G54" s="124"/>
+      <c r="H54" s="124"/>
+      <c r="I54" s="130"/>
+      <c r="J54" s="130"/>
+      <c r="K54" s="130"/>
+      <c r="L54" s="140"/>
+      <c r="M54" s="130"/>
+      <c r="N54" s="130"/>
+      <c r="O54" s="130"/>
+      <c r="P54" s="130"/>
       <c r="Q54" s="55"/>
       <c r="R54" s="56"/>
       <c r="S54" s="56"/>
@@ -11486,16 +11450,16 @@
       <c r="I55" s="133">
         <v>3</v>
       </c>
-      <c r="J55" s="134">
-        <v>45799</v>
-      </c>
-      <c r="K55" s="134">
-        <v>45799</v>
-      </c>
-      <c r="L55" s="135"/>
-      <c r="M55" s="134"/>
-      <c r="N55" s="134"/>
-      <c r="O55" s="144"/>
+      <c r="J55" s="131">
+        <v>45798</v>
+      </c>
+      <c r="K55" s="131">
+        <v>45798</v>
+      </c>
+      <c r="L55" s="144"/>
+      <c r="M55" s="131"/>
+      <c r="N55" s="131"/>
+      <c r="O55" s="132"/>
       <c r="P55" s="133">
         <v>0</v>
       </c>
@@ -11616,18 +11580,18 @@
       <c r="B56" s="99"/>
       <c r="C56" s="108"/>
       <c r="D56" s="110"/>
-      <c r="E56" s="125"/>
-      <c r="F56" s="125"/>
-      <c r="G56" s="125"/>
-      <c r="H56" s="125"/>
-      <c r="I56" s="131"/>
-      <c r="J56" s="131"/>
-      <c r="K56" s="131"/>
-      <c r="L56" s="136"/>
-      <c r="M56" s="131"/>
-      <c r="N56" s="131"/>
-      <c r="O56" s="131"/>
-      <c r="P56" s="131"/>
+      <c r="E56" s="124"/>
+      <c r="F56" s="124"/>
+      <c r="G56" s="124"/>
+      <c r="H56" s="124"/>
+      <c r="I56" s="130"/>
+      <c r="J56" s="130"/>
+      <c r="K56" s="130"/>
+      <c r="L56" s="140"/>
+      <c r="M56" s="130"/>
+      <c r="N56" s="130"/>
+      <c r="O56" s="130"/>
+      <c r="P56" s="130"/>
       <c r="Q56" s="55"/>
       <c r="R56" s="56"/>
       <c r="S56" s="56"/>
@@ -11746,16 +11710,16 @@
       <c r="C57" s="108"/>
       <c r="D57" s="110"/>
       <c r="E57" s="145"/>
-      <c r="F57" s="122"/>
-      <c r="G57" s="122"/>
-      <c r="H57" s="123"/>
+      <c r="F57" s="121"/>
+      <c r="G57" s="121"/>
+      <c r="H57" s="122"/>
       <c r="I57" s="133"/>
-      <c r="J57" s="134"/>
-      <c r="K57" s="134"/>
-      <c r="L57" s="135"/>
-      <c r="M57" s="134"/>
-      <c r="N57" s="134"/>
-      <c r="O57" s="144"/>
+      <c r="J57" s="131"/>
+      <c r="K57" s="131"/>
+      <c r="L57" s="144"/>
+      <c r="M57" s="131"/>
+      <c r="N57" s="131"/>
+      <c r="O57" s="132"/>
       <c r="P57" s="133">
         <v>0</v>
       </c>
@@ -11876,18 +11840,18 @@
       <c r="B58" s="99"/>
       <c r="C58" s="111"/>
       <c r="D58" s="112"/>
-      <c r="E58" s="125"/>
-      <c r="F58" s="125"/>
-      <c r="G58" s="125"/>
-      <c r="H58" s="126"/>
-      <c r="I58" s="131"/>
-      <c r="J58" s="131"/>
-      <c r="K58" s="131"/>
-      <c r="L58" s="136"/>
-      <c r="M58" s="131"/>
-      <c r="N58" s="131"/>
-      <c r="O58" s="131"/>
-      <c r="P58" s="131"/>
+      <c r="E58" s="124"/>
+      <c r="F58" s="124"/>
+      <c r="G58" s="124"/>
+      <c r="H58" s="125"/>
+      <c r="I58" s="130"/>
+      <c r="J58" s="130"/>
+      <c r="K58" s="130"/>
+      <c r="L58" s="140"/>
+      <c r="M58" s="130"/>
+      <c r="N58" s="130"/>
+      <c r="O58" s="130"/>
+      <c r="P58" s="130"/>
       <c r="Q58" s="55"/>
       <c r="R58" s="56"/>
       <c r="S58" s="56"/>
@@ -12003,24 +11967,24 @@
     <row r="59" spans="1:127" ht="12" customHeight="1">
       <c r="A59" s="26"/>
       <c r="B59" s="99"/>
-      <c r="C59" s="172" t="s">
+      <c r="C59" s="135" t="s">
         <v>95</v>
       </c>
-      <c r="D59" s="158"/>
-      <c r="E59" s="158"/>
-      <c r="F59" s="158"/>
-      <c r="G59" s="158"/>
-      <c r="H59" s="158"/>
-      <c r="I59" s="166">
+      <c r="D59" s="136"/>
+      <c r="E59" s="136"/>
+      <c r="F59" s="136"/>
+      <c r="G59" s="136"/>
+      <c r="H59" s="136"/>
+      <c r="I59" s="138">
         <v>72</v>
       </c>
-      <c r="J59" s="140">
-        <v>45800</v>
-      </c>
-      <c r="K59" s="140">
+      <c r="J59" s="134">
+        <v>45799</v>
+      </c>
+      <c r="K59" s="134">
         <v>45808</v>
       </c>
-      <c r="L59" s="141"/>
+      <c r="L59" s="139"/>
       <c r="M59" s="100"/>
       <c r="N59" s="100"/>
       <c r="O59" s="101"/>
@@ -12140,16 +12104,16 @@
     <row r="60" spans="1:127" ht="12" customHeight="1">
       <c r="A60" s="26"/>
       <c r="B60" s="99"/>
-      <c r="C60" s="159"/>
-      <c r="D60" s="125"/>
-      <c r="E60" s="125"/>
-      <c r="F60" s="125"/>
-      <c r="G60" s="125"/>
-      <c r="H60" s="125"/>
-      <c r="I60" s="131"/>
-      <c r="J60" s="126"/>
-      <c r="K60" s="126"/>
-      <c r="L60" s="136"/>
+      <c r="C60" s="137"/>
+      <c r="D60" s="124"/>
+      <c r="E60" s="124"/>
+      <c r="F60" s="124"/>
+      <c r="G60" s="124"/>
+      <c r="H60" s="124"/>
+      <c r="I60" s="130"/>
+      <c r="J60" s="125"/>
+      <c r="K60" s="125"/>
+      <c r="L60" s="140"/>
       <c r="M60" s="102"/>
       <c r="N60" s="102"/>
       <c r="O60" s="103"/>
@@ -12270,23 +12234,23 @@
       <c r="A61" s="26"/>
       <c r="B61" s="99"/>
       <c r="C61" s="113"/>
-      <c r="D61" s="138" t="s">
+      <c r="D61" s="149" t="s">
         <v>87</v>
       </c>
-      <c r="E61" s="122"/>
-      <c r="F61" s="122"/>
-      <c r="G61" s="122"/>
-      <c r="H61" s="123"/>
-      <c r="I61" s="139">
+      <c r="E61" s="121"/>
+      <c r="F61" s="121"/>
+      <c r="G61" s="121"/>
+      <c r="H61" s="122"/>
+      <c r="I61" s="141">
         <v>12</v>
       </c>
-      <c r="J61" s="140">
+      <c r="J61" s="134">
+        <v>45799</v>
+      </c>
+      <c r="K61" s="134">
         <v>45800</v>
       </c>
-      <c r="K61" s="140">
-        <v>45803</v>
-      </c>
-      <c r="L61" s="141"/>
+      <c r="L61" s="139"/>
       <c r="M61" s="100"/>
       <c r="N61" s="100"/>
       <c r="O61" s="101"/>
@@ -12407,15 +12371,15 @@
       <c r="A62" s="26"/>
       <c r="B62" s="99"/>
       <c r="C62" s="114"/>
-      <c r="D62" s="124"/>
-      <c r="E62" s="125"/>
-      <c r="F62" s="125"/>
-      <c r="G62" s="125"/>
-      <c r="H62" s="126"/>
-      <c r="I62" s="126"/>
-      <c r="J62" s="126"/>
-      <c r="K62" s="126"/>
-      <c r="L62" s="136"/>
+      <c r="D62" s="123"/>
+      <c r="E62" s="124"/>
+      <c r="F62" s="124"/>
+      <c r="G62" s="124"/>
+      <c r="H62" s="125"/>
+      <c r="I62" s="125"/>
+      <c r="J62" s="125"/>
+      <c r="K62" s="125"/>
+      <c r="L62" s="140"/>
       <c r="M62" s="102"/>
       <c r="N62" s="102"/>
       <c r="O62" s="103"/>
@@ -12546,16 +12510,16 @@
       <c r="I63" s="133">
         <v>8</v>
       </c>
-      <c r="J63" s="134">
-        <v>45800</v>
-      </c>
-      <c r="K63" s="134">
-        <v>45800</v>
-      </c>
-      <c r="L63" s="135"/>
-      <c r="M63" s="134"/>
-      <c r="N63" s="134"/>
-      <c r="O63" s="144"/>
+      <c r="J63" s="131">
+        <v>45799</v>
+      </c>
+      <c r="K63" s="131">
+        <v>45799</v>
+      </c>
+      <c r="L63" s="144"/>
+      <c r="M63" s="131"/>
+      <c r="N63" s="131"/>
+      <c r="O63" s="132"/>
       <c r="P63" s="133">
         <v>0</v>
       </c>
@@ -12676,18 +12640,18 @@
       <c r="B64" s="99"/>
       <c r="C64" s="108"/>
       <c r="D64" s="110"/>
-      <c r="E64" s="125"/>
-      <c r="F64" s="125"/>
-      <c r="G64" s="125"/>
-      <c r="H64" s="125"/>
-      <c r="I64" s="131"/>
-      <c r="J64" s="131"/>
-      <c r="K64" s="131"/>
-      <c r="L64" s="136"/>
-      <c r="M64" s="131"/>
-      <c r="N64" s="131"/>
-      <c r="O64" s="131"/>
-      <c r="P64" s="131"/>
+      <c r="E64" s="124"/>
+      <c r="F64" s="124"/>
+      <c r="G64" s="124"/>
+      <c r="H64" s="124"/>
+      <c r="I64" s="130"/>
+      <c r="J64" s="130"/>
+      <c r="K64" s="130"/>
+      <c r="L64" s="140"/>
+      <c r="M64" s="130"/>
+      <c r="N64" s="130"/>
+      <c r="O64" s="130"/>
+      <c r="P64" s="130"/>
       <c r="Q64" s="55"/>
       <c r="R64" s="56"/>
       <c r="S64" s="56"/>
@@ -12814,16 +12778,16 @@
       <c r="I65" s="133">
         <v>4</v>
       </c>
-      <c r="J65" s="134">
-        <v>45801</v>
-      </c>
-      <c r="K65" s="134">
-        <v>45801</v>
-      </c>
-      <c r="L65" s="135"/>
-      <c r="M65" s="134"/>
-      <c r="N65" s="134"/>
-      <c r="O65" s="144"/>
+      <c r="J65" s="131">
+        <v>45800</v>
+      </c>
+      <c r="K65" s="131">
+        <v>45800</v>
+      </c>
+      <c r="L65" s="144"/>
+      <c r="M65" s="131"/>
+      <c r="N65" s="131"/>
+      <c r="O65" s="132"/>
       <c r="P65" s="133">
         <v>0</v>
       </c>
@@ -12944,18 +12908,18 @@
       <c r="B66" s="99"/>
       <c r="C66" s="108"/>
       <c r="D66" s="110"/>
-      <c r="E66" s="125"/>
-      <c r="F66" s="125"/>
-      <c r="G66" s="125"/>
-      <c r="H66" s="125"/>
-      <c r="I66" s="131"/>
-      <c r="J66" s="131"/>
-      <c r="K66" s="131"/>
-      <c r="L66" s="136"/>
-      <c r="M66" s="131"/>
-      <c r="N66" s="131"/>
-      <c r="O66" s="131"/>
-      <c r="P66" s="131"/>
+      <c r="E66" s="124"/>
+      <c r="F66" s="124"/>
+      <c r="G66" s="124"/>
+      <c r="H66" s="124"/>
+      <c r="I66" s="130"/>
+      <c r="J66" s="130"/>
+      <c r="K66" s="130"/>
+      <c r="L66" s="140"/>
+      <c r="M66" s="130"/>
+      <c r="N66" s="130"/>
+      <c r="O66" s="130"/>
+      <c r="P66" s="130"/>
       <c r="Q66" s="55"/>
       <c r="R66" s="56"/>
       <c r="S66" s="56"/>
@@ -13074,16 +13038,16 @@
       <c r="C67" s="108"/>
       <c r="D67" s="110"/>
       <c r="E67" s="145"/>
-      <c r="F67" s="122"/>
-      <c r="G67" s="122"/>
-      <c r="H67" s="123"/>
+      <c r="F67" s="121"/>
+      <c r="G67" s="121"/>
+      <c r="H67" s="122"/>
       <c r="I67" s="133"/>
-      <c r="J67" s="134"/>
-      <c r="K67" s="134"/>
-      <c r="L67" s="135"/>
-      <c r="M67" s="134"/>
-      <c r="N67" s="134"/>
-      <c r="O67" s="144"/>
+      <c r="J67" s="131"/>
+      <c r="K67" s="131"/>
+      <c r="L67" s="144"/>
+      <c r="M67" s="131"/>
+      <c r="N67" s="131"/>
+      <c r="O67" s="132"/>
       <c r="P67" s="133">
         <v>0</v>
       </c>
@@ -13204,18 +13168,18 @@
       <c r="B68" s="99"/>
       <c r="C68" s="108"/>
       <c r="D68" s="112"/>
-      <c r="E68" s="125"/>
-      <c r="F68" s="125"/>
-      <c r="G68" s="125"/>
-      <c r="H68" s="126"/>
-      <c r="I68" s="131"/>
-      <c r="J68" s="131"/>
-      <c r="K68" s="131"/>
-      <c r="L68" s="136"/>
-      <c r="M68" s="131"/>
-      <c r="N68" s="131"/>
-      <c r="O68" s="131"/>
-      <c r="P68" s="131"/>
+      <c r="E68" s="124"/>
+      <c r="F68" s="124"/>
+      <c r="G68" s="124"/>
+      <c r="H68" s="125"/>
+      <c r="I68" s="130"/>
+      <c r="J68" s="130"/>
+      <c r="K68" s="130"/>
+      <c r="L68" s="140"/>
+      <c r="M68" s="130"/>
+      <c r="N68" s="130"/>
+      <c r="O68" s="130"/>
+      <c r="P68" s="130"/>
       <c r="Q68" s="65"/>
       <c r="R68" s="67"/>
       <c r="S68" s="67"/>
@@ -13332,23 +13296,23 @@
       <c r="A69" s="26"/>
       <c r="B69" s="99"/>
       <c r="C69" s="108"/>
-      <c r="D69" s="138" t="s">
+      <c r="D69" s="149" t="s">
         <v>91</v>
       </c>
-      <c r="E69" s="122"/>
-      <c r="F69" s="122"/>
-      <c r="G69" s="122"/>
-      <c r="H69" s="123"/>
-      <c r="I69" s="139">
+      <c r="E69" s="121"/>
+      <c r="F69" s="121"/>
+      <c r="G69" s="121"/>
+      <c r="H69" s="122"/>
+      <c r="I69" s="141">
         <v>52</v>
       </c>
-      <c r="J69" s="140">
+      <c r="J69" s="134">
         <v>45803</v>
       </c>
-      <c r="K69" s="140">
-        <v>45810</v>
-      </c>
-      <c r="L69" s="141"/>
+      <c r="K69" s="134">
+        <v>45811</v>
+      </c>
+      <c r="L69" s="139"/>
       <c r="M69" s="100"/>
       <c r="N69" s="100"/>
       <c r="O69" s="101"/>
@@ -13469,15 +13433,15 @@
       <c r="A70" s="26"/>
       <c r="B70" s="99"/>
       <c r="C70" s="108"/>
-      <c r="D70" s="124"/>
-      <c r="E70" s="125"/>
-      <c r="F70" s="125"/>
-      <c r="G70" s="125"/>
-      <c r="H70" s="126"/>
-      <c r="I70" s="126"/>
-      <c r="J70" s="126"/>
-      <c r="K70" s="126"/>
-      <c r="L70" s="136"/>
+      <c r="D70" s="123"/>
+      <c r="E70" s="124"/>
+      <c r="F70" s="124"/>
+      <c r="G70" s="124"/>
+      <c r="H70" s="125"/>
+      <c r="I70" s="125"/>
+      <c r="J70" s="125"/>
+      <c r="K70" s="125"/>
+      <c r="L70" s="140"/>
       <c r="M70" s="102"/>
       <c r="N70" s="102"/>
       <c r="O70" s="103"/>
@@ -13611,13 +13575,13 @@
       <c r="J71" s="146">
         <v>45803</v>
       </c>
-      <c r="K71" s="134">
+      <c r="K71" s="131">
         <v>45806</v>
       </c>
-      <c r="L71" s="135"/>
-      <c r="M71" s="134"/>
-      <c r="N71" s="134"/>
-      <c r="O71" s="144"/>
+      <c r="L71" s="144"/>
+      <c r="M71" s="131"/>
+      <c r="N71" s="131"/>
+      <c r="O71" s="132"/>
       <c r="P71" s="133">
         <v>0</v>
       </c>
@@ -13738,18 +13702,18 @@
       <c r="B72" s="99"/>
       <c r="C72" s="108"/>
       <c r="D72" s="110"/>
-      <c r="E72" s="125"/>
-      <c r="F72" s="125"/>
-      <c r="G72" s="125"/>
-      <c r="H72" s="125"/>
-      <c r="I72" s="131"/>
-      <c r="J72" s="126"/>
-      <c r="K72" s="131"/>
-      <c r="L72" s="136"/>
-      <c r="M72" s="131"/>
-      <c r="N72" s="131"/>
-      <c r="O72" s="131"/>
-      <c r="P72" s="131"/>
+      <c r="E72" s="124"/>
+      <c r="F72" s="124"/>
+      <c r="G72" s="124"/>
+      <c r="H72" s="124"/>
+      <c r="I72" s="130"/>
+      <c r="J72" s="125"/>
+      <c r="K72" s="130"/>
+      <c r="L72" s="140"/>
+      <c r="M72" s="130"/>
+      <c r="N72" s="130"/>
+      <c r="O72" s="130"/>
+      <c r="P72" s="130"/>
       <c r="Q72" s="55"/>
       <c r="R72" s="56"/>
       <c r="S72" s="56"/>
@@ -13876,16 +13840,16 @@
       <c r="I73" s="133">
         <v>18</v>
       </c>
-      <c r="J73" s="134">
+      <c r="J73" s="131">
         <v>45806</v>
       </c>
-      <c r="K73" s="134">
-        <v>45808</v>
-      </c>
-      <c r="L73" s="135"/>
-      <c r="M73" s="134"/>
-      <c r="N73" s="134"/>
-      <c r="O73" s="144"/>
+      <c r="K73" s="131">
+        <v>45810</v>
+      </c>
+      <c r="L73" s="144"/>
+      <c r="M73" s="131"/>
+      <c r="N73" s="131"/>
+      <c r="O73" s="132"/>
       <c r="P73" s="133">
         <v>0</v>
       </c>
@@ -14006,18 +13970,18 @@
       <c r="B74" s="99"/>
       <c r="C74" s="108"/>
       <c r="D74" s="110"/>
-      <c r="E74" s="125"/>
-      <c r="F74" s="125"/>
-      <c r="G74" s="125"/>
-      <c r="H74" s="125"/>
-      <c r="I74" s="131"/>
-      <c r="J74" s="131"/>
-      <c r="K74" s="131"/>
-      <c r="L74" s="136"/>
-      <c r="M74" s="131"/>
-      <c r="N74" s="131"/>
-      <c r="O74" s="131"/>
-      <c r="P74" s="131"/>
+      <c r="E74" s="124"/>
+      <c r="F74" s="124"/>
+      <c r="G74" s="124"/>
+      <c r="H74" s="124"/>
+      <c r="I74" s="130"/>
+      <c r="J74" s="130"/>
+      <c r="K74" s="130"/>
+      <c r="L74" s="140"/>
+      <c r="M74" s="130"/>
+      <c r="N74" s="130"/>
+      <c r="O74" s="130"/>
+      <c r="P74" s="130"/>
       <c r="Q74" s="55"/>
       <c r="R74" s="56"/>
       <c r="S74" s="56"/>
@@ -14138,22 +14102,22 @@
       <c r="E75" s="145" t="s">
         <v>98</v>
       </c>
-      <c r="F75" s="122"/>
-      <c r="G75" s="122"/>
-      <c r="H75" s="123"/>
+      <c r="F75" s="121"/>
+      <c r="G75" s="121"/>
+      <c r="H75" s="122"/>
       <c r="I75" s="133">
         <v>8</v>
       </c>
-      <c r="J75" s="134">
-        <v>45810</v>
-      </c>
-      <c r="K75" s="134">
-        <v>45810</v>
-      </c>
-      <c r="L75" s="135"/>
-      <c r="M75" s="134"/>
-      <c r="N75" s="134"/>
-      <c r="O75" s="144"/>
+      <c r="J75" s="131">
+        <v>45811</v>
+      </c>
+      <c r="K75" s="131">
+        <v>45811</v>
+      </c>
+      <c r="L75" s="144"/>
+      <c r="M75" s="131"/>
+      <c r="N75" s="131"/>
+      <c r="O75" s="132"/>
       <c r="P75" s="133">
         <v>0</v>
       </c>
@@ -14274,18 +14238,18 @@
       <c r="B76" s="99"/>
       <c r="C76" s="108"/>
       <c r="D76" s="112"/>
-      <c r="E76" s="125"/>
-      <c r="F76" s="125"/>
-      <c r="G76" s="125"/>
-      <c r="H76" s="126"/>
-      <c r="I76" s="131"/>
-      <c r="J76" s="131"/>
-      <c r="K76" s="131"/>
-      <c r="L76" s="136"/>
-      <c r="M76" s="131"/>
-      <c r="N76" s="131"/>
-      <c r="O76" s="131"/>
-      <c r="P76" s="131"/>
+      <c r="E76" s="124"/>
+      <c r="F76" s="124"/>
+      <c r="G76" s="124"/>
+      <c r="H76" s="125"/>
+      <c r="I76" s="130"/>
+      <c r="J76" s="130"/>
+      <c r="K76" s="130"/>
+      <c r="L76" s="140"/>
+      <c r="M76" s="130"/>
+      <c r="N76" s="130"/>
+      <c r="O76" s="130"/>
+      <c r="P76" s="130"/>
       <c r="Q76" s="65"/>
       <c r="R76" s="67"/>
       <c r="S76" s="67"/>
@@ -14402,23 +14366,23 @@
       <c r="A77" s="26"/>
       <c r="B77" s="99"/>
       <c r="C77" s="108"/>
-      <c r="D77" s="138" t="s">
+      <c r="D77" s="149" t="s">
         <v>93</v>
       </c>
-      <c r="E77" s="122"/>
-      <c r="F77" s="122"/>
-      <c r="G77" s="122"/>
-      <c r="H77" s="123"/>
-      <c r="I77" s="139">
+      <c r="E77" s="121"/>
+      <c r="F77" s="121"/>
+      <c r="G77" s="121"/>
+      <c r="H77" s="122"/>
+      <c r="I77" s="141">
         <v>8</v>
       </c>
-      <c r="J77" s="140">
-        <v>45811</v>
-      </c>
-      <c r="K77" s="140">
-        <v>45811</v>
-      </c>
-      <c r="L77" s="141"/>
+      <c r="J77" s="134">
+        <v>45812</v>
+      </c>
+      <c r="K77" s="134">
+        <v>45812</v>
+      </c>
+      <c r="L77" s="139"/>
       <c r="M77" s="100"/>
       <c r="N77" s="100"/>
       <c r="O77" s="101"/>
@@ -14539,15 +14503,15 @@
       <c r="A78" s="26"/>
       <c r="B78" s="99"/>
       <c r="C78" s="108"/>
-      <c r="D78" s="124"/>
-      <c r="E78" s="125"/>
-      <c r="F78" s="125"/>
-      <c r="G78" s="125"/>
-      <c r="H78" s="126"/>
-      <c r="I78" s="126"/>
-      <c r="J78" s="126"/>
-      <c r="K78" s="126"/>
-      <c r="L78" s="136"/>
+      <c r="D78" s="123"/>
+      <c r="E78" s="124"/>
+      <c r="F78" s="124"/>
+      <c r="G78" s="124"/>
+      <c r="H78" s="125"/>
+      <c r="I78" s="125"/>
+      <c r="J78" s="125"/>
+      <c r="K78" s="125"/>
+      <c r="L78" s="140"/>
       <c r="M78" s="102"/>
       <c r="N78" s="102"/>
       <c r="O78" s="103"/>
@@ -14678,16 +14642,16 @@
       <c r="I79" s="133">
         <v>4</v>
       </c>
-      <c r="J79" s="134">
-        <v>45811</v>
-      </c>
-      <c r="K79" s="134">
-        <v>45811</v>
-      </c>
-      <c r="L79" s="135"/>
-      <c r="M79" s="134"/>
-      <c r="N79" s="134"/>
-      <c r="O79" s="144"/>
+      <c r="J79" s="131">
+        <v>45812</v>
+      </c>
+      <c r="K79" s="131">
+        <v>45812</v>
+      </c>
+      <c r="L79" s="144"/>
+      <c r="M79" s="131"/>
+      <c r="N79" s="131"/>
+      <c r="O79" s="132"/>
       <c r="P79" s="133">
         <v>0</v>
       </c>
@@ -14808,18 +14772,18 @@
       <c r="B80" s="99"/>
       <c r="C80" s="26"/>
       <c r="D80" s="99"/>
-      <c r="E80" s="125"/>
-      <c r="F80" s="125"/>
-      <c r="G80" s="125"/>
-      <c r="H80" s="125"/>
-      <c r="I80" s="131"/>
-      <c r="J80" s="131"/>
-      <c r="K80" s="131"/>
-      <c r="L80" s="136"/>
-      <c r="M80" s="131"/>
-      <c r="N80" s="131"/>
-      <c r="O80" s="131"/>
-      <c r="P80" s="131"/>
+      <c r="E80" s="124"/>
+      <c r="F80" s="124"/>
+      <c r="G80" s="124"/>
+      <c r="H80" s="124"/>
+      <c r="I80" s="130"/>
+      <c r="J80" s="130"/>
+      <c r="K80" s="130"/>
+      <c r="L80" s="140"/>
+      <c r="M80" s="130"/>
+      <c r="N80" s="130"/>
+      <c r="O80" s="130"/>
+      <c r="P80" s="130"/>
       <c r="Q80" s="55"/>
       <c r="R80" s="56"/>
       <c r="S80" s="56"/>
@@ -14946,16 +14910,16 @@
       <c r="I81" s="133">
         <v>4</v>
       </c>
-      <c r="J81" s="134">
-        <v>45811</v>
-      </c>
-      <c r="K81" s="134">
-        <v>45811</v>
-      </c>
-      <c r="L81" s="135"/>
-      <c r="M81" s="134"/>
-      <c r="N81" s="134"/>
-      <c r="O81" s="144"/>
+      <c r="J81" s="131">
+        <v>45812</v>
+      </c>
+      <c r="K81" s="131">
+        <v>45812</v>
+      </c>
+      <c r="L81" s="144"/>
+      <c r="M81" s="131"/>
+      <c r="N81" s="131"/>
+      <c r="O81" s="132"/>
       <c r="P81" s="133">
         <v>0</v>
       </c>
@@ -15076,18 +15040,18 @@
       <c r="B82" s="99"/>
       <c r="C82" s="26"/>
       <c r="D82" s="99"/>
-      <c r="E82" s="125"/>
-      <c r="F82" s="125"/>
-      <c r="G82" s="125"/>
-      <c r="H82" s="125"/>
-      <c r="I82" s="131"/>
-      <c r="J82" s="131"/>
-      <c r="K82" s="131"/>
-      <c r="L82" s="136"/>
-      <c r="M82" s="131"/>
-      <c r="N82" s="131"/>
-      <c r="O82" s="131"/>
-      <c r="P82" s="131"/>
+      <c r="E82" s="124"/>
+      <c r="F82" s="124"/>
+      <c r="G82" s="124"/>
+      <c r="H82" s="124"/>
+      <c r="I82" s="130"/>
+      <c r="J82" s="130"/>
+      <c r="K82" s="130"/>
+      <c r="L82" s="140"/>
+      <c r="M82" s="130"/>
+      <c r="N82" s="130"/>
+      <c r="O82" s="130"/>
+      <c r="P82" s="130"/>
       <c r="Q82" s="55"/>
       <c r="R82" s="56"/>
       <c r="S82" s="56"/>
@@ -15206,16 +15170,16 @@
       <c r="C83" s="26"/>
       <c r="D83" s="99"/>
       <c r="E83" s="145"/>
-      <c r="F83" s="122"/>
-      <c r="G83" s="122"/>
-      <c r="H83" s="123"/>
+      <c r="F83" s="121"/>
+      <c r="G83" s="121"/>
+      <c r="H83" s="122"/>
       <c r="I83" s="133"/>
-      <c r="J83" s="134"/>
-      <c r="K83" s="134"/>
-      <c r="L83" s="135"/>
-      <c r="M83" s="134"/>
-      <c r="N83" s="134"/>
-      <c r="O83" s="144"/>
+      <c r="J83" s="131"/>
+      <c r="K83" s="131"/>
+      <c r="L83" s="144"/>
+      <c r="M83" s="131"/>
+      <c r="N83" s="131"/>
+      <c r="O83" s="132"/>
       <c r="P83" s="133">
         <v>0</v>
       </c>
@@ -15336,18 +15300,18 @@
       <c r="B84" s="107"/>
       <c r="C84" s="115"/>
       <c r="D84" s="107"/>
-      <c r="E84" s="125"/>
-      <c r="F84" s="125"/>
-      <c r="G84" s="125"/>
-      <c r="H84" s="126"/>
-      <c r="I84" s="131"/>
-      <c r="J84" s="131"/>
-      <c r="K84" s="131"/>
-      <c r="L84" s="136"/>
-      <c r="M84" s="131"/>
-      <c r="N84" s="131"/>
-      <c r="O84" s="131"/>
-      <c r="P84" s="131"/>
+      <c r="E84" s="124"/>
+      <c r="F84" s="124"/>
+      <c r="G84" s="124"/>
+      <c r="H84" s="125"/>
+      <c r="I84" s="130"/>
+      <c r="J84" s="130"/>
+      <c r="K84" s="130"/>
+      <c r="L84" s="140"/>
+      <c r="M84" s="130"/>
+      <c r="N84" s="130"/>
+      <c r="O84" s="130"/>
+      <c r="P84" s="130"/>
       <c r="Q84" s="55"/>
       <c r="R84" s="56"/>
       <c r="S84" s="56"/>
@@ -15462,178 +15426,119 @@
     </row>
   </sheetData>
   <mergeCells count="309">
-    <mergeCell ref="N53:N54"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="P53:P54"/>
-    <mergeCell ref="J61:J62"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="C59:H60"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="L61:L62"/>
-    <mergeCell ref="O55:O56"/>
-    <mergeCell ref="P55:P56"/>
-    <mergeCell ref="E55:H56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="L55:L56"/>
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="N55:N56"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="P49:P50"/>
-    <mergeCell ref="E49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="O47:O48"/>
-    <mergeCell ref="P47:P48"/>
-    <mergeCell ref="E47:H48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="N47:N48"/>
-    <mergeCell ref="P45:P46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="D43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="E45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="C31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="N35:N36"/>
-    <mergeCell ref="O35:O36"/>
-    <mergeCell ref="D33:H34"/>
-    <mergeCell ref="E35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="E39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="E37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="D27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="P29:P30"/>
-    <mergeCell ref="D29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="P25:P26"/>
-    <mergeCell ref="C23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="D25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="C19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="D21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="D15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="D17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="D11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="D13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="CZ4:DV4"/>
-    <mergeCell ref="B7:H8"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="C9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="E41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="P41:P42"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="J63:J64"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="L63:L64"/>
+    <mergeCell ref="M63:M64"/>
+    <mergeCell ref="D51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="E53:H54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="O67:O68"/>
+    <mergeCell ref="E67:H68"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="J67:J68"/>
+    <mergeCell ref="K67:K68"/>
+    <mergeCell ref="L67:L68"/>
+    <mergeCell ref="M67:M68"/>
+    <mergeCell ref="N67:N68"/>
+    <mergeCell ref="O65:O66"/>
+    <mergeCell ref="E65:H66"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="J65:J66"/>
+    <mergeCell ref="K65:K66"/>
+    <mergeCell ref="L65:L66"/>
+    <mergeCell ref="M65:M66"/>
+    <mergeCell ref="N65:N66"/>
+    <mergeCell ref="O75:O76"/>
+    <mergeCell ref="P75:P76"/>
+    <mergeCell ref="E75:H76"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="J75:J76"/>
+    <mergeCell ref="K75:K76"/>
+    <mergeCell ref="L75:L76"/>
+    <mergeCell ref="M75:M76"/>
+    <mergeCell ref="O57:O58"/>
+    <mergeCell ref="P57:P58"/>
+    <mergeCell ref="E57:H58"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="L57:L58"/>
+    <mergeCell ref="M57:M58"/>
+    <mergeCell ref="N57:N58"/>
+    <mergeCell ref="P67:P68"/>
+    <mergeCell ref="P65:P66"/>
+    <mergeCell ref="N63:N64"/>
+    <mergeCell ref="O63:O64"/>
+    <mergeCell ref="P63:P64"/>
+    <mergeCell ref="D61:H62"/>
+    <mergeCell ref="E63:H64"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="K79:K80"/>
+    <mergeCell ref="D77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="J77:J78"/>
+    <mergeCell ref="K77:K78"/>
+    <mergeCell ref="L77:L78"/>
+    <mergeCell ref="E79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="E81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="J81:J82"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="L81:L82"/>
+    <mergeCell ref="M81:M82"/>
+    <mergeCell ref="N81:N82"/>
+    <mergeCell ref="O83:O84"/>
+    <mergeCell ref="P83:P84"/>
+    <mergeCell ref="E83:H84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="J83:J84"/>
+    <mergeCell ref="K83:K84"/>
+    <mergeCell ref="L83:L84"/>
+    <mergeCell ref="M83:M84"/>
+    <mergeCell ref="N83:N84"/>
+    <mergeCell ref="D69:H70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="J69:J70"/>
+    <mergeCell ref="K69:K70"/>
+    <mergeCell ref="L69:L70"/>
+    <mergeCell ref="E71:H72"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="O73:O74"/>
+    <mergeCell ref="P73:P74"/>
+    <mergeCell ref="E73:H74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="J73:J74"/>
+    <mergeCell ref="K73:K74"/>
+    <mergeCell ref="L73:L74"/>
+    <mergeCell ref="M73:M74"/>
+    <mergeCell ref="N73:N74"/>
+    <mergeCell ref="L71:L72"/>
+    <mergeCell ref="M71:M72"/>
+    <mergeCell ref="N71:N72"/>
+    <mergeCell ref="O71:O72"/>
+    <mergeCell ref="P71:P72"/>
+    <mergeCell ref="J71:J72"/>
+    <mergeCell ref="K71:K72"/>
     <mergeCell ref="N75:N76"/>
     <mergeCell ref="L79:L80"/>
     <mergeCell ref="M79:M80"/>
@@ -15658,119 +15563,178 @@
     <mergeCell ref="M45:M46"/>
     <mergeCell ref="N45:N46"/>
     <mergeCell ref="O45:O46"/>
-    <mergeCell ref="D69:H70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="J69:J70"/>
-    <mergeCell ref="K69:K70"/>
-    <mergeCell ref="L69:L70"/>
-    <mergeCell ref="E71:H72"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="O73:O74"/>
-    <mergeCell ref="P73:P74"/>
-    <mergeCell ref="E73:H74"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="J73:J74"/>
-    <mergeCell ref="K73:K74"/>
-    <mergeCell ref="L73:L74"/>
-    <mergeCell ref="M73:M74"/>
-    <mergeCell ref="N73:N74"/>
-    <mergeCell ref="L71:L72"/>
-    <mergeCell ref="M71:M72"/>
-    <mergeCell ref="N71:N72"/>
-    <mergeCell ref="O71:O72"/>
-    <mergeCell ref="P71:P72"/>
-    <mergeCell ref="J71:J72"/>
-    <mergeCell ref="K71:K72"/>
-    <mergeCell ref="O83:O84"/>
-    <mergeCell ref="P83:P84"/>
-    <mergeCell ref="E83:H84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="J83:J84"/>
-    <mergeCell ref="K83:K84"/>
-    <mergeCell ref="L83:L84"/>
-    <mergeCell ref="M83:M84"/>
-    <mergeCell ref="N83:N84"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="E81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="J81:J82"/>
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="L81:L82"/>
-    <mergeCell ref="M81:M82"/>
-    <mergeCell ref="N81:N82"/>
-    <mergeCell ref="J79:J80"/>
-    <mergeCell ref="K79:K80"/>
-    <mergeCell ref="D77:H78"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="J77:J78"/>
-    <mergeCell ref="K77:K78"/>
-    <mergeCell ref="L77:L78"/>
-    <mergeCell ref="E79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="O75:O76"/>
-    <mergeCell ref="P75:P76"/>
-    <mergeCell ref="E75:H76"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="J75:J76"/>
-    <mergeCell ref="K75:K76"/>
-    <mergeCell ref="L75:L76"/>
-    <mergeCell ref="M75:M76"/>
-    <mergeCell ref="O57:O58"/>
-    <mergeCell ref="P57:P58"/>
-    <mergeCell ref="E57:H58"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="L57:L58"/>
-    <mergeCell ref="M57:M58"/>
-    <mergeCell ref="N57:N58"/>
-    <mergeCell ref="P67:P68"/>
-    <mergeCell ref="P65:P66"/>
-    <mergeCell ref="N63:N64"/>
-    <mergeCell ref="O63:O64"/>
-    <mergeCell ref="P63:P64"/>
-    <mergeCell ref="D61:H62"/>
-    <mergeCell ref="E63:H64"/>
-    <mergeCell ref="O67:O68"/>
-    <mergeCell ref="E67:H68"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="J67:J68"/>
-    <mergeCell ref="K67:K68"/>
-    <mergeCell ref="L67:L68"/>
-    <mergeCell ref="M67:M68"/>
-    <mergeCell ref="N67:N68"/>
-    <mergeCell ref="O65:O66"/>
-    <mergeCell ref="E65:H66"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="J65:J66"/>
-    <mergeCell ref="K65:K66"/>
-    <mergeCell ref="L65:L66"/>
-    <mergeCell ref="M65:M66"/>
-    <mergeCell ref="N65:N66"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="J63:J64"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="L63:L64"/>
-    <mergeCell ref="M63:M64"/>
-    <mergeCell ref="D51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="E53:H54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="L53:L54"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="E41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="O41:O42"/>
-    <mergeCell ref="P41:P42"/>
+    <mergeCell ref="CZ4:DV4"/>
+    <mergeCell ref="B7:H8"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="C9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="D11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="D13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="D15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="D17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="C19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="D21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="C23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="D25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="D27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="P29:P30"/>
+    <mergeCell ref="D29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="E39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="E37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="C31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="N35:N36"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="D33:H34"/>
+    <mergeCell ref="E35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="P45:P46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="D43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="E45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="O47:O48"/>
+    <mergeCell ref="P47:P48"/>
+    <mergeCell ref="E47:H48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="N47:N48"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="P49:P50"/>
+    <mergeCell ref="E49:H50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="P53:P54"/>
+    <mergeCell ref="J61:J62"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="C59:H60"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="L61:L62"/>
+    <mergeCell ref="O55:O56"/>
+    <mergeCell ref="P55:P56"/>
+    <mergeCell ref="E55:H56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="N55:N56"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="K53:K54"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/DOJT｜WBS _ PGコース MVC編.xlsx
+++ b/docs/DOJT｜WBS _ PGコース MVC編.xlsx
@@ -1349,45 +1349,101 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="56" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="56" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="180" fontId="5" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="5" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1409,62 +1465,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="180" fontId="5" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="5" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="5" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3550,7 +3550,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O39" sqref="O39:O40"/>
+      <selection pane="bottomLeft" activeCell="AP47" sqref="AP47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3980,7 +3980,7 @@
       <c r="N4" s="27"/>
       <c r="O4" s="27"/>
       <c r="P4" s="27"/>
-      <c r="Q4" s="180" t="s">
+      <c r="Q4" s="146" t="s">
         <v>63</v>
       </c>
       <c r="R4" s="127"/>
@@ -4008,7 +4008,7 @@
       <c r="AN4" s="127"/>
       <c r="AO4" s="127"/>
       <c r="AP4" s="128"/>
-      <c r="AQ4" s="180" t="s">
+      <c r="AQ4" s="146" t="s">
         <v>64</v>
       </c>
       <c r="AR4" s="127"/>
@@ -4041,7 +4041,7 @@
       <c r="BS4" s="127"/>
       <c r="BT4" s="127"/>
       <c r="BU4" s="128"/>
-      <c r="BV4" s="180" t="s">
+      <c r="BV4" s="146" t="s">
         <v>65</v>
       </c>
       <c r="BW4" s="127"/>
@@ -4073,7 +4073,7 @@
       <c r="CW4" s="127"/>
       <c r="CX4" s="127"/>
       <c r="CY4" s="128"/>
-      <c r="CZ4" s="180" t="s">
+      <c r="CZ4" s="146" t="s">
         <v>66</v>
       </c>
       <c r="DA4" s="127"/>
@@ -4910,7 +4910,7 @@
     </row>
     <row r="7" spans="1:127" ht="19.5">
       <c r="A7" s="26"/>
-      <c r="B7" s="181" t="s">
+      <c r="B7" s="154" t="s">
         <v>74</v>
       </c>
       <c r="C7" s="121"/>
@@ -5191,33 +5191,33 @@
     <row r="9" spans="1:127" ht="12" customHeight="1">
       <c r="A9" s="26"/>
       <c r="B9" s="50"/>
-      <c r="C9" s="174" t="s">
+      <c r="C9" s="156" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="136"/>
-      <c r="E9" s="136"/>
-      <c r="F9" s="136"/>
-      <c r="G9" s="136"/>
-      <c r="H9" s="136"/>
-      <c r="I9" s="176">
+      <c r="D9" s="157"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="157"/>
+      <c r="G9" s="157"/>
+      <c r="H9" s="157"/>
+      <c r="I9" s="159">
         <v>1</v>
       </c>
-      <c r="J9" s="177">
+      <c r="J9" s="155">
         <f>J11</f>
         <v>45787</v>
       </c>
-      <c r="K9" s="177">
+      <c r="K9" s="155">
         <f>K17</f>
         <v>45787</v>
       </c>
-      <c r="L9" s="176">
+      <c r="L9" s="159">
         <v>1.3</v>
       </c>
-      <c r="M9" s="177">
+      <c r="M9" s="155">
         <f>M11</f>
         <v>45787</v>
       </c>
-      <c r="N9" s="177">
+      <c r="N9" s="155">
         <f>N17</f>
         <v>45790</v>
       </c>
@@ -5340,7 +5340,7 @@
     <row r="10" spans="1:127" ht="12" customHeight="1">
       <c r="A10" s="26"/>
       <c r="B10" s="50"/>
-      <c r="C10" s="137"/>
+      <c r="C10" s="158"/>
       <c r="D10" s="124"/>
       <c r="E10" s="124"/>
       <c r="F10" s="124"/>
@@ -5470,37 +5470,37 @@
       <c r="A11" s="26"/>
       <c r="B11" s="50"/>
       <c r="C11" s="54"/>
-      <c r="D11" s="178" t="s">
+      <c r="D11" s="160" t="s">
         <v>76</v>
       </c>
       <c r="E11" s="121"/>
       <c r="F11" s="121"/>
       <c r="G11" s="121"/>
       <c r="H11" s="122"/>
-      <c r="I11" s="171">
+      <c r="I11" s="147">
         <v>0.1</v>
       </c>
-      <c r="J11" s="179">
+      <c r="J11" s="161">
         <v>45787</v>
       </c>
-      <c r="K11" s="179">
+      <c r="K11" s="161">
         <f>$J$11</f>
         <v>45787</v>
       </c>
-      <c r="L11" s="171">
+      <c r="L11" s="147">
         <v>0.1</v>
       </c>
-      <c r="M11" s="179">
+      <c r="M11" s="161">
         <v>45787</v>
       </c>
-      <c r="N11" s="179">
+      <c r="N11" s="161">
         <f>$J$11</f>
         <v>45787</v>
       </c>
-      <c r="O11" s="171" t="s">
+      <c r="O11" s="147" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="171">
+      <c r="P11" s="147">
         <v>100</v>
       </c>
       <c r="Q11" s="55"/>
@@ -5748,39 +5748,39 @@
       <c r="A13" s="26"/>
       <c r="B13" s="50"/>
       <c r="C13" s="63"/>
-      <c r="D13" s="178" t="s">
+      <c r="D13" s="160" t="s">
         <v>78</v>
       </c>
       <c r="E13" s="121"/>
       <c r="F13" s="121"/>
       <c r="G13" s="121"/>
       <c r="H13" s="122"/>
-      <c r="I13" s="171">
+      <c r="I13" s="147">
         <v>0.1</v>
       </c>
-      <c r="J13" s="179">
+      <c r="J13" s="161">
         <f t="shared" ref="J13:K13" si="1">$J$11</f>
         <v>45787</v>
       </c>
-      <c r="K13" s="179">
+      <c r="K13" s="161">
         <f t="shared" si="1"/>
         <v>45787</v>
       </c>
-      <c r="L13" s="171">
+      <c r="L13" s="147">
         <v>0.1</v>
       </c>
-      <c r="M13" s="179">
+      <c r="M13" s="161">
         <f t="shared" ref="M13:N13" si="2">$J$11</f>
         <v>45787</v>
       </c>
-      <c r="N13" s="179">
+      <c r="N13" s="161">
         <f t="shared" si="2"/>
         <v>45787</v>
       </c>
-      <c r="O13" s="171" t="s">
+      <c r="O13" s="147" t="s">
         <v>77</v>
       </c>
-      <c r="P13" s="171">
+      <c r="P13" s="147">
         <v>100</v>
       </c>
       <c r="Q13" s="55"/>
@@ -6028,39 +6028,39 @@
       <c r="A15" s="26"/>
       <c r="B15" s="50"/>
       <c r="C15" s="63"/>
-      <c r="D15" s="178" t="s">
+      <c r="D15" s="160" t="s">
         <v>79</v>
       </c>
       <c r="E15" s="121"/>
       <c r="F15" s="121"/>
       <c r="G15" s="121"/>
       <c r="H15" s="122"/>
-      <c r="I15" s="171">
+      <c r="I15" s="147">
         <v>0.1</v>
       </c>
-      <c r="J15" s="179">
+      <c r="J15" s="161">
         <f t="shared" ref="J15:K15" si="3">$J$11</f>
         <v>45787</v>
       </c>
-      <c r="K15" s="179">
+      <c r="K15" s="161">
         <f t="shared" si="3"/>
         <v>45787</v>
       </c>
-      <c r="L15" s="171">
+      <c r="L15" s="147">
         <v>0.1</v>
       </c>
-      <c r="M15" s="179">
+      <c r="M15" s="161">
         <f t="shared" ref="M15:N15" si="4">$J$11</f>
         <v>45787</v>
       </c>
-      <c r="N15" s="179">
+      <c r="N15" s="161">
         <f t="shared" si="4"/>
         <v>45787</v>
       </c>
-      <c r="O15" s="171" t="s">
+      <c r="O15" s="147" t="s">
         <v>77</v>
       </c>
-      <c r="P15" s="171">
+      <c r="P15" s="147">
         <v>100</v>
       </c>
       <c r="Q15" s="55"/>
@@ -6308,37 +6308,37 @@
       <c r="A17" s="26"/>
       <c r="B17" s="50"/>
       <c r="C17" s="63"/>
-      <c r="D17" s="178" t="s">
+      <c r="D17" s="160" t="s">
         <v>80</v>
       </c>
       <c r="E17" s="121"/>
       <c r="F17" s="121"/>
       <c r="G17" s="121"/>
       <c r="H17" s="122"/>
-      <c r="I17" s="171">
+      <c r="I17" s="147">
         <v>0.7</v>
       </c>
-      <c r="J17" s="179">
+      <c r="J17" s="161">
         <f t="shared" ref="J17:K17" si="5">$J$11</f>
         <v>45787</v>
       </c>
-      <c r="K17" s="179">
+      <c r="K17" s="161">
         <f t="shared" si="5"/>
         <v>45787</v>
       </c>
-      <c r="L17" s="171">
+      <c r="L17" s="147">
         <v>3</v>
       </c>
-      <c r="M17" s="179">
+      <c r="M17" s="161">
         <v>45787</v>
       </c>
-      <c r="N17" s="179">
+      <c r="N17" s="161">
         <v>45790</v>
       </c>
-      <c r="O17" s="171" t="s">
+      <c r="O17" s="147" t="s">
         <v>77</v>
       </c>
-      <c r="P17" s="171">
+      <c r="P17" s="147">
         <v>100</v>
       </c>
       <c r="Q17" s="55"/>
@@ -6585,24 +6585,24 @@
     <row r="19" spans="1:127" ht="12" customHeight="1">
       <c r="A19" s="26"/>
       <c r="B19" s="50"/>
-      <c r="C19" s="174" t="s">
+      <c r="C19" s="156" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="136"/>
-      <c r="E19" s="136"/>
-      <c r="F19" s="136"/>
-      <c r="G19" s="136"/>
-      <c r="H19" s="136"/>
-      <c r="I19" s="176">
+      <c r="D19" s="157"/>
+      <c r="E19" s="157"/>
+      <c r="F19" s="157"/>
+      <c r="G19" s="157"/>
+      <c r="H19" s="157"/>
+      <c r="I19" s="159">
         <v>1</v>
       </c>
-      <c r="J19" s="177">
+      <c r="J19" s="155">
         <v>45790</v>
       </c>
-      <c r="K19" s="177">
+      <c r="K19" s="155">
         <v>45790</v>
       </c>
-      <c r="L19" s="176"/>
+      <c r="L19" s="159"/>
       <c r="M19" s="74"/>
       <c r="N19" s="74"/>
       <c r="O19" s="75"/>
@@ -6722,12 +6722,12 @@
     <row r="20" spans="1:127" ht="12" customHeight="1">
       <c r="A20" s="26"/>
       <c r="B20" s="50"/>
-      <c r="C20" s="175"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="143"/>
-      <c r="H20" s="143"/>
+      <c r="C20" s="163"/>
+      <c r="D20" s="142"/>
+      <c r="E20" s="142"/>
+      <c r="F20" s="142"/>
+      <c r="G20" s="142"/>
+      <c r="H20" s="142"/>
       <c r="I20" s="130"/>
       <c r="J20" s="125"/>
       <c r="K20" s="125"/>
@@ -6852,35 +6852,35 @@
       <c r="A21" s="26"/>
       <c r="B21" s="50"/>
       <c r="C21" s="54"/>
-      <c r="D21" s="178" t="s">
+      <c r="D21" s="160" t="s">
         <v>81</v>
       </c>
       <c r="E21" s="121"/>
       <c r="F21" s="121"/>
       <c r="G21" s="121"/>
       <c r="H21" s="122"/>
-      <c r="I21" s="171">
+      <c r="I21" s="147">
         <v>1</v>
       </c>
-      <c r="J21" s="173">
+      <c r="J21" s="162">
         <v>45790</v>
       </c>
-      <c r="K21" s="173">
+      <c r="K21" s="162">
         <v>45790</v>
       </c>
-      <c r="L21" s="171">
+      <c r="L21" s="147">
         <v>5.5</v>
       </c>
-      <c r="M21" s="173">
+      <c r="M21" s="162">
         <v>45790</v>
       </c>
-      <c r="N21" s="173">
+      <c r="N21" s="162">
         <v>45790</v>
       </c>
-      <c r="O21" s="171" t="s">
+      <c r="O21" s="147" t="s">
         <v>77</v>
       </c>
-      <c r="P21" s="171">
+      <c r="P21" s="147">
         <v>100</v>
       </c>
       <c r="Q21" s="55"/>
@@ -7127,24 +7127,24 @@
     <row r="23" spans="1:127" ht="12" customHeight="1">
       <c r="A23" s="26"/>
       <c r="B23" s="91"/>
-      <c r="C23" s="172" t="s">
+      <c r="C23" s="164" t="s">
         <v>82</v>
       </c>
-      <c r="D23" s="136"/>
-      <c r="E23" s="136"/>
-      <c r="F23" s="136"/>
-      <c r="G23" s="136"/>
-      <c r="H23" s="136"/>
-      <c r="I23" s="138">
+      <c r="D23" s="157"/>
+      <c r="E23" s="157"/>
+      <c r="F23" s="157"/>
+      <c r="G23" s="157"/>
+      <c r="H23" s="157"/>
+      <c r="I23" s="165">
         <v>10</v>
       </c>
-      <c r="J23" s="134">
+      <c r="J23" s="139">
         <v>45791</v>
       </c>
-      <c r="K23" s="134">
+      <c r="K23" s="139">
         <v>45792</v>
       </c>
-      <c r="L23" s="161"/>
+      <c r="L23" s="166"/>
       <c r="M23" s="92"/>
       <c r="N23" s="92"/>
       <c r="O23" s="93"/>
@@ -7264,7 +7264,7 @@
     <row r="24" spans="1:127" ht="12" customHeight="1">
       <c r="A24" s="26"/>
       <c r="B24" s="91"/>
-      <c r="C24" s="137"/>
+      <c r="C24" s="158"/>
       <c r="D24" s="124"/>
       <c r="E24" s="124"/>
       <c r="F24" s="124"/>
@@ -7394,35 +7394,35 @@
       <c r="A25" s="26"/>
       <c r="B25" s="91"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="168" t="s">
+      <c r="D25" s="167" t="s">
         <v>83</v>
       </c>
       <c r="E25" s="121"/>
       <c r="F25" s="121"/>
       <c r="G25" s="121"/>
       <c r="H25" s="122"/>
-      <c r="I25" s="133">
+      <c r="I25" s="132">
         <v>4</v>
       </c>
-      <c r="J25" s="131">
+      <c r="J25" s="133">
         <v>45791</v>
       </c>
-      <c r="K25" s="131">
+      <c r="K25" s="133">
         <v>45791</v>
       </c>
-      <c r="L25" s="133">
+      <c r="L25" s="132">
         <v>7</v>
       </c>
-      <c r="M25" s="131">
+      <c r="M25" s="133">
         <v>45791</v>
       </c>
-      <c r="N25" s="131">
+      <c r="N25" s="133">
         <v>45791</v>
       </c>
-      <c r="O25" s="133" t="s">
+      <c r="O25" s="132" t="s">
         <v>77</v>
       </c>
-      <c r="P25" s="171">
+      <c r="P25" s="147">
         <v>100</v>
       </c>
       <c r="Q25" s="55"/>
@@ -7670,35 +7670,35 @@
       <c r="A27" s="26"/>
       <c r="B27" s="91"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="168" t="s">
+      <c r="D27" s="167" t="s">
         <v>84</v>
       </c>
       <c r="E27" s="121"/>
       <c r="F27" s="121"/>
       <c r="G27" s="121"/>
       <c r="H27" s="122"/>
-      <c r="I27" s="133">
+      <c r="I27" s="132">
         <v>6</v>
       </c>
-      <c r="J27" s="169">
+      <c r="J27" s="168">
         <v>45791</v>
       </c>
-      <c r="K27" s="131">
+      <c r="K27" s="133">
         <v>45792</v>
       </c>
-      <c r="L27" s="133">
+      <c r="L27" s="132">
         <v>3</v>
       </c>
-      <c r="M27" s="131">
+      <c r="M27" s="133">
         <v>45792</v>
       </c>
-      <c r="N27" s="131">
+      <c r="N27" s="133">
         <v>45792</v>
       </c>
-      <c r="O27" s="133" t="s">
+      <c r="O27" s="132" t="s">
         <v>77</v>
       </c>
-      <c r="P27" s="133">
+      <c r="P27" s="132">
         <v>100</v>
       </c>
       <c r="Q27" s="55"/>
@@ -7946,35 +7946,35 @@
       <c r="A29" s="26"/>
       <c r="B29" s="91"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="168" t="s">
+      <c r="D29" s="167" t="s">
         <v>85</v>
       </c>
       <c r="E29" s="121"/>
       <c r="F29" s="121"/>
       <c r="G29" s="121"/>
       <c r="H29" s="122"/>
-      <c r="I29" s="133">
+      <c r="I29" s="132">
         <v>4</v>
       </c>
-      <c r="J29" s="131">
+      <c r="J29" s="133">
         <v>45792</v>
       </c>
-      <c r="K29" s="169">
+      <c r="K29" s="168">
         <v>45792</v>
       </c>
-      <c r="L29" s="144">
+      <c r="L29" s="134">
         <v>3</v>
       </c>
-      <c r="M29" s="131">
+      <c r="M29" s="133">
         <v>45792</v>
       </c>
-      <c r="N29" s="131">
+      <c r="N29" s="133">
         <v>45792</v>
       </c>
-      <c r="O29" s="170" t="s">
+      <c r="O29" s="169" t="s">
         <v>99</v>
       </c>
-      <c r="P29" s="133">
+      <c r="P29" s="132">
         <v>100</v>
       </c>
       <c r="Q29" s="55"/>
@@ -8101,7 +8101,7 @@
       <c r="I30" s="130"/>
       <c r="J30" s="130"/>
       <c r="K30" s="130"/>
-      <c r="L30" s="140"/>
+      <c r="L30" s="135"/>
       <c r="M30" s="130"/>
       <c r="N30" s="130"/>
       <c r="O30" s="130"/>
@@ -8221,24 +8221,24 @@
     <row r="31" spans="1:127" ht="12" customHeight="1">
       <c r="A31" s="26"/>
       <c r="B31" s="99"/>
-      <c r="C31" s="135" t="s">
+      <c r="C31" s="171" t="s">
         <v>86</v>
       </c>
-      <c r="D31" s="136"/>
-      <c r="E31" s="136"/>
-      <c r="F31" s="136"/>
-      <c r="G31" s="136"/>
-      <c r="H31" s="136"/>
-      <c r="I31" s="138">
+      <c r="D31" s="157"/>
+      <c r="E31" s="157"/>
+      <c r="F31" s="157"/>
+      <c r="G31" s="157"/>
+      <c r="H31" s="157"/>
+      <c r="I31" s="165">
         <v>32</v>
       </c>
-      <c r="J31" s="134">
+      <c r="J31" s="139">
         <v>45793</v>
       </c>
-      <c r="K31" s="134">
+      <c r="K31" s="139">
         <v>45798</v>
       </c>
-      <c r="L31" s="161"/>
+      <c r="L31" s="166"/>
       <c r="M31" s="100"/>
       <c r="N31" s="100"/>
       <c r="O31" s="101"/>
@@ -8358,7 +8358,7 @@
     <row r="32" spans="1:127" ht="12" customHeight="1">
       <c r="A32" s="26"/>
       <c r="B32" s="99"/>
-      <c r="C32" s="137"/>
+      <c r="C32" s="158"/>
       <c r="D32" s="124"/>
       <c r="E32" s="124"/>
       <c r="F32" s="124"/>
@@ -8488,23 +8488,23 @@
       <c r="A33" s="26"/>
       <c r="B33" s="99"/>
       <c r="C33" s="104"/>
-      <c r="D33" s="149" t="s">
+      <c r="D33" s="137" t="s">
         <v>105</v>
       </c>
       <c r="E33" s="121"/>
       <c r="F33" s="121"/>
       <c r="G33" s="121"/>
       <c r="H33" s="122"/>
-      <c r="I33" s="141">
+      <c r="I33" s="138">
         <v>8</v>
       </c>
-      <c r="J33" s="134">
+      <c r="J33" s="139">
         <v>45793</v>
       </c>
-      <c r="K33" s="134">
+      <c r="K33" s="139">
         <v>45793</v>
       </c>
-      <c r="L33" s="161"/>
+      <c r="L33" s="166"/>
       <c r="M33" s="100"/>
       <c r="N33" s="100"/>
       <c r="O33" s="101"/>
@@ -8755,28 +8755,28 @@
       <c r="B35" s="99"/>
       <c r="C35" s="26"/>
       <c r="D35" s="106"/>
-      <c r="E35" s="142" t="s">
+      <c r="E35" s="141" t="s">
         <v>88</v>
       </c>
-      <c r="F35" s="143"/>
-      <c r="G35" s="143"/>
-      <c r="H35" s="143"/>
-      <c r="I35" s="133">
+      <c r="F35" s="142"/>
+      <c r="G35" s="142"/>
+      <c r="H35" s="142"/>
+      <c r="I35" s="132">
         <v>1</v>
       </c>
-      <c r="J35" s="131">
+      <c r="J35" s="133">
         <v>45793</v>
       </c>
-      <c r="K35" s="131">
+      <c r="K35" s="133">
         <v>45793</v>
       </c>
-      <c r="L35" s="164" t="s">
+      <c r="L35" s="150" t="s">
         <v>101</v>
       </c>
-      <c r="M35" s="165"/>
-      <c r="N35" s="162"/>
-      <c r="O35" s="163"/>
-      <c r="P35" s="147"/>
+      <c r="M35" s="151"/>
+      <c r="N35" s="152"/>
+      <c r="O35" s="153"/>
+      <c r="P35" s="148"/>
       <c r="Q35" s="55"/>
       <c r="R35" s="56"/>
       <c r="S35" s="56"/>
@@ -8901,11 +8901,11 @@
       <c r="I36" s="130"/>
       <c r="J36" s="130"/>
       <c r="K36" s="130"/>
-      <c r="L36" s="140"/>
-      <c r="M36" s="148"/>
-      <c r="N36" s="148"/>
-      <c r="O36" s="148"/>
-      <c r="P36" s="148"/>
+      <c r="L36" s="135"/>
+      <c r="M36" s="149"/>
+      <c r="N36" s="149"/>
+      <c r="O36" s="149"/>
+      <c r="P36" s="149"/>
       <c r="Q36" s="55"/>
       <c r="R36" s="56"/>
       <c r="S36" s="56"/>
@@ -9023,32 +9023,32 @@
       <c r="B37" s="99"/>
       <c r="C37" s="26"/>
       <c r="D37" s="99"/>
-      <c r="E37" s="167" t="s">
+      <c r="E37" s="170" t="s">
         <v>106</v>
       </c>
-      <c r="F37" s="143"/>
-      <c r="G37" s="143"/>
-      <c r="H37" s="143"/>
-      <c r="I37" s="133">
+      <c r="F37" s="142"/>
+      <c r="G37" s="142"/>
+      <c r="H37" s="142"/>
+      <c r="I37" s="132">
         <v>4</v>
       </c>
-      <c r="J37" s="131">
+      <c r="J37" s="133">
         <v>45793</v>
       </c>
-      <c r="K37" s="131">
+      <c r="K37" s="133">
         <v>45793</v>
       </c>
-      <c r="L37" s="144">
+      <c r="L37" s="134">
         <v>4</v>
       </c>
-      <c r="M37" s="131">
+      <c r="M37" s="133">
         <v>45793</v>
       </c>
-      <c r="N37" s="131"/>
-      <c r="O37" s="182" t="s">
+      <c r="N37" s="133"/>
+      <c r="O37" s="136" t="s">
         <v>100</v>
       </c>
-      <c r="P37" s="133">
+      <c r="P37" s="132">
         <v>80</v>
       </c>
       <c r="Q37" s="55"/>
@@ -9175,7 +9175,7 @@
       <c r="I38" s="130"/>
       <c r="J38" s="130"/>
       <c r="K38" s="130"/>
-      <c r="L38" s="140"/>
+      <c r="L38" s="135"/>
       <c r="M38" s="130"/>
       <c r="N38" s="130"/>
       <c r="O38" s="130"/>
@@ -9297,32 +9297,32 @@
       <c r="B39" s="99"/>
       <c r="C39" s="26"/>
       <c r="D39" s="99"/>
-      <c r="E39" s="166" t="s">
+      <c r="E39" s="131" t="s">
         <v>103</v>
       </c>
       <c r="F39" s="121"/>
       <c r="G39" s="121"/>
       <c r="H39" s="122"/>
-      <c r="I39" s="133">
+      <c r="I39" s="132">
         <v>3</v>
       </c>
-      <c r="J39" s="131">
+      <c r="J39" s="133">
         <v>45793</v>
       </c>
-      <c r="K39" s="131">
+      <c r="K39" s="133">
         <v>45793</v>
       </c>
-      <c r="L39" s="144">
-        <v>2</v>
-      </c>
-      <c r="M39" s="131">
+      <c r="L39" s="134">
+        <v>3</v>
+      </c>
+      <c r="M39" s="133">
         <v>45793</v>
       </c>
-      <c r="N39" s="131"/>
-      <c r="O39" s="182" t="s">
+      <c r="N39" s="133"/>
+      <c r="O39" s="136" t="s">
         <v>100</v>
       </c>
-      <c r="P39" s="133">
+      <c r="P39" s="132">
         <v>50</v>
       </c>
       <c r="Q39" s="55"/>
@@ -9449,7 +9449,7 @@
       <c r="I40" s="130"/>
       <c r="J40" s="130"/>
       <c r="K40" s="130"/>
-      <c r="L40" s="140"/>
+      <c r="L40" s="135"/>
       <c r="M40" s="130"/>
       <c r="N40" s="130"/>
       <c r="O40" s="130"/>
@@ -9571,32 +9571,32 @@
       <c r="B41" s="110"/>
       <c r="C41" s="116"/>
       <c r="D41" s="110"/>
-      <c r="E41" s="166" t="s">
+      <c r="E41" s="131" t="s">
         <v>104</v>
       </c>
       <c r="F41" s="121"/>
       <c r="G41" s="121"/>
       <c r="H41" s="122"/>
-      <c r="I41" s="133">
+      <c r="I41" s="132">
         <v>4</v>
       </c>
-      <c r="J41" s="131">
+      <c r="J41" s="133">
         <v>45793</v>
       </c>
-      <c r="K41" s="131">
+      <c r="K41" s="133">
         <v>45793</v>
       </c>
-      <c r="L41" s="144">
+      <c r="L41" s="134">
         <v>2</v>
       </c>
-      <c r="M41" s="131">
+      <c r="M41" s="133">
         <v>45793</v>
       </c>
-      <c r="N41" s="131"/>
-      <c r="O41" s="182" t="s">
+      <c r="N41" s="133"/>
+      <c r="O41" s="136" t="s">
         <v>100</v>
       </c>
-      <c r="P41" s="133">
+      <c r="P41" s="132">
         <v>50</v>
       </c>
       <c r="Q41" s="55"/>
@@ -9723,7 +9723,7 @@
       <c r="I42" s="130"/>
       <c r="J42" s="130"/>
       <c r="K42" s="130"/>
-      <c r="L42" s="140"/>
+      <c r="L42" s="135"/>
       <c r="M42" s="130"/>
       <c r="N42" s="130"/>
       <c r="O42" s="130"/>
@@ -9844,23 +9844,23 @@
       <c r="A43" s="116"/>
       <c r="B43" s="110"/>
       <c r="C43" s="116"/>
-      <c r="D43" s="149" t="s">
+      <c r="D43" s="137" t="s">
         <v>91</v>
       </c>
-      <c r="E43" s="150"/>
-      <c r="F43" s="150"/>
-      <c r="G43" s="150"/>
-      <c r="H43" s="151"/>
-      <c r="I43" s="155">
+      <c r="E43" s="172"/>
+      <c r="F43" s="172"/>
+      <c r="G43" s="172"/>
+      <c r="H43" s="173"/>
+      <c r="I43" s="177">
         <v>16</v>
       </c>
-      <c r="J43" s="157">
+      <c r="J43" s="179">
         <v>45796</v>
       </c>
-      <c r="K43" s="157">
+      <c r="K43" s="179">
         <v>45797</v>
       </c>
-      <c r="L43" s="159"/>
+      <c r="L43" s="181"/>
       <c r="M43" s="100"/>
       <c r="N43" s="100"/>
       <c r="O43" s="101"/>
@@ -9981,15 +9981,15 @@
       <c r="A44" s="116"/>
       <c r="B44" s="110"/>
       <c r="C44" s="116"/>
-      <c r="D44" s="152"/>
-      <c r="E44" s="153"/>
-      <c r="F44" s="153"/>
-      <c r="G44" s="153"/>
-      <c r="H44" s="154"/>
-      <c r="I44" s="156"/>
-      <c r="J44" s="158"/>
-      <c r="K44" s="158"/>
-      <c r="L44" s="160"/>
+      <c r="D44" s="174"/>
+      <c r="E44" s="175"/>
+      <c r="F44" s="175"/>
+      <c r="G44" s="175"/>
+      <c r="H44" s="176"/>
+      <c r="I44" s="178"/>
+      <c r="J44" s="180"/>
+      <c r="K44" s="180"/>
+      <c r="L44" s="182"/>
       <c r="M44" s="102"/>
       <c r="N44" s="102"/>
       <c r="O44" s="103"/>
@@ -10111,28 +10111,28 @@
       <c r="B45" s="99"/>
       <c r="C45" s="26"/>
       <c r="D45" s="106"/>
-      <c r="E45" s="142" t="s">
+      <c r="E45" s="141" t="s">
         <v>92</v>
       </c>
-      <c r="F45" s="143"/>
-      <c r="G45" s="143"/>
-      <c r="H45" s="143"/>
-      <c r="I45" s="133">
+      <c r="F45" s="142"/>
+      <c r="G45" s="142"/>
+      <c r="H45" s="142"/>
+      <c r="I45" s="132">
         <v>2</v>
       </c>
-      <c r="J45" s="131">
+      <c r="J45" s="133">
         <v>45796</v>
       </c>
-      <c r="K45" s="131">
+      <c r="K45" s="133">
         <v>45796</v>
       </c>
-      <c r="L45" s="164" t="s">
+      <c r="L45" s="150" t="s">
         <v>102</v>
       </c>
-      <c r="M45" s="165"/>
-      <c r="N45" s="162"/>
-      <c r="O45" s="163"/>
-      <c r="P45" s="147"/>
+      <c r="M45" s="151"/>
+      <c r="N45" s="152"/>
+      <c r="O45" s="153"/>
+      <c r="P45" s="148"/>
       <c r="Q45" s="55"/>
       <c r="R45" s="56"/>
       <c r="S45" s="56"/>
@@ -10257,11 +10257,11 @@
       <c r="I46" s="130"/>
       <c r="J46" s="130"/>
       <c r="K46" s="130"/>
-      <c r="L46" s="140"/>
-      <c r="M46" s="148"/>
-      <c r="N46" s="148"/>
-      <c r="O46" s="148"/>
-      <c r="P46" s="148"/>
+      <c r="L46" s="135"/>
+      <c r="M46" s="149"/>
+      <c r="N46" s="149"/>
+      <c r="O46" s="149"/>
+      <c r="P46" s="149"/>
       <c r="Q46" s="55"/>
       <c r="R46" s="56"/>
       <c r="S46" s="56"/>
@@ -10379,26 +10379,26 @@
       <c r="B47" s="99"/>
       <c r="C47" s="26"/>
       <c r="D47" s="99"/>
-      <c r="E47" s="142" t="s">
+      <c r="E47" s="141" t="s">
         <v>107</v>
       </c>
-      <c r="F47" s="143"/>
-      <c r="G47" s="143"/>
-      <c r="H47" s="143"/>
-      <c r="I47" s="133">
+      <c r="F47" s="142"/>
+      <c r="G47" s="142"/>
+      <c r="H47" s="142"/>
+      <c r="I47" s="132">
         <v>14</v>
       </c>
-      <c r="J47" s="131">
+      <c r="J47" s="133">
         <v>45796</v>
       </c>
-      <c r="K47" s="146">
+      <c r="K47" s="145">
         <v>45797</v>
       </c>
-      <c r="L47" s="144"/>
-      <c r="M47" s="131"/>
-      <c r="N47" s="131"/>
-      <c r="O47" s="132"/>
-      <c r="P47" s="133">
+      <c r="L47" s="134"/>
+      <c r="M47" s="133"/>
+      <c r="N47" s="133"/>
+      <c r="O47" s="143"/>
+      <c r="P47" s="132">
         <v>0</v>
       </c>
       <c r="Q47" s="55"/>
@@ -10525,7 +10525,7 @@
       <c r="I48" s="130"/>
       <c r="J48" s="130"/>
       <c r="K48" s="125"/>
-      <c r="L48" s="140"/>
+      <c r="L48" s="135"/>
       <c r="M48" s="130"/>
       <c r="N48" s="130"/>
       <c r="O48" s="130"/>
@@ -10647,18 +10647,18 @@
       <c r="B49" s="99"/>
       <c r="C49" s="26"/>
       <c r="D49" s="99"/>
-      <c r="E49" s="145"/>
+      <c r="E49" s="144"/>
       <c r="F49" s="121"/>
       <c r="G49" s="121"/>
       <c r="H49" s="122"/>
-      <c r="I49" s="133"/>
-      <c r="J49" s="131"/>
-      <c r="K49" s="131"/>
-      <c r="L49" s="144"/>
-      <c r="M49" s="131"/>
-      <c r="N49" s="131"/>
-      <c r="O49" s="132"/>
-      <c r="P49" s="133">
+      <c r="I49" s="132"/>
+      <c r="J49" s="133"/>
+      <c r="K49" s="133"/>
+      <c r="L49" s="134"/>
+      <c r="M49" s="133"/>
+      <c r="N49" s="133"/>
+      <c r="O49" s="143"/>
+      <c r="P49" s="132">
         <v>0</v>
       </c>
       <c r="Q49" s="55"/>
@@ -10785,7 +10785,7 @@
       <c r="I50" s="130"/>
       <c r="J50" s="130"/>
       <c r="K50" s="130"/>
-      <c r="L50" s="140"/>
+      <c r="L50" s="135"/>
       <c r="M50" s="130"/>
       <c r="N50" s="130"/>
       <c r="O50" s="130"/>
@@ -10906,23 +10906,23 @@
       <c r="A51" s="26"/>
       <c r="B51" s="99"/>
       <c r="C51" s="108"/>
-      <c r="D51" s="149" t="s">
+      <c r="D51" s="137" t="s">
         <v>93</v>
       </c>
       <c r="E51" s="121"/>
       <c r="F51" s="121"/>
       <c r="G51" s="121"/>
       <c r="H51" s="122"/>
-      <c r="I51" s="141">
+      <c r="I51" s="138">
         <v>6</v>
       </c>
-      <c r="J51" s="134">
+      <c r="J51" s="139">
         <v>45798</v>
       </c>
-      <c r="K51" s="134">
+      <c r="K51" s="139">
         <v>45798</v>
       </c>
-      <c r="L51" s="139"/>
+      <c r="L51" s="140"/>
       <c r="M51" s="100"/>
       <c r="N51" s="100"/>
       <c r="O51" s="101"/>
@@ -11051,7 +11051,7 @@
       <c r="I52" s="125"/>
       <c r="J52" s="125"/>
       <c r="K52" s="125"/>
-      <c r="L52" s="140"/>
+      <c r="L52" s="135"/>
       <c r="M52" s="102"/>
       <c r="N52" s="102"/>
       <c r="O52" s="103"/>
@@ -11173,26 +11173,26 @@
       <c r="B53" s="99"/>
       <c r="C53" s="108"/>
       <c r="D53" s="109"/>
-      <c r="E53" s="142" t="s">
+      <c r="E53" s="141" t="s">
         <v>93</v>
       </c>
-      <c r="F53" s="143"/>
-      <c r="G53" s="143"/>
-      <c r="H53" s="143"/>
-      <c r="I53" s="133">
+      <c r="F53" s="142"/>
+      <c r="G53" s="142"/>
+      <c r="H53" s="142"/>
+      <c r="I53" s="132">
         <v>3</v>
       </c>
-      <c r="J53" s="131">
+      <c r="J53" s="133">
         <v>45798</v>
       </c>
-      <c r="K53" s="131">
+      <c r="K53" s="133">
         <v>45798</v>
       </c>
-      <c r="L53" s="144"/>
-      <c r="M53" s="131"/>
-      <c r="N53" s="131"/>
-      <c r="O53" s="132"/>
-      <c r="P53" s="133">
+      <c r="L53" s="134"/>
+      <c r="M53" s="133"/>
+      <c r="N53" s="133"/>
+      <c r="O53" s="143"/>
+      <c r="P53" s="132">
         <v>0</v>
       </c>
       <c r="Q53" s="55"/>
@@ -11319,7 +11319,7 @@
       <c r="I54" s="130"/>
       <c r="J54" s="130"/>
       <c r="K54" s="130"/>
-      <c r="L54" s="140"/>
+      <c r="L54" s="135"/>
       <c r="M54" s="130"/>
       <c r="N54" s="130"/>
       <c r="O54" s="130"/>
@@ -11441,26 +11441,26 @@
       <c r="B55" s="99"/>
       <c r="C55" s="108"/>
       <c r="D55" s="110"/>
-      <c r="E55" s="142" t="s">
+      <c r="E55" s="141" t="s">
         <v>94</v>
       </c>
-      <c r="F55" s="143"/>
-      <c r="G55" s="143"/>
-      <c r="H55" s="143"/>
-      <c r="I55" s="133">
+      <c r="F55" s="142"/>
+      <c r="G55" s="142"/>
+      <c r="H55" s="142"/>
+      <c r="I55" s="132">
         <v>3</v>
       </c>
-      <c r="J55" s="131">
+      <c r="J55" s="133">
         <v>45798</v>
       </c>
-      <c r="K55" s="131">
+      <c r="K55" s="133">
         <v>45798</v>
       </c>
-      <c r="L55" s="144"/>
-      <c r="M55" s="131"/>
-      <c r="N55" s="131"/>
-      <c r="O55" s="132"/>
-      <c r="P55" s="133">
+      <c r="L55" s="134"/>
+      <c r="M55" s="133"/>
+      <c r="N55" s="133"/>
+      <c r="O55" s="143"/>
+      <c r="P55" s="132">
         <v>0</v>
       </c>
       <c r="Q55" s="55"/>
@@ -11587,7 +11587,7 @@
       <c r="I56" s="130"/>
       <c r="J56" s="130"/>
       <c r="K56" s="130"/>
-      <c r="L56" s="140"/>
+      <c r="L56" s="135"/>
       <c r="M56" s="130"/>
       <c r="N56" s="130"/>
       <c r="O56" s="130"/>
@@ -11709,18 +11709,18 @@
       <c r="B57" s="99"/>
       <c r="C57" s="108"/>
       <c r="D57" s="110"/>
-      <c r="E57" s="145"/>
+      <c r="E57" s="144"/>
       <c r="F57" s="121"/>
       <c r="G57" s="121"/>
       <c r="H57" s="122"/>
-      <c r="I57" s="133"/>
-      <c r="J57" s="131"/>
-      <c r="K57" s="131"/>
-      <c r="L57" s="144"/>
-      <c r="M57" s="131"/>
-      <c r="N57" s="131"/>
-      <c r="O57" s="132"/>
-      <c r="P57" s="133">
+      <c r="I57" s="132"/>
+      <c r="J57" s="133"/>
+      <c r="K57" s="133"/>
+      <c r="L57" s="134"/>
+      <c r="M57" s="133"/>
+      <c r="N57" s="133"/>
+      <c r="O57" s="143"/>
+      <c r="P57" s="132">
         <v>0</v>
       </c>
       <c r="Q57" s="55"/>
@@ -11847,7 +11847,7 @@
       <c r="I58" s="130"/>
       <c r="J58" s="130"/>
       <c r="K58" s="130"/>
-      <c r="L58" s="140"/>
+      <c r="L58" s="135"/>
       <c r="M58" s="130"/>
       <c r="N58" s="130"/>
       <c r="O58" s="130"/>
@@ -11967,24 +11967,24 @@
     <row r="59" spans="1:127" ht="12" customHeight="1">
       <c r="A59" s="26"/>
       <c r="B59" s="99"/>
-      <c r="C59" s="135" t="s">
+      <c r="C59" s="171" t="s">
         <v>95</v>
       </c>
-      <c r="D59" s="136"/>
-      <c r="E59" s="136"/>
-      <c r="F59" s="136"/>
-      <c r="G59" s="136"/>
-      <c r="H59" s="136"/>
-      <c r="I59" s="138">
+      <c r="D59" s="157"/>
+      <c r="E59" s="157"/>
+      <c r="F59" s="157"/>
+      <c r="G59" s="157"/>
+      <c r="H59" s="157"/>
+      <c r="I59" s="165">
         <v>72</v>
       </c>
-      <c r="J59" s="134">
+      <c r="J59" s="139">
         <v>45799</v>
       </c>
-      <c r="K59" s="134">
+      <c r="K59" s="139">
         <v>45808</v>
       </c>
-      <c r="L59" s="139"/>
+      <c r="L59" s="140"/>
       <c r="M59" s="100"/>
       <c r="N59" s="100"/>
       <c r="O59" s="101"/>
@@ -12104,7 +12104,7 @@
     <row r="60" spans="1:127" ht="12" customHeight="1">
       <c r="A60" s="26"/>
       <c r="B60" s="99"/>
-      <c r="C60" s="137"/>
+      <c r="C60" s="158"/>
       <c r="D60" s="124"/>
       <c r="E60" s="124"/>
       <c r="F60" s="124"/>
@@ -12113,7 +12113,7 @@
       <c r="I60" s="130"/>
       <c r="J60" s="125"/>
       <c r="K60" s="125"/>
-      <c r="L60" s="140"/>
+      <c r="L60" s="135"/>
       <c r="M60" s="102"/>
       <c r="N60" s="102"/>
       <c r="O60" s="103"/>
@@ -12234,23 +12234,23 @@
       <c r="A61" s="26"/>
       <c r="B61" s="99"/>
       <c r="C61" s="113"/>
-      <c r="D61" s="149" t="s">
+      <c r="D61" s="137" t="s">
         <v>87</v>
       </c>
       <c r="E61" s="121"/>
       <c r="F61" s="121"/>
       <c r="G61" s="121"/>
       <c r="H61" s="122"/>
-      <c r="I61" s="141">
+      <c r="I61" s="138">
         <v>12</v>
       </c>
-      <c r="J61" s="134">
+      <c r="J61" s="139">
         <v>45799</v>
       </c>
-      <c r="K61" s="134">
+      <c r="K61" s="139">
         <v>45800</v>
       </c>
-      <c r="L61" s="139"/>
+      <c r="L61" s="140"/>
       <c r="M61" s="100"/>
       <c r="N61" s="100"/>
       <c r="O61" s="101"/>
@@ -12379,7 +12379,7 @@
       <c r="I62" s="125"/>
       <c r="J62" s="125"/>
       <c r="K62" s="125"/>
-      <c r="L62" s="140"/>
+      <c r="L62" s="135"/>
       <c r="M62" s="102"/>
       <c r="N62" s="102"/>
       <c r="O62" s="103"/>
@@ -12501,26 +12501,26 @@
       <c r="B63" s="99"/>
       <c r="C63" s="108"/>
       <c r="D63" s="109"/>
-      <c r="E63" s="142" t="s">
+      <c r="E63" s="141" t="s">
         <v>89</v>
       </c>
-      <c r="F63" s="143"/>
-      <c r="G63" s="143"/>
-      <c r="H63" s="143"/>
-      <c r="I63" s="133">
+      <c r="F63" s="142"/>
+      <c r="G63" s="142"/>
+      <c r="H63" s="142"/>
+      <c r="I63" s="132">
         <v>8</v>
       </c>
-      <c r="J63" s="131">
+      <c r="J63" s="133">
         <v>45799</v>
       </c>
-      <c r="K63" s="131">
+      <c r="K63" s="133">
         <v>45799</v>
       </c>
-      <c r="L63" s="144"/>
-      <c r="M63" s="131"/>
-      <c r="N63" s="131"/>
-      <c r="O63" s="132"/>
-      <c r="P63" s="133">
+      <c r="L63" s="134"/>
+      <c r="M63" s="133"/>
+      <c r="N63" s="133"/>
+      <c r="O63" s="143"/>
+      <c r="P63" s="132">
         <v>0</v>
       </c>
       <c r="Q63" s="55"/>
@@ -12647,7 +12647,7 @@
       <c r="I64" s="130"/>
       <c r="J64" s="130"/>
       <c r="K64" s="130"/>
-      <c r="L64" s="140"/>
+      <c r="L64" s="135"/>
       <c r="M64" s="130"/>
       <c r="N64" s="130"/>
       <c r="O64" s="130"/>
@@ -12769,26 +12769,26 @@
       <c r="B65" s="99"/>
       <c r="C65" s="108"/>
       <c r="D65" s="110"/>
-      <c r="E65" s="142" t="s">
+      <c r="E65" s="141" t="s">
         <v>90</v>
       </c>
-      <c r="F65" s="143"/>
-      <c r="G65" s="143"/>
-      <c r="H65" s="143"/>
-      <c r="I65" s="133">
+      <c r="F65" s="142"/>
+      <c r="G65" s="142"/>
+      <c r="H65" s="142"/>
+      <c r="I65" s="132">
         <v>4</v>
       </c>
-      <c r="J65" s="131">
+      <c r="J65" s="133">
         <v>45800</v>
       </c>
-      <c r="K65" s="131">
+      <c r="K65" s="133">
         <v>45800</v>
       </c>
-      <c r="L65" s="144"/>
-      <c r="M65" s="131"/>
-      <c r="N65" s="131"/>
-      <c r="O65" s="132"/>
-      <c r="P65" s="133">
+      <c r="L65" s="134"/>
+      <c r="M65" s="133"/>
+      <c r="N65" s="133"/>
+      <c r="O65" s="143"/>
+      <c r="P65" s="132">
         <v>0</v>
       </c>
       <c r="Q65" s="55"/>
@@ -12915,7 +12915,7 @@
       <c r="I66" s="130"/>
       <c r="J66" s="130"/>
       <c r="K66" s="130"/>
-      <c r="L66" s="140"/>
+      <c r="L66" s="135"/>
       <c r="M66" s="130"/>
       <c r="N66" s="130"/>
       <c r="O66" s="130"/>
@@ -13037,18 +13037,18 @@
       <c r="B67" s="99"/>
       <c r="C67" s="108"/>
       <c r="D67" s="110"/>
-      <c r="E67" s="145"/>
+      <c r="E67" s="144"/>
       <c r="F67" s="121"/>
       <c r="G67" s="121"/>
       <c r="H67" s="122"/>
-      <c r="I67" s="133"/>
-      <c r="J67" s="131"/>
-      <c r="K67" s="131"/>
-      <c r="L67" s="144"/>
-      <c r="M67" s="131"/>
-      <c r="N67" s="131"/>
-      <c r="O67" s="132"/>
-      <c r="P67" s="133">
+      <c r="I67" s="132"/>
+      <c r="J67" s="133"/>
+      <c r="K67" s="133"/>
+      <c r="L67" s="134"/>
+      <c r="M67" s="133"/>
+      <c r="N67" s="133"/>
+      <c r="O67" s="143"/>
+      <c r="P67" s="132">
         <v>0</v>
       </c>
       <c r="Q67" s="55"/>
@@ -13175,7 +13175,7 @@
       <c r="I68" s="130"/>
       <c r="J68" s="130"/>
       <c r="K68" s="130"/>
-      <c r="L68" s="140"/>
+      <c r="L68" s="135"/>
       <c r="M68" s="130"/>
       <c r="N68" s="130"/>
       <c r="O68" s="130"/>
@@ -13296,23 +13296,23 @@
       <c r="A69" s="26"/>
       <c r="B69" s="99"/>
       <c r="C69" s="108"/>
-      <c r="D69" s="149" t="s">
+      <c r="D69" s="137" t="s">
         <v>91</v>
       </c>
       <c r="E69" s="121"/>
       <c r="F69" s="121"/>
       <c r="G69" s="121"/>
       <c r="H69" s="122"/>
-      <c r="I69" s="141">
+      <c r="I69" s="138">
         <v>52</v>
       </c>
-      <c r="J69" s="134">
+      <c r="J69" s="139">
         <v>45803</v>
       </c>
-      <c r="K69" s="134">
+      <c r="K69" s="139">
         <v>45811</v>
       </c>
-      <c r="L69" s="139"/>
+      <c r="L69" s="140"/>
       <c r="M69" s="100"/>
       <c r="N69" s="100"/>
       <c r="O69" s="101"/>
@@ -13441,7 +13441,7 @@
       <c r="I70" s="125"/>
       <c r="J70" s="125"/>
       <c r="K70" s="125"/>
-      <c r="L70" s="140"/>
+      <c r="L70" s="135"/>
       <c r="M70" s="102"/>
       <c r="N70" s="102"/>
       <c r="O70" s="103"/>
@@ -13563,26 +13563,26 @@
       <c r="B71" s="99"/>
       <c r="C71" s="108"/>
       <c r="D71" s="109"/>
-      <c r="E71" s="142" t="s">
+      <c r="E71" s="141" t="s">
         <v>96</v>
       </c>
-      <c r="F71" s="143"/>
-      <c r="G71" s="143"/>
-      <c r="H71" s="143"/>
-      <c r="I71" s="133">
+      <c r="F71" s="142"/>
+      <c r="G71" s="142"/>
+      <c r="H71" s="142"/>
+      <c r="I71" s="132">
         <v>26</v>
       </c>
-      <c r="J71" s="146">
+      <c r="J71" s="145">
         <v>45803</v>
       </c>
-      <c r="K71" s="131">
+      <c r="K71" s="133">
         <v>45806</v>
       </c>
-      <c r="L71" s="144"/>
-      <c r="M71" s="131"/>
-      <c r="N71" s="131"/>
-      <c r="O71" s="132"/>
-      <c r="P71" s="133">
+      <c r="L71" s="134"/>
+      <c r="M71" s="133"/>
+      <c r="N71" s="133"/>
+      <c r="O71" s="143"/>
+      <c r="P71" s="132">
         <v>0</v>
       </c>
       <c r="Q71" s="55"/>
@@ -13709,7 +13709,7 @@
       <c r="I72" s="130"/>
       <c r="J72" s="125"/>
       <c r="K72" s="130"/>
-      <c r="L72" s="140"/>
+      <c r="L72" s="135"/>
       <c r="M72" s="130"/>
       <c r="N72" s="130"/>
       <c r="O72" s="130"/>
@@ -13831,26 +13831,26 @@
       <c r="B73" s="99"/>
       <c r="C73" s="108"/>
       <c r="D73" s="110"/>
-      <c r="E73" s="142" t="s">
+      <c r="E73" s="141" t="s">
         <v>97</v>
       </c>
-      <c r="F73" s="143"/>
-      <c r="G73" s="143"/>
-      <c r="H73" s="143"/>
-      <c r="I73" s="133">
+      <c r="F73" s="142"/>
+      <c r="G73" s="142"/>
+      <c r="H73" s="142"/>
+      <c r="I73" s="132">
         <v>18</v>
       </c>
-      <c r="J73" s="131">
+      <c r="J73" s="133">
         <v>45806</v>
       </c>
-      <c r="K73" s="131">
+      <c r="K73" s="133">
         <v>45810</v>
       </c>
-      <c r="L73" s="144"/>
-      <c r="M73" s="131"/>
-      <c r="N73" s="131"/>
-      <c r="O73" s="132"/>
-      <c r="P73" s="133">
+      <c r="L73" s="134"/>
+      <c r="M73" s="133"/>
+      <c r="N73" s="133"/>
+      <c r="O73" s="143"/>
+      <c r="P73" s="132">
         <v>0</v>
       </c>
       <c r="Q73" s="55"/>
@@ -13977,7 +13977,7 @@
       <c r="I74" s="130"/>
       <c r="J74" s="130"/>
       <c r="K74" s="130"/>
-      <c r="L74" s="140"/>
+      <c r="L74" s="135"/>
       <c r="M74" s="130"/>
       <c r="N74" s="130"/>
       <c r="O74" s="130"/>
@@ -14099,26 +14099,26 @@
       <c r="B75" s="99"/>
       <c r="C75" s="108"/>
       <c r="D75" s="110"/>
-      <c r="E75" s="145" t="s">
+      <c r="E75" s="144" t="s">
         <v>98</v>
       </c>
       <c r="F75" s="121"/>
       <c r="G75" s="121"/>
       <c r="H75" s="122"/>
-      <c r="I75" s="133">
+      <c r="I75" s="132">
         <v>8</v>
       </c>
-      <c r="J75" s="131">
+      <c r="J75" s="133">
         <v>45811</v>
       </c>
-      <c r="K75" s="131">
+      <c r="K75" s="133">
         <v>45811</v>
       </c>
-      <c r="L75" s="144"/>
-      <c r="M75" s="131"/>
-      <c r="N75" s="131"/>
-      <c r="O75" s="132"/>
-      <c r="P75" s="133">
+      <c r="L75" s="134"/>
+      <c r="M75" s="133"/>
+      <c r="N75" s="133"/>
+      <c r="O75" s="143"/>
+      <c r="P75" s="132">
         <v>0</v>
       </c>
       <c r="Q75" s="55"/>
@@ -14245,7 +14245,7 @@
       <c r="I76" s="130"/>
       <c r="J76" s="130"/>
       <c r="K76" s="130"/>
-      <c r="L76" s="140"/>
+      <c r="L76" s="135"/>
       <c r="M76" s="130"/>
       <c r="N76" s="130"/>
       <c r="O76" s="130"/>
@@ -14366,23 +14366,23 @@
       <c r="A77" s="26"/>
       <c r="B77" s="99"/>
       <c r="C77" s="108"/>
-      <c r="D77" s="149" t="s">
+      <c r="D77" s="137" t="s">
         <v>93</v>
       </c>
       <c r="E77" s="121"/>
       <c r="F77" s="121"/>
       <c r="G77" s="121"/>
       <c r="H77" s="122"/>
-      <c r="I77" s="141">
+      <c r="I77" s="138">
         <v>8</v>
       </c>
-      <c r="J77" s="134">
+      <c r="J77" s="139">
         <v>45812</v>
       </c>
-      <c r="K77" s="134">
+      <c r="K77" s="139">
         <v>45812</v>
       </c>
-      <c r="L77" s="139"/>
+      <c r="L77" s="140"/>
       <c r="M77" s="100"/>
       <c r="N77" s="100"/>
       <c r="O77" s="101"/>
@@ -14511,7 +14511,7 @@
       <c r="I78" s="125"/>
       <c r="J78" s="125"/>
       <c r="K78" s="125"/>
-      <c r="L78" s="140"/>
+      <c r="L78" s="135"/>
       <c r="M78" s="102"/>
       <c r="N78" s="102"/>
       <c r="O78" s="103"/>
@@ -14633,26 +14633,26 @@
       <c r="B79" s="99"/>
       <c r="C79" s="26"/>
       <c r="D79" s="106"/>
-      <c r="E79" s="142" t="s">
+      <c r="E79" s="141" t="s">
         <v>93</v>
       </c>
-      <c r="F79" s="143"/>
-      <c r="G79" s="143"/>
-      <c r="H79" s="143"/>
-      <c r="I79" s="133">
+      <c r="F79" s="142"/>
+      <c r="G79" s="142"/>
+      <c r="H79" s="142"/>
+      <c r="I79" s="132">
         <v>4</v>
       </c>
-      <c r="J79" s="131">
+      <c r="J79" s="133">
         <v>45812</v>
       </c>
-      <c r="K79" s="131">
+      <c r="K79" s="133">
         <v>45812</v>
       </c>
-      <c r="L79" s="144"/>
-      <c r="M79" s="131"/>
-      <c r="N79" s="131"/>
-      <c r="O79" s="132"/>
-      <c r="P79" s="133">
+      <c r="L79" s="134"/>
+      <c r="M79" s="133"/>
+      <c r="N79" s="133"/>
+      <c r="O79" s="143"/>
+      <c r="P79" s="132">
         <v>0</v>
       </c>
       <c r="Q79" s="55"/>
@@ -14779,7 +14779,7 @@
       <c r="I80" s="130"/>
       <c r="J80" s="130"/>
       <c r="K80" s="130"/>
-      <c r="L80" s="140"/>
+      <c r="L80" s="135"/>
       <c r="M80" s="130"/>
       <c r="N80" s="130"/>
       <c r="O80" s="130"/>
@@ -14901,26 +14901,26 @@
       <c r="B81" s="99"/>
       <c r="C81" s="26"/>
       <c r="D81" s="99"/>
-      <c r="E81" s="142" t="s">
+      <c r="E81" s="141" t="s">
         <v>94</v>
       </c>
-      <c r="F81" s="143"/>
-      <c r="G81" s="143"/>
-      <c r="H81" s="143"/>
-      <c r="I81" s="133">
+      <c r="F81" s="142"/>
+      <c r="G81" s="142"/>
+      <c r="H81" s="142"/>
+      <c r="I81" s="132">
         <v>4</v>
       </c>
-      <c r="J81" s="131">
+      <c r="J81" s="133">
         <v>45812</v>
       </c>
-      <c r="K81" s="131">
+      <c r="K81" s="133">
         <v>45812</v>
       </c>
-      <c r="L81" s="144"/>
-      <c r="M81" s="131"/>
-      <c r="N81" s="131"/>
-      <c r="O81" s="132"/>
-      <c r="P81" s="133">
+      <c r="L81" s="134"/>
+      <c r="M81" s="133"/>
+      <c r="N81" s="133"/>
+      <c r="O81" s="143"/>
+      <c r="P81" s="132">
         <v>0</v>
       </c>
       <c r="Q81" s="55"/>
@@ -15047,7 +15047,7 @@
       <c r="I82" s="130"/>
       <c r="J82" s="130"/>
       <c r="K82" s="130"/>
-      <c r="L82" s="140"/>
+      <c r="L82" s="135"/>
       <c r="M82" s="130"/>
       <c r="N82" s="130"/>
       <c r="O82" s="130"/>
@@ -15169,18 +15169,18 @@
       <c r="B83" s="99"/>
       <c r="C83" s="26"/>
       <c r="D83" s="99"/>
-      <c r="E83" s="145"/>
+      <c r="E83" s="144"/>
       <c r="F83" s="121"/>
       <c r="G83" s="121"/>
       <c r="H83" s="122"/>
-      <c r="I83" s="133"/>
-      <c r="J83" s="131"/>
-      <c r="K83" s="131"/>
-      <c r="L83" s="144"/>
-      <c r="M83" s="131"/>
-      <c r="N83" s="131"/>
-      <c r="O83" s="132"/>
-      <c r="P83" s="133">
+      <c r="I83" s="132"/>
+      <c r="J83" s="133"/>
+      <c r="K83" s="133"/>
+      <c r="L83" s="134"/>
+      <c r="M83" s="133"/>
+      <c r="N83" s="133"/>
+      <c r="O83" s="143"/>
+      <c r="P83" s="132">
         <v>0</v>
       </c>
       <c r="Q83" s="55"/>
@@ -15307,7 +15307,7 @@
       <c r="I84" s="130"/>
       <c r="J84" s="130"/>
       <c r="K84" s="130"/>
-      <c r="L84" s="140"/>
+      <c r="L84" s="135"/>
       <c r="M84" s="130"/>
       <c r="N84" s="130"/>
       <c r="O84" s="130"/>
@@ -15426,45 +15426,252 @@
     </row>
   </sheetData>
   <mergeCells count="309">
-    <mergeCell ref="E41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="O41:O42"/>
-    <mergeCell ref="P41:P42"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="J63:J64"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="L63:L64"/>
-    <mergeCell ref="M63:M64"/>
-    <mergeCell ref="D51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="E53:H54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="L53:L54"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="O67:O68"/>
-    <mergeCell ref="E67:H68"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="J67:J68"/>
-    <mergeCell ref="K67:K68"/>
-    <mergeCell ref="L67:L68"/>
-    <mergeCell ref="M67:M68"/>
-    <mergeCell ref="N67:N68"/>
-    <mergeCell ref="O65:O66"/>
-    <mergeCell ref="E65:H66"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="J65:J66"/>
-    <mergeCell ref="K65:K66"/>
-    <mergeCell ref="L65:L66"/>
-    <mergeCell ref="M65:M66"/>
-    <mergeCell ref="N65:N66"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="P53:P54"/>
+    <mergeCell ref="J61:J62"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="C59:H60"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="L61:L62"/>
+    <mergeCell ref="O55:O56"/>
+    <mergeCell ref="P55:P56"/>
+    <mergeCell ref="E55:H56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="N55:N56"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="P49:P50"/>
+    <mergeCell ref="E49:H50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="O47:O48"/>
+    <mergeCell ref="P47:P48"/>
+    <mergeCell ref="E47:H48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="N47:N48"/>
+    <mergeCell ref="P45:P46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="D43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="E45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="C31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="N35:N36"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="D33:H34"/>
+    <mergeCell ref="E35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="E39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="E37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="D27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="P29:P30"/>
+    <mergeCell ref="D29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="C23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="D25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="C19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="D21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="D15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="D17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="D11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="D13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="CZ4:DV4"/>
+    <mergeCell ref="B7:H8"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="C9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="N75:N76"/>
+    <mergeCell ref="L79:L80"/>
+    <mergeCell ref="M79:M80"/>
+    <mergeCell ref="N79:N80"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="P79:P80"/>
+    <mergeCell ref="Q4:AP4"/>
+    <mergeCell ref="AQ4:BU4"/>
+    <mergeCell ref="BV4:CY4"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="O39:O40"/>
+    <mergeCell ref="P39:P40"/>
+    <mergeCell ref="P35:P36"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="P37:P38"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="O45:O46"/>
+    <mergeCell ref="D69:H70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="J69:J70"/>
+    <mergeCell ref="K69:K70"/>
+    <mergeCell ref="L69:L70"/>
+    <mergeCell ref="E71:H72"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="O73:O74"/>
+    <mergeCell ref="P73:P74"/>
+    <mergeCell ref="E73:H74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="J73:J74"/>
+    <mergeCell ref="K73:K74"/>
+    <mergeCell ref="L73:L74"/>
+    <mergeCell ref="M73:M74"/>
+    <mergeCell ref="N73:N74"/>
+    <mergeCell ref="L71:L72"/>
+    <mergeCell ref="M71:M72"/>
+    <mergeCell ref="N71:N72"/>
+    <mergeCell ref="O71:O72"/>
+    <mergeCell ref="P71:P72"/>
+    <mergeCell ref="J71:J72"/>
+    <mergeCell ref="K71:K72"/>
+    <mergeCell ref="O83:O84"/>
+    <mergeCell ref="P83:P84"/>
+    <mergeCell ref="E83:H84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="J83:J84"/>
+    <mergeCell ref="K83:K84"/>
+    <mergeCell ref="L83:L84"/>
+    <mergeCell ref="M83:M84"/>
+    <mergeCell ref="N83:N84"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="E81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="J81:J82"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="L81:L82"/>
+    <mergeCell ref="M81:M82"/>
+    <mergeCell ref="N81:N82"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="K79:K80"/>
+    <mergeCell ref="D77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="J77:J78"/>
+    <mergeCell ref="K77:K78"/>
+    <mergeCell ref="L77:L78"/>
+    <mergeCell ref="E79:H80"/>
+    <mergeCell ref="I79:I80"/>
     <mergeCell ref="O75:O76"/>
     <mergeCell ref="P75:P76"/>
     <mergeCell ref="E75:H76"/>
@@ -15489,252 +15696,45 @@
     <mergeCell ref="P63:P64"/>
     <mergeCell ref="D61:H62"/>
     <mergeCell ref="E63:H64"/>
-    <mergeCell ref="J79:J80"/>
-    <mergeCell ref="K79:K80"/>
-    <mergeCell ref="D77:H78"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="J77:J78"/>
-    <mergeCell ref="K77:K78"/>
-    <mergeCell ref="L77:L78"/>
-    <mergeCell ref="E79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="E81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="J81:J82"/>
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="L81:L82"/>
-    <mergeCell ref="M81:M82"/>
-    <mergeCell ref="N81:N82"/>
-    <mergeCell ref="O83:O84"/>
-    <mergeCell ref="P83:P84"/>
-    <mergeCell ref="E83:H84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="J83:J84"/>
-    <mergeCell ref="K83:K84"/>
-    <mergeCell ref="L83:L84"/>
-    <mergeCell ref="M83:M84"/>
-    <mergeCell ref="N83:N84"/>
-    <mergeCell ref="D69:H70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="J69:J70"/>
-    <mergeCell ref="K69:K70"/>
-    <mergeCell ref="L69:L70"/>
-    <mergeCell ref="E71:H72"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="O73:O74"/>
-    <mergeCell ref="P73:P74"/>
-    <mergeCell ref="E73:H74"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="J73:J74"/>
-    <mergeCell ref="K73:K74"/>
-    <mergeCell ref="L73:L74"/>
-    <mergeCell ref="M73:M74"/>
-    <mergeCell ref="N73:N74"/>
-    <mergeCell ref="L71:L72"/>
-    <mergeCell ref="M71:M72"/>
-    <mergeCell ref="N71:N72"/>
-    <mergeCell ref="O71:O72"/>
-    <mergeCell ref="P71:P72"/>
-    <mergeCell ref="J71:J72"/>
-    <mergeCell ref="K71:K72"/>
-    <mergeCell ref="N75:N76"/>
-    <mergeCell ref="L79:L80"/>
-    <mergeCell ref="M79:M80"/>
-    <mergeCell ref="N79:N80"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="P79:P80"/>
-    <mergeCell ref="Q4:AP4"/>
-    <mergeCell ref="AQ4:BU4"/>
-    <mergeCell ref="BV4:CY4"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="P27:P28"/>
-    <mergeCell ref="O39:O40"/>
-    <mergeCell ref="P39:P40"/>
-    <mergeCell ref="P35:P36"/>
-    <mergeCell ref="O37:O38"/>
-    <mergeCell ref="P37:P38"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="N45:N46"/>
-    <mergeCell ref="O45:O46"/>
-    <mergeCell ref="CZ4:DV4"/>
-    <mergeCell ref="B7:H8"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="C9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="D11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="D13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="D15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="D17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="C19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="D21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="P25:P26"/>
-    <mergeCell ref="C23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="D25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="D27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="P29:P30"/>
-    <mergeCell ref="D29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="E39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="E37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="C31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="N35:N36"/>
-    <mergeCell ref="O35:O36"/>
-    <mergeCell ref="D33:H34"/>
-    <mergeCell ref="E35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="P45:P46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="D43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="E45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="O47:O48"/>
-    <mergeCell ref="P47:P48"/>
-    <mergeCell ref="E47:H48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="N47:N48"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="P49:P50"/>
-    <mergeCell ref="E49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="N53:N54"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="P53:P54"/>
-    <mergeCell ref="J61:J62"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="C59:H60"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="L61:L62"/>
-    <mergeCell ref="O55:O56"/>
-    <mergeCell ref="P55:P56"/>
-    <mergeCell ref="E55:H56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="L55:L56"/>
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="N55:N56"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="O67:O68"/>
+    <mergeCell ref="E67:H68"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="J67:J68"/>
+    <mergeCell ref="K67:K68"/>
+    <mergeCell ref="L67:L68"/>
+    <mergeCell ref="M67:M68"/>
+    <mergeCell ref="N67:N68"/>
+    <mergeCell ref="O65:O66"/>
+    <mergeCell ref="E65:H66"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="J65:J66"/>
+    <mergeCell ref="K65:K66"/>
+    <mergeCell ref="L65:L66"/>
+    <mergeCell ref="M65:M66"/>
+    <mergeCell ref="N65:N66"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="J63:J64"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="L63:L64"/>
+    <mergeCell ref="M63:M64"/>
+    <mergeCell ref="D51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="E53:H54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="E41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="P41:P42"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/DOJT｜WBS _ PGコース MVC編.xlsx
+++ b/docs/DOJT｜WBS _ PGコース MVC編.xlsx
@@ -1330,8 +1330,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1349,90 +1347,55 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="56" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="180" fontId="5" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="56" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="5" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="56" fontId="5" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="56" fontId="5" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="56" fontId="5" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1442,17 +1405,45 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1461,12 +1452,21 @@
     <xf numFmtId="176" fontId="5" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1708,35 +1708,35 @@
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="120" t="s">
+      <c r="B2" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="126" t="s">
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="127"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="126" t="s">
+      <c r="G2" s="125"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="127"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="129" t="s">
+      <c r="J2" s="125"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="129" t="s">
+      <c r="M2" s="127" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="20.25" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="123"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="125"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="123"/>
       <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1755,8 +1755,8 @@
       <c r="K3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="130"/>
-      <c r="M3" s="130"/>
+      <c r="L3" s="128"/>
+      <c r="M3" s="128"/>
     </row>
     <row r="4" spans="1:13" ht="20.25" customHeight="1">
       <c r="A4" s="3"/>
@@ -3549,8 +3549,8 @@
   <dimension ref="A1:DW84"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AP47" sqref="AP47"/>
+      <pane ySplit="8" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E47" sqref="E47:H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3980,124 +3980,124 @@
       <c r="N4" s="27"/>
       <c r="O4" s="27"/>
       <c r="P4" s="27"/>
-      <c r="Q4" s="146" t="s">
+      <c r="Q4" s="164" t="s">
         <v>63</v>
       </c>
-      <c r="R4" s="127"/>
-      <c r="S4" s="127"/>
-      <c r="T4" s="127"/>
-      <c r="U4" s="127"/>
-      <c r="V4" s="127"/>
-      <c r="W4" s="127"/>
-      <c r="X4" s="127"/>
-      <c r="Y4" s="127"/>
-      <c r="Z4" s="127"/>
-      <c r="AA4" s="127"/>
-      <c r="AB4" s="127"/>
-      <c r="AC4" s="127"/>
-      <c r="AD4" s="127"/>
-      <c r="AE4" s="127"/>
-      <c r="AF4" s="127"/>
-      <c r="AG4" s="127"/>
-      <c r="AH4" s="127"/>
-      <c r="AI4" s="127"/>
-      <c r="AJ4" s="127"/>
-      <c r="AK4" s="127"/>
-      <c r="AL4" s="127"/>
-      <c r="AM4" s="127"/>
-      <c r="AN4" s="127"/>
-      <c r="AO4" s="127"/>
-      <c r="AP4" s="128"/>
-      <c r="AQ4" s="146" t="s">
+      <c r="R4" s="125"/>
+      <c r="S4" s="125"/>
+      <c r="T4" s="125"/>
+      <c r="U4" s="125"/>
+      <c r="V4" s="125"/>
+      <c r="W4" s="125"/>
+      <c r="X4" s="125"/>
+      <c r="Y4" s="125"/>
+      <c r="Z4" s="125"/>
+      <c r="AA4" s="125"/>
+      <c r="AB4" s="125"/>
+      <c r="AC4" s="125"/>
+      <c r="AD4" s="125"/>
+      <c r="AE4" s="125"/>
+      <c r="AF4" s="125"/>
+      <c r="AG4" s="125"/>
+      <c r="AH4" s="125"/>
+      <c r="AI4" s="125"/>
+      <c r="AJ4" s="125"/>
+      <c r="AK4" s="125"/>
+      <c r="AL4" s="125"/>
+      <c r="AM4" s="125"/>
+      <c r="AN4" s="125"/>
+      <c r="AO4" s="125"/>
+      <c r="AP4" s="126"/>
+      <c r="AQ4" s="164" t="s">
         <v>64</v>
       </c>
-      <c r="AR4" s="127"/>
-      <c r="AS4" s="127"/>
-      <c r="AT4" s="127"/>
-      <c r="AU4" s="127"/>
-      <c r="AV4" s="127"/>
-      <c r="AW4" s="127"/>
-      <c r="AX4" s="127"/>
-      <c r="AY4" s="127"/>
-      <c r="AZ4" s="127"/>
-      <c r="BA4" s="127"/>
-      <c r="BB4" s="127"/>
-      <c r="BC4" s="127"/>
-      <c r="BD4" s="127"/>
-      <c r="BE4" s="127"/>
-      <c r="BF4" s="127"/>
-      <c r="BG4" s="127"/>
-      <c r="BH4" s="127"/>
-      <c r="BI4" s="127"/>
-      <c r="BJ4" s="127"/>
-      <c r="BK4" s="127"/>
-      <c r="BL4" s="127"/>
-      <c r="BM4" s="127"/>
-      <c r="BN4" s="127"/>
-      <c r="BO4" s="127"/>
-      <c r="BP4" s="127"/>
-      <c r="BQ4" s="127"/>
-      <c r="BR4" s="127"/>
-      <c r="BS4" s="127"/>
-      <c r="BT4" s="127"/>
-      <c r="BU4" s="128"/>
-      <c r="BV4" s="146" t="s">
+      <c r="AR4" s="125"/>
+      <c r="AS4" s="125"/>
+      <c r="AT4" s="125"/>
+      <c r="AU4" s="125"/>
+      <c r="AV4" s="125"/>
+      <c r="AW4" s="125"/>
+      <c r="AX4" s="125"/>
+      <c r="AY4" s="125"/>
+      <c r="AZ4" s="125"/>
+      <c r="BA4" s="125"/>
+      <c r="BB4" s="125"/>
+      <c r="BC4" s="125"/>
+      <c r="BD4" s="125"/>
+      <c r="BE4" s="125"/>
+      <c r="BF4" s="125"/>
+      <c r="BG4" s="125"/>
+      <c r="BH4" s="125"/>
+      <c r="BI4" s="125"/>
+      <c r="BJ4" s="125"/>
+      <c r="BK4" s="125"/>
+      <c r="BL4" s="125"/>
+      <c r="BM4" s="125"/>
+      <c r="BN4" s="125"/>
+      <c r="BO4" s="125"/>
+      <c r="BP4" s="125"/>
+      <c r="BQ4" s="125"/>
+      <c r="BR4" s="125"/>
+      <c r="BS4" s="125"/>
+      <c r="BT4" s="125"/>
+      <c r="BU4" s="126"/>
+      <c r="BV4" s="164" t="s">
         <v>65</v>
       </c>
-      <c r="BW4" s="127"/>
-      <c r="BX4" s="127"/>
-      <c r="BY4" s="127"/>
-      <c r="BZ4" s="127"/>
-      <c r="CA4" s="127"/>
-      <c r="CB4" s="127"/>
-      <c r="CC4" s="127"/>
-      <c r="CD4" s="127"/>
-      <c r="CE4" s="127"/>
-      <c r="CF4" s="127"/>
-      <c r="CG4" s="127"/>
-      <c r="CH4" s="127"/>
-      <c r="CI4" s="127"/>
-      <c r="CJ4" s="127"/>
-      <c r="CK4" s="127"/>
-      <c r="CL4" s="127"/>
-      <c r="CM4" s="127"/>
-      <c r="CN4" s="127"/>
-      <c r="CO4" s="127"/>
-      <c r="CP4" s="127"/>
-      <c r="CQ4" s="127"/>
-      <c r="CR4" s="127"/>
-      <c r="CS4" s="127"/>
-      <c r="CT4" s="127"/>
-      <c r="CU4" s="127"/>
-      <c r="CV4" s="127"/>
-      <c r="CW4" s="127"/>
-      <c r="CX4" s="127"/>
-      <c r="CY4" s="128"/>
-      <c r="CZ4" s="146" t="s">
+      <c r="BW4" s="125"/>
+      <c r="BX4" s="125"/>
+      <c r="BY4" s="125"/>
+      <c r="BZ4" s="125"/>
+      <c r="CA4" s="125"/>
+      <c r="CB4" s="125"/>
+      <c r="CC4" s="125"/>
+      <c r="CD4" s="125"/>
+      <c r="CE4" s="125"/>
+      <c r="CF4" s="125"/>
+      <c r="CG4" s="125"/>
+      <c r="CH4" s="125"/>
+      <c r="CI4" s="125"/>
+      <c r="CJ4" s="125"/>
+      <c r="CK4" s="125"/>
+      <c r="CL4" s="125"/>
+      <c r="CM4" s="125"/>
+      <c r="CN4" s="125"/>
+      <c r="CO4" s="125"/>
+      <c r="CP4" s="125"/>
+      <c r="CQ4" s="125"/>
+      <c r="CR4" s="125"/>
+      <c r="CS4" s="125"/>
+      <c r="CT4" s="125"/>
+      <c r="CU4" s="125"/>
+      <c r="CV4" s="125"/>
+      <c r="CW4" s="125"/>
+      <c r="CX4" s="125"/>
+      <c r="CY4" s="126"/>
+      <c r="CZ4" s="164" t="s">
         <v>66</v>
       </c>
-      <c r="DA4" s="127"/>
-      <c r="DB4" s="127"/>
-      <c r="DC4" s="127"/>
-      <c r="DD4" s="127"/>
-      <c r="DE4" s="127"/>
-      <c r="DF4" s="127"/>
-      <c r="DG4" s="127"/>
-      <c r="DH4" s="127"/>
-      <c r="DI4" s="127"/>
-      <c r="DJ4" s="127"/>
-      <c r="DK4" s="127"/>
-      <c r="DL4" s="127"/>
-      <c r="DM4" s="127"/>
-      <c r="DN4" s="127"/>
-      <c r="DO4" s="127"/>
-      <c r="DP4" s="127"/>
-      <c r="DQ4" s="127"/>
-      <c r="DR4" s="127"/>
-      <c r="DS4" s="127"/>
-      <c r="DT4" s="127"/>
-      <c r="DU4" s="127"/>
-      <c r="DV4" s="128"/>
+      <c r="DA4" s="125"/>
+      <c r="DB4" s="125"/>
+      <c r="DC4" s="125"/>
+      <c r="DD4" s="125"/>
+      <c r="DE4" s="125"/>
+      <c r="DF4" s="125"/>
+      <c r="DG4" s="125"/>
+      <c r="DH4" s="125"/>
+      <c r="DI4" s="125"/>
+      <c r="DJ4" s="125"/>
+      <c r="DK4" s="125"/>
+      <c r="DL4" s="125"/>
+      <c r="DM4" s="125"/>
+      <c r="DN4" s="125"/>
+      <c r="DO4" s="125"/>
+      <c r="DP4" s="125"/>
+      <c r="DQ4" s="125"/>
+      <c r="DR4" s="125"/>
+      <c r="DS4" s="125"/>
+      <c r="DT4" s="125"/>
+      <c r="DU4" s="125"/>
+      <c r="DV4" s="126"/>
       <c r="DW4" s="34"/>
     </row>
     <row r="5" spans="1:127">
@@ -4910,29 +4910,29 @@
     </row>
     <row r="7" spans="1:127" ht="19.5">
       <c r="A7" s="26"/>
-      <c r="B7" s="154" t="s">
+      <c r="B7" s="165" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="126" t="s">
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="127"/>
-      <c r="K7" s="128"/>
-      <c r="L7" s="126" t="s">
+      <c r="J7" s="125"/>
+      <c r="K7" s="126"/>
+      <c r="L7" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="M7" s="127"/>
-      <c r="N7" s="128"/>
-      <c r="O7" s="129" t="s">
+      <c r="M7" s="125"/>
+      <c r="N7" s="126"/>
+      <c r="O7" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="P7" s="129" t="s">
+      <c r="P7" s="127" t="s">
         <v>4</v>
       </c>
       <c r="Q7" s="42"/>
@@ -5049,13 +5049,13 @@
     </row>
     <row r="8" spans="1:127" ht="19.5">
       <c r="A8" s="26"/>
-      <c r="B8" s="123"/>
-      <c r="C8" s="124"/>
-      <c r="D8" s="124"/>
-      <c r="E8" s="124"/>
-      <c r="F8" s="124"/>
-      <c r="G8" s="124"/>
-      <c r="H8" s="125"/>
+      <c r="B8" s="121"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="123"/>
       <c r="I8" s="2" t="s">
         <v>5</v>
       </c>
@@ -5074,8 +5074,8 @@
       <c r="N8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O8" s="130"/>
-      <c r="P8" s="130"/>
+      <c r="O8" s="128"/>
+      <c r="P8" s="128"/>
       <c r="Q8" s="46"/>
       <c r="R8" s="47"/>
       <c r="S8" s="47"/>
@@ -5191,33 +5191,33 @@
     <row r="9" spans="1:127" ht="12" customHeight="1">
       <c r="A9" s="26"/>
       <c r="B9" s="50"/>
-      <c r="C9" s="156" t="s">
+      <c r="C9" s="158" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="157"/>
-      <c r="E9" s="157"/>
-      <c r="F9" s="157"/>
-      <c r="G9" s="157"/>
-      <c r="H9" s="157"/>
-      <c r="I9" s="159">
+      <c r="D9" s="134"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="134"/>
+      <c r="H9" s="134"/>
+      <c r="I9" s="160">
         <v>1</v>
       </c>
-      <c r="J9" s="155">
+      <c r="J9" s="161">
         <f>J11</f>
         <v>45787</v>
       </c>
-      <c r="K9" s="155">
+      <c r="K9" s="161">
         <f>K17</f>
         <v>45787</v>
       </c>
-      <c r="L9" s="159">
+      <c r="L9" s="160">
         <v>1.3</v>
       </c>
-      <c r="M9" s="155">
+      <c r="M9" s="161">
         <f>M11</f>
         <v>45787</v>
       </c>
-      <c r="N9" s="155">
+      <c r="N9" s="161">
         <f>N17</f>
         <v>45790</v>
       </c>
@@ -5340,18 +5340,18 @@
     <row r="10" spans="1:127" ht="12" customHeight="1">
       <c r="A10" s="26"/>
       <c r="B10" s="50"/>
-      <c r="C10" s="158"/>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
-      <c r="F10" s="124"/>
-      <c r="G10" s="124"/>
-      <c r="H10" s="124"/>
-      <c r="I10" s="130"/>
-      <c r="J10" s="125"/>
-      <c r="K10" s="125"/>
-      <c r="L10" s="130"/>
-      <c r="M10" s="125"/>
-      <c r="N10" s="125"/>
+      <c r="C10" s="135"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="123"/>
+      <c r="L10" s="128"/>
+      <c r="M10" s="123"/>
+      <c r="N10" s="123"/>
       <c r="O10" s="53"/>
       <c r="P10" s="53"/>
       <c r="Q10" s="46"/>
@@ -5470,37 +5470,37 @@
       <c r="A11" s="26"/>
       <c r="B11" s="50"/>
       <c r="C11" s="54"/>
-      <c r="D11" s="160" t="s">
+      <c r="D11" s="162" t="s">
         <v>76</v>
       </c>
-      <c r="E11" s="121"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="147">
+      <c r="E11" s="119"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="119"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="155">
         <v>0.1</v>
       </c>
-      <c r="J11" s="161">
+      <c r="J11" s="163">
         <v>45787</v>
       </c>
-      <c r="K11" s="161">
+      <c r="K11" s="163">
         <f>$J$11</f>
         <v>45787</v>
       </c>
-      <c r="L11" s="147">
+      <c r="L11" s="155">
         <v>0.1</v>
       </c>
-      <c r="M11" s="161">
+      <c r="M11" s="163">
         <v>45787</v>
       </c>
-      <c r="N11" s="161">
+      <c r="N11" s="163">
         <f>$J$11</f>
         <v>45787</v>
       </c>
-      <c r="O11" s="147" t="s">
+      <c r="O11" s="155" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="147">
+      <c r="P11" s="155">
         <v>100</v>
       </c>
       <c r="Q11" s="55"/>
@@ -5619,19 +5619,19 @@
       <c r="A12" s="26"/>
       <c r="B12" s="50"/>
       <c r="C12" s="63"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="124"/>
-      <c r="F12" s="124"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="130"/>
-      <c r="J12" s="130"/>
-      <c r="K12" s="130"/>
-      <c r="L12" s="130"/>
-      <c r="M12" s="130"/>
-      <c r="N12" s="130"/>
-      <c r="O12" s="130"/>
-      <c r="P12" s="130"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="128"/>
+      <c r="K12" s="128"/>
+      <c r="L12" s="128"/>
+      <c r="M12" s="128"/>
+      <c r="N12" s="128"/>
+      <c r="O12" s="128"/>
+      <c r="P12" s="128"/>
       <c r="Q12" s="55"/>
       <c r="R12" s="55"/>
       <c r="S12" s="55"/>
@@ -5748,39 +5748,39 @@
       <c r="A13" s="26"/>
       <c r="B13" s="50"/>
       <c r="C13" s="63"/>
-      <c r="D13" s="160" t="s">
+      <c r="D13" s="162" t="s">
         <v>78</v>
       </c>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="147">
+      <c r="E13" s="119"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="155">
         <v>0.1</v>
       </c>
-      <c r="J13" s="161">
+      <c r="J13" s="163">
         <f t="shared" ref="J13:K13" si="1">$J$11</f>
         <v>45787</v>
       </c>
-      <c r="K13" s="161">
+      <c r="K13" s="163">
         <f t="shared" si="1"/>
         <v>45787</v>
       </c>
-      <c r="L13" s="147">
+      <c r="L13" s="155">
         <v>0.1</v>
       </c>
-      <c r="M13" s="161">
+      <c r="M13" s="163">
         <f t="shared" ref="M13:N13" si="2">$J$11</f>
         <v>45787</v>
       </c>
-      <c r="N13" s="161">
+      <c r="N13" s="163">
         <f t="shared" si="2"/>
         <v>45787</v>
       </c>
-      <c r="O13" s="147" t="s">
+      <c r="O13" s="155" t="s">
         <v>77</v>
       </c>
-      <c r="P13" s="147">
+      <c r="P13" s="155">
         <v>100</v>
       </c>
       <c r="Q13" s="55"/>
@@ -5899,19 +5899,19 @@
       <c r="A14" s="26"/>
       <c r="B14" s="50"/>
       <c r="C14" s="63"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="124"/>
-      <c r="F14" s="124"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="130"/>
-      <c r="J14" s="130"/>
-      <c r="K14" s="130"/>
-      <c r="L14" s="130"/>
-      <c r="M14" s="130"/>
-      <c r="N14" s="130"/>
-      <c r="O14" s="130"/>
-      <c r="P14" s="130"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="128"/>
+      <c r="J14" s="128"/>
+      <c r="K14" s="128"/>
+      <c r="L14" s="128"/>
+      <c r="M14" s="128"/>
+      <c r="N14" s="128"/>
+      <c r="O14" s="128"/>
+      <c r="P14" s="128"/>
       <c r="Q14" s="55"/>
       <c r="R14" s="55"/>
       <c r="S14" s="55"/>
@@ -6028,39 +6028,39 @@
       <c r="A15" s="26"/>
       <c r="B15" s="50"/>
       <c r="C15" s="63"/>
-      <c r="D15" s="160" t="s">
+      <c r="D15" s="162" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="121"/>
-      <c r="F15" s="121"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="147">
+      <c r="E15" s="119"/>
+      <c r="F15" s="119"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="155">
         <v>0.1</v>
       </c>
-      <c r="J15" s="161">
+      <c r="J15" s="163">
         <f t="shared" ref="J15:K15" si="3">$J$11</f>
         <v>45787</v>
       </c>
-      <c r="K15" s="161">
+      <c r="K15" s="163">
         <f t="shared" si="3"/>
         <v>45787</v>
       </c>
-      <c r="L15" s="147">
+      <c r="L15" s="155">
         <v>0.1</v>
       </c>
-      <c r="M15" s="161">
+      <c r="M15" s="163">
         <f t="shared" ref="M15:N15" si="4">$J$11</f>
         <v>45787</v>
       </c>
-      <c r="N15" s="161">
+      <c r="N15" s="163">
         <f t="shared" si="4"/>
         <v>45787</v>
       </c>
-      <c r="O15" s="147" t="s">
+      <c r="O15" s="155" t="s">
         <v>77</v>
       </c>
-      <c r="P15" s="147">
+      <c r="P15" s="155">
         <v>100</v>
       </c>
       <c r="Q15" s="55"/>
@@ -6179,19 +6179,19 @@
       <c r="A16" s="26"/>
       <c r="B16" s="50"/>
       <c r="C16" s="63"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="124"/>
-      <c r="F16" s="124"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="130"/>
-      <c r="K16" s="130"/>
-      <c r="L16" s="130"/>
-      <c r="M16" s="130"/>
-      <c r="N16" s="130"/>
-      <c r="O16" s="130"/>
-      <c r="P16" s="130"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="123"/>
+      <c r="I16" s="128"/>
+      <c r="J16" s="128"/>
+      <c r="K16" s="128"/>
+      <c r="L16" s="128"/>
+      <c r="M16" s="128"/>
+      <c r="N16" s="128"/>
+      <c r="O16" s="128"/>
+      <c r="P16" s="128"/>
       <c r="Q16" s="55"/>
       <c r="R16" s="55"/>
       <c r="S16" s="55"/>
@@ -6308,37 +6308,37 @@
       <c r="A17" s="26"/>
       <c r="B17" s="50"/>
       <c r="C17" s="63"/>
-      <c r="D17" s="160" t="s">
+      <c r="D17" s="162" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="121"/>
-      <c r="F17" s="121"/>
-      <c r="G17" s="121"/>
-      <c r="H17" s="122"/>
-      <c r="I17" s="147">
+      <c r="E17" s="119"/>
+      <c r="F17" s="119"/>
+      <c r="G17" s="119"/>
+      <c r="H17" s="120"/>
+      <c r="I17" s="155">
         <v>0.7</v>
       </c>
-      <c r="J17" s="161">
+      <c r="J17" s="163">
         <f t="shared" ref="J17:K17" si="5">$J$11</f>
         <v>45787</v>
       </c>
-      <c r="K17" s="161">
+      <c r="K17" s="163">
         <f t="shared" si="5"/>
         <v>45787</v>
       </c>
-      <c r="L17" s="147">
+      <c r="L17" s="155">
         <v>3</v>
       </c>
-      <c r="M17" s="161">
+      <c r="M17" s="163">
         <v>45787</v>
       </c>
-      <c r="N17" s="161">
+      <c r="N17" s="163">
         <v>45790</v>
       </c>
-      <c r="O17" s="147" t="s">
+      <c r="O17" s="155" t="s">
         <v>77</v>
       </c>
-      <c r="P17" s="147">
+      <c r="P17" s="155">
         <v>100</v>
       </c>
       <c r="Q17" s="55"/>
@@ -6457,19 +6457,19 @@
       <c r="A18" s="26"/>
       <c r="B18" s="50"/>
       <c r="C18" s="64"/>
-      <c r="D18" s="123"/>
-      <c r="E18" s="124"/>
-      <c r="F18" s="124"/>
-      <c r="G18" s="124"/>
-      <c r="H18" s="125"/>
-      <c r="I18" s="130"/>
-      <c r="J18" s="130"/>
-      <c r="K18" s="130"/>
-      <c r="L18" s="130"/>
-      <c r="M18" s="130"/>
-      <c r="N18" s="130"/>
-      <c r="O18" s="130"/>
-      <c r="P18" s="130"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="122"/>
+      <c r="F18" s="122"/>
+      <c r="G18" s="122"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="128"/>
+      <c r="J18" s="128"/>
+      <c r="K18" s="128"/>
+      <c r="L18" s="128"/>
+      <c r="M18" s="128"/>
+      <c r="N18" s="128"/>
+      <c r="O18" s="128"/>
+      <c r="P18" s="128"/>
       <c r="Q18" s="65"/>
       <c r="R18" s="65"/>
       <c r="S18" s="65"/>
@@ -6585,24 +6585,24 @@
     <row r="19" spans="1:127" ht="12" customHeight="1">
       <c r="A19" s="26"/>
       <c r="B19" s="50"/>
-      <c r="C19" s="156" t="s">
+      <c r="C19" s="158" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="157"/>
-      <c r="E19" s="157"/>
-      <c r="F19" s="157"/>
-      <c r="G19" s="157"/>
-      <c r="H19" s="157"/>
-      <c r="I19" s="159">
+      <c r="D19" s="134"/>
+      <c r="E19" s="134"/>
+      <c r="F19" s="134"/>
+      <c r="G19" s="134"/>
+      <c r="H19" s="134"/>
+      <c r="I19" s="160">
         <v>1</v>
       </c>
-      <c r="J19" s="155">
+      <c r="J19" s="161">
         <v>45790</v>
       </c>
-      <c r="K19" s="155">
+      <c r="K19" s="161">
         <v>45790</v>
       </c>
-      <c r="L19" s="159"/>
+      <c r="L19" s="160"/>
       <c r="M19" s="74"/>
       <c r="N19" s="74"/>
       <c r="O19" s="75"/>
@@ -6722,16 +6722,16 @@
     <row r="20" spans="1:127" ht="12" customHeight="1">
       <c r="A20" s="26"/>
       <c r="B20" s="50"/>
-      <c r="C20" s="163"/>
-      <c r="D20" s="142"/>
-      <c r="E20" s="142"/>
-      <c r="F20" s="142"/>
-      <c r="G20" s="142"/>
-      <c r="H20" s="142"/>
-      <c r="I20" s="130"/>
-      <c r="J20" s="125"/>
-      <c r="K20" s="125"/>
-      <c r="L20" s="130"/>
+      <c r="C20" s="159"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="141"/>
+      <c r="G20" s="141"/>
+      <c r="H20" s="141"/>
+      <c r="I20" s="128"/>
+      <c r="J20" s="123"/>
+      <c r="K20" s="123"/>
+      <c r="L20" s="128"/>
       <c r="M20" s="74"/>
       <c r="N20" s="74"/>
       <c r="O20" s="75"/>
@@ -6852,35 +6852,35 @@
       <c r="A21" s="26"/>
       <c r="B21" s="50"/>
       <c r="C21" s="54"/>
-      <c r="D21" s="160" t="s">
+      <c r="D21" s="162" t="s">
         <v>81</v>
       </c>
-      <c r="E21" s="121"/>
-      <c r="F21" s="121"/>
-      <c r="G21" s="121"/>
-      <c r="H21" s="122"/>
-      <c r="I21" s="147">
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="120"/>
+      <c r="I21" s="155">
         <v>1</v>
       </c>
-      <c r="J21" s="162">
+      <c r="J21" s="157">
         <v>45790</v>
       </c>
-      <c r="K21" s="162">
+      <c r="K21" s="157">
         <v>45790</v>
       </c>
-      <c r="L21" s="147">
+      <c r="L21" s="155">
         <v>5.5</v>
       </c>
-      <c r="M21" s="162">
+      <c r="M21" s="157">
         <v>45790</v>
       </c>
-      <c r="N21" s="162">
+      <c r="N21" s="157">
         <v>45790</v>
       </c>
-      <c r="O21" s="147" t="s">
+      <c r="O21" s="155" t="s">
         <v>77</v>
       </c>
-      <c r="P21" s="147">
+      <c r="P21" s="155">
         <v>100</v>
       </c>
       <c r="Q21" s="55"/>
@@ -6999,19 +6999,19 @@
       <c r="A22" s="26"/>
       <c r="B22" s="50"/>
       <c r="C22" s="63"/>
-      <c r="D22" s="123"/>
-      <c r="E22" s="124"/>
-      <c r="F22" s="124"/>
-      <c r="G22" s="124"/>
-      <c r="H22" s="125"/>
-      <c r="I22" s="130"/>
-      <c r="J22" s="130"/>
-      <c r="K22" s="130"/>
-      <c r="L22" s="130"/>
-      <c r="M22" s="130"/>
-      <c r="N22" s="130"/>
-      <c r="O22" s="130"/>
-      <c r="P22" s="130"/>
+      <c r="D22" s="121"/>
+      <c r="E22" s="122"/>
+      <c r="F22" s="122"/>
+      <c r="G22" s="122"/>
+      <c r="H22" s="123"/>
+      <c r="I22" s="128"/>
+      <c r="J22" s="128"/>
+      <c r="K22" s="128"/>
+      <c r="L22" s="128"/>
+      <c r="M22" s="128"/>
+      <c r="N22" s="128"/>
+      <c r="O22" s="128"/>
+      <c r="P22" s="128"/>
       <c r="Q22" s="82"/>
       <c r="R22" s="83"/>
       <c r="S22" s="83"/>
@@ -7127,24 +7127,24 @@
     <row r="23" spans="1:127" ht="12" customHeight="1">
       <c r="A23" s="26"/>
       <c r="B23" s="91"/>
-      <c r="C23" s="164" t="s">
+      <c r="C23" s="156" t="s">
         <v>82</v>
       </c>
-      <c r="D23" s="157"/>
-      <c r="E23" s="157"/>
-      <c r="F23" s="157"/>
-      <c r="G23" s="157"/>
-      <c r="H23" s="157"/>
-      <c r="I23" s="165">
+      <c r="D23" s="134"/>
+      <c r="E23" s="134"/>
+      <c r="F23" s="134"/>
+      <c r="G23" s="134"/>
+      <c r="H23" s="134"/>
+      <c r="I23" s="136">
         <v>10</v>
       </c>
-      <c r="J23" s="139">
+      <c r="J23" s="132">
         <v>45791</v>
       </c>
-      <c r="K23" s="139">
+      <c r="K23" s="132">
         <v>45792</v>
       </c>
-      <c r="L23" s="166"/>
+      <c r="L23" s="146"/>
       <c r="M23" s="92"/>
       <c r="N23" s="92"/>
       <c r="O23" s="93"/>
@@ -7264,16 +7264,16 @@
     <row r="24" spans="1:127" ht="12" customHeight="1">
       <c r="A24" s="26"/>
       <c r="B24" s="91"/>
-      <c r="C24" s="158"/>
-      <c r="D24" s="124"/>
-      <c r="E24" s="124"/>
-      <c r="F24" s="124"/>
-      <c r="G24" s="124"/>
-      <c r="H24" s="124"/>
-      <c r="I24" s="130"/>
-      <c r="J24" s="125"/>
-      <c r="K24" s="125"/>
-      <c r="L24" s="130"/>
+      <c r="C24" s="135"/>
+      <c r="D24" s="122"/>
+      <c r="E24" s="122"/>
+      <c r="F24" s="122"/>
+      <c r="G24" s="122"/>
+      <c r="H24" s="122"/>
+      <c r="I24" s="128"/>
+      <c r="J24" s="123"/>
+      <c r="K24" s="123"/>
+      <c r="L24" s="128"/>
       <c r="M24" s="97"/>
       <c r="N24" s="97"/>
       <c r="O24" s="98"/>
@@ -7394,35 +7394,35 @@
       <c r="A25" s="26"/>
       <c r="B25" s="91"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="167" t="s">
+      <c r="D25" s="152" t="s">
         <v>83</v>
       </c>
-      <c r="E25" s="121"/>
-      <c r="F25" s="121"/>
-      <c r="G25" s="121"/>
-      <c r="H25" s="122"/>
-      <c r="I25" s="132">
+      <c r="E25" s="119"/>
+      <c r="F25" s="119"/>
+      <c r="G25" s="119"/>
+      <c r="H25" s="120"/>
+      <c r="I25" s="131">
         <v>4</v>
       </c>
-      <c r="J25" s="133">
+      <c r="J25" s="129">
         <v>45791</v>
       </c>
-      <c r="K25" s="133">
+      <c r="K25" s="129">
         <v>45791</v>
       </c>
-      <c r="L25" s="132">
+      <c r="L25" s="131">
         <v>7</v>
       </c>
-      <c r="M25" s="133">
+      <c r="M25" s="129">
         <v>45791</v>
       </c>
-      <c r="N25" s="133">
+      <c r="N25" s="129">
         <v>45791</v>
       </c>
-      <c r="O25" s="132" t="s">
+      <c r="O25" s="131" t="s">
         <v>77</v>
       </c>
-      <c r="P25" s="147">
+      <c r="P25" s="155">
         <v>100</v>
       </c>
       <c r="Q25" s="55"/>
@@ -7541,19 +7541,19 @@
       <c r="A26" s="26"/>
       <c r="B26" s="91"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="123"/>
-      <c r="E26" s="124"/>
-      <c r="F26" s="124"/>
-      <c r="G26" s="124"/>
-      <c r="H26" s="125"/>
-      <c r="I26" s="130"/>
-      <c r="J26" s="130"/>
-      <c r="K26" s="130"/>
-      <c r="L26" s="130"/>
-      <c r="M26" s="130"/>
-      <c r="N26" s="130"/>
-      <c r="O26" s="130"/>
-      <c r="P26" s="130"/>
+      <c r="D26" s="121"/>
+      <c r="E26" s="122"/>
+      <c r="F26" s="122"/>
+      <c r="G26" s="122"/>
+      <c r="H26" s="123"/>
+      <c r="I26" s="128"/>
+      <c r="J26" s="128"/>
+      <c r="K26" s="128"/>
+      <c r="L26" s="128"/>
+      <c r="M26" s="128"/>
+      <c r="N26" s="128"/>
+      <c r="O26" s="128"/>
+      <c r="P26" s="128"/>
       <c r="Q26" s="55"/>
       <c r="R26" s="56"/>
       <c r="S26" s="56"/>
@@ -7670,35 +7670,35 @@
       <c r="A27" s="26"/>
       <c r="B27" s="91"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="167" t="s">
+      <c r="D27" s="152" t="s">
         <v>84</v>
       </c>
-      <c r="E27" s="121"/>
-      <c r="F27" s="121"/>
-      <c r="G27" s="121"/>
-      <c r="H27" s="122"/>
-      <c r="I27" s="132">
+      <c r="E27" s="119"/>
+      <c r="F27" s="119"/>
+      <c r="G27" s="119"/>
+      <c r="H27" s="120"/>
+      <c r="I27" s="131">
         <v>6</v>
       </c>
-      <c r="J27" s="168">
+      <c r="J27" s="153">
         <v>45791</v>
       </c>
-      <c r="K27" s="133">
+      <c r="K27" s="129">
         <v>45792</v>
       </c>
-      <c r="L27" s="132">
+      <c r="L27" s="131">
         <v>3</v>
       </c>
-      <c r="M27" s="133">
+      <c r="M27" s="129">
         <v>45792</v>
       </c>
-      <c r="N27" s="133">
+      <c r="N27" s="129">
         <v>45792</v>
       </c>
-      <c r="O27" s="132" t="s">
+      <c r="O27" s="131" t="s">
         <v>77</v>
       </c>
-      <c r="P27" s="132">
+      <c r="P27" s="131">
         <v>100</v>
       </c>
       <c r="Q27" s="55"/>
@@ -7817,19 +7817,19 @@
       <c r="A28" s="26"/>
       <c r="B28" s="91"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="123"/>
-      <c r="E28" s="124"/>
-      <c r="F28" s="124"/>
-      <c r="G28" s="124"/>
-      <c r="H28" s="125"/>
-      <c r="I28" s="130"/>
-      <c r="J28" s="130"/>
-      <c r="K28" s="130"/>
-      <c r="L28" s="130"/>
-      <c r="M28" s="130"/>
-      <c r="N28" s="130"/>
-      <c r="O28" s="130"/>
-      <c r="P28" s="130"/>
+      <c r="D28" s="121"/>
+      <c r="E28" s="122"/>
+      <c r="F28" s="122"/>
+      <c r="G28" s="122"/>
+      <c r="H28" s="123"/>
+      <c r="I28" s="128"/>
+      <c r="J28" s="128"/>
+      <c r="K28" s="128"/>
+      <c r="L28" s="128"/>
+      <c r="M28" s="128"/>
+      <c r="N28" s="128"/>
+      <c r="O28" s="128"/>
+      <c r="P28" s="128"/>
       <c r="Q28" s="65"/>
       <c r="R28" s="67"/>
       <c r="S28" s="67"/>
@@ -7946,35 +7946,35 @@
       <c r="A29" s="26"/>
       <c r="B29" s="91"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="167" t="s">
+      <c r="D29" s="152" t="s">
         <v>85</v>
       </c>
-      <c r="E29" s="121"/>
-      <c r="F29" s="121"/>
-      <c r="G29" s="121"/>
-      <c r="H29" s="122"/>
-      <c r="I29" s="132">
+      <c r="E29" s="119"/>
+      <c r="F29" s="119"/>
+      <c r="G29" s="119"/>
+      <c r="H29" s="120"/>
+      <c r="I29" s="131">
         <v>4</v>
       </c>
-      <c r="J29" s="133">
+      <c r="J29" s="129">
         <v>45792</v>
       </c>
-      <c r="K29" s="168">
+      <c r="K29" s="153">
         <v>45792</v>
       </c>
-      <c r="L29" s="134">
+      <c r="L29" s="142">
         <v>3</v>
       </c>
-      <c r="M29" s="133">
+      <c r="M29" s="129">
         <v>45792</v>
       </c>
-      <c r="N29" s="133">
+      <c r="N29" s="129">
         <v>45792</v>
       </c>
-      <c r="O29" s="169" t="s">
+      <c r="O29" s="154" t="s">
         <v>99</v>
       </c>
-      <c r="P29" s="132">
+      <c r="P29" s="131">
         <v>100</v>
       </c>
       <c r="Q29" s="55"/>
@@ -8093,19 +8093,19 @@
       <c r="A30" s="26"/>
       <c r="B30" s="91"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="123"/>
-      <c r="E30" s="124"/>
-      <c r="F30" s="124"/>
-      <c r="G30" s="124"/>
-      <c r="H30" s="125"/>
-      <c r="I30" s="130"/>
-      <c r="J30" s="130"/>
-      <c r="K30" s="130"/>
-      <c r="L30" s="135"/>
-      <c r="M30" s="130"/>
-      <c r="N30" s="130"/>
-      <c r="O30" s="130"/>
-      <c r="P30" s="130"/>
+      <c r="D30" s="121"/>
+      <c r="E30" s="122"/>
+      <c r="F30" s="122"/>
+      <c r="G30" s="122"/>
+      <c r="H30" s="123"/>
+      <c r="I30" s="128"/>
+      <c r="J30" s="128"/>
+      <c r="K30" s="128"/>
+      <c r="L30" s="138"/>
+      <c r="M30" s="128"/>
+      <c r="N30" s="128"/>
+      <c r="O30" s="128"/>
+      <c r="P30" s="128"/>
       <c r="Q30" s="55"/>
       <c r="R30" s="56"/>
       <c r="S30" s="56"/>
@@ -8221,24 +8221,24 @@
     <row r="31" spans="1:127" ht="12" customHeight="1">
       <c r="A31" s="26"/>
       <c r="B31" s="99"/>
-      <c r="C31" s="171" t="s">
+      <c r="C31" s="133" t="s">
         <v>86</v>
       </c>
-      <c r="D31" s="157"/>
-      <c r="E31" s="157"/>
-      <c r="F31" s="157"/>
-      <c r="G31" s="157"/>
-      <c r="H31" s="157"/>
-      <c r="I31" s="165">
+      <c r="D31" s="134"/>
+      <c r="E31" s="134"/>
+      <c r="F31" s="134"/>
+      <c r="G31" s="134"/>
+      <c r="H31" s="134"/>
+      <c r="I31" s="136">
         <v>32</v>
       </c>
-      <c r="J31" s="139">
+      <c r="J31" s="132">
         <v>45793</v>
       </c>
-      <c r="K31" s="139">
+      <c r="K31" s="132">
         <v>45798</v>
       </c>
-      <c r="L31" s="166"/>
+      <c r="L31" s="146"/>
       <c r="M31" s="100"/>
       <c r="N31" s="100"/>
       <c r="O31" s="101"/>
@@ -8358,16 +8358,16 @@
     <row r="32" spans="1:127" ht="12" customHeight="1">
       <c r="A32" s="26"/>
       <c r="B32" s="99"/>
-      <c r="C32" s="158"/>
-      <c r="D32" s="124"/>
-      <c r="E32" s="124"/>
-      <c r="F32" s="124"/>
-      <c r="G32" s="124"/>
-      <c r="H32" s="124"/>
-      <c r="I32" s="130"/>
-      <c r="J32" s="125"/>
-      <c r="K32" s="125"/>
-      <c r="L32" s="130"/>
+      <c r="C32" s="135"/>
+      <c r="D32" s="122"/>
+      <c r="E32" s="122"/>
+      <c r="F32" s="122"/>
+      <c r="G32" s="122"/>
+      <c r="H32" s="122"/>
+      <c r="I32" s="128"/>
+      <c r="J32" s="123"/>
+      <c r="K32" s="123"/>
+      <c r="L32" s="128"/>
       <c r="M32" s="102"/>
       <c r="N32" s="102"/>
       <c r="O32" s="103"/>
@@ -8488,23 +8488,23 @@
       <c r="A33" s="26"/>
       <c r="B33" s="99"/>
       <c r="C33" s="104"/>
-      <c r="D33" s="137" t="s">
+      <c r="D33" s="145" t="s">
         <v>105</v>
       </c>
-      <c r="E33" s="121"/>
-      <c r="F33" s="121"/>
-      <c r="G33" s="121"/>
-      <c r="H33" s="122"/>
-      <c r="I33" s="138">
+      <c r="E33" s="119"/>
+      <c r="F33" s="119"/>
+      <c r="G33" s="119"/>
+      <c r="H33" s="120"/>
+      <c r="I33" s="139">
         <v>8</v>
       </c>
-      <c r="J33" s="139">
+      <c r="J33" s="132">
         <v>45793</v>
       </c>
-      <c r="K33" s="139">
+      <c r="K33" s="132">
         <v>45793</v>
       </c>
-      <c r="L33" s="166"/>
+      <c r="L33" s="146"/>
       <c r="M33" s="100"/>
       <c r="N33" s="100"/>
       <c r="O33" s="101"/>
@@ -8625,15 +8625,15 @@
       <c r="A34" s="26"/>
       <c r="B34" s="99"/>
       <c r="C34" s="105"/>
-      <c r="D34" s="123"/>
-      <c r="E34" s="124"/>
-      <c r="F34" s="124"/>
-      <c r="G34" s="124"/>
-      <c r="H34" s="125"/>
-      <c r="I34" s="125"/>
-      <c r="J34" s="125"/>
-      <c r="K34" s="125"/>
-      <c r="L34" s="130"/>
+      <c r="D34" s="121"/>
+      <c r="E34" s="122"/>
+      <c r="F34" s="122"/>
+      <c r="G34" s="122"/>
+      <c r="H34" s="123"/>
+      <c r="I34" s="123"/>
+      <c r="J34" s="123"/>
+      <c r="K34" s="123"/>
+      <c r="L34" s="128"/>
       <c r="M34" s="102"/>
       <c r="N34" s="102"/>
       <c r="O34" s="103"/>
@@ -8755,28 +8755,28 @@
       <c r="B35" s="99"/>
       <c r="C35" s="26"/>
       <c r="D35" s="106"/>
-      <c r="E35" s="141" t="s">
+      <c r="E35" s="140" t="s">
         <v>88</v>
       </c>
-      <c r="F35" s="142"/>
-      <c r="G35" s="142"/>
-      <c r="H35" s="142"/>
-      <c r="I35" s="132">
+      <c r="F35" s="141"/>
+      <c r="G35" s="141"/>
+      <c r="H35" s="141"/>
+      <c r="I35" s="131">
         <v>1</v>
       </c>
-      <c r="J35" s="133">
+      <c r="J35" s="129">
         <v>45793</v>
       </c>
-      <c r="K35" s="133">
+      <c r="K35" s="129">
         <v>45793</v>
       </c>
       <c r="L35" s="150" t="s">
         <v>101</v>
       </c>
       <c r="M35" s="151"/>
-      <c r="N35" s="152"/>
-      <c r="O35" s="153"/>
-      <c r="P35" s="148"/>
+      <c r="N35" s="147"/>
+      <c r="O35" s="149"/>
+      <c r="P35" s="167"/>
       <c r="Q35" s="55"/>
       <c r="R35" s="56"/>
       <c r="S35" s="56"/>
@@ -8894,18 +8894,18 @@
       <c r="B36" s="99"/>
       <c r="C36" s="26"/>
       <c r="D36" s="99"/>
-      <c r="E36" s="124"/>
-      <c r="F36" s="124"/>
-      <c r="G36" s="124"/>
-      <c r="H36" s="124"/>
-      <c r="I36" s="130"/>
-      <c r="J36" s="130"/>
-      <c r="K36" s="130"/>
-      <c r="L36" s="135"/>
-      <c r="M36" s="149"/>
-      <c r="N36" s="149"/>
-      <c r="O36" s="149"/>
-      <c r="P36" s="149"/>
+      <c r="E36" s="122"/>
+      <c r="F36" s="122"/>
+      <c r="G36" s="122"/>
+      <c r="H36" s="122"/>
+      <c r="I36" s="128"/>
+      <c r="J36" s="128"/>
+      <c r="K36" s="128"/>
+      <c r="L36" s="138"/>
+      <c r="M36" s="148"/>
+      <c r="N36" s="148"/>
+      <c r="O36" s="148"/>
+      <c r="P36" s="148"/>
       <c r="Q36" s="55"/>
       <c r="R36" s="56"/>
       <c r="S36" s="56"/>
@@ -9023,32 +9023,32 @@
       <c r="B37" s="99"/>
       <c r="C37" s="26"/>
       <c r="D37" s="99"/>
-      <c r="E37" s="170" t="s">
+      <c r="E37" s="182" t="s">
         <v>106</v>
       </c>
-      <c r="F37" s="142"/>
-      <c r="G37" s="142"/>
-      <c r="H37" s="142"/>
-      <c r="I37" s="132">
+      <c r="F37" s="141"/>
+      <c r="G37" s="141"/>
+      <c r="H37" s="141"/>
+      <c r="I37" s="131">
         <v>4</v>
       </c>
-      <c r="J37" s="133">
+      <c r="J37" s="129">
         <v>45793</v>
       </c>
-      <c r="K37" s="133">
+      <c r="K37" s="129">
         <v>45793</v>
       </c>
-      <c r="L37" s="134">
+      <c r="L37" s="142">
         <v>4</v>
       </c>
-      <c r="M37" s="133">
+      <c r="M37" s="129">
         <v>45793</v>
       </c>
-      <c r="N37" s="133"/>
-      <c r="O37" s="136" t="s">
+      <c r="N37" s="129"/>
+      <c r="O37" s="166" t="s">
         <v>100</v>
       </c>
-      <c r="P37" s="132">
+      <c r="P37" s="131">
         <v>80</v>
       </c>
       <c r="Q37" s="55"/>
@@ -9168,18 +9168,18 @@
       <c r="B38" s="99"/>
       <c r="C38" s="26"/>
       <c r="D38" s="99"/>
-      <c r="E38" s="124"/>
-      <c r="F38" s="124"/>
-      <c r="G38" s="124"/>
-      <c r="H38" s="124"/>
-      <c r="I38" s="130"/>
-      <c r="J38" s="130"/>
-      <c r="K38" s="130"/>
-      <c r="L38" s="135"/>
-      <c r="M38" s="130"/>
-      <c r="N38" s="130"/>
-      <c r="O38" s="130"/>
-      <c r="P38" s="130"/>
+      <c r="E38" s="122"/>
+      <c r="F38" s="122"/>
+      <c r="G38" s="122"/>
+      <c r="H38" s="122"/>
+      <c r="I38" s="128"/>
+      <c r="J38" s="128"/>
+      <c r="K38" s="128"/>
+      <c r="L38" s="138"/>
+      <c r="M38" s="128"/>
+      <c r="N38" s="128"/>
+      <c r="O38" s="128"/>
+      <c r="P38" s="128"/>
       <c r="Q38" s="55"/>
       <c r="R38" s="56"/>
       <c r="S38" s="56"/>
@@ -9297,32 +9297,32 @@
       <c r="B39" s="99"/>
       <c r="C39" s="26"/>
       <c r="D39" s="99"/>
-      <c r="E39" s="131" t="s">
+      <c r="E39" s="179" t="s">
         <v>103</v>
       </c>
-      <c r="F39" s="121"/>
-      <c r="G39" s="121"/>
-      <c r="H39" s="122"/>
-      <c r="I39" s="132">
+      <c r="F39" s="119"/>
+      <c r="G39" s="119"/>
+      <c r="H39" s="120"/>
+      <c r="I39" s="131">
         <v>3</v>
       </c>
-      <c r="J39" s="133">
+      <c r="J39" s="129">
         <v>45793</v>
       </c>
-      <c r="K39" s="133">
+      <c r="K39" s="129">
         <v>45793</v>
       </c>
-      <c r="L39" s="134">
-        <v>3</v>
-      </c>
-      <c r="M39" s="133">
+      <c r="L39" s="142">
+        <v>2</v>
+      </c>
+      <c r="M39" s="129">
         <v>45793</v>
       </c>
-      <c r="N39" s="133"/>
-      <c r="O39" s="136" t="s">
+      <c r="N39" s="129"/>
+      <c r="O39" s="166" t="s">
         <v>100</v>
       </c>
-      <c r="P39" s="132">
+      <c r="P39" s="131">
         <v>50</v>
       </c>
       <c r="Q39" s="55"/>
@@ -9441,19 +9441,19 @@
       <c r="A40" s="26"/>
       <c r="B40" s="99"/>
       <c r="C40" s="26"/>
-      <c r="D40" s="118"/>
-      <c r="E40" s="124"/>
-      <c r="F40" s="124"/>
-      <c r="G40" s="124"/>
-      <c r="H40" s="125"/>
-      <c r="I40" s="130"/>
-      <c r="J40" s="130"/>
-      <c r="K40" s="130"/>
-      <c r="L40" s="135"/>
-      <c r="M40" s="130"/>
-      <c r="N40" s="130"/>
-      <c r="O40" s="130"/>
-      <c r="P40" s="130"/>
+      <c r="D40" s="180"/>
+      <c r="E40" s="122"/>
+      <c r="F40" s="122"/>
+      <c r="G40" s="122"/>
+      <c r="H40" s="123"/>
+      <c r="I40" s="128"/>
+      <c r="J40" s="128"/>
+      <c r="K40" s="128"/>
+      <c r="L40" s="138"/>
+      <c r="M40" s="128"/>
+      <c r="N40" s="128"/>
+      <c r="O40" s="128"/>
+      <c r="P40" s="128"/>
       <c r="Q40" s="65"/>
       <c r="R40" s="67"/>
       <c r="S40" s="67"/>
@@ -9571,32 +9571,32 @@
       <c r="B41" s="110"/>
       <c r="C41" s="116"/>
       <c r="D41" s="110"/>
-      <c r="E41" s="131" t="s">
+      <c r="E41" s="179" t="s">
         <v>104</v>
       </c>
-      <c r="F41" s="121"/>
-      <c r="G41" s="121"/>
-      <c r="H41" s="122"/>
-      <c r="I41" s="132">
+      <c r="F41" s="119"/>
+      <c r="G41" s="119"/>
+      <c r="H41" s="120"/>
+      <c r="I41" s="131">
         <v>4</v>
       </c>
-      <c r="J41" s="133">
+      <c r="J41" s="129">
         <v>45793</v>
       </c>
-      <c r="K41" s="133">
+      <c r="K41" s="129">
         <v>45793</v>
       </c>
-      <c r="L41" s="134">
+      <c r="L41" s="142">
         <v>2</v>
       </c>
-      <c r="M41" s="133">
+      <c r="M41" s="129">
         <v>45793</v>
       </c>
-      <c r="N41" s="133"/>
-      <c r="O41" s="136" t="s">
+      <c r="N41" s="129"/>
+      <c r="O41" s="166" t="s">
         <v>100</v>
       </c>
-      <c r="P41" s="132">
+      <c r="P41" s="131">
         <v>50</v>
       </c>
       <c r="Q41" s="55"/>
@@ -9640,7 +9640,7 @@
       <c r="BC41" s="56"/>
       <c r="BD41" s="56"/>
       <c r="BE41" s="57"/>
-      <c r="BF41" s="119"/>
+      <c r="BF41" s="181"/>
       <c r="BG41" s="58"/>
       <c r="BH41" s="58"/>
       <c r="BI41" s="28"/>
@@ -9716,18 +9716,18 @@
       <c r="B42" s="110"/>
       <c r="C42" s="116"/>
       <c r="D42" s="112"/>
-      <c r="E42" s="124"/>
-      <c r="F42" s="124"/>
-      <c r="G42" s="124"/>
-      <c r="H42" s="125"/>
-      <c r="I42" s="130"/>
-      <c r="J42" s="130"/>
-      <c r="K42" s="130"/>
-      <c r="L42" s="135"/>
-      <c r="M42" s="130"/>
-      <c r="N42" s="130"/>
-      <c r="O42" s="130"/>
-      <c r="P42" s="130"/>
+      <c r="E42" s="122"/>
+      <c r="F42" s="122"/>
+      <c r="G42" s="122"/>
+      <c r="H42" s="123"/>
+      <c r="I42" s="128"/>
+      <c r="J42" s="128"/>
+      <c r="K42" s="128"/>
+      <c r="L42" s="138"/>
+      <c r="M42" s="128"/>
+      <c r="N42" s="128"/>
+      <c r="O42" s="128"/>
+      <c r="P42" s="128"/>
       <c r="Q42" s="65"/>
       <c r="R42" s="67"/>
       <c r="S42" s="67"/>
@@ -9844,23 +9844,23 @@
       <c r="A43" s="116"/>
       <c r="B43" s="110"/>
       <c r="C43" s="116"/>
-      <c r="D43" s="137" t="s">
+      <c r="D43" s="145" t="s">
         <v>91</v>
       </c>
-      <c r="E43" s="172"/>
-      <c r="F43" s="172"/>
-      <c r="G43" s="172"/>
-      <c r="H43" s="173"/>
-      <c r="I43" s="177">
+      <c r="E43" s="174"/>
+      <c r="F43" s="174"/>
+      <c r="G43" s="174"/>
+      <c r="H43" s="175"/>
+      <c r="I43" s="172">
         <v>16</v>
       </c>
-      <c r="J43" s="179">
+      <c r="J43" s="170">
         <v>45796</v>
       </c>
-      <c r="K43" s="179">
+      <c r="K43" s="170">
         <v>45797</v>
       </c>
-      <c r="L43" s="181"/>
+      <c r="L43" s="168"/>
       <c r="M43" s="100"/>
       <c r="N43" s="100"/>
       <c r="O43" s="101"/>
@@ -9981,15 +9981,15 @@
       <c r="A44" s="116"/>
       <c r="B44" s="110"/>
       <c r="C44" s="116"/>
-      <c r="D44" s="174"/>
-      <c r="E44" s="175"/>
-      <c r="F44" s="175"/>
-      <c r="G44" s="175"/>
-      <c r="H44" s="176"/>
-      <c r="I44" s="178"/>
-      <c r="J44" s="180"/>
-      <c r="K44" s="180"/>
-      <c r="L44" s="182"/>
+      <c r="D44" s="176"/>
+      <c r="E44" s="177"/>
+      <c r="F44" s="177"/>
+      <c r="G44" s="177"/>
+      <c r="H44" s="178"/>
+      <c r="I44" s="173"/>
+      <c r="J44" s="171"/>
+      <c r="K44" s="171"/>
+      <c r="L44" s="169"/>
       <c r="M44" s="102"/>
       <c r="N44" s="102"/>
       <c r="O44" s="103"/>
@@ -10111,28 +10111,28 @@
       <c r="B45" s="99"/>
       <c r="C45" s="26"/>
       <c r="D45" s="106"/>
-      <c r="E45" s="141" t="s">
+      <c r="E45" s="140" t="s">
         <v>92</v>
       </c>
-      <c r="F45" s="142"/>
-      <c r="G45" s="142"/>
-      <c r="H45" s="142"/>
-      <c r="I45" s="132">
+      <c r="F45" s="141"/>
+      <c r="G45" s="141"/>
+      <c r="H45" s="141"/>
+      <c r="I45" s="131">
         <v>2</v>
       </c>
-      <c r="J45" s="133">
+      <c r="J45" s="129">
         <v>45796</v>
       </c>
-      <c r="K45" s="133">
+      <c r="K45" s="129">
         <v>45796</v>
       </c>
       <c r="L45" s="150" t="s">
         <v>102</v>
       </c>
       <c r="M45" s="151"/>
-      <c r="N45" s="152"/>
-      <c r="O45" s="153"/>
-      <c r="P45" s="148"/>
+      <c r="N45" s="147"/>
+      <c r="O45" s="149"/>
+      <c r="P45" s="167"/>
       <c r="Q45" s="55"/>
       <c r="R45" s="56"/>
       <c r="S45" s="56"/>
@@ -10177,7 +10177,7 @@
       <c r="BF45" s="57"/>
       <c r="BG45" s="58"/>
       <c r="BH45" s="58"/>
-      <c r="BI45" s="119"/>
+      <c r="BI45" s="181"/>
       <c r="BJ45" s="56"/>
       <c r="BK45" s="56"/>
       <c r="BL45" s="57"/>
@@ -10250,18 +10250,18 @@
       <c r="B46" s="99"/>
       <c r="C46" s="26"/>
       <c r="D46" s="99"/>
-      <c r="E46" s="124"/>
-      <c r="F46" s="124"/>
-      <c r="G46" s="124"/>
-      <c r="H46" s="124"/>
-      <c r="I46" s="130"/>
-      <c r="J46" s="130"/>
-      <c r="K46" s="130"/>
-      <c r="L46" s="135"/>
-      <c r="M46" s="149"/>
-      <c r="N46" s="149"/>
-      <c r="O46" s="149"/>
-      <c r="P46" s="149"/>
+      <c r="E46" s="122"/>
+      <c r="F46" s="122"/>
+      <c r="G46" s="122"/>
+      <c r="H46" s="122"/>
+      <c r="I46" s="128"/>
+      <c r="J46" s="128"/>
+      <c r="K46" s="128"/>
+      <c r="L46" s="138"/>
+      <c r="M46" s="148"/>
+      <c r="N46" s="148"/>
+      <c r="O46" s="148"/>
+      <c r="P46" s="148"/>
       <c r="Q46" s="55"/>
       <c r="R46" s="56"/>
       <c r="S46" s="56"/>
@@ -10379,26 +10379,26 @@
       <c r="B47" s="99"/>
       <c r="C47" s="26"/>
       <c r="D47" s="99"/>
-      <c r="E47" s="141" t="s">
+      <c r="E47" s="140" t="s">
         <v>107</v>
       </c>
-      <c r="F47" s="142"/>
-      <c r="G47" s="142"/>
-      <c r="H47" s="142"/>
-      <c r="I47" s="132">
+      <c r="F47" s="141"/>
+      <c r="G47" s="141"/>
+      <c r="H47" s="141"/>
+      <c r="I47" s="131">
         <v>14</v>
       </c>
-      <c r="J47" s="133">
+      <c r="J47" s="129">
         <v>45796</v>
       </c>
-      <c r="K47" s="145">
+      <c r="K47" s="144">
         <v>45797</v>
       </c>
-      <c r="L47" s="134"/>
-      <c r="M47" s="133"/>
-      <c r="N47" s="133"/>
-      <c r="O47" s="143"/>
-      <c r="P47" s="132">
+      <c r="L47" s="142"/>
+      <c r="M47" s="129"/>
+      <c r="N47" s="129"/>
+      <c r="O47" s="130"/>
+      <c r="P47" s="131">
         <v>0</v>
       </c>
       <c r="Q47" s="55"/>
@@ -10518,18 +10518,18 @@
       <c r="B48" s="99"/>
       <c r="C48" s="26"/>
       <c r="D48" s="99"/>
-      <c r="E48" s="124"/>
-      <c r="F48" s="124"/>
-      <c r="G48" s="124"/>
-      <c r="H48" s="124"/>
-      <c r="I48" s="130"/>
-      <c r="J48" s="130"/>
-      <c r="K48" s="125"/>
-      <c r="L48" s="135"/>
-      <c r="M48" s="130"/>
-      <c r="N48" s="130"/>
-      <c r="O48" s="130"/>
-      <c r="P48" s="130"/>
+      <c r="E48" s="122"/>
+      <c r="F48" s="122"/>
+      <c r="G48" s="122"/>
+      <c r="H48" s="122"/>
+      <c r="I48" s="128"/>
+      <c r="J48" s="128"/>
+      <c r="K48" s="123"/>
+      <c r="L48" s="138"/>
+      <c r="M48" s="128"/>
+      <c r="N48" s="128"/>
+      <c r="O48" s="128"/>
+      <c r="P48" s="128"/>
       <c r="Q48" s="55"/>
       <c r="R48" s="56"/>
       <c r="S48" s="56"/>
@@ -10647,18 +10647,18 @@
       <c r="B49" s="99"/>
       <c r="C49" s="26"/>
       <c r="D49" s="99"/>
-      <c r="E49" s="144"/>
-      <c r="F49" s="121"/>
-      <c r="G49" s="121"/>
-      <c r="H49" s="122"/>
-      <c r="I49" s="132"/>
-      <c r="J49" s="133"/>
-      <c r="K49" s="133"/>
-      <c r="L49" s="134"/>
-      <c r="M49" s="133"/>
-      <c r="N49" s="133"/>
-      <c r="O49" s="143"/>
-      <c r="P49" s="132">
+      <c r="E49" s="143"/>
+      <c r="F49" s="119"/>
+      <c r="G49" s="119"/>
+      <c r="H49" s="120"/>
+      <c r="I49" s="131"/>
+      <c r="J49" s="129"/>
+      <c r="K49" s="129"/>
+      <c r="L49" s="142"/>
+      <c r="M49" s="129"/>
+      <c r="N49" s="129"/>
+      <c r="O49" s="130"/>
+      <c r="P49" s="131">
         <v>0</v>
       </c>
       <c r="Q49" s="55"/>
@@ -10778,18 +10778,18 @@
       <c r="B50" s="99"/>
       <c r="C50" s="26"/>
       <c r="D50" s="107"/>
-      <c r="E50" s="124"/>
-      <c r="F50" s="124"/>
-      <c r="G50" s="124"/>
-      <c r="H50" s="125"/>
-      <c r="I50" s="130"/>
-      <c r="J50" s="130"/>
-      <c r="K50" s="130"/>
-      <c r="L50" s="135"/>
-      <c r="M50" s="130"/>
-      <c r="N50" s="130"/>
-      <c r="O50" s="130"/>
-      <c r="P50" s="130"/>
+      <c r="E50" s="122"/>
+      <c r="F50" s="122"/>
+      <c r="G50" s="122"/>
+      <c r="H50" s="123"/>
+      <c r="I50" s="128"/>
+      <c r="J50" s="128"/>
+      <c r="K50" s="128"/>
+      <c r="L50" s="138"/>
+      <c r="M50" s="128"/>
+      <c r="N50" s="128"/>
+      <c r="O50" s="128"/>
+      <c r="P50" s="128"/>
       <c r="Q50" s="65"/>
       <c r="R50" s="67"/>
       <c r="S50" s="67"/>
@@ -10906,23 +10906,23 @@
       <c r="A51" s="26"/>
       <c r="B51" s="99"/>
       <c r="C51" s="108"/>
-      <c r="D51" s="137" t="s">
+      <c r="D51" s="145" t="s">
         <v>93</v>
       </c>
-      <c r="E51" s="121"/>
-      <c r="F51" s="121"/>
-      <c r="G51" s="121"/>
-      <c r="H51" s="122"/>
-      <c r="I51" s="138">
+      <c r="E51" s="119"/>
+      <c r="F51" s="119"/>
+      <c r="G51" s="119"/>
+      <c r="H51" s="120"/>
+      <c r="I51" s="139">
         <v>6</v>
       </c>
-      <c r="J51" s="139">
+      <c r="J51" s="132">
         <v>45798</v>
       </c>
-      <c r="K51" s="139">
+      <c r="K51" s="132">
         <v>45798</v>
       </c>
-      <c r="L51" s="140"/>
+      <c r="L51" s="137"/>
       <c r="M51" s="100"/>
       <c r="N51" s="100"/>
       <c r="O51" s="101"/>
@@ -11043,15 +11043,15 @@
       <c r="A52" s="26"/>
       <c r="B52" s="99"/>
       <c r="C52" s="108"/>
-      <c r="D52" s="123"/>
-      <c r="E52" s="124"/>
-      <c r="F52" s="124"/>
-      <c r="G52" s="124"/>
-      <c r="H52" s="125"/>
-      <c r="I52" s="125"/>
-      <c r="J52" s="125"/>
-      <c r="K52" s="125"/>
-      <c r="L52" s="135"/>
+      <c r="D52" s="121"/>
+      <c r="E52" s="122"/>
+      <c r="F52" s="122"/>
+      <c r="G52" s="122"/>
+      <c r="H52" s="123"/>
+      <c r="I52" s="123"/>
+      <c r="J52" s="123"/>
+      <c r="K52" s="123"/>
+      <c r="L52" s="138"/>
       <c r="M52" s="102"/>
       <c r="N52" s="102"/>
       <c r="O52" s="103"/>
@@ -11173,26 +11173,26 @@
       <c r="B53" s="99"/>
       <c r="C53" s="108"/>
       <c r="D53" s="109"/>
-      <c r="E53" s="141" t="s">
+      <c r="E53" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="F53" s="142"/>
-      <c r="G53" s="142"/>
-      <c r="H53" s="142"/>
-      <c r="I53" s="132">
+      <c r="F53" s="141"/>
+      <c r="G53" s="141"/>
+      <c r="H53" s="141"/>
+      <c r="I53" s="131">
         <v>3</v>
       </c>
-      <c r="J53" s="133">
+      <c r="J53" s="129">
         <v>45798</v>
       </c>
-      <c r="K53" s="133">
+      <c r="K53" s="129">
         <v>45798</v>
       </c>
-      <c r="L53" s="134"/>
-      <c r="M53" s="133"/>
-      <c r="N53" s="133"/>
-      <c r="O53" s="143"/>
-      <c r="P53" s="132">
+      <c r="L53" s="142"/>
+      <c r="M53" s="129"/>
+      <c r="N53" s="129"/>
+      <c r="O53" s="130"/>
+      <c r="P53" s="131">
         <v>0</v>
       </c>
       <c r="Q53" s="55"/>
@@ -11312,18 +11312,18 @@
       <c r="B54" s="99"/>
       <c r="C54" s="108"/>
       <c r="D54" s="110"/>
-      <c r="E54" s="124"/>
-      <c r="F54" s="124"/>
-      <c r="G54" s="124"/>
-      <c r="H54" s="124"/>
-      <c r="I54" s="130"/>
-      <c r="J54" s="130"/>
-      <c r="K54" s="130"/>
-      <c r="L54" s="135"/>
-      <c r="M54" s="130"/>
-      <c r="N54" s="130"/>
-      <c r="O54" s="130"/>
-      <c r="P54" s="130"/>
+      <c r="E54" s="122"/>
+      <c r="F54" s="122"/>
+      <c r="G54" s="122"/>
+      <c r="H54" s="122"/>
+      <c r="I54" s="128"/>
+      <c r="J54" s="128"/>
+      <c r="K54" s="128"/>
+      <c r="L54" s="138"/>
+      <c r="M54" s="128"/>
+      <c r="N54" s="128"/>
+      <c r="O54" s="128"/>
+      <c r="P54" s="128"/>
       <c r="Q54" s="55"/>
       <c r="R54" s="56"/>
       <c r="S54" s="56"/>
@@ -11441,26 +11441,26 @@
       <c r="B55" s="99"/>
       <c r="C55" s="108"/>
       <c r="D55" s="110"/>
-      <c r="E55" s="141" t="s">
+      <c r="E55" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="F55" s="142"/>
-      <c r="G55" s="142"/>
-      <c r="H55" s="142"/>
-      <c r="I55" s="132">
+      <c r="F55" s="141"/>
+      <c r="G55" s="141"/>
+      <c r="H55" s="141"/>
+      <c r="I55" s="131">
         <v>3</v>
       </c>
-      <c r="J55" s="133">
+      <c r="J55" s="129">
         <v>45798</v>
       </c>
-      <c r="K55" s="133">
+      <c r="K55" s="129">
         <v>45798</v>
       </c>
-      <c r="L55" s="134"/>
-      <c r="M55" s="133"/>
-      <c r="N55" s="133"/>
-      <c r="O55" s="143"/>
-      <c r="P55" s="132">
+      <c r="L55" s="142"/>
+      <c r="M55" s="129"/>
+      <c r="N55" s="129"/>
+      <c r="O55" s="130"/>
+      <c r="P55" s="131">
         <v>0</v>
       </c>
       <c r="Q55" s="55"/>
@@ -11580,18 +11580,18 @@
       <c r="B56" s="99"/>
       <c r="C56" s="108"/>
       <c r="D56" s="110"/>
-      <c r="E56" s="124"/>
-      <c r="F56" s="124"/>
-      <c r="G56" s="124"/>
-      <c r="H56" s="124"/>
-      <c r="I56" s="130"/>
-      <c r="J56" s="130"/>
-      <c r="K56" s="130"/>
-      <c r="L56" s="135"/>
-      <c r="M56" s="130"/>
-      <c r="N56" s="130"/>
-      <c r="O56" s="130"/>
-      <c r="P56" s="130"/>
+      <c r="E56" s="122"/>
+      <c r="F56" s="122"/>
+      <c r="G56" s="122"/>
+      <c r="H56" s="122"/>
+      <c r="I56" s="128"/>
+      <c r="J56" s="128"/>
+      <c r="K56" s="128"/>
+      <c r="L56" s="138"/>
+      <c r="M56" s="128"/>
+      <c r="N56" s="128"/>
+      <c r="O56" s="128"/>
+      <c r="P56" s="128"/>
       <c r="Q56" s="55"/>
       <c r="R56" s="56"/>
       <c r="S56" s="56"/>
@@ -11709,18 +11709,18 @@
       <c r="B57" s="99"/>
       <c r="C57" s="108"/>
       <c r="D57" s="110"/>
-      <c r="E57" s="144"/>
-      <c r="F57" s="121"/>
-      <c r="G57" s="121"/>
-      <c r="H57" s="122"/>
-      <c r="I57" s="132"/>
-      <c r="J57" s="133"/>
-      <c r="K57" s="133"/>
-      <c r="L57" s="134"/>
-      <c r="M57" s="133"/>
-      <c r="N57" s="133"/>
-      <c r="O57" s="143"/>
-      <c r="P57" s="132">
+      <c r="E57" s="143"/>
+      <c r="F57" s="119"/>
+      <c r="G57" s="119"/>
+      <c r="H57" s="120"/>
+      <c r="I57" s="131"/>
+      <c r="J57" s="129"/>
+      <c r="K57" s="129"/>
+      <c r="L57" s="142"/>
+      <c r="M57" s="129"/>
+      <c r="N57" s="129"/>
+      <c r="O57" s="130"/>
+      <c r="P57" s="131">
         <v>0</v>
       </c>
       <c r="Q57" s="55"/>
@@ -11840,18 +11840,18 @@
       <c r="B58" s="99"/>
       <c r="C58" s="111"/>
       <c r="D58" s="112"/>
-      <c r="E58" s="124"/>
-      <c r="F58" s="124"/>
-      <c r="G58" s="124"/>
-      <c r="H58" s="125"/>
-      <c r="I58" s="130"/>
-      <c r="J58" s="130"/>
-      <c r="K58" s="130"/>
-      <c r="L58" s="135"/>
-      <c r="M58" s="130"/>
-      <c r="N58" s="130"/>
-      <c r="O58" s="130"/>
-      <c r="P58" s="130"/>
+      <c r="E58" s="122"/>
+      <c r="F58" s="122"/>
+      <c r="G58" s="122"/>
+      <c r="H58" s="123"/>
+      <c r="I58" s="128"/>
+      <c r="J58" s="128"/>
+      <c r="K58" s="128"/>
+      <c r="L58" s="138"/>
+      <c r="M58" s="128"/>
+      <c r="N58" s="128"/>
+      <c r="O58" s="128"/>
+      <c r="P58" s="128"/>
       <c r="Q58" s="55"/>
       <c r="R58" s="56"/>
       <c r="S58" s="56"/>
@@ -11967,24 +11967,24 @@
     <row r="59" spans="1:127" ht="12" customHeight="1">
       <c r="A59" s="26"/>
       <c r="B59" s="99"/>
-      <c r="C59" s="171" t="s">
+      <c r="C59" s="133" t="s">
         <v>95</v>
       </c>
-      <c r="D59" s="157"/>
-      <c r="E59" s="157"/>
-      <c r="F59" s="157"/>
-      <c r="G59" s="157"/>
-      <c r="H59" s="157"/>
-      <c r="I59" s="165">
+      <c r="D59" s="134"/>
+      <c r="E59" s="134"/>
+      <c r="F59" s="134"/>
+      <c r="G59" s="134"/>
+      <c r="H59" s="134"/>
+      <c r="I59" s="136">
         <v>72</v>
       </c>
-      <c r="J59" s="139">
+      <c r="J59" s="132">
         <v>45799</v>
       </c>
-      <c r="K59" s="139">
+      <c r="K59" s="132">
         <v>45808</v>
       </c>
-      <c r="L59" s="140"/>
+      <c r="L59" s="137"/>
       <c r="M59" s="100"/>
       <c r="N59" s="100"/>
       <c r="O59" s="101"/>
@@ -12104,16 +12104,16 @@
     <row r="60" spans="1:127" ht="12" customHeight="1">
       <c r="A60" s="26"/>
       <c r="B60" s="99"/>
-      <c r="C60" s="158"/>
-      <c r="D60" s="124"/>
-      <c r="E60" s="124"/>
-      <c r="F60" s="124"/>
-      <c r="G60" s="124"/>
-      <c r="H60" s="124"/>
-      <c r="I60" s="130"/>
-      <c r="J60" s="125"/>
-      <c r="K60" s="125"/>
-      <c r="L60" s="135"/>
+      <c r="C60" s="135"/>
+      <c r="D60" s="122"/>
+      <c r="E60" s="122"/>
+      <c r="F60" s="122"/>
+      <c r="G60" s="122"/>
+      <c r="H60" s="122"/>
+      <c r="I60" s="128"/>
+      <c r="J60" s="123"/>
+      <c r="K60" s="123"/>
+      <c r="L60" s="138"/>
       <c r="M60" s="102"/>
       <c r="N60" s="102"/>
       <c r="O60" s="103"/>
@@ -12234,23 +12234,23 @@
       <c r="A61" s="26"/>
       <c r="B61" s="99"/>
       <c r="C61" s="113"/>
-      <c r="D61" s="137" t="s">
+      <c r="D61" s="145" t="s">
         <v>87</v>
       </c>
-      <c r="E61" s="121"/>
-      <c r="F61" s="121"/>
-      <c r="G61" s="121"/>
-      <c r="H61" s="122"/>
-      <c r="I61" s="138">
+      <c r="E61" s="119"/>
+      <c r="F61" s="119"/>
+      <c r="G61" s="119"/>
+      <c r="H61" s="120"/>
+      <c r="I61" s="139">
         <v>12</v>
       </c>
-      <c r="J61" s="139">
+      <c r="J61" s="132">
         <v>45799</v>
       </c>
-      <c r="K61" s="139">
+      <c r="K61" s="132">
         <v>45800</v>
       </c>
-      <c r="L61" s="140"/>
+      <c r="L61" s="137"/>
       <c r="M61" s="100"/>
       <c r="N61" s="100"/>
       <c r="O61" s="101"/>
@@ -12371,15 +12371,15 @@
       <c r="A62" s="26"/>
       <c r="B62" s="99"/>
       <c r="C62" s="114"/>
-      <c r="D62" s="123"/>
-      <c r="E62" s="124"/>
-      <c r="F62" s="124"/>
-      <c r="G62" s="124"/>
-      <c r="H62" s="125"/>
-      <c r="I62" s="125"/>
-      <c r="J62" s="125"/>
-      <c r="K62" s="125"/>
-      <c r="L62" s="135"/>
+      <c r="D62" s="121"/>
+      <c r="E62" s="122"/>
+      <c r="F62" s="122"/>
+      <c r="G62" s="122"/>
+      <c r="H62" s="123"/>
+      <c r="I62" s="123"/>
+      <c r="J62" s="123"/>
+      <c r="K62" s="123"/>
+      <c r="L62" s="138"/>
       <c r="M62" s="102"/>
       <c r="N62" s="102"/>
       <c r="O62" s="103"/>
@@ -12501,26 +12501,26 @@
       <c r="B63" s="99"/>
       <c r="C63" s="108"/>
       <c r="D63" s="109"/>
-      <c r="E63" s="141" t="s">
+      <c r="E63" s="140" t="s">
         <v>89</v>
       </c>
-      <c r="F63" s="142"/>
-      <c r="G63" s="142"/>
-      <c r="H63" s="142"/>
-      <c r="I63" s="132">
+      <c r="F63" s="141"/>
+      <c r="G63" s="141"/>
+      <c r="H63" s="141"/>
+      <c r="I63" s="131">
         <v>8</v>
       </c>
-      <c r="J63" s="133">
+      <c r="J63" s="129">
         <v>45799</v>
       </c>
-      <c r="K63" s="133">
+      <c r="K63" s="129">
         <v>45799</v>
       </c>
-      <c r="L63" s="134"/>
-      <c r="M63" s="133"/>
-      <c r="N63" s="133"/>
-      <c r="O63" s="143"/>
-      <c r="P63" s="132">
+      <c r="L63" s="142"/>
+      <c r="M63" s="129"/>
+      <c r="N63" s="129"/>
+      <c r="O63" s="130"/>
+      <c r="P63" s="131">
         <v>0</v>
       </c>
       <c r="Q63" s="55"/>
@@ -12640,18 +12640,18 @@
       <c r="B64" s="99"/>
       <c r="C64" s="108"/>
       <c r="D64" s="110"/>
-      <c r="E64" s="124"/>
-      <c r="F64" s="124"/>
-      <c r="G64" s="124"/>
-      <c r="H64" s="124"/>
-      <c r="I64" s="130"/>
-      <c r="J64" s="130"/>
-      <c r="K64" s="130"/>
-      <c r="L64" s="135"/>
-      <c r="M64" s="130"/>
-      <c r="N64" s="130"/>
-      <c r="O64" s="130"/>
-      <c r="P64" s="130"/>
+      <c r="E64" s="122"/>
+      <c r="F64" s="122"/>
+      <c r="G64" s="122"/>
+      <c r="H64" s="122"/>
+      <c r="I64" s="128"/>
+      <c r="J64" s="128"/>
+      <c r="K64" s="128"/>
+      <c r="L64" s="138"/>
+      <c r="M64" s="128"/>
+      <c r="N64" s="128"/>
+      <c r="O64" s="128"/>
+      <c r="P64" s="128"/>
       <c r="Q64" s="55"/>
       <c r="R64" s="56"/>
       <c r="S64" s="56"/>
@@ -12769,26 +12769,26 @@
       <c r="B65" s="99"/>
       <c r="C65" s="108"/>
       <c r="D65" s="110"/>
-      <c r="E65" s="141" t="s">
+      <c r="E65" s="140" t="s">
         <v>90</v>
       </c>
-      <c r="F65" s="142"/>
-      <c r="G65" s="142"/>
-      <c r="H65" s="142"/>
-      <c r="I65" s="132">
+      <c r="F65" s="141"/>
+      <c r="G65" s="141"/>
+      <c r="H65" s="141"/>
+      <c r="I65" s="131">
         <v>4</v>
       </c>
-      <c r="J65" s="133">
+      <c r="J65" s="129">
         <v>45800</v>
       </c>
-      <c r="K65" s="133">
+      <c r="K65" s="129">
         <v>45800</v>
       </c>
-      <c r="L65" s="134"/>
-      <c r="M65" s="133"/>
-      <c r="N65" s="133"/>
-      <c r="O65" s="143"/>
-      <c r="P65" s="132">
+      <c r="L65" s="142"/>
+      <c r="M65" s="129"/>
+      <c r="N65" s="129"/>
+      <c r="O65" s="130"/>
+      <c r="P65" s="131">
         <v>0</v>
       </c>
       <c r="Q65" s="55"/>
@@ -12908,18 +12908,18 @@
       <c r="B66" s="99"/>
       <c r="C66" s="108"/>
       <c r="D66" s="110"/>
-      <c r="E66" s="124"/>
-      <c r="F66" s="124"/>
-      <c r="G66" s="124"/>
-      <c r="H66" s="124"/>
-      <c r="I66" s="130"/>
-      <c r="J66" s="130"/>
-      <c r="K66" s="130"/>
-      <c r="L66" s="135"/>
-      <c r="M66" s="130"/>
-      <c r="N66" s="130"/>
-      <c r="O66" s="130"/>
-      <c r="P66" s="130"/>
+      <c r="E66" s="122"/>
+      <c r="F66" s="122"/>
+      <c r="G66" s="122"/>
+      <c r="H66" s="122"/>
+      <c r="I66" s="128"/>
+      <c r="J66" s="128"/>
+      <c r="K66" s="128"/>
+      <c r="L66" s="138"/>
+      <c r="M66" s="128"/>
+      <c r="N66" s="128"/>
+      <c r="O66" s="128"/>
+      <c r="P66" s="128"/>
       <c r="Q66" s="55"/>
       <c r="R66" s="56"/>
       <c r="S66" s="56"/>
@@ -13037,18 +13037,18 @@
       <c r="B67" s="99"/>
       <c r="C67" s="108"/>
       <c r="D67" s="110"/>
-      <c r="E67" s="144"/>
-      <c r="F67" s="121"/>
-      <c r="G67" s="121"/>
-      <c r="H67" s="122"/>
-      <c r="I67" s="132"/>
-      <c r="J67" s="133"/>
-      <c r="K67" s="133"/>
-      <c r="L67" s="134"/>
-      <c r="M67" s="133"/>
-      <c r="N67" s="133"/>
-      <c r="O67" s="143"/>
-      <c r="P67" s="132">
+      <c r="E67" s="143"/>
+      <c r="F67" s="119"/>
+      <c r="G67" s="119"/>
+      <c r="H67" s="120"/>
+      <c r="I67" s="131"/>
+      <c r="J67" s="129"/>
+      <c r="K67" s="129"/>
+      <c r="L67" s="142"/>
+      <c r="M67" s="129"/>
+      <c r="N67" s="129"/>
+      <c r="O67" s="130"/>
+      <c r="P67" s="131">
         <v>0</v>
       </c>
       <c r="Q67" s="55"/>
@@ -13168,18 +13168,18 @@
       <c r="B68" s="99"/>
       <c r="C68" s="108"/>
       <c r="D68" s="112"/>
-      <c r="E68" s="124"/>
-      <c r="F68" s="124"/>
-      <c r="G68" s="124"/>
-      <c r="H68" s="125"/>
-      <c r="I68" s="130"/>
-      <c r="J68" s="130"/>
-      <c r="K68" s="130"/>
-      <c r="L68" s="135"/>
-      <c r="M68" s="130"/>
-      <c r="N68" s="130"/>
-      <c r="O68" s="130"/>
-      <c r="P68" s="130"/>
+      <c r="E68" s="122"/>
+      <c r="F68" s="122"/>
+      <c r="G68" s="122"/>
+      <c r="H68" s="123"/>
+      <c r="I68" s="128"/>
+      <c r="J68" s="128"/>
+      <c r="K68" s="128"/>
+      <c r="L68" s="138"/>
+      <c r="M68" s="128"/>
+      <c r="N68" s="128"/>
+      <c r="O68" s="128"/>
+      <c r="P68" s="128"/>
       <c r="Q68" s="65"/>
       <c r="R68" s="67"/>
       <c r="S68" s="67"/>
@@ -13296,23 +13296,23 @@
       <c r="A69" s="26"/>
       <c r="B69" s="99"/>
       <c r="C69" s="108"/>
-      <c r="D69" s="137" t="s">
+      <c r="D69" s="145" t="s">
         <v>91</v>
       </c>
-      <c r="E69" s="121"/>
-      <c r="F69" s="121"/>
-      <c r="G69" s="121"/>
-      <c r="H69" s="122"/>
-      <c r="I69" s="138">
+      <c r="E69" s="119"/>
+      <c r="F69" s="119"/>
+      <c r="G69" s="119"/>
+      <c r="H69" s="120"/>
+      <c r="I69" s="139">
         <v>52</v>
       </c>
-      <c r="J69" s="139">
+      <c r="J69" s="132">
         <v>45803</v>
       </c>
-      <c r="K69" s="139">
+      <c r="K69" s="132">
         <v>45811</v>
       </c>
-      <c r="L69" s="140"/>
+      <c r="L69" s="137"/>
       <c r="M69" s="100"/>
       <c r="N69" s="100"/>
       <c r="O69" s="101"/>
@@ -13433,15 +13433,15 @@
       <c r="A70" s="26"/>
       <c r="B70" s="99"/>
       <c r="C70" s="108"/>
-      <c r="D70" s="123"/>
-      <c r="E70" s="124"/>
-      <c r="F70" s="124"/>
-      <c r="G70" s="124"/>
-      <c r="H70" s="125"/>
-      <c r="I70" s="125"/>
-      <c r="J70" s="125"/>
-      <c r="K70" s="125"/>
-      <c r="L70" s="135"/>
+      <c r="D70" s="121"/>
+      <c r="E70" s="122"/>
+      <c r="F70" s="122"/>
+      <c r="G70" s="122"/>
+      <c r="H70" s="123"/>
+      <c r="I70" s="123"/>
+      <c r="J70" s="123"/>
+      <c r="K70" s="123"/>
+      <c r="L70" s="138"/>
       <c r="M70" s="102"/>
       <c r="N70" s="102"/>
       <c r="O70" s="103"/>
@@ -13563,26 +13563,26 @@
       <c r="B71" s="99"/>
       <c r="C71" s="108"/>
       <c r="D71" s="109"/>
-      <c r="E71" s="141" t="s">
+      <c r="E71" s="140" t="s">
         <v>96</v>
       </c>
-      <c r="F71" s="142"/>
-      <c r="G71" s="142"/>
-      <c r="H71" s="142"/>
-      <c r="I71" s="132">
+      <c r="F71" s="141"/>
+      <c r="G71" s="141"/>
+      <c r="H71" s="141"/>
+      <c r="I71" s="131">
         <v>26</v>
       </c>
-      <c r="J71" s="145">
+      <c r="J71" s="144">
         <v>45803</v>
       </c>
-      <c r="K71" s="133">
+      <c r="K71" s="129">
         <v>45806</v>
       </c>
-      <c r="L71" s="134"/>
-      <c r="M71" s="133"/>
-      <c r="N71" s="133"/>
-      <c r="O71" s="143"/>
-      <c r="P71" s="132">
+      <c r="L71" s="142"/>
+      <c r="M71" s="129"/>
+      <c r="N71" s="129"/>
+      <c r="O71" s="130"/>
+      <c r="P71" s="131">
         <v>0</v>
       </c>
       <c r="Q71" s="55"/>
@@ -13702,18 +13702,18 @@
       <c r="B72" s="99"/>
       <c r="C72" s="108"/>
       <c r="D72" s="110"/>
-      <c r="E72" s="124"/>
-      <c r="F72" s="124"/>
-      <c r="G72" s="124"/>
-      <c r="H72" s="124"/>
-      <c r="I72" s="130"/>
-      <c r="J72" s="125"/>
-      <c r="K72" s="130"/>
-      <c r="L72" s="135"/>
-      <c r="M72" s="130"/>
-      <c r="N72" s="130"/>
-      <c r="O72" s="130"/>
-      <c r="P72" s="130"/>
+      <c r="E72" s="122"/>
+      <c r="F72" s="122"/>
+      <c r="G72" s="122"/>
+      <c r="H72" s="122"/>
+      <c r="I72" s="128"/>
+      <c r="J72" s="123"/>
+      <c r="K72" s="128"/>
+      <c r="L72" s="138"/>
+      <c r="M72" s="128"/>
+      <c r="N72" s="128"/>
+      <c r="O72" s="128"/>
+      <c r="P72" s="128"/>
       <c r="Q72" s="55"/>
       <c r="R72" s="56"/>
       <c r="S72" s="56"/>
@@ -13831,26 +13831,26 @@
       <c r="B73" s="99"/>
       <c r="C73" s="108"/>
       <c r="D73" s="110"/>
-      <c r="E73" s="141" t="s">
+      <c r="E73" s="140" t="s">
         <v>97</v>
       </c>
-      <c r="F73" s="142"/>
-      <c r="G73" s="142"/>
-      <c r="H73" s="142"/>
-      <c r="I73" s="132">
+      <c r="F73" s="141"/>
+      <c r="G73" s="141"/>
+      <c r="H73" s="141"/>
+      <c r="I73" s="131">
         <v>18</v>
       </c>
-      <c r="J73" s="133">
+      <c r="J73" s="129">
         <v>45806</v>
       </c>
-      <c r="K73" s="133">
+      <c r="K73" s="129">
         <v>45810</v>
       </c>
-      <c r="L73" s="134"/>
-      <c r="M73" s="133"/>
-      <c r="N73" s="133"/>
-      <c r="O73" s="143"/>
-      <c r="P73" s="132">
+      <c r="L73" s="142"/>
+      <c r="M73" s="129"/>
+      <c r="N73" s="129"/>
+      <c r="O73" s="130"/>
+      <c r="P73" s="131">
         <v>0</v>
       </c>
       <c r="Q73" s="55"/>
@@ -13970,18 +13970,18 @@
       <c r="B74" s="99"/>
       <c r="C74" s="108"/>
       <c r="D74" s="110"/>
-      <c r="E74" s="124"/>
-      <c r="F74" s="124"/>
-      <c r="G74" s="124"/>
-      <c r="H74" s="124"/>
-      <c r="I74" s="130"/>
-      <c r="J74" s="130"/>
-      <c r="K74" s="130"/>
-      <c r="L74" s="135"/>
-      <c r="M74" s="130"/>
-      <c r="N74" s="130"/>
-      <c r="O74" s="130"/>
-      <c r="P74" s="130"/>
+      <c r="E74" s="122"/>
+      <c r="F74" s="122"/>
+      <c r="G74" s="122"/>
+      <c r="H74" s="122"/>
+      <c r="I74" s="128"/>
+      <c r="J74" s="128"/>
+      <c r="K74" s="128"/>
+      <c r="L74" s="138"/>
+      <c r="M74" s="128"/>
+      <c r="N74" s="128"/>
+      <c r="O74" s="128"/>
+      <c r="P74" s="128"/>
       <c r="Q74" s="55"/>
       <c r="R74" s="56"/>
       <c r="S74" s="56"/>
@@ -14099,26 +14099,26 @@
       <c r="B75" s="99"/>
       <c r="C75" s="108"/>
       <c r="D75" s="110"/>
-      <c r="E75" s="144" t="s">
+      <c r="E75" s="143" t="s">
         <v>98</v>
       </c>
-      <c r="F75" s="121"/>
-      <c r="G75" s="121"/>
-      <c r="H75" s="122"/>
-      <c r="I75" s="132">
+      <c r="F75" s="119"/>
+      <c r="G75" s="119"/>
+      <c r="H75" s="120"/>
+      <c r="I75" s="131">
         <v>8</v>
       </c>
-      <c r="J75" s="133">
+      <c r="J75" s="129">
         <v>45811</v>
       </c>
-      <c r="K75" s="133">
+      <c r="K75" s="129">
         <v>45811</v>
       </c>
-      <c r="L75" s="134"/>
-      <c r="M75" s="133"/>
-      <c r="N75" s="133"/>
-      <c r="O75" s="143"/>
-      <c r="P75" s="132">
+      <c r="L75" s="142"/>
+      <c r="M75" s="129"/>
+      <c r="N75" s="129"/>
+      <c r="O75" s="130"/>
+      <c r="P75" s="131">
         <v>0</v>
       </c>
       <c r="Q75" s="55"/>
@@ -14238,18 +14238,18 @@
       <c r="B76" s="99"/>
       <c r="C76" s="108"/>
       <c r="D76" s="112"/>
-      <c r="E76" s="124"/>
-      <c r="F76" s="124"/>
-      <c r="G76" s="124"/>
-      <c r="H76" s="125"/>
-      <c r="I76" s="130"/>
-      <c r="J76" s="130"/>
-      <c r="K76" s="130"/>
-      <c r="L76" s="135"/>
-      <c r="M76" s="130"/>
-      <c r="N76" s="130"/>
-      <c r="O76" s="130"/>
-      <c r="P76" s="130"/>
+      <c r="E76" s="122"/>
+      <c r="F76" s="122"/>
+      <c r="G76" s="122"/>
+      <c r="H76" s="123"/>
+      <c r="I76" s="128"/>
+      <c r="J76" s="128"/>
+      <c r="K76" s="128"/>
+      <c r="L76" s="138"/>
+      <c r="M76" s="128"/>
+      <c r="N76" s="128"/>
+      <c r="O76" s="128"/>
+      <c r="P76" s="128"/>
       <c r="Q76" s="65"/>
       <c r="R76" s="67"/>
       <c r="S76" s="67"/>
@@ -14366,23 +14366,23 @@
       <c r="A77" s="26"/>
       <c r="B77" s="99"/>
       <c r="C77" s="108"/>
-      <c r="D77" s="137" t="s">
+      <c r="D77" s="145" t="s">
         <v>93</v>
       </c>
-      <c r="E77" s="121"/>
-      <c r="F77" s="121"/>
-      <c r="G77" s="121"/>
-      <c r="H77" s="122"/>
-      <c r="I77" s="138">
+      <c r="E77" s="119"/>
+      <c r="F77" s="119"/>
+      <c r="G77" s="119"/>
+      <c r="H77" s="120"/>
+      <c r="I77" s="139">
         <v>8</v>
       </c>
-      <c r="J77" s="139">
+      <c r="J77" s="132">
         <v>45812</v>
       </c>
-      <c r="K77" s="139">
+      <c r="K77" s="132">
         <v>45812</v>
       </c>
-      <c r="L77" s="140"/>
+      <c r="L77" s="137"/>
       <c r="M77" s="100"/>
       <c r="N77" s="100"/>
       <c r="O77" s="101"/>
@@ -14503,15 +14503,15 @@
       <c r="A78" s="26"/>
       <c r="B78" s="99"/>
       <c r="C78" s="108"/>
-      <c r="D78" s="123"/>
-      <c r="E78" s="124"/>
-      <c r="F78" s="124"/>
-      <c r="G78" s="124"/>
-      <c r="H78" s="125"/>
-      <c r="I78" s="125"/>
-      <c r="J78" s="125"/>
-      <c r="K78" s="125"/>
-      <c r="L78" s="135"/>
+      <c r="D78" s="121"/>
+      <c r="E78" s="122"/>
+      <c r="F78" s="122"/>
+      <c r="G78" s="122"/>
+      <c r="H78" s="123"/>
+      <c r="I78" s="123"/>
+      <c r="J78" s="123"/>
+      <c r="K78" s="123"/>
+      <c r="L78" s="138"/>
       <c r="M78" s="102"/>
       <c r="N78" s="102"/>
       <c r="O78" s="103"/>
@@ -14633,26 +14633,26 @@
       <c r="B79" s="99"/>
       <c r="C79" s="26"/>
       <c r="D79" s="106"/>
-      <c r="E79" s="141" t="s">
+      <c r="E79" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="F79" s="142"/>
-      <c r="G79" s="142"/>
-      <c r="H79" s="142"/>
-      <c r="I79" s="132">
+      <c r="F79" s="141"/>
+      <c r="G79" s="141"/>
+      <c r="H79" s="141"/>
+      <c r="I79" s="131">
         <v>4</v>
       </c>
-      <c r="J79" s="133">
+      <c r="J79" s="129">
         <v>45812</v>
       </c>
-      <c r="K79" s="133">
+      <c r="K79" s="129">
         <v>45812</v>
       </c>
-      <c r="L79" s="134"/>
-      <c r="M79" s="133"/>
-      <c r="N79" s="133"/>
-      <c r="O79" s="143"/>
-      <c r="P79" s="132">
+      <c r="L79" s="142"/>
+      <c r="M79" s="129"/>
+      <c r="N79" s="129"/>
+      <c r="O79" s="130"/>
+      <c r="P79" s="131">
         <v>0</v>
       </c>
       <c r="Q79" s="55"/>
@@ -14772,18 +14772,18 @@
       <c r="B80" s="99"/>
       <c r="C80" s="26"/>
       <c r="D80" s="99"/>
-      <c r="E80" s="124"/>
-      <c r="F80" s="124"/>
-      <c r="G80" s="124"/>
-      <c r="H80" s="124"/>
-      <c r="I80" s="130"/>
-      <c r="J80" s="130"/>
-      <c r="K80" s="130"/>
-      <c r="L80" s="135"/>
-      <c r="M80" s="130"/>
-      <c r="N80" s="130"/>
-      <c r="O80" s="130"/>
-      <c r="P80" s="130"/>
+      <c r="E80" s="122"/>
+      <c r="F80" s="122"/>
+      <c r="G80" s="122"/>
+      <c r="H80" s="122"/>
+      <c r="I80" s="128"/>
+      <c r="J80" s="128"/>
+      <c r="K80" s="128"/>
+      <c r="L80" s="138"/>
+      <c r="M80" s="128"/>
+      <c r="N80" s="128"/>
+      <c r="O80" s="128"/>
+      <c r="P80" s="128"/>
       <c r="Q80" s="55"/>
       <c r="R80" s="56"/>
       <c r="S80" s="56"/>
@@ -14901,26 +14901,26 @@
       <c r="B81" s="99"/>
       <c r="C81" s="26"/>
       <c r="D81" s="99"/>
-      <c r="E81" s="141" t="s">
+      <c r="E81" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="F81" s="142"/>
-      <c r="G81" s="142"/>
-      <c r="H81" s="142"/>
-      <c r="I81" s="132">
+      <c r="F81" s="141"/>
+      <c r="G81" s="141"/>
+      <c r="H81" s="141"/>
+      <c r="I81" s="131">
         <v>4</v>
       </c>
-      <c r="J81" s="133">
+      <c r="J81" s="129">
         <v>45812</v>
       </c>
-      <c r="K81" s="133">
+      <c r="K81" s="129">
         <v>45812</v>
       </c>
-      <c r="L81" s="134"/>
-      <c r="M81" s="133"/>
-      <c r="N81" s="133"/>
-      <c r="O81" s="143"/>
-      <c r="P81" s="132">
+      <c r="L81" s="142"/>
+      <c r="M81" s="129"/>
+      <c r="N81" s="129"/>
+      <c r="O81" s="130"/>
+      <c r="P81" s="131">
         <v>0</v>
       </c>
       <c r="Q81" s="55"/>
@@ -15040,18 +15040,18 @@
       <c r="B82" s="99"/>
       <c r="C82" s="26"/>
       <c r="D82" s="99"/>
-      <c r="E82" s="124"/>
-      <c r="F82" s="124"/>
-      <c r="G82" s="124"/>
-      <c r="H82" s="124"/>
-      <c r="I82" s="130"/>
-      <c r="J82" s="130"/>
-      <c r="K82" s="130"/>
-      <c r="L82" s="135"/>
-      <c r="M82" s="130"/>
-      <c r="N82" s="130"/>
-      <c r="O82" s="130"/>
-      <c r="P82" s="130"/>
+      <c r="E82" s="122"/>
+      <c r="F82" s="122"/>
+      <c r="G82" s="122"/>
+      <c r="H82" s="122"/>
+      <c r="I82" s="128"/>
+      <c r="J82" s="128"/>
+      <c r="K82" s="128"/>
+      <c r="L82" s="138"/>
+      <c r="M82" s="128"/>
+      <c r="N82" s="128"/>
+      <c r="O82" s="128"/>
+      <c r="P82" s="128"/>
       <c r="Q82" s="55"/>
       <c r="R82" s="56"/>
       <c r="S82" s="56"/>
@@ -15169,18 +15169,18 @@
       <c r="B83" s="99"/>
       <c r="C83" s="26"/>
       <c r="D83" s="99"/>
-      <c r="E83" s="144"/>
-      <c r="F83" s="121"/>
-      <c r="G83" s="121"/>
-      <c r="H83" s="122"/>
-      <c r="I83" s="132"/>
-      <c r="J83" s="133"/>
-      <c r="K83" s="133"/>
-      <c r="L83" s="134"/>
-      <c r="M83" s="133"/>
-      <c r="N83" s="133"/>
-      <c r="O83" s="143"/>
-      <c r="P83" s="132">
+      <c r="E83" s="143"/>
+      <c r="F83" s="119"/>
+      <c r="G83" s="119"/>
+      <c r="H83" s="120"/>
+      <c r="I83" s="131"/>
+      <c r="J83" s="129"/>
+      <c r="K83" s="129"/>
+      <c r="L83" s="142"/>
+      <c r="M83" s="129"/>
+      <c r="N83" s="129"/>
+      <c r="O83" s="130"/>
+      <c r="P83" s="131">
         <v>0</v>
       </c>
       <c r="Q83" s="55"/>
@@ -15300,18 +15300,18 @@
       <c r="B84" s="107"/>
       <c r="C84" s="115"/>
       <c r="D84" s="107"/>
-      <c r="E84" s="124"/>
-      <c r="F84" s="124"/>
-      <c r="G84" s="124"/>
-      <c r="H84" s="125"/>
-      <c r="I84" s="130"/>
-      <c r="J84" s="130"/>
-      <c r="K84" s="130"/>
-      <c r="L84" s="135"/>
-      <c r="M84" s="130"/>
-      <c r="N84" s="130"/>
-      <c r="O84" s="130"/>
-      <c r="P84" s="130"/>
+      <c r="E84" s="122"/>
+      <c r="F84" s="122"/>
+      <c r="G84" s="122"/>
+      <c r="H84" s="123"/>
+      <c r="I84" s="128"/>
+      <c r="J84" s="128"/>
+      <c r="K84" s="128"/>
+      <c r="L84" s="138"/>
+      <c r="M84" s="128"/>
+      <c r="N84" s="128"/>
+      <c r="O84" s="128"/>
+      <c r="P84" s="128"/>
       <c r="Q84" s="55"/>
       <c r="R84" s="56"/>
       <c r="S84" s="56"/>
@@ -15426,178 +15426,119 @@
     </row>
   </sheetData>
   <mergeCells count="309">
-    <mergeCell ref="N53:N54"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="P53:P54"/>
-    <mergeCell ref="J61:J62"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="C59:H60"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="L61:L62"/>
-    <mergeCell ref="O55:O56"/>
-    <mergeCell ref="P55:P56"/>
-    <mergeCell ref="E55:H56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="L55:L56"/>
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="N55:N56"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="P49:P50"/>
-    <mergeCell ref="E49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="O47:O48"/>
-    <mergeCell ref="P47:P48"/>
-    <mergeCell ref="E47:H48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="N47:N48"/>
-    <mergeCell ref="P45:P46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="D43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="E45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="C31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="N35:N36"/>
-    <mergeCell ref="O35:O36"/>
-    <mergeCell ref="D33:H34"/>
-    <mergeCell ref="E35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="E39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="E37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="D27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="P29:P30"/>
-    <mergeCell ref="D29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="P25:P26"/>
-    <mergeCell ref="C23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="D25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="C19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="D21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="D15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="D17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="D11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="D13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="CZ4:DV4"/>
-    <mergeCell ref="B7:H8"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="C9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="E41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="P41:P42"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="J63:J64"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="L63:L64"/>
+    <mergeCell ref="M63:M64"/>
+    <mergeCell ref="D51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="E53:H54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="O67:O68"/>
+    <mergeCell ref="E67:H68"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="J67:J68"/>
+    <mergeCell ref="K67:K68"/>
+    <mergeCell ref="L67:L68"/>
+    <mergeCell ref="M67:M68"/>
+    <mergeCell ref="N67:N68"/>
+    <mergeCell ref="O65:O66"/>
+    <mergeCell ref="E65:H66"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="J65:J66"/>
+    <mergeCell ref="K65:K66"/>
+    <mergeCell ref="L65:L66"/>
+    <mergeCell ref="M65:M66"/>
+    <mergeCell ref="N65:N66"/>
+    <mergeCell ref="O75:O76"/>
+    <mergeCell ref="P75:P76"/>
+    <mergeCell ref="E75:H76"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="J75:J76"/>
+    <mergeCell ref="K75:K76"/>
+    <mergeCell ref="L75:L76"/>
+    <mergeCell ref="M75:M76"/>
+    <mergeCell ref="O57:O58"/>
+    <mergeCell ref="P57:P58"/>
+    <mergeCell ref="E57:H58"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="L57:L58"/>
+    <mergeCell ref="M57:M58"/>
+    <mergeCell ref="N57:N58"/>
+    <mergeCell ref="P67:P68"/>
+    <mergeCell ref="P65:P66"/>
+    <mergeCell ref="N63:N64"/>
+    <mergeCell ref="O63:O64"/>
+    <mergeCell ref="P63:P64"/>
+    <mergeCell ref="D61:H62"/>
+    <mergeCell ref="E63:H64"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="K79:K80"/>
+    <mergeCell ref="D77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="J77:J78"/>
+    <mergeCell ref="K77:K78"/>
+    <mergeCell ref="L77:L78"/>
+    <mergeCell ref="E79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="E81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="J81:J82"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="L81:L82"/>
+    <mergeCell ref="M81:M82"/>
+    <mergeCell ref="N81:N82"/>
+    <mergeCell ref="O83:O84"/>
+    <mergeCell ref="P83:P84"/>
+    <mergeCell ref="E83:H84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="J83:J84"/>
+    <mergeCell ref="K83:K84"/>
+    <mergeCell ref="L83:L84"/>
+    <mergeCell ref="M83:M84"/>
+    <mergeCell ref="N83:N84"/>
+    <mergeCell ref="D69:H70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="J69:J70"/>
+    <mergeCell ref="K69:K70"/>
+    <mergeCell ref="L69:L70"/>
+    <mergeCell ref="E71:H72"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="O73:O74"/>
+    <mergeCell ref="P73:P74"/>
+    <mergeCell ref="E73:H74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="J73:J74"/>
+    <mergeCell ref="K73:K74"/>
+    <mergeCell ref="L73:L74"/>
+    <mergeCell ref="M73:M74"/>
+    <mergeCell ref="N73:N74"/>
+    <mergeCell ref="L71:L72"/>
+    <mergeCell ref="M71:M72"/>
+    <mergeCell ref="N71:N72"/>
+    <mergeCell ref="O71:O72"/>
+    <mergeCell ref="P71:P72"/>
+    <mergeCell ref="J71:J72"/>
+    <mergeCell ref="K71:K72"/>
     <mergeCell ref="N75:N76"/>
     <mergeCell ref="L79:L80"/>
     <mergeCell ref="M79:M80"/>
@@ -15622,119 +15563,178 @@
     <mergeCell ref="M45:M46"/>
     <mergeCell ref="N45:N46"/>
     <mergeCell ref="O45:O46"/>
-    <mergeCell ref="D69:H70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="J69:J70"/>
-    <mergeCell ref="K69:K70"/>
-    <mergeCell ref="L69:L70"/>
-    <mergeCell ref="E71:H72"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="O73:O74"/>
-    <mergeCell ref="P73:P74"/>
-    <mergeCell ref="E73:H74"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="J73:J74"/>
-    <mergeCell ref="K73:K74"/>
-    <mergeCell ref="L73:L74"/>
-    <mergeCell ref="M73:M74"/>
-    <mergeCell ref="N73:N74"/>
-    <mergeCell ref="L71:L72"/>
-    <mergeCell ref="M71:M72"/>
-    <mergeCell ref="N71:N72"/>
-    <mergeCell ref="O71:O72"/>
-    <mergeCell ref="P71:P72"/>
-    <mergeCell ref="J71:J72"/>
-    <mergeCell ref="K71:K72"/>
-    <mergeCell ref="O83:O84"/>
-    <mergeCell ref="P83:P84"/>
-    <mergeCell ref="E83:H84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="J83:J84"/>
-    <mergeCell ref="K83:K84"/>
-    <mergeCell ref="L83:L84"/>
-    <mergeCell ref="M83:M84"/>
-    <mergeCell ref="N83:N84"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="E81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="J81:J82"/>
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="L81:L82"/>
-    <mergeCell ref="M81:M82"/>
-    <mergeCell ref="N81:N82"/>
-    <mergeCell ref="J79:J80"/>
-    <mergeCell ref="K79:K80"/>
-    <mergeCell ref="D77:H78"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="J77:J78"/>
-    <mergeCell ref="K77:K78"/>
-    <mergeCell ref="L77:L78"/>
-    <mergeCell ref="E79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="O75:O76"/>
-    <mergeCell ref="P75:P76"/>
-    <mergeCell ref="E75:H76"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="J75:J76"/>
-    <mergeCell ref="K75:K76"/>
-    <mergeCell ref="L75:L76"/>
-    <mergeCell ref="M75:M76"/>
-    <mergeCell ref="O57:O58"/>
-    <mergeCell ref="P57:P58"/>
-    <mergeCell ref="E57:H58"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="L57:L58"/>
-    <mergeCell ref="M57:M58"/>
-    <mergeCell ref="N57:N58"/>
-    <mergeCell ref="P67:P68"/>
-    <mergeCell ref="P65:P66"/>
-    <mergeCell ref="N63:N64"/>
-    <mergeCell ref="O63:O64"/>
-    <mergeCell ref="P63:P64"/>
-    <mergeCell ref="D61:H62"/>
-    <mergeCell ref="E63:H64"/>
-    <mergeCell ref="O67:O68"/>
-    <mergeCell ref="E67:H68"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="J67:J68"/>
-    <mergeCell ref="K67:K68"/>
-    <mergeCell ref="L67:L68"/>
-    <mergeCell ref="M67:M68"/>
-    <mergeCell ref="N67:N68"/>
-    <mergeCell ref="O65:O66"/>
-    <mergeCell ref="E65:H66"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="J65:J66"/>
-    <mergeCell ref="K65:K66"/>
-    <mergeCell ref="L65:L66"/>
-    <mergeCell ref="M65:M66"/>
-    <mergeCell ref="N65:N66"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="J63:J64"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="L63:L64"/>
-    <mergeCell ref="M63:M64"/>
-    <mergeCell ref="D51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="E53:H54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="L53:L54"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="E41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="O41:O42"/>
-    <mergeCell ref="P41:P42"/>
+    <mergeCell ref="CZ4:DV4"/>
+    <mergeCell ref="B7:H8"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="C9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="D11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="D13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="D15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="D17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="C19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="D21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="C23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="D25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="D27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="P29:P30"/>
+    <mergeCell ref="D29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="E39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="E37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="C31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="N35:N36"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="D33:H34"/>
+    <mergeCell ref="E35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="P45:P46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="D43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="E45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="O47:O48"/>
+    <mergeCell ref="P47:P48"/>
+    <mergeCell ref="E47:H48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="N47:N48"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="P49:P50"/>
+    <mergeCell ref="E49:H50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="P53:P54"/>
+    <mergeCell ref="J61:J62"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="C59:H60"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="L61:L62"/>
+    <mergeCell ref="O55:O56"/>
+    <mergeCell ref="P55:P56"/>
+    <mergeCell ref="E55:H56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="N55:N56"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="K53:K54"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
